--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F995E2-F8A8-4CE5-ABD8-04D2CA11D5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A724D882-F692-48C9-A667-D98C5E0DC0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28725" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34110" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="49">
   <si>
     <t>본매 PB</t>
   </si>
@@ -664,10 +664,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:CA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="16.5"/>
@@ -1390,37 +1390,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1486,11 +1486,11 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
@@ -1822,153 +1822,55 @@
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
@@ -1994,21 +1896,21 @@
       <c r="BU7" s="2"/>
       <c r="BV7" s="2"/>
       <c r="BW7" s="8"/>
-      <c r="BX7" s="14">
+      <c r="BX7" s="14" t="str">
         <f>IF(B7="","",COUNTIF(B7:BW7,"P"))</f>
-        <v>20</v>
-      </c>
-      <c r="BY7" s="15">
+        <v/>
+      </c>
+      <c r="BY7" s="15" t="str">
         <f>IF(B7="","",COUNTIF(B7:BW7,"B"))</f>
-        <v>25</v>
-      </c>
-      <c r="BZ7" s="15">
+        <v/>
+      </c>
+      <c r="BZ7" s="15" t="str">
         <f>IF(B7="","",COUNTIF(B7:BW7,"T"))</f>
-        <v>4</v>
-      </c>
-      <c r="CA7" s="16">
+        <v/>
+      </c>
+      <c r="CA7" s="16" t="str">
         <f>IF(B7="","",SUM(BX7:BZ7))</f>
-        <v>49</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2390,7 +2292,7 @@
       <c r="N12" s="2" t="str">
         <f>IF(AL!N60="","",
 IF(OR(AL!N60="P",AL!N60="B"),AL!N60,AL!N77))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AL!O60="","",
@@ -4806,7 +4708,7 @@
   <sheetData>
     <row r="1" spans="1:239" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="20"/>
@@ -4886,7 +4788,7 @@
       <c r="BY1" s="3"/>
       <c r="BZ1" s="3"/>
       <c r="CA1" s="3"/>
-      <c r="CD1" s="39" t="s">
+      <c r="CD1" s="38" t="s">
         <v>13</v>
       </c>
       <c r="CE1" s="20"/>
@@ -5432,27 +5334,27 @@
       <c r="C3" s="2" t="str">
         <f>IF(DATA!C3="","",
 IF(DATA!B3=DATA!C3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IF(DATA!D3="","",
 IF(DATA!C3=DATA!D3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(DATA!D3=DATA!E3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3=DATA!F3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(DATA!F3=DATA!G3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -5477,12 +5379,12 @@
       <c r="L3" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(DATA!K3=DATA!L3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="M3" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(DATA!L3=DATA!M3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="N3" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -5814,31 +5716,31 @@
         <f>IF(DATA!D3="","",
 IF(AL!C3&lt;&gt;AL!D3,AL!C3,
 IF(AL!C3=AL!D3,AL!D3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CH3" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(AL!D3&lt;&gt;AL!E3,AL!D3,
 IF(AL!D3=AL!E3,AL!E3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CI3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(AL!E3&lt;&gt;AL!F3,AL!E3,
 IF(AL!E3=AL!F3,AL!F3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CJ3" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(AL!F3&lt;&gt;AL!G3,AL!F3,
 IF(AL!F3=AL!G3,AL!G3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CK3" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(AL!G3&lt;&gt;AL!H3,AL!G3,
 IF(AL!G3=AL!H3,AL!H3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CL3" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -5868,7 +5770,7 @@
         <f>IF(DATA!M3="","",
 IF(AL!L3&lt;&gt;AL!M3,AL!L3,
 IF(AL!L3=AL!M3,AL!M3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CQ3" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -6243,7 +6145,7 @@
     </row>
     <row r="5" spans="1:239" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="20"/>
@@ -6324,7 +6226,7 @@
       <c r="BZ5" s="3"/>
       <c r="CA5" s="3"/>
       <c r="CC5" s="1"/>
-      <c r="CD5" s="39" t="s">
+      <c r="CD5" s="38" t="s">
         <v>16</v>
       </c>
       <c r="CE5" s="20"/>
@@ -6405,7 +6307,7 @@
       <c r="FB5" s="3"/>
       <c r="FC5" s="3"/>
       <c r="FE5" s="1"/>
-      <c r="FF5" s="39" t="s">
+      <c r="FF5" s="38" t="s">
         <v>17</v>
       </c>
       <c r="FG5" s="20"/>
@@ -7198,7 +7100,7 @@
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7214,7 +7116,7 @@
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7517,7 +7419,7 @@
         <f>IF(DATA!I3="","",
 IF(AL!H7&lt;&gt;AL!I7,AL!H7,
 IF(AL!H7=AL!I7,AL!I7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CM7" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -7541,7 +7443,7 @@
         <f>IF(DATA!M3="","",
 IF(AL!L7&lt;&gt;AL!M7,AL!L7,
 IF(AL!L7=AL!M7,AL!M7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CQ7" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -7932,25 +7834,25 @@
         <f>IF(CH7="","",
 IF(CH7="O",AL!E3,
 IF(CH7="X",AL!D3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FK7" s="2" t="str">
         <f>IF(CI7="","",
 IF(CI7="O",AL!F3,
 IF(CI7="X",AL!E3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FL7" s="2" t="str">
         <f>IF(CJ7="","",
 IF(CJ7="O",AL!G3,
 IF(CJ7="X",AL!F3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FM7" s="2" t="str">
         <f>IF(CK7="","",
 IF(CK7="O",AL!H3,
 IF(CK7="X",AL!G3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FN7" s="2" t="str">
         <f>IF(CL7="","",
@@ -7974,7 +7876,7 @@
         <f>IF(CO7="","",
 IF(CO7="O",AL!L3,
 IF(CO7="X",AL!K3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FR7" s="2" t="str">
         <f>IF(CP7="","",
@@ -8355,7 +8257,7 @@
     </row>
     <row r="9" spans="1:239" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="23"/>
@@ -8436,7 +8338,7 @@
       <c r="BZ9" s="3"/>
       <c r="CA9" s="3"/>
       <c r="CC9" s="3"/>
-      <c r="CD9" s="38" t="s">
+      <c r="CD9" s="39" t="s">
         <v>19</v>
       </c>
       <c r="CE9" s="23"/>
@@ -8517,7 +8419,7 @@
       <c r="FB9" s="3"/>
       <c r="FC9" s="3"/>
       <c r="FE9" s="3"/>
-      <c r="FF9" s="38" t="s">
+      <c r="FF9" s="39" t="s">
         <v>20</v>
       </c>
       <c r="FG9" s="23"/>
@@ -9301,7 +9203,7 @@
         <f>IF(DATA!D3="","",
 IF(DATA!C3&lt;&gt;DATA!D3,DATA!C3,
 IF(DATA!C3=DATA!D3,DATA!D3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>IF(DATA!E3="","",
@@ -9313,7 +9215,7 @@
         <f>IF(DATA!F3="","",
 IF(DATA!E3&lt;&gt;DATA!F3,DATA!E3,
 IF(DATA!E3=DATA!F3,DATA!F3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -9325,31 +9227,31 @@
         <f>IF(DATA!H3="","",
 IF(DATA!G3&lt;&gt;DATA!H3,DATA!G3,
 IF(DATA!G3=DATA!H3,DATA!H3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(DATA!H3&lt;&gt;DATA!I3,DATA!H3,
 IF(DATA!H3=DATA!I3,DATA!I3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(DATA!I3&lt;&gt;DATA!J3,DATA!I3,
 IF(DATA!I3=DATA!J3,DATA!J3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(DATA!J3&lt;&gt;DATA!K3,DATA!J3,
 IF(DATA!J3=DATA!K3,DATA!K3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M11" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(DATA!K3&lt;&gt;DATA!L3,DATA!K3,
 IF(DATA!K3=DATA!L3,DATA!L3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N11" s="2" t="str">
         <f>IF(DATA!M3="","",
@@ -9743,13 +9645,13 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
 IF(AL!CH3="O",DATA!E3,
 IF(AL!CH3="X",DATA!D3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CI11" s="2" t="str">
         <f>IF(AL!CI3="","",
@@ -9761,7 +9663,7 @@
         <f>IF(AL!CJ3="","",
 IF(AL!CJ3="O",DATA!G3,
 IF(AL!CJ3="X",DATA!F3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CK11" s="2" t="str">
         <f>IF(AL!CK3="","",
@@ -9773,19 +9675,19 @@
         <f>IF(AL!CL3="","",
 IF(AL!CL3="O",DATA!I3,
 IF(AL!CL3="X",DATA!H3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CM11" s="2" t="str">
         <f>IF(AL!CM3="","",
 IF(AL!CM3="O",DATA!J3,
 IF(AL!CM3="X",DATA!I3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN11" s="2" t="str">
         <f>IF(AL!CN3="","",
 IF(AL!CN3="O",DATA!K3,
 IF(AL!CN3="X",DATA!J3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO11" s="2" t="str">
         <f>IF(AL!CO3="","",
@@ -9797,7 +9699,7 @@
         <f>IF(AL!CP3="","",
 IF(AL!CP3="O",DATA!M3,
 IF(AL!CP3="X",DATA!L3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ11" s="2" t="str">
         <f>IF(AL!CQ3="","",
@@ -10200,7 +10102,7 @@
         <f>IF(AL!FL7="","",
 IF(AL!FL7="O",DATA!G3,
 IF(AL!FL7="X",DATA!F3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FM11" s="2" t="str">
         <f>IF(AL!FM7="","",
@@ -10212,25 +10114,25 @@
         <f>IF(AL!FN7="","",
 IF(AL!FN7="O",DATA!I3,
 IF(AL!FN7="X",DATA!H3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO11" s="2" t="str">
         <f>IF(AL!FO7="","",
 IF(AL!FO7="O",DATA!J3,
 IF(AL!FO7="X",DATA!I3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP11" s="2" t="str">
         <f>IF(AL!FP7="","",
 IF(AL!FP7="O",DATA!K3,
 IF(AL!FP7="X",DATA!J3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ11" s="2" t="str">
         <f>IF(AL!FQ7="","",
 IF(AL!FQ7="O",DATA!L3,
 IF(AL!FQ7="X",DATA!K3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR11" s="2" t="str">
         <f>IF(AL!FR7="","",
@@ -10611,7 +10513,7 @@
     </row>
     <row r="13" spans="1:239" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="23"/>
@@ -10693,7 +10595,7 @@
       <c r="CA13" s="3"/>
       <c r="CB13" s="3"/>
       <c r="CC13" s="3"/>
-      <c r="CD13" s="38" t="s">
+      <c r="CD13" s="39" t="s">
         <v>22</v>
       </c>
       <c r="CE13" s="23"/>
@@ -10774,7 +10676,7 @@
       <c r="FB13" s="3"/>
       <c r="FC13" s="3"/>
       <c r="FE13" s="3"/>
-      <c r="FF13" s="38" t="s">
+      <c r="FF13" s="39" t="s">
         <v>23</v>
       </c>
       <c r="FG13" s="23"/>
@@ -11583,7 +11485,7 @@
         <f>IF(DATA!H3="","",
 IF(H11="","",
 IF(H11="N","N",IF(DATA!H3=H11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I15" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -11607,7 +11509,7 @@
         <f>IF(DATA!L3="","",
 IF(L11="","",
 IF(L11="N","N",IF(DATA!L3=L11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M15" s="2" t="str">
         <f>IF(DATA!M3="","",
@@ -12023,13 +11925,13 @@
         <f>IF(DATA!F3="","",
 IF(CH11="","",
 IF(CH11="N","N",IF(DATA!F3=CH11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CI15" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(CI11="","",
 IF(CI11="N","N",IF(DATA!G3=CI11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CJ15" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -12041,7 +11943,7 @@
         <f>IF(DATA!I3="","",
 IF(CK11="","",
 IF(CK11="N","N",IF(DATA!I3=CK11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL15" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -12059,13 +11961,13 @@
         <f>IF(DATA!L3="","",
 IF(CN11="","",
 IF(CN11="N","N",IF(DATA!L3=CN11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO15" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(CO11="","",
 IF(CO11="N","N",IF(DATA!M3=CO11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP15" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -12480,7 +12382,7 @@
         <f>IF(DATA!G3="","",
 IF(FK11="","",
 IF(FK11="N","N",IF(DATA!G3=FK11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FL15" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -12492,7 +12394,7 @@
         <f>IF(DATA!I3="","",
 IF(FM11="","",
 IF(FM11="N","N",IF(DATA!I3=FM11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FN15" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -12510,7 +12412,7 @@
         <f>IF(DATA!L3="","",
 IF(FP11="","",
 IF(FP11="N","N",IF(DATA!L3=FP11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ15" s="2" t="str">
         <f>IF(DATA!M3="","",
@@ -12900,7 +12802,7 @@
     </row>
     <row r="17" spans="1:239" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="39" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="23"/>
@@ -12981,7 +12883,7 @@
       <c r="BZ17" s="3"/>
       <c r="CA17" s="3"/>
       <c r="CC17" s="3"/>
-      <c r="CD17" s="38" t="s">
+      <c r="CD17" s="39" t="s">
         <v>25</v>
       </c>
       <c r="CE17" s="23"/>
@@ -13062,7 +12964,7 @@
       <c r="FB17" s="3"/>
       <c r="FC17" s="3"/>
       <c r="FE17" s="3"/>
-      <c r="FF17" s="38" t="s">
+      <c r="FF17" s="39" t="s">
         <v>26</v>
       </c>
       <c r="FG17" s="23"/>
@@ -13860,7 +13762,7 @@
 IF(AL!I11="N","N",
 IF(COUNTIF(AL!E15:H15,"W")&gt;=2,AL!I11,
 IF(COUNTIF(AL!E15:H15,"W")&lt;2,IF(AL!I11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J19" s="2" t="str">
         <f>IF(AL!J11="","",
@@ -13881,21 +13783,21 @@
 IF(AL!L11="N","N",
 IF(COUNTIF(AL!H15:K15,"W")&gt;=2,AL!L11,
 IF(COUNTIF(AL!H15:K15,"W")&lt;2,IF(AL!L11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>IF(AL!M11="","",
 IF(AL!M11="N","N",
 IF(COUNTIF(AL!I15:L15,"W")&gt;=2,AL!M11,
 IF(COUNTIF(AL!I15:L15,"W")&lt;2,IF(AL!M11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>IF(AL!N11="","",
 IF(AL!N11="N","N",
 IF(COUNTIF(AL!J15:M15,"W")&gt;=2,AL!N11,
 IF(COUNTIF(AL!J15:M15,"W")&lt;2,IF(AL!N11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>IF(AL!O11="","",
@@ -14371,7 +14273,7 @@
 IF(AL!CM11="N","N",
 IF(COUNTIF(AL!CI15:CL15,"W")&gt;=2,AL!CM11,
 IF(COUNTIF(AL!CI15:CL15,"W")&lt;2,IF(AL!CM11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN19" s="2" t="str">
         <f>IF(AL!CN11="","",
@@ -14392,7 +14294,7 @@
 IF(AL!CP11="N","N",
 IF(COUNTIF(AL!CL15:CO15,"W")&gt;=2,AL!CP11,
 IF(COUNTIF(AL!CL15:CO15,"W")&lt;2,IF(AL!CP11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ19" s="2" t="str">
         <f>IF(AL!CQ11="","",
@@ -14857,14 +14759,14 @@
 IF(AL!FN11="N","N",
 IF(COUNTIF(AL!FJ15:FM15,"W")&gt;=2,AL!FN11,
 IF(COUNTIF(AL!FJ15:FM15,"W")&lt;2,IF(AL!FN11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO19" s="2" t="str">
         <f>IF(AL!FO11="","",
 IF(AL!FO11="N","N",
 IF(COUNTIF(AL!FK15:FN15,"W")&gt;=2,AL!FO11,
 IF(COUNTIF(AL!FK15:FN15,"W")&lt;2,IF(AL!FO11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP19" s="2" t="str">
         <f>IF(AL!FP11="","",
@@ -14878,14 +14780,14 @@
 IF(AL!FQ11="N","N",
 IF(COUNTIF(AL!FM15:FP15,"W")&gt;=2,AL!FQ11,
 IF(COUNTIF(AL!FM15:FP15,"W")&lt;2,IF(AL!FQ11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR19" s="2" t="str">
         <f>IF(AL!FR11="","",
 IF(AL!FR11="N","N",
 IF(COUNTIF(AL!FN15:FQ15,"W")&gt;=2,AL!FR11,
 IF(COUNTIF(AL!FN15:FQ15,"W")&lt;2,IF(AL!FR11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS19" s="2" t="str">
         <f>IF(AL!FS11="","",
@@ -15321,7 +15223,7 @@
     </row>
     <row r="21" spans="1:239" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="39" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="23"/>
@@ -15403,7 +15305,7 @@
       <c r="CA21" s="3"/>
       <c r="CB21" s="3"/>
       <c r="CC21" s="3"/>
-      <c r="CD21" s="38" t="s">
+      <c r="CD21" s="39" t="s">
         <v>28</v>
       </c>
       <c r="CE21" s="23"/>
@@ -15484,7 +15386,7 @@
       <c r="FB21" s="3"/>
       <c r="FC21" s="3"/>
       <c r="FE21" s="3"/>
-      <c r="FF21" s="38" t="s">
+      <c r="FF21" s="39" t="s">
         <v>29</v>
       </c>
       <c r="FG21" s="23"/>
@@ -16293,7 +16195,7 @@
         <f>IF(DATA!H$3="","",
 IF(H19="","",
 IF(H19="N","N",IF(DATA!H$3=H19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I23" s="2" t="str">
         <f>IF(DATA!I$3="","",
@@ -16305,19 +16207,19 @@
         <f>IF(DATA!J$3="","",
 IF(J19="","",
 IF(J19="N","N",IF(DATA!J$3=J19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K23" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(K19="","",
 IF(K19="N","N",IF(DATA!K$3=K19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L19="","",
 IF(L19="N","N",IF(DATA!L$3=L19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M23" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -16751,13 +16653,13 @@
         <f>IF(DATA!I$3="","",
 IF(CK19="","",
 IF(CK19="N","N",IF(DATA!I$3=CK19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL23" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL19="","",
 IF(CL19="N","N",IF(DATA!J$3=CL19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM23" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -16775,7 +16677,7 @@
         <f>IF(DATA!M$3="","",
 IF(CO19="","",
 IF(CO19="N","N",IF(DATA!M$3=CO19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP23" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -17607,7 +17509,7 @@
     </row>
     <row r="25" spans="1:239" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="23"/>
@@ -17688,7 +17590,7 @@
       <c r="BZ25" s="3"/>
       <c r="CA25" s="3"/>
       <c r="CC25" s="3"/>
-      <c r="CD25" s="38" t="s">
+      <c r="CD25" s="39" t="s">
         <v>25</v>
       </c>
       <c r="CE25" s="23"/>
@@ -17769,7 +17671,7 @@
       <c r="FB25" s="3"/>
       <c r="FC25" s="3"/>
       <c r="FE25" s="3"/>
-      <c r="FF25" s="38" t="s">
+      <c r="FF25" s="39" t="s">
         <v>26</v>
       </c>
       <c r="FG25" s="23"/>
@@ -18567,7 +18469,7 @@
 IF(AL!I19="N","N",
 IF(COUNTIF(AL!E23:H23,"W")&gt;=2,AL!I19,
 IF(COUNTIF(AL!E23:H23,"W")&lt;2,IF(AL!I19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J27" s="2" t="str">
         <f>IF(AL!J19="","",
@@ -18581,7 +18483,7 @@
 IF(AL!K19="N","N",
 IF(COUNTIF(AL!G23:J23,"W")&gt;=2,AL!K19,
 IF(COUNTIF(AL!G23:J23,"W")&lt;2,IF(AL!K19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L27" s="2" t="str">
         <f>IF(AL!L19="","",
@@ -19085,21 +18987,21 @@
 IF(AL!CN19="N","N",
 IF(COUNTIF(AL!CJ23:CM23,"W")&gt;=2,AL!CN19,
 IF(COUNTIF(AL!CJ23:CM23,"W")&lt;2,IF(AL!CN19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO27" s="2" t="str">
         <f>IF(AL!CO19="","",
 IF(AL!CO19="N","N",
 IF(COUNTIF(AL!CK23:CN23,"W")&gt;=2,AL!CO19,
 IF(COUNTIF(AL!CK23:CN23,"W")&lt;2,IF(AL!CO19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP27" s="2" t="str">
         <f>IF(AL!CP19="","",
 IF(AL!CP19="N","N",
 IF(COUNTIF(AL!CL23:CO23,"W")&gt;=2,AL!CP19,
 IF(COUNTIF(AL!CL23:CO23,"W")&lt;2,IF(AL!CP19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ27" s="2" t="str">
         <f>IF(AL!CQ19="","",
@@ -19564,14 +19466,14 @@
 IF(AL!FN19="N","N",
 IF(COUNTIF(AL!FJ23:FM23,"W")&gt;=2,AL!FN19,
 IF(COUNTIF(AL!FJ23:FM23,"W")&lt;2,IF(AL!FN19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO27" s="2" t="str">
         <f>IF(AL!FO19="","",
 IF(AL!FO19="N","N",
 IF(COUNTIF(AL!FK23:FN23,"W")&gt;=2,AL!FO19,
 IF(COUNTIF(AL!FK23:FN23,"W")&lt;2,IF(AL!FO19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP27" s="2" t="str">
         <f>IF(AL!FP19="","",
@@ -19585,14 +19487,14 @@
 IF(AL!FQ19="N","N",
 IF(COUNTIF(AL!FM23:FP23,"W")&gt;=2,AL!FQ19,
 IF(COUNTIF(AL!FM23:FP23,"W")&lt;2,IF(AL!FQ19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR27" s="2" t="str">
         <f>IF(AL!FR19="","",
 IF(AL!FR19="N","N",
 IF(COUNTIF(AL!FN23:FQ23,"W")&gt;=2,AL!FR19,
 IF(COUNTIF(AL!FN23:FQ23,"W")&lt;2,IF(AL!FR19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS27" s="2" t="str">
         <f>IF(AL!FS19="","",
@@ -20028,7 +19930,7 @@
     </row>
     <row r="29" spans="1:239" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="39" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="23"/>
@@ -20110,7 +20012,7 @@
       <c r="CA29" s="3"/>
       <c r="CB29" s="3"/>
       <c r="CC29" s="3"/>
-      <c r="CD29" s="38" t="s">
+      <c r="CD29" s="39" t="s">
         <v>28</v>
       </c>
       <c r="CE29" s="23"/>
@@ -20191,7 +20093,7 @@
       <c r="FB29" s="3"/>
       <c r="FC29" s="3"/>
       <c r="FE29" s="3"/>
-      <c r="FF29" s="38" t="s">
+      <c r="FF29" s="39" t="s">
         <v>29</v>
       </c>
       <c r="FG29" s="23"/>
@@ -21000,7 +20902,7 @@
         <f>IF(DATA!H$3="","",
 IF(H27="","",
 IF(H27="N","N",IF(DATA!H$3=H27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>IF(DATA!I$3="","",
@@ -21012,7 +20914,7 @@
         <f>IF(DATA!J$3="","",
 IF(J27="","",
 IF(J27="N","N",IF(DATA!J$3=J27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -21030,7 +20932,7 @@
         <f>IF(DATA!M$3="","",
 IF(M27="","",
 IF(M27="N","N",IF(DATA!M$3=M27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -21458,25 +21360,25 @@
         <f>IF(DATA!I$3="","",
 IF(CK27="","",
 IF(CK27="N","N",IF(DATA!I$3=CK27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL31" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL27="","",
 IF(CL27="N","N",IF(DATA!J$3=CL27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM31" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM27="","",
 IF(CM27="N","N",IF(DATA!K$3=CM27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN31" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN27="","",
 IF(CN27="N","N",IF(DATA!L$3=CN27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO31" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -22314,7 +22216,7 @@
     </row>
     <row r="33" spans="1:239" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="23"/>
@@ -22395,7 +22297,7 @@
       <c r="BZ33" s="3"/>
       <c r="CA33" s="3"/>
       <c r="CC33" s="3"/>
-      <c r="CD33" s="38" t="s">
+      <c r="CD33" s="39" t="s">
         <v>25</v>
       </c>
       <c r="CE33" s="23"/>
@@ -22476,7 +22378,7 @@
       <c r="FB33" s="3"/>
       <c r="FC33" s="3"/>
       <c r="FE33" s="3"/>
-      <c r="FF33" s="38" t="s">
+      <c r="FF33" s="39" t="s">
         <v>26</v>
       </c>
       <c r="FG33" s="23"/>
@@ -23274,14 +23176,14 @@
 IF(AL!I27="N","N",
 IF(COUNTIF(AL!E31:H31,"W")&gt;=2,AL!I27,
 IF(COUNTIF(AL!E31:H31,"W")&lt;2,IF(AL!I27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J35" s="2" t="str">
         <f>IF(AL!J27="","",
 IF(AL!J27="N","N",
 IF(COUNTIF(AL!F31:I31,"W")&gt;=2,AL!J27,
 IF(COUNTIF(AL!F31:I31,"W")&lt;2,IF(AL!J27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K35" s="2" t="str">
         <f>IF(AL!K27="","",
@@ -23295,7 +23197,7 @@
 IF(AL!L27="N","N",
 IF(COUNTIF(AL!H31:K31,"W")&gt;=2,AL!L27,
 IF(COUNTIF(AL!H31:K31,"W")&lt;2,IF(AL!L27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M35" s="2" t="str">
         <f>IF(AL!M27="","",
@@ -23309,7 +23211,7 @@
 IF(AL!N27="N","N",
 IF(COUNTIF(AL!J31:M31,"W")&gt;=2,AL!N27,
 IF(COUNTIF(AL!J31:M31,"W")&lt;2,IF(AL!N27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O35" s="2" t="str">
         <f>IF(AL!O27="","",
@@ -23785,7 +23687,7 @@
 IF(AL!CM27="N","N",
 IF(COUNTIF(AL!CI31:CL31,"W")&gt;=2,AL!CM27,
 IF(COUNTIF(AL!CI31:CL31,"W")&lt;2,IF(AL!CM27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN35" s="2" t="str">
         <f>IF(AL!CN27="","",
@@ -24271,14 +24173,14 @@
 IF(AL!FN27="N","N",
 IF(COUNTIF(AL!FJ31:FM31,"W")&gt;=2,AL!FN27,
 IF(COUNTIF(AL!FJ31:FM31,"W")&lt;2,IF(AL!FN27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO35" s="2" t="str">
         <f>IF(AL!FO27="","",
 IF(AL!FO27="N","N",
 IF(COUNTIF(AL!FK31:FN31,"W")&gt;=2,AL!FO27,
 IF(COUNTIF(AL!FK31:FN31,"W")&lt;2,IF(AL!FO27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP35" s="2" t="str">
         <f>IF(AL!FP27="","",
@@ -24292,14 +24194,14 @@
 IF(AL!FQ27="N","N",
 IF(COUNTIF(AL!FM31:FP31,"W")&gt;=2,AL!FQ27,
 IF(COUNTIF(AL!FM31:FP31,"W")&lt;2,IF(AL!FQ27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR35" s="2" t="str">
         <f>IF(AL!FR27="","",
 IF(AL!FR27="N","N",
 IF(COUNTIF(AL!FN31:FQ31,"W")&gt;=2,AL!FR27,
 IF(COUNTIF(AL!FN31:FQ31,"W")&lt;2,IF(AL!FR27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS35" s="2" t="str">
         <f>IF(AL!FS27="","",
@@ -24735,7 +24637,7 @@
     </row>
     <row r="37" spans="1:239" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="39" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="23"/>
@@ -24817,7 +24719,7 @@
       <c r="CA37" s="3"/>
       <c r="CB37" s="3"/>
       <c r="CC37" s="3"/>
-      <c r="CD37" s="38" t="s">
+      <c r="CD37" s="39" t="s">
         <v>28</v>
       </c>
       <c r="CE37" s="23"/>
@@ -24898,7 +24800,7 @@
       <c r="FB37" s="3"/>
       <c r="FC37" s="3"/>
       <c r="FE37" s="3"/>
-      <c r="FF37" s="38" t="s">
+      <c r="FF37" s="39" t="s">
         <v>29</v>
       </c>
       <c r="FG37" s="23"/>
@@ -25707,7 +25609,7 @@
         <f>IF(DATA!H$3="","",
 IF(H35="","",
 IF(H35="N","N",IF(DATA!H$3=H35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>IF(DATA!I$3="","",
@@ -25725,19 +25627,19 @@
         <f>IF(DATA!K$3="","",
 IF(K35="","",
 IF(K35="N","N",IF(DATA!K$3=K35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L35="","",
 IF(L35="N","N",IF(DATA!L$3=L35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M39" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M35="","",
 IF(M35="N","N",IF(DATA!M$3=M35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N39" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -26165,13 +26067,13 @@
         <f>IF(DATA!I$3="","",
 IF(CK35="","",
 IF(CK35="N","N",IF(DATA!I$3=CK35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL39" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL35="","",
 IF(CL35="N","N",IF(DATA!J$3=CL35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM39" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -26189,7 +26091,7 @@
         <f>IF(DATA!M$3="","",
 IF(CO35="","",
 IF(CO35="N","N",IF(DATA!M$3=CO35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP39" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -27021,7 +26923,7 @@
     </row>
     <row r="41" spans="1:239" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="23"/>
@@ -27102,7 +27004,7 @@
       <c r="BZ41" s="3"/>
       <c r="CA41" s="3"/>
       <c r="CC41" s="3"/>
-      <c r="CD41" s="38" t="s">
+      <c r="CD41" s="39" t="s">
         <v>25</v>
       </c>
       <c r="CE41" s="23"/>
@@ -27183,7 +27085,7 @@
       <c r="FB41" s="3"/>
       <c r="FC41" s="3"/>
       <c r="FE41" s="3"/>
-      <c r="FF41" s="38" t="s">
+      <c r="FF41" s="39" t="s">
         <v>26</v>
       </c>
       <c r="FG41" s="23"/>
@@ -27981,21 +27883,21 @@
 IF(AL!I35="N","N",
 IF(COUNTIF(AL!E39:H39,"W")&gt;=2,AL!I35,
 IF(COUNTIF(AL!E39:H39,"W")&lt;2,IF(AL!I35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(AL!J35="","",
 IF(AL!J35="N","N",
 IF(COUNTIF(AL!F39:I39,"W")&gt;=2,AL!J35,
 IF(COUNTIF(AL!F39:I39,"W")&lt;2,IF(AL!J35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(AL!K35="","",
 IF(AL!K35="N","N",
 IF(COUNTIF(AL!G39:J39,"W")&gt;=2,AL!K35,
 IF(COUNTIF(AL!G39:J39,"W")&lt;2,IF(AL!K35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L43" s="2" t="str">
         <f>IF(AL!L35="","",
@@ -28016,7 +27918,7 @@
 IF(AL!N35="N","N",
 IF(COUNTIF(AL!J39:M39,"W")&gt;=2,AL!N35,
 IF(COUNTIF(AL!J39:M39,"W")&lt;2,IF(AL!N35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O43" s="2" t="str">
         <f>IF(AL!O35="","",
@@ -28499,7 +28401,7 @@
 IF(AL!CN35="N","N",
 IF(COUNTIF(AL!CJ39:CM39,"W")&gt;=2,AL!CN35,
 IF(COUNTIF(AL!CJ39:CM39,"W")&lt;2,IF(AL!CN35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO43" s="2" t="str">
         <f>IF(AL!CO35="","",
@@ -28978,14 +28880,14 @@
 IF(AL!FN35="N","N",
 IF(COUNTIF(AL!FJ39:FM39,"W")&gt;=2,AL!FN35,
 IF(COUNTIF(AL!FJ39:FM39,"W")&lt;2,IF(AL!FN35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO43" s="2" t="str">
         <f>IF(AL!FO35="","",
 IF(AL!FO35="N","N",
 IF(COUNTIF(AL!FK39:FN39,"W")&gt;=2,AL!FO35,
 IF(COUNTIF(AL!FK39:FN39,"W")&lt;2,IF(AL!FO35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP43" s="2" t="str">
         <f>IF(AL!FP35="","",
@@ -28999,14 +28901,14 @@
 IF(AL!FQ35="N","N",
 IF(COUNTIF(AL!FM39:FP39,"W")&gt;=2,AL!FQ35,
 IF(COUNTIF(AL!FM39:FP39,"W")&lt;2,IF(AL!FQ35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR43" s="2" t="str">
         <f>IF(AL!FR35="","",
 IF(AL!FR35="N","N",
 IF(COUNTIF(AL!FN39:FQ39,"W")&gt;=2,AL!FR35,
 IF(COUNTIF(AL!FN39:FQ39,"W")&lt;2,IF(AL!FR35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS43" s="2" t="str">
         <f>IF(AL!FS35="","",
@@ -29442,7 +29344,7 @@
     </row>
     <row r="45" spans="1:239" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="39" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="23"/>
@@ -29524,7 +29426,7 @@
       <c r="CA45" s="3"/>
       <c r="CB45" s="3"/>
       <c r="CC45" s="3"/>
-      <c r="CD45" s="38" t="s">
+      <c r="CD45" s="39" t="s">
         <v>28</v>
       </c>
       <c r="CE45" s="23"/>
@@ -29605,7 +29507,7 @@
       <c r="FB45" s="3"/>
       <c r="FC45" s="3"/>
       <c r="FE45" s="3"/>
-      <c r="FF45" s="38" t="s">
+      <c r="FF45" s="39" t="s">
         <v>29</v>
       </c>
       <c r="FG45" s="23"/>
@@ -30414,7 +30316,7 @@
         <f>IF(DATA!H$3="","",
 IF(H43="","",
 IF(H43="N","N",IF(DATA!H$3=H43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>IF(DATA!I$3="","",
@@ -30444,7 +30346,7 @@
         <f>IF(DATA!M$3="","",
 IF(M43="","",
 IF(M43="N","N",IF(DATA!M$3=M43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N47" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -30872,31 +30774,31 @@
         <f>IF(DATA!I$3="","",
 IF(CK43="","",
 IF(CK43="N","N",IF(DATA!I$3=CK43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL47" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL43="","",
 IF(CL43="N","N",IF(DATA!J$3=CL43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM47" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM43="","",
 IF(CM43="N","N",IF(DATA!K$3=CM43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN47" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN43="","",
 IF(CN43="N","N",IF(DATA!L$3=CN43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO47" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO43="","",
 IF(CO43="N","N",IF(DATA!M$3=CO43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP47" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -31728,7 +31630,7 @@
     </row>
     <row r="49" spans="1:239" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="39" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="23"/>
@@ -31810,7 +31712,7 @@
       <c r="CA49" s="3"/>
       <c r="CB49" s="3"/>
       <c r="CC49" s="3"/>
-      <c r="CD49" s="38" t="s">
+      <c r="CD49" s="39" t="s">
         <v>34</v>
       </c>
       <c r="CE49" s="23"/>
@@ -31891,7 +31793,7 @@
       <c r="FB49" s="3"/>
       <c r="FC49" s="3"/>
       <c r="FE49" s="3"/>
-      <c r="FF49" s="38" t="s">
+      <c r="FF49" s="39" t="s">
         <v>35</v>
       </c>
       <c r="FG49" s="23"/>
@@ -34263,7 +34165,7 @@
       </c>
       <c r="FR52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS52" s="2" t="str">
         <f t="shared" si="18"/>
@@ -34524,7 +34426,7 @@
     </row>
     <row r="54" spans="1:239" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="23"/>
@@ -34606,7 +34508,7 @@
       <c r="CA54" s="3"/>
       <c r="CB54" s="3"/>
       <c r="CC54" s="3"/>
-      <c r="CD54" s="38" t="s">
+      <c r="CD54" s="39" t="s">
         <v>37</v>
       </c>
       <c r="CE54" s="23"/>
@@ -34687,7 +34589,7 @@
       <c r="FB54" s="3"/>
       <c r="FC54" s="3"/>
       <c r="FE54" s="3"/>
-      <c r="FF54" s="38" t="s">
+      <c r="FF54" s="39" t="s">
         <v>38</v>
       </c>
       <c r="FG54" s="23"/>
@@ -36810,7 +36712,7 @@
     </row>
     <row r="58" spans="1:239" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C58" s="23"/>
@@ -37506,7 +37408,7 @@
       </c>
       <c r="N60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -37946,7 +37848,7 @@
     </row>
     <row r="62" spans="1:239" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C62" s="23"/>
@@ -38711,7 +38613,7 @@
     </row>
     <row r="66" spans="1:239" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="23"/>
@@ -38793,7 +38695,7 @@
       <c r="CA66" s="3"/>
       <c r="CB66" s="3"/>
       <c r="CC66" s="3"/>
-      <c r="CD66" s="38" t="s">
+      <c r="CD66" s="39" t="s">
         <v>41</v>
       </c>
       <c r="CE66" s="23"/>
@@ -38874,7 +38776,7 @@
       <c r="FB66" s="3"/>
       <c r="FC66" s="3"/>
       <c r="FE66" s="3"/>
-      <c r="FF66" s="38" t="s">
+      <c r="FF66" s="39" t="s">
         <v>41</v>
       </c>
       <c r="FG66" s="23"/>
@@ -41246,7 +41148,7 @@
       </c>
       <c r="FR69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS69" s="2" t="str">
         <f t="shared" si="39"/>
@@ -41507,7 +41409,7 @@
     </row>
     <row r="71" spans="1:239" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C71" s="23"/>
@@ -41589,7 +41491,7 @@
       <c r="CA71" s="3"/>
       <c r="CB71" s="3"/>
       <c r="CC71" s="3"/>
-      <c r="CD71" s="38" t="s">
+      <c r="CD71" s="39" t="s">
         <v>43</v>
       </c>
       <c r="CE71" s="23"/>
@@ -41670,7 +41572,7 @@
       <c r="FB71" s="3"/>
       <c r="FC71" s="3"/>
       <c r="FE71" s="3"/>
-      <c r="FF71" s="38" t="s">
+      <c r="FF71" s="39" t="s">
         <v>44</v>
       </c>
       <c r="FG71" s="23"/>
@@ -43793,7 +43695,7 @@
     </row>
     <row r="75" spans="1:239" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C75" s="23"/>
@@ -44489,7 +44391,7 @@
       </c>
       <c r="N77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -44929,7 +44831,7 @@
     </row>
     <row r="79" spans="1:239" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C79" s="23"/>
@@ -47545,65 +47447,65 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B83:N83"/>
+    <mergeCell ref="CD66:CP66"/>
+    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="FF75:FR75"/>
+    <mergeCell ref="CD13:CP13"/>
     <mergeCell ref="CD83:CP83"/>
+    <mergeCell ref="CD45:CP45"/>
+    <mergeCell ref="FF54:FR54"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="CD21:CP21"/>
+    <mergeCell ref="CD29:CP29"/>
+    <mergeCell ref="FF29:FR29"/>
     <mergeCell ref="FF21:FR21"/>
     <mergeCell ref="CD17:CP17"/>
+    <mergeCell ref="B37:N37"/>
     <mergeCell ref="FF66:FR66"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="FF17:FR17"/>
-    <mergeCell ref="FF54:FR54"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="FF75:FR75"/>
-    <mergeCell ref="CD13:CP13"/>
     <mergeCell ref="B79:N79"/>
+    <mergeCell ref="CD25:CP25"/>
+    <mergeCell ref="FF37:FR37"/>
+    <mergeCell ref="B41:N41"/>
     <mergeCell ref="B75:N75"/>
+    <mergeCell ref="CD33:CP33"/>
+    <mergeCell ref="FF33:FR33"/>
     <mergeCell ref="B62:N62"/>
     <mergeCell ref="CD49:CP49"/>
     <mergeCell ref="FF49:FR49"/>
+    <mergeCell ref="B25:N25"/>
     <mergeCell ref="B54:N54"/>
-    <mergeCell ref="FF37:FR37"/>
-    <mergeCell ref="CD33:CP33"/>
-    <mergeCell ref="FF33:FR33"/>
-    <mergeCell ref="CD9:CP9"/>
-    <mergeCell ref="FF5:FR5"/>
-    <mergeCell ref="CD21:CP21"/>
-    <mergeCell ref="CD29:CP29"/>
-    <mergeCell ref="FF29:FR29"/>
+    <mergeCell ref="CD37:CP37"/>
+    <mergeCell ref="B49:N49"/>
+    <mergeCell ref="CD71:CP71"/>
     <mergeCell ref="CD5:CP5"/>
-    <mergeCell ref="FF13:FR13"/>
-    <mergeCell ref="CD37:CP37"/>
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B45:N45"/>
-    <mergeCell ref="CD25:CP25"/>
-    <mergeCell ref="B41:N41"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="CD45:CP45"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="B33:N33"/>
-    <mergeCell ref="CD1:CP1"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="FF9:FR9"/>
-    <mergeCell ref="FF25:FR25"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B87:N87"/>
-    <mergeCell ref="CD58:CP58"/>
-    <mergeCell ref="FF83:FR83"/>
-    <mergeCell ref="CD41:CP41"/>
-    <mergeCell ref="FF41:FR41"/>
-    <mergeCell ref="CD75:CP75"/>
-    <mergeCell ref="FF58:FR58"/>
-    <mergeCell ref="FF71:FR71"/>
-    <mergeCell ref="CD71:CP71"/>
     <mergeCell ref="B71:N71"/>
     <mergeCell ref="FF45:FR45"/>
     <mergeCell ref="CD54:CP54"/>
     <mergeCell ref="B58:N58"/>
-    <mergeCell ref="B49:N49"/>
-    <mergeCell ref="B83:N83"/>
-    <mergeCell ref="CD66:CP66"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B45:N45"/>
+    <mergeCell ref="CD9:CP9"/>
+    <mergeCell ref="FF5:FR5"/>
+    <mergeCell ref="FF13:FR13"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="FF17:FR17"/>
+    <mergeCell ref="B87:N87"/>
+    <mergeCell ref="CD58:CP58"/>
+    <mergeCell ref="CD1:CP1"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="FF83:FR83"/>
+    <mergeCell ref="FF41:FR41"/>
+    <mergeCell ref="CD41:CP41"/>
+    <mergeCell ref="CD75:CP75"/>
+    <mergeCell ref="FF58:FR58"/>
+    <mergeCell ref="FF9:FR9"/>
+    <mergeCell ref="FF25:FR25"/>
+    <mergeCell ref="FF71:FR71"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B29:N29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5528D19D-8B45-4D1B-8F8E-F056B21DA354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B1D173-FA89-495F-87E8-21679C7BE6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="54">
   <si>
     <t>본매 PB</t>
   </si>
@@ -36,10 +36,10 @@
     <t>S</t>
   </si>
   <si>
-    <t>본매 PTB</t>
+    <t>T</t>
   </si>
   <si>
-    <t>T</t>
+    <t>본매 PTB</t>
   </si>
   <si>
     <t>예상 PICK</t>
@@ -1497,37 +1497,47 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1589,22 +1599,22 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -1915,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="BZ6" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA6" s="17" t="s">
         <v>3</v>
@@ -2378,23 +2388,23 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N23="","",AI!N23)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O23="","",AI!O23)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P23="","",AI!P23)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q23="","",AI!Q23)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R23="","",AI!R23)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S23="","",AI!S23)</f>
@@ -2997,23 +3007,23 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M24="","",AI!M24)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N24="","",AI!N24)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O24="","",AI!O24)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P24="","",AI!P24)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q24="","",AI!Q24)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R24="","",AI!R24)</f>
@@ -3253,16 +3263,16 @@
       </c>
       <c r="BX16" s="14">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="15">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="16">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4875,22 +4885,22 @@
       <c r="E3" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(DATA!D3=DATA!E3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3=DATA!F3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(DATA!F3=DATA!G3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(DATA!G3=DATA!H3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -4910,27 +4920,27 @@
       <c r="L3" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(DATA!K3=DATA!L3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M3" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(DATA!L3=DATA!M3,"O","X"))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="N3" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3=DATA!N3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(DATA!N3=DATA!O3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P3" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(DATA!O3=DATA!P3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Q3" s="2" t="str">
         <f>IF(DATA!Q3="","",
@@ -5259,25 +5269,25 @@
         <f>IF(DATA!F3="","",
 IF(AL!E3&lt;&gt;AL!F3,AL!E3,
 IF(AL!E3=AL!F3,AL!F3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CJ3" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(AL!F3&lt;&gt;AL!G3,AL!F3,
 IF(AL!F3=AL!G3,AL!G3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CK3" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(AL!G3&lt;&gt;AL!H3,AL!G3,
 IF(AL!G3=AL!H3,AL!H3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CL3" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(AL!H3&lt;&gt;AL!I3,AL!H3,
 IF(AL!H3=AL!I3,AL!I3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CM3" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -5295,31 +5305,31 @@
         <f>IF(DATA!L3="","",
 IF(AL!K3&lt;&gt;AL!L3,AL!K3,
 IF(AL!K3=AL!L3,AL!L3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CP3" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(AL!L3&lt;&gt;AL!M3,AL!L3,
 IF(AL!L3=AL!M3,AL!M3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CQ3" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(AL!M3&lt;&gt;AL!N3,AL!M3,
 IF(AL!M3=AL!N3,AL!N3)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CR3" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(AL!N3&lt;&gt;AL!O3,AL!N3,
 IF(AL!N3=AL!O3,AL!O3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CS3" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(AL!O3&lt;&gt;AL!P3,AL!O3,
 IF(AL!O3=AL!P3,AL!P3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CT3" s="2" t="str">
         <f>IF(DATA!Q3="","",
@@ -6619,7 +6629,7 @@
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6635,7 +6645,7 @@
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6647,23 +6657,23 @@
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="P7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6932,7 +6942,7 @@
         <f>IF(DATA!F3="","",
 IF(AL!E7&lt;&gt;AL!F7,AL!E7,
 IF(AL!E7=AL!F7,AL!F7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CJ7" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -6956,7 +6966,7 @@
         <f>IF(DATA!J3="","",
 IF(AL!I7&lt;&gt;AL!J7,AL!I7,
 IF(AL!I7=AL!J7,AL!J7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CN7" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -6968,31 +6978,31 @@
         <f>IF(DATA!L3="","",
 IF(AL!K7&lt;&gt;AL!L7,AL!K7,
 IF(AL!K7=AL!L7,AL!L7)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CP7" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(AL!L7&lt;&gt;AL!M7,AL!L7,
 IF(AL!L7=AL!M7,AL!M7)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CQ7" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(AL!M7&lt;&gt;AL!N7,AL!M7,
 IF(AL!M7=AL!N7,AL!N7)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CR7" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(AL!N7&lt;&gt;AL!O7,AL!N7,
 IF(AL!N7=AL!O7,AL!O7)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CS7" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(AL!O7&lt;&gt;AL!P7,AL!O7,
 IF(AL!O7=AL!P7,AL!P7)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CT7" s="2" t="str">
         <f>IF(DATA!Q3="","",
@@ -7365,7 +7375,7 @@
         <f>IF(CH7="","",
 IF(CH7="O",AL!E3,
 IF(CH7="X",AL!D3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FK7" s="2" t="str">
         <f>IF(CI7="","",
@@ -7377,19 +7387,19 @@
         <f>IF(CJ7="","",
 IF(CJ7="O",AL!G3,
 IF(CJ7="X",AL!F3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FM7" s="2" t="str">
         <f>IF(CK7="","",
 IF(CK7="O",AL!H3,
 IF(CK7="X",AL!G3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FN7" s="2" t="str">
         <f>IF(CL7="","",
 IF(CL7="O",AL!I3,
 IF(CL7="X",AL!H3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FO7" s="2" t="str">
         <f>IF(CM7="","",
@@ -7407,31 +7417,31 @@
         <f>IF(CO7="","",
 IF(CO7="O",AL!L3,
 IF(CO7="X",AL!K3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="FR7" s="2" t="str">
         <f>IF(CP7="","",
 IF(CP7="O",AL!M3,
 IF(CP7="X",AL!L3)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="FS7" s="2" t="str">
         <f>IF(CQ7="","",
 IF(CQ7="O",AL!N3,
 IF(CQ7="X",AL!M3)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="FT7" s="2" t="str">
         <f>IF(CR7="","",
 IF(CR7="O",AL!O3,
 IF(CR7="X",AL!N3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="FU7" s="2" t="str">
         <f>IF(CS7="","",
 IF(CS7="O",AL!P3,
 IF(CS7="X",AL!O3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="FV7" s="2" t="str">
         <f>IF(CT7="","",
@@ -8734,7 +8744,7 @@
         <f>IF(DATA!D3="","",
 IF(DATA!C3&lt;&gt;DATA!D3,DATA!C3,
 IF(DATA!C3=DATA!D3,DATA!D3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>IF(DATA!E3="","",
@@ -8746,7 +8756,7 @@
         <f>IF(DATA!F3="","",
 IF(DATA!E3&lt;&gt;DATA!F3,DATA!E3,
 IF(DATA!E3=DATA!F3,DATA!F3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -8758,7 +8768,7 @@
         <f>IF(DATA!H3="","",
 IF(DATA!G3&lt;&gt;DATA!H3,DATA!G3,
 IF(DATA!G3=DATA!H3,DATA!H3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -8770,43 +8780,43 @@
         <f>IF(DATA!J3="","",
 IF(DATA!I3&lt;&gt;DATA!J3,DATA!I3,
 IF(DATA!I3=DATA!J3,DATA!J3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(DATA!J3&lt;&gt;DATA!K3,DATA!J3,
 IF(DATA!J3=DATA!K3,DATA!K3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M11" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(DATA!K3&lt;&gt;DATA!L3,DATA!K3,
 IF(DATA!K3=DATA!L3,DATA!L3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N11" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(DATA!L3&lt;&gt;DATA!M3,DATA!L3,
 IF(DATA!L3=DATA!M3,DATA!M3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3&lt;&gt;DATA!N3,DATA!M3,
 IF(DATA!M3=DATA!N3,DATA!N3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P11" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(DATA!N3&lt;&gt;DATA!O3,DATA!N3,
 IF(DATA!N3=DATA!O3,DATA!O3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(DATA!O3&lt;&gt;DATA!P3,DATA!O3,
 IF(DATA!O3=DATA!P3,DATA!P3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R11" s="2" t="str">
         <f>IF(DATA!Q3="","",
@@ -9176,7 +9186,7 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
@@ -9206,49 +9216,49 @@
         <f>IF(AL!CL3="","",
 IF(AL!CL3="O",DATA!I3,
 IF(AL!CL3="X",DATA!H3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CM11" s="2" t="str">
         <f>IF(AL!CM3="","",
 IF(AL!CM3="O",DATA!J3,
 IF(AL!CM3="X",DATA!I3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="CN11" s="2" t="str">
         <f>IF(AL!CN3="","",
 IF(AL!CN3="O",DATA!K3,
 IF(AL!CN3="X",DATA!J3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO11" s="2" t="str">
         <f>IF(AL!CO3="","",
 IF(AL!CO3="O",DATA!L3,
 IF(AL!CO3="X",DATA!K3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CP11" s="2" t="str">
         <f>IF(AL!CP3="","",
 IF(AL!CP3="O",DATA!M3,
 IF(AL!CP3="X",DATA!L3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CQ11" s="2" t="str">
         <f>IF(AL!CQ3="","",
 IF(AL!CQ3="O",DATA!N3,
 IF(AL!CQ3="X",DATA!M3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="CR11" s="2" t="str">
         <f>IF(AL!CR3="","",
 IF(AL!CR3="O",DATA!O3,
 IF(AL!CR3="X",DATA!N3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="CS11" s="2" t="str">
         <f>IF(AL!CS3="","",
 IF(AL!CS3="O",DATA!P3,
 IF(AL!CS3="X",DATA!O3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CT11" s="2" t="str">
         <f>IF(AL!CT3="","",
@@ -9639,55 +9649,55 @@
         <f>IF(AL!FM7="","",
 IF(AL!FM7="O",DATA!H3,
 IF(AL!FM7="X",DATA!G3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FN11" s="2" t="str">
         <f>IF(AL!FN7="","",
 IF(AL!FN7="O",DATA!I3,
 IF(AL!FN7="X",DATA!H3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="FO11" s="2" t="str">
         <f>IF(AL!FO7="","",
 IF(AL!FO7="O",DATA!J3,
 IF(AL!FO7="X",DATA!I3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="FP11" s="2" t="str">
         <f>IF(AL!FP7="","",
 IF(AL!FP7="O",DATA!K3,
 IF(AL!FP7="X",DATA!J3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ11" s="2" t="str">
         <f>IF(AL!FQ7="","",
 IF(AL!FQ7="O",DATA!L3,
 IF(AL!FQ7="X",DATA!K3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FR11" s="2" t="str">
         <f>IF(AL!FR7="","",
 IF(AL!FR7="O",DATA!M3,
 IF(AL!FR7="X",DATA!L3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FS11" s="2" t="str">
         <f>IF(AL!FS7="","",
 IF(AL!FS7="O",DATA!N3,
 IF(AL!FS7="X",DATA!M3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="FT11" s="2" t="str">
         <f>IF(AL!FT7="","",
 IF(AL!FT7="O",DATA!O3,
 IF(AL!FT7="X",DATA!N3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="FU11" s="2" t="str">
         <f>IF(AL!FU7="","",
 IF(AL!FU7="O",DATA!P3,
 IF(AL!FU7="X",DATA!O3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FV11" s="2" t="str">
         <f>IF(AL!FV7="","",
@@ -10998,7 +11008,7 @@
         <f>IF(DATA!E3="","",
 IF(E11="","",
 IF(E11="N","N",IF(DATA!E3=E11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -11022,49 +11032,49 @@
         <f>IF(DATA!I3="","",
 IF(I11="","",
 IF(I11="N","N",IF(DATA!I3=I11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(J11="","",
 IF(J11="N","N",IF(DATA!J3=J11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(K11="","",
 IF(K11="N","N",IF(DATA!K3=K11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L15" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(L11="","",
 IF(L11="N","N",IF(DATA!L3=L11,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M15" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(M11="","",
 IF(M11="N","N",IF(DATA!M3=M11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N15" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(N11="","",
 IF(N11="N","N",IF(DATA!N3=N11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O15" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(O11="","",
 IF(O11="N","N",IF(DATA!O3=O11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(P11="","",
 IF(P11="N","N",IF(DATA!P3=P11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q15" s="2" t="str">
         <f>IF(DATA!Q3="","",
@@ -11450,7 +11460,7 @@
         <f>IF(DATA!E3="","",
 IF(CG11="","",
 IF(CG11="N","N",IF(DATA!E3=CG11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CH15" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -11462,7 +11472,7 @@
         <f>IF(DATA!G3="","",
 IF(CI11="","",
 IF(CI11="N","N",IF(DATA!G3=CI11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CJ15" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -11480,43 +11490,43 @@
         <f>IF(DATA!J3="","",
 IF(CL11="","",
 IF(CL11="N","N",IF(DATA!J3=CL11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(CM11="","",
 IF(CM11="N","N",IF(DATA!K3=CM11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN15" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(CN11="","",
 IF(CN11="N","N",IF(DATA!L3=CN11,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CO15" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(CO11="","",
 IF(CO11="N","N",IF(DATA!M3=CO11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CP15" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(CP11="","",
 IF(CP11="N","N",IF(DATA!N3=CP11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CQ15" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(CQ11="","",
 IF(CQ11="N","N",IF(DATA!O3=CQ11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CR15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(CR11="","",
 IF(CR11="N","N",IF(DATA!P3=CR11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CS15" s="2" t="str">
         <f>IF(DATA!Q3="","",
@@ -11913,7 +11923,7 @@
         <f>IF(DATA!G3="","",
 IF(FK11="","",
 IF(FK11="N","N",IF(DATA!G3=FK11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FL15" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -11925,49 +11935,49 @@
         <f>IF(DATA!I3="","",
 IF(FM11="","",
 IF(FM11="N","N",IF(DATA!I3=FM11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FN15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(FN11="","",
 IF(FN11="N","N",IF(DATA!J3=FN11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(FO11="","",
 IF(FO11="N","N",IF(DATA!K3=FO11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP15" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(FP11="","",
 IF(FP11="N","N",IF(DATA!L3=FP11,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FQ15" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(FQ11="","",
 IF(FQ11="N","N",IF(DATA!M3=FQ11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FR15" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(FR11="","",
 IF(FR11="N","N",IF(DATA!N3=FR11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FS15" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(FS11="","",
 IF(FS11="N","N",IF(DATA!O3=FS11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FT15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(FT11="","",
 IF(FT11="N","N",IF(DATA!P3=FT11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FU15" s="2" t="str">
         <f>IF(DATA!Q3="","",
@@ -13300,14 +13310,14 @@
 IF(AL!J11="N","N",
 IF(COUNTIF(AL!F15:I15,"W")&gt;=2,AL!J11,
 IF(COUNTIF(AL!F15:I15,"W")&lt;2,IF(AL!J11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K19" s="2" t="str">
         <f>IF(AL!K11="","",
 IF(AL!K11="N","N",
 IF(COUNTIF(AL!G15:J15,"W")&gt;=2,AL!K11,
 IF(COUNTIF(AL!G15:J15,"W")&lt;2,IF(AL!K11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>IF(AL!L11="","",
@@ -13321,35 +13331,35 @@
 IF(AL!M11="N","N",
 IF(COUNTIF(AL!I15:L15,"W")&gt;=2,AL!M11,
 IF(COUNTIF(AL!I15:L15,"W")&lt;2,IF(AL!M11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>IF(AL!N11="","",
 IF(AL!N11="N","N",
 IF(COUNTIF(AL!J15:M15,"W")&gt;=2,AL!N11,
 IF(COUNTIF(AL!J15:M15,"W")&lt;2,IF(AL!N11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>IF(AL!O11="","",
 IF(AL!O11="N","N",
 IF(COUNTIF(AL!K15:N15,"W")&gt;=2,AL!O11,
 IF(COUNTIF(AL!K15:N15,"W")&lt;2,IF(AL!O11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P19" s="2" t="str">
         <f>IF(AL!P11="","",
 IF(AL!P11="N","N",
 IF(COUNTIF(AL!L15:O15,"W")&gt;=2,AL!P11,
 IF(COUNTIF(AL!L15:O15,"W")&lt;2,IF(AL!P11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q19" s="2" t="str">
         <f>IF(AL!Q11="","",
 IF(AL!Q11="N","N",
 IF(COUNTIF(AL!M15:P15,"W")&gt;=2,AL!Q11,
 IF(COUNTIF(AL!M15:P15,"W")&lt;2,IF(AL!Q11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R19" s="2" t="str">
         <f>IF(AL!R11="","",
@@ -13790,21 +13800,21 @@
 IF(AL!CK11="N","N",
 IF(COUNTIF(AL!CG15:CJ15,"W")&gt;=2,AL!CK11,
 IF(COUNTIF(AL!CG15:CJ15,"W")&lt;2,IF(AL!CK11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL19" s="2" t="str">
         <f>IF(AL!CL11="","",
 IF(AL!CL11="N","N",
 IF(COUNTIF(AL!CH15:CK15,"W")&gt;=2,AL!CL11,
 IF(COUNTIF(AL!CH15:CK15,"W")&lt;2,IF(AL!CL11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM19" s="2" t="str">
         <f>IF(AL!CM11="","",
 IF(AL!CM11="N","N",
 IF(COUNTIF(AL!CI15:CL15,"W")&gt;=2,AL!CM11,
 IF(COUNTIF(AL!CI15:CL15,"W")&lt;2,IF(AL!CM11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN19" s="2" t="str">
         <f>IF(AL!CN11="","",
@@ -13818,35 +13828,35 @@
 IF(AL!CO11="N","N",
 IF(COUNTIF(AL!CK15:CN15,"W")&gt;=2,AL!CO11,
 IF(COUNTIF(AL!CK15:CN15,"W")&lt;2,IF(AL!CO11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CP19" s="2" t="str">
         <f>IF(AL!CP11="","",
 IF(AL!CP11="N","N",
 IF(COUNTIF(AL!CL15:CO15,"W")&gt;=2,AL!CP11,
 IF(COUNTIF(AL!CL15:CO15,"W")&lt;2,IF(AL!CP11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CQ19" s="2" t="str">
         <f>IF(AL!CQ11="","",
 IF(AL!CQ11="N","N",
 IF(COUNTIF(AL!CM15:CP15,"W")&gt;=2,AL!CQ11,
 IF(COUNTIF(AL!CM15:CP15,"W")&lt;2,IF(AL!CQ11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CR19" s="2" t="str">
         <f>IF(AL!CR11="","",
 IF(AL!CR11="N","N",
 IF(COUNTIF(AL!CN15:CQ15,"W")&gt;=2,AL!CR11,
 IF(COUNTIF(AL!CN15:CQ15,"W")&lt;2,IF(AL!CR11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CS19" s="2" t="str">
         <f>IF(AL!CS11="","",
 IF(AL!CS11="N","N",
 IF(COUNTIF(AL!CO15:CR15,"W")&gt;=2,AL!CS11,
 IF(COUNTIF(AL!CO15:CR15,"W")&lt;2,IF(AL!CS11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CT19" s="2" t="str">
         <f>IF(AL!CT11="","",
@@ -14297,7 +14307,7 @@
 IF(AL!FO11="N","N",
 IF(COUNTIF(AL!FK15:FN15,"W")&gt;=2,AL!FO11,
 IF(COUNTIF(AL!FK15:FN15,"W")&lt;2,IF(AL!FO11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP19" s="2" t="str">
         <f>IF(AL!FP11="","",
@@ -14311,35 +14321,35 @@
 IF(AL!FQ11="N","N",
 IF(COUNTIF(AL!FM15:FP15,"W")&gt;=2,AL!FQ11,
 IF(COUNTIF(AL!FM15:FP15,"W")&lt;2,IF(AL!FQ11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FR19" s="2" t="str">
         <f>IF(AL!FR11="","",
 IF(AL!FR11="N","N",
 IF(COUNTIF(AL!FN15:FQ15,"W")&gt;=2,AL!FR11,
 IF(COUNTIF(AL!FN15:FQ15,"W")&lt;2,IF(AL!FR11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FS19" s="2" t="str">
         <f>IF(AL!FS11="","",
 IF(AL!FS11="N","N",
 IF(COUNTIF(AL!FO15:FR15,"W")&gt;=2,AL!FS11,
 IF(COUNTIF(AL!FO15:FR15,"W")&lt;2,IF(AL!FS11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FT19" s="2" t="str">
         <f>IF(AL!FT11="","",
 IF(AL!FT11="N","N",
 IF(COUNTIF(AL!FP15:FS15,"W")&gt;=2,AL!FT11,
 IF(COUNTIF(AL!FP15:FS15,"W")&lt;2,IF(AL!FT11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FU19" s="2" t="str">
         <f>IF(AL!FU11="","",
 IF(AL!FU11="N","N",
 IF(COUNTIF(AL!FQ15:FT15,"W")&gt;=2,AL!FU11,
 IF(COUNTIF(AL!FQ15:FT15,"W")&lt;2,IF(AL!FU11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FV19" s="2" t="str">
         <f>IF(AL!FV11="","",
@@ -15732,7 +15742,7 @@
         <f>IF(DATA!I$3="","",
 IF(I19="","",
 IF(I19="N","N",IF(DATA!I$3=I19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -15750,31 +15760,31 @@
         <f>IF(DATA!L$3="","",
 IF(L19="","",
 IF(L19="N","N",IF(DATA!L$3=L19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M19="","",
 IF(M19="N","N",IF(DATA!M$3=M19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N19="","",
 IF(N19="N","N",IF(DATA!N$3=N19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O23" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O19="","",
 IF(O19="N","N",IF(DATA!O$3=O19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P19="","",
 IF(P19="N","N",IF(DATA!P$3=P19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -16202,31 +16212,31 @@
         <f>IF(DATA!L$3="","",
 IF(CN19="","",
 IF(CN19="N","N",IF(DATA!L$3=CN19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CO23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO19="","",
 IF(CO19="N","N",IF(DATA!M$3=CO19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CP23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP19="","",
 IF(CP19="N","N",IF(DATA!N$3=CP19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CQ23" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ19="","",
 IF(CQ19="N","N",IF(DATA!O$3=CQ19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CR23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR19="","",
 IF(CR19="N","N",IF(DATA!P$3=CR19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CS23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -16641,7 +16651,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN19="","",
 IF(FN19="N","N",IF(DATA!J$3=FN19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO23" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -16653,31 +16663,31 @@
         <f>IF(DATA!L$3="","",
 IF(FP19="","",
 IF(FP19="N","N",IF(DATA!L$3=FP19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FQ23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ19="","",
 IF(FQ19="N","N",IF(DATA!M$3=FQ19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FR23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR19="","",
 IF(FR19="N","N",IF(DATA!N$3=FR19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FS23" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS19="","",
 IF(FS19="N","N",IF(DATA!O$3=FS19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FT23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT19="","",
 IF(FT19="N","N",IF(DATA!P$3=FT19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FU23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -18007,7 +18017,7 @@
 IF(AL!J19="N","N",
 IF(COUNTIF(AL!F23:I23,"W")&gt;=2,AL!J19,
 IF(COUNTIF(AL!F23:I23,"W")&lt;2,IF(AL!J19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K27" s="2" t="str">
         <f>IF(AL!K19="","",
@@ -18028,35 +18038,35 @@
 IF(AL!M19="N","N",
 IF(COUNTIF(AL!I23:L23,"W")&gt;=2,AL!M19,
 IF(COUNTIF(AL!I23:L23,"W")&lt;2,IF(AL!M19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N27" s="2" t="str">
         <f>IF(AL!N19="","",
 IF(AL!N19="N","N",
 IF(COUNTIF(AL!J23:M23,"W")&gt;=2,AL!N19,
 IF(COUNTIF(AL!J23:M23,"W")&lt;2,IF(AL!N19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O27" s="2" t="str">
         <f>IF(AL!O19="","",
 IF(AL!O19="N","N",
 IF(COUNTIF(AL!K23:N23,"W")&gt;=2,AL!O19,
 IF(COUNTIF(AL!K23:N23,"W")&lt;2,IF(AL!O19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P27" s="2" t="str">
         <f>IF(AL!P19="","",
 IF(AL!P19="N","N",
 IF(COUNTIF(AL!L23:O23,"W")&gt;=2,AL!P19,
 IF(COUNTIF(AL!L23:O23,"W")&lt;2,IF(AL!P19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q27" s="2" t="str">
         <f>IF(AL!Q19="","",
 IF(AL!Q19="N","N",
 IF(COUNTIF(AL!M23:P23,"W")&gt;=2,AL!Q19,
 IF(COUNTIF(AL!M23:P23,"W")&lt;2,IF(AL!Q19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R27" s="2" t="str">
         <f>IF(AL!R19="","",
@@ -18497,21 +18507,21 @@
 IF(AL!CK19="N","N",
 IF(COUNTIF(AL!CG23:CJ23,"W")&gt;=2,AL!CK19,
 IF(COUNTIF(AL!CG23:CJ23,"W")&lt;2,IF(AL!CK19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL27" s="2" t="str">
         <f>IF(AL!CL19="","",
 IF(AL!CL19="N","N",
 IF(COUNTIF(AL!CH23:CK23,"W")&gt;=2,AL!CL19,
 IF(COUNTIF(AL!CH23:CK23,"W")&lt;2,IF(AL!CL19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CM27" s="2" t="str">
         <f>IF(AL!CM19="","",
 IF(AL!CM19="N","N",
 IF(COUNTIF(AL!CI23:CL23,"W")&gt;=2,AL!CM19,
 IF(COUNTIF(AL!CI23:CL23,"W")&lt;2,IF(AL!CM19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN27" s="2" t="str">
         <f>IF(AL!CN19="","",
@@ -18525,35 +18535,35 @@
 IF(AL!CO19="N","N",
 IF(COUNTIF(AL!CK23:CN23,"W")&gt;=2,AL!CO19,
 IF(COUNTIF(AL!CK23:CN23,"W")&lt;2,IF(AL!CO19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CP27" s="2" t="str">
         <f>IF(AL!CP19="","",
 IF(AL!CP19="N","N",
 IF(COUNTIF(AL!CL23:CO23,"W")&gt;=2,AL!CP19,
 IF(COUNTIF(AL!CL23:CO23,"W")&lt;2,IF(AL!CP19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CQ27" s="2" t="str">
         <f>IF(AL!CQ19="","",
 IF(AL!CQ19="N","N",
 IF(COUNTIF(AL!CM23:CP23,"W")&gt;=2,AL!CQ19,
 IF(COUNTIF(AL!CM23:CP23,"W")&lt;2,IF(AL!CQ19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CR27" s="2" t="str">
         <f>IF(AL!CR19="","",
 IF(AL!CR19="N","N",
 IF(COUNTIF(AL!CN23:CQ23,"W")&gt;=2,AL!CR19,
 IF(COUNTIF(AL!CN23:CQ23,"W")&lt;2,IF(AL!CR19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CS27" s="2" t="str">
         <f>IF(AL!CS19="","",
 IF(AL!CS19="N","N",
 IF(COUNTIF(AL!CO23:CR23,"W")&gt;=2,AL!CS19,
 IF(COUNTIF(AL!CO23:CR23,"W")&lt;2,IF(AL!CS19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CT27" s="2" t="str">
         <f>IF(AL!CT19="","",
@@ -19004,49 +19014,49 @@
 IF(AL!FO19="N","N",
 IF(COUNTIF(AL!FK23:FN23,"W")&gt;=2,AL!FO19,
 IF(COUNTIF(AL!FK23:FN23,"W")&lt;2,IF(AL!FO19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP27" s="2" t="str">
         <f>IF(AL!FP19="","",
 IF(AL!FP19="N","N",
 IF(COUNTIF(AL!FL23:FO23,"W")&gt;=2,AL!FP19,
 IF(COUNTIF(AL!FL23:FO23,"W")&lt;2,IF(AL!FP19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ27" s="2" t="str">
         <f>IF(AL!FQ19="","",
 IF(AL!FQ19="N","N",
 IF(COUNTIF(AL!FM23:FP23,"W")&gt;=2,AL!FQ19,
 IF(COUNTIF(AL!FM23:FP23,"W")&lt;2,IF(AL!FQ19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FR27" s="2" t="str">
         <f>IF(AL!FR19="","",
 IF(AL!FR19="N","N",
 IF(COUNTIF(AL!FN23:FQ23,"W")&gt;=2,AL!FR19,
 IF(COUNTIF(AL!FN23:FQ23,"W")&lt;2,IF(AL!FR19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FS27" s="2" t="str">
         <f>IF(AL!FS19="","",
 IF(AL!FS19="N","N",
 IF(COUNTIF(AL!FO23:FR23,"W")&gt;=2,AL!FS19,
 IF(COUNTIF(AL!FO23:FR23,"W")&lt;2,IF(AL!FS19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FT27" s="2" t="str">
         <f>IF(AL!FT19="","",
 IF(AL!FT19="N","N",
 IF(COUNTIF(AL!FP23:FS23,"W")&gt;=2,AL!FT19,
 IF(COUNTIF(AL!FP23:FS23,"W")&lt;2,IF(AL!FT19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FU27" s="2" t="str">
         <f>IF(AL!FU19="","",
 IF(AL!FU19="N","N",
 IF(COUNTIF(AL!FQ23:FT23,"W")&gt;=2,AL!FU19,
 IF(COUNTIF(AL!FQ23:FT23,"W")&lt;2,IF(AL!FU19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FV27" s="2" t="str">
         <f>IF(AL!FV19="","",
@@ -20451,37 +20461,37 @@
         <f>IF(DATA!K$3="","",
 IF(K27="","",
 IF(K27="N","N",IF(DATA!K$3=K27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L31" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L27="","",
 IF(L27="N","N",IF(DATA!L$3=L27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M31" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M27="","",
 IF(M27="N","N",IF(DATA!M$3=M27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N27="","",
 IF(N27="N","N",IF(DATA!N$3=N27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O27="","",
 IF(O27="N","N",IF(DATA!O$3=O27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P27="","",
 IF(P27="N","N",IF(DATA!P$3=P27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -20891,7 +20901,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK27="","",
 IF(CK27="N","N",IF(DATA!I$3=CK27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL31" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -20909,31 +20919,31 @@
         <f>IF(DATA!L$3="","",
 IF(CN27="","",
 IF(CN27="N","N",IF(DATA!L$3=CN27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CO31" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO27="","",
 IF(CO27="N","N",IF(DATA!M$3=CO27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CP31" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP27="","",
 IF(CP27="N","N",IF(DATA!N$3=CP27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CQ31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ27="","",
 IF(CQ27="N","N",IF(DATA!O$3=CQ27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CR31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR27="","",
 IF(CR27="N","N",IF(DATA!P$3=CR27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CS31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -21348,7 +21358,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN27="","",
 IF(FN27="N","N",IF(DATA!J$3=FN27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO31" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -21360,31 +21370,31 @@
         <f>IF(DATA!L$3="","",
 IF(FP27="","",
 IF(FP27="N","N",IF(DATA!L$3=FP27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FQ31" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ27="","",
 IF(FQ27="N","N",IF(DATA!M$3=FQ27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FR31" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR27="","",
 IF(FR27="N","N",IF(DATA!N$3=FR27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FS31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS27="","",
 IF(FS27="N","N",IF(DATA!O$3=FS27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FT31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT27="","",
 IF(FT27="N","N",IF(DATA!P$3=FT27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FU31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -22714,7 +22724,7 @@
 IF(AL!J27="N","N",
 IF(COUNTIF(AL!F31:I31,"W")&gt;=2,AL!J27,
 IF(COUNTIF(AL!F31:I31,"W")&lt;2,IF(AL!J27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K35" s="2" t="str">
         <f>IF(AL!K27="","",
@@ -22728,42 +22738,42 @@
 IF(AL!L27="N","N",
 IF(COUNTIF(AL!H31:K31,"W")&gt;=2,AL!L27,
 IF(COUNTIF(AL!H31:K31,"W")&lt;2,IF(AL!L27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M35" s="2" t="str">
         <f>IF(AL!M27="","",
 IF(AL!M27="N","N",
 IF(COUNTIF(AL!I31:L31,"W")&gt;=2,AL!M27,
 IF(COUNTIF(AL!I31:L31,"W")&lt;2,IF(AL!M27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N35" s="2" t="str">
         <f>IF(AL!N27="","",
 IF(AL!N27="N","N",
 IF(COUNTIF(AL!J31:M31,"W")&gt;=2,AL!N27,
 IF(COUNTIF(AL!J31:M31,"W")&lt;2,IF(AL!N27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O35" s="2" t="str">
         <f>IF(AL!O27="","",
 IF(AL!O27="N","N",
 IF(COUNTIF(AL!K31:N31,"W")&gt;=2,AL!O27,
 IF(COUNTIF(AL!K31:N31,"W")&lt;2,IF(AL!O27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P35" s="2" t="str">
         <f>IF(AL!P27="","",
 IF(AL!P27="N","N",
 IF(COUNTIF(AL!L31:O31,"W")&gt;=2,AL!P27,
 IF(COUNTIF(AL!L31:O31,"W")&lt;2,IF(AL!P27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q35" s="2" t="str">
         <f>IF(AL!Q27="","",
 IF(AL!Q27="N","N",
 IF(COUNTIF(AL!M31:P31,"W")&gt;=2,AL!Q27,
 IF(COUNTIF(AL!M31:P31,"W")&lt;2,IF(AL!Q27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R35" s="2" t="str">
         <f>IF(AL!R27="","",
@@ -23204,14 +23214,14 @@
 IF(AL!CK27="N","N",
 IF(COUNTIF(AL!CG31:CJ31,"W")&gt;=2,AL!CK27,
 IF(COUNTIF(AL!CG31:CJ31,"W")&lt;2,IF(AL!CK27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL35" s="2" t="str">
         <f>IF(AL!CL27="","",
 IF(AL!CL27="N","N",
 IF(COUNTIF(AL!CH31:CK31,"W")&gt;=2,AL!CL27,
 IF(COUNTIF(AL!CH31:CK31,"W")&lt;2,IF(AL!CL27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM35" s="2" t="str">
         <f>IF(AL!CM27="","",
@@ -23225,42 +23235,42 @@
 IF(AL!CN27="N","N",
 IF(COUNTIF(AL!CJ31:CM31,"W")&gt;=2,AL!CN27,
 IF(COUNTIF(AL!CJ31:CM31,"W")&lt;2,IF(AL!CN27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO35" s="2" t="str">
         <f>IF(AL!CO27="","",
 IF(AL!CO27="N","N",
 IF(COUNTIF(AL!CK31:CN31,"W")&gt;=2,AL!CO27,
 IF(COUNTIF(AL!CK31:CN31,"W")&lt;2,IF(AL!CO27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CP35" s="2" t="str">
         <f>IF(AL!CP27="","",
 IF(AL!CP27="N","N",
 IF(COUNTIF(AL!CL31:CO31,"W")&gt;=2,AL!CP27,
 IF(COUNTIF(AL!CL31:CO31,"W")&lt;2,IF(AL!CP27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CQ35" s="2" t="str">
         <f>IF(AL!CQ27="","",
 IF(AL!CQ27="N","N",
 IF(COUNTIF(AL!CM31:CP31,"W")&gt;=2,AL!CQ27,
 IF(COUNTIF(AL!CM31:CP31,"W")&lt;2,IF(AL!CQ27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CR35" s="2" t="str">
         <f>IF(AL!CR27="","",
 IF(AL!CR27="N","N",
 IF(COUNTIF(AL!CN31:CQ31,"W")&gt;=2,AL!CR27,
 IF(COUNTIF(AL!CN31:CQ31,"W")&lt;2,IF(AL!CR27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CS35" s="2" t="str">
         <f>IF(AL!CS27="","",
 IF(AL!CS27="N","N",
 IF(COUNTIF(AL!CO31:CR31,"W")&gt;=2,AL!CS27,
 IF(COUNTIF(AL!CO31:CR31,"W")&lt;2,IF(AL!CS27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CT35" s="2" t="str">
         <f>IF(AL!CT27="","",
@@ -23711,49 +23721,49 @@
 IF(AL!FO27="N","N",
 IF(COUNTIF(AL!FK31:FN31,"W")&gt;=2,AL!FO27,
 IF(COUNTIF(AL!FK31:FN31,"W")&lt;2,IF(AL!FO27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP35" s="2" t="str">
         <f>IF(AL!FP27="","",
 IF(AL!FP27="N","N",
 IF(COUNTIF(AL!FL31:FO31,"W")&gt;=2,AL!FP27,
 IF(COUNTIF(AL!FL31:FO31,"W")&lt;2,IF(AL!FP27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ35" s="2" t="str">
         <f>IF(AL!FQ27="","",
 IF(AL!FQ27="N","N",
 IF(COUNTIF(AL!FM31:FP31,"W")&gt;=2,AL!FQ27,
 IF(COUNTIF(AL!FM31:FP31,"W")&lt;2,IF(AL!FQ27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FR35" s="2" t="str">
         <f>IF(AL!FR27="","",
 IF(AL!FR27="N","N",
 IF(COUNTIF(AL!FN31:FQ31,"W")&gt;=2,AL!FR27,
 IF(COUNTIF(AL!FN31:FQ31,"W")&lt;2,IF(AL!FR27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FS35" s="2" t="str">
         <f>IF(AL!FS27="","",
 IF(AL!FS27="N","N",
 IF(COUNTIF(AL!FO31:FR31,"W")&gt;=2,AL!FS27,
 IF(COUNTIF(AL!FO31:FR31,"W")&lt;2,IF(AL!FS27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FT35" s="2" t="str">
         <f>IF(AL!FT27="","",
 IF(AL!FT27="N","N",
 IF(COUNTIF(AL!FP31:FS31,"W")&gt;=2,AL!FT27,
 IF(COUNTIF(AL!FP31:FS31,"W")&lt;2,IF(AL!FT27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FU35" s="2" t="str">
         <f>IF(AL!FU27="","",
 IF(AL!FU27="N","N",
 IF(COUNTIF(AL!FQ31:FT31,"W")&gt;=2,AL!FU27,
 IF(COUNTIF(AL!FQ31:FT31,"W")&lt;2,IF(AL!FU27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FV35" s="2" t="str">
         <f>IF(AL!FV27="","",
@@ -25146,7 +25156,7 @@
         <f>IF(DATA!I$3="","",
 IF(I35="","",
 IF(I35="N","N",IF(DATA!I$3=I35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -25158,37 +25168,37 @@
         <f>IF(DATA!K$3="","",
 IF(K35="","",
 IF(K35="N","N",IF(DATA!K$3=K35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L35="","",
 IF(L35="N","N",IF(DATA!L$3=L35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M39" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M35="","",
 IF(M35="N","N",IF(DATA!M$3=M35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N35="","",
 IF(N35="N","N",IF(DATA!N$3=N35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O39" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O35="","",
 IF(O35="N","N",IF(DATA!O$3=O35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P35="","",
 IF(P35="N","N",IF(DATA!P$3=P35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -25610,37 +25620,37 @@
         <f>IF(DATA!K$3="","",
 IF(CM35="","",
 IF(CM35="N","N",IF(DATA!K$3=CM35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN39" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN35="","",
 IF(CN35="N","N",IF(DATA!L$3=CN35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CO39" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO35="","",
 IF(CO35="N","N",IF(DATA!M$3=CO35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CP39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP35="","",
 IF(CP35="N","N",IF(DATA!N$3=CP35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CQ39" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ35="","",
 IF(CQ35="N","N",IF(DATA!O$3=CQ35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CR39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR35="","",
 IF(CR35="N","N",IF(DATA!P$3=CR35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CS39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -26055,7 +26065,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN35="","",
 IF(FN35="N","N",IF(DATA!J$3=FN35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO39" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -26067,31 +26077,31 @@
         <f>IF(DATA!L$3="","",
 IF(FP35="","",
 IF(FP35="N","N",IF(DATA!L$3=FP35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FQ39" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ35="","",
 IF(FQ35="N","N",IF(DATA!M$3=FQ35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FR39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR35="","",
 IF(FR35="N","N",IF(DATA!N$3=FR35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FS39" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS35="","",
 IF(FS35="N","N",IF(DATA!O$3=FS35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FT39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT35="","",
 IF(FT35="N","N",IF(DATA!P$3=FT35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FU39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -27421,56 +27431,56 @@
 IF(AL!J35="N","N",
 IF(COUNTIF(AL!F39:I39,"W")&gt;=2,AL!J35,
 IF(COUNTIF(AL!F39:I39,"W")&lt;2,IF(AL!J35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(AL!K35="","",
 IF(AL!K35="N","N",
 IF(COUNTIF(AL!G39:J39,"W")&gt;=2,AL!K35,
 IF(COUNTIF(AL!G39:J39,"W")&lt;2,IF(AL!K35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L43" s="2" t="str">
         <f>IF(AL!L35="","",
 IF(AL!L35="N","N",
 IF(COUNTIF(AL!H39:K39,"W")&gt;=2,AL!L35,
 IF(COUNTIF(AL!H39:K39,"W")&lt;2,IF(AL!L35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M43" s="2" t="str">
         <f>IF(AL!M35="","",
 IF(AL!M35="N","N",
 IF(COUNTIF(AL!I39:L39,"W")&gt;=2,AL!M35,
 IF(COUNTIF(AL!I39:L39,"W")&lt;2,IF(AL!M35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N43" s="2" t="str">
         <f>IF(AL!N35="","",
 IF(AL!N35="N","N",
 IF(COUNTIF(AL!J39:M39,"W")&gt;=2,AL!N35,
 IF(COUNTIF(AL!J39:M39,"W")&lt;2,IF(AL!N35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O43" s="2" t="str">
         <f>IF(AL!O35="","",
 IF(AL!O35="N","N",
 IF(COUNTIF(AL!K39:N39,"W")&gt;=2,AL!O35,
 IF(COUNTIF(AL!K39:N39,"W")&lt;2,IF(AL!O35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P43" s="2" t="str">
         <f>IF(AL!P35="","",
 IF(AL!P35="N","N",
 IF(COUNTIF(AL!L39:O39,"W")&gt;=2,AL!P35,
 IF(COUNTIF(AL!L39:O39,"W")&lt;2,IF(AL!P35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q43" s="2" t="str">
         <f>IF(AL!Q35="","",
 IF(AL!Q35="N","N",
 IF(COUNTIF(AL!M39:P39,"W")&gt;=2,AL!Q35,
 IF(COUNTIF(AL!M39:P39,"W")&lt;2,IF(AL!Q35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R43" s="2" t="str">
         <f>IF(AL!R35="","",
@@ -27911,14 +27921,14 @@
 IF(AL!CK35="N","N",
 IF(COUNTIF(AL!CG39:CJ39,"W")&gt;=2,AL!CK35,
 IF(COUNTIF(AL!CG39:CJ39,"W")&lt;2,IF(AL!CK35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL43" s="2" t="str">
         <f>IF(AL!CL35="","",
 IF(AL!CL35="N","N",
 IF(COUNTIF(AL!CH39:CK39,"W")&gt;=2,AL!CL35,
 IF(COUNTIF(AL!CH39:CK39,"W")&lt;2,IF(AL!CL35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CM43" s="2" t="str">
         <f>IF(AL!CM35="","",
@@ -27932,42 +27942,42 @@
 IF(AL!CN35="N","N",
 IF(COUNTIF(AL!CJ39:CM39,"W")&gt;=2,AL!CN35,
 IF(COUNTIF(AL!CJ39:CM39,"W")&lt;2,IF(AL!CN35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO43" s="2" t="str">
         <f>IF(AL!CO35="","",
 IF(AL!CO35="N","N",
 IF(COUNTIF(AL!CK39:CN39,"W")&gt;=2,AL!CO35,
 IF(COUNTIF(AL!CK39:CN39,"W")&lt;2,IF(AL!CO35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CP43" s="2" t="str">
         <f>IF(AL!CP35="","",
 IF(AL!CP35="N","N",
 IF(COUNTIF(AL!CL39:CO39,"W")&gt;=2,AL!CP35,
 IF(COUNTIF(AL!CL39:CO39,"W")&lt;2,IF(AL!CP35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CQ43" s="2" t="str">
         <f>IF(AL!CQ35="","",
 IF(AL!CQ35="N","N",
 IF(COUNTIF(AL!CM39:CP39,"W")&gt;=2,AL!CQ35,
 IF(COUNTIF(AL!CM39:CP39,"W")&lt;2,IF(AL!CQ35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CR43" s="2" t="str">
         <f>IF(AL!CR35="","",
 IF(AL!CR35="N","N",
 IF(COUNTIF(AL!CN39:CQ39,"W")&gt;=2,AL!CR35,
 IF(COUNTIF(AL!CN39:CQ39,"W")&lt;2,IF(AL!CR35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CS43" s="2" t="str">
         <f>IF(AL!CS35="","",
 IF(AL!CS35="N","N",
 IF(COUNTIF(AL!CO39:CR39,"W")&gt;=2,AL!CS35,
 IF(COUNTIF(AL!CO39:CR39,"W")&lt;2,IF(AL!CS35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CT43" s="2" t="str">
         <f>IF(AL!CT35="","",
@@ -28418,7 +28428,7 @@
 IF(AL!FO35="N","N",
 IF(COUNTIF(AL!FK39:FN39,"W")&gt;=2,AL!FO35,
 IF(COUNTIF(AL!FK39:FN39,"W")&lt;2,IF(AL!FO35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP43" s="2" t="str">
         <f>IF(AL!FP35="","",
@@ -28432,35 +28442,35 @@
 IF(AL!FQ35="N","N",
 IF(COUNTIF(AL!FM39:FP39,"W")&gt;=2,AL!FQ35,
 IF(COUNTIF(AL!FM39:FP39,"W")&lt;2,IF(AL!FQ35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FR43" s="2" t="str">
         <f>IF(AL!FR35="","",
 IF(AL!FR35="N","N",
 IF(COUNTIF(AL!FN39:FQ39,"W")&gt;=2,AL!FR35,
 IF(COUNTIF(AL!FN39:FQ39,"W")&lt;2,IF(AL!FR35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FS43" s="2" t="str">
         <f>IF(AL!FS35="","",
 IF(AL!FS35="N","N",
 IF(COUNTIF(AL!FO39:FR39,"W")&gt;=2,AL!FS35,
 IF(COUNTIF(AL!FO39:FR39,"W")&lt;2,IF(AL!FS35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FT43" s="2" t="str">
         <f>IF(AL!FT35="","",
 IF(AL!FT35="N","N",
 IF(COUNTIF(AL!FP39:FS39,"W")&gt;=2,AL!FT35,
 IF(COUNTIF(AL!FP39:FS39,"W")&lt;2,IF(AL!FT35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FU43" s="2" t="str">
         <f>IF(AL!FU35="","",
 IF(AL!FU35="N","N",
 IF(COUNTIF(AL!FQ39:FT39,"W")&gt;=2,AL!FU35,
 IF(COUNTIF(AL!FQ39:FT39,"W")&lt;2,IF(AL!FU35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FV43" s="2" t="str">
         <f>IF(AL!FV35="","",
@@ -29871,31 +29881,31 @@
         <f>IF(DATA!L$3="","",
 IF(L43="","",
 IF(L43="N","N",IF(DATA!L$3=L43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M47" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M43="","",
 IF(M43="N","N",IF(DATA!M$3=M43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N47" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N43="","",
 IF(N43="N","N",IF(DATA!N$3=N43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O43="","",
 IF(O43="N","N",IF(DATA!O$3=O43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P43="","",
 IF(P43="N","N",IF(DATA!P$3=P43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -30305,7 +30315,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK43="","",
 IF(CK43="N","N",IF(DATA!I$3=CK43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL47" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -30317,37 +30327,37 @@
         <f>IF(DATA!K$3="","",
 IF(CM43="","",
 IF(CM43="N","N",IF(DATA!K$3=CM43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN47" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN43="","",
 IF(CN43="N","N",IF(DATA!L$3=CN43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CO47" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO43="","",
 IF(CO43="N","N",IF(DATA!M$3=CO43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CP47" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP43="","",
 IF(CP43="N","N",IF(DATA!N$3=CP43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CQ47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ43="","",
 IF(CQ43="N","N",IF(DATA!O$3=CQ43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CR47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR43="","",
 IF(CR43="N","N",IF(DATA!P$3=CR43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CS47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -30762,7 +30772,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN43="","",
 IF(FN43="N","N",IF(DATA!J$3=FN43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO47" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -30774,31 +30784,31 @@
         <f>IF(DATA!L$3="","",
 IF(FP43="","",
 IF(FP43="N","N",IF(DATA!L$3=FP43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FQ47" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ43="","",
 IF(FQ43="N","N",IF(DATA!M$3=FQ43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FR47" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR43="","",
 IF(FR43="N","N",IF(DATA!N$3=FR43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FS47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS43="","",
 IF(FS43="N","N",IF(DATA!O$3=FS43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FT47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT43="","",
 IF(FT43="N","N",IF(DATA!P$3=FT43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FU47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -32134,23 +32144,23 @@
       </c>
       <c r="L51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -32441,23 +32451,23 @@
       </c>
       <c r="CN51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CO51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CP51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="CQ51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CR51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CS51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32747,23 +32757,23 @@
       </c>
       <c r="FP51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FQ51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FR51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="FS51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FT51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FU51" s="2" t="str">
         <f t="shared" si="9"/>
@@ -33063,23 +33073,23 @@
       </c>
       <c r="M52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R52" s="2" t="str">
         <f t="shared" si="12"/>
@@ -33378,23 +33388,23 @@
       </c>
       <c r="CO52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CP52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CQ52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CR52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CS52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CT52" s="2" t="str">
         <f t="shared" si="15"/>
@@ -33692,23 +33702,23 @@
       </c>
       <c r="FQ52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FR52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FS52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FT52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FU52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV52" s="2" t="str">
         <f t="shared" si="18"/>
@@ -34953,31 +34963,31 @@
         <f>IF(DATA!L$3="","",
 IF(L52="","",
 IF(L52="N","N",IF(DATA!L$3=L52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M56" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M52="","",
 IF(M52="N","N",IF(DATA!M$3=M52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N56" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N52="","",
 IF(N52="N","N",IF(DATA!N$3=N52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O56" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O52="","",
 IF(O52="N","N",IF(DATA!O$3=O52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P52="","",
 IF(P52="N","N",IF(DATA!P$3=P52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -35405,31 +35415,31 @@
         <f>IF(DATA!L$3="","",
 IF(CN52="","",
 IF(CN52="N","N",IF(DATA!L$3=CN52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CO56" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO52="","",
 IF(CO52="N","N",IF(DATA!M$3=CO52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CP56" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP52="","",
 IF(CP52="N","N",IF(DATA!N$3=CP52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CQ56" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ52="","",
 IF(CQ52="N","N",IF(DATA!O$3=CQ52,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CR56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR52="","",
 IF(CR52="N","N",IF(DATA!P$3=CR52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CS56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -35856,31 +35866,31 @@
         <f>IF(DATA!L$3="","",
 IF(FP52="","",
 IF(FP52="N","N",IF(DATA!L$3=FP52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FQ56" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ52="","",
 IF(FQ52="N","N",IF(DATA!M$3=FQ52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FR56" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR52="","",
 IF(FR52="N","N",IF(DATA!N$3=FR52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FS56" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS52="","",
 IF(FS52="N","N",IF(DATA!O$3=FS52,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FT56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT52="","",
 IF(FT52="N","N",IF(DATA!P$3=FT52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FU56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -36935,23 +36945,23 @@
       </c>
       <c r="M60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -37757,31 +37767,31 @@
         <f>IF(DATA!L$3="","",
 IF(L60="","",
 IF(L60="N","N",IF(DATA!L$3=L60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M64" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M60="","",
 IF(M60="N","N",IF(DATA!M$3=M60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N64" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N60="","",
 IF(N60="N","N",IF(DATA!N$3=N60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O64" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O60="","",
 IF(O60="N","N",IF(DATA!O$3=O60,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P64" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P60="","",
 IF(P60="N","N",IF(DATA!P$3=P60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q64" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -39117,23 +39127,23 @@
       </c>
       <c r="L68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q68" s="2" t="str">
         <f t="shared" si="24"/>
@@ -39424,23 +39434,23 @@
       </c>
       <c r="CN68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CO68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CP68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>R</v>
       </c>
       <c r="CQ68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CR68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CS68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39730,23 +39740,23 @@
       </c>
       <c r="FP68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FQ68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FR68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>R</v>
       </c>
       <c r="FS68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FT68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FU68" s="2" t="str">
         <f t="shared" si="30"/>
@@ -40046,23 +40056,23 @@
       </c>
       <c r="M69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R69" s="2" t="str">
         <f t="shared" si="33"/>
@@ -40361,23 +40371,23 @@
       </c>
       <c r="CO69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CP69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CQ69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CR69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CS69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CT69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40675,23 +40685,23 @@
       </c>
       <c r="FQ69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FR69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FS69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FT69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FU69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV69" s="2" t="str">
         <f t="shared" si="39"/>
@@ -41936,31 +41946,31 @@
         <f>IF(DATA!L$3="","",
 IF(L69="","",
 IF(L69="N","N",IF(DATA!L$3=L69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M73" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M69="","",
 IF(M69="N","N",IF(DATA!M$3=M69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N73" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N69="","",
 IF(N69="N","N",IF(DATA!N$3=N69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O73" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O69="","",
 IF(O69="N","N",IF(DATA!O$3=O69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P69="","",
 IF(P69="N","N",IF(DATA!P$3=P69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -42388,31 +42398,31 @@
         <f>IF(DATA!L$3="","",
 IF(CN69="","",
 IF(CN69="N","N",IF(DATA!L$3=CN69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CO73" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO69="","",
 IF(CO69="N","N",IF(DATA!M$3=CO69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CP73" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP69="","",
 IF(CP69="N","N",IF(DATA!N$3=CP69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CQ73" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ69="","",
 IF(CQ69="N","N",IF(DATA!O$3=CQ69,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CR73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR69="","",
 IF(CR69="N","N",IF(DATA!P$3=CR69,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CS73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -42839,31 +42849,31 @@
         <f>IF(DATA!L$3="","",
 IF(FP69="","",
 IF(FP69="N","N",IF(DATA!L$3=FP69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FQ73" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ69="","",
 IF(FQ69="N","N",IF(DATA!M$3=FQ69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FR73" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR69="","",
 IF(FR69="N","N",IF(DATA!N$3=FR69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FS73" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS69="","",
 IF(FS69="N","N",IF(DATA!O$3=FS69,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FT73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT69="","",
 IF(FT69="N","N",IF(DATA!P$3=FT69,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FU73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -43918,23 +43928,23 @@
       </c>
       <c r="M77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -44740,31 +44750,31 @@
         <f>IF(DATA!L$3="","",
 IF(L77="","",
 IF(L77="N","N",IF(DATA!L$3=L77,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M81" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M77="","",
 IF(M77="N","N",IF(DATA!M$3=M77,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N81" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N77="","",
 IF(N77="N","N",IF(DATA!N$3=N77,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O81" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O77="","",
 IF(O77="N","N",IF(DATA!O$3=O77,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P81" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P77="","",
 IF(P77="N","N",IF(DATA!P$3=P77,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q81" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -45805,30 +45815,30 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:K97, 1, MAX(IF(AL!$B97:K97="L", COLUMN(AL!$B97:K97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!K97, "W"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="L85" s="2" t="str">
+      <c r="L85" s="2">
         <f t="array" ref="L85">IF(AL!L97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:L97, 1, MAX(IF(AL!$B97:L97="L", COLUMN(AL!$B97:L97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!L97, "W"),"0"))</f>
-        <v/>
-      </c>
-      <c r="M85" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
         <f t="array" ref="M85">IF(AL!M97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="L", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "W"),"0"))</f>
-        <v/>
-      </c>
-      <c r="N85" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="N85" s="2">
         <f t="array" ref="N85">IF(AL!N97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="L", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "W"),"0"))</f>
-        <v/>
-      </c>
-      <c r="O85" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
         <f t="array" ref="O85">IF(AL!O97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:O97, 1, MAX(IF(AL!$B97:O97="L", COLUMN(AL!$B97:O97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!O97, "W"),"0"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P85" s="2" t="str">
         <f t="array" ref="P85">IF(AL!P97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:P97, 1, MAX(IF(AL!$B97:P97="L", COLUMN(AL!$B97:P97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!P97, "W"),"0"))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="Q85" s="2" t="str">
         <f t="array" ref="Q85">IF(AL!Q97="","",
@@ -46651,30 +46661,30 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:K97, 1, MAX(IF(AL!$B97:K97="W", COLUMN(AL!$B97:K97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!K97, "L"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="L89" s="2" t="str">
+      <c r="L89" s="2">
         <f t="array" ref="L89">IF(AL!L97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:L97, 1, MAX(IF(AL!$B97:L97="W", COLUMN(AL!$B97:L97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!L97, "L"),"0"))</f>
-        <v/>
-      </c>
-      <c r="M89" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
         <f t="array" ref="M89">IF(AL!M97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="W", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "L"),"0"))</f>
-        <v/>
-      </c>
-      <c r="N89" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
         <f t="array" ref="N89">IF(AL!N97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="W", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "L"),"0"))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O89" s="2" t="str">
         <f t="array" ref="O89">IF(AL!O97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:O97, 1, MAX(IF(AL!$B97:O97="W", COLUMN(AL!$B97:O97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!O97, "L"),"0"))</f>
-        <v/>
-      </c>
-      <c r="P89" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2">
         <f t="array" ref="P89">IF(AL!P97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:P97, 1, MAX(IF(AL!$B97:P97="W", COLUMN(AL!$B97:P97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!P97, "L"),"0"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q89" s="2" t="str">
         <f t="array" ref="Q89">IF(AL!Q97="","",
@@ -47350,27 +47360,27 @@
       <c r="M93" s="2" t="str">
         <f>IF(AL!M60="","",
 IF(OR(AL!M60="P",AL!M60="B"),AL!M60,AL!M77))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N93" s="2" t="str">
         <f>IF(AL!N60="","",
 IF(OR(AL!N60="P",AL!N60="B"),AL!N60,AL!N77))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O93" s="2" t="str">
         <f>IF(AL!O60="","",
 IF(OR(AL!O60="P",AL!O60="B"),AL!O60,AL!O77))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P93" s="2" t="str">
         <f>IF(AL!P60="","",
 IF(OR(AL!P60="P",AL!P60="B"),AL!P60,AL!P77))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q93" s="2" t="str">
         <f>IF(AL!Q60="","",
 IF(OR(AL!Q60="P",AL!Q60="B"),AL!Q60,AL!Q77))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R93" s="2" t="str">
         <f>IF(AL!R60="","",
@@ -48053,31 +48063,31 @@
         <f>IF(DATA!L$3="","",
 IF(L93="","",
 IF(L93="N","N",IF(DATA!L$3=L93,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M97" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M93="","",
 IF(M93="N","N",IF(DATA!M$3=M93,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="N97" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N93="","",
 IF(N93="N","N",IF(DATA!N$3=N93,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O97" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O93="","",
 IF(O93="N","N",IF(DATA!O$3=O93,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P97" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P93="","",
 IF(P93="N","N",IF(DATA!P$3=P93,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q97" s="2" t="str">
         <f>IF(DATA!Q$3="","",
@@ -48435,11 +48445,11 @@
       </c>
       <c r="BX97" s="14">
         <f>IF(B97="","",COUNTIF(B97:BW97,"W"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY97" s="15">
         <f>IF(B97="","",COUNTIF(B97:BW97,"L"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ97" s="15"/>
       <c r="CA97" s="16">
@@ -48496,7 +48506,7 @@
     <mergeCell ref="B91:N91"/>
     <mergeCell ref="B87:N87"/>
     <mergeCell ref="FF13:FR13"/>
-    <mergeCell ref="FF17:FR17"/>
+    <mergeCell ref="CD37:CP37"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="B49:N49"/>
     <mergeCell ref="B83:N83"/>
@@ -48507,9 +48517,9 @@
     <mergeCell ref="FF33:FR33"/>
     <mergeCell ref="FF21:FR21"/>
     <mergeCell ref="CD17:CP17"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="FF17:FR17"/>
     <mergeCell ref="FF66:FR66"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="CD37:CP37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48751,7 +48761,7 @@
       </c>
       <c r="D2" s="18" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="E2" s="18" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -48759,7 +48769,7 @@
       </c>
       <c r="F2" s="18" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G2" s="18" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -48767,7 +48777,7 @@
       </c>
       <c r="H2" s="18" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I2" s="18" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
@@ -48775,35 +48785,35 @@
       </c>
       <c r="J2" s="18" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="K2" s="18" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="18" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M2" s="18" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N2" s="18" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O2" s="18" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="P2" s="18" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q2" s="18" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R2" s="18" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
@@ -49049,51 +49059,51 @@
       </c>
       <c r="F3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M3" s="18" t="str">
+        <v>6</v>
+      </c>
+      <c r="M3" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N3" s="18" t="str">
+        <v>6</v>
+      </c>
+      <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O3" s="18" t="str">
+        <v>6</v>
+      </c>
+      <c r="O3" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P3" s="18" t="str">
+        <v>6</v>
+      </c>
+      <c r="P3" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q3" s="18" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="18">
         <f t="shared" si="0"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="R3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -49333,59 +49343,59 @@
       <c r="D4" s="18">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M4" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N4" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="N4" s="18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O4" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="O4" s="18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P4" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="P4" s="18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q4" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="18">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="R4" s="18" t="str">
         <f t="shared" si="3"/>
@@ -49620,59 +49630,59 @@
       </c>
       <c r="D5" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="M5" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N5" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="N5" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O5" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="O5" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P5" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="P5" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q5" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="18">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="R5" s="18" t="str">
         <f t="shared" si="5"/>
@@ -50005,43 +50015,43 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50300,7 +50310,7 @@
       </c>
       <c r="J8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50308,31 +50318,31 @@
       </c>
       <c r="L8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="M8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="R8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50598,7 +50608,7 @@
       </c>
       <c r="L9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50606,25 +50616,25 @@
       </c>
       <c r="N9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O9" s="18" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S9" s="18" t="str">
         <f t="shared" si="13"/>
@@ -50962,7 +50972,7 @@
       </c>
       <c r="I11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -50978,23 +50988,23 @@
       </c>
       <c r="M11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51260,35 +51270,35 @@
       </c>
       <c r="J12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51558,7 +51568,7 @@
       </c>
       <c r="K13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51566,23 +51576,23 @@
       </c>
       <c r="M13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51940,23 +51950,23 @@
       </c>
       <c r="N15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52242,23 +52252,23 @@
       </c>
       <c r="N16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52529,23 +52539,23 @@
       </c>
       <c r="N17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52891,23 +52901,23 @@
       </c>
       <c r="M19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -53185,23 +53195,23 @@
       </c>
       <c r="M20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53479,23 +53489,23 @@
       </c>
       <c r="M21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53850,23 +53860,23 @@
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -54138,23 +54148,23 @@
       </c>
       <c r="M24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R24" s="19" t="str">
         <f t="shared" si="45"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B1D173-FA89-495F-87E8-21679C7BE6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F198C970-CB63-4636-B6DC-58F1B3A95F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="54">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1494,28 +1494,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>2</v>
@@ -1527,19 +1527,23 @@
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1599,16 +1603,16 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2388,7 +2392,7 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N23="","",AI!N23)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O23="","",AI!O23)</f>
@@ -2396,7 +2400,7 @@
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P23="","",AI!P23)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q23="","",AI!Q23)</f>
@@ -2408,11 +2412,11 @@
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S23="","",AI!S23)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!T23="","",AI!T23)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!U23="","",AI!U23)</f>
@@ -3011,7 +3015,7 @@
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N24="","",AI!N24)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O24="","",AI!O24)</f>
@@ -3023,15 +3027,15 @@
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q24="","",AI!Q24)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R24="","",AI!R24)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!S24="","",AI!S24)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!T24="","",AI!T24)</f>
@@ -3263,16 +3267,16 @@
       </c>
       <c r="BX16" s="14">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="15">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="16">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4875,12 +4879,12 @@
       <c r="C3" s="2" t="str">
         <f>IF(DATA!C3="","",
 IF(DATA!B3=DATA!C3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IF(DATA!D3="","",
 IF(DATA!C3=DATA!D3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>IF(DATA!E3="","",
@@ -4900,7 +4904,7 @@
       <c r="H3" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(DATA!G3=DATA!H3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -4925,7 +4929,7 @@
       <c r="M3" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(DATA!L3=DATA!M3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="N3" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -4945,12 +4949,12 @@
       <c r="Q3" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(DATA!P3=DATA!Q3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="R3" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(DATA!Q3=DATA!R3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="S3" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -5257,13 +5261,13 @@
         <f>IF(DATA!D3="","",
 IF(AL!C3&lt;&gt;AL!D3,AL!C3,
 IF(AL!C3=AL!D3,AL!D3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CH3" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(AL!D3&lt;&gt;AL!E3,AL!D3,
 IF(AL!D3=AL!E3,AL!E3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CI3" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -5287,7 +5291,7 @@
         <f>IF(DATA!I3="","",
 IF(AL!H3&lt;&gt;AL!I3,AL!H3,
 IF(AL!H3=AL!I3,AL!I3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CM3" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -5317,7 +5321,7 @@
         <f>IF(DATA!N3="","",
 IF(AL!M3&lt;&gt;AL!N3,AL!M3,
 IF(AL!M3=AL!N3,AL!N3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CR3" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -5335,13 +5339,13 @@
         <f>IF(DATA!Q3="","",
 IF(AL!P3&lt;&gt;AL!Q3,AL!P3,
 IF(AL!P3=AL!Q3,AL!Q3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CU3" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(AL!Q3&lt;&gt;AL!R3,AL!Q3,
 IF(AL!Q3=AL!R3,AL!R3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CV3" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -6629,7 +6633,7 @@
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6641,11 +6645,11 @@
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6661,11 +6665,11 @@
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="N7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6677,11 +6681,11 @@
       </c>
       <c r="Q7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="R7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="S7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6942,7 +6946,7 @@
         <f>IF(DATA!F3="","",
 IF(AL!E7&lt;&gt;AL!F7,AL!E7,
 IF(AL!E7=AL!F7,AL!F7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CJ7" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -6960,13 +6964,13 @@
         <f>IF(DATA!I3="","",
 IF(AL!H7&lt;&gt;AL!I7,AL!H7,
 IF(AL!H7=AL!I7,AL!I7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CM7" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(AL!I7&lt;&gt;AL!J7,AL!I7,
 IF(AL!I7=AL!J7,AL!J7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CN7" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -6990,13 +6994,13 @@
         <f>IF(DATA!N3="","",
 IF(AL!M7&lt;&gt;AL!N7,AL!M7,
 IF(AL!M7=AL!N7,AL!N7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CR7" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(AL!N7&lt;&gt;AL!O7,AL!N7,
 IF(AL!N7=AL!O7,AL!O7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CS7" s="2" t="str">
         <f>IF(DATA!P3="","",
@@ -7008,13 +7012,13 @@
         <f>IF(DATA!Q3="","",
 IF(AL!P7&lt;&gt;AL!Q7,AL!P7,
 IF(AL!P7=AL!Q7,AL!Q7)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CU7" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(AL!Q7&lt;&gt;AL!R7,AL!Q7,
 IF(AL!Q7=AL!R7,AL!R7)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CV7" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -7381,7 +7385,7 @@
         <f>IF(CI7="","",
 IF(CI7="O",AL!F3,
 IF(CI7="X",AL!E3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FL7" s="2" t="str">
         <f>IF(CJ7="","",
@@ -7393,13 +7397,13 @@
         <f>IF(CK7="","",
 IF(CK7="O",AL!H3,
 IF(CK7="X",AL!G3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FN7" s="2" t="str">
         <f>IF(CL7="","",
 IF(CL7="O",AL!I3,
 IF(CL7="X",AL!H3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FO7" s="2" t="str">
         <f>IF(CM7="","",
@@ -7423,13 +7427,13 @@
         <f>IF(CP7="","",
 IF(CP7="O",AL!M3,
 IF(CP7="X",AL!L3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FS7" s="2" t="str">
         <f>IF(CQ7="","",
 IF(CQ7="O",AL!N3,
 IF(CQ7="X",AL!M3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FT7" s="2" t="str">
         <f>IF(CR7="","",
@@ -7447,13 +7451,13 @@
         <f>IF(CT7="","",
 IF(CT7="O",AL!Q3,
 IF(CT7="X",AL!P3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="FW7" s="2" t="str">
         <f>IF(CU7="","",
 IF(CU7="O",AL!R3,
 IF(CU7="X",AL!Q3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="FX7" s="2" t="str">
         <f>IF(CV7="","",
@@ -8738,31 +8742,31 @@
         <f>IF(DATA!C3="","",
 IF(DATA!B3&lt;&gt;DATA!C3,DATA!B3,
 IF(DATA!B3=DATA!C3,DATA!C3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>IF(DATA!D3="","",
 IF(DATA!C3&lt;&gt;DATA!D3,DATA!C3,
 IF(DATA!C3=DATA!D3,DATA!D3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(DATA!D3&lt;&gt;DATA!E3,DATA!D3,
 IF(DATA!D3=DATA!E3,DATA!E3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3&lt;&gt;DATA!F3,DATA!E3,
 IF(DATA!E3=DATA!F3,DATA!F3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(DATA!F3&lt;&gt;DATA!G3,DATA!F3,
 IF(DATA!F3=DATA!G3,DATA!G3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -8774,13 +8778,13 @@
         <f>IF(DATA!I3="","",
 IF(DATA!H3&lt;&gt;DATA!I3,DATA!H3,
 IF(DATA!H3=DATA!I3,DATA!I3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(DATA!I3&lt;&gt;DATA!J3,DATA!I3,
 IF(DATA!I3=DATA!J3,DATA!J3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -8804,31 +8808,31 @@
         <f>IF(DATA!N3="","",
 IF(DATA!M3&lt;&gt;DATA!N3,DATA!M3,
 IF(DATA!M3=DATA!N3,DATA!N3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="P11" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(DATA!N3&lt;&gt;DATA!O3,DATA!N3,
 IF(DATA!N3=DATA!O3,DATA!O3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(DATA!O3&lt;&gt;DATA!P3,DATA!O3,
 IF(DATA!O3=DATA!P3,DATA!P3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="R11" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(DATA!P3&lt;&gt;DATA!Q3,DATA!P3,
 IF(DATA!P3=DATA!Q3,DATA!Q3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="S11" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(DATA!Q3&lt;&gt;DATA!R3,DATA!Q3,
 IF(DATA!Q3=DATA!R3,DATA!R3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T11" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -9186,25 +9190,25 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
 IF(AL!CH3="O",DATA!E3,
 IF(AL!CH3="X",DATA!D3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CI11" s="2" t="str">
         <f>IF(AL!CI3="","",
 IF(AL!CI3="O",DATA!F3,
 IF(AL!CI3="X",DATA!E3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="CJ11" s="2" t="str">
         <f>IF(AL!CJ3="","",
 IF(AL!CJ3="O",DATA!G3,
 IF(AL!CJ3="X",DATA!F3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="CK11" s="2" t="str">
         <f>IF(AL!CK3="","",
@@ -9216,13 +9220,13 @@
         <f>IF(AL!CL3="","",
 IF(AL!CL3="O",DATA!I3,
 IF(AL!CL3="X",DATA!H3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CM11" s="2" t="str">
         <f>IF(AL!CM3="","",
 IF(AL!CM3="O",DATA!J3,
 IF(AL!CM3="X",DATA!I3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="CN11" s="2" t="str">
         <f>IF(AL!CN3="","",
@@ -9252,25 +9256,25 @@
         <f>IF(AL!CR3="","",
 IF(AL!CR3="O",DATA!O3,
 IF(AL!CR3="X",DATA!N3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="CS11" s="2" t="str">
         <f>IF(AL!CS3="","",
 IF(AL!CS3="O",DATA!P3,
 IF(AL!CS3="X",DATA!O3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CT11" s="2" t="str">
         <f>IF(AL!CT3="","",
 IF(AL!CT3="O",DATA!Q3,
 IF(AL!CT3="X",DATA!P3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="CU11" s="2" t="str">
         <f>IF(AL!CU3="","",
 IF(AL!CU3="O",DATA!R3,
 IF(AL!CU3="X",DATA!Q3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CV11" s="2" t="str">
         <f>IF(AL!CV3="","",
@@ -9631,7 +9635,7 @@
         <f>IF(AL!FJ7="","",
 IF(AL!FJ7="O",DATA!E3,
 IF(AL!FJ7="X",DATA!D3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FK11" s="2" t="str">
         <f>IF(AL!FK7="","",
@@ -9643,7 +9647,7 @@
         <f>IF(AL!FL7="","",
 IF(AL!FL7="O",DATA!G3,
 IF(AL!FL7="X",DATA!F3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="FM11" s="2" t="str">
         <f>IF(AL!FM7="","",
@@ -9655,13 +9659,13 @@
         <f>IF(AL!FN7="","",
 IF(AL!FN7="O",DATA!I3,
 IF(AL!FN7="X",DATA!H3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="FO11" s="2" t="str">
         <f>IF(AL!FO7="","",
 IF(AL!FO7="O",DATA!J3,
 IF(AL!FO7="X",DATA!I3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="FP11" s="2" t="str">
         <f>IF(AL!FP7="","",
@@ -9691,25 +9695,25 @@
         <f>IF(AL!FT7="","",
 IF(AL!FT7="O",DATA!O3,
 IF(AL!FT7="X",DATA!N3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="FU11" s="2" t="str">
         <f>IF(AL!FU7="","",
 IF(AL!FU7="O",DATA!P3,
 IF(AL!FU7="X",DATA!O3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FV11" s="2" t="str">
         <f>IF(AL!FV7="","",
 IF(AL!FV7="O",DATA!Q3,
 IF(AL!FV7="X",DATA!P3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="FW11" s="2" t="str">
         <f>IF(AL!FW7="","",
 IF(AL!FW7="O",DATA!R3,
 IF(AL!FW7="X",DATA!Q3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FX11" s="2" t="str">
         <f>IF(AL!FX7="","",
@@ -11008,7 +11012,7 @@
         <f>IF(DATA!E3="","",
 IF(E11="","",
 IF(E11="N","N",IF(DATA!E3=E11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -11020,7 +11024,7 @@
         <f>IF(DATA!G3="","",
 IF(G11="","",
 IF(G11="N","N",IF(DATA!G3=G11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="H15" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -11032,19 +11036,19 @@
         <f>IF(DATA!I3="","",
 IF(I11="","",
 IF(I11="N","N",IF(DATA!I3=I11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(J11="","",
 IF(J11="N","N",IF(DATA!J3=J11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(K11="","",
 IF(K11="N","N",IF(DATA!K3=K11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L15" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -11080,13 +11084,13 @@
         <f>IF(DATA!Q3="","",
 IF(Q11="","",
 IF(Q11="N","N",IF(DATA!Q3=Q11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(R11="","",
 IF(R11="N","N",IF(DATA!R3=R11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S15" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -11460,7 +11464,7 @@
         <f>IF(DATA!E3="","",
 IF(CG11="","",
 IF(CG11="N","N",IF(DATA!E3=CG11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CH15" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -11484,19 +11488,19 @@
         <f>IF(DATA!I3="","",
 IF(CK11="","",
 IF(CK11="N","N",IF(DATA!I3=CK11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(CL11="","",
 IF(CL11="N","N",IF(DATA!J3=CL11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(CM11="","",
 IF(CM11="N","N",IF(DATA!K3=CM11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN15" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -11532,13 +11536,13 @@
         <f>IF(DATA!Q3="","",
 IF(CS11="","",
 IF(CS11="N","N",IF(DATA!Q3=CS11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CT15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(CT11="","",
 IF(CT11="N","N",IF(DATA!R3=CT11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CU15" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -11935,19 +11939,19 @@
         <f>IF(DATA!I3="","",
 IF(FM11="","",
 IF(FM11="N","N",IF(DATA!I3=FM11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FN15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(FN11="","",
 IF(FN11="N","N",IF(DATA!J3=FN11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(FO11="","",
 IF(FO11="N","N",IF(DATA!K3=FO11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP15" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -11983,13 +11987,13 @@
         <f>IF(DATA!Q3="","",
 IF(FU11="","",
 IF(FU11="N","N",IF(DATA!Q3=FU11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FV15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(FV11="","",
 IF(FV11="N","N",IF(DATA!R3=FV11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FW15" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -13296,7 +13300,7 @@
 IF(AL!H11="N","N",
 IF(COUNTIF(AL!D15:G15,"W")&gt;=2,AL!H11,
 IF(COUNTIF(AL!D15:G15,"W")&lt;2,IF(AL!H11="P","B","P")))))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>IF(AL!I11="","",
@@ -13310,7 +13314,7 @@
 IF(AL!J11="N","N",
 IF(COUNTIF(AL!F15:I15,"W")&gt;=2,AL!J11,
 IF(COUNTIF(AL!F15:I15,"W")&lt;2,IF(AL!J11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K19" s="2" t="str">
         <f>IF(AL!K11="","",
@@ -13324,56 +13328,56 @@
 IF(AL!L11="N","N",
 IF(COUNTIF(AL!H15:K15,"W")&gt;=2,AL!L11,
 IF(COUNTIF(AL!H15:K15,"W")&lt;2,IF(AL!L11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>IF(AL!M11="","",
 IF(AL!M11="N","N",
 IF(COUNTIF(AL!I15:L15,"W")&gt;=2,AL!M11,
 IF(COUNTIF(AL!I15:L15,"W")&lt;2,IF(AL!M11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>IF(AL!N11="","",
 IF(AL!N11="N","N",
 IF(COUNTIF(AL!J15:M15,"W")&gt;=2,AL!N11,
 IF(COUNTIF(AL!J15:M15,"W")&lt;2,IF(AL!N11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>IF(AL!O11="","",
 IF(AL!O11="N","N",
 IF(COUNTIF(AL!K15:N15,"W")&gt;=2,AL!O11,
 IF(COUNTIF(AL!K15:N15,"W")&lt;2,IF(AL!O11="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="P19" s="2" t="str">
         <f>IF(AL!P11="","",
 IF(AL!P11="N","N",
 IF(COUNTIF(AL!L15:O15,"W")&gt;=2,AL!P11,
 IF(COUNTIF(AL!L15:O15,"W")&lt;2,IF(AL!P11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q19" s="2" t="str">
         <f>IF(AL!Q11="","",
 IF(AL!Q11="N","N",
 IF(COUNTIF(AL!M15:P15,"W")&gt;=2,AL!Q11,
 IF(COUNTIF(AL!M15:P15,"W")&lt;2,IF(AL!Q11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="R19" s="2" t="str">
         <f>IF(AL!R11="","",
 IF(AL!R11="N","N",
 IF(COUNTIF(AL!N15:Q15,"W")&gt;=2,AL!R11,
 IF(COUNTIF(AL!N15:Q15,"W")&lt;2,IF(AL!R11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S19" s="2" t="str">
         <f>IF(AL!S11="","",
 IF(AL!S11="N","N",
 IF(COUNTIF(AL!O15:R15,"W")&gt;=2,AL!S11,
 IF(COUNTIF(AL!O15:R15,"W")&lt;2,IF(AL!S11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T19" s="2" t="str">
         <f>IF(AL!T11="","",
@@ -13821,56 +13825,56 @@
 IF(AL!CN11="N","N",
 IF(COUNTIF(AL!CJ15:CM15,"W")&gt;=2,AL!CN11,
 IF(COUNTIF(AL!CJ15:CM15,"W")&lt;2,IF(AL!CN11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO19" s="2" t="str">
         <f>IF(AL!CO11="","",
 IF(AL!CO11="N","N",
 IF(COUNTIF(AL!CK15:CN15,"W")&gt;=2,AL!CO11,
 IF(COUNTIF(AL!CK15:CN15,"W")&lt;2,IF(AL!CO11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP19" s="2" t="str">
         <f>IF(AL!CP11="","",
 IF(AL!CP11="N","N",
 IF(COUNTIF(AL!CL15:CO15,"W")&gt;=2,AL!CP11,
 IF(COUNTIF(AL!CL15:CO15,"W")&lt;2,IF(AL!CP11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ19" s="2" t="str">
         <f>IF(AL!CQ11="","",
 IF(AL!CQ11="N","N",
 IF(COUNTIF(AL!CM15:CP15,"W")&gt;=2,AL!CQ11,
 IF(COUNTIF(AL!CM15:CP15,"W")&lt;2,IF(AL!CQ11="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CR19" s="2" t="str">
         <f>IF(AL!CR11="","",
 IF(AL!CR11="N","N",
 IF(COUNTIF(AL!CN15:CQ15,"W")&gt;=2,AL!CR11,
 IF(COUNTIF(AL!CN15:CQ15,"W")&lt;2,IF(AL!CR11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CS19" s="2" t="str">
         <f>IF(AL!CS11="","",
 IF(AL!CS11="N","N",
 IF(COUNTIF(AL!CO15:CR15,"W")&gt;=2,AL!CS11,
 IF(COUNTIF(AL!CO15:CR15,"W")&lt;2,IF(AL!CS11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CT19" s="2" t="str">
         <f>IF(AL!CT11="","",
 IF(AL!CT11="N","N",
 IF(COUNTIF(AL!CP15:CS15,"W")&gt;=2,AL!CT11,
 IF(COUNTIF(AL!CP15:CS15,"W")&lt;2,IF(AL!CT11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CU19" s="2" t="str">
         <f>IF(AL!CU11="","",
 IF(AL!CU11="N","N",
 IF(COUNTIF(AL!CQ15:CT15,"W")&gt;=2,AL!CU11,
 IF(COUNTIF(AL!CQ15:CT15,"W")&lt;2,IF(AL!CU11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CV19" s="2" t="str">
         <f>IF(AL!CV11="","",
@@ -14314,56 +14318,56 @@
 IF(AL!FP11="N","N",
 IF(COUNTIF(AL!FL15:FO15,"W")&gt;=2,AL!FP11,
 IF(COUNTIF(AL!FL15:FO15,"W")&lt;2,IF(AL!FP11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ19" s="2" t="str">
         <f>IF(AL!FQ11="","",
 IF(AL!FQ11="N","N",
 IF(COUNTIF(AL!FM15:FP15,"W")&gt;=2,AL!FQ11,
 IF(COUNTIF(AL!FM15:FP15,"W")&lt;2,IF(AL!FQ11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR19" s="2" t="str">
         <f>IF(AL!FR11="","",
 IF(AL!FR11="N","N",
 IF(COUNTIF(AL!FN15:FQ15,"W")&gt;=2,AL!FR11,
 IF(COUNTIF(AL!FN15:FQ15,"W")&lt;2,IF(AL!FR11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS19" s="2" t="str">
         <f>IF(AL!FS11="","",
 IF(AL!FS11="N","N",
 IF(COUNTIF(AL!FO15:FR15,"W")&gt;=2,AL!FS11,
 IF(COUNTIF(AL!FO15:FR15,"W")&lt;2,IF(AL!FS11="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="FT19" s="2" t="str">
         <f>IF(AL!FT11="","",
 IF(AL!FT11="N","N",
 IF(COUNTIF(AL!FP15:FS15,"W")&gt;=2,AL!FT11,
 IF(COUNTIF(AL!FP15:FS15,"W")&lt;2,IF(AL!FT11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FU19" s="2" t="str">
         <f>IF(AL!FU11="","",
 IF(AL!FU11="N","N",
 IF(COUNTIF(AL!FQ15:FT15,"W")&gt;=2,AL!FU11,
 IF(COUNTIF(AL!FQ15:FT15,"W")&lt;2,IF(AL!FU11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FV19" s="2" t="str">
         <f>IF(AL!FV11="","",
 IF(AL!FV11="N","N",
 IF(COUNTIF(AL!FR15:FU15,"W")&gt;=2,AL!FV11,
 IF(COUNTIF(AL!FR15:FU15,"W")&lt;2,IF(AL!FV11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FW19" s="2" t="str">
         <f>IF(AL!FW11="","",
 IF(AL!FW11="N","N",
 IF(COUNTIF(AL!FS15:FV15,"W")&gt;=2,AL!FW11,
 IF(COUNTIF(AL!FS15:FV15,"W")&lt;2,IF(AL!FW11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FX19" s="2" t="str">
         <f>IF(AL!FX11="","",
@@ -15748,7 +15752,7 @@
         <f>IF(DATA!J$3="","",
 IF(J19="","",
 IF(J19="N","N",IF(DATA!J$3=J19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K23" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -15760,13 +15764,13 @@
         <f>IF(DATA!L$3="","",
 IF(L19="","",
 IF(L19="N","N",IF(DATA!L$3=L19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M19="","",
 IF(M19="N","N",IF(DATA!M$3=M19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N23" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -15778,7 +15782,7 @@
         <f>IF(DATA!O$3="","",
 IF(O19="","",
 IF(O19="N","N",IF(DATA!O$3=O19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P23" s="2" t="str">
         <f>IF(DATA!P$3="","",
@@ -15790,13 +15794,13 @@
         <f>IF(DATA!Q$3="","",
 IF(Q19="","",
 IF(Q19="N","N",IF(DATA!Q$3=Q19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R19="","",
 IF(R19="N","N",IF(DATA!R$3=R19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S23" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -16212,13 +16216,13 @@
         <f>IF(DATA!L$3="","",
 IF(CN19="","",
 IF(CN19="N","N",IF(DATA!L$3=CN19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO19="","",
 IF(CO19="N","N",IF(DATA!M$3=CO19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP23" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -16230,7 +16234,7 @@
         <f>IF(DATA!O$3="","",
 IF(CQ19="","",
 IF(CQ19="N","N",IF(DATA!O$3=CQ19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CR23" s="2" t="str">
         <f>IF(DATA!P$3="","",
@@ -16242,13 +16246,13 @@
         <f>IF(DATA!Q$3="","",
 IF(CS19="","",
 IF(CS19="N","N",IF(DATA!Q$3=CS19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CT23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT19="","",
 IF(CT19="N","N",IF(DATA!R$3=CT19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CU23" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -16663,13 +16667,13 @@
         <f>IF(DATA!L$3="","",
 IF(FP19="","",
 IF(FP19="N","N",IF(DATA!L$3=FP19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FQ23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ19="","",
 IF(FQ19="N","N",IF(DATA!M$3=FQ19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FR23" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -16681,7 +16685,7 @@
         <f>IF(DATA!O$3="","",
 IF(FS19="","",
 IF(FS19="N","N",IF(DATA!O$3=FS19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FT23" s="2" t="str">
         <f>IF(DATA!P$3="","",
@@ -16693,13 +16697,13 @@
         <f>IF(DATA!Q$3="","",
 IF(FU19="","",
 IF(FU19="N","N",IF(DATA!Q$3=FU19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FV23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV19="","",
 IF(FV19="N","N",IF(DATA!R$3=FV19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FW23" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -18017,7 +18021,7 @@
 IF(AL!J19="N","N",
 IF(COUNTIF(AL!F23:I23,"W")&gt;=2,AL!J19,
 IF(COUNTIF(AL!F23:I23,"W")&lt;2,IF(AL!J19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K27" s="2" t="str">
         <f>IF(AL!K19="","",
@@ -18038,21 +18042,21 @@
 IF(AL!M19="N","N",
 IF(COUNTIF(AL!I23:L23,"W")&gt;=2,AL!M19,
 IF(COUNTIF(AL!I23:L23,"W")&lt;2,IF(AL!M19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N27" s="2" t="str">
         <f>IF(AL!N19="","",
 IF(AL!N19="N","N",
 IF(COUNTIF(AL!J23:M23,"W")&gt;=2,AL!N19,
 IF(COUNTIF(AL!J23:M23,"W")&lt;2,IF(AL!N19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O27" s="2" t="str">
         <f>IF(AL!O19="","",
 IF(AL!O19="N","N",
 IF(COUNTIF(AL!K23:N23,"W")&gt;=2,AL!O19,
 IF(COUNTIF(AL!K23:N23,"W")&lt;2,IF(AL!O19="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="P27" s="2" t="str">
         <f>IF(AL!P19="","",
@@ -18073,14 +18077,14 @@
 IF(AL!R19="N","N",
 IF(COUNTIF(AL!N23:Q23,"W")&gt;=2,AL!R19,
 IF(COUNTIF(AL!N23:Q23,"W")&lt;2,IF(AL!R19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S27" s="2" t="str">
         <f>IF(AL!S19="","",
 IF(AL!S19="N","N",
 IF(COUNTIF(AL!O23:R23,"W")&gt;=2,AL!S19,
 IF(COUNTIF(AL!O23:R23,"W")&lt;2,IF(AL!S19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T27" s="2" t="str">
         <f>IF(AL!T19="","",
@@ -18528,7 +18532,7 @@
 IF(AL!CN19="N","N",
 IF(COUNTIF(AL!CJ23:CM23,"W")&gt;=2,AL!CN19,
 IF(COUNTIF(AL!CJ23:CM23,"W")&lt;2,IF(AL!CN19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO27" s="2" t="str">
         <f>IF(AL!CO19="","",
@@ -18542,14 +18546,14 @@
 IF(AL!CP19="N","N",
 IF(COUNTIF(AL!CL23:CO23,"W")&gt;=2,AL!CP19,
 IF(COUNTIF(AL!CL23:CO23,"W")&lt;2,IF(AL!CP19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ27" s="2" t="str">
         <f>IF(AL!CQ19="","",
 IF(AL!CQ19="N","N",
 IF(COUNTIF(AL!CM23:CP23,"W")&gt;=2,AL!CQ19,
 IF(COUNTIF(AL!CM23:CP23,"W")&lt;2,IF(AL!CQ19="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CR27" s="2" t="str">
         <f>IF(AL!CR19="","",
@@ -18570,14 +18574,14 @@
 IF(AL!CT19="N","N",
 IF(COUNTIF(AL!CP23:CS23,"W")&gt;=2,AL!CT19,
 IF(COUNTIF(AL!CP23:CS23,"W")&lt;2,IF(AL!CT19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CU27" s="2" t="str">
         <f>IF(AL!CU19="","",
 IF(AL!CU19="N","N",
 IF(COUNTIF(AL!CQ23:CT23,"W")&gt;=2,AL!CU19,
 IF(COUNTIF(AL!CQ23:CT23,"W")&lt;2,IF(AL!CU19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CV27" s="2" t="str">
         <f>IF(AL!CV19="","",
@@ -19021,7 +19025,7 @@
 IF(AL!FP19="N","N",
 IF(COUNTIF(AL!FL23:FO23,"W")&gt;=2,AL!FP19,
 IF(COUNTIF(AL!FL23:FO23,"W")&lt;2,IF(AL!FP19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ27" s="2" t="str">
         <f>IF(AL!FQ19="","",
@@ -19035,14 +19039,14 @@
 IF(AL!FR19="N","N",
 IF(COUNTIF(AL!FN23:FQ23,"W")&gt;=2,AL!FR19,
 IF(COUNTIF(AL!FN23:FQ23,"W")&lt;2,IF(AL!FR19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS27" s="2" t="str">
         <f>IF(AL!FS19="","",
 IF(AL!FS19="N","N",
 IF(COUNTIF(AL!FO23:FR23,"W")&gt;=2,AL!FS19,
 IF(COUNTIF(AL!FO23:FR23,"W")&lt;2,IF(AL!FS19="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="FT27" s="2" t="str">
         <f>IF(AL!FT19="","",
@@ -19063,14 +19067,14 @@
 IF(AL!FV19="N","N",
 IF(COUNTIF(AL!FR23:FU23,"W")&gt;=2,AL!FV19,
 IF(COUNTIF(AL!FR23:FU23,"W")&lt;2,IF(AL!FV19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FW27" s="2" t="str">
         <f>IF(AL!FW19="","",
 IF(AL!FW19="N","N",
 IF(COUNTIF(AL!FS23:FV23,"W")&gt;=2,AL!FW19,
 IF(COUNTIF(AL!FS23:FV23,"W")&lt;2,IF(AL!FW19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FX27" s="2" t="str">
         <f>IF(AL!FX19="","",
@@ -20443,19 +20447,19 @@
         <f>IF(DATA!H$3="","",
 IF(H27="","",
 IF(H27="N","N",IF(DATA!H$3=H27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I27="","",
 IF(I27="N","N",IF(DATA!I$3=I27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J27="","",
 IF(J27="N","N",IF(DATA!J$3=J27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -20473,7 +20477,7 @@
         <f>IF(DATA!M$3="","",
 IF(M27="","",
 IF(M27="N","N",IF(DATA!M$3=M27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -20485,7 +20489,7 @@
         <f>IF(DATA!O$3="","",
 IF(O27="","",
 IF(O27="N","N",IF(DATA!O$3=O27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P31" s="2" t="str">
         <f>IF(DATA!P$3="","",
@@ -20497,13 +20501,13 @@
         <f>IF(DATA!Q$3="","",
 IF(Q27="","",
 IF(Q27="N","N",IF(DATA!Q$3=Q27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R27="","",
 IF(R27="N","N",IF(DATA!R$3=R27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S31" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -20901,7 +20905,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK27="","",
 IF(CK27="N","N",IF(DATA!I$3=CK27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL31" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -20919,7 +20923,7 @@
         <f>IF(DATA!L$3="","",
 IF(CN27="","",
 IF(CN27="N","N",IF(DATA!L$3=CN27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO31" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -20937,7 +20941,7 @@
         <f>IF(DATA!O$3="","",
 IF(CQ27="","",
 IF(CQ27="N","N",IF(DATA!O$3=CQ27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CR31" s="2" t="str">
         <f>IF(DATA!P$3="","",
@@ -20949,13 +20953,13 @@
         <f>IF(DATA!Q$3="","",
 IF(CS27="","",
 IF(CS27="N","N",IF(DATA!Q$3=CS27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CT31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT27="","",
 IF(CT27="N","N",IF(DATA!R$3=CT27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CU31" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -21370,7 +21374,7 @@
         <f>IF(DATA!L$3="","",
 IF(FP27="","",
 IF(FP27="N","N",IF(DATA!L$3=FP27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ31" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -21388,7 +21392,7 @@
         <f>IF(DATA!O$3="","",
 IF(FS27="","",
 IF(FS27="N","N",IF(DATA!O$3=FS27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FT31" s="2" t="str">
         <f>IF(DATA!P$3="","",
@@ -21400,13 +21404,13 @@
         <f>IF(DATA!Q$3="","",
 IF(FU27="","",
 IF(FU27="N","N",IF(DATA!Q$3=FU27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FV31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV27="","",
 IF(FV27="N","N",IF(DATA!R$3=FV27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FW31" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -22724,21 +22728,21 @@
 IF(AL!J27="N","N",
 IF(COUNTIF(AL!F31:I31,"W")&gt;=2,AL!J27,
 IF(COUNTIF(AL!F31:I31,"W")&lt;2,IF(AL!J27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K35" s="2" t="str">
         <f>IF(AL!K27="","",
 IF(AL!K27="N","N",
 IF(COUNTIF(AL!G31:J31,"W")&gt;=2,AL!K27,
 IF(COUNTIF(AL!G31:J31,"W")&lt;2,IF(AL!K27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L35" s="2" t="str">
         <f>IF(AL!L27="","",
 IF(AL!L27="N","N",
 IF(COUNTIF(AL!H31:K31,"W")&gt;=2,AL!L27,
 IF(COUNTIF(AL!H31:K31,"W")&lt;2,IF(AL!L27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M35" s="2" t="str">
         <f>IF(AL!M27="","",
@@ -22752,42 +22756,42 @@
 IF(AL!N27="N","N",
 IF(COUNTIF(AL!J31:M31,"W")&gt;=2,AL!N27,
 IF(COUNTIF(AL!J31:M31,"W")&lt;2,IF(AL!N27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O35" s="2" t="str">
         <f>IF(AL!O27="","",
 IF(AL!O27="N","N",
 IF(COUNTIF(AL!K31:N31,"W")&gt;=2,AL!O27,
 IF(COUNTIF(AL!K31:N31,"W")&lt;2,IF(AL!O27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P35" s="2" t="str">
         <f>IF(AL!P27="","",
 IF(AL!P27="N","N",
 IF(COUNTIF(AL!L31:O31,"W")&gt;=2,AL!P27,
 IF(COUNTIF(AL!L31:O31,"W")&lt;2,IF(AL!P27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q35" s="2" t="str">
         <f>IF(AL!Q27="","",
 IF(AL!Q27="N","N",
 IF(COUNTIF(AL!M31:P31,"W")&gt;=2,AL!Q27,
 IF(COUNTIF(AL!M31:P31,"W")&lt;2,IF(AL!Q27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="R35" s="2" t="str">
         <f>IF(AL!R27="","",
 IF(AL!R27="N","N",
 IF(COUNTIF(AL!N31:Q31,"W")&gt;=2,AL!R27,
 IF(COUNTIF(AL!N31:Q31,"W")&lt;2,IF(AL!R27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S35" s="2" t="str">
         <f>IF(AL!S27="","",
 IF(AL!S27="N","N",
 IF(COUNTIF(AL!O31:R31,"W")&gt;=2,AL!S27,
 IF(COUNTIF(AL!O31:R31,"W")&lt;2,IF(AL!S27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T35" s="2" t="str">
         <f>IF(AL!T27="","",
@@ -23228,7 +23232,7 @@
 IF(AL!CM27="N","N",
 IF(COUNTIF(AL!CI31:CL31,"W")&gt;=2,AL!CM27,
 IF(COUNTIF(AL!CI31:CL31,"W")&lt;2,IF(AL!CM27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN35" s="2" t="str">
         <f>IF(AL!CN27="","",
@@ -23256,14 +23260,14 @@
 IF(AL!CQ27="N","N",
 IF(COUNTIF(AL!CM31:CP31,"W")&gt;=2,AL!CQ27,
 IF(COUNTIF(AL!CM31:CP31,"W")&lt;2,IF(AL!CQ27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CR35" s="2" t="str">
         <f>IF(AL!CR27="","",
 IF(AL!CR27="N","N",
 IF(COUNTIF(AL!CN31:CQ31,"W")&gt;=2,AL!CR27,
 IF(COUNTIF(AL!CN31:CQ31,"W")&lt;2,IF(AL!CR27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CS35" s="2" t="str">
         <f>IF(AL!CS27="","",
@@ -23277,14 +23281,14 @@
 IF(AL!CT27="N","N",
 IF(COUNTIF(AL!CP31:CS31,"W")&gt;=2,AL!CT27,
 IF(COUNTIF(AL!CP31:CS31,"W")&lt;2,IF(AL!CT27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CU35" s="2" t="str">
         <f>IF(AL!CU27="","",
 IF(AL!CU27="N","N",
 IF(COUNTIF(AL!CQ31:CT31,"W")&gt;=2,AL!CU27,
 IF(COUNTIF(AL!CQ31:CT31,"W")&lt;2,IF(AL!CU27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CV35" s="2" t="str">
         <f>IF(AL!CV27="","",
@@ -23728,14 +23732,14 @@
 IF(AL!FP27="N","N",
 IF(COUNTIF(AL!FL31:FO31,"W")&gt;=2,AL!FP27,
 IF(COUNTIF(AL!FL31:FO31,"W")&lt;2,IF(AL!FP27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ35" s="2" t="str">
         <f>IF(AL!FQ27="","",
 IF(AL!FQ27="N","N",
 IF(COUNTIF(AL!FM31:FP31,"W")&gt;=2,AL!FQ27,
 IF(COUNTIF(AL!FM31:FP31,"W")&lt;2,IF(AL!FQ27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR35" s="2" t="str">
         <f>IF(AL!FR27="","",
@@ -23749,14 +23753,14 @@
 IF(AL!FS27="N","N",
 IF(COUNTIF(AL!FO31:FR31,"W")&gt;=2,AL!FS27,
 IF(COUNTIF(AL!FO31:FR31,"W")&lt;2,IF(AL!FS27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FT35" s="2" t="str">
         <f>IF(AL!FT27="","",
 IF(AL!FT27="N","N",
 IF(COUNTIF(AL!FP31:FS31,"W")&gt;=2,AL!FT27,
 IF(COUNTIF(AL!FP31:FS31,"W")&lt;2,IF(AL!FT27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FU35" s="2" t="str">
         <f>IF(AL!FU27="","",
@@ -23770,14 +23774,14 @@
 IF(AL!FV27="N","N",
 IF(COUNTIF(AL!FR31:FU31,"W")&gt;=2,AL!FV27,
 IF(COUNTIF(AL!FR31:FU31,"W")&lt;2,IF(AL!FV27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FW35" s="2" t="str">
         <f>IF(AL!FW27="","",
 IF(AL!FW27="N","N",
 IF(COUNTIF(AL!FS31:FV31,"W")&gt;=2,AL!FW27,
 IF(COUNTIF(AL!FS31:FV31,"W")&lt;2,IF(AL!FW27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FX35" s="2" t="str">
         <f>IF(AL!FX27="","",
@@ -25150,7 +25154,7 @@
         <f>IF(DATA!H$3="","",
 IF(H35="","",
 IF(H35="N","N",IF(DATA!H$3=H35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>IF(DATA!I$3="","",
@@ -25162,19 +25166,19 @@
         <f>IF(DATA!J$3="","",
 IF(J35="","",
 IF(J35="N","N",IF(DATA!J$3=J35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K39" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(K35="","",
 IF(K35="N","N",IF(DATA!K$3=K35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L35="","",
 IF(L35="N","N",IF(DATA!L$3=L35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M39" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -25186,7 +25190,7 @@
         <f>IF(DATA!N$3="","",
 IF(N35="","",
 IF(N35="N","N",IF(DATA!N$3=N35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -25204,13 +25208,13 @@
         <f>IF(DATA!Q$3="","",
 IF(Q35="","",
 IF(Q35="N","N",IF(DATA!Q$3=Q35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R35="","",
 IF(R35="N","N",IF(DATA!R$3=R35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S39" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -25620,7 +25624,7 @@
         <f>IF(DATA!K$3="","",
 IF(CM35="","",
 IF(CM35="N","N",IF(DATA!K$3=CM35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN39" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -25638,7 +25642,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP35="","",
 IF(CP35="N","N",IF(DATA!N$3=CP35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CQ39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -25656,13 +25660,13 @@
         <f>IF(DATA!Q$3="","",
 IF(CS35="","",
 IF(CS35="N","N",IF(DATA!Q$3=CS35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CT39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT35="","",
 IF(CT35="N","N",IF(DATA!R$3=CT35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CU39" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -26077,7 +26081,7 @@
         <f>IF(DATA!L$3="","",
 IF(FP35="","",
 IF(FP35="N","N",IF(DATA!L$3=FP35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FQ39" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -26089,7 +26093,7 @@
         <f>IF(DATA!N$3="","",
 IF(FR35="","",
 IF(FR35="N","N",IF(DATA!N$3=FR35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FS39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -26107,13 +26111,13 @@
         <f>IF(DATA!Q$3="","",
 IF(FU35="","",
 IF(FU35="N","N",IF(DATA!Q$3=FU35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FV39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV35="","",
 IF(FV35="N","N",IF(DATA!R$3=FV35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FW39" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -27431,14 +27435,14 @@
 IF(AL!J35="N","N",
 IF(COUNTIF(AL!F39:I39,"W")&gt;=2,AL!J35,
 IF(COUNTIF(AL!F39:I39,"W")&lt;2,IF(AL!J35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(AL!K35="","",
 IF(AL!K35="N","N",
 IF(COUNTIF(AL!G39:J39,"W")&gt;=2,AL!K35,
 IF(COUNTIF(AL!G39:J39,"W")&lt;2,IF(AL!K35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L43" s="2" t="str">
         <f>IF(AL!L35="","",
@@ -27452,7 +27456,7 @@
 IF(AL!M35="N","N",
 IF(COUNTIF(AL!I39:L39,"W")&gt;=2,AL!M35,
 IF(COUNTIF(AL!I39:L39,"W")&lt;2,IF(AL!M35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N43" s="2" t="str">
         <f>IF(AL!N35="","",
@@ -27473,28 +27477,28 @@
 IF(AL!P35="N","N",
 IF(COUNTIF(AL!L39:O39,"W")&gt;=2,AL!P35,
 IF(COUNTIF(AL!L39:O39,"W")&lt;2,IF(AL!P35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q43" s="2" t="str">
         <f>IF(AL!Q35="","",
 IF(AL!Q35="N","N",
 IF(COUNTIF(AL!M39:P39,"W")&gt;=2,AL!Q35,
 IF(COUNTIF(AL!M39:P39,"W")&lt;2,IF(AL!Q35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="R43" s="2" t="str">
         <f>IF(AL!R35="","",
 IF(AL!R35="N","N",
 IF(COUNTIF(AL!N39:Q39,"W")&gt;=2,AL!R35,
 IF(COUNTIF(AL!N39:Q39,"W")&lt;2,IF(AL!R35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S43" s="2" t="str">
         <f>IF(AL!S35="","",
 IF(AL!S35="N","N",
 IF(COUNTIF(AL!O39:R39,"W")&gt;=2,AL!S35,
 IF(COUNTIF(AL!O39:R39,"W")&lt;2,IF(AL!S35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T43" s="2" t="str">
         <f>IF(AL!T35="","",
@@ -27935,7 +27939,7 @@
 IF(AL!CM35="N","N",
 IF(COUNTIF(AL!CI39:CL39,"W")&gt;=2,AL!CM35,
 IF(COUNTIF(AL!CI39:CL39,"W")&lt;2,IF(AL!CM35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN43" s="2" t="str">
         <f>IF(AL!CN35="","",
@@ -27963,14 +27967,14 @@
 IF(AL!CQ35="N","N",
 IF(COUNTIF(AL!CM39:CP39,"W")&gt;=2,AL!CQ35,
 IF(COUNTIF(AL!CM39:CP39,"W")&lt;2,IF(AL!CQ35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CR43" s="2" t="str">
         <f>IF(AL!CR35="","",
 IF(AL!CR35="N","N",
 IF(COUNTIF(AL!CN39:CQ39,"W")&gt;=2,AL!CR35,
 IF(COUNTIF(AL!CN39:CQ39,"W")&lt;2,IF(AL!CR35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CS43" s="2" t="str">
         <f>IF(AL!CS35="","",
@@ -27984,14 +27988,14 @@
 IF(AL!CT35="N","N",
 IF(COUNTIF(AL!CP39:CS39,"W")&gt;=2,AL!CT35,
 IF(COUNTIF(AL!CP39:CS39,"W")&lt;2,IF(AL!CT35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CU43" s="2" t="str">
         <f>IF(AL!CU35="","",
 IF(AL!CU35="N","N",
 IF(COUNTIF(AL!CQ39:CT39,"W")&gt;=2,AL!CU35,
 IF(COUNTIF(AL!CQ39:CT39,"W")&lt;2,IF(AL!CU35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CV43" s="2" t="str">
         <f>IF(AL!CV35="","",
@@ -28435,7 +28439,7 @@
 IF(AL!FP35="N","N",
 IF(COUNTIF(AL!FL39:FO39,"W")&gt;=2,AL!FP35,
 IF(COUNTIF(AL!FL39:FO39,"W")&lt;2,IF(AL!FP35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ43" s="2" t="str">
         <f>IF(AL!FQ35="","",
@@ -28449,7 +28453,7 @@
 IF(AL!FR35="N","N",
 IF(COUNTIF(AL!FN39:FQ39,"W")&gt;=2,AL!FR35,
 IF(COUNTIF(AL!FN39:FQ39,"W")&lt;2,IF(AL!FR35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS43" s="2" t="str">
         <f>IF(AL!FS35="","",
@@ -28477,14 +28481,14 @@
 IF(AL!FV35="N","N",
 IF(COUNTIF(AL!FR39:FU39,"W")&gt;=2,AL!FV35,
 IF(COUNTIF(AL!FR39:FU39,"W")&lt;2,IF(AL!FV35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FW43" s="2" t="str">
         <f>IF(AL!FW35="","",
 IF(AL!FW35="N","N",
 IF(COUNTIF(AL!FS39:FV39,"W")&gt;=2,AL!FW35,
 IF(COUNTIF(AL!FS39:FV39,"W")&lt;2,IF(AL!FW35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FX43" s="2" t="str">
         <f>IF(AL!FX35="","",
@@ -29857,25 +29861,25 @@
         <f>IF(DATA!H$3="","",
 IF(H43="","",
 IF(H43="N","N",IF(DATA!H$3=H43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I43="","",
 IF(I43="N","N",IF(DATA!I$3=I43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J47" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J43="","",
 IF(J43="N","N",IF(DATA!J$3=J43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K47" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(K43="","",
 IF(K43="N","N",IF(DATA!K$3=K43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L47" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -29899,25 +29903,25 @@
         <f>IF(DATA!O$3="","",
 IF(O43="","",
 IF(O43="N","N",IF(DATA!O$3=O43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P43="","",
 IF(P43="N","N",IF(DATA!P$3=P43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q43="","",
 IF(Q43="N","N",IF(DATA!Q$3=Q43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R43="","",
 IF(R43="N","N",IF(DATA!R$3=R43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S47" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -30315,7 +30319,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK43="","",
 IF(CK43="N","N",IF(DATA!I$3=CK43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL47" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -30327,7 +30331,7 @@
         <f>IF(DATA!K$3="","",
 IF(CM43="","",
 IF(CM43="N","N",IF(DATA!K$3=CM43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN47" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -30339,7 +30343,7 @@
         <f>IF(DATA!M$3="","",
 IF(CO43="","",
 IF(CO43="N","N",IF(DATA!M$3=CO43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP47" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -30357,19 +30361,19 @@
         <f>IF(DATA!P$3="","",
 IF(CR43="","",
 IF(CR43="N","N",IF(DATA!P$3=CR43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CS47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS43="","",
 IF(CS43="N","N",IF(DATA!Q$3=CS43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CT47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT43="","",
 IF(CT43="N","N",IF(DATA!R$3=CT43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CU47" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -30784,43 +30788,43 @@
         <f>IF(DATA!L$3="","",
 IF(FP43="","",
 IF(FP43="N","N",IF(DATA!L$3=FP43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ47" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ43="","",
 IF(FQ43="N","N",IF(DATA!M$3=FQ43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FR47" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR43="","",
 IF(FR43="N","N",IF(DATA!N$3=FR43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FS47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS43="","",
 IF(FS43="N","N",IF(DATA!O$3=FS43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FT47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT43="","",
 IF(FT43="N","N",IF(DATA!P$3=FT43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FU47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU43="","",
 IF(FU43="N","N",IF(DATA!Q$3=FU43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FV47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV43="","",
 IF(FV43="N","N",IF(DATA!R$3=FV43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FW47" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -32156,7 +32160,7 @@
       </c>
       <c r="O51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v>R</v>
       </c>
       <c r="P51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -32164,11 +32168,11 @@
       </c>
       <c r="Q51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -32459,11 +32463,11 @@
       </c>
       <c r="CP51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>F</v>
+        <v>N</v>
       </c>
       <c r="CQ51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v>R</v>
       </c>
       <c r="CR51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32471,11 +32475,11 @@
       </c>
       <c r="CS51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CT51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32765,7 +32769,7 @@
       </c>
       <c r="FR51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>F</v>
+        <v>N</v>
       </c>
       <c r="FS51" s="2" t="str">
         <f t="shared" si="9"/>
@@ -32777,11 +32781,11 @@
       </c>
       <c r="FU51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW51" s="2" t="str">
         <f t="shared" si="9"/>
@@ -33085,19 +33089,19 @@
       </c>
       <c r="P52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="Q52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="R52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T52" s="2" t="str">
         <f t="shared" si="12"/>
@@ -33396,23 +33400,23 @@
       </c>
       <c r="CQ52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="CR52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="CS52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="CT52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CV52" s="2" t="str">
         <f t="shared" si="15"/>
@@ -33710,7 +33714,7 @@
       </c>
       <c r="FS52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="FT52" s="2" t="str">
         <f t="shared" si="18"/>
@@ -33722,11 +33726,11 @@
       </c>
       <c r="FV52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FX52" s="2" t="str">
         <f t="shared" si="18"/>
@@ -34987,19 +34991,19 @@
         <f>IF(DATA!P$3="","",
 IF(P52="","",
 IF(P52="N","N",IF(DATA!P$3=P52,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="Q56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q52="","",
 IF(Q52="N","N",IF(DATA!Q$3=Q52,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R52="","",
 IF(R52="N","N",IF(DATA!R$3=R52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S56" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -35433,25 +35437,25 @@
         <f>IF(DATA!O$3="","",
 IF(CQ52="","",
 IF(CQ52="N","N",IF(DATA!O$3=CQ52,"W","L"))))</f>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="CR56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR52="","",
 IF(CR52="N","N",IF(DATA!P$3=CR52,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="CS56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS52="","",
 IF(CS52="N","N",IF(DATA!Q$3=CS52,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CT56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT52="","",
 IF(CT52="N","N",IF(DATA!R$3=CT52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU56" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -35884,7 +35888,7 @@
         <f>IF(DATA!O$3="","",
 IF(FS52="","",
 IF(FS52="N","N",IF(DATA!O$3=FS52,"W","L"))))</f>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="FT56" s="2" t="str">
         <f>IF(DATA!P$3="","",
@@ -35896,13 +35900,13 @@
         <f>IF(DATA!Q$3="","",
 IF(FU52="","",
 IF(FU52="N","N",IF(DATA!Q$3=FU52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV52="","",
 IF(FV52="N","N",IF(DATA!R$3=FV52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW56" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -36953,7 +36957,7 @@
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="P60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -36965,11 +36969,11 @@
       </c>
       <c r="R60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -37785,7 +37789,7 @@
         <f>IF(DATA!O$3="","",
 IF(O60="","",
 IF(O60="N","N",IF(DATA!O$3=O60,"W","L"))))</f>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="P64" s="2" t="str">
         <f>IF(DATA!P$3="","",
@@ -37797,13 +37801,13 @@
         <f>IF(DATA!Q$3="","",
 IF(Q60="","",
 IF(Q60="N","N",IF(DATA!Q$3=Q60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R64" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R60="","",
 IF(R60="N","N",IF(DATA!R$3=R60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S64" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -39139,7 +39143,7 @@
       </c>
       <c r="O68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v>F</v>
       </c>
       <c r="P68" s="2" t="str">
         <f t="shared" si="24"/>
@@ -39147,11 +39151,11 @@
       </c>
       <c r="Q68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S68" s="2" t="str">
         <f t="shared" si="24"/>
@@ -39442,11 +39446,11 @@
       </c>
       <c r="CP68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>R</v>
+        <v>N</v>
       </c>
       <c r="CQ68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v>F</v>
       </c>
       <c r="CR68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39454,11 +39458,11 @@
       </c>
       <c r="CS68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CT68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39748,7 +39752,7 @@
       </c>
       <c r="FR68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>R</v>
+        <v>N</v>
       </c>
       <c r="FS68" s="2" t="str">
         <f t="shared" si="30"/>
@@ -39760,11 +39764,11 @@
       </c>
       <c r="FU68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW68" s="2" t="str">
         <f t="shared" si="30"/>
@@ -40068,19 +40072,19 @@
       </c>
       <c r="P69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="Q69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="R69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T69" s="2" t="str">
         <f t="shared" si="33"/>
@@ -40379,7 +40383,7 @@
       </c>
       <c r="CQ69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="CR69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40387,15 +40391,15 @@
       </c>
       <c r="CS69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="CT69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CV69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40693,11 +40697,11 @@
       </c>
       <c r="FS69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="FT69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="FU69" s="2" t="str">
         <f t="shared" si="39"/>
@@ -40705,11 +40709,11 @@
       </c>
       <c r="FV69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FX69" s="2" t="str">
         <f t="shared" si="39"/>
@@ -41970,19 +41974,19 @@
         <f>IF(DATA!P$3="","",
 IF(P69="","",
 IF(P69="N","N",IF(DATA!P$3=P69,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="Q73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q69="","",
 IF(Q69="N","N",IF(DATA!Q$3=Q69,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R69="","",
 IF(R69="N","N",IF(DATA!R$3=R69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S73" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -42416,7 +42420,7 @@
         <f>IF(DATA!O$3="","",
 IF(CQ69="","",
 IF(CQ69="N","N",IF(DATA!O$3=CQ69,"W","L"))))</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="CR73" s="2" t="str">
         <f>IF(DATA!P$3="","",
@@ -42428,13 +42432,13 @@
         <f>IF(DATA!Q$3="","",
 IF(CS69="","",
 IF(CS69="N","N",IF(DATA!Q$3=CS69,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CT73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT69="","",
 IF(CT69="N","N",IF(DATA!R$3=CT69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU73" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -42867,25 +42871,25 @@
         <f>IF(DATA!O$3="","",
 IF(FS69="","",
 IF(FS69="N","N",IF(DATA!O$3=FS69,"W","L"))))</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="FT73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT69="","",
 IF(FT69="N","N",IF(DATA!P$3=FT69,"W","L"))))</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="FU73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU69="","",
 IF(FU69="N","N",IF(DATA!Q$3=FU69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV69="","",
 IF(FV69="N","N",IF(DATA!R$3=FV69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW73" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -43936,11 +43940,11 @@
       </c>
       <c r="O77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="P77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="Q77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -43948,11 +43952,11 @@
       </c>
       <c r="R77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -44768,25 +44772,25 @@
         <f>IF(DATA!O$3="","",
 IF(O77="","",
 IF(O77="N","N",IF(DATA!O$3=O77,"W","L"))))</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="P81" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P77="","",
 IF(P77="N","N",IF(DATA!P$3=P77,"W","L"))))</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="Q81" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q77="","",
 IF(Q77="N","N",IF(DATA!Q$3=Q77,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R81" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R77="","",
 IF(R77="N","N",IF(DATA!R$3=R77,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S81" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -45833,22 +45837,22 @@
       <c r="O85" s="2">
         <f t="array" ref="O85">IF(AL!O97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:O97, 1, MAX(IF(AL!$B97:O97="L", COLUMN(AL!$B97:O97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!O97, "W"),"0"))</f>
-        <v>1</v>
-      </c>
-      <c r="P85" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
         <f t="array" ref="P85">IF(AL!P97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:P97, 1, MAX(IF(AL!$B97:P97="L", COLUMN(AL!$B97:P97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!P97, "W"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="Q85" s="2" t="str">
+      <c r="Q85" s="2">
         <f t="array" ref="Q85">IF(AL!Q97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:Q97, 1, MAX(IF(AL!$B97:Q97="L", COLUMN(AL!$B97:Q97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!Q97, "W"),"0"))</f>
-        <v/>
-      </c>
-      <c r="R85" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="R85" s="2">
         <f t="array" ref="R85">IF(AL!R97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:R97, 1, MAX(IF(AL!$B97:R97="L", COLUMN(AL!$B97:R97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!R97, "W"),"0"))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S85" s="2" t="str">
         <f t="array" ref="S85">IF(AL!S97="","",
@@ -46676,7 +46680,7 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="W", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "L"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="O89" s="2" t="str">
+      <c r="O89" s="2">
         <f t="array" ref="O89">IF(AL!O97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:O97, 1, MAX(IF(AL!$B97:O97="W", COLUMN(AL!$B97:O97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!O97, "L"),"0"))</f>
         <v>0</v>
@@ -46684,17 +46688,17 @@
       <c r="P89" s="2">
         <f t="array" ref="P89">IF(AL!P97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:P97, 1, MAX(IF(AL!$B97:P97="W", COLUMN(AL!$B97:P97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!P97, "L"),"0"))</f>
-        <v>1</v>
-      </c>
-      <c r="Q89" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="2">
         <f t="array" ref="Q89">IF(AL!Q97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:Q97, 1, MAX(IF(AL!$B97:Q97="W", COLUMN(AL!$B97:Q97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!Q97, "L"),"0"))</f>
-        <v/>
-      </c>
-      <c r="R89" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="R89" s="2">
         <f t="array" ref="R89">IF(AL!R97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:R97, 1, MAX(IF(AL!$B97:R97="W", COLUMN(AL!$B97:R97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!R97, "L"),"0"))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S89" s="2" t="str">
         <f t="array" ref="S89">IF(AL!S97="","",
@@ -47370,12 +47374,12 @@
       <c r="O93" s="2" t="str">
         <f>IF(AL!O60="","",
 IF(OR(AL!O60="P",AL!O60="B"),AL!O60,AL!O77))</f>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="P93" s="2" t="str">
         <f>IF(AL!P60="","",
 IF(OR(AL!P60="P",AL!P60="B"),AL!P60,AL!P77))</f>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="Q93" s="2" t="str">
         <f>IF(AL!Q60="","",
@@ -47385,12 +47389,12 @@
       <c r="R93" s="2" t="str">
         <f>IF(AL!R60="","",
 IF(OR(AL!R60="P",AL!R60="B"),AL!R60,AL!R77))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S93" s="2" t="str">
         <f>IF(AL!S60="","",
 IF(OR(AL!S60="P",AL!S60="B"),AL!S60,AL!S77))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T93" s="2" t="str">
         <f>IF(AL!T60="","",
@@ -48081,25 +48085,25 @@
         <f>IF(DATA!O$3="","",
 IF(O93="","",
 IF(O93="N","N",IF(DATA!O$3=O93,"W","L"))))</f>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="P97" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P93="","",
 IF(P93="N","N",IF(DATA!P$3=P93,"W","L"))))</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="Q97" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q93="","",
 IF(Q93="N","N",IF(DATA!Q$3=Q93,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R97" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R93="","",
 IF(R93="N","N",IF(DATA!R$3=R93,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S97" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -48445,11 +48449,11 @@
       </c>
       <c r="BX97" s="14">
         <f>IF(B97="","",COUNTIF(B97:BW97,"W"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY97" s="15">
         <f>IF(B97="","",COUNTIF(B97:BW97,"L"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ97" s="15"/>
       <c r="CA97" s="16">
@@ -48757,23 +48761,23 @@
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="18" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="E2" s="18" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="18" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G2" s="18" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="H2" s="18" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -48781,11 +48785,11 @@
       </c>
       <c r="I2" s="18" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="18" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="K2" s="18" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -48801,27 +48805,27 @@
       </c>
       <c r="N2" s="18" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="O2" s="18" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="P2" s="18" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q2" s="18" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="R2" s="18" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S2" s="18" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T2" s="18" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
@@ -49046,72 +49050,72 @@
       <c r="C3" s="18">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M3" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O3" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P3" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R3" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="R3" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S3" s="18" t="str">
+        <v>5</v>
+      </c>
+      <c r="S3" s="18">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="T3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -49338,72 +49342,72 @@
       <c r="C4" s="18">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="R4" s="18" t="str">
+        <v>8</v>
+      </c>
+      <c r="R4" s="18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S4" s="18" t="str">
+        <v>8</v>
+      </c>
+      <c r="S4" s="18">
         <f t="shared" si="3"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="T4" s="18" t="str">
         <f t="shared" si="3"/>
@@ -49626,71 +49630,71 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="O5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="Q5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R5" s="18" t="str">
+        <v>-4</v>
+      </c>
+      <c r="R5" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S5" s="18" t="str">
+        <v>-3</v>
+      </c>
+      <c r="S5" s="18">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-4</v>
       </c>
       <c r="T5" s="18" t="str">
         <f t="shared" si="5"/>
@@ -50015,51 +50019,51 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="R7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="S7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="U7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50306,7 +50310,7 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="J8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50314,11 +50318,11 @@
       </c>
       <c r="K8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="M8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50334,23 +50338,23 @@
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="Q8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="R8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="S8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="T8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="U8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50596,7 +50600,7 @@
       <c r="I9" s="18" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50604,11 +50608,11 @@
       </c>
       <c r="K9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50622,7 +50626,7 @@
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="13"/>
@@ -50630,19 +50634,19 @@
       </c>
       <c r="Q9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="R9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="S9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="U9" s="18" t="str">
         <f t="shared" ref="U9:AZ9" si="14">IF(T2="","",
@@ -50976,27 +50980,27 @@
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51004,15 +51008,15 @@
       </c>
       <c r="Q11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="R11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51270,15 +51274,15 @@
       </c>
       <c r="J12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51302,11 +51306,11 @@
       </c>
       <c r="R12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51564,15 +51568,15 @@
       </c>
       <c r="J13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51580,27 +51584,27 @@
       </c>
       <c r="N13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="R13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51950,7 +51954,7 @@
       </c>
       <c r="N15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -51958,7 +51962,7 @@
       </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -51970,11 +51974,11 @@
       </c>
       <c r="S15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52248,35 +52252,35 @@
       </c>
       <c r="M16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="Q16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="R16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="S16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52535,11 +52539,11 @@
       </c>
       <c r="M17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52547,7 +52551,7 @@
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52559,11 +52563,11 @@
       </c>
       <c r="S17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="U17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52905,7 +52909,7 @@
       </c>
       <c r="N19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -52917,15 +52921,15 @@
       </c>
       <c r="Q19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="R19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -53195,11 +53199,11 @@
       </c>
       <c r="M20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53207,7 +53211,7 @@
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53215,11 +53219,11 @@
       </c>
       <c r="R20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53489,7 +53493,7 @@
       </c>
       <c r="M21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53505,15 +53509,15 @@
       </c>
       <c r="Q21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="R21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53860,7 +53864,7 @@
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -53868,7 +53872,7 @@
       </c>
       <c r="P23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -53880,11 +53884,11 @@
       </c>
       <c r="S23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -54152,7 +54156,7 @@
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O24" s="19" t="str">
         <f t="shared" si="45"/>
@@ -54164,15 +54168,15 @@
       </c>
       <c r="Q24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="R24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T24" s="19" t="str">
         <f t="shared" si="45"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F198C970-CB63-4636-B6DC-58F1B3A95F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF5749-76E9-46C3-8619-CA9D6D9247F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="2625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="54">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1494,56 +1494,48 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1603,16 +1595,16 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2388,7 +2380,7 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M23="","",AI!M23)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N23="","",AI!N23)</f>
@@ -2404,19 +2396,19 @@
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q23="","",AI!Q23)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R23="","",AI!R23)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S23="","",AI!S23)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!T23="","",AI!T23)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!U23="","",AI!U23)</f>
@@ -3019,23 +3011,23 @@
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O24="","",AI!O24)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P24="","",AI!P24)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q24="","",AI!Q24)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R24="","",AI!R24)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!S24="","",AI!S24)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!T24="","",AI!T24)</f>
@@ -3267,16 +3259,16 @@
       </c>
       <c r="BX16" s="14">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY16" s="15">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="16">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4894,7 +4886,7 @@
       <c r="F3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3=DATA!F3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -4904,7 +4896,7 @@
       <c r="H3" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(DATA!G3=DATA!H3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -4919,7 +4911,7 @@
       <c r="K3" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(DATA!J3=DATA!K3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="L3" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -4934,27 +4926,27 @@
       <c r="N3" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3=DATA!N3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(DATA!N3=DATA!O3,"O","X"))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="P3" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(DATA!O3=DATA!P3,"O","X"))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Q3" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(DATA!P3=DATA!Q3,"O","X"))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="R3" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(DATA!Q3=DATA!R3,"O","X"))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="S3" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -5279,7 +5271,7 @@
         <f>IF(DATA!G3="","",
 IF(AL!F3&lt;&gt;AL!G3,AL!F3,
 IF(AL!F3=AL!G3,AL!G3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CK3" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -5291,7 +5283,7 @@
         <f>IF(DATA!I3="","",
 IF(AL!H3&lt;&gt;AL!I3,AL!H3,
 IF(AL!H3=AL!I3,AL!I3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CM3" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -5309,7 +5301,7 @@
         <f>IF(DATA!L3="","",
 IF(AL!K3&lt;&gt;AL!L3,AL!K3,
 IF(AL!K3=AL!L3,AL!L3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CP3" s="2" t="str">
         <f>IF(DATA!M3="","",
@@ -5327,25 +5319,25 @@
         <f>IF(DATA!O3="","",
 IF(AL!N3&lt;&gt;AL!O3,AL!N3,
 IF(AL!N3=AL!O3,AL!O3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CS3" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(AL!O3&lt;&gt;AL!P3,AL!O3,
 IF(AL!O3=AL!P3,AL!P3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CT3" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(AL!P3&lt;&gt;AL!Q3,AL!P3,
 IF(AL!P3=AL!Q3,AL!Q3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CU3" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(AL!Q3&lt;&gt;AL!R3,AL!Q3,
 IF(AL!Q3=AL!R3,AL!R3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CV3" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -6637,19 +6629,19 @@
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6657,11 +6649,11 @@
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6669,23 +6661,23 @@
       </c>
       <c r="N7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v/>
       </c>
       <c r="P7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v/>
       </c>
       <c r="Q7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v/>
       </c>
       <c r="R7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v/>
       </c>
       <c r="S7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6952,25 +6944,25 @@
         <f>IF(DATA!G3="","",
 IF(AL!F7&lt;&gt;AL!G7,AL!F7,
 IF(AL!F7=AL!G7,AL!G7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CK7" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(AL!G7&lt;&gt;AL!H7,AL!G7,
 IF(AL!G7=AL!H7,AL!H7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CL7" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(AL!H7&lt;&gt;AL!I7,AL!H7,
 IF(AL!H7=AL!I7,AL!I7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CM7" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(AL!I7&lt;&gt;AL!J7,AL!I7,
 IF(AL!I7=AL!J7,AL!J7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CN7" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -6982,13 +6974,13 @@
         <f>IF(DATA!L3="","",
 IF(AL!K7&lt;&gt;AL!L7,AL!K7,
 IF(AL!K7=AL!L7,AL!L7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CP7" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(AL!L7&lt;&gt;AL!M7,AL!L7,
 IF(AL!L7=AL!M7,AL!M7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CQ7" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -7000,25 +6992,25 @@
         <f>IF(DATA!O3="","",
 IF(AL!N7&lt;&gt;AL!O7,AL!N7,
 IF(AL!N7=AL!O7,AL!O7)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CS7" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(AL!O7&lt;&gt;AL!P7,AL!O7,
 IF(AL!O7=AL!P7,AL!P7)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CT7" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(AL!P7&lt;&gt;AL!Q7,AL!P7,
 IF(AL!P7=AL!Q7,AL!Q7)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CU7" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(AL!Q7&lt;&gt;AL!R7,AL!Q7,
 IF(AL!Q7=AL!R7,AL!R7)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CV7" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -7385,7 +7377,7 @@
         <f>IF(CI7="","",
 IF(CI7="O",AL!F3,
 IF(CI7="X",AL!E3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FL7" s="2" t="str">
         <f>IF(CJ7="","",
@@ -7403,7 +7395,7 @@
         <f>IF(CL7="","",
 IF(CL7="O",AL!I3,
 IF(CL7="X",AL!H3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FO7" s="2" t="str">
         <f>IF(CM7="","",
@@ -7415,13 +7407,13 @@
         <f>IF(CN7="","",
 IF(CN7="O",AL!K3,
 IF(CN7="X",AL!J3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FQ7" s="2" t="str">
         <f>IF(CO7="","",
 IF(CO7="O",AL!L3,
 IF(CO7="X",AL!K3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FR7" s="2" t="str">
         <f>IF(CP7="","",
@@ -7433,31 +7425,31 @@
         <f>IF(CQ7="","",
 IF(CQ7="O",AL!N3,
 IF(CQ7="X",AL!M3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FT7" s="2" t="str">
         <f>IF(CR7="","",
 IF(CR7="O",AL!O3,
 IF(CR7="X",AL!N3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="FU7" s="2" t="str">
         <f>IF(CS7="","",
 IF(CS7="O",AL!P3,
 IF(CS7="X",AL!O3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="FV7" s="2" t="str">
         <f>IF(CT7="","",
 IF(CT7="O",AL!Q3,
 IF(CT7="X",AL!P3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="FW7" s="2" t="str">
         <f>IF(CU7="","",
 IF(CU7="O",AL!R3,
 IF(CU7="X",AL!Q3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="FX7" s="2" t="str">
         <f>IF(CV7="","",
@@ -8742,37 +8734,37 @@
         <f>IF(DATA!C3="","",
 IF(DATA!B3&lt;&gt;DATA!C3,DATA!B3,
 IF(DATA!B3=DATA!C3,DATA!C3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>IF(DATA!D3="","",
 IF(DATA!C3&lt;&gt;DATA!D3,DATA!C3,
 IF(DATA!C3=DATA!D3,DATA!D3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(DATA!D3&lt;&gt;DATA!E3,DATA!D3,
 IF(DATA!D3=DATA!E3,DATA!E3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3&lt;&gt;DATA!F3,DATA!E3,
 IF(DATA!E3=DATA!F3,DATA!F3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(DATA!F3&lt;&gt;DATA!G3,DATA!F3,
 IF(DATA!F3=DATA!G3,DATA!G3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(DATA!G3&lt;&gt;DATA!H3,DATA!G3,
 IF(DATA!G3=DATA!H3,DATA!H3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -8784,7 +8776,7 @@
         <f>IF(DATA!J3="","",
 IF(DATA!I3&lt;&gt;DATA!J3,DATA!I3,
 IF(DATA!I3=DATA!J3,DATA!J3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -8796,43 +8788,43 @@
         <f>IF(DATA!L3="","",
 IF(DATA!K3&lt;&gt;DATA!L3,DATA!K3,
 IF(DATA!K3=DATA!L3,DATA!L3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N11" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(DATA!L3&lt;&gt;DATA!M3,DATA!L3,
 IF(DATA!L3=DATA!M3,DATA!M3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3&lt;&gt;DATA!N3,DATA!M3,
 IF(DATA!M3=DATA!N3,DATA!N3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="P11" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(DATA!N3&lt;&gt;DATA!O3,DATA!N3,
 IF(DATA!N3=DATA!O3,DATA!O3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q11" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(DATA!O3&lt;&gt;DATA!P3,DATA!O3,
 IF(DATA!O3=DATA!P3,DATA!P3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R11" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(DATA!P3&lt;&gt;DATA!Q3,DATA!P3,
 IF(DATA!P3=DATA!Q3,DATA!Q3)))</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="S11" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(DATA!Q3&lt;&gt;DATA!R3,DATA!Q3,
 IF(DATA!Q3=DATA!R3,DATA!R3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T11" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -9190,43 +9182,43 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
 IF(AL!CH3="O",DATA!E3,
 IF(AL!CH3="X",DATA!D3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CI11" s="2" t="str">
         <f>IF(AL!CI3="","",
 IF(AL!CI3="O",DATA!F3,
 IF(AL!CI3="X",DATA!E3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="CJ11" s="2" t="str">
         <f>IF(AL!CJ3="","",
 IF(AL!CJ3="O",DATA!G3,
 IF(AL!CJ3="X",DATA!F3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CK11" s="2" t="str">
         <f>IF(AL!CK3="","",
 IF(AL!CK3="O",DATA!H3,
 IF(AL!CK3="X",DATA!G3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL11" s="2" t="str">
         <f>IF(AL!CL3="","",
 IF(AL!CL3="O",DATA!I3,
 IF(AL!CL3="X",DATA!H3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="CM11" s="2" t="str">
         <f>IF(AL!CM3="","",
 IF(AL!CM3="O",DATA!J3,
 IF(AL!CM3="X",DATA!I3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CN11" s="2" t="str">
         <f>IF(AL!CN3="","",
@@ -9244,37 +9236,37 @@
         <f>IF(AL!CP3="","",
 IF(AL!CP3="O",DATA!M3,
 IF(AL!CP3="X",DATA!L3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ11" s="2" t="str">
         <f>IF(AL!CQ3="","",
 IF(AL!CQ3="O",DATA!N3,
 IF(AL!CQ3="X",DATA!M3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CR11" s="2" t="str">
         <f>IF(AL!CR3="","",
 IF(AL!CR3="O",DATA!O3,
 IF(AL!CR3="X",DATA!N3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CS11" s="2" t="str">
         <f>IF(AL!CS3="","",
 IF(AL!CS3="O",DATA!P3,
 IF(AL!CS3="X",DATA!O3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CT11" s="2" t="str">
         <f>IF(AL!CT3="","",
 IF(AL!CT3="O",DATA!Q3,
 IF(AL!CT3="X",DATA!P3)))</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="CU11" s="2" t="str">
         <f>IF(AL!CU3="","",
 IF(AL!CU3="O",DATA!R3,
 IF(AL!CU3="X",DATA!Q3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CV11" s="2" t="str">
         <f>IF(AL!CV3="","",
@@ -9635,37 +9627,37 @@
         <f>IF(AL!FJ7="","",
 IF(AL!FJ7="O",DATA!E3,
 IF(AL!FJ7="X",DATA!D3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FK11" s="2" t="str">
         <f>IF(AL!FK7="","",
 IF(AL!FK7="O",DATA!F3,
 IF(AL!FK7="X",DATA!E3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FL11" s="2" t="str">
         <f>IF(AL!FL7="","",
 IF(AL!FL7="O",DATA!G3,
 IF(AL!FL7="X",DATA!F3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="FM11" s="2" t="str">
         <f>IF(AL!FM7="","",
 IF(AL!FM7="O",DATA!H3,
 IF(AL!FM7="X",DATA!G3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FN11" s="2" t="str">
         <f>IF(AL!FN7="","",
 IF(AL!FN7="O",DATA!I3,
 IF(AL!FN7="X",DATA!H3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="FO11" s="2" t="str">
         <f>IF(AL!FO7="","",
 IF(AL!FO7="O",DATA!J3,
 IF(AL!FO7="X",DATA!I3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="FP11" s="2" t="str">
         <f>IF(AL!FP7="","",
@@ -9683,37 +9675,37 @@
         <f>IF(AL!FR7="","",
 IF(AL!FR7="O",DATA!M3,
 IF(AL!FR7="X",DATA!L3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS11" s="2" t="str">
         <f>IF(AL!FS7="","",
 IF(AL!FS7="O",DATA!N3,
 IF(AL!FS7="X",DATA!M3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="FT11" s="2" t="str">
         <f>IF(AL!FT7="","",
 IF(AL!FT7="O",DATA!O3,
 IF(AL!FT7="X",DATA!N3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FU11" s="2" t="str">
         <f>IF(AL!FU7="","",
 IF(AL!FU7="O",DATA!P3,
 IF(AL!FU7="X",DATA!O3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FV11" s="2" t="str">
         <f>IF(AL!FV7="","",
 IF(AL!FV7="O",DATA!Q3,
 IF(AL!FV7="X",DATA!P3)))</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="FW11" s="2" t="str">
         <f>IF(AL!FW7="","",
 IF(AL!FW7="O",DATA!R3,
 IF(AL!FW7="X",DATA!Q3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FX11" s="2" t="str">
         <f>IF(AL!FX7="","",
@@ -11018,7 +11010,7 @@
         <f>IF(DATA!F3="","",
 IF(F11="","",
 IF(F11="N","N",IF(DATA!F3=F11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11036,7 +11028,7 @@
         <f>IF(DATA!I3="","",
 IF(I11="","",
 IF(I11="N","N",IF(DATA!I3=I11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J15" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -11048,19 +11040,19 @@
         <f>IF(DATA!K3="","",
 IF(K11="","",
 IF(K11="N","N",IF(DATA!K3=K11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L15" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(L11="","",
 IF(L11="N","N",IF(DATA!L3=L11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M15" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(M11="","",
 IF(M11="N","N",IF(DATA!M3=M11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N15" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -11072,25 +11064,25 @@
         <f>IF(DATA!O3="","",
 IF(O11="","",
 IF(O11="N","N",IF(DATA!O3=O11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(P11="","",
 IF(P11="N","N",IF(DATA!P3=P11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q15" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(Q11="","",
 IF(Q11="N","N",IF(DATA!Q3=Q11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(R11="","",
 IF(R11="N","N",IF(DATA!R3=R11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S15" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -11470,7 +11462,7 @@
         <f>IF(DATA!F3="","",
 IF(CH11="","",
 IF(CH11="N","N",IF(DATA!F3=CH11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CI15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11482,31 +11474,31 @@
         <f>IF(DATA!H3="","",
 IF(CJ11="","",
 IF(CJ11="N","N",IF(DATA!H3=CJ11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CK15" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(CK11="","",
 IF(CK11="N","N",IF(DATA!I3=CK11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(CL11="","",
 IF(CL11="N","N",IF(DATA!J3=CL11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(CM11="","",
 IF(CM11="N","N",IF(DATA!K3=CM11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN15" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(CN11="","",
 IF(CN11="N","N",IF(DATA!L3=CN11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO15" s="2" t="str">
         <f>IF(DATA!M3="","",
@@ -11524,25 +11516,25 @@
         <f>IF(DATA!O3="","",
 IF(CQ11="","",
 IF(CQ11="N","N",IF(DATA!O3=CQ11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CR15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(CR11="","",
 IF(CR11="N","N",IF(DATA!P3=CR11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CS15" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(CS11="","",
 IF(CS11="N","N",IF(DATA!Q3=CS11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CT15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(CT11="","",
 IF(CT11="N","N",IF(DATA!R3=CT11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CU15" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -11921,7 +11913,7 @@
         <f>IF(DATA!F3="","",
 IF(FJ11="","",
 IF(FJ11="N","N",IF(DATA!F3=FJ11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FK15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11939,25 +11931,25 @@
         <f>IF(DATA!I3="","",
 IF(FM11="","",
 IF(FM11="N","N",IF(DATA!I3=FM11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FN15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(FN11="","",
 IF(FN11="N","N",IF(DATA!J3=FN11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(FO11="","",
 IF(FO11="N","N",IF(DATA!K3=FO11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP15" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(FP11="","",
 IF(FP11="N","N",IF(DATA!L3=FP11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ15" s="2" t="str">
         <f>IF(DATA!M3="","",
@@ -11975,25 +11967,25 @@
         <f>IF(DATA!O3="","",
 IF(FS11="","",
 IF(FS11="N","N",IF(DATA!O3=FS11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FT15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(FT11="","",
 IF(FT11="N","N",IF(DATA!P3=FT11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FU15" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(FU11="","",
 IF(FU11="N","N",IF(DATA!Q3=FU11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FV15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(FV11="","",
 IF(FV11="N","N",IF(DATA!R3=FV11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FW15" s="2" t="str">
         <f>IF(DATA!S3="","",
@@ -13300,7 +13292,7 @@
 IF(AL!H11="N","N",
 IF(COUNTIF(AL!D15:G15,"W")&gt;=2,AL!H11,
 IF(COUNTIF(AL!D15:G15,"W")&lt;2,IF(AL!H11="P","B","P")))))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>IF(AL!I11="","",
@@ -13328,7 +13320,7 @@
 IF(AL!L11="N","N",
 IF(COUNTIF(AL!H15:K15,"W")&gt;=2,AL!L11,
 IF(COUNTIF(AL!H15:K15,"W")&lt;2,IF(AL!L11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>IF(AL!M11="","",
@@ -13342,42 +13334,42 @@
 IF(AL!N11="N","N",
 IF(COUNTIF(AL!J15:M15,"W")&gt;=2,AL!N11,
 IF(COUNTIF(AL!J15:M15,"W")&lt;2,IF(AL!N11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>IF(AL!O11="","",
 IF(AL!O11="N","N",
 IF(COUNTIF(AL!K15:N15,"W")&gt;=2,AL!O11,
 IF(COUNTIF(AL!K15:N15,"W")&lt;2,IF(AL!O11="P","B","P")))))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="P19" s="2" t="str">
         <f>IF(AL!P11="","",
 IF(AL!P11="N","N",
 IF(COUNTIF(AL!L15:O15,"W")&gt;=2,AL!P11,
 IF(COUNTIF(AL!L15:O15,"W")&lt;2,IF(AL!P11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q19" s="2" t="str">
         <f>IF(AL!Q11="","",
 IF(AL!Q11="N","N",
 IF(COUNTIF(AL!M15:P15,"W")&gt;=2,AL!Q11,
 IF(COUNTIF(AL!M15:P15,"W")&lt;2,IF(AL!Q11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R19" s="2" t="str">
         <f>IF(AL!R11="","",
 IF(AL!R11="N","N",
 IF(COUNTIF(AL!N15:Q15,"W")&gt;=2,AL!R11,
 IF(COUNTIF(AL!N15:Q15,"W")&lt;2,IF(AL!R11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S19" s="2" t="str">
         <f>IF(AL!S11="","",
 IF(AL!S11="N","N",
 IF(COUNTIF(AL!O15:R15,"W")&gt;=2,AL!S11,
 IF(COUNTIF(AL!O15:R15,"W")&lt;2,IF(AL!S11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T19" s="2" t="str">
         <f>IF(AL!T11="","",
@@ -13811,7 +13803,7 @@
 IF(AL!CL11="N","N",
 IF(COUNTIF(AL!CH15:CK15,"W")&gt;=2,AL!CL11,
 IF(COUNTIF(AL!CH15:CK15,"W")&lt;2,IF(AL!CL11="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CM19" s="2" t="str">
         <f>IF(AL!CM11="","",
@@ -13825,14 +13817,14 @@
 IF(AL!CN11="N","N",
 IF(COUNTIF(AL!CJ15:CM15,"W")&gt;=2,AL!CN11,
 IF(COUNTIF(AL!CJ15:CM15,"W")&lt;2,IF(AL!CN11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO19" s="2" t="str">
         <f>IF(AL!CO11="","",
 IF(AL!CO11="N","N",
 IF(COUNTIF(AL!CK15:CN15,"W")&gt;=2,AL!CO11,
 IF(COUNTIF(AL!CK15:CN15,"W")&lt;2,IF(AL!CO11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CP19" s="2" t="str">
         <f>IF(AL!CP11="","",
@@ -13846,35 +13838,35 @@
 IF(AL!CQ11="N","N",
 IF(COUNTIF(AL!CM15:CP15,"W")&gt;=2,AL!CQ11,
 IF(COUNTIF(AL!CM15:CP15,"W")&lt;2,IF(AL!CQ11="P","B","P")))))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="CR19" s="2" t="str">
         <f>IF(AL!CR11="","",
 IF(AL!CR11="N","N",
 IF(COUNTIF(AL!CN15:CQ15,"W")&gt;=2,AL!CR11,
 IF(COUNTIF(AL!CN15:CQ15,"W")&lt;2,IF(AL!CR11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CS19" s="2" t="str">
         <f>IF(AL!CS11="","",
 IF(AL!CS11="N","N",
 IF(COUNTIF(AL!CO15:CR15,"W")&gt;=2,AL!CS11,
 IF(COUNTIF(AL!CO15:CR15,"W")&lt;2,IF(AL!CS11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CT19" s="2" t="str">
         <f>IF(AL!CT11="","",
 IF(AL!CT11="N","N",
 IF(COUNTIF(AL!CP15:CS15,"W")&gt;=2,AL!CT11,
 IF(COUNTIF(AL!CP15:CS15,"W")&lt;2,IF(AL!CT11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CU19" s="2" t="str">
         <f>IF(AL!CU11="","",
 IF(AL!CU11="N","N",
 IF(COUNTIF(AL!CQ15:CT15,"W")&gt;=2,AL!CU11,
 IF(COUNTIF(AL!CQ15:CT15,"W")&lt;2,IF(AL!CU11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CV19" s="2" t="str">
         <f>IF(AL!CV11="","",
@@ -14318,14 +14310,14 @@
 IF(AL!FP11="N","N",
 IF(COUNTIF(AL!FL15:FO15,"W")&gt;=2,AL!FP11,
 IF(COUNTIF(AL!FL15:FO15,"W")&lt;2,IF(AL!FP11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ19" s="2" t="str">
         <f>IF(AL!FQ11="","",
 IF(AL!FQ11="N","N",
 IF(COUNTIF(AL!FM15:FP15,"W")&gt;=2,AL!FQ11,
 IF(COUNTIF(AL!FM15:FP15,"W")&lt;2,IF(AL!FQ11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR19" s="2" t="str">
         <f>IF(AL!FR11="","",
@@ -14339,35 +14331,35 @@
 IF(AL!FS11="N","N",
 IF(COUNTIF(AL!FO15:FR15,"W")&gt;=2,AL!FS11,
 IF(COUNTIF(AL!FO15:FR15,"W")&lt;2,IF(AL!FS11="P","B","P")))))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="FT19" s="2" t="str">
         <f>IF(AL!FT11="","",
 IF(AL!FT11="N","N",
 IF(COUNTIF(AL!FP15:FS15,"W")&gt;=2,AL!FT11,
 IF(COUNTIF(AL!FP15:FS15,"W")&lt;2,IF(AL!FT11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FU19" s="2" t="str">
         <f>IF(AL!FU11="","",
 IF(AL!FU11="N","N",
 IF(COUNTIF(AL!FQ15:FT15,"W")&gt;=2,AL!FU11,
 IF(COUNTIF(AL!FQ15:FT15,"W")&lt;2,IF(AL!FU11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FV19" s="2" t="str">
         <f>IF(AL!FV11="","",
 IF(AL!FV11="N","N",
 IF(COUNTIF(AL!FR15:FU15,"W")&gt;=2,AL!FV11,
 IF(COUNTIF(AL!FR15:FU15,"W")&lt;2,IF(AL!FV11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FW19" s="2" t="str">
         <f>IF(AL!FW11="","",
 IF(AL!FW11="N","N",
 IF(COUNTIF(AL!FS15:FV15,"W")&gt;=2,AL!FW11,
 IF(COUNTIF(AL!FS15:FV15,"W")&lt;2,IF(AL!FW11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FX19" s="2" t="str">
         <f>IF(AL!FX11="","",
@@ -15758,7 +15750,7 @@
         <f>IF(DATA!K$3="","",
 IF(K19="","",
 IF(K19="N","N",IF(DATA!K$3=K19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -15782,25 +15774,25 @@
         <f>IF(DATA!O$3="","",
 IF(O19="","",
 IF(O19="N","N",IF(DATA!O$3=O19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P19="","",
 IF(P19="N","N",IF(DATA!P$3=P19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q19="","",
 IF(Q19="N","N",IF(DATA!Q$3=Q19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R19="","",
 IF(R19="N","N",IF(DATA!R$3=R19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S23" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -16210,7 +16202,7 @@
         <f>IF(DATA!K$3="","",
 IF(CM19="","",
 IF(CM19="N","N",IF(DATA!K$3=CM19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN23" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -16222,37 +16214,37 @@
         <f>IF(DATA!M$3="","",
 IF(CO19="","",
 IF(CO19="N","N",IF(DATA!M$3=CO19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP19="","",
 IF(CP19="N","N",IF(DATA!N$3=CP19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CQ23" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ19="","",
 IF(CQ19="N","N",IF(DATA!O$3=CQ19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CR23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR19="","",
 IF(CR19="N","N",IF(DATA!P$3=CR19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CS23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS19="","",
 IF(CS19="N","N",IF(DATA!Q$3=CS19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CT23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT19="","",
 IF(CT19="N","N",IF(DATA!R$3=CT19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CU23" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -16661,7 +16653,7 @@
         <f>IF(DATA!K$3="","",
 IF(FO19="","",
 IF(FO19="N","N",IF(DATA!K$3=FO19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP23" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -16673,37 +16665,37 @@
         <f>IF(DATA!M$3="","",
 IF(FQ19="","",
 IF(FQ19="N","N",IF(DATA!M$3=FQ19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FR23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR19="","",
 IF(FR19="N","N",IF(DATA!N$3=FR19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FS23" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS19="","",
 IF(FS19="N","N",IF(DATA!O$3=FS19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FT23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT19="","",
 IF(FT19="N","N",IF(DATA!P$3=FT19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FU23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU19="","",
 IF(FU19="N","N",IF(DATA!Q$3=FU19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FV23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV19="","",
 IF(FV19="N","N",IF(DATA!R$3=FV19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FW23" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -18007,7 +17999,7 @@
 IF(AL!H19="N","N",
 IF(COUNTIF(AL!D23:G23,"W")&gt;=2,AL!H19,
 IF(COUNTIF(AL!D23:G23,"W")&lt;2,IF(AL!H19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>IF(AL!I19="","",
@@ -18035,14 +18027,14 @@
 IF(AL!L19="N","N",
 IF(COUNTIF(AL!H23:K23,"W")&gt;=2,AL!L19,
 IF(COUNTIF(AL!H23:K23,"W")&lt;2,IF(AL!L19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M27" s="2" t="str">
         <f>IF(AL!M19="","",
 IF(AL!M19="N","N",
 IF(COUNTIF(AL!I23:L23,"W")&gt;=2,AL!M19,
 IF(COUNTIF(AL!I23:L23,"W")&lt;2,IF(AL!M19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N27" s="2" t="str">
         <f>IF(AL!N19="","",
@@ -18056,35 +18048,35 @@
 IF(AL!O19="N","N",
 IF(COUNTIF(AL!K23:N23,"W")&gt;=2,AL!O19,
 IF(COUNTIF(AL!K23:N23,"W")&lt;2,IF(AL!O19="P","B","P")))))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="P27" s="2" t="str">
         <f>IF(AL!P19="","",
 IF(AL!P19="N","N",
 IF(COUNTIF(AL!L23:O23,"W")&gt;=2,AL!P19,
 IF(COUNTIF(AL!L23:O23,"W")&lt;2,IF(AL!P19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q27" s="2" t="str">
         <f>IF(AL!Q19="","",
 IF(AL!Q19="N","N",
 IF(COUNTIF(AL!M23:P23,"W")&gt;=2,AL!Q19,
 IF(COUNTIF(AL!M23:P23,"W")&lt;2,IF(AL!Q19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R27" s="2" t="str">
         <f>IF(AL!R19="","",
 IF(AL!R19="N","N",
 IF(COUNTIF(AL!N23:Q23,"W")&gt;=2,AL!R19,
 IF(COUNTIF(AL!N23:Q23,"W")&lt;2,IF(AL!R19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S27" s="2" t="str">
         <f>IF(AL!S19="","",
 IF(AL!S19="N","N",
 IF(COUNTIF(AL!O23:R23,"W")&gt;=2,AL!S19,
 IF(COUNTIF(AL!O23:R23,"W")&lt;2,IF(AL!S19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T27" s="2" t="str">
         <f>IF(AL!T19="","",
@@ -18518,7 +18510,7 @@
 IF(AL!CL19="N","N",
 IF(COUNTIF(AL!CH23:CK23,"W")&gt;=2,AL!CL19,
 IF(COUNTIF(AL!CH23:CK23,"W")&lt;2,IF(AL!CL19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM27" s="2" t="str">
         <f>IF(AL!CM19="","",
@@ -18532,7 +18524,7 @@
 IF(AL!CN19="N","N",
 IF(COUNTIF(AL!CJ23:CM23,"W")&gt;=2,AL!CN19,
 IF(COUNTIF(AL!CJ23:CM23,"W")&lt;2,IF(AL!CN19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO27" s="2" t="str">
         <f>IF(AL!CO19="","",
@@ -18553,35 +18545,35 @@
 IF(AL!CQ19="N","N",
 IF(COUNTIF(AL!CM23:CP23,"W")&gt;=2,AL!CQ19,
 IF(COUNTIF(AL!CM23:CP23,"W")&lt;2,IF(AL!CQ19="P","B","P")))))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="CR27" s="2" t="str">
         <f>IF(AL!CR19="","",
 IF(AL!CR19="N","N",
 IF(COUNTIF(AL!CN23:CQ23,"W")&gt;=2,AL!CR19,
 IF(COUNTIF(AL!CN23:CQ23,"W")&lt;2,IF(AL!CR19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CS27" s="2" t="str">
         <f>IF(AL!CS19="","",
 IF(AL!CS19="N","N",
 IF(COUNTIF(AL!CO23:CR23,"W")&gt;=2,AL!CS19,
 IF(COUNTIF(AL!CO23:CR23,"W")&lt;2,IF(AL!CS19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CT27" s="2" t="str">
         <f>IF(AL!CT19="","",
 IF(AL!CT19="N","N",
 IF(COUNTIF(AL!CP23:CS23,"W")&gt;=2,AL!CT19,
 IF(COUNTIF(AL!CP23:CS23,"W")&lt;2,IF(AL!CT19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CU27" s="2" t="str">
         <f>IF(AL!CU19="","",
 IF(AL!CU19="N","N",
 IF(COUNTIF(AL!CQ23:CT23,"W")&gt;=2,AL!CU19,
 IF(COUNTIF(AL!CQ23:CT23,"W")&lt;2,IF(AL!CU19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CV27" s="2" t="str">
         <f>IF(AL!CV19="","",
@@ -19025,7 +19017,7 @@
 IF(AL!FP19="N","N",
 IF(COUNTIF(AL!FL23:FO23,"W")&gt;=2,AL!FP19,
 IF(COUNTIF(AL!FL23:FO23,"W")&lt;2,IF(AL!FP19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ27" s="2" t="str">
         <f>IF(AL!FQ19="","",
@@ -19046,35 +19038,35 @@
 IF(AL!FS19="N","N",
 IF(COUNTIF(AL!FO23:FR23,"W")&gt;=2,AL!FS19,
 IF(COUNTIF(AL!FO23:FR23,"W")&lt;2,IF(AL!FS19="P","B","P")))))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="FT27" s="2" t="str">
         <f>IF(AL!FT19="","",
 IF(AL!FT19="N","N",
 IF(COUNTIF(AL!FP23:FS23,"W")&gt;=2,AL!FT19,
 IF(COUNTIF(AL!FP23:FS23,"W")&lt;2,IF(AL!FT19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FU27" s="2" t="str">
         <f>IF(AL!FU19="","",
 IF(AL!FU19="N","N",
 IF(COUNTIF(AL!FQ23:FT23,"W")&gt;=2,AL!FU19,
 IF(COUNTIF(AL!FQ23:FT23,"W")&lt;2,IF(AL!FU19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FV27" s="2" t="str">
         <f>IF(AL!FV19="","",
 IF(AL!FV19="N","N",
 IF(COUNTIF(AL!FR23:FU23,"W")&gt;=2,AL!FV19,
 IF(COUNTIF(AL!FR23:FU23,"W")&lt;2,IF(AL!FV19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FW27" s="2" t="str">
         <f>IF(AL!FW19="","",
 IF(AL!FW19="N","N",
 IF(COUNTIF(AL!FS23:FV23,"W")&gt;=2,AL!FW19,
 IF(COUNTIF(AL!FS23:FV23,"W")&lt;2,IF(AL!FW19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FX27" s="2" t="str">
         <f>IF(AL!FX19="","",
@@ -20447,13 +20439,13 @@
         <f>IF(DATA!H$3="","",
 IF(H27="","",
 IF(H27="N","N",IF(DATA!H$3=H27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I27="","",
 IF(I27="N","N",IF(DATA!I$3=I27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -20465,7 +20457,7 @@
         <f>IF(DATA!K$3="","",
 IF(K27="","",
 IF(K27="N","N",IF(DATA!K$3=K27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -20477,37 +20469,37 @@
         <f>IF(DATA!M$3="","",
 IF(M27="","",
 IF(M27="N","N",IF(DATA!M$3=M27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N27="","",
 IF(N27="N","N",IF(DATA!N$3=N27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O27="","",
 IF(O27="N","N",IF(DATA!O$3=O27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P27="","",
 IF(P27="N","N",IF(DATA!P$3=P27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q27="","",
 IF(Q27="N","N",IF(DATA!Q$3=Q27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R27="","",
 IF(R27="N","N",IF(DATA!R$3=R27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S31" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -20905,19 +20897,19 @@
         <f>IF(DATA!I$3="","",
 IF(CK27="","",
 IF(CK27="N","N",IF(DATA!I$3=CK27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL31" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL27="","",
 IF(CL27="N","N",IF(DATA!J$3=CL27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM31" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM27="","",
 IF(CM27="N","N",IF(DATA!K$3=CM27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -20935,31 +20927,31 @@
         <f>IF(DATA!N$3="","",
 IF(CP27="","",
 IF(CP27="N","N",IF(DATA!N$3=CP27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CQ31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ27="","",
 IF(CQ27="N","N",IF(DATA!O$3=CQ27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CR31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR27="","",
 IF(CR27="N","N",IF(DATA!P$3=CR27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CS31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS27="","",
 IF(CS27="N","N",IF(DATA!Q$3=CS27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CT31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT27="","",
 IF(CT27="N","N",IF(DATA!R$3=CT27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CU31" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -21368,7 +21360,7 @@
         <f>IF(DATA!K$3="","",
 IF(FO27="","",
 IF(FO27="N","N",IF(DATA!K$3=FO27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -21386,31 +21378,31 @@
         <f>IF(DATA!N$3="","",
 IF(FR27="","",
 IF(FR27="N","N",IF(DATA!N$3=FR27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FS31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS27="","",
 IF(FS27="N","N",IF(DATA!O$3=FS27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FT31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT27="","",
 IF(FT27="N","N",IF(DATA!P$3=FT27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FU31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU27="","",
 IF(FU27="N","N",IF(DATA!Q$3=FU27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FV31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV27="","",
 IF(FV27="N","N",IF(DATA!R$3=FV27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FW31" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -22714,7 +22706,7 @@
 IF(AL!H27="N","N",
 IF(COUNTIF(AL!D31:G31,"W")&gt;=2,AL!H27,
 IF(COUNTIF(AL!D31:G31,"W")&lt;2,IF(AL!H27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>IF(AL!I27="","",
@@ -22742,56 +22734,56 @@
 IF(AL!L27="N","N",
 IF(COUNTIF(AL!H31:K31,"W")&gt;=2,AL!L27,
 IF(COUNTIF(AL!H31:K31,"W")&lt;2,IF(AL!L27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M35" s="2" t="str">
         <f>IF(AL!M27="","",
 IF(AL!M27="N","N",
 IF(COUNTIF(AL!I31:L31,"W")&gt;=2,AL!M27,
 IF(COUNTIF(AL!I31:L31,"W")&lt;2,IF(AL!M27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N35" s="2" t="str">
         <f>IF(AL!N27="","",
 IF(AL!N27="N","N",
 IF(COUNTIF(AL!J31:M31,"W")&gt;=2,AL!N27,
 IF(COUNTIF(AL!J31:M31,"W")&lt;2,IF(AL!N27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O35" s="2" t="str">
         <f>IF(AL!O27="","",
 IF(AL!O27="N","N",
 IF(COUNTIF(AL!K31:N31,"W")&gt;=2,AL!O27,
 IF(COUNTIF(AL!K31:N31,"W")&lt;2,IF(AL!O27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P35" s="2" t="str">
         <f>IF(AL!P27="","",
 IF(AL!P27="N","N",
 IF(COUNTIF(AL!L31:O31,"W")&gt;=2,AL!P27,
 IF(COUNTIF(AL!L31:O31,"W")&lt;2,IF(AL!P27="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q35" s="2" t="str">
         <f>IF(AL!Q27="","",
 IF(AL!Q27="N","N",
 IF(COUNTIF(AL!M31:P31,"W")&gt;=2,AL!Q27,
 IF(COUNTIF(AL!M31:P31,"W")&lt;2,IF(AL!Q27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R35" s="2" t="str">
         <f>IF(AL!R27="","",
 IF(AL!R27="N","N",
 IF(COUNTIF(AL!N31:Q31,"W")&gt;=2,AL!R27,
 IF(COUNTIF(AL!N31:Q31,"W")&lt;2,IF(AL!R27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S35" s="2" t="str">
         <f>IF(AL!S27="","",
 IF(AL!S27="N","N",
 IF(COUNTIF(AL!O31:R31,"W")&gt;=2,AL!S27,
 IF(COUNTIF(AL!O31:R31,"W")&lt;2,IF(AL!S27="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T35" s="2" t="str">
         <f>IF(AL!T27="","",
@@ -23225,14 +23217,14 @@
 IF(AL!CL27="N","N",
 IF(COUNTIF(AL!CH31:CK31,"W")&gt;=2,AL!CL27,
 IF(COUNTIF(AL!CH31:CK31,"W")&lt;2,IF(AL!CL27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CM35" s="2" t="str">
         <f>IF(AL!CM27="","",
 IF(AL!CM27="N","N",
 IF(COUNTIF(AL!CI31:CL31,"W")&gt;=2,AL!CM27,
 IF(COUNTIF(AL!CI31:CL31,"W")&lt;2,IF(AL!CM27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN35" s="2" t="str">
         <f>IF(AL!CN27="","",
@@ -23246,7 +23238,7 @@
 IF(AL!CO27="N","N",
 IF(COUNTIF(AL!CK31:CN31,"W")&gt;=2,AL!CO27,
 IF(COUNTIF(AL!CK31:CN31,"W")&lt;2,IF(AL!CO27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CP35" s="2" t="str">
         <f>IF(AL!CP27="","",
@@ -23267,28 +23259,28 @@
 IF(AL!CR27="N","N",
 IF(COUNTIF(AL!CN31:CQ31,"W")&gt;=2,AL!CR27,
 IF(COUNTIF(AL!CN31:CQ31,"W")&lt;2,IF(AL!CR27="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CS35" s="2" t="str">
         <f>IF(AL!CS27="","",
 IF(AL!CS27="N","N",
 IF(COUNTIF(AL!CO31:CR31,"W")&gt;=2,AL!CS27,
 IF(COUNTIF(AL!CO31:CR31,"W")&lt;2,IF(AL!CS27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CT35" s="2" t="str">
         <f>IF(AL!CT27="","",
 IF(AL!CT27="N","N",
 IF(COUNTIF(AL!CP31:CS31,"W")&gt;=2,AL!CT27,
 IF(COUNTIF(AL!CP31:CS31,"W")&lt;2,IF(AL!CT27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CU35" s="2" t="str">
         <f>IF(AL!CU27="","",
 IF(AL!CU27="N","N",
 IF(COUNTIF(AL!CQ31:CT31,"W")&gt;=2,AL!CU27,
 IF(COUNTIF(AL!CQ31:CT31,"W")&lt;2,IF(AL!CU27="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CV35" s="2" t="str">
         <f>IF(AL!CV27="","",
@@ -23739,14 +23731,14 @@
 IF(AL!FQ27="N","N",
 IF(COUNTIF(AL!FM31:FP31,"W")&gt;=2,AL!FQ27,
 IF(COUNTIF(AL!FM31:FP31,"W")&lt;2,IF(AL!FQ27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR35" s="2" t="str">
         <f>IF(AL!FR27="","",
 IF(AL!FR27="N","N",
 IF(COUNTIF(AL!FN31:FQ31,"W")&gt;=2,AL!FR27,
 IF(COUNTIF(AL!FN31:FQ31,"W")&lt;2,IF(AL!FR27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS35" s="2" t="str">
         <f>IF(AL!FS27="","",
@@ -23760,28 +23752,28 @@
 IF(AL!FT27="N","N",
 IF(COUNTIF(AL!FP31:FS31,"W")&gt;=2,AL!FT27,
 IF(COUNTIF(AL!FP31:FS31,"W")&lt;2,IF(AL!FT27="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FU35" s="2" t="str">
         <f>IF(AL!FU27="","",
 IF(AL!FU27="N","N",
 IF(COUNTIF(AL!FQ31:FT31,"W")&gt;=2,AL!FU27,
 IF(COUNTIF(AL!FQ31:FT31,"W")&lt;2,IF(AL!FU27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FV35" s="2" t="str">
         <f>IF(AL!FV27="","",
 IF(AL!FV27="N","N",
 IF(COUNTIF(AL!FR31:FU31,"W")&gt;=2,AL!FV27,
 IF(COUNTIF(AL!FR31:FU31,"W")&lt;2,IF(AL!FV27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FW35" s="2" t="str">
         <f>IF(AL!FW27="","",
 IF(AL!FW27="N","N",
 IF(COUNTIF(AL!FS31:FV31,"W")&gt;=2,AL!FW27,
 IF(COUNTIF(AL!FS31:FV31,"W")&lt;2,IF(AL!FW27="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FX35" s="2" t="str">
         <f>IF(AL!FX27="","",
@@ -25154,7 +25146,7 @@
         <f>IF(DATA!H$3="","",
 IF(H35="","",
 IF(H35="N","N",IF(DATA!H$3=H35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>IF(DATA!I$3="","",
@@ -25172,7 +25164,7 @@
         <f>IF(DATA!K$3="","",
 IF(K35="","",
 IF(K35="N","N",IF(DATA!K$3=K35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -25184,7 +25176,7 @@
         <f>IF(DATA!M$3="","",
 IF(M35="","",
 IF(M35="N","N",IF(DATA!M$3=M35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N39" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -25196,25 +25188,25 @@
         <f>IF(DATA!O$3="","",
 IF(O35="","",
 IF(O35="N","N",IF(DATA!O$3=O35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P35="","",
 IF(P35="N","N",IF(DATA!P$3=P35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q35="","",
 IF(Q35="N","N",IF(DATA!Q$3=Q35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R35="","",
 IF(R35="N","N",IF(DATA!R$3=R35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S39" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -25618,7 +25610,7 @@
         <f>IF(DATA!J$3="","",
 IF(CL35="","",
 IF(CL35="N","N",IF(DATA!J$3=CL35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM39" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -25630,43 +25622,43 @@
         <f>IF(DATA!L$3="","",
 IF(CN35="","",
 IF(CN35="N","N",IF(DATA!L$3=CN35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO39" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO35="","",
 IF(CO35="N","N",IF(DATA!M$3=CO35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP35="","",
 IF(CP35="N","N",IF(DATA!N$3=CP35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CQ39" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ35="","",
 IF(CQ35="N","N",IF(DATA!O$3=CQ35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CR39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR35="","",
 IF(CR35="N","N",IF(DATA!P$3=CR35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CS39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS35="","",
 IF(CS35="N","N",IF(DATA!Q$3=CS35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CT39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT35="","",
 IF(CT35="N","N",IF(DATA!R$3=CT35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CU39" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -26075,13 +26067,13 @@
         <f>IF(DATA!K$3="","",
 IF(FO35="","",
 IF(FO35="N","N",IF(DATA!K$3=FO35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP39" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(FP35="","",
 IF(FP35="N","N",IF(DATA!L$3=FP35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ39" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -26099,25 +26091,25 @@
         <f>IF(DATA!O$3="","",
 IF(FS35="","",
 IF(FS35="N","N",IF(DATA!O$3=FS35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FT39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT35="","",
 IF(FT35="N","N",IF(DATA!P$3=FT35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FU39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU35="","",
 IF(FU35="N","N",IF(DATA!Q$3=FU35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FV39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV35="","",
 IF(FV35="N","N",IF(DATA!R$3=FV35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FW39" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -27421,7 +27413,7 @@
 IF(AL!H35="N","N",
 IF(COUNTIF(AL!D39:G39,"W")&gt;=2,AL!H35,
 IF(COUNTIF(AL!D39:G39,"W")&lt;2,IF(AL!H35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>IF(AL!I35="","",
@@ -27449,14 +27441,14 @@
 IF(AL!L35="N","N",
 IF(COUNTIF(AL!H39:K39,"W")&gt;=2,AL!L35,
 IF(COUNTIF(AL!H39:K39,"W")&lt;2,IF(AL!L35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M43" s="2" t="str">
         <f>IF(AL!M35="","",
 IF(AL!M35="N","N",
 IF(COUNTIF(AL!I39:L39,"W")&gt;=2,AL!M35,
 IF(COUNTIF(AL!I39:L39,"W")&lt;2,IF(AL!M35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N43" s="2" t="str">
         <f>IF(AL!N35="","",
@@ -27477,28 +27469,28 @@
 IF(AL!P35="N","N",
 IF(COUNTIF(AL!L39:O39,"W")&gt;=2,AL!P35,
 IF(COUNTIF(AL!L39:O39,"W")&lt;2,IF(AL!P35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q43" s="2" t="str">
         <f>IF(AL!Q35="","",
 IF(AL!Q35="N","N",
 IF(COUNTIF(AL!M39:P39,"W")&gt;=2,AL!Q35,
 IF(COUNTIF(AL!M39:P39,"W")&lt;2,IF(AL!Q35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R43" s="2" t="str">
         <f>IF(AL!R35="","",
 IF(AL!R35="N","N",
 IF(COUNTIF(AL!N39:Q39,"W")&gt;=2,AL!R35,
 IF(COUNTIF(AL!N39:Q39,"W")&lt;2,IF(AL!R35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S43" s="2" t="str">
         <f>IF(AL!S35="","",
 IF(AL!S35="N","N",
 IF(COUNTIF(AL!O39:R39,"W")&gt;=2,AL!S35,
 IF(COUNTIF(AL!O39:R39,"W")&lt;2,IF(AL!S35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T43" s="2" t="str">
         <f>IF(AL!T35="","",
@@ -27932,14 +27924,14 @@
 IF(AL!CL35="N","N",
 IF(COUNTIF(AL!CH39:CK39,"W")&gt;=2,AL!CL35,
 IF(COUNTIF(AL!CH39:CK39,"W")&lt;2,IF(AL!CL35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM43" s="2" t="str">
         <f>IF(AL!CM35="","",
 IF(AL!CM35="N","N",
 IF(COUNTIF(AL!CI39:CL39,"W")&gt;=2,AL!CM35,
 IF(COUNTIF(AL!CI39:CL39,"W")&lt;2,IF(AL!CM35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN43" s="2" t="str">
         <f>IF(AL!CN35="","",
@@ -27960,42 +27952,42 @@
 IF(AL!CP35="N","N",
 IF(COUNTIF(AL!CL39:CO39,"W")&gt;=2,AL!CP35,
 IF(COUNTIF(AL!CL39:CO39,"W")&lt;2,IF(AL!CP35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ43" s="2" t="str">
         <f>IF(AL!CQ35="","",
 IF(AL!CQ35="N","N",
 IF(COUNTIF(AL!CM39:CP39,"W")&gt;=2,AL!CQ35,
 IF(COUNTIF(AL!CM39:CP39,"W")&lt;2,IF(AL!CQ35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CR43" s="2" t="str">
         <f>IF(AL!CR35="","",
 IF(AL!CR35="N","N",
 IF(COUNTIF(AL!CN39:CQ39,"W")&gt;=2,AL!CR35,
 IF(COUNTIF(AL!CN39:CQ39,"W")&lt;2,IF(AL!CR35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CS43" s="2" t="str">
         <f>IF(AL!CS35="","",
 IF(AL!CS35="N","N",
 IF(COUNTIF(AL!CO39:CR39,"W")&gt;=2,AL!CS35,
 IF(COUNTIF(AL!CO39:CR39,"W")&lt;2,IF(AL!CS35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CT43" s="2" t="str">
         <f>IF(AL!CT35="","",
 IF(AL!CT35="N","N",
 IF(COUNTIF(AL!CP39:CS39,"W")&gt;=2,AL!CT35,
 IF(COUNTIF(AL!CP39:CS39,"W")&lt;2,IF(AL!CT35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CU43" s="2" t="str">
         <f>IF(AL!CU35="","",
 IF(AL!CU35="N","N",
 IF(COUNTIF(AL!CQ39:CT39,"W")&gt;=2,AL!CU35,
 IF(COUNTIF(AL!CQ39:CT39,"W")&lt;2,IF(AL!CU35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CV43" s="2" t="str">
         <f>IF(AL!CV35="","",
@@ -28460,35 +28452,35 @@
 IF(AL!FS35="N","N",
 IF(COUNTIF(AL!FO39:FR39,"W")&gt;=2,AL!FS35,
 IF(COUNTIF(AL!FO39:FR39,"W")&lt;2,IF(AL!FS35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FT43" s="2" t="str">
         <f>IF(AL!FT35="","",
 IF(AL!FT35="N","N",
 IF(COUNTIF(AL!FP39:FS39,"W")&gt;=2,AL!FT35,
 IF(COUNTIF(AL!FP39:FS39,"W")&lt;2,IF(AL!FT35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FU43" s="2" t="str">
         <f>IF(AL!FU35="","",
 IF(AL!FU35="N","N",
 IF(COUNTIF(AL!FQ39:FT39,"W")&gt;=2,AL!FU35,
 IF(COUNTIF(AL!FQ39:FT39,"W")&lt;2,IF(AL!FU35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FV43" s="2" t="str">
         <f>IF(AL!FV35="","",
 IF(AL!FV35="N","N",
 IF(COUNTIF(AL!FR39:FU39,"W")&gt;=2,AL!FV35,
 IF(COUNTIF(AL!FR39:FU39,"W")&lt;2,IF(AL!FV35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FW43" s="2" t="str">
         <f>IF(AL!FW35="","",
 IF(AL!FW35="N","N",
 IF(COUNTIF(AL!FS39:FV39,"W")&gt;=2,AL!FW35,
 IF(COUNTIF(AL!FS39:FV39,"W")&lt;2,IF(AL!FW35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FX43" s="2" t="str">
         <f>IF(AL!FX35="","",
@@ -29861,13 +29853,13 @@
         <f>IF(DATA!H$3="","",
 IF(H43="","",
 IF(H43="N","N",IF(DATA!H$3=H43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I43="","",
 IF(I43="N","N",IF(DATA!I$3=I43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J47" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -29879,7 +29871,7 @@
         <f>IF(DATA!K$3="","",
 IF(K43="","",
 IF(K43="N","N",IF(DATA!K$3=K43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L47" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -29897,31 +29889,31 @@
         <f>IF(DATA!N$3="","",
 IF(N43="","",
 IF(N43="N","N",IF(DATA!N$3=N43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O43="","",
 IF(O43="N","N",IF(DATA!O$3=O43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P43="","",
 IF(P43="N","N",IF(DATA!P$3=P43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q43="","",
 IF(Q43="N","N",IF(DATA!Q$3=Q43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R43="","",
 IF(R43="N","N",IF(DATA!R$3=R43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S47" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -30319,13 +30311,13 @@
         <f>IF(DATA!I$3="","",
 IF(CK43="","",
 IF(CK43="N","N",IF(DATA!I$3=CK43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL47" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL43="","",
 IF(CL43="N","N",IF(DATA!J$3=CL43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM47" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -30337,13 +30329,13 @@
         <f>IF(DATA!L$3="","",
 IF(CN43="","",
 IF(CN43="N","N",IF(DATA!L$3=CN43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO47" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO43="","",
 IF(CO43="N","N",IF(DATA!M$3=CO43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP47" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -30355,25 +30347,25 @@
         <f>IF(DATA!O$3="","",
 IF(CQ43="","",
 IF(CQ43="N","N",IF(DATA!O$3=CQ43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CR47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR43="","",
 IF(CR43="N","N",IF(DATA!P$3=CR43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CS47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS43="","",
 IF(CS43="N","N",IF(DATA!Q$3=CS43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CT47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT43="","",
 IF(CT43="N","N",IF(DATA!R$3=CT43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CU47" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -30782,49 +30774,49 @@
         <f>IF(DATA!K$3="","",
 IF(FO43="","",
 IF(FO43="N","N",IF(DATA!K$3=FO43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP47" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(FP43="","",
 IF(FP43="N","N",IF(DATA!L$3=FP43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FQ47" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ43="","",
 IF(FQ43="N","N",IF(DATA!M$3=FQ43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FR47" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR43="","",
 IF(FR43="N","N",IF(DATA!N$3=FR43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FS47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS43="","",
 IF(FS43="N","N",IF(DATA!O$3=FS43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FT47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT43="","",
 IF(FT43="N","N",IF(DATA!P$3=FT43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FU47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU43="","",
 IF(FU43="N","N",IF(DATA!Q$3=FU43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FV47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV43="","",
 IF(FV43="N","N",IF(DATA!R$3=FV43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FW47" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -32160,19 +32152,19 @@
       </c>
       <c r="O51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>R</v>
+        <v/>
       </c>
       <c r="P51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -32467,19 +32459,19 @@
       </c>
       <c r="CQ51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>R</v>
+        <v/>
       </c>
       <c r="CR51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CS51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CT51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32773,19 +32765,19 @@
       </c>
       <c r="FS51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FT51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW51" s="2" t="str">
         <f t="shared" si="9"/>
@@ -33089,19 +33081,19 @@
       </c>
       <c r="P52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T52" s="2" t="str">
         <f t="shared" si="12"/>
@@ -33404,19 +33396,19 @@
       </c>
       <c r="CR52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CS52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CT52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CV52" s="2" t="str">
         <f t="shared" si="15"/>
@@ -33718,19 +33710,19 @@
       </c>
       <c r="FT52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FX52" s="2" t="str">
         <f t="shared" si="18"/>
@@ -34985,25 +34977,25 @@
         <f>IF(DATA!O$3="","",
 IF(O52="","",
 IF(O52="N","N",IF(DATA!O$3=O52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P52="","",
 IF(P52="N","N",IF(DATA!P$3=P52,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q52="","",
 IF(Q52="N","N",IF(DATA!Q$3=Q52,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R52="","",
 IF(R52="N","N",IF(DATA!R$3=R52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S56" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -35437,25 +35429,25 @@
         <f>IF(DATA!O$3="","",
 IF(CQ52="","",
 IF(CQ52="N","N",IF(DATA!O$3=CQ52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CR56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR52="","",
 IF(CR52="N","N",IF(DATA!P$3=CR52,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CS56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS52="","",
 IF(CS52="N","N",IF(DATA!Q$3=CS52,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CT56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT52="","",
 IF(CT52="N","N",IF(DATA!R$3=CT52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU56" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -35888,25 +35880,25 @@
         <f>IF(DATA!O$3="","",
 IF(FS52="","",
 IF(FS52="N","N",IF(DATA!O$3=FS52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FT56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT52="","",
 IF(FT52="N","N",IF(DATA!P$3=FT52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU52="","",
 IF(FU52="N","N",IF(DATA!Q$3=FU52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV52="","",
 IF(FV52="N","N",IF(DATA!R$3=FV52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW56" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -36961,19 +36953,19 @@
       </c>
       <c r="P60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -37789,25 +37781,25 @@
         <f>IF(DATA!O$3="","",
 IF(O60="","",
 IF(O60="N","N",IF(DATA!O$3=O60,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P64" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P60="","",
 IF(P60="N","N",IF(DATA!P$3=P60,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q64" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q60="","",
 IF(Q60="N","N",IF(DATA!Q$3=Q60,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R64" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R60="","",
 IF(R60="N","N",IF(DATA!R$3=R60,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S64" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -39143,19 +39135,19 @@
       </c>
       <c r="O68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>F</v>
+        <v/>
       </c>
       <c r="P68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S68" s="2" t="str">
         <f t="shared" si="24"/>
@@ -39450,19 +39442,19 @@
       </c>
       <c r="CQ68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>F</v>
+        <v/>
       </c>
       <c r="CR68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CS68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CT68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39756,19 +39748,19 @@
       </c>
       <c r="FS68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FT68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW68" s="2" t="str">
         <f t="shared" si="30"/>
@@ -40072,19 +40064,19 @@
       </c>
       <c r="P69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T69" s="2" t="str">
         <f t="shared" si="33"/>
@@ -40387,19 +40379,19 @@
       </c>
       <c r="CR69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CS69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CT69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CV69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40701,19 +40693,19 @@
       </c>
       <c r="FT69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FX69" s="2" t="str">
         <f t="shared" si="39"/>
@@ -41968,25 +41960,25 @@
         <f>IF(DATA!O$3="","",
 IF(O69="","",
 IF(O69="N","N",IF(DATA!O$3=O69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P69="","",
 IF(P69="N","N",IF(DATA!P$3=P69,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q69="","",
 IF(Q69="N","N",IF(DATA!Q$3=Q69,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R69="","",
 IF(R69="N","N",IF(DATA!R$3=R69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S73" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -42420,25 +42412,25 @@
         <f>IF(DATA!O$3="","",
 IF(CQ69="","",
 IF(CQ69="N","N",IF(DATA!O$3=CQ69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CR73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR69="","",
 IF(CR69="N","N",IF(DATA!P$3=CR69,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CS73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS69="","",
 IF(CS69="N","N",IF(DATA!Q$3=CS69,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CT73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT69="","",
 IF(CT69="N","N",IF(DATA!R$3=CT69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU73" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -42871,25 +42863,25 @@
         <f>IF(DATA!O$3="","",
 IF(FS69="","",
 IF(FS69="N","N",IF(DATA!O$3=FS69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FT73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT69="","",
 IF(FT69="N","N",IF(DATA!P$3=FT69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU69="","",
 IF(FU69="N","N",IF(DATA!Q$3=FU69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV69="","",
 IF(FV69="N","N",IF(DATA!R$3=FV69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW73" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -43944,19 +43936,19 @@
       </c>
       <c r="P77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -44772,25 +44764,25 @@
         <f>IF(DATA!O$3="","",
 IF(O77="","",
 IF(O77="N","N",IF(DATA!O$3=O77,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P81" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P77="","",
 IF(P77="N","N",IF(DATA!P$3=P77,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q81" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q77="","",
 IF(Q77="N","N",IF(DATA!Q$3=Q77,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R81" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R77="","",
 IF(R77="N","N",IF(DATA!R$3=R77,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S81" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -45834,25 +45826,25 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="L", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "W"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="O85" s="2">
+      <c r="O85" s="2" t="str">
         <f t="array" ref="O85">IF(AL!O97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:O97, 1, MAX(IF(AL!$B97:O97="L", COLUMN(AL!$B97:O97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!O97, "W"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="P85" s="2">
+        <v/>
+      </c>
+      <c r="P85" s="2" t="str">
         <f t="array" ref="P85">IF(AL!P97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:P97, 1, MAX(IF(AL!$B97:P97="L", COLUMN(AL!$B97:P97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!P97, "W"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="Q85" s="2">
+        <v/>
+      </c>
+      <c r="Q85" s="2" t="str">
         <f t="array" ref="Q85">IF(AL!Q97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:Q97, 1, MAX(IF(AL!$B97:Q97="L", COLUMN(AL!$B97:Q97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!Q97, "W"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="R85" s="2">
+        <v/>
+      </c>
+      <c r="R85" s="2" t="str">
         <f t="array" ref="R85">IF(AL!R97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:R97, 1, MAX(IF(AL!$B97:R97="L", COLUMN(AL!$B97:R97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!R97, "W"),"0"))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="S85" s="2" t="str">
         <f t="array" ref="S85">IF(AL!S97="","",
@@ -46680,25 +46672,25 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="W", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "L"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="O89" s="2">
+      <c r="O89" s="2" t="str">
         <f t="array" ref="O89">IF(AL!O97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:O97, 1, MAX(IF(AL!$B97:O97="W", COLUMN(AL!$B97:O97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!O97, "L"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="P89" s="2">
+        <v/>
+      </c>
+      <c r="P89" s="2" t="str">
         <f t="array" ref="P89">IF(AL!P97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:P97, 1, MAX(IF(AL!$B97:P97="W", COLUMN(AL!$B97:P97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!P97, "L"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="2">
+        <v/>
+      </c>
+      <c r="Q89" s="2" t="str">
         <f t="array" ref="Q89">IF(AL!Q97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:Q97, 1, MAX(IF(AL!$B97:Q97="W", COLUMN(AL!$B97:Q97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!Q97, "L"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="R89" s="2">
+        <v/>
+      </c>
+      <c r="R89" s="2" t="str">
         <f t="array" ref="R89">IF(AL!R97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:R97, 1, MAX(IF(AL!$B97:R97="W", COLUMN(AL!$B97:R97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!R97, "L"),"0"))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="S89" s="2" t="str">
         <f t="array" ref="S89">IF(AL!S97="","",
@@ -47379,22 +47371,22 @@
       <c r="P93" s="2" t="str">
         <f>IF(AL!P60="","",
 IF(OR(AL!P60="P",AL!P60="B"),AL!P60,AL!P77))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q93" s="2" t="str">
         <f>IF(AL!Q60="","",
 IF(OR(AL!Q60="P",AL!Q60="B"),AL!Q60,AL!Q77))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R93" s="2" t="str">
         <f>IF(AL!R60="","",
 IF(OR(AL!R60="P",AL!R60="B"),AL!R60,AL!R77))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S93" s="2" t="str">
         <f>IF(AL!S60="","",
 IF(OR(AL!S60="P",AL!S60="B"),AL!S60,AL!S77))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T93" s="2" t="str">
         <f>IF(AL!T60="","",
@@ -48085,25 +48077,25 @@
         <f>IF(DATA!O$3="","",
 IF(O93="","",
 IF(O93="N","N",IF(DATA!O$3=O93,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P97" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P93="","",
 IF(P93="N","N",IF(DATA!P$3=P93,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q97" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q93="","",
 IF(Q93="N","N",IF(DATA!Q$3=Q93,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R97" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R93="","",
 IF(R93="N","N",IF(DATA!R$3=R93,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S97" s="2" t="str">
         <f>IF(DATA!S$3="","",
@@ -48465,8 +48457,8 @@
   <mergeCells count="61">
     <mergeCell ref="CD1:CP1"/>
     <mergeCell ref="B21:N21"/>
+    <mergeCell ref="CD41:CP41"/>
     <mergeCell ref="FF83:FR83"/>
-    <mergeCell ref="CD41:CP41"/>
     <mergeCell ref="FF41:FR41"/>
     <mergeCell ref="CD75:CP75"/>
     <mergeCell ref="FF58:FR58"/>
@@ -48510,7 +48502,7 @@
     <mergeCell ref="B91:N91"/>
     <mergeCell ref="B87:N87"/>
     <mergeCell ref="FF13:FR13"/>
-    <mergeCell ref="CD37:CP37"/>
+    <mergeCell ref="B37:N37"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="B49:N49"/>
     <mergeCell ref="B83:N83"/>
@@ -48521,9 +48513,9 @@
     <mergeCell ref="FF33:FR33"/>
     <mergeCell ref="FF21:FR21"/>
     <mergeCell ref="CD17:CP17"/>
-    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="FF66:FR66"/>
+    <mergeCell ref="CD37:CP37"/>
     <mergeCell ref="FF17:FR17"/>
-    <mergeCell ref="FF66:FR66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48761,27 +48753,27 @@
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="D2" s="18" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="18" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="18" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G2" s="18" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="H2" s="18" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I2" s="18" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
@@ -48789,7 +48781,7 @@
       </c>
       <c r="J2" s="18" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="K2" s="18" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -48797,35 +48789,35 @@
       </c>
       <c r="L2" s="18" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M2" s="18" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N2" s="18" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="O2" s="18" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P2" s="18" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q2" s="18" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="R2" s="18" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S2" s="18" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T2" s="18" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
@@ -49050,72 +49042,72 @@
       <c r="C3" s="18">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P3" s="18">
+        <v>6</v>
+      </c>
+      <c r="P3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q3" s="18">
+        <v/>
+      </c>
+      <c r="Q3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R3" s="18">
+        <v/>
+      </c>
+      <c r="R3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="S3" s="18">
+        <v/>
+      </c>
+      <c r="S3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="T3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -49342,72 +49334,72 @@
       <c r="C4" s="18">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="P4" s="18">
+        <v>6</v>
+      </c>
+      <c r="P4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="Q4" s="18">
+        <v/>
+      </c>
+      <c r="Q4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="R4" s="18">
+        <v/>
+      </c>
+      <c r="R4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="S4" s="18">
+        <v/>
+      </c>
+      <c r="S4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="T4" s="18" t="str">
         <f t="shared" si="3"/>
@@ -49630,71 +49622,71 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="O5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
-      <c r="P5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="Q5" s="18">
+        <v/>
+      </c>
+      <c r="Q5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="R5" s="18">
+        <v/>
+      </c>
+      <c r="R5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
-      <c r="S5" s="18">
+        <v/>
+      </c>
+      <c r="S5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v/>
       </c>
       <c r="T5" s="18" t="str">
         <f t="shared" si="5"/>
@@ -50019,51 +50011,51 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="Q7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50310,11 +50302,11 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="J8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50322,7 +50314,7 @@
       </c>
       <c r="L8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="M8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50330,31 +50322,31 @@
       </c>
       <c r="N8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="Q8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="T8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50600,53 +50592,53 @@
       <c r="I9" s="18" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O9" s="18" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="Q9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="U9" s="18" t="str">
         <f t="shared" ref="U9:AZ9" si="14">IF(T2="","",
@@ -50976,15 +50968,15 @@
       </c>
       <c r="I11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -50996,7 +50988,7 @@
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51004,19 +50996,19 @@
       </c>
       <c r="P11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51274,7 +51266,7 @@
       </c>
       <c r="J12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51282,15 +51274,15 @@
       </c>
       <c r="L12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51298,19 +51290,19 @@
       </c>
       <c r="P12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51564,15 +51556,15 @@
       </c>
       <c r="I13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51592,19 +51584,19 @@
       </c>
       <c r="P13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51950,11 +51942,11 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -51962,23 +51954,23 @@
       </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="Q15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52252,7 +52244,7 @@
       </c>
       <c r="M16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52260,27 +52252,27 @@
       </c>
       <c r="O16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="Q16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52539,11 +52531,11 @@
       </c>
       <c r="M17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52551,23 +52543,23 @@
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="Q17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="U17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52909,27 +52901,27 @@
       </c>
       <c r="N19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -53211,19 +53203,19 @@
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53501,23 +53493,23 @@
       </c>
       <c r="O21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53860,7 +53852,7 @@
       </c>
       <c r="M23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -53876,19 +53868,19 @@
       </c>
       <c r="Q23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -54160,23 +54152,23 @@
       </c>
       <c r="O24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T24" s="19" t="str">
         <f t="shared" si="45"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF5749-76E9-46C3-8619-CA9D6D9247F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13612E9C-5C51-4882-AF5F-2EFF199035F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="54">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BW3" sqref="BW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="16.5"/>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>2</v>
@@ -1527,17 +1527,29 @@
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1595,16 +1607,16 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2388,35 +2400,35 @@
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O23="","",AI!O23)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P23="","",AI!P23)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q23="","",AI!Q23)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R23="","",AI!R23)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S23="","",AI!S23)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!T23="","",AI!T23)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!U23="","",AI!U23)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="U12" s="2" t="str">
         <f>IF(AI!V23="","",AI!V23)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V12" s="2" t="str">
         <f>IF(AI!W23="","",AI!W23)</f>
@@ -3011,31 +3023,31 @@
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O24="","",AI!O24)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P24="","",AI!P24)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q24="","",AI!Q24)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R24="","",AI!R24)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!S24="","",AI!S24)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!T24="","",AI!T24)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T16" s="2" t="str">
         <f>IF(AI!U24="","",AI!U24)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="U16" s="2" t="str">
         <f>IF(AI!V24="","",AI!V24)</f>
@@ -3259,16 +3271,16 @@
       </c>
       <c r="BX16" s="14">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY16" s="15">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="16">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4876,12 +4888,12 @@
       <c r="D3" s="2" t="str">
         <f>IF(DATA!D3="","",
 IF(DATA!C3=DATA!D3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(DATA!D3=DATA!E3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -4901,12 +4913,12 @@
       <c r="I3" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(DATA!H3=DATA!I3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="J3" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(DATA!I3=DATA!J3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -4926,37 +4938,37 @@
       <c r="N3" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3=DATA!N3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(DATA!N3=DATA!O3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="P3" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(DATA!O3=DATA!P3,"O","X"))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="Q3" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(DATA!P3=DATA!Q3,"O","X"))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="R3" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(DATA!Q3=DATA!R3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="S3" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(DATA!R3=DATA!S3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="T3" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(DATA!S3=DATA!T3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="U3" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -5259,13 +5271,13 @@
         <f>IF(DATA!E3="","",
 IF(AL!D3&lt;&gt;AL!E3,AL!D3,
 IF(AL!D3=AL!E3,AL!E3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CI3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(AL!E3&lt;&gt;AL!F3,AL!E3,
 IF(AL!E3=AL!F3,AL!F3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CJ3" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -5289,13 +5301,13 @@
         <f>IF(DATA!J3="","",
 IF(AL!I3&lt;&gt;AL!J3,AL!I3,
 IF(AL!I3=AL!J3,AL!J3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CN3" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(AL!J3&lt;&gt;AL!K3,AL!J3,
 IF(AL!J3=AL!K3,AL!K3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CO3" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -5319,37 +5331,37 @@
         <f>IF(DATA!O3="","",
 IF(AL!N3&lt;&gt;AL!O3,AL!N3,
 IF(AL!N3=AL!O3,AL!O3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CS3" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(AL!O3&lt;&gt;AL!P3,AL!O3,
 IF(AL!O3=AL!P3,AL!P3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CT3" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(AL!P3&lt;&gt;AL!Q3,AL!P3,
 IF(AL!P3=AL!Q3,AL!Q3)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CU3" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(AL!Q3&lt;&gt;AL!R3,AL!Q3,
 IF(AL!Q3=AL!R3,AL!R3)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CV3" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(AL!R3&lt;&gt;AL!S3,AL!R3,
 IF(AL!R3=AL!S3,AL!S3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CW3" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(AL!S3&lt;&gt;AL!T3,AL!S3,
 IF(AL!S3=AL!T3,AL!T3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CX3" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -6621,7 +6633,7 @@
       <c r="D7" s="2" t="str">
         <f t="shared" ref="D7:AI7" si="0">IF(D3="","",
 IF(C3=D3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6629,7 +6641,7 @@
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6641,7 +6653,7 @@
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6649,7 +6661,7 @@
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6661,31 +6673,31 @@
       </c>
       <c r="N7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="P7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="Q7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="R7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="S7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="T7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="U7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6932,7 +6944,7 @@
         <f>IF(DATA!E3="","",
 IF(AL!D7&lt;&gt;AL!E7,AL!D7,
 IF(AL!D7=AL!E7,AL!E7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CI7" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -6944,7 +6956,7 @@
         <f>IF(DATA!G3="","",
 IF(AL!F7&lt;&gt;AL!G7,AL!F7,
 IF(AL!F7=AL!G7,AL!G7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CK7" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -6962,7 +6974,7 @@
         <f>IF(DATA!J3="","",
 IF(AL!I7&lt;&gt;AL!J7,AL!I7,
 IF(AL!I7=AL!J7,AL!J7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CN7" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -6974,7 +6986,7 @@
         <f>IF(DATA!L3="","",
 IF(AL!K7&lt;&gt;AL!L7,AL!K7,
 IF(AL!K7=AL!L7,AL!L7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CP7" s="2" t="str">
         <f>IF(DATA!M3="","",
@@ -6992,37 +7004,37 @@
         <f>IF(DATA!O3="","",
 IF(AL!N7&lt;&gt;AL!O7,AL!N7,
 IF(AL!N7=AL!O7,AL!O7)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CS7" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(AL!O7&lt;&gt;AL!P7,AL!O7,
 IF(AL!O7=AL!P7,AL!P7)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CT7" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(AL!P7&lt;&gt;AL!Q7,AL!P7,
 IF(AL!P7=AL!Q7,AL!Q7)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CU7" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(AL!Q7&lt;&gt;AL!R7,AL!Q7,
 IF(AL!Q7=AL!R7,AL!R7)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CV7" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(AL!R7&lt;&gt;AL!S7,AL!R7,
 IF(AL!R7=AL!S7,AL!S7)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CW7" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(AL!S7&lt;&gt;AL!T7,AL!S7,
 IF(AL!S7=AL!T7,AL!T7)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CX7" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -7371,7 +7383,7 @@
         <f>IF(CH7="","",
 IF(CH7="O",AL!E3,
 IF(CH7="X",AL!D3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FK7" s="2" t="str">
         <f>IF(CI7="","",
@@ -7383,7 +7395,7 @@
         <f>IF(CJ7="","",
 IF(CJ7="O",AL!G3,
 IF(CJ7="X",AL!F3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FM7" s="2" t="str">
         <f>IF(CK7="","",
@@ -7401,7 +7413,7 @@
         <f>IF(CM7="","",
 IF(CM7="O",AL!J3,
 IF(CM7="X",AL!I3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FP7" s="2" t="str">
         <f>IF(CN7="","",
@@ -7413,7 +7425,7 @@
         <f>IF(CO7="","",
 IF(CO7="O",AL!L3,
 IF(CO7="X",AL!K3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FR7" s="2" t="str">
         <f>IF(CP7="","",
@@ -7425,43 +7437,43 @@
         <f>IF(CQ7="","",
 IF(CQ7="O",AL!N3,
 IF(CQ7="X",AL!M3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FT7" s="2" t="str">
         <f>IF(CR7="","",
 IF(CR7="O",AL!O3,
 IF(CR7="X",AL!N3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="FU7" s="2" t="str">
         <f>IF(CS7="","",
 IF(CS7="O",AL!P3,
 IF(CS7="X",AL!O3)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="FV7" s="2" t="str">
         <f>IF(CT7="","",
 IF(CT7="O",AL!Q3,
 IF(CT7="X",AL!P3)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="FW7" s="2" t="str">
         <f>IF(CU7="","",
 IF(CU7="O",AL!R3,
 IF(CU7="X",AL!Q3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="FX7" s="2" t="str">
         <f>IF(CV7="","",
 IF(CV7="O",AL!S3,
 IF(CV7="X",AL!R3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="FY7" s="2" t="str">
         <f>IF(CW7="","",
 IF(CW7="O",AL!T3,
 IF(CW7="X",AL!S3)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="FZ7" s="2" t="str">
         <f>IF(CX7="","",
@@ -8746,7 +8758,7 @@
         <f>IF(DATA!E3="","",
 IF(DATA!D3&lt;&gt;DATA!E3,DATA!D3,
 IF(DATA!D3=DATA!E3,DATA!E3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -8776,7 +8788,7 @@
         <f>IF(DATA!J3="","",
 IF(DATA!I3&lt;&gt;DATA!J3,DATA!I3,
 IF(DATA!I3=DATA!J3,DATA!J3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -8800,43 +8812,43 @@
         <f>IF(DATA!N3="","",
 IF(DATA!M3&lt;&gt;DATA!N3,DATA!M3,
 IF(DATA!M3=DATA!N3,DATA!N3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="P11" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(DATA!N3&lt;&gt;DATA!O3,DATA!N3,
 IF(DATA!N3=DATA!O3,DATA!O3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q11" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(DATA!O3&lt;&gt;DATA!P3,DATA!O3,
 IF(DATA!O3=DATA!P3,DATA!P3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R11" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(DATA!P3&lt;&gt;DATA!Q3,DATA!P3,
 IF(DATA!P3=DATA!Q3,DATA!Q3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S11" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(DATA!Q3&lt;&gt;DATA!R3,DATA!Q3,
 IF(DATA!Q3=DATA!R3,DATA!R3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T11" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(DATA!R3&lt;&gt;DATA!S3,DATA!R3,
 IF(DATA!R3=DATA!S3,DATA!S3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U11" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(DATA!S3&lt;&gt;DATA!T3,DATA!S3,
 IF(DATA!S3=DATA!T3,DATA!T3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="V11" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -9182,13 +9194,13 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
 IF(AL!CH3="O",DATA!E3,
 IF(AL!CH3="X",DATA!D3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CI11" s="2" t="str">
         <f>IF(AL!CI3="","",
@@ -9212,13 +9224,13 @@
         <f>IF(AL!CL3="","",
 IF(AL!CL3="O",DATA!I3,
 IF(AL!CL3="X",DATA!H3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CM11" s="2" t="str">
         <f>IF(AL!CM3="","",
 IF(AL!CM3="O",DATA!J3,
 IF(AL!CM3="X",DATA!I3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CN11" s="2" t="str">
         <f>IF(AL!CN3="","",
@@ -9242,43 +9254,43 @@
         <f>IF(AL!CQ3="","",
 IF(AL!CQ3="O",DATA!N3,
 IF(AL!CQ3="X",DATA!M3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="CR11" s="2" t="str">
         <f>IF(AL!CR3="","",
 IF(AL!CR3="O",DATA!O3,
 IF(AL!CR3="X",DATA!N3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CS11" s="2" t="str">
         <f>IF(AL!CS3="","",
 IF(AL!CS3="O",DATA!P3,
 IF(AL!CS3="X",DATA!O3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CT11" s="2" t="str">
         <f>IF(AL!CT3="","",
 IF(AL!CT3="O",DATA!Q3,
 IF(AL!CT3="X",DATA!P3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CU11" s="2" t="str">
         <f>IF(AL!CU3="","",
 IF(AL!CU3="O",DATA!R3,
 IF(AL!CU3="X",DATA!Q3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CV11" s="2" t="str">
         <f>IF(AL!CV3="","",
 IF(AL!CV3="O",DATA!S3,
 IF(AL!CV3="X",DATA!R3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CW11" s="2" t="str">
         <f>IF(AL!CW3="","",
 IF(AL!CW3="O",DATA!T3,
 IF(AL!CW3="X",DATA!S3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="CX11" s="2" t="str">
         <f>IF(AL!CX3="","",
@@ -9627,7 +9639,7 @@
         <f>IF(AL!FJ7="","",
 IF(AL!FJ7="O",DATA!E3,
 IF(AL!FJ7="X",DATA!D3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FK11" s="2" t="str">
         <f>IF(AL!FK7="","",
@@ -9639,7 +9651,7 @@
         <f>IF(AL!FL7="","",
 IF(AL!FL7="O",DATA!G3,
 IF(AL!FL7="X",DATA!F3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FM11" s="2" t="str">
         <f>IF(AL!FM7="","",
@@ -9651,13 +9663,13 @@
         <f>IF(AL!FN7="","",
 IF(AL!FN7="O",DATA!I3,
 IF(AL!FN7="X",DATA!H3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="FO11" s="2" t="str">
         <f>IF(AL!FO7="","",
 IF(AL!FO7="O",DATA!J3,
 IF(AL!FO7="X",DATA!I3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="FP11" s="2" t="str">
         <f>IF(AL!FP7="","",
@@ -9669,7 +9681,7 @@
         <f>IF(AL!FQ7="","",
 IF(AL!FQ7="O",DATA!L3,
 IF(AL!FQ7="X",DATA!K3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR11" s="2" t="str">
         <f>IF(AL!FR7="","",
@@ -9681,43 +9693,43 @@
         <f>IF(AL!FS7="","",
 IF(AL!FS7="O",DATA!N3,
 IF(AL!FS7="X",DATA!M3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="FT11" s="2" t="str">
         <f>IF(AL!FT7="","",
 IF(AL!FT7="O",DATA!O3,
 IF(AL!FT7="X",DATA!N3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FU11" s="2" t="str">
         <f>IF(AL!FU7="","",
 IF(AL!FU7="O",DATA!P3,
 IF(AL!FU7="X",DATA!O3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FV11" s="2" t="str">
         <f>IF(AL!FV7="","",
 IF(AL!FV7="O",DATA!Q3,
 IF(AL!FV7="X",DATA!P3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FW11" s="2" t="str">
         <f>IF(AL!FW7="","",
 IF(AL!FW7="O",DATA!R3,
 IF(AL!FW7="X",DATA!Q3)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FX11" s="2" t="str">
         <f>IF(AL!FX7="","",
 IF(AL!FX7="O",DATA!S3,
 IF(AL!FX7="X",DATA!R3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FY11" s="2" t="str">
         <f>IF(AL!FY7="","",
 IF(AL!FY7="O",DATA!T3,
 IF(AL!FY7="X",DATA!S3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="FZ11" s="2" t="str">
         <f>IF(AL!FZ7="","",
@@ -10998,7 +11010,7 @@
         <f>IF(DATA!D3="","",
 IF(D11="","",
 IF(D11="N","N",IF(DATA!D3=D11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>IF(DATA!E3="","",
@@ -11010,7 +11022,7 @@
         <f>IF(DATA!F3="","",
 IF(F11="","",
 IF(F11="N","N",IF(DATA!F3=F11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11028,7 +11040,7 @@
         <f>IF(DATA!I3="","",
 IF(I11="","",
 IF(I11="N","N",IF(DATA!I3=I11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J15" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -11040,7 +11052,7 @@
         <f>IF(DATA!K3="","",
 IF(K11="","",
 IF(K11="N","N",IF(DATA!K3=K11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L15" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -11052,7 +11064,7 @@
         <f>IF(DATA!M3="","",
 IF(M11="","",
 IF(M11="N","N",IF(DATA!M3=M11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N15" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -11064,37 +11076,37 @@
         <f>IF(DATA!O3="","",
 IF(O11="","",
 IF(O11="N","N",IF(DATA!O3=O11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(P11="","",
 IF(P11="N","N",IF(DATA!P3=P11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q15" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(Q11="","",
 IF(Q11="N","N",IF(DATA!Q3=Q11,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(R11="","",
 IF(R11="N","N",IF(DATA!R3=R11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S15" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(S11="","",
 IF(S11="N","N",IF(DATA!S3=S11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T15" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(T11="","",
 IF(T11="N","N",IF(DATA!T3=T11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="U15" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -11456,13 +11468,13 @@
         <f>IF(DATA!E3="","",
 IF(CG11="","",
 IF(CG11="N","N",IF(DATA!E3=CG11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CH15" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(CH11="","",
 IF(CH11="N","N",IF(DATA!F3=CH11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CI15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11480,19 +11492,19 @@
         <f>IF(DATA!I3="","",
 IF(CK11="","",
 IF(CK11="N","N",IF(DATA!I3=CK11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(CL11="","",
 IF(CL11="N","N",IF(DATA!J3=CL11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(CM11="","",
 IF(CM11="N","N",IF(DATA!K3=CM11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN15" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -11516,37 +11528,37 @@
         <f>IF(DATA!O3="","",
 IF(CQ11="","",
 IF(CQ11="N","N",IF(DATA!O3=CQ11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CR15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(CR11="","",
 IF(CR11="N","N",IF(DATA!P3=CR11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CS15" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(CS11="","",
 IF(CS11="N","N",IF(DATA!Q3=CS11,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CT15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(CT11="","",
 IF(CT11="N","N",IF(DATA!R3=CT11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CU15" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(CU11="","",
 IF(CU11="N","N",IF(DATA!S3=CU11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CV15" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(CV11="","",
 IF(CV11="N","N",IF(DATA!T3=CV11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CW15" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -11913,7 +11925,7 @@
         <f>IF(DATA!F3="","",
 IF(FJ11="","",
 IF(FJ11="N","N",IF(DATA!F3=FJ11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FK15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11925,25 +11937,25 @@
         <f>IF(DATA!H3="","",
 IF(FL11="","",
 IF(FL11="N","N",IF(DATA!H3=FL11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FM15" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(FM11="","",
 IF(FM11="N","N",IF(DATA!I3=FM11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FN15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(FN11="","",
 IF(FN11="N","N",IF(DATA!J3=FN11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(FO11="","",
 IF(FO11="N","N",IF(DATA!K3=FO11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP15" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -11967,37 +11979,37 @@
         <f>IF(DATA!O3="","",
 IF(FS11="","",
 IF(FS11="N","N",IF(DATA!O3=FS11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FT15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(FT11="","",
 IF(FT11="N","N",IF(DATA!P3=FT11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FU15" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(FU11="","",
 IF(FU11="N","N",IF(DATA!Q3=FU11,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FV15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(FV11="","",
 IF(FV11="N","N",IF(DATA!R3=FV11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FW15" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(FW11="","",
 IF(FW11="N","N",IF(DATA!S3=FW11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FX15" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(FX11="","",
 IF(FX11="N","N",IF(DATA!T3=FX11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FY15" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -13292,14 +13304,14 @@
 IF(AL!H11="N","N",
 IF(COUNTIF(AL!D15:G15,"W")&gt;=2,AL!H11,
 IF(COUNTIF(AL!D15:G15,"W")&lt;2,IF(AL!H11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>IF(AL!I11="","",
 IF(AL!I11="N","N",
 IF(COUNTIF(AL!E15:H15,"W")&gt;=2,AL!I11,
 IF(COUNTIF(AL!E15:H15,"W")&lt;2,IF(AL!I11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J19" s="2" t="str">
         <f>IF(AL!J11="","",
@@ -13313,21 +13325,21 @@
 IF(AL!K11="N","N",
 IF(COUNTIF(AL!G15:J15,"W")&gt;=2,AL!K11,
 IF(COUNTIF(AL!G15:J15,"W")&lt;2,IF(AL!K11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>IF(AL!L11="","",
 IF(AL!L11="N","N",
 IF(COUNTIF(AL!H15:K15,"W")&gt;=2,AL!L11,
 IF(COUNTIF(AL!H15:K15,"W")&lt;2,IF(AL!L11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>IF(AL!M11="","",
 IF(AL!M11="N","N",
 IF(COUNTIF(AL!I15:L15,"W")&gt;=2,AL!M11,
 IF(COUNTIF(AL!I15:L15,"W")&lt;2,IF(AL!M11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>IF(AL!N11="","",
@@ -13348,42 +13360,42 @@
 IF(AL!P11="N","N",
 IF(COUNTIF(AL!L15:O15,"W")&gt;=2,AL!P11,
 IF(COUNTIF(AL!L15:O15,"W")&lt;2,IF(AL!P11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q19" s="2" t="str">
         <f>IF(AL!Q11="","",
 IF(AL!Q11="N","N",
 IF(COUNTIF(AL!M15:P15,"W")&gt;=2,AL!Q11,
 IF(COUNTIF(AL!M15:P15,"W")&lt;2,IF(AL!Q11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R19" s="2" t="str">
         <f>IF(AL!R11="","",
 IF(AL!R11="N","N",
 IF(COUNTIF(AL!N15:Q15,"W")&gt;=2,AL!R11,
 IF(COUNTIF(AL!N15:Q15,"W")&lt;2,IF(AL!R11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S19" s="2" t="str">
         <f>IF(AL!S11="","",
 IF(AL!S11="N","N",
 IF(COUNTIF(AL!O15:R15,"W")&gt;=2,AL!S11,
 IF(COUNTIF(AL!O15:R15,"W")&lt;2,IF(AL!S11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T19" s="2" t="str">
         <f>IF(AL!T11="","",
 IF(AL!T11="N","N",
 IF(COUNTIF(AL!P15:S15,"W")&gt;=2,AL!T11,
 IF(COUNTIF(AL!P15:S15,"W")&lt;2,IF(AL!T11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="U19" s="2" t="str">
         <f>IF(AL!U11="","",
 IF(AL!U11="N","N",
 IF(COUNTIF(AL!Q15:T15,"W")&gt;=2,AL!U11,
 IF(COUNTIF(AL!Q15:T15,"W")&lt;2,IF(AL!U11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V19" s="2" t="str">
         <f>IF(AL!V11="","",
@@ -13796,42 +13808,42 @@
 IF(AL!CK11="N","N",
 IF(COUNTIF(AL!CG15:CJ15,"W")&gt;=2,AL!CK11,
 IF(COUNTIF(AL!CG15:CJ15,"W")&lt;2,IF(AL!CK11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL19" s="2" t="str">
         <f>IF(AL!CL11="","",
 IF(AL!CL11="N","N",
 IF(COUNTIF(AL!CH15:CK15,"W")&gt;=2,AL!CL11,
 IF(COUNTIF(AL!CH15:CK15,"W")&lt;2,IF(AL!CL11="P","B","P")))))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CM19" s="2" t="str">
         <f>IF(AL!CM11="","",
 IF(AL!CM11="N","N",
 IF(COUNTIF(AL!CI15:CL15,"W")&gt;=2,AL!CM11,
 IF(COUNTIF(AL!CI15:CL15,"W")&lt;2,IF(AL!CM11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN19" s="2" t="str">
         <f>IF(AL!CN11="","",
 IF(AL!CN11="N","N",
 IF(COUNTIF(AL!CJ15:CM15,"W")&gt;=2,AL!CN11,
 IF(COUNTIF(AL!CJ15:CM15,"W")&lt;2,IF(AL!CN11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO19" s="2" t="str">
         <f>IF(AL!CO11="","",
 IF(AL!CO11="N","N",
 IF(COUNTIF(AL!CK15:CN15,"W")&gt;=2,AL!CO11,
 IF(COUNTIF(AL!CK15:CN15,"W")&lt;2,IF(AL!CO11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP19" s="2" t="str">
         <f>IF(AL!CP11="","",
 IF(AL!CP11="N","N",
 IF(COUNTIF(AL!CL15:CO15,"W")&gt;=2,AL!CP11,
 IF(COUNTIF(AL!CL15:CO15,"W")&lt;2,IF(AL!CP11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ19" s="2" t="str">
         <f>IF(AL!CQ11="","",
@@ -13845,42 +13857,42 @@
 IF(AL!CR11="N","N",
 IF(COUNTIF(AL!CN15:CQ15,"W")&gt;=2,AL!CR11,
 IF(COUNTIF(AL!CN15:CQ15,"W")&lt;2,IF(AL!CR11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CS19" s="2" t="str">
         <f>IF(AL!CS11="","",
 IF(AL!CS11="N","N",
 IF(COUNTIF(AL!CO15:CR15,"W")&gt;=2,AL!CS11,
 IF(COUNTIF(AL!CO15:CR15,"W")&lt;2,IF(AL!CS11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CT19" s="2" t="str">
         <f>IF(AL!CT11="","",
 IF(AL!CT11="N","N",
 IF(COUNTIF(AL!CP15:CS15,"W")&gt;=2,AL!CT11,
 IF(COUNTIF(AL!CP15:CS15,"W")&lt;2,IF(AL!CT11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CU19" s="2" t="str">
         <f>IF(AL!CU11="","",
 IF(AL!CU11="N","N",
 IF(COUNTIF(AL!CQ15:CT15,"W")&gt;=2,AL!CU11,
 IF(COUNTIF(AL!CQ15:CT15,"W")&lt;2,IF(AL!CU11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CV19" s="2" t="str">
         <f>IF(AL!CV11="","",
 IF(AL!CV11="N","N",
 IF(COUNTIF(AL!CR15:CU15,"W")&gt;=2,AL!CV11,
 IF(COUNTIF(AL!CR15:CU15,"W")&lt;2,IF(AL!CV11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CW19" s="2" t="str">
         <f>IF(AL!CW11="","",
 IF(AL!CW11="N","N",
 IF(COUNTIF(AL!CS15:CV15,"W")&gt;=2,AL!CW11,
 IF(COUNTIF(AL!CS15:CV15,"W")&lt;2,IF(AL!CW11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CX19" s="2" t="str">
         <f>IF(AL!CX11="","",
@@ -14296,21 +14308,21 @@
 IF(AL!FN11="N","N",
 IF(COUNTIF(AL!FJ15:FM15,"W")&gt;=2,AL!FN11,
 IF(COUNTIF(AL!FJ15:FM15,"W")&lt;2,IF(AL!FN11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO19" s="2" t="str">
         <f>IF(AL!FO11="","",
 IF(AL!FO11="N","N",
 IF(COUNTIF(AL!FK15:FN15,"W")&gt;=2,AL!FO11,
 IF(COUNTIF(AL!FK15:FN15,"W")&lt;2,IF(AL!FO11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP19" s="2" t="str">
         <f>IF(AL!FP11="","",
 IF(AL!FP11="N","N",
 IF(COUNTIF(AL!FL15:FO15,"W")&gt;=2,AL!FP11,
 IF(COUNTIF(AL!FL15:FO15,"W")&lt;2,IF(AL!FP11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ19" s="2" t="str">
         <f>IF(AL!FQ11="","",
@@ -14324,7 +14336,7 @@
 IF(AL!FR11="N","N",
 IF(COUNTIF(AL!FN15:FQ15,"W")&gt;=2,AL!FR11,
 IF(COUNTIF(AL!FN15:FQ15,"W")&lt;2,IF(AL!FR11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS19" s="2" t="str">
         <f>IF(AL!FS11="","",
@@ -14338,42 +14350,42 @@
 IF(AL!FT11="N","N",
 IF(COUNTIF(AL!FP15:FS15,"W")&gt;=2,AL!FT11,
 IF(COUNTIF(AL!FP15:FS15,"W")&lt;2,IF(AL!FT11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FU19" s="2" t="str">
         <f>IF(AL!FU11="","",
 IF(AL!FU11="N","N",
 IF(COUNTIF(AL!FQ15:FT15,"W")&gt;=2,AL!FU11,
 IF(COUNTIF(AL!FQ15:FT15,"W")&lt;2,IF(AL!FU11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FV19" s="2" t="str">
         <f>IF(AL!FV11="","",
 IF(AL!FV11="N","N",
 IF(COUNTIF(AL!FR15:FU15,"W")&gt;=2,AL!FV11,
 IF(COUNTIF(AL!FR15:FU15,"W")&lt;2,IF(AL!FV11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FW19" s="2" t="str">
         <f>IF(AL!FW11="","",
 IF(AL!FW11="N","N",
 IF(COUNTIF(AL!FS15:FV15,"W")&gt;=2,AL!FW11,
 IF(COUNTIF(AL!FS15:FV15,"W")&lt;2,IF(AL!FW11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FX19" s="2" t="str">
         <f>IF(AL!FX11="","",
 IF(AL!FX11="N","N",
 IF(COUNTIF(AL!FT15:FW15,"W")&gt;=2,AL!FX11,
 IF(COUNTIF(AL!FT15:FW15,"W")&lt;2,IF(AL!FX11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FY19" s="2" t="str">
         <f>IF(AL!FY11="","",
 IF(AL!FY11="N","N",
 IF(COUNTIF(AL!FU15:FX15,"W")&gt;=2,AL!FY11,
 IF(COUNTIF(AL!FU15:FX15,"W")&lt;2,IF(AL!FY11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FZ19" s="2" t="str">
         <f>IF(AL!FZ11="","",
@@ -15732,7 +15744,7 @@
         <f>IF(DATA!H$3="","",
 IF(H19="","",
 IF(H19="N","N",IF(DATA!H$3=H19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I23" s="2" t="str">
         <f>IF(DATA!I$3="","",
@@ -15750,13 +15762,13 @@
         <f>IF(DATA!K$3="","",
 IF(K19="","",
 IF(K19="N","N",IF(DATA!K$3=K19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L19="","",
 IF(L19="N","N",IF(DATA!L$3=L19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M23" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -15774,37 +15786,37 @@
         <f>IF(DATA!O$3="","",
 IF(O19="","",
 IF(O19="N","N",IF(DATA!O$3=O19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P19="","",
 IF(P19="N","N",IF(DATA!P$3=P19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q19="","",
 IF(Q19="N","N",IF(DATA!Q$3=Q19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R19="","",
 IF(R19="N","N",IF(DATA!R$3=R19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S23" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S19="","",
 IF(S19="N","N",IF(DATA!S$3=S19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T23" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T19="","",
 IF(T19="N","N",IF(DATA!T$3=T19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="U23" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -16196,67 +16208,67 @@
         <f>IF(DATA!J$3="","",
 IF(CL19="","",
 IF(CL19="N","N",IF(DATA!J$3=CL19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM23" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM19="","",
 IF(CM19="N","N",IF(DATA!K$3=CM19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN23" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN19="","",
 IF(CN19="N","N",IF(DATA!L$3=CN19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO19="","",
 IF(CO19="N","N",IF(DATA!M$3=CO19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP19="","",
 IF(CP19="N","N",IF(DATA!N$3=CP19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CQ23" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ19="","",
 IF(CQ19="N","N",IF(DATA!O$3=CQ19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CR23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR19="","",
 IF(CR19="N","N",IF(DATA!P$3=CR19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CS23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS19="","",
 IF(CS19="N","N",IF(DATA!Q$3=CS19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CT23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT19="","",
 IF(CT19="N","N",IF(DATA!R$3=CT19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CU23" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU19="","",
 IF(CU19="N","N",IF(DATA!S$3=CU19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CV23" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV19="","",
 IF(CV19="N","N",IF(DATA!T$3=CV19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CW23" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -16647,67 +16659,67 @@
         <f>IF(DATA!J$3="","",
 IF(FN19="","",
 IF(FN19="N","N",IF(DATA!J$3=FN19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO23" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(FO19="","",
 IF(FO19="N","N",IF(DATA!K$3=FO19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP23" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(FP19="","",
 IF(FP19="N","N",IF(DATA!L$3=FP19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ19="","",
 IF(FQ19="N","N",IF(DATA!M$3=FQ19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FR23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR19="","",
 IF(FR19="N","N",IF(DATA!N$3=FR19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FS23" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS19="","",
 IF(FS19="N","N",IF(DATA!O$3=FS19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FT23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT19="","",
 IF(FT19="N","N",IF(DATA!P$3=FT19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FU23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU19="","",
 IF(FU19="N","N",IF(DATA!Q$3=FU19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FV23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV19="","",
 IF(FV19="N","N",IF(DATA!R$3=FV19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FW23" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW19="","",
 IF(FW19="N","N",IF(DATA!S$3=FW19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FX23" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX19="","",
 IF(FX19="N","N",IF(DATA!T$3=FX19,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FY23" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -17999,14 +18011,14 @@
 IF(AL!H19="N","N",
 IF(COUNTIF(AL!D23:G23,"W")&gt;=2,AL!H19,
 IF(COUNTIF(AL!D23:G23,"W")&lt;2,IF(AL!H19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>IF(AL!I19="","",
 IF(AL!I19="N","N",
 IF(COUNTIF(AL!E23:H23,"W")&gt;=2,AL!I19,
 IF(COUNTIF(AL!E23:H23,"W")&lt;2,IF(AL!I19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J27" s="2" t="str">
         <f>IF(AL!J19="","",
@@ -18020,7 +18032,7 @@
 IF(AL!K19="N","N",
 IF(COUNTIF(AL!G23:J23,"W")&gt;=2,AL!K19,
 IF(COUNTIF(AL!G23:J23,"W")&lt;2,IF(AL!K19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L27" s="2" t="str">
         <f>IF(AL!L19="","",
@@ -18034,7 +18046,7 @@
 IF(AL!M19="N","N",
 IF(COUNTIF(AL!I23:L23,"W")&gt;=2,AL!M19,
 IF(COUNTIF(AL!I23:L23,"W")&lt;2,IF(AL!M19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N27" s="2" t="str">
         <f>IF(AL!N19="","",
@@ -18055,42 +18067,42 @@
 IF(AL!P19="N","N",
 IF(COUNTIF(AL!L23:O23,"W")&gt;=2,AL!P19,
 IF(COUNTIF(AL!L23:O23,"W")&lt;2,IF(AL!P19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q27" s="2" t="str">
         <f>IF(AL!Q19="","",
 IF(AL!Q19="N","N",
 IF(COUNTIF(AL!M23:P23,"W")&gt;=2,AL!Q19,
 IF(COUNTIF(AL!M23:P23,"W")&lt;2,IF(AL!Q19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R27" s="2" t="str">
         <f>IF(AL!R19="","",
 IF(AL!R19="N","N",
 IF(COUNTIF(AL!N23:Q23,"W")&gt;=2,AL!R19,
 IF(COUNTIF(AL!N23:Q23,"W")&lt;2,IF(AL!R19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S27" s="2" t="str">
         <f>IF(AL!S19="","",
 IF(AL!S19="N","N",
 IF(COUNTIF(AL!O23:R23,"W")&gt;=2,AL!S19,
 IF(COUNTIF(AL!O23:R23,"W")&lt;2,IF(AL!S19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T27" s="2" t="str">
         <f>IF(AL!T19="","",
 IF(AL!T19="N","N",
 IF(COUNTIF(AL!P23:S23,"W")&gt;=2,AL!T19,
 IF(COUNTIF(AL!P23:S23,"W")&lt;2,IF(AL!T19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="U27" s="2" t="str">
         <f>IF(AL!U19="","",
 IF(AL!U19="N","N",
 IF(COUNTIF(AL!Q23:T23,"W")&gt;=2,AL!U19,
 IF(COUNTIF(AL!Q23:T23,"W")&lt;2,IF(AL!U19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V27" s="2" t="str">
         <f>IF(AL!V19="","",
@@ -18503,7 +18515,7 @@
 IF(AL!CK19="N","N",
 IF(COUNTIF(AL!CG23:CJ23,"W")&gt;=2,AL!CK19,
 IF(COUNTIF(AL!CG23:CJ23,"W")&lt;2,IF(AL!CK19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL27" s="2" t="str">
         <f>IF(AL!CL19="","",
@@ -18517,7 +18529,7 @@
 IF(AL!CM19="N","N",
 IF(COUNTIF(AL!CI23:CL23,"W")&gt;=2,AL!CM19,
 IF(COUNTIF(AL!CI23:CL23,"W")&lt;2,IF(AL!CM19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN27" s="2" t="str">
         <f>IF(AL!CN19="","",
@@ -18538,56 +18550,56 @@
 IF(AL!CP19="N","N",
 IF(COUNTIF(AL!CL23:CO23,"W")&gt;=2,AL!CP19,
 IF(COUNTIF(AL!CL23:CO23,"W")&lt;2,IF(AL!CP19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ27" s="2" t="str">
         <f>IF(AL!CQ19="","",
 IF(AL!CQ19="N","N",
 IF(COUNTIF(AL!CM23:CP23,"W")&gt;=2,AL!CQ19,
 IF(COUNTIF(AL!CM23:CP23,"W")&lt;2,IF(AL!CQ19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CR27" s="2" t="str">
         <f>IF(AL!CR19="","",
 IF(AL!CR19="N","N",
 IF(COUNTIF(AL!CN23:CQ23,"W")&gt;=2,AL!CR19,
 IF(COUNTIF(AL!CN23:CQ23,"W")&lt;2,IF(AL!CR19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CS27" s="2" t="str">
         <f>IF(AL!CS19="","",
 IF(AL!CS19="N","N",
 IF(COUNTIF(AL!CO23:CR23,"W")&gt;=2,AL!CS19,
 IF(COUNTIF(AL!CO23:CR23,"W")&lt;2,IF(AL!CS19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CT27" s="2" t="str">
         <f>IF(AL!CT19="","",
 IF(AL!CT19="N","N",
 IF(COUNTIF(AL!CP23:CS23,"W")&gt;=2,AL!CT19,
 IF(COUNTIF(AL!CP23:CS23,"W")&lt;2,IF(AL!CT19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CU27" s="2" t="str">
         <f>IF(AL!CU19="","",
 IF(AL!CU19="N","N",
 IF(COUNTIF(AL!CQ23:CT23,"W")&gt;=2,AL!CU19,
 IF(COUNTIF(AL!CQ23:CT23,"W")&lt;2,IF(AL!CU19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CV27" s="2" t="str">
         <f>IF(AL!CV19="","",
 IF(AL!CV19="N","N",
 IF(COUNTIF(AL!CR23:CU23,"W")&gt;=2,AL!CV19,
 IF(COUNTIF(AL!CR23:CU23,"W")&lt;2,IF(AL!CV19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CW27" s="2" t="str">
         <f>IF(AL!CW19="","",
 IF(AL!CW19="N","N",
 IF(COUNTIF(AL!CS23:CV23,"W")&gt;=2,AL!CW19,
 IF(COUNTIF(AL!CS23:CV23,"W")&lt;2,IF(AL!CW19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CX27" s="2" t="str">
         <f>IF(AL!CX19="","",
@@ -19003,14 +19015,14 @@
 IF(AL!FN19="N","N",
 IF(COUNTIF(AL!FJ23:FM23,"W")&gt;=2,AL!FN19,
 IF(COUNTIF(AL!FJ23:FM23,"W")&lt;2,IF(AL!FN19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO27" s="2" t="str">
         <f>IF(AL!FO19="","",
 IF(AL!FO19="N","N",
 IF(COUNTIF(AL!FK23:FN23,"W")&gt;=2,AL!FO19,
 IF(COUNTIF(AL!FK23:FN23,"W")&lt;2,IF(AL!FO19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP27" s="2" t="str">
         <f>IF(AL!FP19="","",
@@ -19024,63 +19036,63 @@
 IF(AL!FQ19="N","N",
 IF(COUNTIF(AL!FM23:FP23,"W")&gt;=2,AL!FQ19,
 IF(COUNTIF(AL!FM23:FP23,"W")&lt;2,IF(AL!FQ19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR27" s="2" t="str">
         <f>IF(AL!FR19="","",
 IF(AL!FR19="N","N",
 IF(COUNTIF(AL!FN23:FQ23,"W")&gt;=2,AL!FR19,
 IF(COUNTIF(AL!FN23:FQ23,"W")&lt;2,IF(AL!FR19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS27" s="2" t="str">
         <f>IF(AL!FS19="","",
 IF(AL!FS19="N","N",
 IF(COUNTIF(AL!FO23:FR23,"W")&gt;=2,AL!FS19,
 IF(COUNTIF(AL!FO23:FR23,"W")&lt;2,IF(AL!FS19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FT27" s="2" t="str">
         <f>IF(AL!FT19="","",
 IF(AL!FT19="N","N",
 IF(COUNTIF(AL!FP23:FS23,"W")&gt;=2,AL!FT19,
 IF(COUNTIF(AL!FP23:FS23,"W")&lt;2,IF(AL!FT19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FU27" s="2" t="str">
         <f>IF(AL!FU19="","",
 IF(AL!FU19="N","N",
 IF(COUNTIF(AL!FQ23:FT23,"W")&gt;=2,AL!FU19,
 IF(COUNTIF(AL!FQ23:FT23,"W")&lt;2,IF(AL!FU19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FV27" s="2" t="str">
         <f>IF(AL!FV19="","",
 IF(AL!FV19="N","N",
 IF(COUNTIF(AL!FR23:FU23,"W")&gt;=2,AL!FV19,
 IF(COUNTIF(AL!FR23:FU23,"W")&lt;2,IF(AL!FV19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FW27" s="2" t="str">
         <f>IF(AL!FW19="","",
 IF(AL!FW19="N","N",
 IF(COUNTIF(AL!FS23:FV23,"W")&gt;=2,AL!FW19,
 IF(COUNTIF(AL!FS23:FV23,"W")&lt;2,IF(AL!FW19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FX27" s="2" t="str">
         <f>IF(AL!FX19="","",
 IF(AL!FX19="N","N",
 IF(COUNTIF(AL!FT23:FW23,"W")&gt;=2,AL!FX19,
 IF(COUNTIF(AL!FT23:FW23,"W")&lt;2,IF(AL!FX19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FY27" s="2" t="str">
         <f>IF(AL!FY19="","",
 IF(AL!FY19="N","N",
 IF(COUNTIF(AL!FU23:FX23,"W")&gt;=2,AL!FY19,
 IF(COUNTIF(AL!FU23:FX23,"W")&lt;2,IF(AL!FY19="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FZ27" s="2" t="str">
         <f>IF(AL!FZ19="","",
@@ -20439,13 +20451,13 @@
         <f>IF(DATA!H$3="","",
 IF(H27="","",
 IF(H27="N","N",IF(DATA!H$3=H27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I27="","",
 IF(I27="N","N",IF(DATA!I$3=I27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -20457,7 +20469,7 @@
         <f>IF(DATA!K$3="","",
 IF(K27="","",
 IF(K27="N","N",IF(DATA!K$3=K27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -20469,7 +20481,7 @@
         <f>IF(DATA!M$3="","",
 IF(M27="","",
 IF(M27="N","N",IF(DATA!M$3=M27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -20481,37 +20493,37 @@
         <f>IF(DATA!O$3="","",
 IF(O27="","",
 IF(O27="N","N",IF(DATA!O$3=O27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P27="","",
 IF(P27="N","N",IF(DATA!P$3=P27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q27="","",
 IF(Q27="N","N",IF(DATA!Q$3=Q27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R27="","",
 IF(R27="N","N",IF(DATA!R$3=R27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S31" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S27="","",
 IF(S27="N","N",IF(DATA!S$3=S27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T31" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T27="","",
 IF(T27="N","N",IF(DATA!T$3=T27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="U31" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -20897,7 +20909,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK27="","",
 IF(CK27="N","N",IF(DATA!I$3=CK27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL31" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -20909,7 +20921,7 @@
         <f>IF(DATA!K$3="","",
 IF(CM27="","",
 IF(CM27="N","N",IF(DATA!K$3=CM27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -20927,43 +20939,43 @@
         <f>IF(DATA!N$3="","",
 IF(CP27="","",
 IF(CP27="N","N",IF(DATA!N$3=CP27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CQ31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ27="","",
 IF(CQ27="N","N",IF(DATA!O$3=CQ27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CR31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR27="","",
 IF(CR27="N","N",IF(DATA!P$3=CR27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CS31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS27="","",
 IF(CS27="N","N",IF(DATA!Q$3=CS27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CT31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT27="","",
 IF(CT27="N","N",IF(DATA!R$3=CT27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CU31" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU27="","",
 IF(CU27="N","N",IF(DATA!S$3=CU27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CV31" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV27="","",
 IF(CV27="N","N",IF(DATA!T$3=CV27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CW31" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -21354,13 +21366,13 @@
         <f>IF(DATA!J$3="","",
 IF(FN27="","",
 IF(FN27="N","N",IF(DATA!J$3=FN27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO31" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(FO27="","",
 IF(FO27="N","N",IF(DATA!K$3=FO27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -21378,43 +21390,43 @@
         <f>IF(DATA!N$3="","",
 IF(FR27="","",
 IF(FR27="N","N",IF(DATA!N$3=FR27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FS31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS27="","",
 IF(FS27="N","N",IF(DATA!O$3=FS27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FT31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT27="","",
 IF(FT27="N","N",IF(DATA!P$3=FT27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FU31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU27="","",
 IF(FU27="N","N",IF(DATA!Q$3=FU27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FV31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV27="","",
 IF(FV27="N","N",IF(DATA!R$3=FV27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FW31" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW27="","",
 IF(FW27="N","N",IF(DATA!S$3=FW27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FX31" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX27="","",
 IF(FX27="N","N",IF(DATA!T$3=FX27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FY31" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -22706,14 +22718,14 @@
 IF(AL!H27="N","N",
 IF(COUNTIF(AL!D31:G31,"W")&gt;=2,AL!H27,
 IF(COUNTIF(AL!D31:G31,"W")&lt;2,IF(AL!H27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>IF(AL!I27="","",
 IF(AL!I27="N","N",
 IF(COUNTIF(AL!E31:H31,"W")&gt;=2,AL!I27,
 IF(COUNTIF(AL!E31:H31,"W")&lt;2,IF(AL!I27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J35" s="2" t="str">
         <f>IF(AL!J27="","",
@@ -22727,7 +22739,7 @@
 IF(AL!K27="N","N",
 IF(COUNTIF(AL!G31:J31,"W")&gt;=2,AL!K27,
 IF(COUNTIF(AL!G31:J31,"W")&lt;2,IF(AL!K27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L35" s="2" t="str">
         <f>IF(AL!L27="","",
@@ -22741,63 +22753,63 @@
 IF(AL!M27="N","N",
 IF(COUNTIF(AL!I31:L31,"W")&gt;=2,AL!M27,
 IF(COUNTIF(AL!I31:L31,"W")&lt;2,IF(AL!M27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N35" s="2" t="str">
         <f>IF(AL!N27="","",
 IF(AL!N27="N","N",
 IF(COUNTIF(AL!J31:M31,"W")&gt;=2,AL!N27,
 IF(COUNTIF(AL!J31:M31,"W")&lt;2,IF(AL!N27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O35" s="2" t="str">
         <f>IF(AL!O27="","",
 IF(AL!O27="N","N",
 IF(COUNTIF(AL!K31:N31,"W")&gt;=2,AL!O27,
 IF(COUNTIF(AL!K31:N31,"W")&lt;2,IF(AL!O27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P35" s="2" t="str">
         <f>IF(AL!P27="","",
 IF(AL!P27="N","N",
 IF(COUNTIF(AL!L31:O31,"W")&gt;=2,AL!P27,
 IF(COUNTIF(AL!L31:O31,"W")&lt;2,IF(AL!P27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q35" s="2" t="str">
         <f>IF(AL!Q27="","",
 IF(AL!Q27="N","N",
 IF(COUNTIF(AL!M31:P31,"W")&gt;=2,AL!Q27,
 IF(COUNTIF(AL!M31:P31,"W")&lt;2,IF(AL!Q27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R35" s="2" t="str">
         <f>IF(AL!R27="","",
 IF(AL!R27="N","N",
 IF(COUNTIF(AL!N31:Q31,"W")&gt;=2,AL!R27,
 IF(COUNTIF(AL!N31:Q31,"W")&lt;2,IF(AL!R27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S35" s="2" t="str">
         <f>IF(AL!S27="","",
 IF(AL!S27="N","N",
 IF(COUNTIF(AL!O31:R31,"W")&gt;=2,AL!S27,
 IF(COUNTIF(AL!O31:R31,"W")&lt;2,IF(AL!S27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T35" s="2" t="str">
         <f>IF(AL!T27="","",
 IF(AL!T27="N","N",
 IF(COUNTIF(AL!P31:S31,"W")&gt;=2,AL!T27,
 IF(COUNTIF(AL!P31:S31,"W")&lt;2,IF(AL!T27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U35" s="2" t="str">
         <f>IF(AL!U27="","",
 IF(AL!U27="N","N",
 IF(COUNTIF(AL!Q31:T31,"W")&gt;=2,AL!U27,
 IF(COUNTIF(AL!Q31:T31,"W")&lt;2,IF(AL!U27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V35" s="2" t="str">
         <f>IF(AL!V27="","",
@@ -23210,7 +23222,7 @@
 IF(AL!CK27="N","N",
 IF(COUNTIF(AL!CG31:CJ31,"W")&gt;=2,AL!CK27,
 IF(COUNTIF(AL!CG31:CJ31,"W")&lt;2,IF(AL!CK27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL35" s="2" t="str">
         <f>IF(AL!CL27="","",
@@ -23224,7 +23236,7 @@
 IF(AL!CM27="N","N",
 IF(COUNTIF(AL!CI31:CL31,"W")&gt;=2,AL!CM27,
 IF(COUNTIF(AL!CI31:CL31,"W")&lt;2,IF(AL!CM27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN35" s="2" t="str">
         <f>IF(AL!CN27="","",
@@ -23245,7 +23257,7 @@
 IF(AL!CP27="N","N",
 IF(COUNTIF(AL!CL31:CO31,"W")&gt;=2,AL!CP27,
 IF(COUNTIF(AL!CL31:CO31,"W")&lt;2,IF(AL!CP27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ35" s="2" t="str">
         <f>IF(AL!CQ27="","",
@@ -23259,42 +23271,42 @@
 IF(AL!CR27="N","N",
 IF(COUNTIF(AL!CN31:CQ31,"W")&gt;=2,AL!CR27,
 IF(COUNTIF(AL!CN31:CQ31,"W")&lt;2,IF(AL!CR27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CS35" s="2" t="str">
         <f>IF(AL!CS27="","",
 IF(AL!CS27="N","N",
 IF(COUNTIF(AL!CO31:CR31,"W")&gt;=2,AL!CS27,
 IF(COUNTIF(AL!CO31:CR31,"W")&lt;2,IF(AL!CS27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CT35" s="2" t="str">
         <f>IF(AL!CT27="","",
 IF(AL!CT27="N","N",
 IF(COUNTIF(AL!CP31:CS31,"W")&gt;=2,AL!CT27,
 IF(COUNTIF(AL!CP31:CS31,"W")&lt;2,IF(AL!CT27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CU35" s="2" t="str">
         <f>IF(AL!CU27="","",
 IF(AL!CU27="N","N",
 IF(COUNTIF(AL!CQ31:CT31,"W")&gt;=2,AL!CU27,
 IF(COUNTIF(AL!CQ31:CT31,"W")&lt;2,IF(AL!CU27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CV35" s="2" t="str">
         <f>IF(AL!CV27="","",
 IF(AL!CV27="N","N",
 IF(COUNTIF(AL!CR31:CU31,"W")&gt;=2,AL!CV27,
 IF(COUNTIF(AL!CR31:CU31,"W")&lt;2,IF(AL!CV27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CW35" s="2" t="str">
         <f>IF(AL!CW27="","",
 IF(AL!CW27="N","N",
 IF(COUNTIF(AL!CS31:CV31,"W")&gt;=2,AL!CW27,
 IF(COUNTIF(AL!CS31:CV31,"W")&lt;2,IF(AL!CW27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CX35" s="2" t="str">
         <f>IF(AL!CX27="","",
@@ -23710,21 +23722,21 @@
 IF(AL!FN27="N","N",
 IF(COUNTIF(AL!FJ31:FM31,"W")&gt;=2,AL!FN27,
 IF(COUNTIF(AL!FJ31:FM31,"W")&lt;2,IF(AL!FN27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO35" s="2" t="str">
         <f>IF(AL!FO27="","",
 IF(AL!FO27="N","N",
 IF(COUNTIF(AL!FK31:FN31,"W")&gt;=2,AL!FO27,
 IF(COUNTIF(AL!FK31:FN31,"W")&lt;2,IF(AL!FO27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP35" s="2" t="str">
         <f>IF(AL!FP27="","",
 IF(AL!FP27="N","N",
 IF(COUNTIF(AL!FL31:FO31,"W")&gt;=2,AL!FP27,
 IF(COUNTIF(AL!FL31:FO31,"W")&lt;2,IF(AL!FP27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ35" s="2" t="str">
         <f>IF(AL!FQ27="","",
@@ -23752,42 +23764,42 @@
 IF(AL!FT27="N","N",
 IF(COUNTIF(AL!FP31:FS31,"W")&gt;=2,AL!FT27,
 IF(COUNTIF(AL!FP31:FS31,"W")&lt;2,IF(AL!FT27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FU35" s="2" t="str">
         <f>IF(AL!FU27="","",
 IF(AL!FU27="N","N",
 IF(COUNTIF(AL!FQ31:FT31,"W")&gt;=2,AL!FU27,
 IF(COUNTIF(AL!FQ31:FT31,"W")&lt;2,IF(AL!FU27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FV35" s="2" t="str">
         <f>IF(AL!FV27="","",
 IF(AL!FV27="N","N",
 IF(COUNTIF(AL!FR31:FU31,"W")&gt;=2,AL!FV27,
 IF(COUNTIF(AL!FR31:FU31,"W")&lt;2,IF(AL!FV27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FW35" s="2" t="str">
         <f>IF(AL!FW27="","",
 IF(AL!FW27="N","N",
 IF(COUNTIF(AL!FS31:FV31,"W")&gt;=2,AL!FW27,
 IF(COUNTIF(AL!FS31:FV31,"W")&lt;2,IF(AL!FW27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FX35" s="2" t="str">
         <f>IF(AL!FX27="","",
 IF(AL!FX27="N","N",
 IF(COUNTIF(AL!FT31:FW31,"W")&gt;=2,AL!FX27,
 IF(COUNTIF(AL!FT31:FW31,"W")&lt;2,IF(AL!FX27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FY35" s="2" t="str">
         <f>IF(AL!FY27="","",
 IF(AL!FY27="N","N",
 IF(COUNTIF(AL!FU31:FX31,"W")&gt;=2,AL!FY27,
 IF(COUNTIF(AL!FU31:FX31,"W")&lt;2,IF(AL!FY27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FZ35" s="2" t="str">
         <f>IF(AL!FZ27="","",
@@ -25146,7 +25158,7 @@
         <f>IF(DATA!H$3="","",
 IF(H35="","",
 IF(H35="N","N",IF(DATA!H$3=H35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>IF(DATA!I$3="","",
@@ -25164,7 +25176,7 @@
         <f>IF(DATA!K$3="","",
 IF(K35="","",
 IF(K35="N","N",IF(DATA!K$3=K35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -25176,49 +25188,49 @@
         <f>IF(DATA!M$3="","",
 IF(M35="","",
 IF(M35="N","N",IF(DATA!M$3=M35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N35="","",
 IF(N35="N","N",IF(DATA!N$3=N35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O39" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O35="","",
 IF(O35="N","N",IF(DATA!O$3=O35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P35="","",
 IF(P35="N","N",IF(DATA!P$3=P35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q35="","",
 IF(Q35="N","N",IF(DATA!Q$3=Q35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R35="","",
 IF(R35="N","N",IF(DATA!R$3=R35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S39" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S35="","",
 IF(S35="N","N",IF(DATA!S$3=S35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T39" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T35="","",
 IF(T35="N","N",IF(DATA!T$3=T35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="U39" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -25616,7 +25628,7 @@
         <f>IF(DATA!K$3="","",
 IF(CM35="","",
 IF(CM35="N","N",IF(DATA!K$3=CM35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN39" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -25628,49 +25640,49 @@
         <f>IF(DATA!M$3="","",
 IF(CO35="","",
 IF(CO35="N","N",IF(DATA!M$3=CO35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP35="","",
 IF(CP35="N","N",IF(DATA!N$3=CP35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CQ39" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ35="","",
 IF(CQ35="N","N",IF(DATA!O$3=CQ35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CR39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR35="","",
 IF(CR35="N","N",IF(DATA!P$3=CR35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CS39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS35="","",
 IF(CS35="N","N",IF(DATA!Q$3=CS35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CT39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT35="","",
 IF(CT35="N","N",IF(DATA!R$3=CT35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CU39" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU35="","",
 IF(CU35="N","N",IF(DATA!S$3=CU35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CV39" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV35="","",
 IF(CV35="N","N",IF(DATA!T$3=CV35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CW39" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -26061,19 +26073,19 @@
         <f>IF(DATA!J$3="","",
 IF(FN35="","",
 IF(FN35="N","N",IF(DATA!J$3=FN35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO39" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(FO35="","",
 IF(FO35="N","N",IF(DATA!K$3=FO35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP39" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(FP35="","",
 IF(FP35="N","N",IF(DATA!L$3=FP35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FQ39" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -26091,37 +26103,37 @@
         <f>IF(DATA!O$3="","",
 IF(FS35="","",
 IF(FS35="N","N",IF(DATA!O$3=FS35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FT39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT35="","",
 IF(FT35="N","N",IF(DATA!P$3=FT35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FU39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU35="","",
 IF(FU35="N","N",IF(DATA!Q$3=FU35,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FV39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV35="","",
 IF(FV35="N","N",IF(DATA!R$3=FV35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FW39" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW35="","",
 IF(FW35="N","N",IF(DATA!S$3=FW35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FX39" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX35="","",
 IF(FX35="N","N",IF(DATA!T$3=FX35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FY39" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -27413,14 +27425,14 @@
 IF(AL!H35="N","N",
 IF(COUNTIF(AL!D39:G39,"W")&gt;=2,AL!H35,
 IF(COUNTIF(AL!D39:G39,"W")&lt;2,IF(AL!H35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>IF(AL!I35="","",
 IF(AL!I35="N","N",
 IF(COUNTIF(AL!E39:H39,"W")&gt;=2,AL!I35,
 IF(COUNTIF(AL!E39:H39,"W")&lt;2,IF(AL!I35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(AL!J35="","",
@@ -27434,7 +27446,7 @@
 IF(AL!K35="N","N",
 IF(COUNTIF(AL!G39:J39,"W")&gt;=2,AL!K35,
 IF(COUNTIF(AL!G39:J39,"W")&lt;2,IF(AL!K35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L43" s="2" t="str">
         <f>IF(AL!L35="","",
@@ -27448,7 +27460,7 @@
 IF(AL!M35="N","N",
 IF(COUNTIF(AL!I39:L39,"W")&gt;=2,AL!M35,
 IF(COUNTIF(AL!I39:L39,"W")&lt;2,IF(AL!M35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N43" s="2" t="str">
         <f>IF(AL!N35="","",
@@ -27469,42 +27481,42 @@
 IF(AL!P35="N","N",
 IF(COUNTIF(AL!L39:O39,"W")&gt;=2,AL!P35,
 IF(COUNTIF(AL!L39:O39,"W")&lt;2,IF(AL!P35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q43" s="2" t="str">
         <f>IF(AL!Q35="","",
 IF(AL!Q35="N","N",
 IF(COUNTIF(AL!M39:P39,"W")&gt;=2,AL!Q35,
 IF(COUNTIF(AL!M39:P39,"W")&lt;2,IF(AL!Q35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R43" s="2" t="str">
         <f>IF(AL!R35="","",
 IF(AL!R35="N","N",
 IF(COUNTIF(AL!N39:Q39,"W")&gt;=2,AL!R35,
 IF(COUNTIF(AL!N39:Q39,"W")&lt;2,IF(AL!R35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S43" s="2" t="str">
         <f>IF(AL!S35="","",
 IF(AL!S35="N","N",
 IF(COUNTIF(AL!O39:R39,"W")&gt;=2,AL!S35,
 IF(COUNTIF(AL!O39:R39,"W")&lt;2,IF(AL!S35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T43" s="2" t="str">
         <f>IF(AL!T35="","",
 IF(AL!T35="N","N",
 IF(COUNTIF(AL!P39:S39,"W")&gt;=2,AL!T35,
 IF(COUNTIF(AL!P39:S39,"W")&lt;2,IF(AL!T35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U43" s="2" t="str">
         <f>IF(AL!U35="","",
 IF(AL!U35="N","N",
 IF(COUNTIF(AL!Q39:T39,"W")&gt;=2,AL!U35,
 IF(COUNTIF(AL!Q39:T39,"W")&lt;2,IF(AL!U35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="V43" s="2" t="str">
         <f>IF(AL!V35="","",
@@ -27917,7 +27929,7 @@
 IF(AL!CK35="N","N",
 IF(COUNTIF(AL!CG39:CJ39,"W")&gt;=2,AL!CK35,
 IF(COUNTIF(AL!CG39:CJ39,"W")&lt;2,IF(AL!CK35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL43" s="2" t="str">
         <f>IF(AL!CL35="","",
@@ -27931,14 +27943,14 @@
 IF(AL!CM35="N","N",
 IF(COUNTIF(AL!CI39:CL39,"W")&gt;=2,AL!CM35,
 IF(COUNTIF(AL!CI39:CL39,"W")&lt;2,IF(AL!CM35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN43" s="2" t="str">
         <f>IF(AL!CN35="","",
 IF(AL!CN35="N","N",
 IF(COUNTIF(AL!CJ39:CM39,"W")&gt;=2,AL!CN35,
 IF(COUNTIF(AL!CJ39:CM39,"W")&lt;2,IF(AL!CN35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO43" s="2" t="str">
         <f>IF(AL!CO35="","",
@@ -27952,7 +27964,7 @@
 IF(AL!CP35="N","N",
 IF(COUNTIF(AL!CL39:CO39,"W")&gt;=2,AL!CP35,
 IF(COUNTIF(AL!CL39:CO39,"W")&lt;2,IF(AL!CP35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ43" s="2" t="str">
         <f>IF(AL!CQ35="","",
@@ -27966,42 +27978,42 @@
 IF(AL!CR35="N","N",
 IF(COUNTIF(AL!CN39:CQ39,"W")&gt;=2,AL!CR35,
 IF(COUNTIF(AL!CN39:CQ39,"W")&lt;2,IF(AL!CR35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CS43" s="2" t="str">
         <f>IF(AL!CS35="","",
 IF(AL!CS35="N","N",
 IF(COUNTIF(AL!CO39:CR39,"W")&gt;=2,AL!CS35,
 IF(COUNTIF(AL!CO39:CR39,"W")&lt;2,IF(AL!CS35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CT43" s="2" t="str">
         <f>IF(AL!CT35="","",
 IF(AL!CT35="N","N",
 IF(COUNTIF(AL!CP39:CS39,"W")&gt;=2,AL!CT35,
 IF(COUNTIF(AL!CP39:CS39,"W")&lt;2,IF(AL!CT35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CU43" s="2" t="str">
         <f>IF(AL!CU35="","",
 IF(AL!CU35="N","N",
 IF(COUNTIF(AL!CQ39:CT39,"W")&gt;=2,AL!CU35,
 IF(COUNTIF(AL!CQ39:CT39,"W")&lt;2,IF(AL!CU35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CV43" s="2" t="str">
         <f>IF(AL!CV35="","",
 IF(AL!CV35="N","N",
 IF(COUNTIF(AL!CR39:CU39,"W")&gt;=2,AL!CV35,
 IF(COUNTIF(AL!CR39:CU39,"W")&lt;2,IF(AL!CV35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CW43" s="2" t="str">
         <f>IF(AL!CW35="","",
 IF(AL!CW35="N","N",
 IF(COUNTIF(AL!CS39:CV39,"W")&gt;=2,AL!CW35,
 IF(COUNTIF(AL!CS39:CV39,"W")&lt;2,IF(AL!CW35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CX43" s="2" t="str">
         <f>IF(AL!CX35="","",
@@ -28417,14 +28429,14 @@
 IF(AL!FN35="N","N",
 IF(COUNTIF(AL!FJ39:FM39,"W")&gt;=2,AL!FN35,
 IF(COUNTIF(AL!FJ39:FM39,"W")&lt;2,IF(AL!FN35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO43" s="2" t="str">
         <f>IF(AL!FO35="","",
 IF(AL!FO35="N","N",
 IF(COUNTIF(AL!FK39:FN39,"W")&gt;=2,AL!FO35,
 IF(COUNTIF(AL!FK39:FN39,"W")&lt;2,IF(AL!FO35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP43" s="2" t="str">
         <f>IF(AL!FP35="","",
@@ -28438,63 +28450,63 @@
 IF(AL!FQ35="N","N",
 IF(COUNTIF(AL!FM39:FP39,"W")&gt;=2,AL!FQ35,
 IF(COUNTIF(AL!FM39:FP39,"W")&lt;2,IF(AL!FQ35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR43" s="2" t="str">
         <f>IF(AL!FR35="","",
 IF(AL!FR35="N","N",
 IF(COUNTIF(AL!FN39:FQ39,"W")&gt;=2,AL!FR35,
 IF(COUNTIF(AL!FN39:FQ39,"W")&lt;2,IF(AL!FR35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS43" s="2" t="str">
         <f>IF(AL!FS35="","",
 IF(AL!FS35="N","N",
 IF(COUNTIF(AL!FO39:FR39,"W")&gt;=2,AL!FS35,
 IF(COUNTIF(AL!FO39:FR39,"W")&lt;2,IF(AL!FS35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FT43" s="2" t="str">
         <f>IF(AL!FT35="","",
 IF(AL!FT35="N","N",
 IF(COUNTIF(AL!FP39:FS39,"W")&gt;=2,AL!FT35,
 IF(COUNTIF(AL!FP39:FS39,"W")&lt;2,IF(AL!FT35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FU43" s="2" t="str">
         <f>IF(AL!FU35="","",
 IF(AL!FU35="N","N",
 IF(COUNTIF(AL!FQ39:FT39,"W")&gt;=2,AL!FU35,
 IF(COUNTIF(AL!FQ39:FT39,"W")&lt;2,IF(AL!FU35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FV43" s="2" t="str">
         <f>IF(AL!FV35="","",
 IF(AL!FV35="N","N",
 IF(COUNTIF(AL!FR39:FU39,"W")&gt;=2,AL!FV35,
 IF(COUNTIF(AL!FR39:FU39,"W")&lt;2,IF(AL!FV35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FW43" s="2" t="str">
         <f>IF(AL!FW35="","",
 IF(AL!FW35="N","N",
 IF(COUNTIF(AL!FS39:FV39,"W")&gt;=2,AL!FW35,
 IF(COUNTIF(AL!FS39:FV39,"W")&lt;2,IF(AL!FW35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FX43" s="2" t="str">
         <f>IF(AL!FX35="","",
 IF(AL!FX35="N","N",
 IF(COUNTIF(AL!FT39:FW39,"W")&gt;=2,AL!FX35,
 IF(COUNTIF(AL!FT39:FW39,"W")&lt;2,IF(AL!FX35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FY43" s="2" t="str">
         <f>IF(AL!FY35="","",
 IF(AL!FY35="N","N",
 IF(COUNTIF(AL!FU39:FX39,"W")&gt;=2,AL!FY35,
 IF(COUNTIF(AL!FU39:FX39,"W")&lt;2,IF(AL!FY35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FZ43" s="2" t="str">
         <f>IF(AL!FZ35="","",
@@ -29853,13 +29865,13 @@
         <f>IF(DATA!H$3="","",
 IF(H43="","",
 IF(H43="N","N",IF(DATA!H$3=H43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I43="","",
 IF(I43="N","N",IF(DATA!I$3=I43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J47" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -29871,7 +29883,7 @@
         <f>IF(DATA!K$3="","",
 IF(K43="","",
 IF(K43="N","N",IF(DATA!K$3=K43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L47" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -29895,37 +29907,37 @@
         <f>IF(DATA!O$3="","",
 IF(O43="","",
 IF(O43="N","N",IF(DATA!O$3=O43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P43="","",
 IF(P43="N","N",IF(DATA!P$3=P43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q43="","",
 IF(Q43="N","N",IF(DATA!Q$3=Q43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R43="","",
 IF(R43="N","N",IF(DATA!R$3=R43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S47" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S43="","",
 IF(S43="N","N",IF(DATA!S$3=S43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T47" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T43="","",
 IF(T43="N","N",IF(DATA!T$3=T43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="U47" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -30311,7 +30323,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK43="","",
 IF(CK43="N","N",IF(DATA!I$3=CK43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL47" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -30323,61 +30335,61 @@
         <f>IF(DATA!K$3="","",
 IF(CM43="","",
 IF(CM43="N","N",IF(DATA!K$3=CM43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN47" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN43="","",
 IF(CN43="N","N",IF(DATA!L$3=CN43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO47" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO43="","",
 IF(CO43="N","N",IF(DATA!M$3=CO43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP47" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP43="","",
 IF(CP43="N","N",IF(DATA!N$3=CP43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CQ47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ43="","",
 IF(CQ43="N","N",IF(DATA!O$3=CQ43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CR47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR43="","",
 IF(CR43="N","N",IF(DATA!P$3=CR43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CS47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS43="","",
 IF(CS43="N","N",IF(DATA!Q$3=CS43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="CT47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT43="","",
 IF(CT43="N","N",IF(DATA!R$3=CT43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CU47" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU43="","",
 IF(CU43="N","N",IF(DATA!S$3=CU43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CV47" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV43="","",
 IF(CV43="N","N",IF(DATA!T$3=CV43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CW47" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -30768,13 +30780,13 @@
         <f>IF(DATA!J$3="","",
 IF(FN43="","",
 IF(FN43="N","N",IF(DATA!J$3=FN43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO47" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(FO43="","",
 IF(FO43="N","N",IF(DATA!K$3=FO43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP47" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -30786,49 +30798,49 @@
         <f>IF(DATA!M$3="","",
 IF(FQ43="","",
 IF(FQ43="N","N",IF(DATA!M$3=FQ43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FR47" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR43="","",
 IF(FR43="N","N",IF(DATA!N$3=FR43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FS47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS43="","",
 IF(FS43="N","N",IF(DATA!O$3=FS43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FT47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT43="","",
 IF(FT43="N","N",IF(DATA!P$3=FT43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FU47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU43="","",
 IF(FU43="N","N",IF(DATA!Q$3=FU43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FV47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV43="","",
 IF(FV43="N","N",IF(DATA!R$3=FV43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FW47" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW43="","",
 IF(FW43="N","N",IF(DATA!S$3=FW43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FX47" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX43="","",
 IF(FX43="N","N",IF(DATA!T$3=FX43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FY47" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -32152,27 +32164,27 @@
       </c>
       <c r="O51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>R</v>
       </c>
       <c r="R51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -32447,7 +32459,7 @@
       </c>
       <c r="CN51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v>R</v>
       </c>
       <c r="CO51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32459,27 +32471,27 @@
       </c>
       <c r="CQ51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CR51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CS51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CT51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CV51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CW51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32765,27 +32777,27 @@
       </c>
       <c r="FS51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FT51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FU51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FX51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FY51" s="2" t="str">
         <f t="shared" si="9"/>
@@ -33081,27 +33093,27 @@
       </c>
       <c r="P52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V52" s="2" t="str">
         <f t="shared" si="12"/>
@@ -33384,11 +33396,11 @@
       </c>
       <c r="CO52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="CP52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="CQ52" s="2" t="str">
         <f t="shared" si="15"/>
@@ -33396,27 +33408,27 @@
       </c>
       <c r="CR52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CS52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CT52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CV52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CW52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CX52" s="2" t="str">
         <f t="shared" si="15"/>
@@ -33710,27 +33722,27 @@
       </c>
       <c r="FT52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FU52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FX52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FY52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FZ52" s="2" t="str">
         <f t="shared" si="18"/>
@@ -34977,37 +34989,37 @@
         <f>IF(DATA!O$3="","",
 IF(O52="","",
 IF(O52="N","N",IF(DATA!O$3=O52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P52="","",
 IF(P52="N","N",IF(DATA!P$3=P52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q52="","",
 IF(Q52="N","N",IF(DATA!Q$3=Q52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R52="","",
 IF(R52="N","N",IF(DATA!R$3=R52,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S56" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S52="","",
 IF(S52="N","N",IF(DATA!S$3=S52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T56" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T52="","",
 IF(T52="N","N",IF(DATA!T$3=T52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U56" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -35417,49 +35429,49 @@
         <f>IF(DATA!M$3="","",
 IF(CO52="","",
 IF(CO52="N","N",IF(DATA!M$3=CO52,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="CP56" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP52="","",
 IF(CP52="N","N",IF(DATA!N$3=CP52,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="CQ56" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ52="","",
 IF(CQ52="N","N",IF(DATA!O$3=CQ52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CR56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR52="","",
 IF(CR52="N","N",IF(DATA!P$3=CR52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CS56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS52="","",
 IF(CS52="N","N",IF(DATA!Q$3=CS52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CT56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT52="","",
 IF(CT52="N","N",IF(DATA!R$3=CT52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU56" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU52="","",
 IF(CU52="N","N",IF(DATA!S$3=CU52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CV56" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV52="","",
 IF(CV52="N","N",IF(DATA!T$3=CV52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CW56" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -35880,37 +35892,37 @@
         <f>IF(DATA!O$3="","",
 IF(FS52="","",
 IF(FS52="N","N",IF(DATA!O$3=FS52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FT56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT52="","",
 IF(FT52="N","N",IF(DATA!P$3=FT52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FU56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU52="","",
 IF(FU52="N","N",IF(DATA!Q$3=FU52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV52="","",
 IF(FV52="N","N",IF(DATA!R$3=FV52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW56" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW52="","",
 IF(FW52="N","N",IF(DATA!S$3=FW52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FX56" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX52="","",
 IF(FX52="N","N",IF(DATA!T$3=FX52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FY56" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -36941,11 +36953,11 @@
       </c>
       <c r="M60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="N60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -36953,27 +36965,27 @@
       </c>
       <c r="P60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -37769,49 +37781,49 @@
         <f>IF(DATA!M$3="","",
 IF(M60="","",
 IF(M60="N","N",IF(DATA!M$3=M60,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="N64" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N60="","",
 IF(N60="N","N",IF(DATA!N$3=N60,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="O64" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O60="","",
 IF(O60="N","N",IF(DATA!O$3=O60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P64" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P60="","",
 IF(P60="N","N",IF(DATA!P$3=P60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q64" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q60="","",
 IF(Q60="N","N",IF(DATA!Q$3=Q60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R64" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R60="","",
 IF(R60="N","N",IF(DATA!R$3=R60,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S64" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S60="","",
 IF(S60="N","N",IF(DATA!S$3=S60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T64" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T60="","",
 IF(T60="N","N",IF(DATA!T$3=T60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U64" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -39135,27 +39147,27 @@
       </c>
       <c r="O68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="R68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="T68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U68" s="2" t="str">
         <f t="shared" si="24"/>
@@ -39430,7 +39442,7 @@
       </c>
       <c r="CN68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v>F</v>
       </c>
       <c r="CO68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39442,27 +39454,27 @@
       </c>
       <c r="CQ68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CR68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CS68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CT68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CV68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CW68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39748,27 +39760,27 @@
       </c>
       <c r="FS68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FT68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FU68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FX68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FY68" s="2" t="str">
         <f t="shared" si="30"/>
@@ -40064,27 +40076,27 @@
       </c>
       <c r="P69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V69" s="2" t="str">
         <f t="shared" si="33"/>
@@ -40367,11 +40379,11 @@
       </c>
       <c r="CO69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="CP69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="CQ69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40379,27 +40391,27 @@
       </c>
       <c r="CR69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CS69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CT69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CV69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CW69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CX69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40693,27 +40705,27 @@
       </c>
       <c r="FT69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FU69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FX69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FY69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FZ69" s="2" t="str">
         <f t="shared" si="39"/>
@@ -41960,37 +41972,37 @@
         <f>IF(DATA!O$3="","",
 IF(O69="","",
 IF(O69="N","N",IF(DATA!O$3=O69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P69="","",
 IF(P69="N","N",IF(DATA!P$3=P69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q69="","",
 IF(Q69="N","N",IF(DATA!Q$3=Q69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R69="","",
 IF(R69="N","N",IF(DATA!R$3=R69,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S73" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S69="","",
 IF(S69="N","N",IF(DATA!S$3=S69,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T73" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T69="","",
 IF(T69="N","N",IF(DATA!T$3=T69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U73" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -42400,49 +42412,49 @@
         <f>IF(DATA!M$3="","",
 IF(CO69="","",
 IF(CO69="N","N",IF(DATA!M$3=CO69,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="CP73" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP69="","",
 IF(CP69="N","N",IF(DATA!N$3=CP69,"W","L"))))</f>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="CQ73" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ69="","",
 IF(CQ69="N","N",IF(DATA!O$3=CQ69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CR73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR69="","",
 IF(CR69="N","N",IF(DATA!P$3=CR69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CS73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS69="","",
 IF(CS69="N","N",IF(DATA!Q$3=CS69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CT73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT69="","",
 IF(CT69="N","N",IF(DATA!R$3=CT69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CU73" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU69="","",
 IF(CU69="N","N",IF(DATA!S$3=CU69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CV73" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV69="","",
 IF(CV69="N","N",IF(DATA!T$3=CV69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CW73" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -42863,37 +42875,37 @@
         <f>IF(DATA!O$3="","",
 IF(FS69="","",
 IF(FS69="N","N",IF(DATA!O$3=FS69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FT73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT69="","",
 IF(FT69="N","N",IF(DATA!P$3=FT69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FU73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU69="","",
 IF(FU69="N","N",IF(DATA!Q$3=FU69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FV73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV69="","",
 IF(FV69="N","N",IF(DATA!R$3=FV69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FW73" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW69="","",
 IF(FW69="N","N",IF(DATA!S$3=FW69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FX73" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX69="","",
 IF(FX69="N","N",IF(DATA!T$3=FX69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FY73" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -43924,11 +43936,11 @@
       </c>
       <c r="M77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="N77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="O77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -43936,27 +43948,27 @@
       </c>
       <c r="P77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -44752,49 +44764,49 @@
         <f>IF(DATA!M$3="","",
 IF(M77="","",
 IF(M77="N","N",IF(DATA!M$3=M77,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="N81" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N77="","",
 IF(N77="N","N",IF(DATA!N$3=N77,"W","L"))))</f>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="O81" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O77="","",
 IF(O77="N","N",IF(DATA!O$3=O77,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P81" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P77="","",
 IF(P77="N","N",IF(DATA!P$3=P77,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q81" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q77="","",
 IF(Q77="N","N",IF(DATA!Q$3=Q77,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R81" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R77="","",
 IF(R77="N","N",IF(DATA!R$3=R77,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S81" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S77="","",
 IF(S77="N","N",IF(DATA!S$3=S77,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T81" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T77="","",
 IF(T77="N","N",IF(DATA!T$3=T77,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U81" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -45816,45 +45828,45 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:L97, 1, MAX(IF(AL!$B97:L97="L", COLUMN(AL!$B97:L97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!L97, "W"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="2" t="str">
         <f t="array" ref="M85">IF(AL!M97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="L", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "W"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="N85" s="2">
+      <c r="N85" s="2" t="str">
         <f t="array" ref="N85">IF(AL!N97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="L", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "W"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="O85" s="2" t="str">
+      <c r="O85" s="2">
         <f t="array" ref="O85">IF(AL!O97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:O97, 1, MAX(IF(AL!$B97:O97="L", COLUMN(AL!$B97:O97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!O97, "W"),"0"))</f>
-        <v/>
-      </c>
-      <c r="P85" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
         <f t="array" ref="P85">IF(AL!P97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:P97, 1, MAX(IF(AL!$B97:P97="L", COLUMN(AL!$B97:P97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!P97, "W"),"0"))</f>
-        <v/>
-      </c>
-      <c r="Q85" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="2">
         <f t="array" ref="Q85">IF(AL!Q97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:Q97, 1, MAX(IF(AL!$B97:Q97="L", COLUMN(AL!$B97:Q97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!Q97, "W"),"0"))</f>
-        <v/>
-      </c>
-      <c r="R85" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="R85" s="2">
         <f t="array" ref="R85">IF(AL!R97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:R97, 1, MAX(IF(AL!$B97:R97="L", COLUMN(AL!$B97:R97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!R97, "W"),"0"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S85" s="2" t="str">
         <f t="array" ref="S85">IF(AL!S97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:S97, 1, MAX(IF(AL!$B97:S97="L", COLUMN(AL!$B97:S97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!S97, "W"),"0"))</f>
-        <v/>
-      </c>
-      <c r="T85" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="T85" s="2">
         <f t="array" ref="T85">IF(AL!T97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:T97, 1, MAX(IF(AL!$B97:T97="L", COLUMN(AL!$B97:T97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!T97, "W"),"0"))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="U85" s="2" t="str">
         <f t="array" ref="U85">IF(AL!U97="","",
@@ -46665,42 +46677,42 @@
       <c r="M89" s="2">
         <f t="array" ref="M89">IF(AL!M97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="W", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "L"),"0"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" s="2">
         <f t="array" ref="N89">IF(AL!N97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="W", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "L"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="O89" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="O89" s="2">
         <f t="array" ref="O89">IF(AL!O97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:O97, 1, MAX(IF(AL!$B97:O97="W", COLUMN(AL!$B97:O97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!O97, "L"),"0"))</f>
-        <v/>
-      </c>
-      <c r="P89" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="P89" s="2">
         <f t="array" ref="P89">IF(AL!P97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:P97, 1, MAX(IF(AL!$B97:P97="W", COLUMN(AL!$B97:P97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!P97, "L"),"0"))</f>
-        <v/>
-      </c>
-      <c r="Q89" s="2" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="2">
         <f t="array" ref="Q89">IF(AL!Q97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:Q97, 1, MAX(IF(AL!$B97:Q97="W", COLUMN(AL!$B97:Q97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!Q97, "L"),"0"))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="R89" s="2" t="str">
         <f t="array" ref="R89">IF(AL!R97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:R97, 1, MAX(IF(AL!$B97:R97="W", COLUMN(AL!$B97:R97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!R97, "L"),"0"))</f>
-        <v/>
-      </c>
-      <c r="S89" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="S89" s="2">
         <f t="array" ref="S89">IF(AL!S97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:S97, 1, MAX(IF(AL!$B97:S97="W", COLUMN(AL!$B97:S97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!S97, "L"),"0"))</f>
-        <v/>
-      </c>
-      <c r="T89" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="T89" s="2">
         <f t="array" ref="T89">IF(AL!T97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:T97, 1, MAX(IF(AL!$B97:T97="W", COLUMN(AL!$B97:T97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!T97, "L"),"0"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U89" s="2" t="str">
         <f t="array" ref="U89">IF(AL!U97="","",
@@ -47356,12 +47368,12 @@
       <c r="M93" s="2" t="str">
         <f>IF(AL!M60="","",
 IF(OR(AL!M60="P",AL!M60="B"),AL!M60,AL!M77))</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="N93" s="2" t="str">
         <f>IF(AL!N60="","",
 IF(OR(AL!N60="P",AL!N60="B"),AL!N60,AL!N77))</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="O93" s="2" t="str">
         <f>IF(AL!O60="","",
@@ -47371,32 +47383,32 @@
       <c r="P93" s="2" t="str">
         <f>IF(AL!P60="","",
 IF(OR(AL!P60="P",AL!P60="B"),AL!P60,AL!P77))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q93" s="2" t="str">
         <f>IF(AL!Q60="","",
 IF(OR(AL!Q60="P",AL!Q60="B"),AL!Q60,AL!Q77))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R93" s="2" t="str">
         <f>IF(AL!R60="","",
 IF(OR(AL!R60="P",AL!R60="B"),AL!R60,AL!R77))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S93" s="2" t="str">
         <f>IF(AL!S60="","",
 IF(OR(AL!S60="P",AL!S60="B"),AL!S60,AL!S77))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T93" s="2" t="str">
         <f>IF(AL!T60="","",
 IF(OR(AL!T60="P",AL!T60="B"),AL!T60,AL!T77))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U93" s="2" t="str">
         <f>IF(AL!U60="","",
 IF(OR(AL!U60="P",AL!U60="B"),AL!U60,AL!U77))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V93" s="2" t="str">
         <f>IF(AL!V60="","",
@@ -48065,49 +48077,49 @@
         <f>IF(DATA!M$3="","",
 IF(M93="","",
 IF(M93="N","N",IF(DATA!M$3=M93,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="N97" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N93="","",
 IF(N93="N","N",IF(DATA!N$3=N93,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="O97" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O93="","",
 IF(O93="N","N",IF(DATA!O$3=O93,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P97" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P93="","",
 IF(P93="N","N",IF(DATA!P$3=P93,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q97" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q93="","",
 IF(Q93="N","N",IF(DATA!Q$3=Q93,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R97" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R93="","",
 IF(R93="N","N",IF(DATA!R$3=R93,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S97" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S93="","",
 IF(S93="N","N",IF(DATA!S$3=S93,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T97" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T93="","",
 IF(T93="N","N",IF(DATA!T$3=T93,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U97" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -48441,16 +48453,16 @@
       </c>
       <c r="BX97" s="14">
         <f>IF(B97="","",COUNTIF(B97:BW97,"W"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY97" s="15">
         <f>IF(B97="","",COUNTIF(B97:BW97,"L"))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ97" s="15"/>
       <c r="CA97" s="16">
         <f>IF(B97="","",BX97-BY97)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -48502,7 +48514,7 @@
     <mergeCell ref="B91:N91"/>
     <mergeCell ref="B87:N87"/>
     <mergeCell ref="FF13:FR13"/>
-    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="FF66:FR66"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="B49:N49"/>
     <mergeCell ref="B83:N83"/>
@@ -48513,7 +48525,7 @@
     <mergeCell ref="FF33:FR33"/>
     <mergeCell ref="FF21:FR21"/>
     <mergeCell ref="CD17:CP17"/>
-    <mergeCell ref="FF66:FR66"/>
+    <mergeCell ref="B37:N37"/>
     <mergeCell ref="CD37:CP37"/>
     <mergeCell ref="FF17:FR17"/>
   </mergeCells>
@@ -48761,7 +48773,7 @@
       </c>
       <c r="E2" s="18" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="18" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
@@ -48781,7 +48793,7 @@
       </c>
       <c r="J2" s="18" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="K2" s="18" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -48797,7 +48809,7 @@
       </c>
       <c r="N2" s="18" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="O2" s="18" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -48805,27 +48817,27 @@
       </c>
       <c r="P2" s="18" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q2" s="18" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R2" s="18" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S2" s="18" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T2" s="18" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="U2" s="18" t="str">
         <f>IF(DATA!T3="","",DATA!T3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V2" s="18" t="str">
         <f>IF(DATA!U3="","",DATA!U3)</f>
@@ -49051,71 +49063,71 @@
       </c>
       <c r="E3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" s="18">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P3" s="18">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P3" s="18" t="str">
+      <c r="Q3" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q3" s="18" t="str">
+        <v>7</v>
+      </c>
+      <c r="R3" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R3" s="18" t="str">
+        <v>8</v>
+      </c>
+      <c r="S3" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S3" s="18" t="str">
+        <v>8</v>
+      </c>
+      <c r="T3" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T3" s="18" t="str">
+        <v>8</v>
+      </c>
+      <c r="U3" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U3" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="V3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -49343,71 +49355,71 @@
       </c>
       <c r="E4" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="P4" s="18" t="str">
+        <v>7</v>
+      </c>
+      <c r="P4" s="18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q4" s="18" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R4" s="18" t="str">
+        <v>7</v>
+      </c>
+      <c r="R4" s="18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S4" s="18" t="str">
+        <v>7</v>
+      </c>
+      <c r="S4" s="18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T4" s="18" t="str">
+        <v>8</v>
+      </c>
+      <c r="T4" s="18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U4" s="18" t="str">
+        <v>8</v>
+      </c>
+      <c r="U4" s="18">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="V4" s="18" t="str">
         <f t="shared" si="3"/>
@@ -49630,71 +49642,71 @@
       </c>
       <c r="E5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O5" s="18">
         <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="P5" s="18">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="18">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P5" s="18" t="str">
+      <c r="R5" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q5" s="18" t="str">
+        <v>1</v>
+      </c>
+      <c r="S5" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R5" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S5" s="18" t="str">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T5" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="U5" s="18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="V5" s="18" t="str">
         <f t="shared" si="5"/>
@@ -50019,51 +50031,51 @@
       </c>
       <c r="K7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="L7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="Q7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="W7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50314,7 +50326,7 @@
       </c>
       <c r="L8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="M8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50330,31 +50342,31 @@
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="Q8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="U8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="V8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="W8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50600,7 +50612,7 @@
       </c>
       <c r="K9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50622,23 +50634,23 @@
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="Q9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="U9" s="18" t="str">
         <f t="shared" ref="U9:AZ9" si="14">IF(T2="","",
@@ -50646,11 +50658,11 @@
 IF(AND(C2=I2,I2&lt;&gt;O2),IF(O2="P","B","P"),
 IF(AND(C2&lt;&gt;I2,I2=O2),C2,
 IF(AND(C2&lt;&gt;I2,I2&lt;&gt;O2),O2)))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V9" s="18" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="W9" s="18" t="str">
         <f t="shared" si="14"/>
@@ -50972,51 +50984,51 @@
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="L11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51266,7 +51278,7 @@
       </c>
       <c r="J12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51274,7 +51286,7 @@
       </c>
       <c r="L12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51282,7 +51294,7 @@
       </c>
       <c r="N12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51290,27 +51302,27 @@
       </c>
       <c r="P12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="U12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="V12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51560,11 +51572,11 @@
       </c>
       <c r="J13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51584,27 +51596,27 @@
       </c>
       <c r="P13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="U13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="V13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51942,11 +51954,11 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -51954,31 +51966,31 @@
       </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="Q15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="W15" s="18" t="str">
         <f t="shared" ref="W15:AF17" si="27">IF(W7="","",
@@ -52244,11 +52256,11 @@
       </c>
       <c r="M16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52260,27 +52272,27 @@
       </c>
       <c r="Q16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="W16" s="18" t="str">
         <f t="shared" si="27"/>
@@ -52539,35 +52551,35 @@
       </c>
       <c r="O17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="Q17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="U17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="W17" s="18" t="str">
         <f t="shared" si="27"/>
@@ -52897,11 +52909,11 @@
       </c>
       <c r="M19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -52909,27 +52921,27 @@
       </c>
       <c r="P19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="S19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="V19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -53191,7 +53203,7 @@
       </c>
       <c r="M20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53203,27 +53215,27 @@
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="U20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="V20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53493,31 +53505,31 @@
       </c>
       <c r="O21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="U21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="V21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53860,35 +53872,35 @@
       </c>
       <c r="O23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="W23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -54152,31 +54164,31 @@
       </c>
       <c r="O24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="U24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="V24" s="19" t="str">
         <f t="shared" si="45"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13612E9C-5C51-4882-AF5F-2EFF199035F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E343A7-72A3-4F25-812B-30C5584773FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="54">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1494,25 +1494,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
@@ -1524,32 +1524,18 @@
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1607,16 +1593,16 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2392,7 +2378,7 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M23="","",AI!M23)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N23="","",AI!N23)</f>
@@ -2400,35 +2386,35 @@
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O23="","",AI!O23)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P23="","",AI!P23)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q23="","",AI!Q23)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R23="","",AI!R23)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S23="","",AI!S23)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!T23="","",AI!T23)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!U23="","",AI!U23)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U12" s="2" t="str">
         <f>IF(AI!V23="","",AI!V23)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V12" s="2" t="str">
         <f>IF(AI!W23="","",AI!W23)</f>
@@ -3019,35 +3005,35 @@
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N24="","",AI!N24)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O24="","",AI!O24)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P24="","",AI!P24)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q24="","",AI!Q24)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R24="","",AI!R24)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!S24="","",AI!S24)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!T24="","",AI!T24)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T16" s="2" t="str">
         <f>IF(AI!U24="","",AI!U24)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U16" s="2" t="str">
         <f>IF(AI!V24="","",AI!V24)</f>
@@ -3271,16 +3257,16 @@
       </c>
       <c r="BX16" s="14">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY16" s="15">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="16">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4898,7 +4884,7 @@
       <c r="F3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3=DATA!F3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -4913,7 +4899,7 @@
       <c r="I3" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(DATA!H3=DATA!I3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="J3" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -4938,37 +4924,37 @@
       <c r="N3" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3=DATA!N3,"O","X"))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="O3" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(DATA!N3=DATA!O3,"O","X"))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="P3" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(DATA!O3=DATA!P3,"O","X"))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="Q3" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(DATA!P3=DATA!Q3,"O","X"))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="R3" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(DATA!Q3=DATA!R3,"O","X"))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="S3" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(DATA!R3=DATA!S3,"O","X"))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="T3" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(DATA!S3=DATA!T3,"O","X"))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="U3" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -5283,7 +5269,7 @@
         <f>IF(DATA!G3="","",
 IF(AL!F3&lt;&gt;AL!G3,AL!F3,
 IF(AL!F3=AL!G3,AL!G3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CK3" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -5301,7 +5287,7 @@
         <f>IF(DATA!J3="","",
 IF(AL!I3&lt;&gt;AL!J3,AL!I3,
 IF(AL!I3=AL!J3,AL!J3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CN3" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -5325,43 +5311,43 @@
         <f>IF(DATA!N3="","",
 IF(AL!M3&lt;&gt;AL!N3,AL!M3,
 IF(AL!M3=AL!N3,AL!N3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CR3" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(AL!N3&lt;&gt;AL!O3,AL!N3,
 IF(AL!N3=AL!O3,AL!O3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CS3" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(AL!O3&lt;&gt;AL!P3,AL!O3,
 IF(AL!O3=AL!P3,AL!P3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CT3" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(AL!P3&lt;&gt;AL!Q3,AL!P3,
 IF(AL!P3=AL!Q3,AL!Q3)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CU3" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(AL!Q3&lt;&gt;AL!R3,AL!Q3,
 IF(AL!Q3=AL!R3,AL!R3)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CV3" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(AL!R3&lt;&gt;AL!S3,AL!R3,
 IF(AL!R3=AL!S3,AL!S3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CW3" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(AL!S3&lt;&gt;AL!T3,AL!S3,
 IF(AL!S3=AL!T3,AL!T3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CX3" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -6641,11 +6627,11 @@
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6653,11 +6639,11 @@
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6673,31 +6659,31 @@
       </c>
       <c r="N7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v/>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v/>
       </c>
       <c r="P7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="Q7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v/>
       </c>
       <c r="R7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="S7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v/>
       </c>
       <c r="T7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v/>
       </c>
       <c r="U7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6956,13 +6942,13 @@
         <f>IF(DATA!G3="","",
 IF(AL!F7&lt;&gt;AL!G7,AL!F7,
 IF(AL!F7=AL!G7,AL!G7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CK7" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(AL!G7&lt;&gt;AL!H7,AL!G7,
 IF(AL!G7=AL!H7,AL!H7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CL7" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -6974,13 +6960,13 @@
         <f>IF(DATA!J3="","",
 IF(AL!I7&lt;&gt;AL!J7,AL!I7,
 IF(AL!I7=AL!J7,AL!J7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CN7" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(AL!J7&lt;&gt;AL!K7,AL!J7,
 IF(AL!J7=AL!K7,AL!K7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CO7" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -6998,43 +6984,43 @@
         <f>IF(DATA!N3="","",
 IF(AL!M7&lt;&gt;AL!N7,AL!M7,
 IF(AL!M7=AL!N7,AL!N7)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CR7" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(AL!N7&lt;&gt;AL!O7,AL!N7,
 IF(AL!N7=AL!O7,AL!O7)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CS7" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(AL!O7&lt;&gt;AL!P7,AL!O7,
 IF(AL!O7=AL!P7,AL!P7)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CT7" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(AL!P7&lt;&gt;AL!Q7,AL!P7,
 IF(AL!P7=AL!Q7,AL!Q7)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CU7" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(AL!Q7&lt;&gt;AL!R7,AL!Q7,
 IF(AL!Q7=AL!R7,AL!R7)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CV7" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(AL!R7&lt;&gt;AL!S7,AL!R7,
 IF(AL!R7=AL!S7,AL!S7)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CW7" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(AL!S7&lt;&gt;AL!T7,AL!S7,
 IF(AL!S7=AL!T7,AL!T7)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CX7" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -7389,19 +7375,19 @@
         <f>IF(CI7="","",
 IF(CI7="O",AL!F3,
 IF(CI7="X",AL!E3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FL7" s="2" t="str">
         <f>IF(CJ7="","",
 IF(CJ7="O",AL!G3,
 IF(CJ7="X",AL!F3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FM7" s="2" t="str">
         <f>IF(CK7="","",
 IF(CK7="O",AL!H3,
 IF(CK7="X",AL!G3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FN7" s="2" t="str">
         <f>IF(CL7="","",
@@ -7413,7 +7399,7 @@
         <f>IF(CM7="","",
 IF(CM7="O",AL!J3,
 IF(CM7="X",AL!I3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FP7" s="2" t="str">
         <f>IF(CN7="","",
@@ -7437,43 +7423,43 @@
         <f>IF(CQ7="","",
 IF(CQ7="O",AL!N3,
 IF(CQ7="X",AL!M3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="FT7" s="2" t="str">
         <f>IF(CR7="","",
 IF(CR7="O",AL!O3,
 IF(CR7="X",AL!N3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="FU7" s="2" t="str">
         <f>IF(CS7="","",
 IF(CS7="O",AL!P3,
 IF(CS7="X",AL!O3)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="FV7" s="2" t="str">
         <f>IF(CT7="","",
 IF(CT7="O",AL!Q3,
 IF(CT7="X",AL!P3)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="FW7" s="2" t="str">
         <f>IF(CU7="","",
 IF(CU7="O",AL!R3,
 IF(CU7="X",AL!Q3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="FX7" s="2" t="str">
         <f>IF(CV7="","",
 IF(CV7="O",AL!S3,
 IF(CV7="X",AL!R3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="FY7" s="2" t="str">
         <f>IF(CW7="","",
 IF(CW7="O",AL!T3,
 IF(CW7="X",AL!S3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="FZ7" s="2" t="str">
         <f>IF(CX7="","",
@@ -8746,43 +8732,43 @@
         <f>IF(DATA!C3="","",
 IF(DATA!B3&lt;&gt;DATA!C3,DATA!B3,
 IF(DATA!B3=DATA!C3,DATA!C3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>IF(DATA!D3="","",
 IF(DATA!C3&lt;&gt;DATA!D3,DATA!C3,
 IF(DATA!C3=DATA!D3,DATA!D3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(DATA!D3&lt;&gt;DATA!E3,DATA!D3,
 IF(DATA!D3=DATA!E3,DATA!E3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3&lt;&gt;DATA!F3,DATA!E3,
 IF(DATA!E3=DATA!F3,DATA!F3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(DATA!F3&lt;&gt;DATA!G3,DATA!F3,
 IF(DATA!F3=DATA!G3,DATA!G3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(DATA!G3&lt;&gt;DATA!H3,DATA!G3,
 IF(DATA!G3=DATA!H3,DATA!H3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(DATA!H3&lt;&gt;DATA!I3,DATA!H3,
 IF(DATA!H3=DATA!I3,DATA!I3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -8806,49 +8792,49 @@
         <f>IF(DATA!M3="","",
 IF(DATA!L3&lt;&gt;DATA!M3,DATA!L3,
 IF(DATA!L3=DATA!M3,DATA!M3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3&lt;&gt;DATA!N3,DATA!M3,
 IF(DATA!M3=DATA!N3,DATA!N3)))</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="P11" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(DATA!N3&lt;&gt;DATA!O3,DATA!N3,
 IF(DATA!N3=DATA!O3,DATA!O3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q11" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(DATA!O3&lt;&gt;DATA!P3,DATA!O3,
 IF(DATA!O3=DATA!P3,DATA!P3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R11" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(DATA!P3&lt;&gt;DATA!Q3,DATA!P3,
 IF(DATA!P3=DATA!Q3,DATA!Q3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S11" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(DATA!Q3&lt;&gt;DATA!R3,DATA!Q3,
 IF(DATA!Q3=DATA!R3,DATA!R3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T11" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(DATA!R3&lt;&gt;DATA!S3,DATA!R3,
 IF(DATA!R3=DATA!S3,DATA!S3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U11" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(DATA!S3&lt;&gt;DATA!T3,DATA!S3,
 IF(DATA!S3=DATA!T3,DATA!T3)))</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="V11" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -9194,19 +9180,19 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
 IF(AL!CH3="O",DATA!E3,
 IF(AL!CH3="X",DATA!D3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CI11" s="2" t="str">
         <f>IF(AL!CI3="","",
 IF(AL!CI3="O",DATA!F3,
 IF(AL!CI3="X",DATA!E3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CJ11" s="2" t="str">
         <f>IF(AL!CJ3="","",
@@ -9218,7 +9204,7 @@
         <f>IF(AL!CK3="","",
 IF(AL!CK3="O",DATA!H3,
 IF(AL!CK3="X",DATA!G3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL11" s="2" t="str">
         <f>IF(AL!CL3="","",
@@ -9242,55 +9228,55 @@
         <f>IF(AL!CO3="","",
 IF(AL!CO3="O",DATA!L3,
 IF(AL!CO3="X",DATA!K3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CP11" s="2" t="str">
         <f>IF(AL!CP3="","",
 IF(AL!CP3="O",DATA!M3,
 IF(AL!CP3="X",DATA!L3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CQ11" s="2" t="str">
         <f>IF(AL!CQ3="","",
 IF(AL!CQ3="O",DATA!N3,
 IF(AL!CQ3="X",DATA!M3)))</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="CR11" s="2" t="str">
         <f>IF(AL!CR3="","",
 IF(AL!CR3="O",DATA!O3,
 IF(AL!CR3="X",DATA!N3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CS11" s="2" t="str">
         <f>IF(AL!CS3="","",
 IF(AL!CS3="O",DATA!P3,
 IF(AL!CS3="X",DATA!O3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CT11" s="2" t="str">
         <f>IF(AL!CT3="","",
 IF(AL!CT3="O",DATA!Q3,
 IF(AL!CT3="X",DATA!P3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CU11" s="2" t="str">
         <f>IF(AL!CU3="","",
 IF(AL!CU3="O",DATA!R3,
 IF(AL!CU3="X",DATA!Q3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CV11" s="2" t="str">
         <f>IF(AL!CV3="","",
 IF(AL!CV3="O",DATA!S3,
 IF(AL!CV3="X",DATA!R3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CW11" s="2" t="str">
         <f>IF(AL!CW3="","",
 IF(AL!CW3="O",DATA!T3,
 IF(AL!CW3="X",DATA!S3)))</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="CX11" s="2" t="str">
         <f>IF(AL!CX3="","",
@@ -9639,13 +9625,13 @@
         <f>IF(AL!FJ7="","",
 IF(AL!FJ7="O",DATA!E3,
 IF(AL!FJ7="X",DATA!D3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FK11" s="2" t="str">
         <f>IF(AL!FK7="","",
 IF(AL!FK7="O",DATA!F3,
 IF(AL!FK7="X",DATA!E3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="FL11" s="2" t="str">
         <f>IF(AL!FL7="","",
@@ -9657,7 +9643,7 @@
         <f>IF(AL!FM7="","",
 IF(AL!FM7="O",DATA!H3,
 IF(AL!FM7="X",DATA!G3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FN11" s="2" t="str">
         <f>IF(AL!FN7="","",
@@ -9687,49 +9673,49 @@
         <f>IF(AL!FR7="","",
 IF(AL!FR7="O",DATA!M3,
 IF(AL!FR7="X",DATA!L3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="FS11" s="2" t="str">
         <f>IF(AL!FS7="","",
 IF(AL!FS7="O",DATA!N3,
 IF(AL!FS7="X",DATA!M3)))</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="FT11" s="2" t="str">
         <f>IF(AL!FT7="","",
 IF(AL!FT7="O",DATA!O3,
 IF(AL!FT7="X",DATA!N3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FU11" s="2" t="str">
         <f>IF(AL!FU7="","",
 IF(AL!FU7="O",DATA!P3,
 IF(AL!FU7="X",DATA!O3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FV11" s="2" t="str">
         <f>IF(AL!FV7="","",
 IF(AL!FV7="O",DATA!Q3,
 IF(AL!FV7="X",DATA!P3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FW11" s="2" t="str">
         <f>IF(AL!FW7="","",
 IF(AL!FW7="O",DATA!R3,
 IF(AL!FW7="X",DATA!Q3)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FX11" s="2" t="str">
         <f>IF(AL!FX7="","",
 IF(AL!FX7="O",DATA!S3,
 IF(AL!FX7="X",DATA!R3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FY11" s="2" t="str">
         <f>IF(AL!FY7="","",
 IF(AL!FY7="O",DATA!T3,
 IF(AL!FY7="X",DATA!S3)))</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="FZ11" s="2" t="str">
         <f>IF(AL!FZ7="","",
@@ -11016,7 +11002,7 @@
         <f>IF(DATA!E3="","",
 IF(E11="","",
 IF(E11="N","N",IF(DATA!E3=E11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -11040,13 +11026,13 @@
         <f>IF(DATA!I3="","",
 IF(I11="","",
 IF(I11="N","N",IF(DATA!I3=I11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(J11="","",
 IF(J11="N","N",IF(DATA!J3=J11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -11070,43 +11056,43 @@
         <f>IF(DATA!N3="","",
 IF(N11="","",
 IF(N11="N","N",IF(DATA!N3=N11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O15" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(O11="","",
 IF(O11="N","N",IF(DATA!O3=O11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(P11="","",
 IF(P11="N","N",IF(DATA!P3=P11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q15" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(Q11="","",
 IF(Q11="N","N",IF(DATA!Q3=Q11,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(R11="","",
 IF(R11="N","N",IF(DATA!R3=R11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S15" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(S11="","",
 IF(S11="N","N",IF(DATA!S3=S11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T15" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(T11="","",
 IF(T11="N","N",IF(DATA!T3=T11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U15" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -11486,13 +11472,13 @@
         <f>IF(DATA!H3="","",
 IF(CJ11="","",
 IF(CJ11="N","N",IF(DATA!H3=CJ11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CK15" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(CK11="","",
 IF(CK11="N","N",IF(DATA!I3=CK11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL15" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -11522,43 +11508,43 @@
         <f>IF(DATA!N3="","",
 IF(CP11="","",
 IF(CP11="N","N",IF(DATA!N3=CP11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CQ15" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(CQ11="","",
 IF(CQ11="N","N",IF(DATA!O3=CQ11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CR15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(CR11="","",
 IF(CR11="N","N",IF(DATA!P3=CR11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CS15" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(CS11="","",
 IF(CS11="N","N",IF(DATA!Q3=CS11,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CT15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(CT11="","",
 IF(CT11="N","N",IF(DATA!R3=CT11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CU15" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(CU11="","",
 IF(CU11="N","N",IF(DATA!S3=CU11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CV15" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(CV11="","",
 IF(CV11="N","N",IF(DATA!T3=CV11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CW15" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -11937,13 +11923,13 @@
         <f>IF(DATA!H3="","",
 IF(FL11="","",
 IF(FL11="N","N",IF(DATA!H3=FL11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FM15" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(FM11="","",
 IF(FM11="N","N",IF(DATA!I3=FM11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FN15" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -11973,43 +11959,43 @@
         <f>IF(DATA!N3="","",
 IF(FR11="","",
 IF(FR11="N","N",IF(DATA!N3=FR11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FS15" s="2" t="str">
         <f>IF(DATA!O3="","",
 IF(FS11="","",
 IF(FS11="N","N",IF(DATA!O3=FS11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FT15" s="2" t="str">
         <f>IF(DATA!P3="","",
 IF(FT11="","",
 IF(FT11="N","N",IF(DATA!P3=FT11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FU15" s="2" t="str">
         <f>IF(DATA!Q3="","",
 IF(FU11="","",
 IF(FU11="N","N",IF(DATA!Q3=FU11,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FV15" s="2" t="str">
         <f>IF(DATA!R3="","",
 IF(FV11="","",
 IF(FV11="N","N",IF(DATA!R3=FV11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FW15" s="2" t="str">
         <f>IF(DATA!S3="","",
 IF(FW11="","",
 IF(FW11="N","N",IF(DATA!S3=FW11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FX15" s="2" t="str">
         <f>IF(DATA!T3="","",
 IF(FX11="","",
 IF(FX11="N","N",IF(DATA!T3=FX11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FY15" s="2" t="str">
         <f>IF(DATA!U3="","",
@@ -13304,42 +13290,42 @@
 IF(AL!H11="N","N",
 IF(COUNTIF(AL!D15:G15,"W")&gt;=2,AL!H11,
 IF(COUNTIF(AL!D15:G15,"W")&lt;2,IF(AL!H11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>IF(AL!I11="","",
 IF(AL!I11="N","N",
 IF(COUNTIF(AL!E15:H15,"W")&gt;=2,AL!I11,
 IF(COUNTIF(AL!E15:H15,"W")&lt;2,IF(AL!I11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J19" s="2" t="str">
         <f>IF(AL!J11="","",
 IF(AL!J11="N","N",
 IF(COUNTIF(AL!F15:I15,"W")&gt;=2,AL!J11,
 IF(COUNTIF(AL!F15:I15,"W")&lt;2,IF(AL!J11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K19" s="2" t="str">
         <f>IF(AL!K11="","",
 IF(AL!K11="N","N",
 IF(COUNTIF(AL!G15:J15,"W")&gt;=2,AL!K11,
 IF(COUNTIF(AL!G15:J15,"W")&lt;2,IF(AL!K11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>IF(AL!L11="","",
 IF(AL!L11="N","N",
 IF(COUNTIF(AL!H15:K15,"W")&gt;=2,AL!L11,
 IF(COUNTIF(AL!H15:K15,"W")&lt;2,IF(AL!L11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>IF(AL!M11="","",
 IF(AL!M11="N","N",
 IF(COUNTIF(AL!I15:L15,"W")&gt;=2,AL!M11,
 IF(COUNTIF(AL!I15:L15,"W")&lt;2,IF(AL!M11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>IF(AL!N11="","",
@@ -13353,49 +13339,49 @@
 IF(AL!O11="N","N",
 IF(COUNTIF(AL!K15:N15,"W")&gt;=2,AL!O11,
 IF(COUNTIF(AL!K15:N15,"W")&lt;2,IF(AL!O11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P19" s="2" t="str">
         <f>IF(AL!P11="","",
 IF(AL!P11="N","N",
 IF(COUNTIF(AL!L15:O15,"W")&gt;=2,AL!P11,
 IF(COUNTIF(AL!L15:O15,"W")&lt;2,IF(AL!P11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q19" s="2" t="str">
         <f>IF(AL!Q11="","",
 IF(AL!Q11="N","N",
 IF(COUNTIF(AL!M15:P15,"W")&gt;=2,AL!Q11,
 IF(COUNTIF(AL!M15:P15,"W")&lt;2,IF(AL!Q11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R19" s="2" t="str">
         <f>IF(AL!R11="","",
 IF(AL!R11="N","N",
 IF(COUNTIF(AL!N15:Q15,"W")&gt;=2,AL!R11,
 IF(COUNTIF(AL!N15:Q15,"W")&lt;2,IF(AL!R11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S19" s="2" t="str">
         <f>IF(AL!S11="","",
 IF(AL!S11="N","N",
 IF(COUNTIF(AL!O15:R15,"W")&gt;=2,AL!S11,
 IF(COUNTIF(AL!O15:R15,"W")&lt;2,IF(AL!S11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T19" s="2" t="str">
         <f>IF(AL!T11="","",
 IF(AL!T11="N","N",
 IF(COUNTIF(AL!P15:S15,"W")&gt;=2,AL!T11,
 IF(COUNTIF(AL!P15:S15,"W")&lt;2,IF(AL!T11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U19" s="2" t="str">
         <f>IF(AL!U11="","",
 IF(AL!U11="N","N",
 IF(COUNTIF(AL!Q15:T15,"W")&gt;=2,AL!U11,
 IF(COUNTIF(AL!Q15:T15,"W")&lt;2,IF(AL!U11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V19" s="2" t="str">
         <f>IF(AL!V11="","",
@@ -13808,21 +13794,21 @@
 IF(AL!CK11="N","N",
 IF(COUNTIF(AL!CG15:CJ15,"W")&gt;=2,AL!CK11,
 IF(COUNTIF(AL!CG15:CJ15,"W")&lt;2,IF(AL!CK11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL19" s="2" t="str">
         <f>IF(AL!CL11="","",
 IF(AL!CL11="N","N",
 IF(COUNTIF(AL!CH15:CK15,"W")&gt;=2,AL!CL11,
 IF(COUNTIF(AL!CH15:CK15,"W")&lt;2,IF(AL!CL11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM19" s="2" t="str">
         <f>IF(AL!CM11="","",
 IF(AL!CM11="N","N",
 IF(COUNTIF(AL!CI15:CL15,"W")&gt;=2,AL!CM11,
 IF(COUNTIF(AL!CI15:CL15,"W")&lt;2,IF(AL!CM11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN19" s="2" t="str">
         <f>IF(AL!CN11="","",
@@ -13836,63 +13822,63 @@
 IF(AL!CO11="N","N",
 IF(COUNTIF(AL!CK15:CN15,"W")&gt;=2,AL!CO11,
 IF(COUNTIF(AL!CK15:CN15,"W")&lt;2,IF(AL!CO11="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CP19" s="2" t="str">
         <f>IF(AL!CP11="","",
 IF(AL!CP11="N","N",
 IF(COUNTIF(AL!CL15:CO15,"W")&gt;=2,AL!CP11,
 IF(COUNTIF(AL!CL15:CO15,"W")&lt;2,IF(AL!CP11="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CQ19" s="2" t="str">
         <f>IF(AL!CQ11="","",
 IF(AL!CQ11="N","N",
 IF(COUNTIF(AL!CM15:CP15,"W")&gt;=2,AL!CQ11,
 IF(COUNTIF(AL!CM15:CP15,"W")&lt;2,IF(AL!CQ11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CR19" s="2" t="str">
         <f>IF(AL!CR11="","",
 IF(AL!CR11="N","N",
 IF(COUNTIF(AL!CN15:CQ15,"W")&gt;=2,AL!CR11,
 IF(COUNTIF(AL!CN15:CQ15,"W")&lt;2,IF(AL!CR11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CS19" s="2" t="str">
         <f>IF(AL!CS11="","",
 IF(AL!CS11="N","N",
 IF(COUNTIF(AL!CO15:CR15,"W")&gt;=2,AL!CS11,
 IF(COUNTIF(AL!CO15:CR15,"W")&lt;2,IF(AL!CS11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CT19" s="2" t="str">
         <f>IF(AL!CT11="","",
 IF(AL!CT11="N","N",
 IF(COUNTIF(AL!CP15:CS15,"W")&gt;=2,AL!CT11,
 IF(COUNTIF(AL!CP15:CS15,"W")&lt;2,IF(AL!CT11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CU19" s="2" t="str">
         <f>IF(AL!CU11="","",
 IF(AL!CU11="N","N",
 IF(COUNTIF(AL!CQ15:CT15,"W")&gt;=2,AL!CU11,
 IF(COUNTIF(AL!CQ15:CT15,"W")&lt;2,IF(AL!CU11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CV19" s="2" t="str">
         <f>IF(AL!CV11="","",
 IF(AL!CV11="N","N",
 IF(COUNTIF(AL!CR15:CU15,"W")&gt;=2,AL!CV11,
 IF(COUNTIF(AL!CR15:CU15,"W")&lt;2,IF(AL!CV11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CW19" s="2" t="str">
         <f>IF(AL!CW11="","",
 IF(AL!CW11="N","N",
 IF(COUNTIF(AL!CS15:CV15,"W")&gt;=2,AL!CW11,
 IF(COUNTIF(AL!CS15:CV15,"W")&lt;2,IF(AL!CW11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CX19" s="2" t="str">
         <f>IF(AL!CX11="","",
@@ -14308,14 +14294,14 @@
 IF(AL!FN11="N","N",
 IF(COUNTIF(AL!FJ15:FM15,"W")&gt;=2,AL!FN11,
 IF(COUNTIF(AL!FJ15:FM15,"W")&lt;2,IF(AL!FN11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO19" s="2" t="str">
         <f>IF(AL!FO11="","",
 IF(AL!FO11="N","N",
 IF(COUNTIF(AL!FK15:FN15,"W")&gt;=2,AL!FO11,
 IF(COUNTIF(AL!FK15:FN15,"W")&lt;2,IF(AL!FO11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP19" s="2" t="str">
         <f>IF(AL!FP11="","",
@@ -14336,56 +14322,56 @@
 IF(AL!FR11="N","N",
 IF(COUNTIF(AL!FN15:FQ15,"W")&gt;=2,AL!FR11,
 IF(COUNTIF(AL!FN15:FQ15,"W")&lt;2,IF(AL!FR11="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="FS19" s="2" t="str">
         <f>IF(AL!FS11="","",
 IF(AL!FS11="N","N",
 IF(COUNTIF(AL!FO15:FR15,"W")&gt;=2,AL!FS11,
 IF(COUNTIF(AL!FO15:FR15,"W")&lt;2,IF(AL!FS11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FT19" s="2" t="str">
         <f>IF(AL!FT11="","",
 IF(AL!FT11="N","N",
 IF(COUNTIF(AL!FP15:FS15,"W")&gt;=2,AL!FT11,
 IF(COUNTIF(AL!FP15:FS15,"W")&lt;2,IF(AL!FT11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FU19" s="2" t="str">
         <f>IF(AL!FU11="","",
 IF(AL!FU11="N","N",
 IF(COUNTIF(AL!FQ15:FT15,"W")&gt;=2,AL!FU11,
 IF(COUNTIF(AL!FQ15:FT15,"W")&lt;2,IF(AL!FU11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FV19" s="2" t="str">
         <f>IF(AL!FV11="","",
 IF(AL!FV11="N","N",
 IF(COUNTIF(AL!FR15:FU15,"W")&gt;=2,AL!FV11,
 IF(COUNTIF(AL!FR15:FU15,"W")&lt;2,IF(AL!FV11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FW19" s="2" t="str">
         <f>IF(AL!FW11="","",
 IF(AL!FW11="N","N",
 IF(COUNTIF(AL!FS15:FV15,"W")&gt;=2,AL!FW11,
 IF(COUNTIF(AL!FS15:FV15,"W")&lt;2,IF(AL!FW11="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FX19" s="2" t="str">
         <f>IF(AL!FX11="","",
 IF(AL!FX11="N","N",
 IF(COUNTIF(AL!FT15:FW15,"W")&gt;=2,AL!FX11,
 IF(COUNTIF(AL!FT15:FW15,"W")&lt;2,IF(AL!FX11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FY19" s="2" t="str">
         <f>IF(AL!FY11="","",
 IF(AL!FY11="N","N",
 IF(COUNTIF(AL!FU15:FX15,"W")&gt;=2,AL!FY11,
 IF(COUNTIF(AL!FU15:FX15,"W")&lt;2,IF(AL!FY11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FZ19" s="2" t="str">
         <f>IF(AL!FZ11="","",
@@ -15750,19 +15736,19 @@
         <f>IF(DATA!I$3="","",
 IF(I19="","",
 IF(I19="N","N",IF(DATA!I$3=I19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J19="","",
 IF(J19="N","N",IF(DATA!J$3=J19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K23" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(K19="","",
 IF(K19="N","N",IF(DATA!K$3=K19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -15774,49 +15760,49 @@
         <f>IF(DATA!M$3="","",
 IF(M19="","",
 IF(M19="N","N",IF(DATA!M$3=M19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N19="","",
 IF(N19="N","N",IF(DATA!N$3=N19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O23" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O19="","",
 IF(O19="N","N",IF(DATA!O$3=O19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P19="","",
 IF(P19="N","N",IF(DATA!P$3=P19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q19="","",
 IF(Q19="N","N",IF(DATA!Q$3=Q19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R19="","",
 IF(R19="N","N",IF(DATA!R$3=R19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S23" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S19="","",
 IF(S19="N","N",IF(DATA!S$3=S19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T23" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T19="","",
 IF(T19="N","N",IF(DATA!T$3=T19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U23" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -16202,19 +16188,19 @@
         <f>IF(DATA!I$3="","",
 IF(CK19="","",
 IF(CK19="N","N",IF(DATA!I$3=CK19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL23" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL19="","",
 IF(CL19="N","N",IF(DATA!J$3=CL19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM23" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM19="","",
 IF(CM19="N","N",IF(DATA!K$3=CM19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN23" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -16232,43 +16218,43 @@
         <f>IF(DATA!N$3="","",
 IF(CP19="","",
 IF(CP19="N","N",IF(DATA!N$3=CP19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CQ23" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ19="","",
 IF(CQ19="N","N",IF(DATA!O$3=CQ19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CR23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR19="","",
 IF(CR19="N","N",IF(DATA!P$3=CR19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CS23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS19="","",
 IF(CS19="N","N",IF(DATA!Q$3=CS19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CT23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT19="","",
 IF(CT19="N","N",IF(DATA!R$3=CT19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CU23" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU19="","",
 IF(CU19="N","N",IF(DATA!S$3=CU19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CV23" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV19="","",
 IF(CV19="N","N",IF(DATA!T$3=CV19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CW23" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -16659,13 +16645,13 @@
         <f>IF(DATA!J$3="","",
 IF(FN19="","",
 IF(FN19="N","N",IF(DATA!J$3=FN19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO23" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(FO19="","",
 IF(FO19="N","N",IF(DATA!K$3=FO19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP23" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -16683,43 +16669,43 @@
         <f>IF(DATA!N$3="","",
 IF(FR19="","",
 IF(FR19="N","N",IF(DATA!N$3=FR19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FS23" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS19="","",
 IF(FS19="N","N",IF(DATA!O$3=FS19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FT23" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT19="","",
 IF(FT19="N","N",IF(DATA!P$3=FT19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FU23" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU19="","",
 IF(FU19="N","N",IF(DATA!Q$3=FU19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FV23" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV19="","",
 IF(FV19="N","N",IF(DATA!R$3=FV19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FW23" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW19="","",
 IF(FW19="N","N",IF(DATA!S$3=FW19,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FX23" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX19="","",
 IF(FX19="N","N",IF(DATA!T$3=FX19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FY23" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -18011,14 +17997,14 @@
 IF(AL!H19="N","N",
 IF(COUNTIF(AL!D23:G23,"W")&gt;=2,AL!H19,
 IF(COUNTIF(AL!D23:G23,"W")&lt;2,IF(AL!H19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>IF(AL!I19="","",
 IF(AL!I19="N","N",
 IF(COUNTIF(AL!E23:H23,"W")&gt;=2,AL!I19,
 IF(COUNTIF(AL!E23:H23,"W")&lt;2,IF(AL!I19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J27" s="2" t="str">
         <f>IF(AL!J19="","",
@@ -18039,7 +18025,7 @@
 IF(AL!L19="N","N",
 IF(COUNTIF(AL!H23:K23,"W")&gt;=2,AL!L19,
 IF(COUNTIF(AL!H23:K23,"W")&lt;2,IF(AL!L19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M27" s="2" t="str">
         <f>IF(AL!M19="","",
@@ -18053,56 +18039,56 @@
 IF(AL!N19="N","N",
 IF(COUNTIF(AL!J23:M23,"W")&gt;=2,AL!N19,
 IF(COUNTIF(AL!J23:M23,"W")&lt;2,IF(AL!N19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O27" s="2" t="str">
         <f>IF(AL!O19="","",
 IF(AL!O19="N","N",
 IF(COUNTIF(AL!K23:N23,"W")&gt;=2,AL!O19,
 IF(COUNTIF(AL!K23:N23,"W")&lt;2,IF(AL!O19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P27" s="2" t="str">
         <f>IF(AL!P19="","",
 IF(AL!P19="N","N",
 IF(COUNTIF(AL!L23:O23,"W")&gt;=2,AL!P19,
 IF(COUNTIF(AL!L23:O23,"W")&lt;2,IF(AL!P19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q27" s="2" t="str">
         <f>IF(AL!Q19="","",
 IF(AL!Q19="N","N",
 IF(COUNTIF(AL!M23:P23,"W")&gt;=2,AL!Q19,
 IF(COUNTIF(AL!M23:P23,"W")&lt;2,IF(AL!Q19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R27" s="2" t="str">
         <f>IF(AL!R19="","",
 IF(AL!R19="N","N",
 IF(COUNTIF(AL!N23:Q23,"W")&gt;=2,AL!R19,
 IF(COUNTIF(AL!N23:Q23,"W")&lt;2,IF(AL!R19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S27" s="2" t="str">
         <f>IF(AL!S19="","",
 IF(AL!S19="N","N",
 IF(COUNTIF(AL!O23:R23,"W")&gt;=2,AL!S19,
 IF(COUNTIF(AL!O23:R23,"W")&lt;2,IF(AL!S19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T27" s="2" t="str">
         <f>IF(AL!T19="","",
 IF(AL!T19="N","N",
 IF(COUNTIF(AL!P23:S23,"W")&gt;=2,AL!T19,
 IF(COUNTIF(AL!P23:S23,"W")&lt;2,IF(AL!T19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U27" s="2" t="str">
         <f>IF(AL!U19="","",
 IF(AL!U19="N","N",
 IF(COUNTIF(AL!Q23:T23,"W")&gt;=2,AL!U19,
 IF(COUNTIF(AL!Q23:T23,"W")&lt;2,IF(AL!U19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V27" s="2" t="str">
         <f>IF(AL!V19="","",
@@ -18515,28 +18501,28 @@
 IF(AL!CK19="N","N",
 IF(COUNTIF(AL!CG23:CJ23,"W")&gt;=2,AL!CK19,
 IF(COUNTIF(AL!CG23:CJ23,"W")&lt;2,IF(AL!CK19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL27" s="2" t="str">
         <f>IF(AL!CL19="","",
 IF(AL!CL19="N","N",
 IF(COUNTIF(AL!CH23:CK23,"W")&gt;=2,AL!CL19,
 IF(COUNTIF(AL!CH23:CK23,"W")&lt;2,IF(AL!CL19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CM27" s="2" t="str">
         <f>IF(AL!CM19="","",
 IF(AL!CM19="N","N",
 IF(COUNTIF(AL!CI23:CL23,"W")&gt;=2,AL!CM19,
 IF(COUNTIF(AL!CI23:CL23,"W")&lt;2,IF(AL!CM19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN27" s="2" t="str">
         <f>IF(AL!CN19="","",
 IF(AL!CN19="N","N",
 IF(COUNTIF(AL!CJ23:CM23,"W")&gt;=2,AL!CN19,
 IF(COUNTIF(AL!CJ23:CM23,"W")&lt;2,IF(AL!CN19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO27" s="2" t="str">
         <f>IF(AL!CO19="","",
@@ -18557,49 +18543,49 @@
 IF(AL!CQ19="N","N",
 IF(COUNTIF(AL!CM23:CP23,"W")&gt;=2,AL!CQ19,
 IF(COUNTIF(AL!CM23:CP23,"W")&lt;2,IF(AL!CQ19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CR27" s="2" t="str">
         <f>IF(AL!CR19="","",
 IF(AL!CR19="N","N",
 IF(COUNTIF(AL!CN23:CQ23,"W")&gt;=2,AL!CR19,
 IF(COUNTIF(AL!CN23:CQ23,"W")&lt;2,IF(AL!CR19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CS27" s="2" t="str">
         <f>IF(AL!CS19="","",
 IF(AL!CS19="N","N",
 IF(COUNTIF(AL!CO23:CR23,"W")&gt;=2,AL!CS19,
 IF(COUNTIF(AL!CO23:CR23,"W")&lt;2,IF(AL!CS19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CT27" s="2" t="str">
         <f>IF(AL!CT19="","",
 IF(AL!CT19="N","N",
 IF(COUNTIF(AL!CP23:CS23,"W")&gt;=2,AL!CT19,
 IF(COUNTIF(AL!CP23:CS23,"W")&lt;2,IF(AL!CT19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CU27" s="2" t="str">
         <f>IF(AL!CU19="","",
 IF(AL!CU19="N","N",
 IF(COUNTIF(AL!CQ23:CT23,"W")&gt;=2,AL!CU19,
 IF(COUNTIF(AL!CQ23:CT23,"W")&lt;2,IF(AL!CU19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CV27" s="2" t="str">
         <f>IF(AL!CV19="","",
 IF(AL!CV19="N","N",
 IF(COUNTIF(AL!CR23:CU23,"W")&gt;=2,AL!CV19,
 IF(COUNTIF(AL!CR23:CU23,"W")&lt;2,IF(AL!CV19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CW27" s="2" t="str">
         <f>IF(AL!CW19="","",
 IF(AL!CW19="N","N",
 IF(COUNTIF(AL!CS23:CV23,"W")&gt;=2,AL!CW19,
 IF(COUNTIF(AL!CS23:CV23,"W")&lt;2,IF(AL!CW19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CX27" s="2" t="str">
         <f>IF(AL!CX19="","",
@@ -19015,28 +19001,28 @@
 IF(AL!FN19="N","N",
 IF(COUNTIF(AL!FJ23:FM23,"W")&gt;=2,AL!FN19,
 IF(COUNTIF(AL!FJ23:FM23,"W")&lt;2,IF(AL!FN19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO27" s="2" t="str">
         <f>IF(AL!FO19="","",
 IF(AL!FO19="N","N",
 IF(COUNTIF(AL!FK23:FN23,"W")&gt;=2,AL!FO19,
 IF(COUNTIF(AL!FK23:FN23,"W")&lt;2,IF(AL!FO19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP27" s="2" t="str">
         <f>IF(AL!FP19="","",
 IF(AL!FP19="N","N",
 IF(COUNTIF(AL!FL23:FO23,"W")&gt;=2,AL!FP19,
 IF(COUNTIF(AL!FL23:FO23,"W")&lt;2,IF(AL!FP19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ27" s="2" t="str">
         <f>IF(AL!FQ19="","",
 IF(AL!FQ19="N","N",
 IF(COUNTIF(AL!FM23:FP23,"W")&gt;=2,AL!FQ19,
 IF(COUNTIF(AL!FM23:FP23,"W")&lt;2,IF(AL!FQ19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR27" s="2" t="str">
         <f>IF(AL!FR19="","",
@@ -19050,49 +19036,49 @@
 IF(AL!FS19="N","N",
 IF(COUNTIF(AL!FO23:FR23,"W")&gt;=2,AL!FS19,
 IF(COUNTIF(AL!FO23:FR23,"W")&lt;2,IF(AL!FS19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FT27" s="2" t="str">
         <f>IF(AL!FT19="","",
 IF(AL!FT19="N","N",
 IF(COUNTIF(AL!FP23:FS23,"W")&gt;=2,AL!FT19,
 IF(COUNTIF(AL!FP23:FS23,"W")&lt;2,IF(AL!FT19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FU27" s="2" t="str">
         <f>IF(AL!FU19="","",
 IF(AL!FU19="N","N",
 IF(COUNTIF(AL!FQ23:FT23,"W")&gt;=2,AL!FU19,
 IF(COUNTIF(AL!FQ23:FT23,"W")&lt;2,IF(AL!FU19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FV27" s="2" t="str">
         <f>IF(AL!FV19="","",
 IF(AL!FV19="N","N",
 IF(COUNTIF(AL!FR23:FU23,"W")&gt;=2,AL!FV19,
 IF(COUNTIF(AL!FR23:FU23,"W")&lt;2,IF(AL!FV19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FW27" s="2" t="str">
         <f>IF(AL!FW19="","",
 IF(AL!FW19="N","N",
 IF(COUNTIF(AL!FS23:FV23,"W")&gt;=2,AL!FW19,
 IF(COUNTIF(AL!FS23:FV23,"W")&lt;2,IF(AL!FW19="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FX27" s="2" t="str">
         <f>IF(AL!FX19="","",
 IF(AL!FX19="N","N",
 IF(COUNTIF(AL!FT23:FW23,"W")&gt;=2,AL!FX19,
 IF(COUNTIF(AL!FT23:FW23,"W")&lt;2,IF(AL!FX19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FY27" s="2" t="str">
         <f>IF(AL!FY19="","",
 IF(AL!FY19="N","N",
 IF(COUNTIF(AL!FU23:FX23,"W")&gt;=2,AL!FY19,
 IF(COUNTIF(AL!FU23:FX23,"W")&lt;2,IF(AL!FY19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FZ27" s="2" t="str">
         <f>IF(AL!FZ19="","",
@@ -20457,7 +20443,7 @@
         <f>IF(DATA!I$3="","",
 IF(I27="","",
 IF(I27="N","N",IF(DATA!I$3=I27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -20481,49 +20467,49 @@
         <f>IF(DATA!M$3="","",
 IF(M27="","",
 IF(M27="N","N",IF(DATA!M$3=M27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N27="","",
 IF(N27="N","N",IF(DATA!N$3=N27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O27="","",
 IF(O27="N","N",IF(DATA!O$3=O27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P27="","",
 IF(P27="N","N",IF(DATA!P$3=P27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q27="","",
 IF(Q27="N","N",IF(DATA!Q$3=Q27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R27="","",
 IF(R27="N","N",IF(DATA!R$3=R27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S31" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S27="","",
 IF(S27="N","N",IF(DATA!S$3=S27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T31" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T27="","",
 IF(T27="N","N",IF(DATA!T$3=T27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U31" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -20909,19 +20895,19 @@
         <f>IF(DATA!I$3="","",
 IF(CK27="","",
 IF(CK27="N","N",IF(DATA!I$3=CK27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL31" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL27="","",
 IF(CL27="N","N",IF(DATA!J$3=CL27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM31" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM27="","",
 IF(CM27="N","N",IF(DATA!K$3=CM27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -20933,49 +20919,49 @@
         <f>IF(DATA!M$3="","",
 IF(CO27="","",
 IF(CO27="N","N",IF(DATA!M$3=CO27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP31" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP27="","",
 IF(CP27="N","N",IF(DATA!N$3=CP27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CQ31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ27="","",
 IF(CQ27="N","N",IF(DATA!O$3=CQ27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CR31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR27="","",
 IF(CR27="N","N",IF(DATA!P$3=CR27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CS31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS27="","",
 IF(CS27="N","N",IF(DATA!Q$3=CS27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CT31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT27="","",
 IF(CT27="N","N",IF(DATA!R$3=CT27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CU31" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU27="","",
 IF(CU27="N","N",IF(DATA!S$3=CU27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CV31" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV27="","",
 IF(CV27="N","N",IF(DATA!T$3=CV27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CW31" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -21366,13 +21352,13 @@
         <f>IF(DATA!J$3="","",
 IF(FN27="","",
 IF(FN27="N","N",IF(DATA!J$3=FN27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO31" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(FO27="","",
 IF(FO27="N","N",IF(DATA!K$3=FO27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -21384,49 +21370,49 @@
         <f>IF(DATA!M$3="","",
 IF(FQ27="","",
 IF(FQ27="N","N",IF(DATA!M$3=FQ27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FR31" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR27="","",
 IF(FR27="N","N",IF(DATA!N$3=FR27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FS31" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS27="","",
 IF(FS27="N","N",IF(DATA!O$3=FS27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FT31" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT27="","",
 IF(FT27="N","N",IF(DATA!P$3=FT27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FU31" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU27="","",
 IF(FU27="N","N",IF(DATA!Q$3=FU27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FV31" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV27="","",
 IF(FV27="N","N",IF(DATA!R$3=FV27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FW31" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW27="","",
 IF(FW27="N","N",IF(DATA!S$3=FW27,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FX31" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX27="","",
 IF(FX27="N","N",IF(DATA!T$3=FX27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FY31" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -22718,14 +22704,14 @@
 IF(AL!H27="N","N",
 IF(COUNTIF(AL!D31:G31,"W")&gt;=2,AL!H27,
 IF(COUNTIF(AL!D31:G31,"W")&lt;2,IF(AL!H27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>IF(AL!I27="","",
 IF(AL!I27="N","N",
 IF(COUNTIF(AL!E31:H31,"W")&gt;=2,AL!I27,
 IF(COUNTIF(AL!E31:H31,"W")&lt;2,IF(AL!I27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J35" s="2" t="str">
         <f>IF(AL!J27="","",
@@ -22739,7 +22725,7 @@
 IF(AL!K27="N","N",
 IF(COUNTIF(AL!G31:J31,"W")&gt;=2,AL!K27,
 IF(COUNTIF(AL!G31:J31,"W")&lt;2,IF(AL!K27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L35" s="2" t="str">
         <f>IF(AL!L27="","",
@@ -22753,7 +22739,7 @@
 IF(AL!M27="N","N",
 IF(COUNTIF(AL!I31:L31,"W")&gt;=2,AL!M27,
 IF(COUNTIF(AL!I31:L31,"W")&lt;2,IF(AL!M27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N35" s="2" t="str">
         <f>IF(AL!N27="","",
@@ -22767,49 +22753,49 @@
 IF(AL!O27="N","N",
 IF(COUNTIF(AL!K31:N31,"W")&gt;=2,AL!O27,
 IF(COUNTIF(AL!K31:N31,"W")&lt;2,IF(AL!O27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P35" s="2" t="str">
         <f>IF(AL!P27="","",
 IF(AL!P27="N","N",
 IF(COUNTIF(AL!L31:O31,"W")&gt;=2,AL!P27,
 IF(COUNTIF(AL!L31:O31,"W")&lt;2,IF(AL!P27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q35" s="2" t="str">
         <f>IF(AL!Q27="","",
 IF(AL!Q27="N","N",
 IF(COUNTIF(AL!M31:P31,"W")&gt;=2,AL!Q27,
 IF(COUNTIF(AL!M31:P31,"W")&lt;2,IF(AL!Q27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R35" s="2" t="str">
         <f>IF(AL!R27="","",
 IF(AL!R27="N","N",
 IF(COUNTIF(AL!N31:Q31,"W")&gt;=2,AL!R27,
 IF(COUNTIF(AL!N31:Q31,"W")&lt;2,IF(AL!R27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S35" s="2" t="str">
         <f>IF(AL!S27="","",
 IF(AL!S27="N","N",
 IF(COUNTIF(AL!O31:R31,"W")&gt;=2,AL!S27,
 IF(COUNTIF(AL!O31:R31,"W")&lt;2,IF(AL!S27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T35" s="2" t="str">
         <f>IF(AL!T27="","",
 IF(AL!T27="N","N",
 IF(COUNTIF(AL!P31:S31,"W")&gt;=2,AL!T27,
 IF(COUNTIF(AL!P31:S31,"W")&lt;2,IF(AL!T27="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U35" s="2" t="str">
         <f>IF(AL!U27="","",
 IF(AL!U27="N","N",
 IF(COUNTIF(AL!Q31:T31,"W")&gt;=2,AL!U27,
 IF(COUNTIF(AL!Q31:T31,"W")&lt;2,IF(AL!U27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V35" s="2" t="str">
         <f>IF(AL!V27="","",
@@ -23222,21 +23208,21 @@
 IF(AL!CK27="N","N",
 IF(COUNTIF(AL!CG31:CJ31,"W")&gt;=2,AL!CK27,
 IF(COUNTIF(AL!CG31:CJ31,"W")&lt;2,IF(AL!CK27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL35" s="2" t="str">
         <f>IF(AL!CL27="","",
 IF(AL!CL27="N","N",
 IF(COUNTIF(AL!CH31:CK31,"W")&gt;=2,AL!CL27,
 IF(COUNTIF(AL!CH31:CK31,"W")&lt;2,IF(AL!CL27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM35" s="2" t="str">
         <f>IF(AL!CM27="","",
 IF(AL!CM27="N","N",
 IF(COUNTIF(AL!CI31:CL31,"W")&gt;=2,AL!CM27,
 IF(COUNTIF(AL!CI31:CL31,"W")&lt;2,IF(AL!CM27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN35" s="2" t="str">
         <f>IF(AL!CN27="","",
@@ -23250,63 +23236,63 @@
 IF(AL!CO27="N","N",
 IF(COUNTIF(AL!CK31:CN31,"W")&gt;=2,AL!CO27,
 IF(COUNTIF(AL!CK31:CN31,"W")&lt;2,IF(AL!CO27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP35" s="2" t="str">
         <f>IF(AL!CP27="","",
 IF(AL!CP27="N","N",
 IF(COUNTIF(AL!CL31:CO31,"W")&gt;=2,AL!CP27,
 IF(COUNTIF(AL!CL31:CO31,"W")&lt;2,IF(AL!CP27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ35" s="2" t="str">
         <f>IF(AL!CQ27="","",
 IF(AL!CQ27="N","N",
 IF(COUNTIF(AL!CM31:CP31,"W")&gt;=2,AL!CQ27,
 IF(COUNTIF(AL!CM31:CP31,"W")&lt;2,IF(AL!CQ27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CR35" s="2" t="str">
         <f>IF(AL!CR27="","",
 IF(AL!CR27="N","N",
 IF(COUNTIF(AL!CN31:CQ31,"W")&gt;=2,AL!CR27,
 IF(COUNTIF(AL!CN31:CQ31,"W")&lt;2,IF(AL!CR27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CS35" s="2" t="str">
         <f>IF(AL!CS27="","",
 IF(AL!CS27="N","N",
 IF(COUNTIF(AL!CO31:CR31,"W")&gt;=2,AL!CS27,
 IF(COUNTIF(AL!CO31:CR31,"W")&lt;2,IF(AL!CS27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CT35" s="2" t="str">
         <f>IF(AL!CT27="","",
 IF(AL!CT27="N","N",
 IF(COUNTIF(AL!CP31:CS31,"W")&gt;=2,AL!CT27,
 IF(COUNTIF(AL!CP31:CS31,"W")&lt;2,IF(AL!CT27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CU35" s="2" t="str">
         <f>IF(AL!CU27="","",
 IF(AL!CU27="N","N",
 IF(COUNTIF(AL!CQ31:CT31,"W")&gt;=2,AL!CU27,
 IF(COUNTIF(AL!CQ31:CT31,"W")&lt;2,IF(AL!CU27="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CV35" s="2" t="str">
         <f>IF(AL!CV27="","",
 IF(AL!CV27="N","N",
 IF(COUNTIF(AL!CR31:CU31,"W")&gt;=2,AL!CV27,
 IF(COUNTIF(AL!CR31:CU31,"W")&lt;2,IF(AL!CV27="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CW35" s="2" t="str">
         <f>IF(AL!CW27="","",
 IF(AL!CW27="N","N",
 IF(COUNTIF(AL!CS31:CV31,"W")&gt;=2,AL!CW27,
 IF(COUNTIF(AL!CS31:CV31,"W")&lt;2,IF(AL!CW27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CX35" s="2" t="str">
         <f>IF(AL!CX27="","",
@@ -23722,14 +23708,14 @@
 IF(AL!FN27="N","N",
 IF(COUNTIF(AL!FJ31:FM31,"W")&gt;=2,AL!FN27,
 IF(COUNTIF(AL!FJ31:FM31,"W")&lt;2,IF(AL!FN27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO35" s="2" t="str">
         <f>IF(AL!FO27="","",
 IF(AL!FO27="N","N",
 IF(COUNTIF(AL!FK31:FN31,"W")&gt;=2,AL!FO27,
 IF(COUNTIF(AL!FK31:FN31,"W")&lt;2,IF(AL!FO27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP35" s="2" t="str">
         <f>IF(AL!FP27="","",
@@ -23750,56 +23736,56 @@
 IF(AL!FR27="N","N",
 IF(COUNTIF(AL!FN31:FQ31,"W")&gt;=2,AL!FR27,
 IF(COUNTIF(AL!FN31:FQ31,"W")&lt;2,IF(AL!FR27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS35" s="2" t="str">
         <f>IF(AL!FS27="","",
 IF(AL!FS27="N","N",
 IF(COUNTIF(AL!FO31:FR31,"W")&gt;=2,AL!FS27,
 IF(COUNTIF(AL!FO31:FR31,"W")&lt;2,IF(AL!FS27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FT35" s="2" t="str">
         <f>IF(AL!FT27="","",
 IF(AL!FT27="N","N",
 IF(COUNTIF(AL!FP31:FS31,"W")&gt;=2,AL!FT27,
 IF(COUNTIF(AL!FP31:FS31,"W")&lt;2,IF(AL!FT27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FU35" s="2" t="str">
         <f>IF(AL!FU27="","",
 IF(AL!FU27="N","N",
 IF(COUNTIF(AL!FQ31:FT31,"W")&gt;=2,AL!FU27,
 IF(COUNTIF(AL!FQ31:FT31,"W")&lt;2,IF(AL!FU27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FV35" s="2" t="str">
         <f>IF(AL!FV27="","",
 IF(AL!FV27="N","N",
 IF(COUNTIF(AL!FR31:FU31,"W")&gt;=2,AL!FV27,
 IF(COUNTIF(AL!FR31:FU31,"W")&lt;2,IF(AL!FV27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FW35" s="2" t="str">
         <f>IF(AL!FW27="","",
 IF(AL!FW27="N","N",
 IF(COUNTIF(AL!FS31:FV31,"W")&gt;=2,AL!FW27,
 IF(COUNTIF(AL!FS31:FV31,"W")&lt;2,IF(AL!FW27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FX35" s="2" t="str">
         <f>IF(AL!FX27="","",
 IF(AL!FX27="N","N",
 IF(COUNTIF(AL!FT31:FW31,"W")&gt;=2,AL!FX27,
 IF(COUNTIF(AL!FT31:FW31,"W")&lt;2,IF(AL!FX27="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FY35" s="2" t="str">
         <f>IF(AL!FY27="","",
 IF(AL!FY27="N","N",
 IF(COUNTIF(AL!FU31:FX31,"W")&gt;=2,AL!FY27,
 IF(COUNTIF(AL!FU31:FX31,"W")&lt;2,IF(AL!FY27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FZ35" s="2" t="str">
         <f>IF(AL!FZ27="","",
@@ -25164,7 +25150,7 @@
         <f>IF(DATA!I$3="","",
 IF(I35="","",
 IF(I35="N","N",IF(DATA!I$3=I35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -25176,7 +25162,7 @@
         <f>IF(DATA!K$3="","",
 IF(K35="","",
 IF(K35="N","N",IF(DATA!K$3=K35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -25194,43 +25180,43 @@
         <f>IF(DATA!N$3="","",
 IF(N35="","",
 IF(N35="N","N",IF(DATA!N$3=N35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O39" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O35="","",
 IF(O35="N","N",IF(DATA!O$3=O35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P35="","",
 IF(P35="N","N",IF(DATA!P$3=P35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q35="","",
 IF(Q35="N","N",IF(DATA!Q$3=Q35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R35="","",
 IF(R35="N","N",IF(DATA!R$3=R35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S39" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S35="","",
 IF(S35="N","N",IF(DATA!S$3=S35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T39" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T35="","",
 IF(T35="N","N",IF(DATA!T$3=T35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U39" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -25616,73 +25602,73 @@
         <f>IF(DATA!I$3="","",
 IF(CK35="","",
 IF(CK35="N","N",IF(DATA!I$3=CK35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL39" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL35="","",
 IF(CL35="N","N",IF(DATA!J$3=CL35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM39" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM35="","",
 IF(CM35="N","N",IF(DATA!K$3=CM35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN39" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN35="","",
 IF(CN35="N","N",IF(DATA!L$3=CN35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO39" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO35="","",
 IF(CO35="N","N",IF(DATA!M$3=CO35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP35="","",
 IF(CP35="N","N",IF(DATA!N$3=CP35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CQ39" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ35="","",
 IF(CQ35="N","N",IF(DATA!O$3=CQ35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CR39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR35="","",
 IF(CR35="N","N",IF(DATA!P$3=CR35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CS39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS35="","",
 IF(CS35="N","N",IF(DATA!Q$3=CS35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CT39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT35="","",
 IF(CT35="N","N",IF(DATA!R$3=CT35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CU39" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU35="","",
 IF(CU35="N","N",IF(DATA!S$3=CU35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CV39" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV35="","",
 IF(CV35="N","N",IF(DATA!T$3=CV35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CW39" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -26073,67 +26059,67 @@
         <f>IF(DATA!J$3="","",
 IF(FN35="","",
 IF(FN35="N","N",IF(DATA!J$3=FN35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO39" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(FO35="","",
 IF(FO35="N","N",IF(DATA!K$3=FO35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP39" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(FP35="","",
 IF(FP35="N","N",IF(DATA!L$3=FP35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ39" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ35="","",
 IF(FQ35="N","N",IF(DATA!M$3=FQ35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FR39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR35="","",
 IF(FR35="N","N",IF(DATA!N$3=FR35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FS39" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS35="","",
 IF(FS35="N","N",IF(DATA!O$3=FS35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FT39" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT35="","",
 IF(FT35="N","N",IF(DATA!P$3=FT35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FU39" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU35="","",
 IF(FU35="N","N",IF(DATA!Q$3=FU35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FV39" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV35="","",
 IF(FV35="N","N",IF(DATA!R$3=FV35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FW39" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW35="","",
 IF(FW35="N","N",IF(DATA!S$3=FW35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FX39" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX35="","",
 IF(FX35="N","N",IF(DATA!T$3=FX35,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FY39" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -27425,21 +27411,21 @@
 IF(AL!H35="N","N",
 IF(COUNTIF(AL!D39:G39,"W")&gt;=2,AL!H35,
 IF(COUNTIF(AL!D39:G39,"W")&lt;2,IF(AL!H35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>IF(AL!I35="","",
 IF(AL!I35="N","N",
 IF(COUNTIF(AL!E39:H39,"W")&gt;=2,AL!I35,
 IF(COUNTIF(AL!E39:H39,"W")&lt;2,IF(AL!I35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(AL!J35="","",
 IF(AL!J35="N","N",
 IF(COUNTIF(AL!F39:I39,"W")&gt;=2,AL!J35,
 IF(COUNTIF(AL!F39:I39,"W")&lt;2,IF(AL!J35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(AL!K35="","",
@@ -27453,7 +27439,7 @@
 IF(AL!L35="N","N",
 IF(COUNTIF(AL!H39:K39,"W")&gt;=2,AL!L35,
 IF(COUNTIF(AL!H39:K39,"W")&lt;2,IF(AL!L35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M43" s="2" t="str">
         <f>IF(AL!M35="","",
@@ -27474,49 +27460,49 @@
 IF(AL!O35="N","N",
 IF(COUNTIF(AL!K39:N39,"W")&gt;=2,AL!O35,
 IF(COUNTIF(AL!K39:N39,"W")&lt;2,IF(AL!O35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P43" s="2" t="str">
         <f>IF(AL!P35="","",
 IF(AL!P35="N","N",
 IF(COUNTIF(AL!L39:O39,"W")&gt;=2,AL!P35,
 IF(COUNTIF(AL!L39:O39,"W")&lt;2,IF(AL!P35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q43" s="2" t="str">
         <f>IF(AL!Q35="","",
 IF(AL!Q35="N","N",
 IF(COUNTIF(AL!M39:P39,"W")&gt;=2,AL!Q35,
 IF(COUNTIF(AL!M39:P39,"W")&lt;2,IF(AL!Q35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R43" s="2" t="str">
         <f>IF(AL!R35="","",
 IF(AL!R35="N","N",
 IF(COUNTIF(AL!N39:Q39,"W")&gt;=2,AL!R35,
 IF(COUNTIF(AL!N39:Q39,"W")&lt;2,IF(AL!R35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S43" s="2" t="str">
         <f>IF(AL!S35="","",
 IF(AL!S35="N","N",
 IF(COUNTIF(AL!O39:R39,"W")&gt;=2,AL!S35,
 IF(COUNTIF(AL!O39:R39,"W")&lt;2,IF(AL!S35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T43" s="2" t="str">
         <f>IF(AL!T35="","",
 IF(AL!T35="N","N",
 IF(COUNTIF(AL!P39:S39,"W")&gt;=2,AL!T35,
 IF(COUNTIF(AL!P39:S39,"W")&lt;2,IF(AL!T35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U43" s="2" t="str">
         <f>IF(AL!U35="","",
 IF(AL!U35="N","N",
 IF(COUNTIF(AL!Q39:T39,"W")&gt;=2,AL!U35,
 IF(COUNTIF(AL!Q39:T39,"W")&lt;2,IF(AL!U35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="V43" s="2" t="str">
         <f>IF(AL!V35="","",
@@ -27929,28 +27915,28 @@
 IF(AL!CK35="N","N",
 IF(COUNTIF(AL!CG39:CJ39,"W")&gt;=2,AL!CK35,
 IF(COUNTIF(AL!CG39:CJ39,"W")&lt;2,IF(AL!CK35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL43" s="2" t="str">
         <f>IF(AL!CL35="","",
 IF(AL!CL35="N","N",
 IF(COUNTIF(AL!CH39:CK39,"W")&gt;=2,AL!CL35,
 IF(COUNTIF(AL!CH39:CK39,"W")&lt;2,IF(AL!CL35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CM43" s="2" t="str">
         <f>IF(AL!CM35="","",
 IF(AL!CM35="N","N",
 IF(COUNTIF(AL!CI39:CL39,"W")&gt;=2,AL!CM35,
 IF(COUNTIF(AL!CI39:CL39,"W")&lt;2,IF(AL!CM35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN43" s="2" t="str">
         <f>IF(AL!CN35="","",
 IF(AL!CN35="N","N",
 IF(COUNTIF(AL!CJ39:CM39,"W")&gt;=2,AL!CN35,
 IF(COUNTIF(AL!CJ39:CM39,"W")&lt;2,IF(AL!CN35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO43" s="2" t="str">
         <f>IF(AL!CO35="","",
@@ -27971,49 +27957,49 @@
 IF(AL!CQ35="N","N",
 IF(COUNTIF(AL!CM39:CP39,"W")&gt;=2,AL!CQ35,
 IF(COUNTIF(AL!CM39:CP39,"W")&lt;2,IF(AL!CQ35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CR43" s="2" t="str">
         <f>IF(AL!CR35="","",
 IF(AL!CR35="N","N",
 IF(COUNTIF(AL!CN39:CQ39,"W")&gt;=2,AL!CR35,
 IF(COUNTIF(AL!CN39:CQ39,"W")&lt;2,IF(AL!CR35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CS43" s="2" t="str">
         <f>IF(AL!CS35="","",
 IF(AL!CS35="N","N",
 IF(COUNTIF(AL!CO39:CR39,"W")&gt;=2,AL!CS35,
 IF(COUNTIF(AL!CO39:CR39,"W")&lt;2,IF(AL!CS35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CT43" s="2" t="str">
         <f>IF(AL!CT35="","",
 IF(AL!CT35="N","N",
 IF(COUNTIF(AL!CP39:CS39,"W")&gt;=2,AL!CT35,
 IF(COUNTIF(AL!CP39:CS39,"W")&lt;2,IF(AL!CT35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CU43" s="2" t="str">
         <f>IF(AL!CU35="","",
 IF(AL!CU35="N","N",
 IF(COUNTIF(AL!CQ39:CT39,"W")&gt;=2,AL!CU35,
 IF(COUNTIF(AL!CQ39:CT39,"W")&lt;2,IF(AL!CU35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CV43" s="2" t="str">
         <f>IF(AL!CV35="","",
 IF(AL!CV35="N","N",
 IF(COUNTIF(AL!CR39:CU39,"W")&gt;=2,AL!CV35,
 IF(COUNTIF(AL!CR39:CU39,"W")&lt;2,IF(AL!CV35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CW43" s="2" t="str">
         <f>IF(AL!CW35="","",
 IF(AL!CW35="N","N",
 IF(COUNTIF(AL!CS39:CV39,"W")&gt;=2,AL!CW35,
 IF(COUNTIF(AL!CS39:CV39,"W")&lt;2,IF(AL!CW35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CX43" s="2" t="str">
         <f>IF(AL!CX35="","",
@@ -28429,28 +28415,28 @@
 IF(AL!FN35="N","N",
 IF(COUNTIF(AL!FJ39:FM39,"W")&gt;=2,AL!FN35,
 IF(COUNTIF(AL!FJ39:FM39,"W")&lt;2,IF(AL!FN35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO43" s="2" t="str">
         <f>IF(AL!FO35="","",
 IF(AL!FO35="N","N",
 IF(COUNTIF(AL!FK39:FN39,"W")&gt;=2,AL!FO35,
 IF(COUNTIF(AL!FK39:FN39,"W")&lt;2,IF(AL!FO35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP43" s="2" t="str">
         <f>IF(AL!FP35="","",
 IF(AL!FP35="N","N",
 IF(COUNTIF(AL!FL39:FO39,"W")&gt;=2,AL!FP35,
 IF(COUNTIF(AL!FL39:FO39,"W")&lt;2,IF(AL!FP35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ43" s="2" t="str">
         <f>IF(AL!FQ35="","",
 IF(AL!FQ35="N","N",
 IF(COUNTIF(AL!FM39:FP39,"W")&gt;=2,AL!FQ35,
 IF(COUNTIF(AL!FM39:FP39,"W")&lt;2,IF(AL!FQ35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR43" s="2" t="str">
         <f>IF(AL!FR35="","",
@@ -28464,49 +28450,49 @@
 IF(AL!FS35="N","N",
 IF(COUNTIF(AL!FO39:FR39,"W")&gt;=2,AL!FS35,
 IF(COUNTIF(AL!FO39:FR39,"W")&lt;2,IF(AL!FS35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FT43" s="2" t="str">
         <f>IF(AL!FT35="","",
 IF(AL!FT35="N","N",
 IF(COUNTIF(AL!FP39:FS39,"W")&gt;=2,AL!FT35,
 IF(COUNTIF(AL!FP39:FS39,"W")&lt;2,IF(AL!FT35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FU43" s="2" t="str">
         <f>IF(AL!FU35="","",
 IF(AL!FU35="N","N",
 IF(COUNTIF(AL!FQ39:FT39,"W")&gt;=2,AL!FU35,
 IF(COUNTIF(AL!FQ39:FT39,"W")&lt;2,IF(AL!FU35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FV43" s="2" t="str">
         <f>IF(AL!FV35="","",
 IF(AL!FV35="N","N",
 IF(COUNTIF(AL!FR39:FU39,"W")&gt;=2,AL!FV35,
 IF(COUNTIF(AL!FR39:FU39,"W")&lt;2,IF(AL!FV35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FW43" s="2" t="str">
         <f>IF(AL!FW35="","",
 IF(AL!FW35="N","N",
 IF(COUNTIF(AL!FS39:FV39,"W")&gt;=2,AL!FW35,
 IF(COUNTIF(AL!FS39:FV39,"W")&lt;2,IF(AL!FW35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FX43" s="2" t="str">
         <f>IF(AL!FX35="","",
 IF(AL!FX35="N","N",
 IF(COUNTIF(AL!FT39:FW39,"W")&gt;=2,AL!FX35,
 IF(COUNTIF(AL!FT39:FW39,"W")&lt;2,IF(AL!FX35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FY43" s="2" t="str">
         <f>IF(AL!FY35="","",
 IF(AL!FY35="N","N",
 IF(COUNTIF(AL!FU39:FX39,"W")&gt;=2,AL!FY35,
 IF(COUNTIF(AL!FU39:FX39,"W")&lt;2,IF(AL!FY35="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FZ43" s="2" t="str">
         <f>IF(AL!FZ35="","",
@@ -29871,13 +29857,13 @@
         <f>IF(DATA!I$3="","",
 IF(I43="","",
 IF(I43="N","N",IF(DATA!I$3=I43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J47" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J43="","",
 IF(J43="N","N",IF(DATA!J$3=J43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K47" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -29889,7 +29875,7 @@
         <f>IF(DATA!L$3="","",
 IF(L43="","",
 IF(L43="N","N",IF(DATA!L$3=L43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M47" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -29901,43 +29887,43 @@
         <f>IF(DATA!N$3="","",
 IF(N43="","",
 IF(N43="N","N",IF(DATA!N$3=N43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O43="","",
 IF(O43="N","N",IF(DATA!O$3=O43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P43="","",
 IF(P43="N","N",IF(DATA!P$3=P43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q43="","",
 IF(Q43="N","N",IF(DATA!Q$3=Q43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R43="","",
 IF(R43="N","N",IF(DATA!R$3=R43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S47" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S43="","",
 IF(S43="N","N",IF(DATA!S$3=S43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T47" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T43="","",
 IF(T43="N","N",IF(DATA!T$3=T43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U47" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -30323,25 +30309,25 @@
         <f>IF(DATA!I$3="","",
 IF(CK43="","",
 IF(CK43="N","N",IF(DATA!I$3=CK43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL47" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL43="","",
 IF(CL43="N","N",IF(DATA!J$3=CL43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM47" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM43="","",
 IF(CM43="N","N",IF(DATA!K$3=CM43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN47" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN43="","",
 IF(CN43="N","N",IF(DATA!L$3=CN43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO47" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -30353,43 +30339,43 @@
         <f>IF(DATA!N$3="","",
 IF(CP43="","",
 IF(CP43="N","N",IF(DATA!N$3=CP43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CQ47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ43="","",
 IF(CQ43="N","N",IF(DATA!O$3=CQ43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CR47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR43="","",
 IF(CR43="N","N",IF(DATA!P$3=CR43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CS47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS43="","",
 IF(CS43="N","N",IF(DATA!Q$3=CS43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CT47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT43="","",
 IF(CT43="N","N",IF(DATA!R$3=CT43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CU47" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU43="","",
 IF(CU43="N","N",IF(DATA!S$3=CU43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CV47" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV43="","",
 IF(CV43="N","N",IF(DATA!T$3=CV43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CW47" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -30780,19 +30766,19 @@
         <f>IF(DATA!J$3="","",
 IF(FN43="","",
 IF(FN43="N","N",IF(DATA!J$3=FN43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO47" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(FO43="","",
 IF(FO43="N","N",IF(DATA!K$3=FO43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP47" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(FP43="","",
 IF(FP43="N","N",IF(DATA!L$3=FP43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ47" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -30804,43 +30790,43 @@
         <f>IF(DATA!N$3="","",
 IF(FR43="","",
 IF(FR43="N","N",IF(DATA!N$3=FR43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FS47" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS43="","",
 IF(FS43="N","N",IF(DATA!O$3=FS43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FT47" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT43="","",
 IF(FT43="N","N",IF(DATA!P$3=FT43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FU47" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU43="","",
 IF(FU43="N","N",IF(DATA!Q$3=FU43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FV47" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV43="","",
 IF(FV43="N","N",IF(DATA!R$3=FV43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FW47" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW43="","",
 IF(FW43="N","N",IF(DATA!S$3=FW43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FX47" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX43="","",
 IF(FX43="N","N",IF(DATA!T$3=FX43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FY47" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -32160,31 +32146,31 @@
       </c>
       <c r="N51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>R</v>
+        <v/>
       </c>
       <c r="R51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -32459,7 +32445,7 @@
       </c>
       <c r="CN51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="CO51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32467,31 +32453,31 @@
       </c>
       <c r="CP51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CQ51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CR51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CS51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CT51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CV51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CW51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32773,31 +32759,31 @@
       </c>
       <c r="FR51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FS51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FT51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FX51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FY51" s="2" t="str">
         <f t="shared" si="9"/>
@@ -33089,31 +33075,31 @@
       </c>
       <c r="O52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V52" s="2" t="str">
         <f t="shared" si="12"/>
@@ -33396,39 +33382,39 @@
       </c>
       <c r="CO52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CP52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CR52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CS52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CT52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CV52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CW52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CX52" s="2" t="str">
         <f t="shared" si="15"/>
@@ -33718,31 +33704,31 @@
       </c>
       <c r="FS52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FT52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FX52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FY52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FZ52" s="2" t="str">
         <f t="shared" si="18"/>
@@ -34983,43 +34969,43 @@
         <f>IF(DATA!N$3="","",
 IF(N52="","",
 IF(N52="N","N",IF(DATA!N$3=N52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O56" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O52="","",
 IF(O52="N","N",IF(DATA!O$3=O52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P52="","",
 IF(P52="N","N",IF(DATA!P$3=P52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q52="","",
 IF(Q52="N","N",IF(DATA!Q$3=Q52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R52="","",
 IF(R52="N","N",IF(DATA!R$3=R52,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S56" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S52="","",
 IF(S52="N","N",IF(DATA!S$3=S52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T56" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T52="","",
 IF(T52="N","N",IF(DATA!T$3=T52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U56" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -35435,43 +35421,43 @@
         <f>IF(DATA!N$3="","",
 IF(CP52="","",
 IF(CP52="N","N",IF(DATA!N$3=CP52,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CQ56" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ52="","",
 IF(CQ52="N","N",IF(DATA!O$3=CQ52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CR56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR52="","",
 IF(CR52="N","N",IF(DATA!P$3=CR52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CS56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS52="","",
 IF(CS52="N","N",IF(DATA!Q$3=CS52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CT56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT52="","",
 IF(CT52="N","N",IF(DATA!R$3=CT52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU56" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU52="","",
 IF(CU52="N","N",IF(DATA!S$3=CU52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CV56" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV52="","",
 IF(CV52="N","N",IF(DATA!T$3=CV52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CW56" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -35886,43 +35872,43 @@
         <f>IF(DATA!N$3="","",
 IF(FR52="","",
 IF(FR52="N","N",IF(DATA!N$3=FR52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FS56" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS52="","",
 IF(FS52="N","N",IF(DATA!O$3=FS52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FT56" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT52="","",
 IF(FT52="N","N",IF(DATA!P$3=FT52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU56" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU52="","",
 IF(FU52="N","N",IF(DATA!Q$3=FU52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV56" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV52="","",
 IF(FV52="N","N",IF(DATA!R$3=FV52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW56" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW52="","",
 IF(FW52="N","N",IF(DATA!S$3=FW52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FX56" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX52="","",
 IF(FX52="N","N",IF(DATA!T$3=FX52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FY56" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -36953,39 +36939,39 @@
       </c>
       <c r="M60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -37787,43 +37773,43 @@
         <f>IF(DATA!N$3="","",
 IF(N60="","",
 IF(N60="N","N",IF(DATA!N$3=N60,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O64" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O60="","",
 IF(O60="N","N",IF(DATA!O$3=O60,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P64" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P60="","",
 IF(P60="N","N",IF(DATA!P$3=P60,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q64" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q60="","",
 IF(Q60="N","N",IF(DATA!Q$3=Q60,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R64" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R60="","",
 IF(R60="N","N",IF(DATA!R$3=R60,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S64" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S60="","",
 IF(S60="N","N",IF(DATA!S$3=S60,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T64" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T60="","",
 IF(T60="N","N",IF(DATA!T$3=T60,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U64" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -39143,31 +39129,31 @@
       </c>
       <c r="N68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>F</v>
+        <v/>
       </c>
       <c r="R68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="T68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U68" s="2" t="str">
         <f t="shared" si="24"/>
@@ -39442,7 +39428,7 @@
       </c>
       <c r="CN68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="CO68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39450,31 +39436,31 @@
       </c>
       <c r="CP68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CQ68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CR68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CS68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CT68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CV68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CW68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39756,31 +39742,31 @@
       </c>
       <c r="FR68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FS68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FT68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FX68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FY68" s="2" t="str">
         <f t="shared" si="30"/>
@@ -40072,31 +40058,31 @@
       </c>
       <c r="O69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V69" s="2" t="str">
         <f t="shared" si="33"/>
@@ -40379,39 +40365,39 @@
       </c>
       <c r="CO69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="CQ69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CR69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CS69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CT69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CV69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CW69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CX69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40701,31 +40687,31 @@
       </c>
       <c r="FS69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FT69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FX69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FY69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FZ69" s="2" t="str">
         <f t="shared" si="39"/>
@@ -41966,43 +41952,43 @@
         <f>IF(DATA!N$3="","",
 IF(N69="","",
 IF(N69="N","N",IF(DATA!N$3=N69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O73" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O69="","",
 IF(O69="N","N",IF(DATA!O$3=O69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P69="","",
 IF(P69="N","N",IF(DATA!P$3=P69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q69="","",
 IF(Q69="N","N",IF(DATA!Q$3=Q69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R69="","",
 IF(R69="N","N",IF(DATA!R$3=R69,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S73" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S69="","",
 IF(S69="N","N",IF(DATA!S$3=S69,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T73" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T69="","",
 IF(T69="N","N",IF(DATA!T$3=T69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U73" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -42412,49 +42398,49 @@
         <f>IF(DATA!M$3="","",
 IF(CO69="","",
 IF(CO69="N","N",IF(DATA!M$3=CO69,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP73" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP69="","",
 IF(CP69="N","N",IF(DATA!N$3=CP69,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CQ73" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(CQ69="","",
 IF(CQ69="N","N",IF(DATA!O$3=CQ69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CR73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(CR69="","",
 IF(CR69="N","N",IF(DATA!P$3=CR69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CS73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(CS69="","",
 IF(CS69="N","N",IF(DATA!Q$3=CS69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CT73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(CT69="","",
 IF(CT69="N","N",IF(DATA!R$3=CT69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CU73" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(CU69="","",
 IF(CU69="N","N",IF(DATA!S$3=CU69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CV73" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(CV69="","",
 IF(CV69="N","N",IF(DATA!T$3=CV69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CW73" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -42869,43 +42855,43 @@
         <f>IF(DATA!N$3="","",
 IF(FR69="","",
 IF(FR69="N","N",IF(DATA!N$3=FR69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FS73" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(FS69="","",
 IF(FS69="N","N",IF(DATA!O$3=FS69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FT73" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(FT69="","",
 IF(FT69="N","N",IF(DATA!P$3=FT69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FU73" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(FU69="","",
 IF(FU69="N","N",IF(DATA!Q$3=FU69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FV73" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(FV69="","",
 IF(FV69="N","N",IF(DATA!R$3=FV69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FW73" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(FW69="","",
 IF(FW69="N","N",IF(DATA!S$3=FW69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FX73" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(FX69="","",
 IF(FX69="N","N",IF(DATA!T$3=FX69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FY73" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -43936,39 +43922,39 @@
       </c>
       <c r="M77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="O77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -44764,49 +44750,49 @@
         <f>IF(DATA!M$3="","",
 IF(M77="","",
 IF(M77="N","N",IF(DATA!M$3=M77,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N81" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N77="","",
 IF(N77="N","N",IF(DATA!N$3=N77,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O81" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O77="","",
 IF(O77="N","N",IF(DATA!O$3=O77,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P81" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P77="","",
 IF(P77="N","N",IF(DATA!P$3=P77,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q81" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q77="","",
 IF(Q77="N","N",IF(DATA!Q$3=Q77,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R81" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R77="","",
 IF(R77="N","N",IF(DATA!R$3=R77,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S81" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S77="","",
 IF(S77="N","N",IF(DATA!S$3=S77,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T81" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T77="","",
 IF(T77="N","N",IF(DATA!T$3=T77,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U81" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -45836,37 +45822,37 @@
       <c r="N85" s="2" t="str">
         <f t="array" ref="N85">IF(AL!N97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="L", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "W"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="O85" s="2">
+        <v/>
+      </c>
+      <c r="O85" s="2" t="str">
         <f t="array" ref="O85">IF(AL!O97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:O97, 1, MAX(IF(AL!$B97:O97="L", COLUMN(AL!$B97:O97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!O97, "W"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="P85" s="2">
+        <v/>
+      </c>
+      <c r="P85" s="2" t="str">
         <f t="array" ref="P85">IF(AL!P97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:P97, 1, MAX(IF(AL!$B97:P97="L", COLUMN(AL!$B97:P97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!P97, "W"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="Q85" s="2">
+        <v/>
+      </c>
+      <c r="Q85" s="2" t="str">
         <f t="array" ref="Q85">IF(AL!Q97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:Q97, 1, MAX(IF(AL!$B97:Q97="L", COLUMN(AL!$B97:Q97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!Q97, "W"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="R85" s="2">
+        <v/>
+      </c>
+      <c r="R85" s="2" t="str">
         <f t="array" ref="R85">IF(AL!R97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:R97, 1, MAX(IF(AL!$B97:R97="L", COLUMN(AL!$B97:R97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!R97, "W"),"0"))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="S85" s="2" t="str">
         <f t="array" ref="S85">IF(AL!S97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:S97, 1, MAX(IF(AL!$B97:S97="L", COLUMN(AL!$B97:S97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!S97, "W"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="T85" s="2">
+        <v/>
+      </c>
+      <c r="T85" s="2" t="str">
         <f t="array" ref="T85">IF(AL!T97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:T97, 1, MAX(IF(AL!$B97:T97="L", COLUMN(AL!$B97:T97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!T97, "W"),"0"))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="U85" s="2" t="str">
         <f t="array" ref="U85">IF(AL!U97="","",
@@ -46679,40 +46665,40 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="W", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "L"),"0"))</f>
         <v>1</v>
       </c>
-      <c r="N89" s="2">
+      <c r="N89" s="2" t="str">
         <f t="array" ref="N89">IF(AL!N97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="W", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "L"),"0"))</f>
-        <v>2</v>
-      </c>
-      <c r="O89" s="2">
+        <v/>
+      </c>
+      <c r="O89" s="2" t="str">
         <f t="array" ref="O89">IF(AL!O97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:O97, 1, MAX(IF(AL!$B97:O97="W", COLUMN(AL!$B97:O97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!O97, "L"),"0"))</f>
-        <v>2</v>
-      </c>
-      <c r="P89" s="2">
+        <v/>
+      </c>
+      <c r="P89" s="2" t="str">
         <f t="array" ref="P89">IF(AL!P97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:P97, 1, MAX(IF(AL!$B97:P97="W", COLUMN(AL!$B97:P97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!P97, "L"),"0"))</f>
-        <v>2</v>
-      </c>
-      <c r="Q89" s="2">
+        <v/>
+      </c>
+      <c r="Q89" s="2" t="str">
         <f t="array" ref="Q89">IF(AL!Q97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:Q97, 1, MAX(IF(AL!$B97:Q97="W", COLUMN(AL!$B97:Q97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!Q97, "L"),"0"))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="R89" s="2" t="str">
         <f t="array" ref="R89">IF(AL!R97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:R97, 1, MAX(IF(AL!$B97:R97="W", COLUMN(AL!$B97:R97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!R97, "L"),"0"))</f>
-        <v>0</v>
-      </c>
-      <c r="S89" s="2">
+        <v/>
+      </c>
+      <c r="S89" s="2" t="str">
         <f t="array" ref="S89">IF(AL!S97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:S97, 1, MAX(IF(AL!$B97:S97="W", COLUMN(AL!$B97:S97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!S97, "L"),"0"))</f>
-        <v>1</v>
-      </c>
-      <c r="T89" s="2">
+        <v/>
+      </c>
+      <c r="T89" s="2" t="str">
         <f t="array" ref="T89">IF(AL!T97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:T97, 1, MAX(IF(AL!$B97:T97="W", COLUMN(AL!$B97:T97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!T97, "L"),"0"))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="U89" s="2" t="str">
         <f t="array" ref="U89">IF(AL!U97="","",
@@ -47368,47 +47354,47 @@
       <c r="M93" s="2" t="str">
         <f>IF(AL!M60="","",
 IF(OR(AL!M60="P",AL!M60="B"),AL!M60,AL!M77))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N93" s="2" t="str">
         <f>IF(AL!N60="","",
 IF(OR(AL!N60="P",AL!N60="B"),AL!N60,AL!N77))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O93" s="2" t="str">
         <f>IF(AL!O60="","",
 IF(OR(AL!O60="P",AL!O60="B"),AL!O60,AL!O77))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P93" s="2" t="str">
         <f>IF(AL!P60="","",
 IF(OR(AL!P60="P",AL!P60="B"),AL!P60,AL!P77))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q93" s="2" t="str">
         <f>IF(AL!Q60="","",
 IF(OR(AL!Q60="P",AL!Q60="B"),AL!Q60,AL!Q77))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R93" s="2" t="str">
         <f>IF(AL!R60="","",
 IF(OR(AL!R60="P",AL!R60="B"),AL!R60,AL!R77))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S93" s="2" t="str">
         <f>IF(AL!S60="","",
 IF(OR(AL!S60="P",AL!S60="B"),AL!S60,AL!S77))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T93" s="2" t="str">
         <f>IF(AL!T60="","",
 IF(OR(AL!T60="P",AL!T60="B"),AL!T60,AL!T77))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U93" s="2" t="str">
         <f>IF(AL!U60="","",
 IF(OR(AL!U60="P",AL!U60="B"),AL!U60,AL!U77))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V93" s="2" t="str">
         <f>IF(AL!V60="","",
@@ -48083,43 +48069,43 @@
         <f>IF(DATA!N$3="","",
 IF(N93="","",
 IF(N93="N","N",IF(DATA!N$3=N93,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O97" s="2" t="str">
         <f>IF(DATA!O$3="","",
 IF(O93="","",
 IF(O93="N","N",IF(DATA!O$3=O93,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P97" s="2" t="str">
         <f>IF(DATA!P$3="","",
 IF(P93="","",
 IF(P93="N","N",IF(DATA!P$3=P93,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q97" s="2" t="str">
         <f>IF(DATA!Q$3="","",
 IF(Q93="","",
 IF(Q93="N","N",IF(DATA!Q$3=Q93,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R97" s="2" t="str">
         <f>IF(DATA!R$3="","",
 IF(R93="","",
 IF(R93="N","N",IF(DATA!R$3=R93,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S97" s="2" t="str">
         <f>IF(DATA!S$3="","",
 IF(S93="","",
 IF(S93="N","N",IF(DATA!S$3=S93,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T97" s="2" t="str">
         <f>IF(DATA!T$3="","",
 IF(T93="","",
 IF(T93="N","N",IF(DATA!T$3=T93,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U97" s="2" t="str">
         <f>IF(DATA!U$3="","",
@@ -48453,16 +48439,16 @@
       </c>
       <c r="BX97" s="14">
         <f>IF(B97="","",COUNTIF(B97:BW97,"W"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY97" s="15">
         <f>IF(B97="","",COUNTIF(B97:BW97,"L"))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BZ97" s="15"/>
       <c r="CA97" s="16">
         <f>IF(B97="","",BX97-BY97)</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -48514,7 +48500,7 @@
     <mergeCell ref="B91:N91"/>
     <mergeCell ref="B87:N87"/>
     <mergeCell ref="FF13:FR13"/>
-    <mergeCell ref="FF66:FR66"/>
+    <mergeCell ref="CD37:CP37"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="B49:N49"/>
     <mergeCell ref="B83:N83"/>
@@ -48525,9 +48511,9 @@
     <mergeCell ref="FF33:FR33"/>
     <mergeCell ref="FF21:FR21"/>
     <mergeCell ref="CD17:CP17"/>
+    <mergeCell ref="FF66:FR66"/>
+    <mergeCell ref="FF17:FR17"/>
     <mergeCell ref="B37:N37"/>
-    <mergeCell ref="CD37:CP37"/>
-    <mergeCell ref="FF17:FR17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48765,31 +48751,31 @@
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="18" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E2" s="18" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="18" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="G2" s="18" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="18" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I2" s="18" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J2" s="18" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
@@ -48805,39 +48791,39 @@
       </c>
       <c r="M2" s="18" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="N2" s="18" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="O2" s="18" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P2" s="18" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q2" s="18" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R2" s="18" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S2" s="18" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T2" s="18" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="U2" s="18" t="str">
         <f>IF(DATA!T3="","",DATA!T3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V2" s="18" t="str">
         <f>IF(DATA!U3="","",DATA!U3)</f>
@@ -49054,80 +49040,80 @@
       <c r="C3" s="18">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O3" s="18">
+        <v>4</v>
+      </c>
+      <c r="O3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P3" s="18">
+        <v/>
+      </c>
+      <c r="P3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q3" s="18">
+        <v/>
+      </c>
+      <c r="Q3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="R3" s="18">
+        <v/>
+      </c>
+      <c r="R3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="S3" s="18">
+        <v/>
+      </c>
+      <c r="S3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="T3" s="18">
+        <v/>
+      </c>
+      <c r="T3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="U3" s="18">
+        <v/>
+      </c>
+      <c r="U3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="V3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -49346,28 +49332,28 @@
       <c r="C4" s="18">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
@@ -49393,33 +49379,33 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="P4" s="18">
+        <v/>
+      </c>
+      <c r="P4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="Q4" s="18">
+        <v/>
+      </c>
+      <c r="Q4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="R4" s="18">
+        <v/>
+      </c>
+      <c r="R4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="S4" s="18">
+        <v/>
+      </c>
+      <c r="S4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="T4" s="18">
+        <v/>
+      </c>
+      <c r="T4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="U4" s="18">
+        <v/>
+      </c>
+      <c r="U4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="V4" s="18" t="str">
         <f t="shared" si="3"/>
@@ -49634,79 +49620,79 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="O5" s="18">
+        <v>-2</v>
+      </c>
+      <c r="O5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="P5" s="18">
+        <v/>
+      </c>
+      <c r="P5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="Q5" s="18">
+        <v/>
+      </c>
+      <c r="Q5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="18">
+        <v/>
+      </c>
+      <c r="R5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S5" s="18">
+        <v/>
+      </c>
+      <c r="S5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="18">
+        <v/>
+      </c>
+      <c r="T5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="18">
+        <v/>
+      </c>
+      <c r="U5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="V5" s="18" t="str">
         <f t="shared" si="5"/>
@@ -50023,15 +50009,15 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="K7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="L7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50051,31 +50037,31 @@
       </c>
       <c r="P7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="W7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50314,15 +50300,15 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50338,35 +50324,35 @@
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="Q8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="V8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="W8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50604,53 +50590,53 @@
       <c r="I9" s="18" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O9" s="18" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="U9" s="18" t="str">
         <f t="shared" ref="U9:AZ9" si="14">IF(T2="","",
@@ -50658,11 +50644,11 @@
 IF(AND(C2=I2,I2&lt;&gt;O2),IF(O2="P","B","P"),
 IF(AND(C2&lt;&gt;I2,I2=O2),C2,
 IF(AND(C2&lt;&gt;I2,I2&lt;&gt;O2),O2)))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V9" s="18" t="str">
         <f t="shared" si="14"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W9" s="18" t="str">
         <f t="shared" si="14"/>
@@ -50984,11 +50970,11 @@
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="K11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="L11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -50996,39 +50982,39 @@
       </c>
       <c r="M11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51278,11 +51264,11 @@
       </c>
       <c r="J12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51298,31 +51284,31 @@
       </c>
       <c r="O12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="V12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51572,15 +51558,15 @@
       </c>
       <c r="J13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51592,31 +51578,31 @@
       </c>
       <c r="O13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51954,11 +51940,11 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -51966,31 +51952,31 @@
       </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W15" s="18" t="str">
         <f t="shared" ref="W15:AF17" si="27">IF(W7="","",
@@ -52256,11 +52242,11 @@
       </c>
       <c r="M16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52268,31 +52254,31 @@
       </c>
       <c r="P16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W16" s="18" t="str">
         <f t="shared" si="27"/>
@@ -52543,7 +52529,7 @@
       </c>
       <c r="M17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52551,35 +52537,35 @@
       </c>
       <c r="O17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="U17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W17" s="18" t="str">
         <f t="shared" si="27"/>
@@ -52909,7 +52895,7 @@
       </c>
       <c r="M19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -52917,31 +52903,31 @@
       </c>
       <c r="O19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="S19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="V19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -53207,35 +53193,35 @@
       </c>
       <c r="N20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53501,35 +53487,35 @@
       </c>
       <c r="N21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53864,7 +53850,7 @@
       </c>
       <c r="M23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -53872,35 +53858,35 @@
       </c>
       <c r="O23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -54160,35 +54146,35 @@
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V24" s="19" t="str">
         <f t="shared" si="45"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E343A7-72A3-4F25-812B-30C5584773FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F28B2F-08A5-40E9-892F-3DE04698D836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="54">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1500,10 +1500,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
@@ -1527,9 +1527,11 @@
         <v>4</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1593,16 +1595,16 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2378,7 +2380,7 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M23="","",AI!M23)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N23="","",AI!N23)</f>
@@ -2390,7 +2392,7 @@
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P23="","",AI!P23)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q23="","",AI!Q23)</f>
@@ -3005,11 +3007,11 @@
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N24="","",AI!N24)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O24="","",AI!O24)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P24="","",AI!P24)</f>
@@ -3261,12 +3263,12 @@
       </c>
       <c r="BY16" s="15">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="16">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4874,17 +4876,17 @@
       <c r="D3" s="2" t="str">
         <f>IF(DATA!D3="","",
 IF(DATA!C3=DATA!D3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(DATA!D3=DATA!E3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3=DATA!F3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -4919,12 +4921,12 @@
       <c r="M3" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(DATA!L3=DATA!M3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="N3" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3=DATA!N3,"O","X"))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -5257,19 +5259,19 @@
         <f>IF(DATA!E3="","",
 IF(AL!D3&lt;&gt;AL!E3,AL!D3,
 IF(AL!D3=AL!E3,AL!E3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CI3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(AL!E3&lt;&gt;AL!F3,AL!E3,
 IF(AL!E3=AL!F3,AL!F3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CJ3" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(AL!F3&lt;&gt;AL!G3,AL!F3,
 IF(AL!F3=AL!G3,AL!G3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CK3" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -5311,7 +5313,7 @@
         <f>IF(DATA!N3="","",
 IF(AL!M3&lt;&gt;AL!N3,AL!M3,
 IF(AL!M3=AL!N3,AL!N3)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="CR3" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -6619,7 +6621,7 @@
       <c r="D7" s="2" t="str">
         <f t="shared" ref="D7:AI7" si="0">IF(D3="","",
 IF(C3=D3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6631,7 +6633,7 @@
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6655,11 +6657,11 @@
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="N7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6930,7 +6932,7 @@
         <f>IF(DATA!E3="","",
 IF(AL!D7&lt;&gt;AL!E7,AL!D7,
 IF(AL!D7=AL!E7,AL!E7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CI7" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -6948,7 +6950,7 @@
         <f>IF(DATA!H3="","",
 IF(AL!G7&lt;&gt;AL!H7,AL!G7,
 IF(AL!G7=AL!H7,AL!H7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CL7" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -6984,7 +6986,7 @@
         <f>IF(DATA!N3="","",
 IF(AL!M7&lt;&gt;AL!N7,AL!M7,
 IF(AL!M7=AL!N7,AL!N7)))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="CR7" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -7369,13 +7371,13 @@
         <f>IF(CH7="","",
 IF(CH7="O",AL!E3,
 IF(CH7="X",AL!D3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FK7" s="2" t="str">
         <f>IF(CI7="","",
 IF(CI7="O",AL!F3,
 IF(CI7="X",AL!E3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FL7" s="2" t="str">
         <f>IF(CJ7="","",
@@ -7387,7 +7389,7 @@
         <f>IF(CK7="","",
 IF(CK7="O",AL!H3,
 IF(CK7="X",AL!G3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FN7" s="2" t="str">
         <f>IF(CL7="","",
@@ -7423,7 +7425,7 @@
         <f>IF(CQ7="","",
 IF(CQ7="O",AL!N3,
 IF(CQ7="X",AL!M3)))</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="FT7" s="2" t="str">
         <f>IF(CR7="","",
@@ -8744,13 +8746,13 @@
         <f>IF(DATA!E3="","",
 IF(DATA!D3&lt;&gt;DATA!E3,DATA!D3,
 IF(DATA!D3=DATA!E3,DATA!E3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3&lt;&gt;DATA!F3,DATA!E3,
 IF(DATA!E3=DATA!F3,DATA!F3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -8798,7 +8800,7 @@
         <f>IF(DATA!N3="","",
 IF(DATA!M3&lt;&gt;DATA!N3,DATA!M3,
 IF(DATA!M3=DATA!N3,DATA!N3)))</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="P11" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -9180,25 +9182,25 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
 IF(AL!CH3="O",DATA!E3,
 IF(AL!CH3="X",DATA!D3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CI11" s="2" t="str">
         <f>IF(AL!CI3="","",
 IF(AL!CI3="O",DATA!F3,
 IF(AL!CI3="X",DATA!E3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CJ11" s="2" t="str">
         <f>IF(AL!CJ3="","",
 IF(AL!CJ3="O",DATA!G3,
 IF(AL!CJ3="X",DATA!F3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CK11" s="2" t="str">
         <f>IF(AL!CK3="","",
@@ -9240,7 +9242,7 @@
         <f>IF(AL!CQ3="","",
 IF(AL!CQ3="O",DATA!N3,
 IF(AL!CQ3="X",DATA!M3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CR11" s="2" t="str">
         <f>IF(AL!CR3="","",
@@ -9625,13 +9627,13 @@
         <f>IF(AL!FJ7="","",
 IF(AL!FJ7="O",DATA!E3,
 IF(AL!FJ7="X",DATA!D3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FK11" s="2" t="str">
         <f>IF(AL!FK7="","",
 IF(AL!FK7="O",DATA!F3,
 IF(AL!FK7="X",DATA!E3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="FL11" s="2" t="str">
         <f>IF(AL!FL7="","",
@@ -9679,7 +9681,7 @@
         <f>IF(AL!FS7="","",
 IF(AL!FS7="O",DATA!N3,
 IF(AL!FS7="X",DATA!M3)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FT11" s="2" t="str">
         <f>IF(AL!FT7="","",
@@ -10996,19 +10998,19 @@
         <f>IF(DATA!D3="","",
 IF(D11="","",
 IF(D11="N","N",IF(DATA!D3=D11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(E11="","",
 IF(E11="N","N",IF(DATA!E3=E11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(F11="","",
 IF(F11="N","N",IF(DATA!F3=F11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11056,7 +11058,7 @@
         <f>IF(DATA!N3="","",
 IF(N11="","",
 IF(N11="N","N",IF(DATA!N3=N11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O15" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -11454,13 +11456,13 @@
         <f>IF(DATA!E3="","",
 IF(CG11="","",
 IF(CG11="N","N",IF(DATA!E3=CG11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CH15" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(CH11="","",
 IF(CH11="N","N",IF(DATA!F3=CH11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CI15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11472,7 +11474,7 @@
         <f>IF(DATA!H3="","",
 IF(CJ11="","",
 IF(CJ11="N","N",IF(DATA!H3=CJ11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CK15" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -11502,13 +11504,13 @@
         <f>IF(DATA!M3="","",
 IF(CO11="","",
 IF(CO11="N","N",IF(DATA!M3=CO11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP15" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(CP11="","",
 IF(CP11="N","N",IF(DATA!N3=CP11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CQ15" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -11911,7 +11913,7 @@
         <f>IF(DATA!F3="","",
 IF(FJ11="","",
 IF(FJ11="N","N",IF(DATA!F3=FJ11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FK15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11959,7 +11961,7 @@
         <f>IF(DATA!N3="","",
 IF(FR11="","",
 IF(FR11="N","N",IF(DATA!N3=FR11,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FS15" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -13290,14 +13292,14 @@
 IF(AL!H11="N","N",
 IF(COUNTIF(AL!D15:G15,"W")&gt;=2,AL!H11,
 IF(COUNTIF(AL!D15:G15,"W")&lt;2,IF(AL!H11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>IF(AL!I11="","",
 IF(AL!I11="N","N",
 IF(COUNTIF(AL!E15:H15,"W")&gt;=2,AL!I11,
 IF(COUNTIF(AL!E15:H15,"W")&lt;2,IF(AL!I11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J19" s="2" t="str">
         <f>IF(AL!J11="","",
@@ -13339,7 +13341,7 @@
 IF(AL!O11="N","N",
 IF(COUNTIF(AL!K15:N15,"W")&gt;=2,AL!O11,
 IF(COUNTIF(AL!K15:N15,"W")&lt;2,IF(AL!O11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P19" s="2" t="str">
         <f>IF(AL!P11="","",
@@ -13794,21 +13796,21 @@
 IF(AL!CK11="N","N",
 IF(COUNTIF(AL!CG15:CJ15,"W")&gt;=2,AL!CK11,
 IF(COUNTIF(AL!CG15:CJ15,"W")&lt;2,IF(AL!CK11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL19" s="2" t="str">
         <f>IF(AL!CL11="","",
 IF(AL!CL11="N","N",
 IF(COUNTIF(AL!CH15:CK15,"W")&gt;=2,AL!CL11,
 IF(COUNTIF(AL!CH15:CK15,"W")&lt;2,IF(AL!CL11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CM19" s="2" t="str">
         <f>IF(AL!CM11="","",
 IF(AL!CM11="N","N",
 IF(COUNTIF(AL!CI15:CL15,"W")&gt;=2,AL!CM11,
 IF(COUNTIF(AL!CI15:CL15,"W")&lt;2,IF(AL!CM11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN19" s="2" t="str">
         <f>IF(AL!CN11="","",
@@ -13836,7 +13838,7 @@
 IF(AL!CQ11="N","N",
 IF(COUNTIF(AL!CM15:CP15,"W")&gt;=2,AL!CQ11,
 IF(COUNTIF(AL!CM15:CP15,"W")&lt;2,IF(AL!CQ11="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CR19" s="2" t="str">
         <f>IF(AL!CR11="","",
@@ -14329,7 +14331,7 @@
 IF(AL!FS11="N","N",
 IF(COUNTIF(AL!FO15:FR15,"W")&gt;=2,AL!FS11,
 IF(COUNTIF(AL!FO15:FR15,"W")&lt;2,IF(AL!FS11="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FT19" s="2" t="str">
         <f>IF(AL!FT11="","",
@@ -15730,13 +15732,13 @@
         <f>IF(DATA!H$3="","",
 IF(H19="","",
 IF(H19="N","N",IF(DATA!H$3=H19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I23" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I19="","",
 IF(I19="N","N",IF(DATA!I$3=I19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -15760,13 +15762,13 @@
         <f>IF(DATA!M$3="","",
 IF(M19="","",
 IF(M19="N","N",IF(DATA!M$3=M19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N19="","",
 IF(N19="N","N",IF(DATA!N$3=N19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O23" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -16188,19 +16190,19 @@
         <f>IF(DATA!I$3="","",
 IF(CK19="","",
 IF(CK19="N","N",IF(DATA!I$3=CK19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL23" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL19="","",
 IF(CL19="N","N",IF(DATA!J$3=CL19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM23" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM19="","",
 IF(CM19="N","N",IF(DATA!K$3=CM19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN23" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -16212,13 +16214,13 @@
         <f>IF(DATA!M$3="","",
 IF(CO19="","",
 IF(CO19="N","N",IF(DATA!M$3=CO19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP19="","",
 IF(CP19="N","N",IF(DATA!N$3=CP19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CQ23" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -16669,7 +16671,7 @@
         <f>IF(DATA!N$3="","",
 IF(FR19="","",
 IF(FR19="N","N",IF(DATA!N$3=FR19,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FS23" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -17997,56 +17999,56 @@
 IF(AL!H19="N","N",
 IF(COUNTIF(AL!D23:G23,"W")&gt;=2,AL!H19,
 IF(COUNTIF(AL!D23:G23,"W")&lt;2,IF(AL!H19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>IF(AL!I19="","",
 IF(AL!I19="N","N",
 IF(COUNTIF(AL!E23:H23,"W")&gt;=2,AL!I19,
 IF(COUNTIF(AL!E23:H23,"W")&lt;2,IF(AL!I19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J27" s="2" t="str">
         <f>IF(AL!J19="","",
 IF(AL!J19="N","N",
 IF(COUNTIF(AL!F23:I23,"W")&gt;=2,AL!J19,
 IF(COUNTIF(AL!F23:I23,"W")&lt;2,IF(AL!J19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K27" s="2" t="str">
         <f>IF(AL!K19="","",
 IF(AL!K19="N","N",
 IF(COUNTIF(AL!G23:J23,"W")&gt;=2,AL!K19,
 IF(COUNTIF(AL!G23:J23,"W")&lt;2,IF(AL!K19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L27" s="2" t="str">
         <f>IF(AL!L19="","",
 IF(AL!L19="N","N",
 IF(COUNTIF(AL!H23:K23,"W")&gt;=2,AL!L19,
 IF(COUNTIF(AL!H23:K23,"W")&lt;2,IF(AL!L19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M27" s="2" t="str">
         <f>IF(AL!M19="","",
 IF(AL!M19="N","N",
 IF(COUNTIF(AL!I23:L23,"W")&gt;=2,AL!M19,
 IF(COUNTIF(AL!I23:L23,"W")&lt;2,IF(AL!M19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N27" s="2" t="str">
         <f>IF(AL!N19="","",
 IF(AL!N19="N","N",
 IF(COUNTIF(AL!J23:M23,"W")&gt;=2,AL!N19,
 IF(COUNTIF(AL!J23:M23,"W")&lt;2,IF(AL!N19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O27" s="2" t="str">
         <f>IF(AL!O19="","",
 IF(AL!O19="N","N",
 IF(COUNTIF(AL!K23:N23,"W")&gt;=2,AL!O19,
 IF(COUNTIF(AL!K23:N23,"W")&lt;2,IF(AL!O19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P27" s="2" t="str">
         <f>IF(AL!P19="","",
@@ -18501,49 +18503,49 @@
 IF(AL!CK19="N","N",
 IF(COUNTIF(AL!CG23:CJ23,"W")&gt;=2,AL!CK19,
 IF(COUNTIF(AL!CG23:CJ23,"W")&lt;2,IF(AL!CK19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL27" s="2" t="str">
         <f>IF(AL!CL19="","",
 IF(AL!CL19="N","N",
 IF(COUNTIF(AL!CH23:CK23,"W")&gt;=2,AL!CL19,
 IF(COUNTIF(AL!CH23:CK23,"W")&lt;2,IF(AL!CL19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM27" s="2" t="str">
         <f>IF(AL!CM19="","",
 IF(AL!CM19="N","N",
 IF(COUNTIF(AL!CI23:CL23,"W")&gt;=2,AL!CM19,
 IF(COUNTIF(AL!CI23:CL23,"W")&lt;2,IF(AL!CM19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN27" s="2" t="str">
         <f>IF(AL!CN19="","",
 IF(AL!CN19="N","N",
 IF(COUNTIF(AL!CJ23:CM23,"W")&gt;=2,AL!CN19,
 IF(COUNTIF(AL!CJ23:CM23,"W")&lt;2,IF(AL!CN19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO27" s="2" t="str">
         <f>IF(AL!CO19="","",
 IF(AL!CO19="N","N",
 IF(COUNTIF(AL!CK23:CN23,"W")&gt;=2,AL!CO19,
 IF(COUNTIF(AL!CK23:CN23,"W")&lt;2,IF(AL!CO19="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CP27" s="2" t="str">
         <f>IF(AL!CP19="","",
 IF(AL!CP19="N","N",
 IF(COUNTIF(AL!CL23:CO23,"W")&gt;=2,AL!CP19,
 IF(COUNTIF(AL!CL23:CO23,"W")&lt;2,IF(AL!CP19="P","B","P")))))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CQ27" s="2" t="str">
         <f>IF(AL!CQ19="","",
 IF(AL!CQ19="N","N",
 IF(COUNTIF(AL!CM23:CP23,"W")&gt;=2,AL!CQ19,
 IF(COUNTIF(AL!CM23:CP23,"W")&lt;2,IF(AL!CQ19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CR27" s="2" t="str">
         <f>IF(AL!CR19="","",
@@ -19036,7 +19038,7 @@
 IF(AL!FS19="N","N",
 IF(COUNTIF(AL!FO23:FR23,"W")&gt;=2,AL!FS19,
 IF(COUNTIF(AL!FO23:FR23,"W")&lt;2,IF(AL!FS19="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FT27" s="2" t="str">
         <f>IF(AL!FT19="","",
@@ -20437,25 +20439,25 @@
         <f>IF(DATA!H$3="","",
 IF(H27="","",
 IF(H27="N","N",IF(DATA!H$3=H27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I27="","",
 IF(I27="N","N",IF(DATA!I$3=I27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J27="","",
 IF(J27="N","N",IF(DATA!J$3=J27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(K27="","",
 IF(K27="N","N",IF(DATA!K$3=K27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -20467,13 +20469,13 @@
         <f>IF(DATA!M$3="","",
 IF(M27="","",
 IF(M27="N","N",IF(DATA!M$3=M27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N27="","",
 IF(N27="N","N",IF(DATA!N$3=N27,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O31" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -20895,19 +20897,19 @@
         <f>IF(DATA!I$3="","",
 IF(CK27="","",
 IF(CK27="N","N",IF(DATA!I$3=CK27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL31" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL27="","",
 IF(CL27="N","N",IF(DATA!J$3=CL27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM31" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM27="","",
 IF(CM27="N","N",IF(DATA!K$3=CM27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -20925,7 +20927,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP27="","",
 IF(CP27="N","N",IF(DATA!N$3=CP27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CQ31" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -21370,13 +21372,13 @@
         <f>IF(DATA!M$3="","",
 IF(FQ27="","",
 IF(FQ27="N","N",IF(DATA!M$3=FQ27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FR31" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR27="","",
 IF(FR27="N","N",IF(DATA!N$3=FR27,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FS31" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -22704,14 +22706,14 @@
 IF(AL!H27="N","N",
 IF(COUNTIF(AL!D31:G31,"W")&gt;=2,AL!H27,
 IF(COUNTIF(AL!D31:G31,"W")&lt;2,IF(AL!H27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>IF(AL!I27="","",
 IF(AL!I27="N","N",
 IF(COUNTIF(AL!E31:H31,"W")&gt;=2,AL!I27,
 IF(COUNTIF(AL!E31:H31,"W")&lt;2,IF(AL!I27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J35" s="2" t="str">
         <f>IF(AL!J27="","",
@@ -22753,7 +22755,7 @@
 IF(AL!O27="N","N",
 IF(COUNTIF(AL!K31:N31,"W")&gt;=2,AL!O27,
 IF(COUNTIF(AL!K31:N31,"W")&lt;2,IF(AL!O27="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P35" s="2" t="str">
         <f>IF(AL!P27="","",
@@ -23208,21 +23210,21 @@
 IF(AL!CK27="N","N",
 IF(COUNTIF(AL!CG31:CJ31,"W")&gt;=2,AL!CK27,
 IF(COUNTIF(AL!CG31:CJ31,"W")&lt;2,IF(AL!CK27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL35" s="2" t="str">
         <f>IF(AL!CL27="","",
 IF(AL!CL27="N","N",
 IF(COUNTIF(AL!CH31:CK31,"W")&gt;=2,AL!CL27,
 IF(COUNTIF(AL!CH31:CK31,"W")&lt;2,IF(AL!CL27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CM35" s="2" t="str">
         <f>IF(AL!CM27="","",
 IF(AL!CM27="N","N",
 IF(COUNTIF(AL!CI31:CL31,"W")&gt;=2,AL!CM27,
 IF(COUNTIF(AL!CI31:CL31,"W")&lt;2,IF(AL!CM27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN35" s="2" t="str">
         <f>IF(AL!CN27="","",
@@ -23250,7 +23252,7 @@
 IF(AL!CQ27="N","N",
 IF(COUNTIF(AL!CM31:CP31,"W")&gt;=2,AL!CQ27,
 IF(COUNTIF(AL!CM31:CP31,"W")&lt;2,IF(AL!CQ27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="CR35" s="2" t="str">
         <f>IF(AL!CR27="","",
@@ -23743,7 +23745,7 @@
 IF(AL!FS27="N","N",
 IF(COUNTIF(AL!FO31:FR31,"W")&gt;=2,AL!FS27,
 IF(COUNTIF(AL!FO31:FR31,"W")&lt;2,IF(AL!FS27="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FT35" s="2" t="str">
         <f>IF(AL!FT27="","",
@@ -25144,13 +25146,13 @@
         <f>IF(DATA!H$3="","",
 IF(H35="","",
 IF(H35="N","N",IF(DATA!H$3=H35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I35="","",
 IF(I35="N","N",IF(DATA!I$3=I35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -25180,7 +25182,7 @@
         <f>IF(DATA!N$3="","",
 IF(N35="","",
 IF(N35="N","N",IF(DATA!N$3=N35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -25602,19 +25604,19 @@
         <f>IF(DATA!I$3="","",
 IF(CK35="","",
 IF(CK35="N","N",IF(DATA!I$3=CK35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL39" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL35="","",
 IF(CL35="N","N",IF(DATA!J$3=CL35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM39" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM35="","",
 IF(CM35="N","N",IF(DATA!K$3=CM35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN39" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -25626,13 +25628,13 @@
         <f>IF(DATA!M$3="","",
 IF(CO35="","",
 IF(CO35="N","N",IF(DATA!M$3=CO35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP35="","",
 IF(CP35="N","N",IF(DATA!N$3=CP35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CQ39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -26077,13 +26079,13 @@
         <f>IF(DATA!M$3="","",
 IF(FQ35="","",
 IF(FQ35="N","N",IF(DATA!M$3=FQ35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FR39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR35="","",
 IF(FR35="N","N",IF(DATA!N$3=FR35,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="FS39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -27411,42 +27413,42 @@
 IF(AL!H35="N","N",
 IF(COUNTIF(AL!D39:G39,"W")&gt;=2,AL!H35,
 IF(COUNTIF(AL!D39:G39,"W")&lt;2,IF(AL!H35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>IF(AL!I35="","",
 IF(AL!I35="N","N",
 IF(COUNTIF(AL!E39:H39,"W")&gt;=2,AL!I35,
 IF(COUNTIF(AL!E39:H39,"W")&lt;2,IF(AL!I35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(AL!J35="","",
 IF(AL!J35="N","N",
 IF(COUNTIF(AL!F39:I39,"W")&gt;=2,AL!J35,
 IF(COUNTIF(AL!F39:I39,"W")&lt;2,IF(AL!J35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(AL!K35="","",
 IF(AL!K35="N","N",
 IF(COUNTIF(AL!G39:J39,"W")&gt;=2,AL!K35,
 IF(COUNTIF(AL!G39:J39,"W")&lt;2,IF(AL!K35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L43" s="2" t="str">
         <f>IF(AL!L35="","",
 IF(AL!L35="N","N",
 IF(COUNTIF(AL!H39:K39,"W")&gt;=2,AL!L35,
 IF(COUNTIF(AL!H39:K39,"W")&lt;2,IF(AL!L35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M43" s="2" t="str">
         <f>IF(AL!M35="","",
 IF(AL!M35="N","N",
 IF(COUNTIF(AL!I39:L39,"W")&gt;=2,AL!M35,
 IF(COUNTIF(AL!I39:L39,"W")&lt;2,IF(AL!M35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N43" s="2" t="str">
         <f>IF(AL!N35="","",
@@ -27460,7 +27462,7 @@
 IF(AL!O35="N","N",
 IF(COUNTIF(AL!K39:N39,"W")&gt;=2,AL!O35,
 IF(COUNTIF(AL!K39:N39,"W")&lt;2,IF(AL!O35="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P43" s="2" t="str">
         <f>IF(AL!P35="","",
@@ -27915,49 +27917,49 @@
 IF(AL!CK35="N","N",
 IF(COUNTIF(AL!CG39:CJ39,"W")&gt;=2,AL!CK35,
 IF(COUNTIF(AL!CG39:CJ39,"W")&lt;2,IF(AL!CK35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL43" s="2" t="str">
         <f>IF(AL!CL35="","",
 IF(AL!CL35="N","N",
 IF(COUNTIF(AL!CH39:CK39,"W")&gt;=2,AL!CL35,
 IF(COUNTIF(AL!CH39:CK39,"W")&lt;2,IF(AL!CL35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM43" s="2" t="str">
         <f>IF(AL!CM35="","",
 IF(AL!CM35="N","N",
 IF(COUNTIF(AL!CI39:CL39,"W")&gt;=2,AL!CM35,
 IF(COUNTIF(AL!CI39:CL39,"W")&lt;2,IF(AL!CM35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN43" s="2" t="str">
         <f>IF(AL!CN35="","",
 IF(AL!CN35="N","N",
 IF(COUNTIF(AL!CJ39:CM39,"W")&gt;=2,AL!CN35,
 IF(COUNTIF(AL!CJ39:CM39,"W")&lt;2,IF(AL!CN35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO43" s="2" t="str">
         <f>IF(AL!CO35="","",
 IF(AL!CO35="N","N",
 IF(COUNTIF(AL!CK39:CN39,"W")&gt;=2,AL!CO35,
 IF(COUNTIF(AL!CK39:CN39,"W")&lt;2,IF(AL!CO35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP43" s="2" t="str">
         <f>IF(AL!CP35="","",
 IF(AL!CP35="N","N",
 IF(COUNTIF(AL!CL39:CO39,"W")&gt;=2,AL!CP35,
 IF(COUNTIF(AL!CL39:CO39,"W")&lt;2,IF(AL!CP35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ43" s="2" t="str">
         <f>IF(AL!CQ35="","",
 IF(AL!CQ35="N","N",
 IF(COUNTIF(AL!CM39:CP39,"W")&gt;=2,AL!CQ35,
 IF(COUNTIF(AL!CM39:CP39,"W")&lt;2,IF(AL!CQ35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="CR43" s="2" t="str">
         <f>IF(AL!CR35="","",
@@ -28450,7 +28452,7 @@
 IF(AL!FS35="N","N",
 IF(COUNTIF(AL!FO39:FR39,"W")&gt;=2,AL!FS35,
 IF(COUNTIF(AL!FO39:FR39,"W")&lt;2,IF(AL!FS35="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FT43" s="2" t="str">
         <f>IF(AL!FT35="","",
@@ -29851,25 +29853,25 @@
         <f>IF(DATA!H$3="","",
 IF(H43="","",
 IF(H43="N","N",IF(DATA!H$3=H43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I43="","",
 IF(I43="N","N",IF(DATA!I$3=I43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J47" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J43="","",
 IF(J43="N","N",IF(DATA!J$3=J43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K47" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(K43="","",
 IF(K43="N","N",IF(DATA!K$3=K43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L47" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -29887,7 +29889,7 @@
         <f>IF(DATA!N$3="","",
 IF(N43="","",
 IF(N43="N","N",IF(DATA!N$3=N43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O47" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -30309,19 +30311,19 @@
         <f>IF(DATA!I$3="","",
 IF(CK43="","",
 IF(CK43="N","N",IF(DATA!I$3=CK43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL47" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL43="","",
 IF(CL43="N","N",IF(DATA!J$3=CL43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM47" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM43="","",
 IF(CM43="N","N",IF(DATA!K$3=CM43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN47" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -30339,7 +30341,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP43="","",
 IF(CP43="N","N",IF(DATA!N$3=CP43,"W","L"))))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="CQ47" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -30790,7 +30792,7 @@
         <f>IF(DATA!N$3="","",
 IF(FR43="","",
 IF(FR43="N","N",IF(DATA!N$3=FR43,"W","L"))))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="FS47" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -32146,7 +32148,7 @@
       </c>
       <c r="N51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -32445,7 +32447,7 @@
       </c>
       <c r="CN51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>F</v>
+        <v>N</v>
       </c>
       <c r="CO51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32453,7 +32455,7 @@
       </c>
       <c r="CP51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CQ51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32759,7 +32761,7 @@
       </c>
       <c r="FR51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>R</v>
       </c>
       <c r="FS51" s="2" t="str">
         <f t="shared" si="9"/>
@@ -33075,7 +33077,7 @@
       </c>
       <c r="O52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P52" s="2" t="str">
         <f t="shared" si="12"/>
@@ -33382,15 +33384,15 @@
       </c>
       <c r="CO52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="CP52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="CQ52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CR52" s="2" t="str">
         <f t="shared" si="15"/>
@@ -33704,7 +33706,7 @@
       </c>
       <c r="FS52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="FT52" s="2" t="str">
         <f t="shared" si="18"/>
@@ -34969,7 +34971,7 @@
         <f>IF(DATA!N$3="","",
 IF(N52="","",
 IF(N52="N","N",IF(DATA!N$3=N52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O56" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -35415,13 +35417,13 @@
         <f>IF(DATA!M$3="","",
 IF(CO52="","",
 IF(CO52="N","N",IF(DATA!M$3=CO52,"W","L"))))</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="CP56" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP52="","",
 IF(CP52="N","N",IF(DATA!N$3=CP52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CQ56" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -35872,7 +35874,7 @@
         <f>IF(DATA!N$3="","",
 IF(FR52="","",
 IF(FR52="N","N",IF(DATA!N$3=FR52,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FS56" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -36939,15 +36941,15 @@
       </c>
       <c r="M60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="N60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -37767,13 +37769,13 @@
         <f>IF(DATA!M$3="","",
 IF(M60="","",
 IF(M60="N","N",IF(DATA!M$3=M60,"W","L"))))</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="N64" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N60="","",
 IF(N60="N","N",IF(DATA!N$3=N60,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O64" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -39129,7 +39131,7 @@
       </c>
       <c r="N68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O68" s="2" t="str">
         <f t="shared" si="24"/>
@@ -39428,7 +39430,7 @@
       </c>
       <c r="CN68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>R</v>
+        <v>N</v>
       </c>
       <c r="CO68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39436,7 +39438,7 @@
       </c>
       <c r="CP68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CQ68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39742,7 +39744,7 @@
       </c>
       <c r="FR68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="FS68" s="2" t="str">
         <f t="shared" si="30"/>
@@ -40058,7 +40060,7 @@
       </c>
       <c r="O69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P69" s="2" t="str">
         <f t="shared" si="33"/>
@@ -40365,7 +40367,7 @@
       </c>
       <c r="CO69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="CP69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40373,7 +40375,7 @@
       </c>
       <c r="CQ69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CR69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40687,7 +40689,7 @@
       </c>
       <c r="FS69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="FT69" s="2" t="str">
         <f t="shared" si="39"/>
@@ -41952,7 +41954,7 @@
         <f>IF(DATA!N$3="","",
 IF(N69="","",
 IF(N69="N","N",IF(DATA!N$3=N69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O73" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -42398,13 +42400,13 @@
         <f>IF(DATA!M$3="","",
 IF(CO69="","",
 IF(CO69="N","N",IF(DATA!M$3=CO69,"W","L"))))</f>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="CP73" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP69="","",
 IF(CP69="N","N",IF(DATA!N$3=CP69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="CQ73" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -42855,7 +42857,7 @@
         <f>IF(DATA!N$3="","",
 IF(FR69="","",
 IF(FR69="N","N",IF(DATA!N$3=FR69,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="FS73" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -43922,7 +43924,7 @@
       </c>
       <c r="M77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="N77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -43930,7 +43932,7 @@
       </c>
       <c r="O77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -44750,13 +44752,13 @@
         <f>IF(DATA!M$3="","",
 IF(M77="","",
 IF(M77="N","N",IF(DATA!M$3=M77,"W","L"))))</f>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="N81" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N77="","",
 IF(N77="N","N",IF(DATA!N$3=N77,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O81" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -45814,15 +45816,15 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:L97, 1, MAX(IF(AL!$B97:L97="L", COLUMN(AL!$B97:L97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!L97, "W"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="M85" s="2" t="str">
+      <c r="M85" s="2">
         <f t="array" ref="M85">IF(AL!M97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="L", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "W"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="N85" s="2" t="str">
+      <c r="N85" s="2">
         <f t="array" ref="N85">IF(AL!N97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="L", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "W"),"0"))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O85" s="2" t="str">
         <f t="array" ref="O85">IF(AL!O97="","",
@@ -46663,12 +46665,12 @@
       <c r="M89" s="2">
         <f t="array" ref="M89">IF(AL!M97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="W", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "L"),"0"))</f>
-        <v>1</v>
-      </c>
-      <c r="N89" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
         <f t="array" ref="N89">IF(AL!N97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="W", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "L"),"0"))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O89" s="2" t="str">
         <f t="array" ref="O89">IF(AL!O97="","",
@@ -47354,17 +47356,17 @@
       <c r="M93" s="2" t="str">
         <f>IF(AL!M60="","",
 IF(OR(AL!M60="P",AL!M60="B"),AL!M60,AL!M77))</f>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="N93" s="2" t="str">
         <f>IF(AL!N60="","",
 IF(OR(AL!N60="P",AL!N60="B"),AL!N60,AL!N77))</f>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="O93" s="2" t="str">
         <f>IF(AL!O60="","",
 IF(OR(AL!O60="P",AL!O60="B"),AL!O60,AL!O77))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P93" s="2" t="str">
         <f>IF(AL!P60="","",
@@ -48063,13 +48065,13 @@
         <f>IF(DATA!M$3="","",
 IF(M93="","",
 IF(M93="N","N",IF(DATA!M$3=M93,"W","L"))))</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="N97" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N93="","",
 IF(N93="N","N",IF(DATA!N$3=N93,"W","L"))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O97" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -48443,20 +48445,20 @@
       </c>
       <c r="BY97" s="15">
         <f>IF(B97="","",COUNTIF(B97:BW97,"L"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ97" s="15"/>
       <c r="CA97" s="16">
         <f>IF(B97="","",BX97-BY97)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="61">
     <mergeCell ref="CD1:CP1"/>
     <mergeCell ref="B21:N21"/>
+    <mergeCell ref="FF83:FR83"/>
     <mergeCell ref="CD41:CP41"/>
-    <mergeCell ref="FF83:FR83"/>
     <mergeCell ref="FF41:FR41"/>
     <mergeCell ref="CD75:CP75"/>
     <mergeCell ref="FF58:FR58"/>
@@ -48511,9 +48513,9 @@
     <mergeCell ref="FF33:FR33"/>
     <mergeCell ref="FF21:FR21"/>
     <mergeCell ref="CD17:CP17"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="FF17:FR17"/>
     <mergeCell ref="FF66:FR66"/>
-    <mergeCell ref="FF17:FR17"/>
-    <mergeCell ref="B37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48759,11 +48761,11 @@
       </c>
       <c r="E2" s="18" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="18" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="G2" s="18" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -48795,11 +48797,11 @@
       </c>
       <c r="N2" s="18" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="O2" s="18" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P2" s="18" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
@@ -49049,47 +49051,47 @@
       </c>
       <c r="E3" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O3" s="18" t="str">
+        <v>2</v>
+      </c>
+      <c r="O3" s="18">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="P3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -49341,47 +49343,47 @@
       </c>
       <c r="E4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="O4" s="18" t="str">
+        <v>8</v>
+      </c>
+      <c r="O4" s="18">
         <f t="shared" si="3"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="P4" s="18" t="str">
         <f t="shared" si="3"/>
@@ -49628,47 +49630,47 @@
       </c>
       <c r="E5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="O5" s="18" t="str">
+        <v>-6</v>
+      </c>
+      <c r="O5" s="18">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-7</v>
       </c>
       <c r="P5" s="18" t="str">
         <f t="shared" si="5"/>
@@ -50013,7 +50015,7 @@
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="K7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50037,7 +50039,7 @@
       </c>
       <c r="P7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50328,7 +50330,7 @@
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="Q8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50598,7 +50600,7 @@
       </c>
       <c r="K9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50620,7 +50622,7 @@
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q9" s="18" t="str">
         <f t="shared" si="13"/>
@@ -50970,7 +50972,7 @@
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="K11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -50986,11 +50988,11 @@
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51284,7 +51286,7 @@
       </c>
       <c r="O12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51562,7 +51564,7 @@
       </c>
       <c r="K13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51578,7 +51580,7 @@
       </c>
       <c r="O13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51952,7 +51954,7 @@
       </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52254,7 +52256,7 @@
       </c>
       <c r="P16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52529,7 +52531,7 @@
       </c>
       <c r="M17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52541,7 +52543,7 @@
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52903,7 +52905,7 @@
       </c>
       <c r="O19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -53193,11 +53195,11 @@
       </c>
       <c r="N20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53487,11 +53489,11 @@
       </c>
       <c r="N21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53850,7 +53852,7 @@
       </c>
       <c r="M23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -53862,7 +53864,7 @@
       </c>
       <c r="P23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -54146,11 +54148,11 @@
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P24" s="19" t="str">
         <f t="shared" si="45"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F28B2F-08A5-40E9-892F-3DE04698D836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B3A3F3-7B6B-41AD-972D-47C388D64A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29670" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1497,25 +1497,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>2</v>
@@ -1524,10 +1524,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>2</v>
@@ -1595,16 +1595,16 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M23="","",AI!M23)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N23="","",AI!N23)</f>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P23="","",AI!P23)</f>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q23="","",AI!Q23)</f>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M24="","",AI!M24)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N24="","",AI!N24)</f>
@@ -3259,16 +3259,16 @@
       </c>
       <c r="BX16" s="14">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="15">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="16">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4871,7 +4871,7 @@
       <c r="C3" s="2" t="str">
         <f>IF(DATA!C3="","",
 IF(DATA!B3=DATA!C3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IF(DATA!D3="","",
@@ -4886,7 +4886,7 @@
       <c r="F3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3=DATA!F3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -4896,17 +4896,17 @@
       <c r="H3" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(DATA!G3=DATA!H3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(DATA!H3=DATA!I3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="J3" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(DATA!I3=DATA!J3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -4921,12 +4921,12 @@
       <c r="M3" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(DATA!L3=DATA!M3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="N3" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3=DATA!N3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -5253,7 +5253,7 @@
         <f>IF(DATA!D3="","",
 IF(AL!C3&lt;&gt;AL!D3,AL!C3,
 IF(AL!C3=AL!D3,AL!D3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CH3" s="2" t="str">
         <f>IF(DATA!E3="","",
@@ -5271,7 +5271,7 @@
         <f>IF(DATA!G3="","",
 IF(AL!F3&lt;&gt;AL!G3,AL!F3,
 IF(AL!F3=AL!G3,AL!G3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CK3" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -5283,19 +5283,19 @@
         <f>IF(DATA!I3="","",
 IF(AL!H3&lt;&gt;AL!I3,AL!H3,
 IF(AL!H3=AL!I3,AL!I3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CM3" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(AL!I3&lt;&gt;AL!J3,AL!I3,
 IF(AL!I3=AL!J3,AL!J3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CN3" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(AL!J3&lt;&gt;AL!K3,AL!J3,
 IF(AL!J3=AL!K3,AL!K3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CO3" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -5313,7 +5313,7 @@
         <f>IF(DATA!N3="","",
 IF(AL!M3&lt;&gt;AL!N3,AL!M3,
 IF(AL!M3=AL!N3,AL!N3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CR3" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -6621,7 +6621,7 @@
       <c r="D7" s="2" t="str">
         <f t="shared" ref="D7:AI7" si="0">IF(D3="","",
 IF(C3=D3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6629,15 +6629,15 @@
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="N7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6932,7 +6932,7 @@
         <f>IF(DATA!E3="","",
 IF(AL!D7&lt;&gt;AL!E7,AL!D7,
 IF(AL!D7=AL!E7,AL!E7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CI7" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -6944,19 +6944,19 @@
         <f>IF(DATA!G3="","",
 IF(AL!F7&lt;&gt;AL!G7,AL!F7,
 IF(AL!F7=AL!G7,AL!G7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CK7" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(AL!G7&lt;&gt;AL!H7,AL!G7,
 IF(AL!G7=AL!H7,AL!H7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CL7" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(AL!H7&lt;&gt;AL!I7,AL!H7,
 IF(AL!H7=AL!I7,AL!I7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CM7" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -6974,7 +6974,7 @@
         <f>IF(DATA!L3="","",
 IF(AL!K7&lt;&gt;AL!L7,AL!K7,
 IF(AL!K7=AL!L7,AL!L7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CP7" s="2" t="str">
         <f>IF(DATA!M3="","",
@@ -6986,7 +6986,7 @@
         <f>IF(DATA!N3="","",
 IF(AL!M7&lt;&gt;AL!N7,AL!M7,
 IF(AL!M7=AL!N7,AL!N7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CR7" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -7377,7 +7377,7 @@
         <f>IF(CI7="","",
 IF(CI7="O",AL!F3,
 IF(CI7="X",AL!E3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FL7" s="2" t="str">
         <f>IF(CJ7="","",
@@ -7401,19 +7401,19 @@
         <f>IF(CM7="","",
 IF(CM7="O",AL!J3,
 IF(CM7="X",AL!I3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FP7" s="2" t="str">
         <f>IF(CN7="","",
 IF(CN7="O",AL!K3,
 IF(CN7="X",AL!J3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FQ7" s="2" t="str">
         <f>IF(CO7="","",
 IF(CO7="O",AL!L3,
 IF(CO7="X",AL!K3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FR7" s="2" t="str">
         <f>IF(CP7="","",
@@ -8740,19 +8740,19 @@
         <f>IF(DATA!D3="","",
 IF(DATA!C3&lt;&gt;DATA!D3,DATA!C3,
 IF(DATA!C3=DATA!D3,DATA!D3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(DATA!D3&lt;&gt;DATA!E3,DATA!D3,
 IF(DATA!D3=DATA!E3,DATA!E3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3&lt;&gt;DATA!F3,DATA!E3,
 IF(DATA!E3=DATA!F3,DATA!F3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -8764,7 +8764,7 @@
         <f>IF(DATA!H3="","",
 IF(DATA!G3&lt;&gt;DATA!H3,DATA!G3,
 IF(DATA!G3=DATA!H3,DATA!H3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -8776,7 +8776,7 @@
         <f>IF(DATA!J3="","",
 IF(DATA!I3&lt;&gt;DATA!J3,DATA!I3,
 IF(DATA!I3=DATA!J3,DATA!J3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -8794,13 +8794,13 @@
         <f>IF(DATA!M3="","",
 IF(DATA!L3&lt;&gt;DATA!M3,DATA!L3,
 IF(DATA!L3=DATA!M3,DATA!M3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3&lt;&gt;DATA!N3,DATA!M3,
 IF(DATA!M3=DATA!N3,DATA!N3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="P11" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -9182,13 +9182,13 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
 IF(AL!CH3="O",DATA!E3,
 IF(AL!CH3="X",DATA!D3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CI11" s="2" t="str">
         <f>IF(AL!CI3="","",
@@ -9200,19 +9200,19 @@
         <f>IF(AL!CJ3="","",
 IF(AL!CJ3="O",DATA!G3,
 IF(AL!CJ3="X",DATA!F3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CK11" s="2" t="str">
         <f>IF(AL!CK3="","",
 IF(AL!CK3="O",DATA!H3,
 IF(AL!CK3="X",DATA!G3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CL11" s="2" t="str">
         <f>IF(AL!CL3="","",
 IF(AL!CL3="O",DATA!I3,
 IF(AL!CL3="X",DATA!H3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM11" s="2" t="str">
         <f>IF(AL!CM3="","",
@@ -9230,13 +9230,13 @@
         <f>IF(AL!CO3="","",
 IF(AL!CO3="O",DATA!L3,
 IF(AL!CO3="X",DATA!K3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="CP11" s="2" t="str">
         <f>IF(AL!CP3="","",
 IF(AL!CP3="O",DATA!M3,
 IF(AL!CP3="X",DATA!L3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="CQ11" s="2" t="str">
         <f>IF(AL!CQ3="","",
@@ -9627,13 +9627,13 @@
         <f>IF(AL!FJ7="","",
 IF(AL!FJ7="O",DATA!E3,
 IF(AL!FJ7="X",DATA!D3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FK11" s="2" t="str">
         <f>IF(AL!FK7="","",
 IF(AL!FK7="O",DATA!F3,
 IF(AL!FK7="X",DATA!E3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FL11" s="2" t="str">
         <f>IF(AL!FL7="","",
@@ -9645,13 +9645,13 @@
         <f>IF(AL!FM7="","",
 IF(AL!FM7="O",DATA!H3,
 IF(AL!FM7="X",DATA!G3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="FN11" s="2" t="str">
         <f>IF(AL!FN7="","",
 IF(AL!FN7="O",DATA!I3,
 IF(AL!FN7="X",DATA!H3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO11" s="2" t="str">
         <f>IF(AL!FO7="","",
@@ -9669,13 +9669,13 @@
         <f>IF(AL!FQ7="","",
 IF(AL!FQ7="O",DATA!L3,
 IF(AL!FQ7="X",DATA!K3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR11" s="2" t="str">
         <f>IF(AL!FR7="","",
 IF(AL!FR7="O",DATA!M3,
 IF(AL!FR7="X",DATA!L3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="FS11" s="2" t="str">
         <f>IF(AL!FS7="","",
@@ -10998,7 +10998,7 @@
         <f>IF(DATA!D3="","",
 IF(D11="","",
 IF(D11="N","N",IF(DATA!D3=D11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>IF(DATA!E3="","",
@@ -11010,7 +11010,7 @@
         <f>IF(DATA!F3="","",
 IF(F11="","",
 IF(F11="N","N",IF(DATA!F3=F11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11040,7 +11040,7 @@
         <f>IF(DATA!K3="","",
 IF(K11="","",
 IF(K11="N","N",IF(DATA!K3=K11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L15" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -11052,7 +11052,7 @@
         <f>IF(DATA!M3="","",
 IF(M11="","",
 IF(M11="N","N",IF(DATA!M3=M11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N15" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -11462,7 +11462,7 @@
         <f>IF(DATA!F3="","",
 IF(CH11="","",
 IF(CH11="N","N",IF(DATA!F3=CH11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CI15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11474,7 +11474,7 @@
         <f>IF(DATA!H3="","",
 IF(CJ11="","",
 IF(CJ11="N","N",IF(DATA!H3=CJ11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CK15" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -11486,7 +11486,7 @@
         <f>IF(DATA!J3="","",
 IF(CL11="","",
 IF(CL11="N","N",IF(DATA!J3=CL11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM15" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -11504,7 +11504,7 @@
         <f>IF(DATA!M3="","",
 IF(CO11="","",
 IF(CO11="N","N",IF(DATA!M3=CO11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP15" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -11913,7 +11913,7 @@
         <f>IF(DATA!F3="","",
 IF(FJ11="","",
 IF(FJ11="N","N",IF(DATA!F3=FJ11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FK15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11937,7 +11937,7 @@
         <f>IF(DATA!J3="","",
 IF(FN11="","",
 IF(FN11="N","N",IF(DATA!J3=FN11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO15" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -13292,7 +13292,7 @@
 IF(AL!H11="N","N",
 IF(COUNTIF(AL!D15:G15,"W")&gt;=2,AL!H11,
 IF(COUNTIF(AL!D15:G15,"W")&lt;2,IF(AL!H11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>IF(AL!I11="","",
@@ -13313,7 +13313,7 @@
 IF(AL!K11="N","N",
 IF(COUNTIF(AL!G15:J15,"W")&gt;=2,AL!K11,
 IF(COUNTIF(AL!G15:J15,"W")&lt;2,IF(AL!K11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>IF(AL!L11="","",
@@ -13334,7 +13334,7 @@
 IF(AL!N11="N","N",
 IF(COUNTIF(AL!J15:M15,"W")&gt;=2,AL!N11,
 IF(COUNTIF(AL!J15:M15,"W")&lt;2,IF(AL!N11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>IF(AL!O11="","",
@@ -13810,35 +13810,35 @@
 IF(AL!CM11="N","N",
 IF(COUNTIF(AL!CI15:CL15,"W")&gt;=2,AL!CM11,
 IF(COUNTIF(AL!CI15:CL15,"W")&lt;2,IF(AL!CM11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN19" s="2" t="str">
         <f>IF(AL!CN11="","",
 IF(AL!CN11="N","N",
 IF(COUNTIF(AL!CJ15:CM15,"W")&gt;=2,AL!CN11,
 IF(COUNTIF(AL!CJ15:CM15,"W")&lt;2,IF(AL!CN11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO19" s="2" t="str">
         <f>IF(AL!CO11="","",
 IF(AL!CO11="N","N",
 IF(COUNTIF(AL!CK15:CN15,"W")&gt;=2,AL!CO11,
 IF(COUNTIF(AL!CK15:CN15,"W")&lt;2,IF(AL!CO11="P","B","P")))))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CP19" s="2" t="str">
         <f>IF(AL!CP11="","",
 IF(AL!CP11="N","N",
 IF(COUNTIF(AL!CL15:CO15,"W")&gt;=2,AL!CP11,
 IF(COUNTIF(AL!CL15:CO15,"W")&lt;2,IF(AL!CP11="P","B","P")))))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CQ19" s="2" t="str">
         <f>IF(AL!CQ11="","",
 IF(AL!CQ11="N","N",
 IF(COUNTIF(AL!CM15:CP15,"W")&gt;=2,AL!CQ11,
 IF(COUNTIF(AL!CM15:CP15,"W")&lt;2,IF(AL!CQ11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CR19" s="2" t="str">
         <f>IF(AL!CR11="","",
@@ -14296,7 +14296,7 @@
 IF(AL!FN11="N","N",
 IF(COUNTIF(AL!FJ15:FM15,"W")&gt;=2,AL!FN11,
 IF(COUNTIF(AL!FJ15:FM15,"W")&lt;2,IF(AL!FN11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO19" s="2" t="str">
         <f>IF(AL!FO11="","",
@@ -14310,7 +14310,7 @@
 IF(AL!FP11="N","N",
 IF(COUNTIF(AL!FL15:FO15,"W")&gt;=2,AL!FP11,
 IF(COUNTIF(AL!FL15:FO15,"W")&lt;2,IF(AL!FP11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ19" s="2" t="str">
         <f>IF(AL!FQ11="","",
@@ -14324,7 +14324,7 @@
 IF(AL!FR11="N","N",
 IF(COUNTIF(AL!FN15:FQ15,"W")&gt;=2,AL!FR11,
 IF(COUNTIF(AL!FN15:FQ15,"W")&lt;2,IF(AL!FR11="P","B","P")))))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="FS19" s="2" t="str">
         <f>IF(AL!FS11="","",
@@ -15732,13 +15732,13 @@
         <f>IF(DATA!H$3="","",
 IF(H19="","",
 IF(H19="N","N",IF(DATA!H$3=H19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I23" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I19="","",
 IF(I19="N","N",IF(DATA!I$3=I19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -15750,13 +15750,13 @@
         <f>IF(DATA!K$3="","",
 IF(K19="","",
 IF(K19="N","N",IF(DATA!K$3=K19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L19="","",
 IF(L19="N","N",IF(DATA!L$3=L19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M23" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -15768,7 +15768,7 @@
         <f>IF(DATA!N$3="","",
 IF(N19="","",
 IF(N19="N","N",IF(DATA!N$3=N19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O23" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -16190,7 +16190,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK19="","",
 IF(CK19="N","N",IF(DATA!I$3=CK19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL23" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -16202,13 +16202,13 @@
         <f>IF(DATA!K$3="","",
 IF(CM19="","",
 IF(CM19="N","N",IF(DATA!K$3=CM19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN23" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN19="","",
 IF(CN19="N","N",IF(DATA!L$3=CN19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO23" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -16220,7 +16220,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP19="","",
 IF(CP19="N","N",IF(DATA!N$3=CP19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CQ23" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -16647,7 +16647,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN19="","",
 IF(FN19="N","N",IF(DATA!J$3=FN19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO23" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -16659,19 +16659,19 @@
         <f>IF(DATA!L$3="","",
 IF(FP19="","",
 IF(FP19="N","N",IF(DATA!L$3=FP19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FQ23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ19="","",
 IF(FQ19="N","N",IF(DATA!M$3=FQ19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FR23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR19="","",
 IF(FR19="N","N",IF(DATA!N$3=FR19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FS23" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -17999,7 +17999,7 @@
 IF(AL!H19="N","N",
 IF(COUNTIF(AL!D23:G23,"W")&gt;=2,AL!H19,
 IF(COUNTIF(AL!D23:G23,"W")&lt;2,IF(AL!H19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>IF(AL!I19="","",
@@ -18013,7 +18013,7 @@
 IF(AL!J19="N","N",
 IF(COUNTIF(AL!F23:I23,"W")&gt;=2,AL!J19,
 IF(COUNTIF(AL!F23:I23,"W")&lt;2,IF(AL!J19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K27" s="2" t="str">
         <f>IF(AL!K19="","",
@@ -18027,14 +18027,14 @@
 IF(AL!L19="N","N",
 IF(COUNTIF(AL!H23:K23,"W")&gt;=2,AL!L19,
 IF(COUNTIF(AL!H23:K23,"W")&lt;2,IF(AL!L19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M27" s="2" t="str">
         <f>IF(AL!M19="","",
 IF(AL!M19="N","N",
 IF(COUNTIF(AL!I23:L23,"W")&gt;=2,AL!M19,
 IF(COUNTIF(AL!I23:L23,"W")&lt;2,IF(AL!M19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N27" s="2" t="str">
         <f>IF(AL!N19="","",
@@ -18048,7 +18048,7 @@
 IF(AL!O19="N","N",
 IF(COUNTIF(AL!K23:N23,"W")&gt;=2,AL!O19,
 IF(COUNTIF(AL!K23:N23,"W")&lt;2,IF(AL!O19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P27" s="2" t="str">
         <f>IF(AL!P19="","",
@@ -18524,28 +18524,28 @@
 IF(AL!CN19="N","N",
 IF(COUNTIF(AL!CJ23:CM23,"W")&gt;=2,AL!CN19,
 IF(COUNTIF(AL!CJ23:CM23,"W")&lt;2,IF(AL!CN19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO27" s="2" t="str">
         <f>IF(AL!CO19="","",
 IF(AL!CO19="N","N",
 IF(COUNTIF(AL!CK23:CN23,"W")&gt;=2,AL!CO19,
 IF(COUNTIF(AL!CK23:CN23,"W")&lt;2,IF(AL!CO19="P","B","P")))))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CP27" s="2" t="str">
         <f>IF(AL!CP19="","",
 IF(AL!CP19="N","N",
 IF(COUNTIF(AL!CL23:CO23,"W")&gt;=2,AL!CP19,
 IF(COUNTIF(AL!CL23:CO23,"W")&lt;2,IF(AL!CP19="P","B","P")))))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CQ27" s="2" t="str">
         <f>IF(AL!CQ19="","",
 IF(AL!CQ19="N","N",
 IF(COUNTIF(AL!CM23:CP23,"W")&gt;=2,AL!CQ19,
 IF(COUNTIF(AL!CM23:CP23,"W")&lt;2,IF(AL!CQ19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CR27" s="2" t="str">
         <f>IF(AL!CR19="","",
@@ -19003,7 +19003,7 @@
 IF(AL!FN19="N","N",
 IF(COUNTIF(AL!FJ23:FM23,"W")&gt;=2,AL!FN19,
 IF(COUNTIF(AL!FJ23:FM23,"W")&lt;2,IF(AL!FN19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO27" s="2" t="str">
         <f>IF(AL!FO19="","",
@@ -19017,28 +19017,28 @@
 IF(AL!FP19="N","N",
 IF(COUNTIF(AL!FL23:FO23,"W")&gt;=2,AL!FP19,
 IF(COUNTIF(AL!FL23:FO23,"W")&lt;2,IF(AL!FP19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ27" s="2" t="str">
         <f>IF(AL!FQ19="","",
 IF(AL!FQ19="N","N",
 IF(COUNTIF(AL!FM23:FP23,"W")&gt;=2,AL!FQ19,
 IF(COUNTIF(AL!FM23:FP23,"W")&lt;2,IF(AL!FQ19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR27" s="2" t="str">
         <f>IF(AL!FR19="","",
 IF(AL!FR19="N","N",
 IF(COUNTIF(AL!FN23:FQ23,"W")&gt;=2,AL!FR19,
 IF(COUNTIF(AL!FN23:FQ23,"W")&lt;2,IF(AL!FR19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS27" s="2" t="str">
         <f>IF(AL!FS19="","",
 IF(AL!FS19="N","N",
 IF(COUNTIF(AL!FO23:FR23,"W")&gt;=2,AL!FS19,
 IF(COUNTIF(AL!FO23:FR23,"W")&lt;2,IF(AL!FS19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FT27" s="2" t="str">
         <f>IF(AL!FT19="","",
@@ -20439,19 +20439,19 @@
         <f>IF(DATA!H$3="","",
 IF(H27="","",
 IF(H27="N","N",IF(DATA!H$3=H27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I27="","",
 IF(I27="N","N",IF(DATA!I$3=I27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J27="","",
 IF(J27="N","N",IF(DATA!J$3=J27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -20463,7 +20463,7 @@
         <f>IF(DATA!L$3="","",
 IF(L27="","",
 IF(L27="N","N",IF(DATA!L$3=L27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M31" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -20897,7 +20897,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK27="","",
 IF(CK27="N","N",IF(DATA!I$3=CK27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL31" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -20915,7 +20915,7 @@
         <f>IF(DATA!L$3="","",
 IF(CN27="","",
 IF(CN27="N","N",IF(DATA!L$3=CN27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO31" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -20927,7 +20927,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP27="","",
 IF(CP27="N","N",IF(DATA!N$3=CP27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CQ31" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -21354,7 +21354,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN27="","",
 IF(FN27="N","N",IF(DATA!J$3=FN27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO31" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -21372,13 +21372,13 @@
         <f>IF(DATA!M$3="","",
 IF(FQ27="","",
 IF(FQ27="N","N",IF(DATA!M$3=FQ27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FR31" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR27="","",
 IF(FR27="N","N",IF(DATA!N$3=FR27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FS31" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -22706,7 +22706,7 @@
 IF(AL!H27="N","N",
 IF(COUNTIF(AL!D31:G31,"W")&gt;=2,AL!H27,
 IF(COUNTIF(AL!D31:G31,"W")&lt;2,IF(AL!H27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>IF(AL!I27="","",
@@ -22727,35 +22727,35 @@
 IF(AL!K27="N","N",
 IF(COUNTIF(AL!G31:J31,"W")&gt;=2,AL!K27,
 IF(COUNTIF(AL!G31:J31,"W")&lt;2,IF(AL!K27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L35" s="2" t="str">
         <f>IF(AL!L27="","",
 IF(AL!L27="N","N",
 IF(COUNTIF(AL!H31:K31,"W")&gt;=2,AL!L27,
 IF(COUNTIF(AL!H31:K31,"W")&lt;2,IF(AL!L27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M35" s="2" t="str">
         <f>IF(AL!M27="","",
 IF(AL!M27="N","N",
 IF(COUNTIF(AL!I31:L31,"W")&gt;=2,AL!M27,
 IF(COUNTIF(AL!I31:L31,"W")&lt;2,IF(AL!M27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N35" s="2" t="str">
         <f>IF(AL!N27="","",
 IF(AL!N27="N","N",
 IF(COUNTIF(AL!J31:M31,"W")&gt;=2,AL!N27,
 IF(COUNTIF(AL!J31:M31,"W")&lt;2,IF(AL!N27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O35" s="2" t="str">
         <f>IF(AL!O27="","",
 IF(AL!O27="N","N",
 IF(COUNTIF(AL!K31:N31,"W")&gt;=2,AL!O27,
 IF(COUNTIF(AL!K31:N31,"W")&lt;2,IF(AL!O27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P35" s="2" t="str">
         <f>IF(AL!P27="","",
@@ -23231,7 +23231,7 @@
 IF(AL!CN27="N","N",
 IF(COUNTIF(AL!CJ31:CM31,"W")&gt;=2,AL!CN27,
 IF(COUNTIF(AL!CJ31:CM31,"W")&lt;2,IF(AL!CN27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO35" s="2" t="str">
         <f>IF(AL!CO27="","",
@@ -23245,7 +23245,7 @@
 IF(AL!CP27="N","N",
 IF(COUNTIF(AL!CL31:CO31,"W")&gt;=2,AL!CP27,
 IF(COUNTIF(AL!CL31:CO31,"W")&lt;2,IF(AL!CP27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ35" s="2" t="str">
         <f>IF(AL!CQ27="","",
@@ -23710,7 +23710,7 @@
 IF(AL!FN27="N","N",
 IF(COUNTIF(AL!FJ31:FM31,"W")&gt;=2,AL!FN27,
 IF(COUNTIF(AL!FJ31:FM31,"W")&lt;2,IF(AL!FN27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO35" s="2" t="str">
         <f>IF(AL!FO27="","",
@@ -23738,7 +23738,7 @@
 IF(AL!FR27="N","N",
 IF(COUNTIF(AL!FN31:FQ31,"W")&gt;=2,AL!FR27,
 IF(COUNTIF(AL!FN31:FQ31,"W")&lt;2,IF(AL!FR27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS35" s="2" t="str">
         <f>IF(AL!FS27="","",
@@ -25146,13 +25146,13 @@
         <f>IF(DATA!H$3="","",
 IF(H35="","",
 IF(H35="N","N",IF(DATA!H$3=H35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I35="","",
 IF(I35="N","N",IF(DATA!I$3=I35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -25164,13 +25164,13 @@
         <f>IF(DATA!K$3="","",
 IF(K35="","",
 IF(K35="N","N",IF(DATA!K$3=K35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L35="","",
 IF(L35="N","N",IF(DATA!L$3=L35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M39" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -25182,7 +25182,7 @@
         <f>IF(DATA!N$3="","",
 IF(N35="","",
 IF(N35="N","N",IF(DATA!N$3=N35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -25604,7 +25604,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK35="","",
 IF(CK35="N","N",IF(DATA!I$3=CK35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL39" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -25634,7 +25634,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP35="","",
 IF(CP35="N","N",IF(DATA!N$3=CP35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CQ39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -26061,7 +26061,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN35="","",
 IF(FN35="N","N",IF(DATA!J$3=FN35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO39" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -26073,7 +26073,7 @@
         <f>IF(DATA!L$3="","",
 IF(FP35="","",
 IF(FP35="N","N",IF(DATA!L$3=FP35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FQ39" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -26085,7 +26085,7 @@
         <f>IF(DATA!N$3="","",
 IF(FR35="","",
 IF(FR35="N","N",IF(DATA!N$3=FR35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FS39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -27413,7 +27413,7 @@
 IF(AL!H35="N","N",
 IF(COUNTIF(AL!D39:G39,"W")&gt;=2,AL!H35,
 IF(COUNTIF(AL!D39:G39,"W")&lt;2,IF(AL!H35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>IF(AL!I35="","",
@@ -27427,7 +27427,7 @@
 IF(AL!J35="N","N",
 IF(COUNTIF(AL!F39:I39,"W")&gt;=2,AL!J35,
 IF(COUNTIF(AL!F39:I39,"W")&lt;2,IF(AL!J35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(AL!K35="","",
@@ -27455,7 +27455,7 @@
 IF(AL!N35="N","N",
 IF(COUNTIF(AL!J39:M39,"W")&gt;=2,AL!N35,
 IF(COUNTIF(AL!J39:M39,"W")&lt;2,IF(AL!N35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O43" s="2" t="str">
         <f>IF(AL!O35="","",
@@ -27931,14 +27931,14 @@
 IF(AL!CM35="N","N",
 IF(COUNTIF(AL!CI39:CL39,"W")&gt;=2,AL!CM35,
 IF(COUNTIF(AL!CI39:CL39,"W")&lt;2,IF(AL!CM35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN43" s="2" t="str">
         <f>IF(AL!CN35="","",
 IF(AL!CN35="N","N",
 IF(COUNTIF(AL!CJ39:CM39,"W")&gt;=2,AL!CN35,
 IF(COUNTIF(AL!CJ39:CM39,"W")&lt;2,IF(AL!CN35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO43" s="2" t="str">
         <f>IF(AL!CO35="","",
@@ -27952,14 +27952,14 @@
 IF(AL!CP35="N","N",
 IF(COUNTIF(AL!CL39:CO39,"W")&gt;=2,AL!CP35,
 IF(COUNTIF(AL!CL39:CO39,"W")&lt;2,IF(AL!CP35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ43" s="2" t="str">
         <f>IF(AL!CQ35="","",
 IF(AL!CQ35="N","N",
 IF(COUNTIF(AL!CM39:CP39,"W")&gt;=2,AL!CQ35,
 IF(COUNTIF(AL!CM39:CP39,"W")&lt;2,IF(AL!CQ35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CR43" s="2" t="str">
         <f>IF(AL!CR35="","",
@@ -28417,7 +28417,7 @@
 IF(AL!FN35="N","N",
 IF(COUNTIF(AL!FJ39:FM39,"W")&gt;=2,AL!FN35,
 IF(COUNTIF(AL!FJ39:FM39,"W")&lt;2,IF(AL!FN35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO43" s="2" t="str">
         <f>IF(AL!FO35="","",
@@ -28438,7 +28438,7 @@
 IF(AL!FQ35="N","N",
 IF(COUNTIF(AL!FM39:FP39,"W")&gt;=2,AL!FQ35,
 IF(COUNTIF(AL!FM39:FP39,"W")&lt;2,IF(AL!FQ35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR43" s="2" t="str">
         <f>IF(AL!FR35="","",
@@ -28452,7 +28452,7 @@
 IF(AL!FS35="N","N",
 IF(COUNTIF(AL!FO39:FR39,"W")&gt;=2,AL!FS35,
 IF(COUNTIF(AL!FO39:FR39,"W")&lt;2,IF(AL!FS35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FT43" s="2" t="str">
         <f>IF(AL!FT35="","",
@@ -29853,19 +29853,19 @@
         <f>IF(DATA!H$3="","",
 IF(H43="","",
 IF(H43="N","N",IF(DATA!H$3=H43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I43="","",
 IF(I43="N","N",IF(DATA!I$3=I43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J47" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J43="","",
 IF(J43="N","N",IF(DATA!J$3=J43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K47" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -29877,7 +29877,7 @@
         <f>IF(DATA!L$3="","",
 IF(L43="","",
 IF(L43="N","N",IF(DATA!L$3=L43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M47" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -29889,7 +29889,7 @@
         <f>IF(DATA!N$3="","",
 IF(N43="","",
 IF(N43="N","N",IF(DATA!N$3=N43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O47" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -30311,7 +30311,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK43="","",
 IF(CK43="N","N",IF(DATA!I$3=CK43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL47" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -30323,7 +30323,7 @@
         <f>IF(DATA!K$3="","",
 IF(CM43="","",
 IF(CM43="N","N",IF(DATA!K$3=CM43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN47" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -30341,7 +30341,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP43="","",
 IF(CP43="N","N",IF(DATA!N$3=CP43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CQ47" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -30768,7 +30768,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN43="","",
 IF(FN43="N","N",IF(DATA!J$3=FN43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO47" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -32455,7 +32455,7 @@
       </c>
       <c r="CP51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v>R</v>
       </c>
       <c r="CQ51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -33392,7 +33392,7 @@
       </c>
       <c r="CQ52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="CR52" s="2" t="str">
         <f t="shared" si="15"/>
@@ -33706,7 +33706,7 @@
       </c>
       <c r="FS52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FT52" s="2" t="str">
         <f t="shared" si="18"/>
@@ -36949,7 +36949,7 @@
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -39438,7 +39438,7 @@
       </c>
       <c r="CP68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v>F</v>
       </c>
       <c r="CQ68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -40375,7 +40375,7 @@
       </c>
       <c r="CQ69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="CR69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40689,7 +40689,7 @@
       </c>
       <c r="FS69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FT69" s="2" t="str">
         <f t="shared" si="39"/>
@@ -43932,7 +43932,7 @@
       </c>
       <c r="O77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -47366,7 +47366,7 @@
       <c r="O93" s="2" t="str">
         <f>IF(AL!O60="","",
 IF(OR(AL!O60="P",AL!O60="B"),AL!O60,AL!O77))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P93" s="2" t="str">
         <f>IF(AL!P60="","",
@@ -48457,8 +48457,8 @@
   <mergeCells count="61">
     <mergeCell ref="CD1:CP1"/>
     <mergeCell ref="B21:N21"/>
+    <mergeCell ref="CD41:CP41"/>
     <mergeCell ref="FF83:FR83"/>
-    <mergeCell ref="CD41:CP41"/>
     <mergeCell ref="FF41:FR41"/>
     <mergeCell ref="CD75:CP75"/>
     <mergeCell ref="FF58:FR58"/>
@@ -48502,7 +48502,7 @@
     <mergeCell ref="B91:N91"/>
     <mergeCell ref="B87:N87"/>
     <mergeCell ref="FF13:FR13"/>
-    <mergeCell ref="CD37:CP37"/>
+    <mergeCell ref="FF66:FR66"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="B49:N49"/>
     <mergeCell ref="B83:N83"/>
@@ -48514,8 +48514,8 @@
     <mergeCell ref="FF21:FR21"/>
     <mergeCell ref="CD17:CP17"/>
     <mergeCell ref="B37:N37"/>
+    <mergeCell ref="CD37:CP37"/>
     <mergeCell ref="FF17:FR17"/>
-    <mergeCell ref="FF66:FR66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48757,15 +48757,15 @@
       </c>
       <c r="D2" s="18" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="18" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="18" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G2" s="18" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -48773,7 +48773,7 @@
       </c>
       <c r="H2" s="18" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="I2" s="18" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
@@ -48781,7 +48781,7 @@
       </c>
       <c r="J2" s="18" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K2" s="18" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -48793,11 +48793,11 @@
       </c>
       <c r="M2" s="18" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="N2" s="18" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="O2" s="18" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -49047,51 +49047,51 @@
       <c r="D3" s="18">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -49339,51 +49339,51 @@
       <c r="D4" s="18">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P4" s="18" t="str">
         <f t="shared" si="3"/>
@@ -49626,51 +49626,51 @@
       </c>
       <c r="D5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="O5" s="18">
         <f t="shared" si="5"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="P5" s="18" t="str">
         <f t="shared" si="5"/>
@@ -50011,35 +50011,35 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="Q7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50306,7 +50306,7 @@
       </c>
       <c r="J8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="K8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50314,7 +50314,7 @@
       </c>
       <c r="L8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50326,11 +50326,11 @@
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="Q8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50596,15 +50596,15 @@
       </c>
       <c r="J9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50612,7 +50612,7 @@
       </c>
       <c r="N9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O9" s="18" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
@@ -50622,7 +50622,7 @@
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q9" s="18" t="str">
         <f t="shared" si="13"/>
@@ -50968,7 +50968,7 @@
       </c>
       <c r="I11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -50976,11 +50976,11 @@
       </c>
       <c r="K11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -50988,11 +50988,11 @@
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51274,7 +51274,7 @@
       </c>
       <c r="L12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51282,7 +51282,7 @@
       </c>
       <c r="N12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51564,15 +51564,15 @@
       </c>
       <c r="K13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51954,7 +51954,7 @@
       </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="Q15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52252,7 +52252,7 @@
       </c>
       <c r="O16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52531,7 +52531,7 @@
       </c>
       <c r="M17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52539,7 +52539,7 @@
       </c>
       <c r="O17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52901,7 +52901,7 @@
       </c>
       <c r="N19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -53191,7 +53191,7 @@
       </c>
       <c r="M20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53199,7 +53199,7 @@
       </c>
       <c r="O20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53485,7 +53485,7 @@
       </c>
       <c r="M21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53493,7 +53493,7 @@
       </c>
       <c r="O21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53852,7 +53852,7 @@
       </c>
       <c r="M23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -53864,7 +53864,7 @@
       </c>
       <c r="P23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="Q23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -54144,7 +54144,7 @@
       </c>
       <c r="M24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="45"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B3A3F3-7B6B-41AD-972D-47C388D64A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4859E85-AC34-44BF-8704-653062D6F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29670" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="54">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1494,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -1506,16 +1506,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>2</v>
@@ -1524,14 +1524,12 @@
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1595,16 +1593,16 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2384,7 +2382,7 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N23="","",AI!N23)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O23="","",AI!O23)</f>
@@ -2392,7 +2390,7 @@
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P23="","",AI!P23)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q23="","",AI!Q23)</f>
@@ -3003,15 +3001,15 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M24="","",AI!M24)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N24="","",AI!N24)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O24="","",AI!O24)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P24="","",AI!P24)</f>
@@ -3259,7 +3257,7 @@
       </c>
       <c r="BX16" s="14">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY16" s="15">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
@@ -3268,7 +3266,7 @@
       <c r="BZ16" s="15"/>
       <c r="CA16" s="16">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4876,7 +4874,7 @@
       <c r="D3" s="2" t="str">
         <f>IF(DATA!D3="","",
 IF(DATA!C3=DATA!D3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>IF(DATA!E3="","",
@@ -4886,7 +4884,7 @@
       <c r="F3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3=DATA!F3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -4896,12 +4894,12 @@
       <c r="H3" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(DATA!G3=DATA!H3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(DATA!H3=DATA!I3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="J3" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -4916,17 +4914,17 @@
       <c r="L3" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(DATA!K3=DATA!L3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="M3" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(DATA!L3=DATA!M3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="N3" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3=DATA!N3,"O","X"))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="O3" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -5259,7 +5257,7 @@
         <f>IF(DATA!E3="","",
 IF(AL!D3&lt;&gt;AL!E3,AL!D3,
 IF(AL!D3=AL!E3,AL!E3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CI3" s="2" t="str">
         <f>IF(DATA!F3="","",
@@ -5271,7 +5269,7 @@
         <f>IF(DATA!G3="","",
 IF(AL!F3&lt;&gt;AL!G3,AL!F3,
 IF(AL!F3=AL!G3,AL!G3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CK3" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -5283,13 +5281,13 @@
         <f>IF(DATA!I3="","",
 IF(AL!H3&lt;&gt;AL!I3,AL!H3,
 IF(AL!H3=AL!I3,AL!I3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CM3" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(AL!I3&lt;&gt;AL!J3,AL!I3,
 IF(AL!I3=AL!J3,AL!J3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CN3" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -5307,13 +5305,13 @@
         <f>IF(DATA!M3="","",
 IF(AL!L3&lt;&gt;AL!M3,AL!L3,
 IF(AL!L3=AL!M3,AL!M3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CQ3" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(AL!M3&lt;&gt;AL!N3,AL!M3,
 IF(AL!M3=AL!N3,AL!N3)))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="CR3" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -6621,23 +6619,23 @@
       <c r="D7" s="2" t="str">
         <f t="shared" ref="D7:AI7" si="0">IF(D3="","",
 IF(C3=D3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6645,7 +6643,7 @@
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6653,7 +6651,7 @@
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6661,7 +6659,7 @@
       </c>
       <c r="N7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="O7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6932,31 +6930,31 @@
         <f>IF(DATA!E3="","",
 IF(AL!D7&lt;&gt;AL!E7,AL!D7,
 IF(AL!D7=AL!E7,AL!E7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CI7" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(AL!E7&lt;&gt;AL!F7,AL!E7,
 IF(AL!E7=AL!F7,AL!F7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CJ7" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(AL!F7&lt;&gt;AL!G7,AL!F7,
 IF(AL!F7=AL!G7,AL!G7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CK7" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(AL!G7&lt;&gt;AL!H7,AL!G7,
 IF(AL!G7=AL!H7,AL!H7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CL7" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(AL!H7&lt;&gt;AL!I7,AL!H7,
 IF(AL!H7=AL!I7,AL!I7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CM7" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -6968,7 +6966,7 @@
         <f>IF(DATA!K3="","",
 IF(AL!J7&lt;&gt;AL!K7,AL!J7,
 IF(AL!J7=AL!K7,AL!K7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CO7" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -6980,13 +6978,13 @@
         <f>IF(DATA!M3="","",
 IF(AL!L7&lt;&gt;AL!M7,AL!L7,
 IF(AL!L7=AL!M7,AL!M7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CQ7" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(AL!M7&lt;&gt;AL!N7,AL!M7,
 IF(AL!M7=AL!N7,AL!N7)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="CR7" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -7377,7 +7375,7 @@
         <f>IF(CI7="","",
 IF(CI7="O",AL!F3,
 IF(CI7="X",AL!E3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FL7" s="2" t="str">
         <f>IF(CJ7="","",
@@ -7401,13 +7399,13 @@
         <f>IF(CM7="","",
 IF(CM7="O",AL!J3,
 IF(CM7="X",AL!I3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FP7" s="2" t="str">
         <f>IF(CN7="","",
 IF(CN7="O",AL!K3,
 IF(CN7="X",AL!J3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FQ7" s="2" t="str">
         <f>IF(CO7="","",
@@ -7419,13 +7417,13 @@
         <f>IF(CP7="","",
 IF(CP7="O",AL!M3,
 IF(CP7="X",AL!L3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FS7" s="2" t="str">
         <f>IF(CQ7="","",
 IF(CQ7="O",AL!N3,
 IF(CQ7="X",AL!M3)))</f>
-        <v>O</v>
+        <v/>
       </c>
       <c r="FT7" s="2" t="str">
         <f>IF(CR7="","",
@@ -8734,13 +8732,13 @@
         <f>IF(DATA!C3="","",
 IF(DATA!B3&lt;&gt;DATA!C3,DATA!B3,
 IF(DATA!B3=DATA!C3,DATA!C3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>IF(DATA!D3="","",
 IF(DATA!C3&lt;&gt;DATA!D3,DATA!C3,
 IF(DATA!C3=DATA!D3,DATA!D3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>IF(DATA!E3="","",
@@ -8758,25 +8756,25 @@
         <f>IF(DATA!G3="","",
 IF(DATA!F3&lt;&gt;DATA!G3,DATA!F3,
 IF(DATA!F3=DATA!G3,DATA!G3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(DATA!G3&lt;&gt;DATA!H3,DATA!G3,
 IF(DATA!G3=DATA!H3,DATA!H3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(DATA!H3&lt;&gt;DATA!I3,DATA!H3,
 IF(DATA!H3=DATA!I3,DATA!I3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(DATA!I3&lt;&gt;DATA!J3,DATA!I3,
 IF(DATA!I3=DATA!J3,DATA!J3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -8794,13 +8792,13 @@
         <f>IF(DATA!M3="","",
 IF(DATA!L3&lt;&gt;DATA!M3,DATA!L3,
 IF(DATA!L3=DATA!M3,DATA!M3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(DATA!M3&lt;&gt;DATA!N3,DATA!M3,
 IF(DATA!M3=DATA!N3,DATA!N3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P11" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -9182,7 +9180,7 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
@@ -9194,7 +9192,7 @@
         <f>IF(AL!CI3="","",
 IF(AL!CI3="O",DATA!F3,
 IF(AL!CI3="X",DATA!E3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CJ11" s="2" t="str">
         <f>IF(AL!CJ3="","",
@@ -9206,19 +9204,19 @@
         <f>IF(AL!CK3="","",
 IF(AL!CK3="O",DATA!H3,
 IF(AL!CK3="X",DATA!G3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CL11" s="2" t="str">
         <f>IF(AL!CL3="","",
 IF(AL!CL3="O",DATA!I3,
 IF(AL!CL3="X",DATA!H3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CM11" s="2" t="str">
         <f>IF(AL!CM3="","",
 IF(AL!CM3="O",DATA!J3,
 IF(AL!CM3="X",DATA!I3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="CN11" s="2" t="str">
         <f>IF(AL!CN3="","",
@@ -9230,19 +9228,19 @@
         <f>IF(AL!CO3="","",
 IF(AL!CO3="O",DATA!L3,
 IF(AL!CO3="X",DATA!K3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CP11" s="2" t="str">
         <f>IF(AL!CP3="","",
 IF(AL!CP3="O",DATA!M3,
 IF(AL!CP3="X",DATA!L3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ11" s="2" t="str">
         <f>IF(AL!CQ3="","",
 IF(AL!CQ3="O",DATA!N3,
 IF(AL!CQ3="X",DATA!M3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CR11" s="2" t="str">
         <f>IF(AL!CR3="","",
@@ -9639,25 +9637,25 @@
         <f>IF(AL!FL7="","",
 IF(AL!FL7="O",DATA!G3,
 IF(AL!FL7="X",DATA!F3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FM11" s="2" t="str">
         <f>IF(AL!FM7="","",
 IF(AL!FM7="O",DATA!H3,
 IF(AL!FM7="X",DATA!G3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="FN11" s="2" t="str">
         <f>IF(AL!FN7="","",
 IF(AL!FN7="O",DATA!I3,
 IF(AL!FN7="X",DATA!H3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="FO11" s="2" t="str">
         <f>IF(AL!FO7="","",
 IF(AL!FO7="O",DATA!J3,
 IF(AL!FO7="X",DATA!I3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="FP11" s="2" t="str">
         <f>IF(AL!FP7="","",
@@ -9669,19 +9667,19 @@
         <f>IF(AL!FQ7="","",
 IF(AL!FQ7="O",DATA!L3,
 IF(AL!FQ7="X",DATA!K3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR11" s="2" t="str">
         <f>IF(AL!FR7="","",
 IF(AL!FR7="O",DATA!M3,
 IF(AL!FR7="X",DATA!L3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS11" s="2" t="str">
         <f>IF(AL!FS7="","",
 IF(AL!FS7="O",DATA!N3,
 IF(AL!FS7="X",DATA!M3)))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FT11" s="2" t="str">
         <f>IF(AL!FT7="","",
@@ -10998,19 +10996,19 @@
         <f>IF(DATA!D3="","",
 IF(D11="","",
 IF(D11="N","N",IF(DATA!D3=D11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(E11="","",
 IF(E11="N","N",IF(DATA!E3=E11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(F11="","",
 IF(F11="N","N",IF(DATA!F3=F11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11034,7 +11032,7 @@
         <f>IF(DATA!J3="","",
 IF(J11="","",
 IF(J11="N","N",IF(DATA!J3=J11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -11046,7 +11044,7 @@
         <f>IF(DATA!L3="","",
 IF(L11="","",
 IF(L11="N","N",IF(DATA!L3=L11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M15" s="2" t="str">
         <f>IF(DATA!M3="","",
@@ -11058,7 +11056,7 @@
         <f>IF(DATA!N3="","",
 IF(N11="","",
 IF(N11="N","N",IF(DATA!N3=N11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O15" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -11456,13 +11454,13 @@
         <f>IF(DATA!E3="","",
 IF(CG11="","",
 IF(CG11="N","N",IF(DATA!E3=CG11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CH15" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(CH11="","",
 IF(CH11="N","N",IF(DATA!F3=CH11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CI15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11474,7 +11472,7 @@
         <f>IF(DATA!H3="","",
 IF(CJ11="","",
 IF(CJ11="N","N",IF(DATA!H3=CJ11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CK15" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -11492,25 +11490,25 @@
         <f>IF(DATA!K3="","",
 IF(CM11="","",
 IF(CM11="N","N",IF(DATA!K3=CM11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN15" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(CN11="","",
 IF(CN11="N","N",IF(DATA!L3=CN11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO15" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(CO11="","",
 IF(CO11="N","N",IF(DATA!M3=CO11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP15" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(CP11="","",
 IF(CP11="N","N",IF(DATA!N3=CP11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="CQ15" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -11913,7 +11911,7 @@
         <f>IF(DATA!F3="","",
 IF(FJ11="","",
 IF(FJ11="N","N",IF(DATA!F3=FJ11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FK15" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -11943,25 +11941,25 @@
         <f>IF(DATA!K3="","",
 IF(FO11="","",
 IF(FO11="N","N",IF(DATA!K3=FO11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP15" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(FP11="","",
 IF(FP11="N","N",IF(DATA!L3=FP11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FQ15" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(FQ11="","",
 IF(FQ11="N","N",IF(DATA!M3=FQ11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FR15" s="2" t="str">
         <f>IF(DATA!N3="","",
 IF(FR11="","",
 IF(FR11="N","N",IF(DATA!N3=FR11,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="FS15" s="2" t="str">
         <f>IF(DATA!O3="","",
@@ -13306,14 +13304,14 @@
 IF(AL!J11="N","N",
 IF(COUNTIF(AL!F15:I15,"W")&gt;=2,AL!J11,
 IF(COUNTIF(AL!F15:I15,"W")&lt;2,IF(AL!J11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K19" s="2" t="str">
         <f>IF(AL!K11="","",
 IF(AL!K11="N","N",
 IF(COUNTIF(AL!G15:J15,"W")&gt;=2,AL!K11,
 IF(COUNTIF(AL!G15:J15,"W")&lt;2,IF(AL!K11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>IF(AL!L11="","",
@@ -13327,7 +13325,7 @@
 IF(AL!M11="N","N",
 IF(COUNTIF(AL!I15:L15,"W")&gt;=2,AL!M11,
 IF(COUNTIF(AL!I15:L15,"W")&lt;2,IF(AL!M11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>IF(AL!N11="","",
@@ -13341,7 +13339,7 @@
 IF(AL!O11="N","N",
 IF(COUNTIF(AL!K15:N15,"W")&gt;=2,AL!O11,
 IF(COUNTIF(AL!K15:N15,"W")&lt;2,IF(AL!O11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P19" s="2" t="str">
         <f>IF(AL!P11="","",
@@ -13796,14 +13794,14 @@
 IF(AL!CK11="N","N",
 IF(COUNTIF(AL!CG15:CJ15,"W")&gt;=2,AL!CK11,
 IF(COUNTIF(AL!CG15:CJ15,"W")&lt;2,IF(AL!CK11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL19" s="2" t="str">
         <f>IF(AL!CL11="","",
 IF(AL!CL11="N","N",
 IF(COUNTIF(AL!CH15:CK15,"W")&gt;=2,AL!CL11,
 IF(COUNTIF(AL!CH15:CK15,"W")&lt;2,IF(AL!CL11="P","B","P")))))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="CM19" s="2" t="str">
         <f>IF(AL!CM11="","",
@@ -13824,7 +13822,7 @@
 IF(AL!CO11="N","N",
 IF(COUNTIF(AL!CK15:CN15,"W")&gt;=2,AL!CO11,
 IF(COUNTIF(AL!CK15:CN15,"W")&lt;2,IF(AL!CO11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP19" s="2" t="str">
         <f>IF(AL!CP11="","",
@@ -13838,7 +13836,7 @@
 IF(AL!CQ11="N","N",
 IF(COUNTIF(AL!CM15:CP15,"W")&gt;=2,AL!CQ11,
 IF(COUNTIF(AL!CM15:CP15,"W")&lt;2,IF(AL!CQ11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CR19" s="2" t="str">
         <f>IF(AL!CR11="","",
@@ -14296,7 +14294,7 @@
 IF(AL!FN11="N","N",
 IF(COUNTIF(AL!FJ15:FM15,"W")&gt;=2,AL!FN11,
 IF(COUNTIF(AL!FJ15:FM15,"W")&lt;2,IF(AL!FN11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO19" s="2" t="str">
         <f>IF(AL!FO11="","",
@@ -14317,7 +14315,7 @@
 IF(AL!FQ11="N","N",
 IF(COUNTIF(AL!FM15:FP15,"W")&gt;=2,AL!FQ11,
 IF(COUNTIF(AL!FM15:FP15,"W")&lt;2,IF(AL!FQ11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR19" s="2" t="str">
         <f>IF(AL!FR11="","",
@@ -14331,7 +14329,7 @@
 IF(AL!FS11="N","N",
 IF(COUNTIF(AL!FO15:FR15,"W")&gt;=2,AL!FS11,
 IF(COUNTIF(AL!FO15:FR15,"W")&lt;2,IF(AL!FS11="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FT19" s="2" t="str">
         <f>IF(AL!FT11="","",
@@ -15732,43 +15730,43 @@
         <f>IF(DATA!H$3="","",
 IF(H19="","",
 IF(H19="N","N",IF(DATA!H$3=H19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I23" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I19="","",
 IF(I19="N","N",IF(DATA!I$3=I19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J19="","",
 IF(J19="N","N",IF(DATA!J$3=J19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K23" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(K19="","",
 IF(K19="N","N",IF(DATA!K$3=K19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L19="","",
 IF(L19="N","N",IF(DATA!L$3=L19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(M19="","",
 IF(M19="N","N",IF(DATA!M$3=M19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(N19="","",
 IF(N19="N","N",IF(DATA!N$3=N19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O23" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -16190,13 +16188,13 @@
         <f>IF(DATA!I$3="","",
 IF(CK19="","",
 IF(CK19="N","N",IF(DATA!I$3=CK19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL23" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL19="","",
 IF(CL19="N","N",IF(DATA!J$3=CL19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM23" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -16208,19 +16206,19 @@
         <f>IF(DATA!L$3="","",
 IF(CN19="","",
 IF(CN19="N","N",IF(DATA!L$3=CN19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO19="","",
 IF(CO19="N","N",IF(DATA!M$3=CO19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP19="","",
 IF(CP19="N","N",IF(DATA!N$3=CP19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CQ23" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -16647,7 +16645,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN19="","",
 IF(FN19="N","N",IF(DATA!J$3=FN19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO23" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -16659,19 +16657,19 @@
         <f>IF(DATA!L$3="","",
 IF(FP19="","",
 IF(FP19="N","N",IF(DATA!L$3=FP19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ19="","",
 IF(FQ19="N","N",IF(DATA!M$3=FQ19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FR23" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR19="","",
 IF(FR19="N","N",IF(DATA!N$3=FR19,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FS23" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -18027,7 +18025,7 @@
 IF(AL!L19="N","N",
 IF(COUNTIF(AL!H23:K23,"W")&gt;=2,AL!L19,
 IF(COUNTIF(AL!H23:K23,"W")&lt;2,IF(AL!L19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M27" s="2" t="str">
         <f>IF(AL!M19="","",
@@ -18041,14 +18039,14 @@
 IF(AL!N19="N","N",
 IF(COUNTIF(AL!J23:M23,"W")&gt;=2,AL!N19,
 IF(COUNTIF(AL!J23:M23,"W")&lt;2,IF(AL!N19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O27" s="2" t="str">
         <f>IF(AL!O19="","",
 IF(AL!O19="N","N",
 IF(COUNTIF(AL!K23:N23,"W")&gt;=2,AL!O19,
 IF(COUNTIF(AL!K23:N23,"W")&lt;2,IF(AL!O19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P27" s="2" t="str">
         <f>IF(AL!P19="","",
@@ -18503,7 +18501,7 @@
 IF(AL!CK19="N","N",
 IF(COUNTIF(AL!CG23:CJ23,"W")&gt;=2,AL!CK19,
 IF(COUNTIF(AL!CG23:CJ23,"W")&lt;2,IF(AL!CK19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL27" s="2" t="str">
         <f>IF(AL!CL19="","",
@@ -18517,14 +18515,14 @@
 IF(AL!CM19="N","N",
 IF(COUNTIF(AL!CI23:CL23,"W")&gt;=2,AL!CM19,
 IF(COUNTIF(AL!CI23:CL23,"W")&lt;2,IF(AL!CM19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN27" s="2" t="str">
         <f>IF(AL!CN19="","",
 IF(AL!CN19="N","N",
 IF(COUNTIF(AL!CJ23:CM23,"W")&gt;=2,AL!CN19,
 IF(COUNTIF(AL!CJ23:CM23,"W")&lt;2,IF(AL!CN19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO27" s="2" t="str">
         <f>IF(AL!CO19="","",
@@ -18538,14 +18536,14 @@
 IF(AL!CP19="N","N",
 IF(COUNTIF(AL!CL23:CO23,"W")&gt;=2,AL!CP19,
 IF(COUNTIF(AL!CL23:CO23,"W")&lt;2,IF(AL!CP19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ27" s="2" t="str">
         <f>IF(AL!CQ19="","",
 IF(AL!CQ19="N","N",
 IF(COUNTIF(AL!CM23:CP23,"W")&gt;=2,AL!CQ19,
 IF(COUNTIF(AL!CM23:CP23,"W")&lt;2,IF(AL!CQ19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CR27" s="2" t="str">
         <f>IF(AL!CR19="","",
@@ -19003,7 +19001,7 @@
 IF(AL!FN19="N","N",
 IF(COUNTIF(AL!FJ23:FM23,"W")&gt;=2,AL!FN19,
 IF(COUNTIF(AL!FJ23:FM23,"W")&lt;2,IF(AL!FN19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO27" s="2" t="str">
         <f>IF(AL!FO19="","",
@@ -19031,14 +19029,14 @@
 IF(AL!FR19="N","N",
 IF(COUNTIF(AL!FN23:FQ23,"W")&gt;=2,AL!FR19,
 IF(COUNTIF(AL!FN23:FQ23,"W")&lt;2,IF(AL!FR19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS27" s="2" t="str">
         <f>IF(AL!FS19="","",
 IF(AL!FS19="N","N",
 IF(COUNTIF(AL!FO23:FR23,"W")&gt;=2,AL!FS19,
 IF(COUNTIF(AL!FO23:FR23,"W")&lt;2,IF(AL!FS19="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FT27" s="2" t="str">
         <f>IF(AL!FT19="","",
@@ -20439,7 +20437,7 @@
         <f>IF(DATA!H$3="","",
 IF(H27="","",
 IF(H27="N","N",IF(DATA!H$3=H27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>IF(DATA!I$3="","",
@@ -20475,7 +20473,7 @@
         <f>IF(DATA!N$3="","",
 IF(N27="","",
 IF(N27="N","N",IF(DATA!N$3=N27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O31" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -20909,7 +20907,7 @@
         <f>IF(DATA!K$3="","",
 IF(CM27="","",
 IF(CM27="N","N",IF(DATA!K$3=CM27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -20927,7 +20925,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP27="","",
 IF(CP27="N","N",IF(DATA!N$3=CP27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CQ31" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -21354,7 +21352,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN27="","",
 IF(FN27="N","N",IF(DATA!J$3=FN27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO31" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -21366,7 +21364,7 @@
         <f>IF(DATA!L$3="","",
 IF(FP27="","",
 IF(FP27="N","N",IF(DATA!L$3=FP27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FQ31" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -21378,7 +21376,7 @@
         <f>IF(DATA!N$3="","",
 IF(FR27="","",
 IF(FR27="N","N",IF(DATA!N$3=FR27,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FS31" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -22727,14 +22725,14 @@
 IF(AL!K27="N","N",
 IF(COUNTIF(AL!G31:J31,"W")&gt;=2,AL!K27,
 IF(COUNTIF(AL!G31:J31,"W")&lt;2,IF(AL!K27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L35" s="2" t="str">
         <f>IF(AL!L27="","",
 IF(AL!L27="N","N",
 IF(COUNTIF(AL!H31:K31,"W")&gt;=2,AL!L27,
 IF(COUNTIF(AL!H31:K31,"W")&lt;2,IF(AL!L27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M35" s="2" t="str">
         <f>IF(AL!M27="","",
@@ -22748,14 +22746,14 @@
 IF(AL!N27="N","N",
 IF(COUNTIF(AL!J31:M31,"W")&gt;=2,AL!N27,
 IF(COUNTIF(AL!J31:M31,"W")&lt;2,IF(AL!N27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O35" s="2" t="str">
         <f>IF(AL!O27="","",
 IF(AL!O27="N","N",
 IF(COUNTIF(AL!K31:N31,"W")&gt;=2,AL!O27,
 IF(COUNTIF(AL!K31:N31,"W")&lt;2,IF(AL!O27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P35" s="2" t="str">
         <f>IF(AL!P27="","",
@@ -23210,7 +23208,7 @@
 IF(AL!CK27="N","N",
 IF(COUNTIF(AL!CG31:CJ31,"W")&gt;=2,AL!CK27,
 IF(COUNTIF(AL!CG31:CJ31,"W")&lt;2,IF(AL!CK27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL35" s="2" t="str">
         <f>IF(AL!CL27="","",
@@ -23224,35 +23222,35 @@
 IF(AL!CM27="N","N",
 IF(COUNTIF(AL!CI31:CL31,"W")&gt;=2,AL!CM27,
 IF(COUNTIF(AL!CI31:CL31,"W")&lt;2,IF(AL!CM27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN35" s="2" t="str">
         <f>IF(AL!CN27="","",
 IF(AL!CN27="N","N",
 IF(COUNTIF(AL!CJ31:CM31,"W")&gt;=2,AL!CN27,
 IF(COUNTIF(AL!CJ31:CM31,"W")&lt;2,IF(AL!CN27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO35" s="2" t="str">
         <f>IF(AL!CO27="","",
 IF(AL!CO27="N","N",
 IF(COUNTIF(AL!CK31:CN31,"W")&gt;=2,AL!CO27,
 IF(COUNTIF(AL!CK31:CN31,"W")&lt;2,IF(AL!CO27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CP35" s="2" t="str">
         <f>IF(AL!CP27="","",
 IF(AL!CP27="N","N",
 IF(COUNTIF(AL!CL31:CO31,"W")&gt;=2,AL!CP27,
 IF(COUNTIF(AL!CL31:CO31,"W")&lt;2,IF(AL!CP27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ35" s="2" t="str">
         <f>IF(AL!CQ27="","",
 IF(AL!CQ27="N","N",
 IF(COUNTIF(AL!CM31:CP31,"W")&gt;=2,AL!CQ27,
 IF(COUNTIF(AL!CM31:CP31,"W")&lt;2,IF(AL!CQ27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CR35" s="2" t="str">
         <f>IF(AL!CR27="","",
@@ -23710,7 +23708,7 @@
 IF(AL!FN27="N","N",
 IF(COUNTIF(AL!FJ31:FM31,"W")&gt;=2,AL!FN27,
 IF(COUNTIF(AL!FJ31:FM31,"W")&lt;2,IF(AL!FN27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO35" s="2" t="str">
         <f>IF(AL!FO27="","",
@@ -23724,28 +23722,28 @@
 IF(AL!FP27="N","N",
 IF(COUNTIF(AL!FL31:FO31,"W")&gt;=2,AL!FP27,
 IF(COUNTIF(AL!FL31:FO31,"W")&lt;2,IF(AL!FP27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ35" s="2" t="str">
         <f>IF(AL!FQ27="","",
 IF(AL!FQ27="N","N",
 IF(COUNTIF(AL!FM31:FP31,"W")&gt;=2,AL!FQ27,
 IF(COUNTIF(AL!FM31:FP31,"W")&lt;2,IF(AL!FQ27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR35" s="2" t="str">
         <f>IF(AL!FR27="","",
 IF(AL!FR27="N","N",
 IF(COUNTIF(AL!FN31:FQ31,"W")&gt;=2,AL!FR27,
 IF(COUNTIF(AL!FN31:FQ31,"W")&lt;2,IF(AL!FR27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS35" s="2" t="str">
         <f>IF(AL!FS27="","",
 IF(AL!FS27="N","N",
 IF(COUNTIF(AL!FO31:FR31,"W")&gt;=2,AL!FS27,
 IF(COUNTIF(AL!FO31:FR31,"W")&lt;2,IF(AL!FS27="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FT35" s="2" t="str">
         <f>IF(AL!FT27="","",
@@ -25146,13 +25144,13 @@
         <f>IF(DATA!H$3="","",
 IF(H35="","",
 IF(H35="N","N",IF(DATA!H$3=H35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I35="","",
 IF(I35="N","N",IF(DATA!I$3=I35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -25164,7 +25162,7 @@
         <f>IF(DATA!K$3="","",
 IF(K35="","",
 IF(K35="N","N",IF(DATA!K$3=K35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -25182,7 +25180,7 @@
         <f>IF(DATA!N$3="","",
 IF(N35="","",
 IF(N35="N","N",IF(DATA!N$3=N35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -25604,7 +25602,7 @@
         <f>IF(DATA!I$3="","",
 IF(CK35="","",
 IF(CK35="N","N",IF(DATA!I$3=CK35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL39" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -25616,7 +25614,7 @@
         <f>IF(DATA!K$3="","",
 IF(CM35="","",
 IF(CM35="N","N",IF(DATA!K$3=CM35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN39" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -25628,13 +25626,13 @@
         <f>IF(DATA!M$3="","",
 IF(CO35="","",
 IF(CO35="N","N",IF(DATA!M$3=CO35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(CP35="","",
 IF(CP35="N","N",IF(DATA!N$3=CP35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CQ39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -26061,7 +26059,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN35="","",
 IF(FN35="N","N",IF(DATA!J$3=FN35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO39" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -26079,13 +26077,13 @@
         <f>IF(DATA!M$3="","",
 IF(FQ35="","",
 IF(FQ35="N","N",IF(DATA!M$3=FQ35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FR39" s="2" t="str">
         <f>IF(DATA!N$3="","",
 IF(FR35="","",
 IF(FR35="N","N",IF(DATA!N$3=FR35,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FS39" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -27427,7 +27425,7 @@
 IF(AL!J35="N","N",
 IF(COUNTIF(AL!F39:I39,"W")&gt;=2,AL!J35,
 IF(COUNTIF(AL!F39:I39,"W")&lt;2,IF(AL!J35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(AL!K35="","",
@@ -27462,7 +27460,7 @@
 IF(AL!O35="N","N",
 IF(COUNTIF(AL!K39:N39,"W")&gt;=2,AL!O35,
 IF(COUNTIF(AL!K39:N39,"W")&lt;2,IF(AL!O35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P43" s="2" t="str">
         <f>IF(AL!P35="","",
@@ -27917,7 +27915,7 @@
 IF(AL!CK35="N","N",
 IF(COUNTIF(AL!CG39:CJ39,"W")&gt;=2,AL!CK35,
 IF(COUNTIF(AL!CG39:CJ39,"W")&lt;2,IF(AL!CK35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL43" s="2" t="str">
         <f>IF(AL!CL35="","",
@@ -27952,14 +27950,14 @@
 IF(AL!CP35="N","N",
 IF(COUNTIF(AL!CL39:CO39,"W")&gt;=2,AL!CP35,
 IF(COUNTIF(AL!CL39:CO39,"W")&lt;2,IF(AL!CP35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ43" s="2" t="str">
         <f>IF(AL!CQ35="","",
 IF(AL!CQ35="N","N",
 IF(COUNTIF(AL!CM39:CP39,"W")&gt;=2,AL!CQ35,
 IF(COUNTIF(AL!CM39:CP39,"W")&lt;2,IF(AL!CQ35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CR43" s="2" t="str">
         <f>IF(AL!CR35="","",
@@ -28417,7 +28415,7 @@
 IF(AL!FN35="N","N",
 IF(COUNTIF(AL!FJ39:FM39,"W")&gt;=2,AL!FN35,
 IF(COUNTIF(AL!FJ39:FM39,"W")&lt;2,IF(AL!FN35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO43" s="2" t="str">
         <f>IF(AL!FO35="","",
@@ -28431,7 +28429,7 @@
 IF(AL!FP35="N","N",
 IF(COUNTIF(AL!FL39:FO39,"W")&gt;=2,AL!FP35,
 IF(COUNTIF(AL!FL39:FO39,"W")&lt;2,IF(AL!FP35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ43" s="2" t="str">
         <f>IF(AL!FQ35="","",
@@ -28445,14 +28443,14 @@
 IF(AL!FR35="N","N",
 IF(COUNTIF(AL!FN39:FQ39,"W")&gt;=2,AL!FR35,
 IF(COUNTIF(AL!FN39:FQ39,"W")&lt;2,IF(AL!FR35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS43" s="2" t="str">
         <f>IF(AL!FS35="","",
 IF(AL!FS35="N","N",
 IF(COUNTIF(AL!FO39:FR39,"W")&gt;=2,AL!FS35,
 IF(COUNTIF(AL!FO39:FR39,"W")&lt;2,IF(AL!FS35="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FT43" s="2" t="str">
         <f>IF(AL!FT35="","",
@@ -29853,7 +29851,7 @@
         <f>IF(DATA!H$3="","",
 IF(H43="","",
 IF(H43="N","N",IF(DATA!H$3=H43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>IF(DATA!I$3="","",
@@ -29865,7 +29863,7 @@
         <f>IF(DATA!J$3="","",
 IF(J43="","",
 IF(J43="N","N",IF(DATA!J$3=J43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K47" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -29877,7 +29875,7 @@
         <f>IF(DATA!L$3="","",
 IF(L43="","",
 IF(L43="N","N",IF(DATA!L$3=L43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M47" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -29889,7 +29887,7 @@
         <f>IF(DATA!N$3="","",
 IF(N43="","",
 IF(N43="N","N",IF(DATA!N$3=N43,"W","L"))))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O47" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -30329,7 +30327,7 @@
         <f>IF(DATA!L$3="","",
 IF(CN43="","",
 IF(CN43="N","N",IF(DATA!L$3=CN43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO47" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -30341,7 +30339,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP43="","",
 IF(CP43="N","N",IF(DATA!N$3=CP43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="CQ47" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -30768,7 +30766,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN43="","",
 IF(FN43="N","N",IF(DATA!J$3=FN43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO47" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -30792,7 +30790,7 @@
         <f>IF(DATA!N$3="","",
 IF(FR43="","",
 IF(FR43="N","N",IF(DATA!N$3=FR43,"W","L"))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="FS47" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -32148,7 +32146,7 @@
       </c>
       <c r="N51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -32451,11 +32449,11 @@
       </c>
       <c r="CO51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v>F</v>
       </c>
       <c r="CP51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>R</v>
+        <v/>
       </c>
       <c r="CQ51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -32761,7 +32759,7 @@
       </c>
       <c r="FR51" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>R</v>
+        <v/>
       </c>
       <c r="FS51" s="2" t="str">
         <f t="shared" si="9"/>
@@ -33077,7 +33075,7 @@
       </c>
       <c r="O52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P52" s="2" t="str">
         <f t="shared" si="12"/>
@@ -33388,11 +33386,11 @@
       </c>
       <c r="CP52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="CQ52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="CR52" s="2" t="str">
         <f t="shared" si="15"/>
@@ -33706,7 +33704,7 @@
       </c>
       <c r="FS52" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="FT52" s="2" t="str">
         <f t="shared" si="18"/>
@@ -34971,7 +34969,7 @@
         <f>IF(DATA!N$3="","",
 IF(N52="","",
 IF(N52="N","N",IF(DATA!N$3=N52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O56" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -35423,7 +35421,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP52="","",
 IF(CP52="N","N",IF(DATA!N$3=CP52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CQ56" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -35874,7 +35872,7 @@
         <f>IF(DATA!N$3="","",
 IF(FR52="","",
 IF(FR52="N","N",IF(DATA!N$3=FR52,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FS56" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -36945,11 +36943,11 @@
       </c>
       <c r="N60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -37775,7 +37773,7 @@
         <f>IF(DATA!N$3="","",
 IF(N60="","",
 IF(N60="N","N",IF(DATA!N$3=N60,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O64" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -39131,7 +39129,7 @@
       </c>
       <c r="N68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O68" s="2" t="str">
         <f t="shared" si="24"/>
@@ -39434,11 +39432,11 @@
       </c>
       <c r="CO68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>N</v>
+        <v>R</v>
       </c>
       <c r="CP68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>F</v>
+        <v/>
       </c>
       <c r="CQ68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -39744,7 +39742,7 @@
       </c>
       <c r="FR68" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>F</v>
+        <v/>
       </c>
       <c r="FS68" s="2" t="str">
         <f t="shared" si="30"/>
@@ -40060,7 +40058,7 @@
       </c>
       <c r="O69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P69" s="2" t="str">
         <f t="shared" si="33"/>
@@ -40371,11 +40369,11 @@
       </c>
       <c r="CP69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="CQ69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="CR69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -40689,7 +40687,7 @@
       </c>
       <c r="FS69" s="2" t="str">
         <f t="shared" si="39"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="FT69" s="2" t="str">
         <f t="shared" si="39"/>
@@ -41954,7 +41952,7 @@
         <f>IF(DATA!N$3="","",
 IF(N69="","",
 IF(N69="N","N",IF(DATA!N$3=N69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O73" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -42406,7 +42404,7 @@
         <f>IF(DATA!N$3="","",
 IF(CP69="","",
 IF(CP69="N","N",IF(DATA!N$3=CP69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="CQ73" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -42857,7 +42855,7 @@
         <f>IF(DATA!N$3="","",
 IF(FR69="","",
 IF(FR69="N","N",IF(DATA!N$3=FR69,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="FS73" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -43928,11 +43926,11 @@
       </c>
       <c r="N77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="O77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -44758,7 +44756,7 @@
         <f>IF(DATA!N$3="","",
 IF(N77="","",
 IF(N77="N","N",IF(DATA!N$3=N77,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O81" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -45821,10 +45819,10 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="L", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "W"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="N85" s="2">
+      <c r="N85" s="2" t="str">
         <f t="array" ref="N85">IF(AL!N97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="L", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "W"),"0"))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O85" s="2" t="str">
         <f t="array" ref="O85">IF(AL!O97="","",
@@ -46667,10 +46665,10 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="W", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "L"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="N89" s="2">
+      <c r="N89" s="2" t="str">
         <f t="array" ref="N89">IF(AL!N97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:N97, 1, MAX(IF(AL!$B97:N97="W", COLUMN(AL!$B97:N97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!N97, "L"),"0"))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O89" s="2" t="str">
         <f t="array" ref="O89">IF(AL!O97="","",
@@ -47361,12 +47359,12 @@
       <c r="N93" s="2" t="str">
         <f>IF(AL!N60="","",
 IF(OR(AL!N60="P",AL!N60="B"),AL!N60,AL!N77))</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="O93" s="2" t="str">
         <f>IF(AL!O60="","",
 IF(OR(AL!O60="P",AL!O60="B"),AL!O60,AL!O77))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P93" s="2" t="str">
         <f>IF(AL!P60="","",
@@ -48071,7 +48069,7 @@
         <f>IF(DATA!N$3="","",
 IF(N93="","",
 IF(N93="N","N",IF(DATA!N$3=N93,"W","L"))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="O97" s="2" t="str">
         <f>IF(DATA!O$3="","",
@@ -48502,7 +48500,7 @@
     <mergeCell ref="B91:N91"/>
     <mergeCell ref="B87:N87"/>
     <mergeCell ref="FF13:FR13"/>
-    <mergeCell ref="FF66:FR66"/>
+    <mergeCell ref="FF17:FR17"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="B49:N49"/>
     <mergeCell ref="B83:N83"/>
@@ -48514,8 +48512,8 @@
     <mergeCell ref="FF21:FR21"/>
     <mergeCell ref="CD17:CP17"/>
     <mergeCell ref="B37:N37"/>
+    <mergeCell ref="FF66:FR66"/>
     <mergeCell ref="CD37:CP37"/>
-    <mergeCell ref="FF17:FR17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48753,11 +48751,11 @@
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="D2" s="18" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E2" s="18" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -48769,19 +48767,19 @@
       </c>
       <c r="G2" s="18" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H2" s="18" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="I2" s="18" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="18" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="K2" s="18" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -48793,7 +48791,7 @@
       </c>
       <c r="M2" s="18" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N2" s="18" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -48801,7 +48799,7 @@
       </c>
       <c r="O2" s="18" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P2" s="18" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
@@ -49042,7 +49040,7 @@
       <c r="C3" s="18">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
@@ -49059,11 +49057,11 @@
       </c>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="0"/>
@@ -49071,27 +49069,27 @@
       </c>
       <c r="J3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O3" s="18">
+        <v>4</v>
+      </c>
+      <c r="O3" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="P3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -49334,7 +49332,7 @@
       <c r="C4" s="18">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
@@ -49351,7 +49349,7 @@
       </c>
       <c r="G4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
@@ -49359,31 +49357,31 @@
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="O4" s="18">
+        <v>7</v>
+      </c>
+      <c r="O4" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="P4" s="18" t="str">
         <f t="shared" si="3"/>
@@ -49622,7 +49620,7 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="5"/>
@@ -49638,39 +49636,39 @@
       </c>
       <c r="G5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="18">
+        <v>-3</v>
+      </c>
+      <c r="O5" s="18" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P5" s="18" t="str">
         <f t="shared" si="5"/>
@@ -50023,23 +50021,23 @@
       </c>
       <c r="L7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="M7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50302,19 +50300,19 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="K8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="M8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50326,11 +50324,11 @@
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50592,11 +50590,11 @@
       <c r="I9" s="18" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50608,7 +50606,7 @@
       </c>
       <c r="M9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50618,11 +50616,11 @@
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q9" s="18" t="str">
         <f t="shared" si="13"/>
@@ -50968,7 +50966,7 @@
       </c>
       <c r="I11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -50980,7 +50978,7 @@
       </c>
       <c r="L11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="M11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -50988,11 +50986,11 @@
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51270,7 +51268,7 @@
       </c>
       <c r="K12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51278,7 +51276,7 @@
       </c>
       <c r="M12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51286,7 +51284,7 @@
       </c>
       <c r="O12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51580,7 +51578,7 @@
       </c>
       <c r="O13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51942,7 +51940,7 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -51954,7 +51952,7 @@
       </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52248,7 +52246,7 @@
       </c>
       <c r="N16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52256,7 +52254,7 @@
       </c>
       <c r="P16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52531,7 +52529,7 @@
       </c>
       <c r="M17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52539,11 +52537,11 @@
       </c>
       <c r="O17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52905,7 +52903,7 @@
       </c>
       <c r="O19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -53191,15 +53189,15 @@
       </c>
       <c r="M20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53493,7 +53491,7 @@
       </c>
       <c r="O21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53856,7 +53854,7 @@
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -53864,7 +53862,7 @@
       </c>
       <c r="P23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -54144,15 +54142,15 @@
       </c>
       <c r="M24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P24" s="19" t="str">
         <f t="shared" si="45"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4859E85-AC34-44BF-8704-653062D6F04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2DCEBC-237C-4414-B0FD-F99DC4C95C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29670" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1494,16 +1494,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -1515,16 +1515,16 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>2</v>
@@ -1593,11 +1593,11 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O23="","",AI!O23)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P23="","",AI!P23)</f>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M24="","",AI!M24)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N24="","",AI!N24)</f>
@@ -3257,16 +3257,16 @@
       </c>
       <c r="BX16" s="14">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="15">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="16">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4869,7 +4869,7 @@
       <c r="C3" s="2" t="str">
         <f>IF(DATA!C3="","",
 IF(DATA!B3=DATA!C3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IF(DATA!D3="","",
@@ -4879,12 +4879,12 @@
       <c r="E3" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(DATA!D3=DATA!E3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3=DATA!F3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="G3" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -4899,7 +4899,7 @@
       <c r="I3" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(DATA!H3=DATA!I3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="J3" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -4909,17 +4909,17 @@
       <c r="K3" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(DATA!J3=DATA!K3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="L3" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(DATA!K3=DATA!L3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="M3" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(DATA!L3=DATA!M3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="N3" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -5251,7 +5251,7 @@
         <f>IF(DATA!D3="","",
 IF(AL!C3&lt;&gt;AL!D3,AL!C3,
 IF(AL!C3=AL!D3,AL!D3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CH3" s="2" t="str">
         <f>IF(DATA!E3="","",
@@ -5263,13 +5263,13 @@
         <f>IF(DATA!F3="","",
 IF(AL!E3&lt;&gt;AL!F3,AL!E3,
 IF(AL!E3=AL!F3,AL!F3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CJ3" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(AL!F3&lt;&gt;AL!G3,AL!F3,
 IF(AL!F3=AL!G3,AL!G3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CK3" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -5287,7 +5287,7 @@
         <f>IF(DATA!J3="","",
 IF(AL!I3&lt;&gt;AL!J3,AL!I3,
 IF(AL!I3=AL!J3,AL!J3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CN3" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -5299,13 +5299,13 @@
         <f>IF(DATA!L3="","",
 IF(AL!K3&lt;&gt;AL!L3,AL!K3,
 IF(AL!K3=AL!L3,AL!L3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CP3" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(AL!L3&lt;&gt;AL!M3,AL!L3,
 IF(AL!L3=AL!M3,AL!M3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CQ3" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -6619,11 +6619,11 @@
       <c r="D7" s="2" t="str">
         <f t="shared" ref="D7:AI7" si="0">IF(D3="","",
 IF(C3=D3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6639,15 +6639,15 @@
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6930,13 +6930,13 @@
         <f>IF(DATA!E3="","",
 IF(AL!D7&lt;&gt;AL!E7,AL!D7,
 IF(AL!D7=AL!E7,AL!E7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CI7" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(AL!E7&lt;&gt;AL!F7,AL!E7,
 IF(AL!E7=AL!F7,AL!F7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CJ7" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -6948,7 +6948,7 @@
         <f>IF(DATA!H3="","",
 IF(AL!G7&lt;&gt;AL!H7,AL!G7,
 IF(AL!G7=AL!H7,AL!H7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CL7" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -6960,19 +6960,19 @@
         <f>IF(DATA!J3="","",
 IF(AL!I7&lt;&gt;AL!J7,AL!I7,
 IF(AL!I7=AL!J7,AL!J7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CN7" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(AL!J7&lt;&gt;AL!K7,AL!J7,
 IF(AL!J7=AL!K7,AL!K7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CO7" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(AL!K7&lt;&gt;AL!L7,AL!K7,
 IF(AL!K7=AL!L7,AL!L7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CP7" s="2" t="str">
         <f>IF(DATA!M3="","",
@@ -7369,13 +7369,13 @@
         <f>IF(CH7="","",
 IF(CH7="O",AL!E3,
 IF(CH7="X",AL!D3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FK7" s="2" t="str">
         <f>IF(CI7="","",
 IF(CI7="O",AL!F3,
 IF(CI7="X",AL!E3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FL7" s="2" t="str">
         <f>IF(CJ7="","",
@@ -7387,7 +7387,7 @@
         <f>IF(CK7="","",
 IF(CK7="O",AL!H3,
 IF(CK7="X",AL!G3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FN7" s="2" t="str">
         <f>IF(CL7="","",
@@ -7405,19 +7405,19 @@
         <f>IF(CN7="","",
 IF(CN7="O",AL!K3,
 IF(CN7="X",AL!J3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FQ7" s="2" t="str">
         <f>IF(CO7="","",
 IF(CO7="O",AL!L3,
 IF(CO7="X",AL!K3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FR7" s="2" t="str">
         <f>IF(CP7="","",
 IF(CP7="O",AL!M3,
 IF(CP7="X",AL!L3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FS7" s="2" t="str">
         <f>IF(CQ7="","",
@@ -8732,7 +8732,7 @@
         <f>IF(DATA!C3="","",
 IF(DATA!B3&lt;&gt;DATA!C3,DATA!B3,
 IF(DATA!B3=DATA!C3,DATA!C3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>IF(DATA!D3="","",
@@ -8744,13 +8744,13 @@
         <f>IF(DATA!E3="","",
 IF(DATA!D3&lt;&gt;DATA!E3,DATA!D3,
 IF(DATA!D3=DATA!E3,DATA!E3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3&lt;&gt;DATA!F3,DATA!E3,
 IF(DATA!E3=DATA!F3,DATA!F3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>IF(DATA!G3="","",
@@ -8774,13 +8774,13 @@
         <f>IF(DATA!J3="","",
 IF(DATA!I3&lt;&gt;DATA!J3,DATA!I3,
 IF(DATA!I3=DATA!J3,DATA!J3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(DATA!J3&lt;&gt;DATA!K3,DATA!J3,
 IF(DATA!J3=DATA!K3,DATA!K3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M11" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -8792,7 +8792,7 @@
         <f>IF(DATA!M3="","",
 IF(DATA!L3&lt;&gt;DATA!M3,DATA!L3,
 IF(DATA!L3=DATA!M3,DATA!M3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -9180,25 +9180,25 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
 IF(AL!CH3="O",DATA!E3,
 IF(AL!CH3="X",DATA!D3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="CI11" s="2" t="str">
         <f>IF(AL!CI3="","",
 IF(AL!CI3="O",DATA!F3,
 IF(AL!CI3="X",DATA!E3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CJ11" s="2" t="str">
         <f>IF(AL!CJ3="","",
 IF(AL!CJ3="O",DATA!G3,
 IF(AL!CJ3="X",DATA!F3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CK11" s="2" t="str">
         <f>IF(AL!CK3="","",
@@ -9210,19 +9210,19 @@
         <f>IF(AL!CL3="","",
 IF(AL!CL3="O",DATA!I3,
 IF(AL!CL3="X",DATA!H3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CM11" s="2" t="str">
         <f>IF(AL!CM3="","",
 IF(AL!CM3="O",DATA!J3,
 IF(AL!CM3="X",DATA!I3)))</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="CN11" s="2" t="str">
         <f>IF(AL!CN3="","",
 IF(AL!CN3="O",DATA!K3,
 IF(AL!CN3="X",DATA!J3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO11" s="2" t="str">
         <f>IF(AL!CO3="","",
@@ -9234,7 +9234,7 @@
         <f>IF(AL!CP3="","",
 IF(AL!CP3="O",DATA!M3,
 IF(AL!CP3="X",DATA!L3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ11" s="2" t="str">
         <f>IF(AL!CQ3="","",
@@ -9625,13 +9625,13 @@
         <f>IF(AL!FJ7="","",
 IF(AL!FJ7="O",DATA!E3,
 IF(AL!FJ7="X",DATA!D3)))</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="FK11" s="2" t="str">
         <f>IF(AL!FK7="","",
 IF(AL!FK7="O",DATA!F3,
 IF(AL!FK7="X",DATA!E3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FL11" s="2" t="str">
         <f>IF(AL!FL7="","",
@@ -9649,19 +9649,19 @@
         <f>IF(AL!FN7="","",
 IF(AL!FN7="O",DATA!I3,
 IF(AL!FN7="X",DATA!H3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="FO11" s="2" t="str">
         <f>IF(AL!FO7="","",
 IF(AL!FO7="O",DATA!J3,
 IF(AL!FO7="X",DATA!I3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="FP11" s="2" t="str">
         <f>IF(AL!FP7="","",
 IF(AL!FP7="O",DATA!K3,
 IF(AL!FP7="X",DATA!J3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ11" s="2" t="str">
         <f>IF(AL!FQ7="","",
@@ -9673,7 +9673,7 @@
         <f>IF(AL!FR7="","",
 IF(AL!FR7="O",DATA!M3,
 IF(AL!FR7="X",DATA!L3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS11" s="2" t="str">
         <f>IF(AL!FS7="","",
@@ -10996,25 +10996,25 @@
         <f>IF(DATA!D3="","",
 IF(D11="","",
 IF(D11="N","N",IF(DATA!D3=D11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(E11="","",
 IF(E11="N","N",IF(DATA!E3=E11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(F11="","",
 IF(F11="N","N",IF(DATA!F3=F11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(G11="","",
 IF(G11="N","N",IF(DATA!G3=G11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="H15" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -11026,19 +11026,19 @@
         <f>IF(DATA!I3="","",
 IF(I11="","",
 IF(I11="N","N",IF(DATA!I3=I11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(J11="","",
 IF(J11="N","N",IF(DATA!J3=J11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(K11="","",
 IF(K11="N","N",IF(DATA!K3=K11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L15" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -11460,25 +11460,25 @@
         <f>IF(DATA!F3="","",
 IF(CH11="","",
 IF(CH11="N","N",IF(DATA!F3=CH11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CI15" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(CI11="","",
 IF(CI11="N","N",IF(DATA!G3=CI11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CJ15" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(CJ11="","",
 IF(CJ11="N","N",IF(DATA!H3=CJ11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CK15" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(CK11="","",
 IF(CK11="N","N",IF(DATA!I3=CK11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL15" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -11911,13 +11911,13 @@
         <f>IF(DATA!F3="","",
 IF(FJ11="","",
 IF(FJ11="N","N",IF(DATA!F3=FJ11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FK15" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(FK11="","",
 IF(FK11="N","N",IF(DATA!G3=FK11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FL15" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -11929,7 +11929,7 @@
         <f>IF(DATA!I3="","",
 IF(FM11="","",
 IF(FM11="N","N",IF(DATA!I3=FM11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FN15" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -11941,7 +11941,7 @@
         <f>IF(DATA!K3="","",
 IF(FO11="","",
 IF(FO11="N","N",IF(DATA!K3=FO11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP15" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -13297,21 +13297,21 @@
 IF(AL!I11="N","N",
 IF(COUNTIF(AL!E15:H15,"W")&gt;=2,AL!I11,
 IF(COUNTIF(AL!E15:H15,"W")&lt;2,IF(AL!I11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J19" s="2" t="str">
         <f>IF(AL!J11="","",
 IF(AL!J11="N","N",
 IF(COUNTIF(AL!F15:I15,"W")&gt;=2,AL!J11,
 IF(COUNTIF(AL!F15:I15,"W")&lt;2,IF(AL!J11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K19" s="2" t="str">
         <f>IF(AL!K11="","",
 IF(AL!K11="N","N",
 IF(COUNTIF(AL!G15:J15,"W")&gt;=2,AL!K11,
 IF(COUNTIF(AL!G15:J15,"W")&lt;2,IF(AL!K11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>IF(AL!L11="","",
@@ -13332,7 +13332,7 @@
 IF(AL!N11="N","N",
 IF(COUNTIF(AL!J15:M15,"W")&gt;=2,AL!N11,
 IF(COUNTIF(AL!J15:M15,"W")&lt;2,IF(AL!N11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>IF(AL!O11="","",
@@ -13794,14 +13794,14 @@
 IF(AL!CK11="N","N",
 IF(COUNTIF(AL!CG15:CJ15,"W")&gt;=2,AL!CK11,
 IF(COUNTIF(AL!CG15:CJ15,"W")&lt;2,IF(AL!CK11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL19" s="2" t="str">
         <f>IF(AL!CL11="","",
 IF(AL!CL11="N","N",
 IF(COUNTIF(AL!CH15:CK15,"W")&gt;=2,AL!CL11,
 IF(COUNTIF(AL!CH15:CK15,"W")&lt;2,IF(AL!CL11="P","B","P")))))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CM19" s="2" t="str">
         <f>IF(AL!CM11="","",
@@ -13815,21 +13815,21 @@
 IF(AL!CN11="N","N",
 IF(COUNTIF(AL!CJ15:CM15,"W")&gt;=2,AL!CN11,
 IF(COUNTIF(AL!CJ15:CM15,"W")&lt;2,IF(AL!CN11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO19" s="2" t="str">
         <f>IF(AL!CO11="","",
 IF(AL!CO11="N","N",
 IF(COUNTIF(AL!CK15:CN15,"W")&gt;=2,AL!CO11,
 IF(COUNTIF(AL!CK15:CN15,"W")&lt;2,IF(AL!CO11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CP19" s="2" t="str">
         <f>IF(AL!CP11="","",
 IF(AL!CP11="N","N",
 IF(COUNTIF(AL!CL15:CO15,"W")&gt;=2,AL!CP11,
 IF(COUNTIF(AL!CL15:CO15,"W")&lt;2,IF(AL!CP11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ19" s="2" t="str">
         <f>IF(AL!CQ11="","",
@@ -14294,14 +14294,14 @@
 IF(AL!FN11="N","N",
 IF(COUNTIF(AL!FJ15:FM15,"W")&gt;=2,AL!FN11,
 IF(COUNTIF(AL!FJ15:FM15,"W")&lt;2,IF(AL!FN11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO19" s="2" t="str">
         <f>IF(AL!FO11="","",
 IF(AL!FO11="N","N",
 IF(COUNTIF(AL!FK15:FN15,"W")&gt;=2,AL!FO11,
 IF(COUNTIF(AL!FK15:FN15,"W")&lt;2,IF(AL!FO11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP19" s="2" t="str">
         <f>IF(AL!FP11="","",
@@ -14315,14 +14315,14 @@
 IF(AL!FQ11="N","N",
 IF(COUNTIF(AL!FM15:FP15,"W")&gt;=2,AL!FQ11,
 IF(COUNTIF(AL!FM15:FP15,"W")&lt;2,IF(AL!FQ11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR19" s="2" t="str">
         <f>IF(AL!FR11="","",
 IF(AL!FR11="N","N",
 IF(COUNTIF(AL!FN15:FQ15,"W")&gt;=2,AL!FR11,
 IF(COUNTIF(AL!FN15:FQ15,"W")&lt;2,IF(AL!FR11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FS19" s="2" t="str">
         <f>IF(AL!FS11="","",
@@ -15736,7 +15736,7 @@
         <f>IF(DATA!I$3="","",
 IF(I19="","",
 IF(I19="N","N",IF(DATA!I$3=I19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -15748,13 +15748,13 @@
         <f>IF(DATA!K$3="","",
 IF(K19="","",
 IF(K19="N","N",IF(DATA!K$3=K19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L19="","",
 IF(L19="N","N",IF(DATA!L$3=L19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M23" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -16212,7 +16212,7 @@
         <f>IF(DATA!M$3="","",
 IF(CO19="","",
 IF(CO19="N","N",IF(DATA!M$3=CO19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP23" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -16651,19 +16651,19 @@
         <f>IF(DATA!K$3="","",
 IF(FO19="","",
 IF(FO19="N","N",IF(DATA!K$3=FO19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP23" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(FP19="","",
 IF(FP19="N","N",IF(DATA!L$3=FP19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FQ23" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(FQ19="","",
 IF(FQ19="N","N",IF(DATA!M$3=FQ19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FR23" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -18004,35 +18004,35 @@
 IF(AL!I19="N","N",
 IF(COUNTIF(AL!E23:H23,"W")&gt;=2,AL!I19,
 IF(COUNTIF(AL!E23:H23,"W")&lt;2,IF(AL!I19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J27" s="2" t="str">
         <f>IF(AL!J19="","",
 IF(AL!J19="N","N",
 IF(COUNTIF(AL!F23:I23,"W")&gt;=2,AL!J19,
 IF(COUNTIF(AL!F23:I23,"W")&lt;2,IF(AL!J19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K27" s="2" t="str">
         <f>IF(AL!K19="","",
 IF(AL!K19="N","N",
 IF(COUNTIF(AL!G23:J23,"W")&gt;=2,AL!K19,
 IF(COUNTIF(AL!G23:J23,"W")&lt;2,IF(AL!K19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L27" s="2" t="str">
         <f>IF(AL!L19="","",
 IF(AL!L19="N","N",
 IF(COUNTIF(AL!H23:K23,"W")&gt;=2,AL!L19,
 IF(COUNTIF(AL!H23:K23,"W")&lt;2,IF(AL!L19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M27" s="2" t="str">
         <f>IF(AL!M19="","",
 IF(AL!M19="N","N",
 IF(COUNTIF(AL!I23:L23,"W")&gt;=2,AL!M19,
 IF(COUNTIF(AL!I23:L23,"W")&lt;2,IF(AL!M19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N27" s="2" t="str">
         <f>IF(AL!N19="","",
@@ -18501,7 +18501,7 @@
 IF(AL!CK19="N","N",
 IF(COUNTIF(AL!CG23:CJ23,"W")&gt;=2,AL!CK19,
 IF(COUNTIF(AL!CG23:CJ23,"W")&lt;2,IF(AL!CK19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL27" s="2" t="str">
         <f>IF(AL!CL19="","",
@@ -18522,21 +18522,21 @@
 IF(AL!CN19="N","N",
 IF(COUNTIF(AL!CJ23:CM23,"W")&gt;=2,AL!CN19,
 IF(COUNTIF(AL!CJ23:CM23,"W")&lt;2,IF(AL!CN19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CO27" s="2" t="str">
         <f>IF(AL!CO19="","",
 IF(AL!CO19="N","N",
 IF(COUNTIF(AL!CK23:CN23,"W")&gt;=2,AL!CO19,
 IF(COUNTIF(AL!CK23:CN23,"W")&lt;2,IF(AL!CO19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP27" s="2" t="str">
         <f>IF(AL!CP19="","",
 IF(AL!CP19="N","N",
 IF(COUNTIF(AL!CL23:CO23,"W")&gt;=2,AL!CP19,
 IF(COUNTIF(AL!CL23:CO23,"W")&lt;2,IF(AL!CP19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ27" s="2" t="str">
         <f>IF(AL!CQ19="","",
@@ -19001,14 +19001,14 @@
 IF(AL!FN19="N","N",
 IF(COUNTIF(AL!FJ23:FM23,"W")&gt;=2,AL!FN19,
 IF(COUNTIF(AL!FJ23:FM23,"W")&lt;2,IF(AL!FN19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO27" s="2" t="str">
         <f>IF(AL!FO19="","",
 IF(AL!FO19="N","N",
 IF(COUNTIF(AL!FK23:FN23,"W")&gt;=2,AL!FO19,
 IF(COUNTIF(AL!FK23:FN23,"W")&lt;2,IF(AL!FO19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP27" s="2" t="str">
         <f>IF(AL!FP19="","",
@@ -20455,7 +20455,7 @@
         <f>IF(DATA!K$3="","",
 IF(K27="","",
 IF(K27="N","N",IF(DATA!K$3=K27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -20467,7 +20467,7 @@
         <f>IF(DATA!M$3="","",
 IF(M27="","",
 IF(M27="N","N",IF(DATA!M$3=M27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N31" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -20895,13 +20895,13 @@
         <f>IF(DATA!I$3="","",
 IF(CK27="","",
 IF(CK27="N","N",IF(DATA!I$3=CK27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL31" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL27="","",
 IF(CL27="N","N",IF(DATA!J$3=CL27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM31" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -20919,7 +20919,7 @@
         <f>IF(DATA!M$3="","",
 IF(CO27="","",
 IF(CO27="N","N",IF(DATA!M$3=CO27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP31" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -21358,13 +21358,13 @@
         <f>IF(DATA!K$3="","",
 IF(FO27="","",
 IF(FO27="N","N",IF(DATA!K$3=FO27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP31" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(FP27="","",
 IF(FP27="N","N",IF(DATA!L$3=FP27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ31" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -22711,35 +22711,35 @@
 IF(AL!I27="N","N",
 IF(COUNTIF(AL!E31:H31,"W")&gt;=2,AL!I27,
 IF(COUNTIF(AL!E31:H31,"W")&lt;2,IF(AL!I27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J35" s="2" t="str">
         <f>IF(AL!J27="","",
 IF(AL!J27="N","N",
 IF(COUNTIF(AL!F31:I31,"W")&gt;=2,AL!J27,
 IF(COUNTIF(AL!F31:I31,"W")&lt;2,IF(AL!J27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K35" s="2" t="str">
         <f>IF(AL!K27="","",
 IF(AL!K27="N","N",
 IF(COUNTIF(AL!G31:J31,"W")&gt;=2,AL!K27,
 IF(COUNTIF(AL!G31:J31,"W")&lt;2,IF(AL!K27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L35" s="2" t="str">
         <f>IF(AL!L27="","",
 IF(AL!L27="N","N",
 IF(COUNTIF(AL!H31:K31,"W")&gt;=2,AL!L27,
 IF(COUNTIF(AL!H31:K31,"W")&lt;2,IF(AL!L27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M35" s="2" t="str">
         <f>IF(AL!M27="","",
 IF(AL!M27="N","N",
 IF(COUNTIF(AL!I31:L31,"W")&gt;=2,AL!M27,
 IF(COUNTIF(AL!I31:L31,"W")&lt;2,IF(AL!M27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N35" s="2" t="str">
         <f>IF(AL!N27="","",
@@ -23208,7 +23208,7 @@
 IF(AL!CK27="N","N",
 IF(COUNTIF(AL!CG31:CJ31,"W")&gt;=2,AL!CK27,
 IF(COUNTIF(AL!CG31:CJ31,"W")&lt;2,IF(AL!CK27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL35" s="2" t="str">
         <f>IF(AL!CL27="","",
@@ -23222,7 +23222,7 @@
 IF(AL!CM27="N","N",
 IF(COUNTIF(AL!CI31:CL31,"W")&gt;=2,AL!CM27,
 IF(COUNTIF(AL!CI31:CL31,"W")&lt;2,IF(AL!CM27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN35" s="2" t="str">
         <f>IF(AL!CN27="","",
@@ -23236,14 +23236,14 @@
 IF(AL!CO27="N","N",
 IF(COUNTIF(AL!CK31:CN31,"W")&gt;=2,AL!CO27,
 IF(COUNTIF(AL!CK31:CN31,"W")&lt;2,IF(AL!CO27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP35" s="2" t="str">
         <f>IF(AL!CP27="","",
 IF(AL!CP27="N","N",
 IF(COUNTIF(AL!CL31:CO31,"W")&gt;=2,AL!CP27,
 IF(COUNTIF(AL!CL31:CO31,"W")&lt;2,IF(AL!CP27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ35" s="2" t="str">
         <f>IF(AL!CQ27="","",
@@ -23708,28 +23708,28 @@
 IF(AL!FN27="N","N",
 IF(COUNTIF(AL!FJ31:FM31,"W")&gt;=2,AL!FN27,
 IF(COUNTIF(AL!FJ31:FM31,"W")&lt;2,IF(AL!FN27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FO35" s="2" t="str">
         <f>IF(AL!FO27="","",
 IF(AL!FO27="N","N",
 IF(COUNTIF(AL!FK31:FN31,"W")&gt;=2,AL!FO27,
 IF(COUNTIF(AL!FK31:FN31,"W")&lt;2,IF(AL!FO27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP35" s="2" t="str">
         <f>IF(AL!FP27="","",
 IF(AL!FP27="N","N",
 IF(COUNTIF(AL!FL31:FO31,"W")&gt;=2,AL!FP27,
 IF(COUNTIF(AL!FL31:FO31,"W")&lt;2,IF(AL!FP27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ35" s="2" t="str">
         <f>IF(AL!FQ27="","",
 IF(AL!FQ27="N","N",
 IF(COUNTIF(AL!FM31:FP31,"W")&gt;=2,AL!FQ27,
 IF(COUNTIF(AL!FM31:FP31,"W")&lt;2,IF(AL!FQ27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR35" s="2" t="str">
         <f>IF(AL!FR27="","",
@@ -25150,7 +25150,7 @@
         <f>IF(DATA!I$3="","",
 IF(I35="","",
 IF(I35="N","N",IF(DATA!I$3=I35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>IF(DATA!J$3="","",
@@ -25162,7 +25162,7 @@
         <f>IF(DATA!K$3="","",
 IF(K35="","",
 IF(K35="N","N",IF(DATA!K$3=K35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L39" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -25174,7 +25174,7 @@
         <f>IF(DATA!M$3="","",
 IF(M35="","",
 IF(M35="N","N",IF(DATA!M$3=M35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N39" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -25608,25 +25608,25 @@
         <f>IF(DATA!J$3="","",
 IF(CL35="","",
 IF(CL35="N","N",IF(DATA!J$3=CL35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CM39" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM35="","",
 IF(CM35="N","N",IF(DATA!K$3=CM35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN39" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN35="","",
 IF(CN35="N","N",IF(DATA!L$3=CN35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO39" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO35="","",
 IF(CO35="N","N",IF(DATA!M$3=CO35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CP39" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -26065,7 +26065,7 @@
         <f>IF(DATA!K$3="","",
 IF(FO35="","",
 IF(FO35="N","N",IF(DATA!K$3=FO35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FP39" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -26077,7 +26077,7 @@
         <f>IF(DATA!M$3="","",
 IF(FQ35="","",
 IF(FQ35="N","N",IF(DATA!M$3=FQ35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FR39" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -27418,35 +27418,35 @@
 IF(AL!I35="N","N",
 IF(COUNTIF(AL!E39:H39,"W")&gt;=2,AL!I35,
 IF(COUNTIF(AL!E39:H39,"W")&lt;2,IF(AL!I35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(AL!J35="","",
 IF(AL!J35="N","N",
 IF(COUNTIF(AL!F39:I39,"W")&gt;=2,AL!J35,
 IF(COUNTIF(AL!F39:I39,"W")&lt;2,IF(AL!J35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>IF(AL!K35="","",
 IF(AL!K35="N","N",
 IF(COUNTIF(AL!G39:J39,"W")&gt;=2,AL!K35,
 IF(COUNTIF(AL!G39:J39,"W")&lt;2,IF(AL!K35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L43" s="2" t="str">
         <f>IF(AL!L35="","",
 IF(AL!L35="N","N",
 IF(COUNTIF(AL!H39:K39,"W")&gt;=2,AL!L35,
 IF(COUNTIF(AL!H39:K39,"W")&lt;2,IF(AL!L35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M43" s="2" t="str">
         <f>IF(AL!M35="","",
 IF(AL!M35="N","N",
 IF(COUNTIF(AL!I39:L39,"W")&gt;=2,AL!M35,
 IF(COUNTIF(AL!I39:L39,"W")&lt;2,IF(AL!M35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N43" s="2" t="str">
         <f>IF(AL!N35="","",
@@ -27915,7 +27915,7 @@
 IF(AL!CK35="N","N",
 IF(COUNTIF(AL!CG39:CJ39,"W")&gt;=2,AL!CK35,
 IF(COUNTIF(AL!CG39:CJ39,"W")&lt;2,IF(AL!CK35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL43" s="2" t="str">
         <f>IF(AL!CL35="","",
@@ -27929,7 +27929,7 @@
 IF(AL!CM35="N","N",
 IF(COUNTIF(AL!CI39:CL39,"W")&gt;=2,AL!CM35,
 IF(COUNTIF(AL!CI39:CL39,"W")&lt;2,IF(AL!CM35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN43" s="2" t="str">
         <f>IF(AL!CN35="","",
@@ -27950,7 +27950,7 @@
 IF(AL!CP35="N","N",
 IF(COUNTIF(AL!CL39:CO39,"W")&gt;=2,AL!CP35,
 IF(COUNTIF(AL!CL39:CO39,"W")&lt;2,IF(AL!CP35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ43" s="2" t="str">
         <f>IF(AL!CQ35="","",
@@ -28415,21 +28415,21 @@
 IF(AL!FN35="N","N",
 IF(COUNTIF(AL!FJ39:FM39,"W")&gt;=2,AL!FN35,
 IF(COUNTIF(AL!FJ39:FM39,"W")&lt;2,IF(AL!FN35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FO43" s="2" t="str">
         <f>IF(AL!FO35="","",
 IF(AL!FO35="N","N",
 IF(COUNTIF(AL!FK39:FN39,"W")&gt;=2,AL!FO35,
 IF(COUNTIF(AL!FK39:FN39,"W")&lt;2,IF(AL!FO35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP43" s="2" t="str">
         <f>IF(AL!FP35="","",
 IF(AL!FP35="N","N",
 IF(COUNTIF(AL!FL39:FO39,"W")&gt;=2,AL!FP35,
 IF(COUNTIF(AL!FL39:FO39,"W")&lt;2,IF(AL!FP35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ43" s="2" t="str">
         <f>IF(AL!FQ35="","",
@@ -29869,7 +29869,7 @@
         <f>IF(DATA!K$3="","",
 IF(K43="","",
 IF(K43="N","N",IF(DATA!K$3=K43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L47" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -29881,7 +29881,7 @@
         <f>IF(DATA!M$3="","",
 IF(M43="","",
 IF(M43="N","N",IF(DATA!M$3=M43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N47" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -30309,25 +30309,25 @@
         <f>IF(DATA!I$3="","",
 IF(CK43="","",
 IF(CK43="N","N",IF(DATA!I$3=CK43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CL47" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(CL43="","",
 IF(CL43="N","N",IF(DATA!J$3=CL43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CM47" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(CM43="","",
 IF(CM43="N","N",IF(DATA!K$3=CM43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CN47" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(CN43="","",
 IF(CN43="N","N",IF(DATA!L$3=CN43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO47" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -30772,7 +30772,7 @@
         <f>IF(DATA!K$3="","",
 IF(FO43="","",
 IF(FO43="N","N",IF(DATA!K$3=FO43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FP47" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -32138,7 +32138,7 @@
       </c>
       <c r="L51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v>F</v>
       </c>
       <c r="M51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -32449,7 +32449,7 @@
       </c>
       <c r="CO51" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>F</v>
+        <v>N</v>
       </c>
       <c r="CP51" s="2" t="str">
         <f t="shared" si="6"/>
@@ -33067,7 +33067,7 @@
       </c>
       <c r="M52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="N52" s="2" t="str">
         <f t="shared" si="12"/>
@@ -33386,7 +33386,7 @@
       </c>
       <c r="CP52" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="CQ52" s="2" t="str">
         <f t="shared" si="15"/>
@@ -34963,7 +34963,7 @@
         <f>IF(DATA!M$3="","",
 IF(M52="","",
 IF(M52="N","N",IF(DATA!M$3=M52,"W","L"))))</f>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="N56" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -36939,11 +36939,11 @@
       </c>
       <c r="M60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="N60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -37767,7 +37767,7 @@
         <f>IF(DATA!M$3="","",
 IF(M60="","",
 IF(M60="N","N",IF(DATA!M$3=M60,"W","L"))))</f>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="N64" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -39121,7 +39121,7 @@
       </c>
       <c r="L68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>N</v>
+        <v>R</v>
       </c>
       <c r="M68" s="2" t="str">
         <f t="shared" si="24"/>
@@ -39432,7 +39432,7 @@
       </c>
       <c r="CO68" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>R</v>
+        <v>N</v>
       </c>
       <c r="CP68" s="2" t="str">
         <f t="shared" si="27"/>
@@ -40050,11 +40050,11 @@
       </c>
       <c r="M69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="N69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="O69" s="2" t="str">
         <f t="shared" si="33"/>
@@ -40369,7 +40369,7 @@
       </c>
       <c r="CP69" s="2" t="str">
         <f t="shared" si="36"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="CQ69" s="2" t="str">
         <f t="shared" si="36"/>
@@ -41946,7 +41946,7 @@
         <f>IF(DATA!M$3="","",
 IF(M69="","",
 IF(M69="N","N",IF(DATA!M$3=M69,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="N73" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -43922,7 +43922,7 @@
       </c>
       <c r="M77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="N77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -44750,7 +44750,7 @@
         <f>IF(DATA!M$3="","",
 IF(M77="","",
 IF(M77="N","N",IF(DATA!M$3=M77,"W","L"))))</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="N81" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -45817,7 +45817,7 @@
       <c r="M85" s="2">
         <f t="array" ref="M85">IF(AL!M97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="L", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "W"),"0"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" s="2" t="str">
         <f t="array" ref="N85">IF(AL!N97="","",
@@ -46660,7 +46660,7 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:L97, 1, MAX(IF(AL!$B97:L97="W", COLUMN(AL!$B97:L97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!L97, "L"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M89" s="2" t="str">
         <f t="array" ref="M89">IF(AL!M97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="W", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "L"),"0"))</f>
         <v>0</v>
@@ -47354,12 +47354,12 @@
       <c r="M93" s="2" t="str">
         <f>IF(AL!M60="","",
 IF(OR(AL!M60="P",AL!M60="B"),AL!M60,AL!M77))</f>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="N93" s="2" t="str">
         <f>IF(AL!N60="","",
 IF(OR(AL!N60="P",AL!N60="B"),AL!N60,AL!N77))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O93" s="2" t="str">
         <f>IF(AL!O60="","",
@@ -48063,7 +48063,7 @@
         <f>IF(DATA!M$3="","",
 IF(M93="","",
 IF(M93="N","N",IF(DATA!M$3=M93,"W","L"))))</f>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="N97" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -48439,7 +48439,7 @@
       </c>
       <c r="BX97" s="14">
         <f>IF(B97="","",COUNTIF(B97:BW97,"W"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY97" s="15">
         <f>IF(B97="","",COUNTIF(B97:BW97,"L"))</f>
@@ -48448,15 +48448,15 @@
       <c r="BZ97" s="15"/>
       <c r="CA97" s="16">
         <f>IF(B97="","",BX97-BY97)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="61">
     <mergeCell ref="CD1:CP1"/>
     <mergeCell ref="B21:N21"/>
+    <mergeCell ref="FF83:FR83"/>
     <mergeCell ref="CD41:CP41"/>
-    <mergeCell ref="FF83:FR83"/>
     <mergeCell ref="FF41:FR41"/>
     <mergeCell ref="CD75:CP75"/>
     <mergeCell ref="FF58:FR58"/>
@@ -48500,7 +48500,7 @@
     <mergeCell ref="B91:N91"/>
     <mergeCell ref="B87:N87"/>
     <mergeCell ref="FF13:FR13"/>
-    <mergeCell ref="FF17:FR17"/>
+    <mergeCell ref="B37:N37"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="B49:N49"/>
     <mergeCell ref="B83:N83"/>
@@ -48511,9 +48511,9 @@
     <mergeCell ref="FF33:FR33"/>
     <mergeCell ref="FF21:FR21"/>
     <mergeCell ref="CD17:CP17"/>
-    <mergeCell ref="B37:N37"/>
     <mergeCell ref="FF66:FR66"/>
     <mergeCell ref="CD37:CP37"/>
+    <mergeCell ref="FF17:FR17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48751,7 +48751,7 @@
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="18" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="E2" s="18" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="F2" s="18" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G2" s="18" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -48779,11 +48779,11 @@
       </c>
       <c r="J2" s="18" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="K2" s="18" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L2" s="18" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
@@ -48791,7 +48791,7 @@
       </c>
       <c r="M2" s="18" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N2" s="18" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -49040,52 +49040,52 @@
       <c r="C3" s="18">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -49332,52 +49332,52 @@
       <c r="C4" s="18">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" s="18" t="str">
         <f t="shared" si="3"/>
@@ -49620,51 +49620,51 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="O5" s="18" t="str">
         <f t="shared" si="5"/>
@@ -50009,19 +50009,19 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="M7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50312,11 +50312,11 @@
       </c>
       <c r="L8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="M8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50324,7 +50324,7 @@
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50590,7 +50590,7 @@
       <c r="I9" s="18" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50598,11 +50598,11 @@
       </c>
       <c r="K9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50616,7 +50616,7 @@
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="13"/>
@@ -50966,7 +50966,7 @@
       </c>
       <c r="I11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -50978,11 +50978,11 @@
       </c>
       <c r="L11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="M11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51264,15 +51264,15 @@
       </c>
       <c r="J12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51554,7 +51554,7 @@
       </c>
       <c r="I13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51566,11 +51566,11 @@
       </c>
       <c r="L13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51940,15 +51940,15 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52250,7 +52250,7 @@
       </c>
       <c r="O16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52529,11 +52529,11 @@
       </c>
       <c r="M17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52899,7 +52899,7 @@
       </c>
       <c r="N19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -53189,7 +53189,7 @@
       </c>
       <c r="M20" s="18" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N20" s="18" t="str">
         <f t="shared" si="37"/>
@@ -53487,7 +53487,7 @@
       </c>
       <c r="N21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53858,7 +53858,7 @@
       </c>
       <c r="O23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P23" s="19" t="str">
         <f t="shared" si="43"/>
@@ -54142,7 +54142,7 @@
       </c>
       <c r="M24" s="19" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="45"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2DCEBC-237C-4414-B0FD-F99DC4C95C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB612D8B-BE2C-4948-814C-70DB4CDC207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29670" yWindow="1260" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>S</t>
   </si>
   <si>
-    <t>T</t>
+    <t>본매 PTB</t>
   </si>
   <si>
-    <t>본매 PTB</t>
+    <t>T</t>
   </si>
   <si>
     <t>예상 PICK</t>
@@ -1494,19 +1494,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -1515,19 +1515,19 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1593,22 +1593,22 @@
       <c r="BW3" s="8"/>
       <c r="BX3" s="14">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BY3" s="15">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="16">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -1919,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="BZ6" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA6" s="17" t="s">
         <v>3</v>
@@ -2378,15 +2378,15 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M23="","",AI!M23)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N23="","",AI!N23)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O23="","",AI!O23)</f>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P23="","",AI!P23)</f>
@@ -4889,7 +4889,7 @@
       <c r="G3" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(DATA!F3=DATA!G3,"O","X"))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -4899,7 +4899,7 @@
       <c r="I3" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(DATA!H3=DATA!I3,"O","X"))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="J3" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -5275,7 +5275,7 @@
         <f>IF(DATA!H3="","",
 IF(AL!G3&lt;&gt;AL!H3,AL!G3,
 IF(AL!G3=AL!H3,AL!H3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CL3" s="2" t="str">
         <f>IF(DATA!I3="","",
@@ -5287,7 +5287,7 @@
         <f>IF(DATA!J3="","",
 IF(AL!I3&lt;&gt;AL!J3,AL!I3,
 IF(AL!I3=AL!J3,AL!J3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CN3" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -6631,19 +6631,19 @@
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6948,25 +6948,25 @@
         <f>IF(DATA!H3="","",
 IF(AL!G7&lt;&gt;AL!H7,AL!G7,
 IF(AL!G7=AL!H7,AL!H7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CL7" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(AL!H7&lt;&gt;AL!I7,AL!H7,
 IF(AL!H7=AL!I7,AL!I7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CM7" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(AL!I7&lt;&gt;AL!J7,AL!I7,
 IF(AL!I7=AL!J7,AL!J7)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="CN7" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(AL!J7&lt;&gt;AL!K7,AL!J7,
 IF(AL!J7=AL!K7,AL!K7)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="CO7" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -7381,7 +7381,7 @@
         <f>IF(CJ7="","",
 IF(CJ7="O",AL!G3,
 IF(CJ7="X",AL!F3)))</f>
-        <v>X</v>
+        <v>O</v>
       </c>
       <c r="FM7" s="2" t="str">
         <f>IF(CK7="","",
@@ -7393,7 +7393,7 @@
         <f>IF(CL7="","",
 IF(CL7="O",AL!I3,
 IF(CL7="X",AL!H3)))</f>
-        <v>O</v>
+        <v>X</v>
       </c>
       <c r="FO7" s="2" t="str">
         <f>IF(CM7="","",
@@ -8732,31 +8732,31 @@
         <f>IF(DATA!C3="","",
 IF(DATA!B3&lt;&gt;DATA!C3,DATA!B3,
 IF(DATA!B3=DATA!C3,DATA!C3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>IF(DATA!D3="","",
 IF(DATA!C3&lt;&gt;DATA!D3,DATA!C3,
 IF(DATA!C3=DATA!D3,DATA!D3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F11" s="2" t="str">
         <f>IF(DATA!E3="","",
 IF(DATA!D3&lt;&gt;DATA!E3,DATA!D3,
 IF(DATA!D3=DATA!E3,DATA!E3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="G11" s="2" t="str">
         <f>IF(DATA!F3="","",
 IF(DATA!E3&lt;&gt;DATA!F3,DATA!E3,
 IF(DATA!E3=DATA!F3,DATA!F3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H11" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(DATA!F3&lt;&gt;DATA!G3,DATA!F3,
 IF(DATA!F3=DATA!G3,DATA!G3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>IF(DATA!H3="","",
@@ -8774,25 +8774,25 @@
         <f>IF(DATA!J3="","",
 IF(DATA!I3&lt;&gt;DATA!J3,DATA!I3,
 IF(DATA!I3=DATA!J3,DATA!J3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>IF(DATA!K3="","",
 IF(DATA!J3&lt;&gt;DATA!K3,DATA!J3,
 IF(DATA!J3=DATA!K3,DATA!K3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M11" s="2" t="str">
         <f>IF(DATA!L3="","",
 IF(DATA!K3&lt;&gt;DATA!L3,DATA!K3,
 IF(DATA!K3=DATA!L3,DATA!L3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N11" s="2" t="str">
         <f>IF(DATA!M3="","",
 IF(DATA!L3&lt;&gt;DATA!M3,DATA!L3,
 IF(DATA!L3=DATA!M3,DATA!M3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>IF(DATA!N3="","",
@@ -9180,25 +9180,25 @@
         <f>IF(AL!CG3="","",
 IF(AL!CG3="O",DATA!D3,
 IF(AL!CG3="X",DATA!C3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CH11" s="2" t="str">
         <f>IF(AL!CH3="","",
 IF(AL!CH3="O",DATA!E3,
 IF(AL!CH3="X",DATA!D3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="CI11" s="2" t="str">
         <f>IF(AL!CI3="","",
 IF(AL!CI3="O",DATA!F3,
 IF(AL!CI3="X",DATA!E3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CJ11" s="2" t="str">
         <f>IF(AL!CJ3="","",
 IF(AL!CJ3="O",DATA!G3,
 IF(AL!CJ3="X",DATA!F3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CK11" s="2" t="str">
         <f>IF(AL!CK3="","",
@@ -9210,7 +9210,7 @@
         <f>IF(AL!CL3="","",
 IF(AL!CL3="O",DATA!I3,
 IF(AL!CL3="X",DATA!H3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM11" s="2" t="str">
         <f>IF(AL!CM3="","",
@@ -9222,19 +9222,19 @@
         <f>IF(AL!CN3="","",
 IF(AL!CN3="O",DATA!K3,
 IF(AL!CN3="X",DATA!J3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CO11" s="2" t="str">
         <f>IF(AL!CO3="","",
 IF(AL!CO3="O",DATA!L3,
 IF(AL!CO3="X",DATA!K3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP11" s="2" t="str">
         <f>IF(AL!CP3="","",
 IF(AL!CP3="O",DATA!M3,
 IF(AL!CP3="X",DATA!L3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ11" s="2" t="str">
         <f>IF(AL!CQ3="","",
@@ -9625,19 +9625,19 @@
         <f>IF(AL!FJ7="","",
 IF(AL!FJ7="O",DATA!E3,
 IF(AL!FJ7="X",DATA!D3)))</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="FK11" s="2" t="str">
         <f>IF(AL!FK7="","",
 IF(AL!FK7="O",DATA!F3,
 IF(AL!FK7="X",DATA!E3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FL11" s="2" t="str">
         <f>IF(AL!FL7="","",
 IF(AL!FL7="O",DATA!G3,
 IF(AL!FL7="X",DATA!F3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FM11" s="2" t="str">
         <f>IF(AL!FM7="","",
@@ -9655,25 +9655,25 @@
         <f>IF(AL!FO7="","",
 IF(AL!FO7="O",DATA!J3,
 IF(AL!FO7="X",DATA!I3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP11" s="2" t="str">
         <f>IF(AL!FP7="","",
 IF(AL!FP7="O",DATA!K3,
 IF(AL!FP7="X",DATA!J3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ11" s="2" t="str">
         <f>IF(AL!FQ7="","",
 IF(AL!FQ7="O",DATA!L3,
 IF(AL!FQ7="X",DATA!K3)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR11" s="2" t="str">
         <f>IF(AL!FR7="","",
 IF(AL!FR7="O",DATA!M3,
 IF(AL!FR7="X",DATA!L3)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS11" s="2" t="str">
         <f>IF(AL!FS7="","",
@@ -11008,31 +11008,31 @@
         <f>IF(DATA!F3="","",
 IF(F11="","",
 IF(F11="N","N",IF(DATA!F3=F11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="G15" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(G11="","",
 IF(G11="N","N",IF(DATA!G3=G11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="H15" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(H11="","",
 IF(H11="N","N",IF(DATA!H3=H11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I15" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(I11="","",
 IF(I11="N","N",IF(DATA!I3=I11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(J11="","",
 IF(J11="N","N",IF(DATA!J3=J11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -11460,25 +11460,25 @@
         <f>IF(DATA!F3="","",
 IF(CH11="","",
 IF(CH11="N","N",IF(DATA!F3=CH11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CI15" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(CI11="","",
 IF(CI11="N","N",IF(DATA!G3=CI11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CJ15" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(CJ11="","",
 IF(CJ11="N","N",IF(DATA!H3=CJ11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CK15" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(CK11="","",
 IF(CK11="N","N",IF(DATA!I3=CK11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CL15" s="2" t="str">
         <f>IF(DATA!J3="","",
@@ -11490,7 +11490,7 @@
         <f>IF(DATA!K3="","",
 IF(CM11="","",
 IF(CM11="N","N",IF(DATA!K3=CM11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CN15" s="2" t="str">
         <f>IF(DATA!L3="","",
@@ -11911,31 +11911,31 @@
         <f>IF(DATA!F3="","",
 IF(FJ11="","",
 IF(FJ11="N","N",IF(DATA!F3=FJ11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FK15" s="2" t="str">
         <f>IF(DATA!G3="","",
 IF(FK11="","",
 IF(FK11="N","N",IF(DATA!G3=FK11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FL15" s="2" t="str">
         <f>IF(DATA!H3="","",
 IF(FL11="","",
 IF(FL11="N","N",IF(DATA!H3=FL11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FM15" s="2" t="str">
         <f>IF(DATA!I3="","",
 IF(FM11="","",
 IF(FM11="N","N",IF(DATA!I3=FM11,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FN15" s="2" t="str">
         <f>IF(DATA!J3="","",
 IF(FN11="","",
 IF(FN11="N","N",IF(DATA!J3=FN11,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO15" s="2" t="str">
         <f>IF(DATA!K3="","",
@@ -13290,7 +13290,7 @@
 IF(AL!H11="N","N",
 IF(COUNTIF(AL!D15:G15,"W")&gt;=2,AL!H11,
 IF(COUNTIF(AL!D15:G15,"W")&lt;2,IF(AL!H11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>IF(AL!I11="","",
@@ -13311,28 +13311,28 @@
 IF(AL!K11="N","N",
 IF(COUNTIF(AL!G15:J15,"W")&gt;=2,AL!K11,
 IF(COUNTIF(AL!G15:J15,"W")&lt;2,IF(AL!K11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>IF(AL!L11="","",
 IF(AL!L11="N","N",
 IF(COUNTIF(AL!H15:K15,"W")&gt;=2,AL!L11,
 IF(COUNTIF(AL!H15:K15,"W")&lt;2,IF(AL!L11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>IF(AL!M11="","",
 IF(AL!M11="N","N",
 IF(COUNTIF(AL!I15:L15,"W")&gt;=2,AL!M11,
 IF(COUNTIF(AL!I15:L15,"W")&lt;2,IF(AL!M11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>IF(AL!N11="","",
 IF(AL!N11="N","N",
 IF(COUNTIF(AL!J15:M15,"W")&gt;=2,AL!N11,
 IF(COUNTIF(AL!J15:M15,"W")&lt;2,IF(AL!N11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>IF(AL!O11="","",
@@ -13794,21 +13794,21 @@
 IF(AL!CK11="N","N",
 IF(COUNTIF(AL!CG15:CJ15,"W")&gt;=2,AL!CK11,
 IF(COUNTIF(AL!CG15:CJ15,"W")&lt;2,IF(AL!CK11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL19" s="2" t="str">
         <f>IF(AL!CL11="","",
 IF(AL!CL11="N","N",
 IF(COUNTIF(AL!CH15:CK15,"W")&gt;=2,AL!CL11,
 IF(COUNTIF(AL!CH15:CK15,"W")&lt;2,IF(AL!CL11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM19" s="2" t="str">
         <f>IF(AL!CM11="","",
 IF(AL!CM11="N","N",
 IF(COUNTIF(AL!CI15:CL15,"W")&gt;=2,AL!CM11,
 IF(COUNTIF(AL!CI15:CL15,"W")&lt;2,IF(AL!CM11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN19" s="2" t="str">
         <f>IF(AL!CN11="","",
@@ -13822,14 +13822,14 @@
 IF(AL!CO11="N","N",
 IF(COUNTIF(AL!CK15:CN15,"W")&gt;=2,AL!CO11,
 IF(COUNTIF(AL!CK15:CN15,"W")&lt;2,IF(AL!CO11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CP19" s="2" t="str">
         <f>IF(AL!CP11="","",
 IF(AL!CP11="N","N",
 IF(COUNTIF(AL!CL15:CO15,"W")&gt;=2,AL!CP11,
 IF(COUNTIF(AL!CL15:CO15,"W")&lt;2,IF(AL!CP11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CQ19" s="2" t="str">
         <f>IF(AL!CQ11="","",
@@ -14301,28 +14301,28 @@
 IF(AL!FO11="N","N",
 IF(COUNTIF(AL!FK15:FN15,"W")&gt;=2,AL!FO11,
 IF(COUNTIF(AL!FK15:FN15,"W")&lt;2,IF(AL!FO11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP19" s="2" t="str">
         <f>IF(AL!FP11="","",
 IF(AL!FP11="N","N",
 IF(COUNTIF(AL!FL15:FO15,"W")&gt;=2,AL!FP11,
 IF(COUNTIF(AL!FL15:FO15,"W")&lt;2,IF(AL!FP11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FQ19" s="2" t="str">
         <f>IF(AL!FQ11="","",
 IF(AL!FQ11="N","N",
 IF(COUNTIF(AL!FM15:FP15,"W")&gt;=2,AL!FQ11,
 IF(COUNTIF(AL!FM15:FP15,"W")&lt;2,IF(AL!FQ11="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR19" s="2" t="str">
         <f>IF(AL!FR11="","",
 IF(AL!FR11="N","N",
 IF(COUNTIF(AL!FN15:FQ15,"W")&gt;=2,AL!FR11,
 IF(COUNTIF(AL!FN15:FQ15,"W")&lt;2,IF(AL!FR11="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS19" s="2" t="str">
         <f>IF(AL!FS11="","",
@@ -15730,19 +15730,19 @@
         <f>IF(DATA!H$3="","",
 IF(H19="","",
 IF(H19="N","N",IF(DATA!H$3=H19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I23" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I19="","",
 IF(I19="N","N",IF(DATA!I$3=I19,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J19="","",
 IF(J19="N","N",IF(DATA!J$3=J19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K23" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -16206,7 +16206,7 @@
         <f>IF(DATA!L$3="","",
 IF(CN19="","",
 IF(CN19="N","N",IF(DATA!L$3=CN19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO23" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -16645,7 +16645,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN19="","",
 IF(FN19="N","N",IF(DATA!J$3=FN19,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO23" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -17997,7 +17997,7 @@
 IF(AL!H19="N","N",
 IF(COUNTIF(AL!D23:G23,"W")&gt;=2,AL!H19,
 IF(COUNTIF(AL!D23:G23,"W")&lt;2,IF(AL!H19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>IF(AL!I19="","",
@@ -18025,21 +18025,21 @@
 IF(AL!L19="N","N",
 IF(COUNTIF(AL!H23:K23,"W")&gt;=2,AL!L19,
 IF(COUNTIF(AL!H23:K23,"W")&lt;2,IF(AL!L19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M27" s="2" t="str">
         <f>IF(AL!M19="","",
 IF(AL!M19="N","N",
 IF(COUNTIF(AL!I23:L23,"W")&gt;=2,AL!M19,
 IF(COUNTIF(AL!I23:L23,"W")&lt;2,IF(AL!M19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N27" s="2" t="str">
         <f>IF(AL!N19="","",
 IF(AL!N19="N","N",
 IF(COUNTIF(AL!J23:M23,"W")&gt;=2,AL!N19,
 IF(COUNTIF(AL!J23:M23,"W")&lt;2,IF(AL!N19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O27" s="2" t="str">
         <f>IF(AL!O19="","",
@@ -18501,21 +18501,21 @@
 IF(AL!CK19="N","N",
 IF(COUNTIF(AL!CG23:CJ23,"W")&gt;=2,AL!CK19,
 IF(COUNTIF(AL!CG23:CJ23,"W")&lt;2,IF(AL!CK19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL27" s="2" t="str">
         <f>IF(AL!CL19="","",
 IF(AL!CL19="N","N",
 IF(COUNTIF(AL!CH23:CK23,"W")&gt;=2,AL!CL19,
 IF(COUNTIF(AL!CH23:CK23,"W")&lt;2,IF(AL!CL19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CM27" s="2" t="str">
         <f>IF(AL!CM19="","",
 IF(AL!CM19="N","N",
 IF(COUNTIF(AL!CI23:CL23,"W")&gt;=2,AL!CM19,
 IF(COUNTIF(AL!CI23:CL23,"W")&lt;2,IF(AL!CM19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN27" s="2" t="str">
         <f>IF(AL!CN19="","",
@@ -18529,7 +18529,7 @@
 IF(AL!CO19="N","N",
 IF(COUNTIF(AL!CK23:CN23,"W")&gt;=2,AL!CO19,
 IF(COUNTIF(AL!CK23:CN23,"W")&lt;2,IF(AL!CO19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CP27" s="2" t="str">
         <f>IF(AL!CP19="","",
@@ -19008,7 +19008,7 @@
 IF(AL!FO19="N","N",
 IF(COUNTIF(AL!FK23:FN23,"W")&gt;=2,AL!FO19,
 IF(COUNTIF(AL!FK23:FN23,"W")&lt;2,IF(AL!FO19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP27" s="2" t="str">
         <f>IF(AL!FP19="","",
@@ -19022,14 +19022,14 @@
 IF(AL!FQ19="N","N",
 IF(COUNTIF(AL!FM23:FP23,"W")&gt;=2,AL!FQ19,
 IF(COUNTIF(AL!FM23:FP23,"W")&lt;2,IF(AL!FQ19="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FR27" s="2" t="str">
         <f>IF(AL!FR19="","",
 IF(AL!FR19="N","N",
 IF(COUNTIF(AL!FN23:FQ23,"W")&gt;=2,AL!FR19,
 IF(COUNTIF(AL!FN23:FQ23,"W")&lt;2,IF(AL!FR19="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS27" s="2" t="str">
         <f>IF(AL!FS19="","",
@@ -20437,25 +20437,25 @@
         <f>IF(DATA!H$3="","",
 IF(H27="","",
 IF(H27="N","N",IF(DATA!H$3=H27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I27="","",
 IF(I27="N","N",IF(DATA!I$3=I27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J27="","",
 IF(J27="N","N",IF(DATA!J$3=J27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K31" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(K27="","",
 IF(K27="N","N",IF(DATA!K$3=K27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L31" s="2" t="str">
         <f>IF(DATA!L$3="","",
@@ -20913,7 +20913,7 @@
         <f>IF(DATA!L$3="","",
 IF(CN27="","",
 IF(CN27="N","N",IF(DATA!L$3=CN27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO31" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -21352,7 +21352,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN27="","",
 IF(FN27="N","N",IF(DATA!J$3=FN27,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO31" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -21364,7 +21364,7 @@
         <f>IF(DATA!L$3="","",
 IF(FP27="","",
 IF(FP27="N","N",IF(DATA!L$3=FP27,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FQ31" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -22704,7 +22704,7 @@
 IF(AL!H27="N","N",
 IF(COUNTIF(AL!D31:G31,"W")&gt;=2,AL!H27,
 IF(COUNTIF(AL!D31:G31,"W")&lt;2,IF(AL!H27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>IF(AL!I27="","",
@@ -22725,28 +22725,28 @@
 IF(AL!K27="N","N",
 IF(COUNTIF(AL!G31:J31,"W")&gt;=2,AL!K27,
 IF(COUNTIF(AL!G31:J31,"W")&lt;2,IF(AL!K27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L35" s="2" t="str">
         <f>IF(AL!L27="","",
 IF(AL!L27="N","N",
 IF(COUNTIF(AL!H31:K31,"W")&gt;=2,AL!L27,
 IF(COUNTIF(AL!H31:K31,"W")&lt;2,IF(AL!L27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M35" s="2" t="str">
         <f>IF(AL!M27="","",
 IF(AL!M27="N","N",
 IF(COUNTIF(AL!I31:L31,"W")&gt;=2,AL!M27,
 IF(COUNTIF(AL!I31:L31,"W")&lt;2,IF(AL!M27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N35" s="2" t="str">
         <f>IF(AL!N27="","",
 IF(AL!N27="N","N",
 IF(COUNTIF(AL!J31:M31,"W")&gt;=2,AL!N27,
 IF(COUNTIF(AL!J31:M31,"W")&lt;2,IF(AL!N27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O35" s="2" t="str">
         <f>IF(AL!O27="","",
@@ -23208,21 +23208,21 @@
 IF(AL!CK27="N","N",
 IF(COUNTIF(AL!CG31:CJ31,"W")&gt;=2,AL!CK27,
 IF(COUNTIF(AL!CG31:CJ31,"W")&lt;2,IF(AL!CK27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CL35" s="2" t="str">
         <f>IF(AL!CL27="","",
 IF(AL!CL27="N","N",
 IF(COUNTIF(AL!CH31:CK31,"W")&gt;=2,AL!CL27,
 IF(COUNTIF(AL!CH31:CK31,"W")&lt;2,IF(AL!CL27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CM35" s="2" t="str">
         <f>IF(AL!CM27="","",
 IF(AL!CM27="N","N",
 IF(COUNTIF(AL!CI31:CL31,"W")&gt;=2,AL!CM27,
 IF(COUNTIF(AL!CI31:CL31,"W")&lt;2,IF(AL!CM27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CN35" s="2" t="str">
         <f>IF(AL!CN27="","",
@@ -23236,7 +23236,7 @@
 IF(AL!CO27="N","N",
 IF(COUNTIF(AL!CK31:CN31,"W")&gt;=2,AL!CO27,
 IF(COUNTIF(AL!CK31:CN31,"W")&lt;2,IF(AL!CO27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CP35" s="2" t="str">
         <f>IF(AL!CP27="","",
@@ -23715,7 +23715,7 @@
 IF(AL!FO27="N","N",
 IF(COUNTIF(AL!FK31:FN31,"W")&gt;=2,AL!FO27,
 IF(COUNTIF(AL!FK31:FN31,"W")&lt;2,IF(AL!FO27="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FP35" s="2" t="str">
         <f>IF(AL!FP27="","",
@@ -23729,14 +23729,14 @@
 IF(AL!FQ27="N","N",
 IF(COUNTIF(AL!FM31:FP31,"W")&gt;=2,AL!FQ27,
 IF(COUNTIF(AL!FM31:FP31,"W")&lt;2,IF(AL!FQ27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR35" s="2" t="str">
         <f>IF(AL!FR27="","",
 IF(AL!FR27="N","N",
 IF(COUNTIF(AL!FN31:FQ31,"W")&gt;=2,AL!FR27,
 IF(COUNTIF(AL!FN31:FQ31,"W")&lt;2,IF(AL!FR27="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS35" s="2" t="str">
         <f>IF(AL!FS27="","",
@@ -25144,19 +25144,19 @@
         <f>IF(DATA!H$3="","",
 IF(H35="","",
 IF(H35="N","N",IF(DATA!H$3=H35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I35="","",
 IF(I35="N","N",IF(DATA!I$3=I35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J35="","",
 IF(J35="N","N",IF(DATA!J$3=J35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K39" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -25620,7 +25620,7 @@
         <f>IF(DATA!L$3="","",
 IF(CN35="","",
 IF(CN35="N","N",IF(DATA!L$3=CN35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="CO39" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -26059,7 +26059,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN35="","",
 IF(FN35="N","N",IF(DATA!J$3=FN35,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="FO39" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -26071,7 +26071,7 @@
         <f>IF(DATA!L$3="","",
 IF(FP35="","",
 IF(FP35="N","N",IF(DATA!L$3=FP35,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FQ39" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -27411,7 +27411,7 @@
 IF(AL!H35="N","N",
 IF(COUNTIF(AL!D39:G39,"W")&gt;=2,AL!H35,
 IF(COUNTIF(AL!D39:G39,"W")&lt;2,IF(AL!H35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>IF(AL!I35="","",
@@ -27446,14 +27446,14 @@
 IF(AL!M35="N","N",
 IF(COUNTIF(AL!I39:L39,"W")&gt;=2,AL!M35,
 IF(COUNTIF(AL!I39:L39,"W")&lt;2,IF(AL!M35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N43" s="2" t="str">
         <f>IF(AL!N35="","",
 IF(AL!N35="N","N",
 IF(COUNTIF(AL!J39:M39,"W")&gt;=2,AL!N35,
 IF(COUNTIF(AL!J39:M39,"W")&lt;2,IF(AL!N35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O43" s="2" t="str">
         <f>IF(AL!O35="","",
@@ -27915,21 +27915,21 @@
 IF(AL!CK35="N","N",
 IF(COUNTIF(AL!CG39:CJ39,"W")&gt;=2,AL!CK35,
 IF(COUNTIF(AL!CG39:CJ39,"W")&lt;2,IF(AL!CK35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CL43" s="2" t="str">
         <f>IF(AL!CL35="","",
 IF(AL!CL35="N","N",
 IF(COUNTIF(AL!CH39:CK39,"W")&gt;=2,AL!CL35,
 IF(COUNTIF(AL!CH39:CK39,"W")&lt;2,IF(AL!CL35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CM43" s="2" t="str">
         <f>IF(AL!CM35="","",
 IF(AL!CM35="N","N",
 IF(COUNTIF(AL!CI39:CL39,"W")&gt;=2,AL!CM35,
 IF(COUNTIF(AL!CI39:CL39,"W")&lt;2,IF(AL!CM35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="CN43" s="2" t="str">
         <f>IF(AL!CN35="","",
@@ -27950,7 +27950,7 @@
 IF(AL!CP35="N","N",
 IF(COUNTIF(AL!CL39:CO39,"W")&gt;=2,AL!CP35,
 IF(COUNTIF(AL!CL39:CO39,"W")&lt;2,IF(AL!CP35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="CQ43" s="2" t="str">
         <f>IF(AL!CQ35="","",
@@ -28422,28 +28422,28 @@
 IF(AL!FO35="N","N",
 IF(COUNTIF(AL!FK39:FN39,"W")&gt;=2,AL!FO35,
 IF(COUNTIF(AL!FK39:FN39,"W")&lt;2,IF(AL!FO35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FP43" s="2" t="str">
         <f>IF(AL!FP35="","",
 IF(AL!FP35="N","N",
 IF(COUNTIF(AL!FL39:FO39,"W")&gt;=2,AL!FP35,
 IF(COUNTIF(AL!FL39:FO39,"W")&lt;2,IF(AL!FP35="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="FQ43" s="2" t="str">
         <f>IF(AL!FQ35="","",
 IF(AL!FQ35="N","N",
 IF(COUNTIF(AL!FM39:FP39,"W")&gt;=2,AL!FQ35,
 IF(COUNTIF(AL!FM39:FP39,"W")&lt;2,IF(AL!FQ35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FR43" s="2" t="str">
         <f>IF(AL!FR35="","",
 IF(AL!FR35="N","N",
 IF(COUNTIF(AL!FN39:FQ39,"W")&gt;=2,AL!FR35,
 IF(COUNTIF(AL!FN39:FQ39,"W")&lt;2,IF(AL!FR35="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="FS43" s="2" t="str">
         <f>IF(AL!FS35="","",
@@ -29851,31 +29851,31 @@
         <f>IF(DATA!H$3="","",
 IF(H43="","",
 IF(H43="N","N",IF(DATA!H$3=H43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>IF(DATA!I$3="","",
 IF(I43="","",
 IF(I43="N","N",IF(DATA!I$3=I43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J47" s="2" t="str">
         <f>IF(DATA!J$3="","",
 IF(J43="","",
 IF(J43="N","N",IF(DATA!J$3=J43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K47" s="2" t="str">
         <f>IF(DATA!K$3="","",
 IF(K43="","",
 IF(K43="N","N",IF(DATA!K$3=K43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L47" s="2" t="str">
         <f>IF(DATA!L$3="","",
 IF(L43="","",
 IF(L43="N","N",IF(DATA!L$3=L43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M47" s="2" t="str">
         <f>IF(DATA!M$3="","",
@@ -30327,13 +30327,13 @@
         <f>IF(DATA!L$3="","",
 IF(CN43="","",
 IF(CN43="N","N",IF(DATA!L$3=CN43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CO47" s="2" t="str">
         <f>IF(DATA!M$3="","",
 IF(CO43="","",
 IF(CO43="N","N",IF(DATA!M$3=CO43,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="CP47" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -30766,7 +30766,7 @@
         <f>IF(DATA!J$3="","",
 IF(FN43="","",
 IF(FN43="N","N",IF(DATA!J$3=FN43,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="FO47" s="2" t="str">
         <f>IF(DATA!K$3="","",
@@ -32138,7 +32138,7 @@
       </c>
       <c r="L51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
+        <v>R</v>
       </c>
       <c r="M51" s="2" t="str">
         <f t="shared" si="3"/>
@@ -33071,7 +33071,7 @@
       </c>
       <c r="N52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="O52" s="2" t="str">
         <f t="shared" si="12"/>
@@ -34963,7 +34963,7 @@
         <f>IF(DATA!M$3="","",
 IF(M52="","",
 IF(M52="N","N",IF(DATA!M$3=M52,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N56" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -36943,7 +36943,7 @@
       </c>
       <c r="N60" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="O60" s="2" t="str">
         <f t="shared" si="21"/>
@@ -37767,7 +37767,7 @@
         <f>IF(DATA!M$3="","",
 IF(M60="","",
 IF(M60="N","N",IF(DATA!M$3=M60,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N64" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -39121,7 +39121,7 @@
       </c>
       <c r="L68" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>R</v>
+        <v>F</v>
       </c>
       <c r="M68" s="2" t="str">
         <f t="shared" si="24"/>
@@ -40054,7 +40054,7 @@
       </c>
       <c r="N69" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="O69" s="2" t="str">
         <f t="shared" si="33"/>
@@ -41946,7 +41946,7 @@
         <f>IF(DATA!M$3="","",
 IF(M69="","",
 IF(M69="N","N",IF(DATA!M$3=M69,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N73" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -43926,7 +43926,7 @@
       </c>
       <c r="N77" s="2" t="str">
         <f t="shared" si="42"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="O77" s="2" t="str">
         <f t="shared" si="42"/>
@@ -44750,7 +44750,7 @@
         <f>IF(DATA!M$3="","",
 IF(M77="","",
 IF(M77="N","N",IF(DATA!M$3=M77,"W","L"))))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N81" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -45814,10 +45814,10 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:L97, 1, MAX(IF(AL!$B97:L97="L", COLUMN(AL!$B97:L97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!L97, "W"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="2" t="str">
         <f t="array" ref="M85">IF(AL!M97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="L", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "W"),"0"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" s="2" t="str">
         <f t="array" ref="N85">IF(AL!N97="","",
@@ -46660,10 +46660,10 @@
 IFERROR(COUNTIF(INDEX(AL!$B97:L97, 1, MAX(IF(AL!$B97:L97="W", COLUMN(AL!$B97:L97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!L97, "L"),"0"))</f>
         <v>0</v>
       </c>
-      <c r="M89" s="2" t="str">
+      <c r="M89" s="2">
         <f t="array" ref="M89">IF(AL!M97="","",
 IFERROR(COUNTIF(INDEX(AL!$B97:M97, 1, MAX(IF(AL!$B97:M97="W", COLUMN(AL!$B97:M97)-COLUMN(AL!$B97)+1, 0)) + 1):'AL'!M97, "L"),"0"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" s="2" t="str">
         <f t="array" ref="N89">IF(AL!N97="","",
@@ -47359,7 +47359,7 @@
       <c r="N93" s="2" t="str">
         <f>IF(AL!N60="","",
 IF(OR(AL!N60="P",AL!N60="B"),AL!N60,AL!N77))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O93" s="2" t="str">
         <f>IF(AL!O60="","",
@@ -48063,7 +48063,7 @@
         <f>IF(DATA!M$3="","",
 IF(M93="","",
 IF(M93="N","N",IF(DATA!M$3=M93,"W","L"))))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N97" s="2" t="str">
         <f>IF(DATA!N$3="","",
@@ -48439,24 +48439,24 @@
       </c>
       <c r="BX97" s="14">
         <f>IF(B97="","",COUNTIF(B97:BW97,"W"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY97" s="15">
         <f>IF(B97="","",COUNTIF(B97:BW97,"L"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ97" s="15"/>
       <c r="CA97" s="16">
         <f>IF(B97="","",BX97-BY97)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="61">
     <mergeCell ref="CD1:CP1"/>
     <mergeCell ref="B21:N21"/>
+    <mergeCell ref="CD41:CP41"/>
     <mergeCell ref="FF83:FR83"/>
-    <mergeCell ref="CD41:CP41"/>
     <mergeCell ref="FF41:FR41"/>
     <mergeCell ref="CD75:CP75"/>
     <mergeCell ref="FF58:FR58"/>
@@ -48500,7 +48500,7 @@
     <mergeCell ref="B91:N91"/>
     <mergeCell ref="B87:N87"/>
     <mergeCell ref="FF13:FR13"/>
-    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="FF66:FR66"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="B49:N49"/>
     <mergeCell ref="B83:N83"/>
@@ -48511,7 +48511,7 @@
     <mergeCell ref="FF33:FR33"/>
     <mergeCell ref="FF21:FR21"/>
     <mergeCell ref="CD17:CP17"/>
-    <mergeCell ref="FF66:FR66"/>
+    <mergeCell ref="B37:N37"/>
     <mergeCell ref="CD37:CP37"/>
     <mergeCell ref="FF17:FR17"/>
   </mergeCells>
@@ -48751,23 +48751,23 @@
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="D2" s="18" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="18" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="F2" s="18" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G2" s="18" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="18" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -48779,23 +48779,23 @@
       </c>
       <c r="J2" s="18" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K2" s="18" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="18" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M2" s="18" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N2" s="18" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O2" s="18" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -49040,52 +49040,52 @@
       <c r="C3" s="18">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="18">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O3" s="18" t="str">
         <f t="shared" si="0"/>
@@ -49332,52 +49332,52 @@
       <c r="C4" s="18">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K4" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O4" s="18" t="str">
         <f t="shared" si="3"/>
@@ -49620,51 +49620,51 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="18">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="18">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="18">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="O5" s="18" t="str">
         <f t="shared" si="5"/>
@@ -50009,7 +50009,7 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="J7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50017,7 +50017,7 @@
       </c>
       <c r="K7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="L7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50025,7 +50025,7 @@
       </c>
       <c r="M7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="N7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50033,7 +50033,7 @@
       </c>
       <c r="O7" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="P7" s="19" t="str">
         <f t="shared" si="8"/>
@@ -50300,7 +50300,7 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50312,19 +50312,19 @@
       </c>
       <c r="L8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O8" s="18" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P8" s="18" t="str">
         <f t="shared" si="10"/>
@@ -50590,11 +50590,11 @@
       <c r="I9" s="18" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50602,11 +50602,11 @@
       </c>
       <c r="L9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="18" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N9" s="18" t="str">
         <f t="shared" si="12"/>
@@ -50616,7 +50616,7 @@
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P9" s="18" t="str">
         <f t="shared" si="13"/>
@@ -50966,27 +50966,27 @@
       </c>
       <c r="I11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="J11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="L11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O11" s="19" t="str">
         <f t="shared" si="16"/>
@@ -51260,15 +51260,15 @@
       </c>
       <c r="I12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="18" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L12" s="18" t="str">
         <f t="shared" si="19"/>
@@ -51554,7 +51554,7 @@
       </c>
       <c r="I13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51562,7 +51562,7 @@
       </c>
       <c r="K13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51574,7 +51574,7 @@
       </c>
       <c r="N13" s="19" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O13" s="19" t="str">
         <f t="shared" si="22"/>
@@ -51940,7 +51940,7 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="N15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -51948,7 +51948,7 @@
       </c>
       <c r="O15" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="P15" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52242,15 +52242,15 @@
       </c>
       <c r="M16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O16" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P16" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52529,7 +52529,7 @@
       </c>
       <c r="M17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52537,7 +52537,7 @@
       </c>
       <c r="O17" s="18" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P17" s="18" t="str">
         <f t="shared" si="26"/>
@@ -52895,11 +52895,11 @@
       </c>
       <c r="M19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="N19" s="18" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O19" s="18" t="str">
         <f t="shared" si="34"/>
@@ -53487,7 +53487,7 @@
       </c>
       <c r="N21" s="18" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O21" s="18" t="str">
         <f t="shared" si="40"/>
@@ -53850,15 +53850,15 @@
       </c>
       <c r="M23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O23" s="19" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="P23" s="19" t="str">
         <f t="shared" si="43"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80DFC81-A557-4698-8790-304BEB499057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C4CFC1-C397-4651-BFCE-31AAC10B2716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1367,25 +1367,29 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1450,12 +1454,12 @@
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2333,15 +2337,15 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q25="","",AI!Q25)</f>
@@ -2349,11 +2353,11 @@
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S25="","",AI!S25)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!T25="","",AI!T25)</f>
@@ -2956,7 +2960,7 @@
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O26="","",AI!O26)</f>
@@ -2964,15 +2968,15 @@
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R26="","",AI!R26)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!S26="","",AI!S26)</f>
@@ -3208,16 +3212,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4190,8 +4194,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="12" width="3.125" style="18" customWidth="1"/>
-    <col min="13" max="16384" width="3.125" style="18"/>
+    <col min="1" max="32" width="3.125" style="18" customWidth="1"/>
+    <col min="33" max="16384" width="3.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -4415,7 +4419,7 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
@@ -4447,11 +4451,11 @@
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4459,11 +4463,11 @@
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
@@ -4471,11 +4475,11 @@
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R2" s="15" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S2" s="15" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
@@ -4704,36 +4708,36 @@
       <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
@@ -4749,7 +4753,7 @@
       </c>
       <c r="N3" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" s="15">
         <f t="shared" si="0"/>
@@ -4759,13 +4763,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Q3" s="15" t="str">
+      <c r="Q3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R3" s="15" t="str">
+        <v>9</v>
+      </c>
+      <c r="R3" s="15">
         <f t="shared" si="0"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="S3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4996,36 +5000,36 @@
       <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
@@ -5033,11 +5037,11 @@
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="15">
         <f t="shared" si="3"/>
@@ -5051,13 +5055,13 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="Q4" s="15" t="str">
+      <c r="Q4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R4" s="15" t="str">
+        <v>5</v>
+      </c>
+      <c r="R4" s="15">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="S4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5284,35 +5288,35 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
@@ -5320,15 +5324,15 @@
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" si="5"/>
@@ -5338,13 +5342,13 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="Q5" s="15" t="str">
+      <c r="Q5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R5" s="15" t="str">
+        <v>4</v>
+      </c>
+      <c r="R5" s="15">
         <f t="shared" si="5"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="S5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5673,7 +5677,7 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5709,11 +5713,11 @@
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5980,11 +5984,11 @@
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5992,19 +5996,19 @@
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6254,7 +6258,7 @@
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6280,7 +6284,7 @@
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6292,11 +6296,11 @@
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6630,7 +6634,7 @@
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6638,11 +6642,11 @@
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6650,7 +6654,7 @@
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6662,11 +6666,11 @@
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6932,7 +6936,7 @@
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6940,7 +6944,7 @@
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6948,19 +6952,19 @@
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7218,7 +7222,7 @@
       </c>
       <c r="I13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7226,7 +7230,7 @@
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7238,11 +7242,11 @@
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7250,11 +7254,11 @@
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7604,15 +7608,15 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7624,11 +7628,11 @@
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7910,11 +7914,11 @@
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7926,11 +7930,11 @@
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8213,11 +8217,11 @@
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8559,7 +8563,7 @@
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8567,7 +8571,7 @@
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8575,11 +8579,11 @@
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8857,11 +8861,11 @@
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -8869,11 +8873,11 @@
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9151,7 +9155,7 @@
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9163,11 +9167,11 @@
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9518,11 +9522,11 @@
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9534,11 +9538,11 @@
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9810,11 +9814,11 @@
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -9822,11 +9826,11 @@
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10109,15 +10113,15 @@
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10125,11 +10129,11 @@
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10403,7 +10407,7 @@
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="51"/>
@@ -10411,15 +10415,15 @@
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C4CFC1-C397-4651-BFCE-31AAC10B2716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E12FF7-A8C6-4E72-BFFE-5F6DCF2ADB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -1361,35 +1361,31 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1450,16 +1446,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2337,11 +2333,11 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
@@ -2353,11 +2349,11 @@
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S25="","",AI!S25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!T25="","",AI!T25)</f>
@@ -2956,7 +2952,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M26="","",AI!M26)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
@@ -2968,15 +2964,15 @@
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R26="","",AI!R26)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!S26="","",AI!S26)</f>
@@ -3212,16 +3208,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4194,8 +4190,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="32" width="3.125" style="18" customWidth="1"/>
-    <col min="33" max="16384" width="3.125" style="18"/>
+    <col min="1" max="35" width="3.125" style="18" customWidth="1"/>
+    <col min="36" max="16384" width="3.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -4419,11 +4415,11 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -4431,7 +4427,7 @@
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -4443,43 +4439,43 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R2" s="15" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S2" s="15" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
@@ -4708,68 +4704,68 @@
       <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N3" s="15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O3" s="15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P3" s="15">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q3" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="R3" s="15">
+        <v/>
+      </c>
+      <c r="R3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="S3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5000,68 +4996,68 @@
       <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Q4" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="R4" s="15">
+        <v/>
+      </c>
+      <c r="R4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="S4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5288,67 +5284,67 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="P5" s="15">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="Q5" s="15">
+        <v>-3</v>
+      </c>
+      <c r="Q5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="R5" s="15">
+        <v/>
+      </c>
+      <c r="R5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="S5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5677,47 +5673,47 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5976,39 +5972,39 @@
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6258,11 +6254,11 @@
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6284,11 +6280,11 @@
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6296,11 +6292,11 @@
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6658,7 +6654,7 @@
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6666,11 +6662,11 @@
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6928,11 +6924,11 @@
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6960,11 +6956,11 @@
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7230,23 +7226,23 @@
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7254,11 +7250,11 @@
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7608,15 +7604,15 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7624,15 +7620,15 @@
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7910,31 +7906,31 @@
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8201,11 +8197,11 @@
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8213,15 +8209,15 @@
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8571,19 +8567,19 @@
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8865,7 +8861,7 @@
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -8873,11 +8869,11 @@
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9151,7 +9147,7 @@
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9159,19 +9155,19 @@
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9522,11 +9518,11 @@
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9534,15 +9530,15 @@
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9810,7 +9806,7 @@
       </c>
       <c r="M24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -9818,19 +9814,19 @@
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10113,11 +10109,11 @@
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10129,11 +10125,11 @@
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10403,7 +10399,7 @@
       </c>
       <c r="M26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
@@ -10415,15 +10411,15 @@
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E12FF7-A8C6-4E72-BFFE-5F6DCF2ADB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0BB254-BCB8-4302-A1DD-CE208C1BA7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -35,10 +35,10 @@
     <t>S</t>
   </si>
   <si>
-    <t>T</t>
+    <t>본매 PTB</t>
   </si>
   <si>
-    <t>본매 PTB</t>
+    <t>T</t>
   </si>
   <si>
     <t>예상 PICK</t>
@@ -1343,19 +1343,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -1367,23 +1367,17 @@
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1446,22 +1440,22 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1772,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="BZ6" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA6" s="14" t="s">
         <v>3</v>
@@ -1831,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>2</v>
@@ -1882,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK7" s="2" t="s">
         <v>2</v>
@@ -1927,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
@@ -2329,23 +2323,23 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M25="","",AI!M25)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q25="","",AI!Q25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
@@ -2956,15 +2950,15 @@
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O26="","",AI!O26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
@@ -3208,16 +3202,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4190,8 +4184,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="35" width="3.125" style="18" customWidth="1"/>
-    <col min="36" max="16384" width="3.125" style="18"/>
+    <col min="1" max="113" width="3.125" style="18" customWidth="1"/>
+    <col min="114" max="16384" width="3.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -4415,23 +4409,23 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -4447,27 +4441,27 @@
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
@@ -4704,36 +4698,36 @@
       <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
@@ -4741,23 +4735,23 @@
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O3" s="15">
+        <v/>
+      </c>
+      <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P3" s="15">
+        <v/>
+      </c>
+      <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4965,7 +4959,7 @@
         <v/>
       </c>
       <c r="BP3" s="15" t="str">
-        <f t="shared" ref="BP3:CU3" si="2">IF(BP2="","",
+        <f t="shared" ref="BP3:BT3" si="2">IF(BP2="","",
 IF(BP2="P",BO3+1,BO3))</f>
         <v/>
       </c>
@@ -4996,20 +4990,20 @@
       <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
@@ -5029,27 +5023,27 @@
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O4" s="15">
+        <v/>
+      </c>
+      <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="P4" s="15">
+        <v/>
+      </c>
+      <c r="P4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5284,59 +5278,59 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
-      <c r="O5" s="15">
+        <v/>
+      </c>
+      <c r="O5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="P5" s="15">
+        <v/>
+      </c>
+      <c r="P5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v/>
       </c>
       <c r="Q5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5539,7 +5533,7 @@
         <v/>
       </c>
       <c r="BO5" s="15" t="str">
-        <f t="shared" ref="BO5:CT5" si="7">IF(BO3="","",BO3-BO4)</f>
+        <f t="shared" ref="BO5:BT5" si="7">IF(BO3="","",BO3-BO4)</f>
         <v/>
       </c>
       <c r="BP5" s="15" t="str">
@@ -5673,7 +5667,7 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5697,15 +5691,15 @@
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5964,7 +5958,7 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5980,23 +5974,23 @@
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6254,23 +6248,23 @@
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6280,15 +6274,15 @@
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6435,7 +6429,7 @@
         <v/>
       </c>
       <c r="BA9" s="15" t="str">
-        <f t="shared" ref="BA9:CF9" si="15">IF(AZ2="","",
+        <f t="shared" ref="BA9:BT9" si="15">IF(AZ2="","",
 IF(AND(AI2=AO2,AO2=AU2),IF(AU2="P","B","P"),
 IF(AND(AI2=AO2,AO2&lt;&gt;AU2),IF(AU2="P","B","P"),
 IF(AND(AI2&lt;&gt;AO2,AO2=AU2),AI2,
@@ -6630,7 +6624,7 @@
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6638,27 +6632,27 @@
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6924,7 +6918,7 @@
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6932,7 +6926,7 @@
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6944,15 +6938,15 @@
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7218,11 +7212,11 @@
       </c>
       <c r="I13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7230,7 +7224,7 @@
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7238,15 +7232,15 @@
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7604,23 +7598,23 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7910,19 +7904,19 @@
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8201,15 +8195,15 @@
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8563,15 +8557,15 @@
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8853,19 +8847,19 @@
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9147,19 +9141,19 @@
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9514,23 +9508,23 @@
       </c>
       <c r="M23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9810,15 +9804,15 @@
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10023,7 +10017,7 @@
         <v/>
       </c>
       <c r="BO24" s="16" t="str">
-        <f t="shared" ref="BO24:CT24" si="47">IF(BO2="","",
+        <f t="shared" ref="BO24:BT24" si="47">IF(BO2="","",
 IF(BO23="N","N",
 IF(BO23=BO2,"W","L")))</f>
         <v/>
@@ -10105,23 +10099,23 @@
       </c>
       <c r="M25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v>N</v>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10331,7 +10325,7 @@
         <v/>
       </c>
       <c r="BQ25" s="19" t="str">
-        <f t="shared" ref="BQ25:CV25" si="50">IF(BQ23="","",
+        <f t="shared" ref="BQ25:BT25" si="50">IF(BQ23="","",
 IF(BQ23="N","N",
 IF(COUNTIF(BM24:BP24,"W")&gt;=2,BQ23,
 IF(COUNTIF(BM24:BP24,"W")&lt;2,IF(BQ23="P","B","P")))))</f>
@@ -10403,15 +10397,15 @@
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>
@@ -10616,7 +10610,7 @@
         <v/>
       </c>
       <c r="BO26" s="16" t="str">
-        <f t="shared" ref="BO26:CT26" si="53">IF(BO2="","",
+        <f t="shared" ref="BO26:BT26" si="53">IF(BO2="","",
 IF(BO25="N","N",
 IF(BO25=BO2,"W","L")))</f>
         <v/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0BB254-BCB8-4302-A1DD-CE208C1BA7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CCA989-78D1-4AD2-962C-4F1CC19BDA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -35,10 +35,10 @@
     <t>S</t>
   </si>
   <si>
-    <t>본매 PTB</t>
+    <t>T</t>
   </si>
   <si>
-    <t>T</t>
+    <t>본매 PTB</t>
   </si>
   <si>
     <t>예상 PICK</t>
@@ -1343,45 +1343,59 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1440,22 +1454,22 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1766,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="BZ6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA6" s="14" t="s">
         <v>3</v>
@@ -1825,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>2</v>
@@ -1876,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" s="2" t="s">
         <v>2</v>
@@ -1921,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
@@ -2323,39 +2337,39 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M25="","",AI!M25)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q25="","",AI!Q25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S25="","",AI!S25)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!T25="","",AI!T25)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!U25="","",AI!U25)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U12" s="2" t="str">
         <f>IF(AI!V25="","",AI!V25)</f>
@@ -2950,31 +2964,31 @@
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O26="","",AI!O26)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R26="","",AI!R26)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!S26="","",AI!S26)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!T26="","",AI!T26)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T16" s="2" t="str">
         <f>IF(AI!U26="","",AI!U26)</f>
@@ -3202,16 +3216,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4184,8 +4198,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="113" width="3.125" style="18" customWidth="1"/>
-    <col min="114" max="16384" width="3.125" style="18"/>
+    <col min="1" max="134" width="3.125" style="18" customWidth="1"/>
+    <col min="135" max="16384" width="3.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -4409,11 +4423,11 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -4421,11 +4435,11 @@
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -4433,51 +4447,51 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R2" s="15" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="S2" s="15" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T2" s="15" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="U2" s="15" t="str">
         <f>IF(DATA!T3="","",DATA!T3)</f>
@@ -4698,32 +4712,32 @@
       <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
@@ -4739,35 +4753,35 @@
       </c>
       <c r="M3" s="15">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N3" s="15">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N3" s="15" t="str">
+      <c r="O3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O3" s="15" t="str">
+        <v>5</v>
+      </c>
+      <c r="P3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P3" s="15" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q3" s="15" t="str">
+        <v>6</v>
+      </c>
+      <c r="R3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R3" s="15" t="str">
+        <v>6</v>
+      </c>
+      <c r="S3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S3" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="T3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T3" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="U3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4959,7 +4973,7 @@
         <v/>
       </c>
       <c r="BP3" s="15" t="str">
-        <f t="shared" ref="BP3:BT3" si="2">IF(BP2="","",
+        <f t="shared" ref="BP3:CU3" si="2">IF(BP2="","",
 IF(BP2="P",BO3+1,BO3))</f>
         <v/>
       </c>
@@ -4990,28 +5004,28 @@
       <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
@@ -5019,47 +5033,47 @@
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N4" s="15" t="str">
+      <c r="N4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O4" s="15" t="str">
+        <v>6</v>
+      </c>
+      <c r="O4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P4" s="15" t="str">
+        <v>6</v>
+      </c>
+      <c r="P4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q4" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R4" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="R4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S4" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="S4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T4" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="T4" s="15">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="U4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5278,75 +5292,75 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="N5" s="15" t="str">
+      <c r="O5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O5" s="15" t="str">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P5" s="15" t="str">
+        <v>-2</v>
+      </c>
+      <c r="Q5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q5" s="15" t="str">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R5" s="15" t="str">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S5" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T5" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5533,7 +5547,7 @@
         <v/>
       </c>
       <c r="BO5" s="15" t="str">
-        <f t="shared" ref="BO5:BT5" si="7">IF(BO3="","",BO3-BO4)</f>
+        <f t="shared" ref="BO5:CT5" si="7">IF(BO3="","",BO3-BO4)</f>
         <v/>
       </c>
       <c r="BP5" s="15" t="str">
@@ -5667,7 +5681,7 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5691,31 +5705,31 @@
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="V7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5958,7 +5972,7 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5966,47 +5980,47 @@
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="U8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6248,11 +6262,11 @@
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6260,11 +6274,11 @@
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6274,27 +6288,27 @@
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="U9" s="15" t="str">
         <f t="shared" ref="U9:AZ9" si="14">IF(T2="","",
@@ -6302,7 +6316,7 @@
 IF(AND(C2=I2,I2&lt;&gt;O2),IF(O2="P","B","P"),
 IF(AND(C2&lt;&gt;I2,I2=O2),C2,
 IF(AND(C2&lt;&gt;I2,I2&lt;&gt;O2),O2)))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="V9" s="15" t="str">
         <f t="shared" si="14"/>
@@ -6429,7 +6443,7 @@
         <v/>
       </c>
       <c r="BA9" s="15" t="str">
-        <f t="shared" ref="BA9:BT9" si="15">IF(AZ2="","",
+        <f t="shared" ref="BA9:CF9" si="15">IF(AZ2="","",
 IF(AND(AI2=AO2,AO2=AU2),IF(AU2="P","B","P"),
 IF(AND(AI2=AO2,AO2&lt;&gt;AU2),IF(AU2="P","B","P"),
 IF(AND(AI2&lt;&gt;AO2,AO2=AU2),AI2,
@@ -6624,11 +6638,11 @@
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6640,35 +6654,35 @@
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6922,11 +6936,11 @@
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6938,31 +6952,31 @@
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="U12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7232,31 +7246,31 @@
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="U13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7598,7 +7612,7 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7606,31 +7620,31 @@
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="V15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7900,39 +7914,39 @@
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="U16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8187,7 +8201,7 @@
       </c>
       <c r="M17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8195,31 +8209,31 @@
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8557,31 +8571,31 @@
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="U19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8851,31 +8865,31 @@
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="U20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9145,31 +9159,31 @@
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="U21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9508,39 +9522,39 @@
       </c>
       <c r="M23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9804,31 +9818,31 @@
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="U24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10017,7 +10031,7 @@
         <v/>
       </c>
       <c r="BO24" s="16" t="str">
-        <f t="shared" ref="BO24:BT24" si="47">IF(BO2="","",
+        <f t="shared" ref="BO24:CT24" si="47">IF(BO2="","",
 IF(BO23="N","N",
 IF(BO23=BO2,"W","L")))</f>
         <v/>
@@ -10099,39 +10113,39 @@
       </c>
       <c r="M25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="U25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="V25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10325,7 +10339,7 @@
         <v/>
       </c>
       <c r="BQ25" s="19" t="str">
-        <f t="shared" ref="BQ25:BT25" si="50">IF(BQ23="","",
+        <f t="shared" ref="BQ25:CV25" si="50">IF(BQ23="","",
 IF(BQ23="N","N",
 IF(COUNTIF(BM24:BP24,"W")&gt;=2,BQ23,
 IF(COUNTIF(BM24:BP24,"W")&lt;2,IF(BQ23="P","B","P")))))</f>
@@ -10397,31 +10411,31 @@
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="R26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="U26" s="16" t="str">
         <f t="shared" si="51"/>
@@ -10610,7 +10624,7 @@
         <v/>
       </c>
       <c r="BO26" s="16" t="str">
-        <f t="shared" ref="BO26:BT26" si="53">IF(BO2="","",
+        <f t="shared" ref="BO26:CT26" si="53">IF(BO2="","",
 IF(BO25="N","N",
 IF(BO25=BO2,"W","L")))</f>
         <v/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CCA989-78D1-4AD2-962C-4F1CC19BDA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87A6561-5474-415B-86B1-FD122A72A229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1346,16 +1346,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
@@ -1364,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>2</v>
@@ -1376,26 +1376,18 @@
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1454,16 +1446,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2345,31 +2337,31 @@
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q25="","",AI!Q25)</f>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S25="","",AI!S25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!T25="","",AI!T25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!U25="","",AI!U25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U12" s="2" t="str">
         <f>IF(AI!V25="","",AI!V25)</f>
@@ -2972,23 +2964,23 @@
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R26="","",AI!R26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!S26="","",AI!S26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!T26="","",AI!T26)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T16" s="2" t="str">
         <f>IF(AI!U26="","",AI!U26)</f>
@@ -3216,16 +3208,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4198,8 +4190,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="134" width="3.125" style="18" customWidth="1"/>
-    <col min="135" max="16384" width="3.125" style="18"/>
+    <col min="1" max="174" width="3.125" style="18" customWidth="1"/>
+    <col min="175" max="16384" width="3.125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -4427,19 +4419,19 @@
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -4451,11 +4443,11 @@
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
@@ -4467,11 +4459,11 @@
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
@@ -4479,19 +4471,19 @@
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R2" s="15" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="S2" s="15" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T2" s="15" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U2" s="15" t="str">
         <f>IF(DATA!T3="","",DATA!T3)</f>
@@ -4717,47 +4709,47 @@
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" s="15">
         <f t="shared" si="0"/>
@@ -4767,21 +4759,21 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R3" s="15">
+        <v/>
+      </c>
+      <c r="R3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="S3" s="15">
+        <v/>
+      </c>
+      <c r="S3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="T3" s="15">
+        <v/>
+      </c>
+      <c r="T3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="U3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4973,7 +4965,7 @@
         <v/>
       </c>
       <c r="BP3" s="15" t="str">
-        <f t="shared" ref="BP3:CU3" si="2">IF(BP2="","",
+        <f t="shared" ref="BP3:BT3" si="2">IF(BP2="","",
 IF(BP2="P",BO3+1,BO3))</f>
         <v/>
       </c>
@@ -5009,27 +5001,27 @@
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
@@ -5053,27 +5045,27 @@
       </c>
       <c r="O4" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P4" s="15">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="Q4" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="R4" s="15">
+        <v/>
+      </c>
+      <c r="R4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="S4" s="15">
+        <v/>
+      </c>
+      <c r="S4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="T4" s="15">
+        <v/>
+      </c>
+      <c r="T4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="U4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5296,71 +5288,71 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="Q5" s="15">
+        <v>-3</v>
+      </c>
+      <c r="Q5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="R5" s="15">
+        <v/>
+      </c>
+      <c r="R5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="S5" s="15">
+        <v/>
+      </c>
+      <c r="S5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="15">
+        <v/>
+      </c>
+      <c r="T5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="U5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5547,7 +5539,7 @@
         <v/>
       </c>
       <c r="BO5" s="15" t="str">
-        <f t="shared" ref="BO5:CT5" si="7">IF(BO3="","",BO3-BO4)</f>
+        <f t="shared" ref="BO5:BT5" si="7">IF(BO3="","",BO3-BO4)</f>
         <v/>
       </c>
       <c r="BP5" s="15" t="str">
@@ -5681,23 +5673,23 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5717,19 +5709,19 @@
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="V7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5972,7 +5964,7 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5984,11 +5976,11 @@
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6000,27 +5992,27 @@
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>T</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="U8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6266,19 +6258,19 @@
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6292,23 +6284,23 @@
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U9" s="15" t="str">
         <f t="shared" ref="U9:AZ9" si="14">IF(T2="","",
@@ -6316,7 +6308,7 @@
 IF(AND(C2=I2,I2&lt;&gt;O2),IF(O2="P","B","P"),
 IF(AND(C2&lt;&gt;I2,I2=O2),C2,
 IF(AND(C2&lt;&gt;I2,I2&lt;&gt;O2),O2)))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="V9" s="15" t="str">
         <f t="shared" si="14"/>
@@ -6443,7 +6435,7 @@
         <v/>
       </c>
       <c r="BA9" s="15" t="str">
-        <f t="shared" ref="BA9:CF9" si="15">IF(AZ2="","",
+        <f t="shared" ref="BA9:BT9" si="15">IF(AZ2="","",
 IF(AND(AI2=AO2,AO2=AU2),IF(AU2="P","B","P"),
 IF(AND(AI2=AO2,AO2&lt;&gt;AU2),IF(AU2="P","B","P"),
 IF(AND(AI2&lt;&gt;AO2,AO2=AU2),AI2,
@@ -6638,7 +6630,7 @@
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>N</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6646,23 +6638,23 @@
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6670,19 +6662,19 @@
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6932,19 +6924,19 @@
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6956,7 +6948,7 @@
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6964,19 +6956,19 @@
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7238,39 +7230,39 @@
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7612,11 +7604,11 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7624,27 +7616,27 @@
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="V15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7918,35 +7910,35 @@
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>T</v>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="U16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8201,7 +8193,7 @@
       </c>
       <c r="M17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8209,7 +8201,7 @@
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8217,23 +8209,23 @@
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8567,7 +8559,7 @@
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8575,27 +8567,27 @@
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="U19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8865,7 +8857,7 @@
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -8873,23 +8865,23 @@
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9155,11 +9147,11 @@
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9171,19 +9163,19 @@
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9530,31 +9522,31 @@
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9818,7 +9810,7 @@
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -9826,23 +9818,23 @@
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10031,7 +10023,7 @@
         <v/>
       </c>
       <c r="BO24" s="16" t="str">
-        <f t="shared" ref="BO24:CT24" si="47">IF(BO2="","",
+        <f t="shared" ref="BO24:BT24" si="47">IF(BO2="","",
 IF(BO23="N","N",
 IF(BO23=BO2,"W","L")))</f>
         <v/>
@@ -10121,31 +10113,31 @@
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v>N</v>
       </c>
       <c r="Q25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="V25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10339,7 +10331,7 @@
         <v/>
       </c>
       <c r="BQ25" s="19" t="str">
-        <f t="shared" ref="BQ25:CV25" si="50">IF(BQ23="","",
+        <f t="shared" ref="BQ25:BT25" si="50">IF(BQ23="","",
 IF(BQ23="N","N",
 IF(COUNTIF(BM24:BP24,"W")&gt;=2,BQ23,
 IF(COUNTIF(BM24:BP24,"W")&lt;2,IF(BQ23="P","B","P")))))</f>
@@ -10419,23 +10411,23 @@
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v>N</v>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="R26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U26" s="16" t="str">
         <f t="shared" si="51"/>
@@ -10624,7 +10616,7 @@
         <v/>
       </c>
       <c r="BO26" s="16" t="str">
-        <f t="shared" ref="BO26:CT26" si="53">IF(BO2="","",
+        <f t="shared" ref="BO26:BT26" si="53">IF(BO2="","",
 IF(BO25="N","N",
 IF(BO25=BO2,"W","L")))</f>
         <v/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87A6561-5474-415B-86B1-FD122A72A229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4986E4BB-A4F7-44D8-AC17-44D8CF2297D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1343,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -1364,26 +1364,18 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1446,16 +1438,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2333,19 +2325,19 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q25="","",AI!Q25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
@@ -2952,19 +2944,19 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M26="","",AI!M26)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O26="","",AI!O26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
@@ -3208,16 +3200,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4415,11 +4407,11 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -4443,7 +4435,7 @@
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -4451,23 +4443,23 @@
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>T</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
@@ -4704,7 +4696,7 @@
       <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
@@ -4733,31 +4725,31 @@
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M3" s="15">
+        <v>7</v>
+      </c>
+      <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N3" s="15">
+        <v/>
+      </c>
+      <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O3" s="15">
+        <v/>
+      </c>
+      <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P3" s="15">
+        <v/>
+      </c>
+      <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4996,7 +4988,7 @@
       <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
@@ -5025,31 +5017,31 @@
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M4" s="15">
+        <v>3</v>
+      </c>
+      <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N4" s="15">
+        <v/>
+      </c>
+      <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="O4" s="15">
+        <v/>
+      </c>
+      <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="P4" s="15">
+        <v/>
+      </c>
+      <c r="P4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5284,7 +5276,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
@@ -5312,31 +5304,31 @@
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
+        <v>4</v>
+      </c>
+      <c r="M5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="N5" s="15">
+        <v/>
+      </c>
+      <c r="N5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="O5" s="15">
+        <v/>
+      </c>
+      <c r="O5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="P5" s="15">
+        <v/>
+      </c>
+      <c r="P5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v/>
       </c>
       <c r="Q5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5681,7 +5673,7 @@
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5689,23 +5681,23 @@
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5976,7 +5968,7 @@
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5984,19 +5976,19 @@
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6254,11 +6246,11 @@
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6274,21 +6266,21 @@
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O9" s="15" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6634,31 +6626,31 @@
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6928,7 +6920,7 @@
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6940,19 +6932,19 @@
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7218,7 +7210,7 @@
       </c>
       <c r="I13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7230,23 +7222,23 @@
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7604,23 +7596,23 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7910,19 +7902,19 @@
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v/>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8193,23 +8185,23 @@
       </c>
       <c r="M17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8559,19 +8551,19 @@
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8853,19 +8845,19 @@
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9147,19 +9139,19 @@
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9518,19 +9510,19 @@
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9806,19 +9798,19 @@
       </c>
       <c r="M24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10109,19 +10101,19 @@
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10399,19 +10391,19 @@
       </c>
       <c r="M26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4986E4BB-A4F7-44D8-AC17-44D8CF2297D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB1957-73BD-41ED-8ECA-E28B7FA33A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1343,31 +1343,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>1</v>
@@ -1438,11 +1438,11 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M25="","",AI!M25)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
@@ -4407,23 +4407,23 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -4431,15 +4431,15 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
@@ -4696,7 +4696,7 @@
       <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
@@ -4705,35 +4705,35 @@
       </c>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4988,7 +4988,7 @@
       <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
@@ -4997,35 +4997,35 @@
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5276,7 +5276,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
@@ -5284,35 +5284,35 @@
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="M5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5665,23 +5665,23 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5956,7 +5956,7 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5964,15 +5964,15 @@
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6246,23 +6246,23 @@
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7596,7 +7596,7 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="M23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="M25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB1957-73BD-41ED-8ECA-E28B7FA33A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CCD139-3182-4384-A59D-BE4D70A39D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1342,36 +1342,16 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1436,18 +1416,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11">
+      <c r="BX3" s="11" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>3</v>
-      </c>
-      <c r="BY3" s="12">
+        <v/>
+      </c>
+      <c r="BY3" s="12" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13">
+      <c r="CA3" s="13" t="str">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2285,43 +2265,43 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!D25="","",AI!D25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!E25="","",AI!E25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!F25="","",AI!F25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!G25="","",AI!G25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!H25="","",AI!H25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I25="","",AI!I25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J25="","",AI!J25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K25="","",AI!K25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L25="","",AI!L25)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M25="","",AI!M25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
@@ -2904,43 +2884,43 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!C26="","",AI!C26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!D26="","",AI!D26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!E26="","",AI!E26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!F26="","",AI!F26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!G26="","",AI!G26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!H26="","",AI!H26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!I26="","",AI!I26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J26="","",AI!J26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K26="","",AI!K26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L26="","",AI!L26)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M26="","",AI!M26)</f>
@@ -3198,18 +3178,18 @@
         <f>IF(AI!BX26="","",AI!BX26)</f>
         <v/>
       </c>
-      <c r="BX16" s="11">
+      <c r="BX16" s="11" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>0</v>
-      </c>
-      <c r="BY16" s="12">
+        <v/>
+      </c>
+      <c r="BY16" s="12" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13">
+      <c r="CA16" s="13" t="str">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4407,43 +4387,43 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4693,47 +4673,47 @@
       <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="15" t="str">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
+        <v/>
+      </c>
+      <c r="D3" s="15" t="str">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="15">
+        <v/>
+      </c>
+      <c r="E3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F3" s="15">
+        <v/>
+      </c>
+      <c r="F3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G3" s="15">
+        <v/>
+      </c>
+      <c r="G3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H3" s="15">
+        <v/>
+      </c>
+      <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I3" s="15">
+        <v/>
+      </c>
+      <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J3" s="15">
+        <v/>
+      </c>
+      <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K3" s="15">
+        <v/>
+      </c>
+      <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L3" s="15">
+        <v/>
+      </c>
+      <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4985,47 +4965,47 @@
       <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="15" t="str">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="15">
+        <v/>
+      </c>
+      <c r="D4" s="15" t="str">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="15">
+        <v/>
+      </c>
+      <c r="E4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F4" s="15">
+        <v/>
+      </c>
+      <c r="F4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G4" s="15">
+        <v/>
+      </c>
+      <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H4" s="15">
+        <v/>
+      </c>
+      <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I4" s="15">
+        <v/>
+      </c>
+      <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="J4" s="15">
+        <v/>
+      </c>
+      <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K4" s="15">
+        <v/>
+      </c>
+      <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L4" s="15">
+        <v/>
+      </c>
+      <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5274,45 +5254,45 @@
         <v>4</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="15">
+      <c r="C5" s="15" t="str">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>-1</v>
-      </c>
-      <c r="D5" s="15">
+        <v/>
+      </c>
+      <c r="D5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
+        <v/>
+      </c>
+      <c r="E5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="F5" s="15">
+        <v/>
+      </c>
+      <c r="F5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="G5" s="15">
+        <v/>
+      </c>
+      <c r="G5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="H5" s="15">
+        <v/>
+      </c>
+      <c r="H5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="I5" s="15">
+        <v/>
+      </c>
+      <c r="I5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
-      <c r="J5" s="15">
+        <v/>
+      </c>
+      <c r="J5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="K5" s="15">
+        <v/>
+      </c>
+      <c r="K5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="L5" s="15">
+        <v/>
+      </c>
+      <c r="L5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v/>
       </c>
       <c r="M5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5643,45 +5623,45 @@
       </c>
       <c r="D7" s="16" t="str">
         <f>IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E7" s="16" t="str">
         <f>IF(D2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F7" s="16" t="str">
         <f>IF(E2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G7" s="16" t="str">
         <f>IF(F2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H7" s="16" t="str">
         <f>IF(G2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I7" s="16" t="str">
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5934,45 +5914,45 @@
       </c>
       <c r="D8" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E8" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F8" s="15" t="str">
         <f>IF(E2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G8" s="15" t="str">
         <f>IF(F2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H8" s="15" t="str">
         <f>IF(G2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6225,44 +6205,44 @@
       </c>
       <c r="D9" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E9" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F9" s="15" t="str">
         <f>IF(E2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G9" s="15" t="str">
         <f>IF(F2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H9" s="15" t="str">
         <f>IF(G2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6598,43 +6578,43 @@
         <f t="shared" ref="C11:AH11" si="16">IF(C2="","",
 IF(C7="N","N",
 IF(C2=C7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6892,43 +6872,43 @@
         <f t="shared" ref="C12:AH12" si="19">IF(C2="","",
 IF(C8="N","N",
 IF(C2=C8,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7186,43 +7166,43 @@
         <f t="shared" ref="C13:AH13" si="22">IF(C2="","",
 IF(C9="N","N",
 IF(C2=C9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7557,46 +7537,46 @@
       </c>
       <c r="D15" s="15" t="str">
         <f t="shared" ref="D15:L15" si="25">IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="M15" s="15" t="str">
         <f t="shared" ref="M15:V17" si="26">IF(M7="","",
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7862,43 +7842,43 @@
       </c>
       <c r="D16" s="15" t="str">
         <f t="shared" ref="D16:L16" si="32">IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8149,43 +8129,43 @@
       </c>
       <c r="D17" s="15" t="str">
         <f t="shared" ref="D17:L17" si="33">IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="M17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8511,43 +8491,43 @@
         <f t="shared" ref="C19:AH19" si="34">IF(C$2="","",
 IF(C15="N","N",
 IF(C$2=C15,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8805,43 +8785,43 @@
         <f t="shared" ref="C20:AH20" si="37">IF(C$2="","",
 IF(C16="N","N",
 IF(C$2=C16,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9099,43 +9079,43 @@
         <f t="shared" ref="C21:AH21" si="40">IF(C$2="","",
 IF(C17="N","N",
 IF(C$2=C17,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9470,43 +9450,43 @@
         <f t="shared" ref="D23:AI23" si="43">IF(C2="","",
 IF(COUNTIF(D15:D17,"P")-COUNTIF(D15:D17,"B")&gt;0,"P",
 IF(COUNTIF(D15:D17,"P")-COUNTIF(D15:D17,"B")&lt;0,"B","N")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="M23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9758,43 +9738,43 @@
         <f t="shared" ref="C24:AH24" si="45">IF(C2="","",
 IF(C23="N","N",
 IF(C23=C2,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="M24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10058,46 +10038,46 @@
 IF(D23="N","N",
 IF(COUNTIF(#REF!,"W")&gt;=2,D23,
 IF(COUNTIF(#REF!,"W")&lt;2,IF(D23="P","B","P")))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E25" s="19" t="str">
         <f t="shared" ref="E25:AJ25" si="48">IF(E23="","",
 IF(E23="N","N",
 IF(COUNTIF(A24:D24,"W")&gt;=2,E23,
 IF(COUNTIF(A24:D24,"W")&lt;2,IF(E23="P","B","P")))))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="M25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10351,43 +10331,43 @@
         <f t="shared" ref="C26:AH26" si="51">IF(C2="","",
 IF(C25="N","N",
 IF(C25=C2,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="J26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="K26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="L26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="M26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CCD139-3182-4384-A59D-BE4D70A39D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541DF4E6-A765-4797-A87E-54E179B3415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28515" yWindow="465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -10617,5 +10617,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541DF4E6-A765-4797-A87E-54E179B3415C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA7A082-CA8E-4FE2-A681-3A29D575ACCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28515" yWindow="465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA7A082-CA8E-4FE2-A681-3A29D575ACCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCB65E2-4C9B-4389-9893-FF3933E0DD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28515" yWindow="465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCB65E2-4C9B-4389-9893-FF3933E0DD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC39500E-1E41-4379-9BA5-A35F48249EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28515" yWindow="465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:CA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="16.5"/>
@@ -1342,20 +1342,48 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1416,18 +1444,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11" t="str">
+      <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v/>
-      </c>
-      <c r="BY3" s="12" t="str">
+        <v>8</v>
+      </c>
+      <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13" t="str">
+      <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2265,59 +2293,59 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!D25="","",AI!D25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!E25="","",AI!E25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!F25="","",AI!F25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!G25="","",AI!G25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!H25="","",AI!H25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I25="","",AI!I25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J25="","",AI!J25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K25="","",AI!K25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L25="","",AI!L25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M25="","",AI!M25)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q25="","",AI!Q25)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
@@ -2884,59 +2912,59 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!C26="","",AI!C26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!D26="","",AI!D26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!E26="","",AI!E26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!F26="","",AI!F26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!G26="","",AI!G26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!H26="","",AI!H26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!I26="","",AI!I26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J26="","",AI!J26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K26="","",AI!K26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L26="","",AI!L26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M26="","",AI!M26)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O26="","",AI!O26)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
@@ -3178,18 +3206,18 @@
         <f>IF(AI!BX26="","",AI!BX26)</f>
         <v/>
       </c>
-      <c r="BX16" s="11" t="str">
+      <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v/>
-      </c>
-      <c r="BY16" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13" t="str">
+      <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4387,59 +4415,59 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
@@ -4673,63 +4701,63 @@
       <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="str">
+      <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v/>
-      </c>
-      <c r="D3" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
 IF(D2="P",C3+1,C3))</f>
-        <v/>
-      </c>
-      <c r="E3" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F3" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G3" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H3" s="15" t="str">
+        <v>2</v>
+      </c>
+      <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I3" s="15" t="str">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J3" s="15" t="str">
+        <v>4</v>
+      </c>
+      <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K3" s="15" t="str">
+        <v>5</v>
+      </c>
+      <c r="K3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L3" s="15" t="str">
+        <v>6</v>
+      </c>
+      <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M3" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="M3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N3" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="N3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O3" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="O3" s="15">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P3" s="15" t="str">
+        <v>8</v>
+      </c>
+      <c r="P3" s="15">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4965,63 +4993,63 @@
       <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="str">
+      <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v/>
-      </c>
-      <c r="D4" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v/>
-      </c>
-      <c r="E4" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F4" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G4" s="15" t="str">
+        <v>2</v>
+      </c>
+      <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H4" s="15" t="str">
+        <v>2</v>
+      </c>
+      <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I4" s="15" t="str">
+        <v>2</v>
+      </c>
+      <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J4" s="15" t="str">
+        <v>2</v>
+      </c>
+      <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K4" s="15" t="str">
+        <v>2</v>
+      </c>
+      <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L4" s="15" t="str">
+        <v>2</v>
+      </c>
+      <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M4" s="15" t="str">
+        <v>2</v>
+      </c>
+      <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N4" s="15" t="str">
+        <v>2</v>
+      </c>
+      <c r="N4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O4" s="15" t="str">
+        <v>3</v>
+      </c>
+      <c r="O4" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P4" s="15" t="str">
+        <v>3</v>
+      </c>
+      <c r="P4" s="15">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5254,61 +5282,61 @@
         <v>4</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="C5" s="15" t="str">
+      <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v/>
-      </c>
-      <c r="D5" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E5" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F5" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G5" s="15" t="str">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H5" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I5" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J5" s="15" t="str">
+        <v>2</v>
+      </c>
+      <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K5" s="15" t="str">
+        <v>3</v>
+      </c>
+      <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L5" s="15" t="str">
+        <v>4</v>
+      </c>
+      <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M5" s="15" t="str">
+        <v>5</v>
+      </c>
+      <c r="M5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N5" s="15" t="str">
+        <v>5</v>
+      </c>
+      <c r="N5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O5" s="15" t="str">
+        <v>4</v>
+      </c>
+      <c r="O5" s="15">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P5" s="15" t="str">
+        <v>5</v>
+      </c>
+      <c r="P5" s="15">
         <f t="shared" si="5"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5623,61 +5651,61 @@
       </c>
       <c r="D7" s="16" t="str">
         <f>IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E7" s="16" t="str">
         <f>IF(D2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F7" s="16" t="str">
         <f>IF(E2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G7" s="16" t="str">
         <f>IF(F2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H7" s="16" t="str">
         <f>IF(G2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I7" s="16" t="str">
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5914,61 +5942,61 @@
       </c>
       <c r="D8" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E8" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F8" s="15" t="str">
         <f>IF(E2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G8" s="15" t="str">
         <f>IF(F2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H8" s="15" t="str">
         <f>IF(G2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6205,62 +6233,62 @@
       </c>
       <c r="D9" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E9" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F9" s="15" t="str">
         <f>IF(E2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G9" s="15" t="str">
         <f>IF(F2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H9" s="15" t="str">
         <f>IF(G2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O9" s="15" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6578,59 +6606,59 @@
         <f t="shared" ref="C11:AH11" si="16">IF(C2="","",
 IF(C7="N","N",
 IF(C2=C7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6872,59 +6900,59 @@
         <f t="shared" ref="C12:AH12" si="19">IF(C2="","",
 IF(C8="N","N",
 IF(C2=C8,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7166,59 +7194,59 @@
         <f t="shared" ref="C13:AH13" si="22">IF(C2="","",
 IF(C9="N","N",
 IF(C2=C9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7537,62 +7565,62 @@
       </c>
       <c r="D15" s="15" t="str">
         <f t="shared" ref="D15:L15" si="25">IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L15" s="15" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M15" s="15" t="str">
         <f t="shared" ref="M15:V17" si="26">IF(M7="","",
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7842,59 +7870,59 @@
       </c>
       <c r="D16" s="15" t="str">
         <f t="shared" ref="D16:L16" si="32">IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L16" s="15" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8129,59 +8157,59 @@
       </c>
       <c r="D17" s="15" t="str">
         <f t="shared" ref="D17:L17" si="33">IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L17" s="15" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8491,59 +8519,59 @@
         <f t="shared" ref="C19:AH19" si="34">IF(C$2="","",
 IF(C15="N","N",
 IF(C$2=C15,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8785,59 +8813,59 @@
         <f t="shared" ref="C20:AH20" si="37">IF(C$2="","",
 IF(C16="N","N",
 IF(C$2=C16,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9079,59 +9107,59 @@
         <f t="shared" ref="C21:AH21" si="40">IF(C$2="","",
 IF(C17="N","N",
 IF(C$2=C17,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9450,59 +9478,59 @@
         <f t="shared" ref="D23:AI23" si="43">IF(C2="","",
 IF(COUNTIF(D15:D17,"P")-COUNTIF(D15:D17,"B")&gt;0,"P",
 IF(COUNTIF(D15:D17,"P")-COUNTIF(D15:D17,"B")&lt;0,"B","N")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9738,59 +9766,59 @@
         <f t="shared" ref="C24:AH24" si="45">IF(C2="","",
 IF(C23="N","N",
 IF(C23=C2,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10038,62 +10066,62 @@
 IF(D23="N","N",
 IF(COUNTIF(#REF!,"W")&gt;=2,D23,
 IF(COUNTIF(#REF!,"W")&lt;2,IF(D23="P","B","P")))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E25" s="19" t="str">
         <f t="shared" ref="E25:AJ25" si="48">IF(E23="","",
 IF(E23="N","N",
 IF(COUNTIF(A24:D24,"W")&gt;=2,E23,
 IF(COUNTIF(A24:D24,"W")&lt;2,IF(E23="P","B","P")))))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10331,59 +10359,59 @@
         <f t="shared" ref="C26:AH26" si="51">IF(C2="","",
 IF(C25="N","N",
 IF(C25=C2,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="J26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="K26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="L26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="M26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC39500E-1E41-4379-9BA5-A35F48249EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147FB472-D250-42AF-97D3-F67471C80512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31800" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1343,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1355,28 +1355,28 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>1</v>
@@ -1446,16 +1446,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M25="","",AI!M25)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
@@ -2952,15 +2952,15 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M26="","",AI!M26)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O26="","",AI!O26)</f>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4415,11 +4415,11 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -4431,15 +4431,15 @@
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
@@ -4447,19 +4447,19 @@
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -4704,7 +4704,7 @@
       <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
@@ -4721,43 +4721,43 @@
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M3" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N3" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O3" s="15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P3" s="15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4996,60 +4996,60 @@
       <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
 IF(D2="B",C4+1,C4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5284,59 +5284,59 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="P5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="Q5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5673,39 +5673,39 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5964,15 +5964,15 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5980,19 +5980,19 @@
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>T</v>
+        <v>P</v>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6254,11 +6254,11 @@
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
@@ -6270,21 +6270,21 @@
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O9" s="15" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6654,11 +6654,11 @@
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6948,11 +6948,11 @@
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7222,19 +7222,19 @@
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7242,11 +7242,11 @@
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7604,7 +7604,7 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7914,11 +7914,11 @@
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>T</v>
+        <v>B</v>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8201,15 +8201,15 @@
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9151,15 +9151,15 @@
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="P21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="M23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9522,15 +9522,15 @@
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>N</v>
+        <v>P</v>
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9810,15 +9810,15 @@
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="M25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>N</v>
+        <v>B</v>
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10399,15 +10399,15 @@
       </c>
       <c r="M26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>N</v>
+        <v>L</v>
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147FB472-D250-42AF-97D3-F67471C80512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C7C035-D1CA-4F2D-B7AE-FD5767249C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1343,47 +1343,39 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1446,16 +1438,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2329,23 +2321,23 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M25="","",AI!M25)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P25="","",AI!P25)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q25="","",AI!Q25)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R25="","",AI!R25)</f>
@@ -2952,19 +2944,19 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M26="","",AI!M26)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O26="","",AI!O26)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P26="","",AI!P26)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q26="","",AI!Q26)</f>
@@ -3208,11 +3200,11 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
@@ -4415,23 +4407,23 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -4439,35 +4431,35 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
@@ -4704,7 +4696,7 @@
       <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
@@ -4713,51 +4705,51 @@
       </c>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M3" s="15">
+        <v>7</v>
+      </c>
+      <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N3" s="15">
+        <v/>
+      </c>
+      <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O3" s="15">
+        <v/>
+      </c>
+      <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P3" s="15">
+        <v/>
+      </c>
+      <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4996,7 +4988,7 @@
       <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
@@ -5005,51 +4997,51 @@
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M4" s="15">
+        <v>3</v>
+      </c>
+      <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N4" s="15">
+        <v/>
+      </c>
+      <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O4" s="15">
+        <v/>
+      </c>
+      <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="P4" s="15">
+        <v/>
+      </c>
+      <c r="P4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5284,7 +5276,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
@@ -5292,51 +5284,51 @@
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>-6</v>
-      </c>
-      <c r="M5" s="15">
+        <v>4</v>
+      </c>
+      <c r="M5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-5</v>
-      </c>
-      <c r="N5" s="15">
+        <v/>
+      </c>
+      <c r="N5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-4</v>
-      </c>
-      <c r="O5" s="15">
+        <v/>
+      </c>
+      <c r="O5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-3</v>
-      </c>
-      <c r="P5" s="15">
+        <v/>
+      </c>
+      <c r="P5" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v/>
       </c>
       <c r="Q5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5673,39 +5665,39 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5964,7 +5956,7 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5972,31 +5964,31 @@
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6254,41 +6246,41 @@
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O9" s="15" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
 IF(C2=I2,IF(I2="P","B","P"),
 IF(C2&lt;&gt;I2,I2)))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q9" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R9" s="15" t="str">
         <f t="shared" si="13"/>
@@ -6646,19 +6638,19 @@
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6928,7 +6920,7 @@
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -6940,19 +6932,19 @@
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7234,19 +7226,19 @@
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7604,23 +7596,23 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7906,23 +7898,23 @@
       </c>
       <c r="M16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8193,23 +8185,23 @@
       </c>
       <c r="M17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8559,19 +8551,19 @@
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8853,19 +8845,19 @@
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9147,19 +9139,19 @@
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9514,23 +9506,23 @@
       </c>
       <c r="M23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9806,19 +9798,19 @@
       </c>
       <c r="M24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10105,23 +10097,23 @@
       </c>
       <c r="M25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10399,19 +10391,19 @@
       </c>
       <c r="M26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C7C035-D1CA-4F2D-B7AE-FD5767249C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B58B9-940A-4DF8-8D26-30909D849096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="15">
   <si>
     <t>본매 PB</t>
   </si>
@@ -1343,22 +1343,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1</v>
@@ -1367,12 +1367,14 @@
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1438,16 +1440,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -2325,7 +2327,7 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N25="","",AI!N25)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O25="","",AI!O25)</f>
@@ -2944,7 +2946,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M26="","",AI!M26)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N26="","",AI!N26)</f>
@@ -3200,7 +3202,7 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
@@ -3209,7 +3211,7 @@
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" customHeight="1" thickBot="1">
@@ -4407,27 +4409,27 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
@@ -4439,15 +4441,15 @@
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4696,7 +4698,7 @@
       <c r="C3" s="15">
         <f>IF(C2="","",
 IF(C2="P",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:AI3" si="0">IF(D2="","",
@@ -4705,39 +4707,39 @@
       </c>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M3" s="15" t="str">
+        <v>3</v>
+      </c>
+      <c r="M3" s="15">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4988,7 +4990,7 @@
       <c r="C4" s="15">
         <f>IF(C2="","",
 IF(C2="B",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="15">
         <f t="shared" ref="D4:AI4" si="3">IF(D2="","",
@@ -4997,39 +4999,39 @@
       </c>
       <c r="E4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M4" s="15" t="str">
+        <v>7</v>
+      </c>
+      <c r="M4" s="15">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5276,7 +5278,7 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15">
         <f t="shared" ref="C5:AH5" si="5">IF(C3="","",C3-C4)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="5"/>
@@ -5284,39 +5286,39 @@
       </c>
       <c r="E5" s="15">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M5" s="15" t="str">
+        <v>-4</v>
+      </c>
+      <c r="M5" s="15">
         <f t="shared" si="5"/>
-        <v/>
+        <v>-5</v>
       </c>
       <c r="N5" s="15" t="str">
         <f t="shared" si="5"/>
@@ -5665,27 +5667,27 @@
         <f t="shared" ref="I7:AN7" si="8">IF(H2="","",
 IF(H5&gt;0,"B",
 IF(H5&lt;0,"P","N")))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N7" s="16" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O7" s="16" t="str">
         <f t="shared" si="8"/>
@@ -5956,11 +5958,11 @@
         <f t="shared" ref="I8:AN8" si="10">IF(H2="","",
 IF(G2=H2,H2,
 IF(G2&lt;&gt;H2,G2)))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -5972,11 +5974,11 @@
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" si="10"/>
@@ -6246,27 +6248,27 @@
       <c r="I9" s="15" t="str">
         <f t="shared" ref="I9:N9" si="12">IF(H2="","",
 IF(C2="P","B","P"))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N9" s="15" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O9" s="15" t="str">
         <f t="shared" ref="O9:T9" si="13">IF(N2="","",
@@ -6622,11 +6624,11 @@
       </c>
       <c r="I11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6638,7 +6640,7 @@
       </c>
       <c r="M11" s="16" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N11" s="16" t="str">
         <f t="shared" si="16"/>
@@ -6916,23 +6918,23 @@
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" si="19"/>
@@ -7210,11 +7212,11 @@
       </c>
       <c r="I13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7226,7 +7228,7 @@
       </c>
       <c r="M13" s="16" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N13" s="16" t="str">
         <f t="shared" si="22"/>
@@ -7596,11 +7598,11 @@
 IF(M7="N","N",
 IF(COUNTIF(I11:L11,"W")&gt;=2,M7,
 IF(COUNTIF(I11:L11,"W")&lt;2,IF(M7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N15" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O15" s="15" t="str">
         <f t="shared" si="26"/>
@@ -7902,7 +7904,7 @@
       </c>
       <c r="N16" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O16" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8189,7 +8191,7 @@
       </c>
       <c r="N17" s="15" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O17" s="15" t="str">
         <f t="shared" si="26"/>
@@ -8551,7 +8553,7 @@
       </c>
       <c r="M19" s="15" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N19" s="15" t="str">
         <f t="shared" si="34"/>
@@ -8845,7 +8847,7 @@
       </c>
       <c r="M20" s="15" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N20" s="15" t="str">
         <f t="shared" si="37"/>
@@ -9139,7 +9141,7 @@
       </c>
       <c r="M21" s="15" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N21" s="15" t="str">
         <f t="shared" si="40"/>
@@ -9510,7 +9512,7 @@
       </c>
       <c r="N23" s="16" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="43"/>
@@ -9798,7 +9800,7 @@
       </c>
       <c r="M24" s="16" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N24" s="16" t="str">
         <f t="shared" si="45"/>
@@ -10101,7 +10103,7 @@
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O25" s="19" t="str">
         <f t="shared" si="48"/>
@@ -10391,7 +10393,7 @@
       </c>
       <c r="M26" s="16" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N26" s="16" t="str">
         <f t="shared" si="51"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C7C035-D1CA-4F2D-B7AE-FD5767249C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAC6A2D-18D9-4700-A60E-DFCC2E3FAF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAC6A2D-18D9-4700-A60E-DFCC2E3FAF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F229D77-9FC9-45E6-A5CD-74ABE539B78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E0E3F8-9935-4840-BC80-82ABD00E291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5511675-54DE-4EFB-BDBB-D64E216F1956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="180" windowWidth="26130" windowHeight="15420" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -4835,399 +4835,273 @@
         <v>N</v>
       </c>
       <c r="G3" s="15" t="str">
-        <f>IF(F2="","",
+        <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
         <v>B</v>
       </c>
       <c r="H3" s="15" t="str">
-        <f>IF(G2="","",
-IF(AND(G3="N",D2&lt;&gt;E2,E2=F2),IF(D2=E2,G2,IF(D2&lt;&gt;E2,IF(G2="P","B","P"))),
-IF(AND(G3="N",G3=G2),"N",IF(D2=E2,G2,IF(G2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="I3" s="15" t="str">
-        <f>IF(H2="","",
-IF(AND(H3="N",E2&lt;&gt;F2,F2=G2),IF(E2=F2,H2,IF(E2&lt;&gt;F2,IF(H2="P","B","P"))),
-IF(AND(H3="N",H3=H2),"N",IF(E2=F2,H2,IF(H2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="J3" s="15" t="str">
-        <f>IF(I2="","",
-IF(AND(I3="N",F2&lt;&gt;G2,G2=H2),IF(F2=G2,I2,IF(F2&lt;&gt;G2,IF(I2="P","B","P"))),
-IF(AND(I3="N",I3=I2),"N",IF(F2=G2,I2,IF(I2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="K3" s="15" t="str">
-        <f>IF(J2="","",
-IF(AND(J3="N",G2&lt;&gt;H2,H2=I2),IF(G2=H2,J2,IF(G2&lt;&gt;H2,IF(J2="P","B","P"))),
-IF(AND(J3="N",J3=J2),"N",IF(G2=H2,J2,IF(J2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="L3" s="15" t="str">
-        <f>IF(K2="","",
-IF(AND(K3="N",H2&lt;&gt;I2,I2=J2),IF(H2=I2,K2,IF(H2&lt;&gt;I2,IF(K2="P","B","P"))),
-IF(AND(K3="N",K3=K2),"N",IF(H2=I2,K2,IF(K2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="M3" s="15" t="str">
-        <f>IF(L2="","",
-IF(AND(L3="N",I2&lt;&gt;J2,J2=K2),IF(I2=J2,L2,IF(I2&lt;&gt;J2,IF(L2="P","B","P"))),
-IF(AND(L3="N",L3=L2),"N",IF(I2=J2,L2,IF(L2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="N3" s="15" t="str">
-        <f>IF(M2="","",
-IF(AND(M3="N",J2&lt;&gt;K2,K2=L2),IF(J2=K2,M2,IF(J2&lt;&gt;K2,IF(M2="P","B","P"))),
-IF(AND(M3="N",M3=M2),"N",IF(J2=K2,M2,IF(M2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="O3" s="15" t="str">
-        <f>IF(N2="","",
-IF(AND(N3="N",K2&lt;&gt;L2,L2=M2),IF(K2=L2,N2,IF(K2&lt;&gt;L2,IF(N2="P","B","P"))),
-IF(AND(N3="N",N3=N2),"N",IF(K2=L2,N2,IF(N2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="P3" s="15" t="str">
-        <f>IF(O2="","",
-IF(AND(O3="N",L2&lt;&gt;M2,M2=N2),IF(L2=M2,O2,IF(L2&lt;&gt;M2,IF(O2="P","B","P"))),
-IF(AND(O3="N",O3=O2),"N",IF(L2=M2,O2,IF(O2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="Q3" s="15" t="str">
-        <f>IF(P2="","",
-IF(AND(P3="N",M2&lt;&gt;N2,N2=O2),IF(M2=N2,P2,IF(M2&lt;&gt;N2,IF(P2="P","B","P"))),
-IF(AND(P3="N",P3=P2),"N",IF(M2=N2,P2,IF(P2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="R3" s="15" t="str">
-        <f>IF(Q2="","",
-IF(AND(Q3="N",N2&lt;&gt;O2,O2=P2),IF(N2=O2,Q2,IF(N2&lt;&gt;O2,IF(Q2="P","B","P"))),
-IF(AND(Q3="N",Q3=Q2),"N",IF(N2=O2,Q2,IF(Q2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="S3" s="15" t="str">
-        <f>IF(R2="","",
-IF(AND(R3="N",O2&lt;&gt;P2,P2=Q2),IF(O2=P2,R2,IF(O2&lt;&gt;P2,IF(R2="P","B","P"))),
-IF(AND(R3="N",R3=R2),"N",IF(O2=P2,R2,IF(R2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="T3" s="15" t="str">
-        <f>IF(S2="","",
-IF(AND(S3="N",P2&lt;&gt;Q2,Q2=R2),IF(P2=Q2,S2,IF(P2&lt;&gt;Q2,IF(S2="P","B","P"))),
-IF(AND(S3="N",S3=S2),"N",IF(P2=Q2,S2,IF(S2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="U3" s="15" t="str">
-        <f>IF(T2="","",
-IF(AND(T3="N",Q2&lt;&gt;R2,R2=S2),IF(Q2=R2,T2,IF(Q2&lt;&gt;R2,IF(T2="P","B","P"))),
-IF(AND(T3="N",T3=T2),"N",IF(Q2=R2,T2,IF(T2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="V3" s="15" t="str">
-        <f>IF(U2="","",
-IF(AND(U3="N",R2&lt;&gt;S2,S2=T2),IF(R2=S2,U2,IF(R2&lt;&gt;S2,IF(U2="P","B","P"))),
-IF(AND(U3="N",U3=U2),"N",IF(R2=S2,U2,IF(U2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="W3" s="15" t="str">
-        <f>IF(V2="","",
-IF(AND(V3="N",S2&lt;&gt;T2,T2=U2),IF(S2=T2,V2,IF(S2&lt;&gt;T2,IF(V2="P","B","P"))),
-IF(AND(V3="N",V3=V2),"N",IF(S2=T2,V2,IF(V2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="X3" s="15" t="str">
-        <f>IF(W2="","",
-IF(AND(W3="N",T2&lt;&gt;U2,U2=V2),IF(T2=U2,W2,IF(T2&lt;&gt;U2,IF(W2="P","B","P"))),
-IF(AND(W3="N",W3=W2),"N",IF(T2=U2,W2,IF(W2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="Y3" s="15" t="str">
-        <f>IF(X2="","",
-IF(AND(X3="N",U2&lt;&gt;V2,V2=W2),IF(U2=V2,X2,IF(U2&lt;&gt;V2,IF(X2="P","B","P"))),
-IF(AND(X3="N",X3=X2),"N",IF(U2=V2,X2,IF(X2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="Z3" s="15" t="str">
-        <f>IF(Y2="","",
-IF(AND(Y3="N",V2&lt;&gt;W2,W2=X2),IF(V2=W2,Y2,IF(V2&lt;&gt;W2,IF(Y2="P","B","P"))),
-IF(AND(Y3="N",Y3=Y2),"N",IF(V2=W2,Y2,IF(Y2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="AA3" s="15" t="str">
-        <f>IF(Z2="","",
-IF(AND(Z3="N",W2&lt;&gt;X2,X2=Y2),IF(W2=X2,Z2,IF(W2&lt;&gt;X2,IF(Z2="P","B","P"))),
-IF(AND(Z3="N",Z3=Z2),"N",IF(W2=X2,Z2,IF(Z2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="AB3" s="15" t="str">
-        <f>IF(AA2="","",
-IF(AND(AA3="N",X2&lt;&gt;Y2,Y2=Z2),IF(X2=Y2,AA2,IF(X2&lt;&gt;Y2,IF(AA2="P","B","P"))),
-IF(AND(AA3="N",AA3=AA2),"N",IF(X2=Y2,AA2,IF(AA2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="AC3" s="15" t="str">
-        <f>IF(AB2="","",
-IF(AND(AB3="N",Y2&lt;&gt;Z2,Z2=AA2),IF(Y2=Z2,AB2,IF(Y2&lt;&gt;Z2,IF(AB2="P","B","P"))),
-IF(AND(AB3="N",AB3=AB2),"N",IF(Y2=Z2,AB2,IF(AB2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="AD3" s="15" t="str">
-        <f>IF(AC2="","",
-IF(AND(AC3="N",Z2&lt;&gt;AA2,AA2=AB2),IF(Z2=AA2,AC2,IF(Z2&lt;&gt;AA2,IF(AC2="P","B","P"))),
-IF(AND(AC3="N",AC3=AC2),"N",IF(Z2=AA2,AC2,IF(AC2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="AE3" s="15" t="str">
-        <f>IF(AD2="","",
-IF(AND(AD3="N",AA2&lt;&gt;AB2,AB2=AC2),IF(AA2=AB2,AD2,IF(AA2&lt;&gt;AB2,IF(AD2="P","B","P"))),
-IF(AND(AD3="N",AD3=AD2),"N",IF(AA2=AB2,AD2,IF(AD2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="AF3" s="15" t="str">
-        <f>IF(AE2="","",
-IF(AND(AE3="N",AB2&lt;&gt;AC2,AC2=AD2),IF(AB2=AC2,AE2,IF(AB2&lt;&gt;AC2,IF(AE2="P","B","P"))),
-IF(AND(AE3="N",AE3=AE2),"N",IF(AB2=AC2,AE2,IF(AE2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="AG3" s="15" t="str">
-        <f>IF(AF2="","",
-IF(AND(AF3="N",AC2&lt;&gt;AD2,AD2=AE2),IF(AC2=AD2,AF2,IF(AC2&lt;&gt;AD2,IF(AF2="P","B","P"))),
-IF(AND(AF3="N",AF3=AF2),"N",IF(AC2=AD2,AF2,IF(AF2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="AH3" s="15" t="str">
-        <f>IF(AG2="","",
-IF(AND(AG3="N",AD2&lt;&gt;AE2,AE2=AF2),IF(AD2=AE2,AG2,IF(AD2&lt;&gt;AE2,IF(AG2="P","B","P"))),
-IF(AND(AG3="N",AG3=AG2),"N",IF(AD2=AE2,AG2,IF(AG2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="AI3" s="15" t="str">
-        <f>IF(AH2="","",
-IF(AND(AH3="N",AE2&lt;&gt;AF2,AF2=AG2),IF(AE2=AF2,AH2,IF(AE2&lt;&gt;AF2,IF(AH2="P","B","P"))),
-IF(AND(AH3="N",AH3=AH2),"N",IF(AE2=AF2,AH2,IF(AH2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="AJ3" s="15" t="str">
-        <f>IF(AI2="","",
-IF(AND(AI3="N",AF2&lt;&gt;AG2,AG2=AH2),IF(AF2=AG2,AI2,IF(AF2&lt;&gt;AG2,IF(AI2="P","B","P"))),
-IF(AND(AI3="N",AI3=AI2),"N",IF(AF2=AG2,AI2,IF(AI2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="AK3" s="15" t="str">
-        <f>IF(AJ2="","",
-IF(AND(AJ3="N",AG2&lt;&gt;AH2,AH2=AI2),IF(AG2=AH2,AJ2,IF(AG2&lt;&gt;AH2,IF(AJ2="P","B","P"))),
-IF(AND(AJ3="N",AJ3=AJ2),"N",IF(AG2=AH2,AJ2,IF(AJ2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="AL3" s="15" t="str">
-        <f>IF(AK2="","",
-IF(AND(AK3="N",AH2&lt;&gt;AI2,AI2=AJ2),IF(AH2=AI2,AK2,IF(AH2&lt;&gt;AI2,IF(AK2="P","B","P"))),
-IF(AND(AK3="N",AK3=AK2),"N",IF(AH2=AI2,AK2,IF(AK2="P","B","P")))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="AM3" s="15" t="str">
-        <f>IF(AL2="","",
+        <f t="shared" ref="AM3:BR3" si="1">IF(AL2="","",
 IF(AND(AL3="N",AI2&lt;&gt;AJ2,AJ2=AK2),IF(AI2=AJ2,AL2,IF(AI2&lt;&gt;AJ2,IF(AL2="P","B","P"))),
 IF(AND(AL3="N",AL3=AL2),"N",IF(AI2=AJ2,AL2,IF(AL2="P","B","P")))))</f>
         <v>P</v>
       </c>
       <c r="AN3" s="15" t="str">
-        <f>IF(AM2="","",
-IF(AND(AM3="N",AJ2&lt;&gt;AK2,AK2=AL2),IF(AJ2=AK2,AM2,IF(AJ2&lt;&gt;AK2,IF(AM2="P","B","P"))),
-IF(AND(AM3="N",AM3=AM2),"N",IF(AJ2=AK2,AM2,IF(AM2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v>B</v>
       </c>
       <c r="AO3" s="15" t="str">
-        <f>IF(AN2="","",
-IF(AND(AN3="N",AK2&lt;&gt;AL2,AL2=AM2),IF(AK2=AL2,AN2,IF(AK2&lt;&gt;AL2,IF(AN2="P","B","P"))),
-IF(AND(AN3="N",AN3=AN2),"N",IF(AK2=AL2,AN2,IF(AN2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v>P</v>
       </c>
       <c r="AP3" s="15" t="str">
-        <f>IF(AO2="","",
-IF(AND(AO3="N",AL2&lt;&gt;AM2,AM2=AN2),IF(AL2=AM2,AO2,IF(AL2&lt;&gt;AM2,IF(AO2="P","B","P"))),
-IF(AND(AO3="N",AO3=AO2),"N",IF(AL2=AM2,AO2,IF(AO2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v>P</v>
       </c>
       <c r="AQ3" s="15" t="str">
-        <f>IF(AP2="","",
-IF(AND(AP3="N",AM2&lt;&gt;AN2,AN2=AO2),IF(AM2=AN2,AP2,IF(AM2&lt;&gt;AN2,IF(AP2="P","B","P"))),
-IF(AND(AP3="N",AP3=AP2),"N",IF(AM2=AN2,AP2,IF(AP2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v>B</v>
       </c>
       <c r="AR3" s="15" t="str">
-        <f>IF(AQ2="","",
-IF(AND(AQ3="N",AN2&lt;&gt;AO2,AO2=AP2),IF(AN2=AO2,AQ2,IF(AN2&lt;&gt;AO2,IF(AQ2="P","B","P"))),
-IF(AND(AQ3="N",AQ3=AQ2),"N",IF(AN2=AO2,AQ2,IF(AQ2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v>P</v>
       </c>
       <c r="AS3" s="15" t="str">
-        <f>IF(AR2="","",
-IF(AND(AR3="N",AO2&lt;&gt;AP2,AP2=AQ2),IF(AO2=AP2,AR2,IF(AO2&lt;&gt;AP2,IF(AR2="P","B","P"))),
-IF(AND(AR3="N",AR3=AR2),"N",IF(AO2=AP2,AR2,IF(AR2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v>P</v>
       </c>
       <c r="AT3" s="15" t="str">
-        <f>IF(AS2="","",
-IF(AND(AS3="N",AP2&lt;&gt;AQ2,AQ2=AR2),IF(AP2=AQ2,AS2,IF(AP2&lt;&gt;AQ2,IF(AS2="P","B","P"))),
-IF(AND(AS3="N",AS3=AS2),"N",IF(AP2=AQ2,AS2,IF(AS2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v>B</v>
       </c>
       <c r="AU3" s="15" t="str">
-        <f>IF(AT2="","",
-IF(AND(AT3="N",AQ2&lt;&gt;AR2,AR2=AS2),IF(AQ2=AR2,AT2,IF(AQ2&lt;&gt;AR2,IF(AT2="P","B","P"))),
-IF(AND(AT3="N",AT3=AT2),"N",IF(AQ2=AR2,AT2,IF(AT2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v>P</v>
       </c>
       <c r="AV3" s="15" t="str">
-        <f>IF(AU2="","",
-IF(AND(AU3="N",AR2&lt;&gt;AS2,AS2=AT2),IF(AR2=AS2,AU2,IF(AR2&lt;&gt;AS2,IF(AU2="P","B","P"))),
-IF(AND(AU3="N",AU3=AU2),"N",IF(AR2=AS2,AU2,IF(AU2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v>P</v>
       </c>
       <c r="AW3" s="15" t="str">
-        <f>IF(AV2="","",
-IF(AND(AV3="N",AS2&lt;&gt;AT2,AT2=AU2),IF(AS2=AT2,AV2,IF(AS2&lt;&gt;AT2,IF(AV2="P","B","P"))),
-IF(AND(AV3="N",AV3=AV2),"N",IF(AS2=AT2,AV2,IF(AV2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AX3" s="15" t="str">
-        <f>IF(AW2="","",
-IF(AND(AW3="N",AT2&lt;&gt;AU2,AU2=AV2),IF(AT2=AU2,AW2,IF(AT2&lt;&gt;AU2,IF(AW2="P","B","P"))),
-IF(AND(AW3="N",AW3=AW2),"N",IF(AT2=AU2,AW2,IF(AW2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AY3" s="15" t="str">
-        <f>IF(AX2="","",
-IF(AND(AX3="N",AU2&lt;&gt;AV2,AV2=AW2),IF(AU2=AV2,AX2,IF(AU2&lt;&gt;AV2,IF(AX2="P","B","P"))),
-IF(AND(AX3="N",AX3=AX2),"N",IF(AU2=AV2,AX2,IF(AX2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AZ3" s="15" t="str">
-        <f>IF(AY2="","",
-IF(AND(AY3="N",AV2&lt;&gt;AW2,AW2=AX2),IF(AV2=AW2,AY2,IF(AV2&lt;&gt;AW2,IF(AY2="P","B","P"))),
-IF(AND(AY3="N",AY3=AY2),"N",IF(AV2=AW2,AY2,IF(AY2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BA3" s="15" t="str">
-        <f>IF(AZ2="","",
-IF(AND(AZ3="N",AW2&lt;&gt;AX2,AX2=AY2),IF(AW2=AX2,AZ2,IF(AW2&lt;&gt;AX2,IF(AZ2="P","B","P"))),
-IF(AND(AZ3="N",AZ3=AZ2),"N",IF(AW2=AX2,AZ2,IF(AZ2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BB3" s="15" t="str">
-        <f>IF(BA2="","",
-IF(AND(BA3="N",AX2&lt;&gt;AY2,AY2=AZ2),IF(AX2=AY2,BA2,IF(AX2&lt;&gt;AY2,IF(BA2="P","B","P"))),
-IF(AND(BA3="N",BA3=BA2),"N",IF(AX2=AY2,BA2,IF(BA2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BC3" s="15" t="str">
-        <f>IF(BB2="","",
-IF(AND(BB3="N",AY2&lt;&gt;AZ2,AZ2=BA2),IF(AY2=AZ2,BB2,IF(AY2&lt;&gt;AZ2,IF(BB2="P","B","P"))),
-IF(AND(BB3="N",BB3=BB2),"N",IF(AY2=AZ2,BB2,IF(BB2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BD3" s="15" t="str">
-        <f>IF(BC2="","",
-IF(AND(BC3="N",AZ2&lt;&gt;BA2,BA2=BB2),IF(AZ2=BA2,BC2,IF(AZ2&lt;&gt;BA2,IF(BC2="P","B","P"))),
-IF(AND(BC3="N",BC3=BC2),"N",IF(AZ2=BA2,BC2,IF(BC2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BE3" s="15" t="str">
-        <f>IF(BD2="","",
-IF(AND(BD3="N",BA2&lt;&gt;BB2,BB2=BC2),IF(BA2=BB2,BD2,IF(BA2&lt;&gt;BB2,IF(BD2="P","B","P"))),
-IF(AND(BD3="N",BD3=BD2),"N",IF(BA2=BB2,BD2,IF(BD2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BF3" s="15" t="str">
-        <f>IF(BE2="","",
-IF(AND(BE3="N",BB2&lt;&gt;BC2,BC2=BD2),IF(BB2=BC2,BE2,IF(BB2&lt;&gt;BC2,IF(BE2="P","B","P"))),
-IF(AND(BE3="N",BE3=BE2),"N",IF(BB2=BC2,BE2,IF(BE2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BG3" s="15" t="str">
-        <f>IF(BF2="","",
-IF(AND(BF3="N",BC2&lt;&gt;BD2,BD2=BE2),IF(BC2=BD2,BF2,IF(BC2&lt;&gt;BD2,IF(BF2="P","B","P"))),
-IF(AND(BF3="N",BF3=BF2),"N",IF(BC2=BD2,BF2,IF(BF2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BH3" s="15" t="str">
-        <f>IF(BG2="","",
-IF(AND(BG3="N",BD2&lt;&gt;BE2,BE2=BF2),IF(BD2=BE2,BG2,IF(BD2&lt;&gt;BE2,IF(BG2="P","B","P"))),
-IF(AND(BG3="N",BG3=BG2),"N",IF(BD2=BE2,BG2,IF(BG2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BI3" s="15" t="str">
-        <f>IF(BH2="","",
-IF(AND(BH3="N",BE2&lt;&gt;BF2,BF2=BG2),IF(BE2=BF2,BH2,IF(BE2&lt;&gt;BF2,IF(BH2="P","B","P"))),
-IF(AND(BH3="N",BH3=BH2),"N",IF(BE2=BF2,BH2,IF(BH2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BJ3" s="15" t="str">
-        <f>IF(BI2="","",
-IF(AND(BI3="N",BF2&lt;&gt;BG2,BG2=BH2),IF(BF2=BG2,BI2,IF(BF2&lt;&gt;BG2,IF(BI2="P","B","P"))),
-IF(AND(BI3="N",BI3=BI2),"N",IF(BF2=BG2,BI2,IF(BI2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BK3" s="15" t="str">
-        <f>IF(BJ2="","",
-IF(AND(BJ3="N",BG2&lt;&gt;BH2,BH2=BI2),IF(BG2=BH2,BJ2,IF(BG2&lt;&gt;BH2,IF(BJ2="P","B","P"))),
-IF(AND(BJ3="N",BJ3=BJ2),"N",IF(BG2=BH2,BJ2,IF(BJ2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BL3" s="15" t="str">
-        <f>IF(BK2="","",
-IF(AND(BK3="N",BH2&lt;&gt;BI2,BI2=BJ2),IF(BH2=BI2,BK2,IF(BH2&lt;&gt;BI2,IF(BK2="P","B","P"))),
-IF(AND(BK3="N",BK3=BK2),"N",IF(BH2=BI2,BK2,IF(BK2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BM3" s="15" t="str">
-        <f>IF(BL2="","",
-IF(AND(BL3="N",BI2&lt;&gt;BJ2,BJ2=BK2),IF(BI2=BJ2,BL2,IF(BI2&lt;&gt;BJ2,IF(BL2="P","B","P"))),
-IF(AND(BL3="N",BL3=BL2),"N",IF(BI2=BJ2,BL2,IF(BL2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BN3" s="15" t="str">
-        <f>IF(BM2="","",
-IF(AND(BM3="N",BJ2&lt;&gt;BK2,BK2=BL2),IF(BJ2=BK2,BM2,IF(BJ2&lt;&gt;BK2,IF(BM2="P","B","P"))),
-IF(AND(BM3="N",BM3=BM2),"N",IF(BJ2=BK2,BM2,IF(BM2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BO3" s="15" t="str">
-        <f>IF(BN2="","",
-IF(AND(BN3="N",BK2&lt;&gt;BL2,BL2=BM2),IF(BK2=BL2,BN2,IF(BK2&lt;&gt;BL2,IF(BN2="P","B","P"))),
-IF(AND(BN3="N",BN3=BN2),"N",IF(BK2=BL2,BN2,IF(BN2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BP3" s="15" t="str">
-        <f>IF(BO2="","",
-IF(AND(BO3="N",BL2&lt;&gt;BM2,BM2=BN2),IF(BL2=BM2,BO2,IF(BL2&lt;&gt;BM2,IF(BO2="P","B","P"))),
-IF(AND(BO3="N",BO3=BO2),"N",IF(BL2=BM2,BO2,IF(BO2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BQ3" s="15" t="str">
-        <f>IF(BP2="","",
-IF(AND(BP3="N",BM2&lt;&gt;BN2,BN2=BO2),IF(BM2=BN2,BP2,IF(BM2&lt;&gt;BN2,IF(BP2="P","B","P"))),
-IF(AND(BP3="N",BP3=BP2),"N",IF(BM2=BN2,BP2,IF(BP2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BR3" s="15" t="str">
-        <f>IF(BQ2="","",
-IF(AND(BQ3="N",BN2&lt;&gt;BO2,BO2=BP2),IF(BN2=BO2,BQ2,IF(BN2&lt;&gt;BO2,IF(BQ2="P","B","P"))),
-IF(AND(BQ3="N",BQ3=BQ2),"N",IF(BN2=BO2,BQ2,IF(BQ2="P","B","P")))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BS3" s="15" t="str">
-        <f>IF(BR2="","",
+        <f t="shared" ref="BS3:BT3" si="2">IF(BR2="","",
 IF(AND(BR3="N",BO2&lt;&gt;BP2,BP2=BQ2),IF(BO2=BP2,BR2,IF(BO2&lt;&gt;BP2,IF(BR2="P","B","P"))),
 IF(AND(BR3="N",BR3=BR2),"N",IF(BO2=BP2,BR2,IF(BR2="P","B","P")))))</f>
         <v/>
       </c>
       <c r="BT3" s="15" t="str">
-        <f>IF(BS2="","",
-IF(AND(BS3="N",BP2&lt;&gt;BQ2,BQ2=BR2),IF(BP2=BQ2,BS2,IF(BP2&lt;&gt;BQ2,IF(BS2="P","B","P"))),
-IF(AND(BS3="N",BS3=BS2),"N",IF(BP2=BQ2,BS2,IF(BS2="P","B","P")))))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -5237,423 +5111,289 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="str">
-        <f>IF(C2="","",
+        <f t="shared" ref="C4:AH4" si="3">IF(C2="","",
 IF(C3="N","N",
 IF(C2=C3,"W","L")))</f>
         <v>N</v>
       </c>
       <c r="D4" s="15" t="str">
-        <f>IF(D2="","",
-IF(D3="N","N",
-IF(D2=D3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="E4" s="15" t="str">
-        <f>IF(E2="","",
-IF(E3="N","N",
-IF(E2=E3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="F4" s="15" t="str">
-        <f>IF(F2="","",
-IF(F3="N","N",
-IF(F2=F3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>N</v>
       </c>
       <c r="G4" s="15" t="str">
-        <f>IF(G2="","",
-IF(G3="N","N",
-IF(G2=G3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="H4" s="15" t="str">
-        <f>IF(H2="","",
-IF(H3="N","N",
-IF(H2=H3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="I4" s="15" t="str">
-        <f>IF(I2="","",
-IF(I3="N","N",
-IF(I2=I3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="J4" s="15" t="str">
-        <f>IF(J2="","",
-IF(J3="N","N",
-IF(J2=J3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="K4" s="15" t="str">
-        <f>IF(K2="","",
-IF(K3="N","N",
-IF(K2=K3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="L4" s="15" t="str">
-        <f>IF(L2="","",
-IF(L3="N","N",
-IF(L2=L3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="M4" s="15" t="str">
-        <f>IF(M2="","",
-IF(M3="N","N",
-IF(M2=M3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="N4" s="15" t="str">
-        <f>IF(N2="","",
-IF(N3="N","N",
-IF(N2=N3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="O4" s="15" t="str">
-        <f>IF(O2="","",
-IF(O3="N","N",
-IF(O2=O3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="P4" s="15" t="str">
-        <f>IF(P2="","",
-IF(P3="N","N",
-IF(P2=P3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="Q4" s="15" t="str">
-        <f>IF(Q2="","",
-IF(Q3="N","N",
-IF(Q2=Q3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="R4" s="15" t="str">
-        <f>IF(R2="","",
-IF(R3="N","N",
-IF(R2=R3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="S4" s="15" t="str">
-        <f>IF(S2="","",
-IF(S3="N","N",
-IF(S2=S3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="T4" s="15" t="str">
-        <f>IF(T2="","",
-IF(T3="N","N",
-IF(T2=T3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="U4" s="15" t="str">
-        <f>IF(U2="","",
-IF(U3="N","N",
-IF(U2=U3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="V4" s="15" t="str">
-        <f>IF(V2="","",
-IF(V3="N","N",
-IF(V2=V3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="W4" s="15" t="str">
-        <f>IF(W2="","",
-IF(W3="N","N",
-IF(W2=W3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="X4" s="15" t="str">
-        <f>IF(X2="","",
-IF(X3="N","N",
-IF(X2=X3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="Y4" s="15" t="str">
-        <f>IF(Y2="","",
-IF(Y3="N","N",
-IF(Y2=Y3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="Z4" s="15" t="str">
-        <f>IF(Z2="","",
-IF(Z3="N","N",
-IF(Z2=Z3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="AA4" s="15" t="str">
-        <f>IF(AA2="","",
-IF(AA3="N","N",
-IF(AA2=AA3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="AB4" s="15" t="str">
-        <f>IF(AB2="","",
-IF(AB3="N","N",
-IF(AB2=AB3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="AC4" s="15" t="str">
-        <f>IF(AC2="","",
-IF(AC3="N","N",
-IF(AC2=AC3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="AD4" s="15" t="str">
-        <f>IF(AD2="","",
-IF(AD3="N","N",
-IF(AD2=AD3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="AE4" s="15" t="str">
-        <f>IF(AE2="","",
-IF(AE3="N","N",
-IF(AE2=AE3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="AF4" s="15" t="str">
-        <f>IF(AF2="","",
-IF(AF3="N","N",
-IF(AF2=AF3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>W</v>
       </c>
       <c r="AG4" s="15" t="str">
-        <f>IF(AG2="","",
-IF(AG3="N","N",
-IF(AG2=AG3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="AH4" s="15" t="str">
-        <f>IF(AH2="","",
-IF(AH3="N","N",
-IF(AH2=AH3,"W","L")))</f>
+        <f t="shared" si="3"/>
         <v>L</v>
       </c>
       <c r="AI4" s="15" t="str">
-        <f>IF(AI2="","",
+        <f t="shared" ref="AI4:BN4" si="4">IF(AI2="","",
 IF(AI3="N","N",
 IF(AI2=AI3,"W","L")))</f>
         <v>W</v>
       </c>
       <c r="AJ4" s="15" t="str">
-        <f>IF(AJ2="","",
-IF(AJ3="N","N",
-IF(AJ2=AJ3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="AK4" s="15" t="str">
-        <f>IF(AK2="","",
-IF(AK3="N","N",
-IF(AK2=AK3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="AL4" s="15" t="str">
-        <f>IF(AL2="","",
-IF(AL3="N","N",
-IF(AL2=AL3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="AM4" s="15" t="str">
-        <f>IF(AM2="","",
-IF(AM3="N","N",
-IF(AM2=AM3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="AN4" s="15" t="str">
-        <f>IF(AN2="","",
-IF(AN3="N","N",
-IF(AN2=AN3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="AO4" s="15" t="str">
-        <f>IF(AO2="","",
-IF(AO3="N","N",
-IF(AO2=AO3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="AP4" s="15" t="str">
-        <f>IF(AP2="","",
-IF(AP3="N","N",
-IF(AP2=AP3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="AQ4" s="15" t="str">
-        <f>IF(AQ2="","",
-IF(AQ3="N","N",
-IF(AQ2=AQ3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="AR4" s="15" t="str">
-        <f>IF(AR2="","",
-IF(AR3="N","N",
-IF(AR2=AR3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="AS4" s="15" t="str">
-        <f>IF(AS2="","",
-IF(AS3="N","N",
-IF(AS2=AS3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>W</v>
       </c>
       <c r="AT4" s="15" t="str">
-        <f>IF(AT2="","",
-IF(AT3="N","N",
-IF(AT2=AT3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="AU4" s="15" t="str">
-        <f>IF(AU2="","",
-IF(AU3="N","N",
-IF(AU2=AU3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v>L</v>
       </c>
       <c r="AV4" s="15" t="str">
-        <f>IF(AV2="","",
-IF(AV3="N","N",
-IF(AV2=AV3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AW4" s="15" t="str">
-        <f>IF(AW2="","",
-IF(AW3="N","N",
-IF(AW2=AW3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AX4" s="15" t="str">
-        <f>IF(AX2="","",
-IF(AX3="N","N",
-IF(AX2=AX3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AY4" s="15" t="str">
-        <f>IF(AY2="","",
-IF(AY3="N","N",
-IF(AY2=AY3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AZ4" s="15" t="str">
-        <f>IF(AZ2="","",
-IF(AZ3="N","N",
-IF(AZ2=AZ3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BA4" s="15" t="str">
-        <f>IF(BA2="","",
-IF(BA3="N","N",
-IF(BA2=BA3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BB4" s="15" t="str">
-        <f>IF(BB2="","",
-IF(BB3="N","N",
-IF(BB2=BB3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BC4" s="15" t="str">
-        <f>IF(BC2="","",
-IF(BC3="N","N",
-IF(BC2=BC3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BD4" s="15" t="str">
-        <f>IF(BD2="","",
-IF(BD3="N","N",
-IF(BD2=BD3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BE4" s="15" t="str">
-        <f>IF(BE2="","",
-IF(BE3="N","N",
-IF(BE2=BE3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BF4" s="15" t="str">
-        <f>IF(BF2="","",
-IF(BF3="N","N",
-IF(BF2=BF3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BG4" s="15" t="str">
-        <f>IF(BG2="","",
-IF(BG3="N","N",
-IF(BG2=BG3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BH4" s="15" t="str">
-        <f>IF(BH2="","",
-IF(BH3="N","N",
-IF(BH2=BH3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BI4" s="15" t="str">
-        <f>IF(BI2="","",
-IF(BI3="N","N",
-IF(BI2=BI3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BJ4" s="15" t="str">
-        <f>IF(BJ2="","",
-IF(BJ3="N","N",
-IF(BJ2=BJ3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BK4" s="15" t="str">
-        <f>IF(BK2="","",
-IF(BK3="N","N",
-IF(BK2=BK3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BL4" s="15" t="str">
-        <f>IF(BL2="","",
-IF(BL3="N","N",
-IF(BL2=BL3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BM4" s="15" t="str">
-        <f>IF(BM2="","",
-IF(BM3="N","N",
-IF(BM2=BM3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BN4" s="15" t="str">
-        <f>IF(BN2="","",
-IF(BN3="N","N",
-IF(BN2=BN3,"W","L")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="BO4" s="15" t="str">
-        <f>IF(BO2="","",
+        <f t="shared" ref="BO4:BT4" si="5">IF(BO2="","",
 IF(BO3="N","N",
 IF(BO2=BO3,"W","L")))</f>
         <v/>
       </c>
       <c r="BP4" s="15" t="str">
-        <f>IF(BP2="","",
-IF(BP3="N","N",
-IF(BP2=BP3,"W","L")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BQ4" s="15" t="str">
-        <f>IF(BQ2="","",
-IF(BQ3="N","N",
-IF(BQ2=BQ3,"W","L")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BR4" s="15" t="str">
-        <f>IF(BR2="","",
-IF(BR3="N","N",
-IF(BR2=BR3,"W","L")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BS4" s="15" t="str">
-        <f>IF(BS2="","",
-IF(BS3="N","N",
-IF(BS2=BS3,"W","L")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BT4" s="15" t="str">
-        <f>IF(BT2="","",
-IF(BT3="N","N",
-IF(BT2=BT3,"W","L")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5667,42 +5407,42 @@
         <v>N</v>
       </c>
       <c r="D5" s="15" t="str">
-        <f t="shared" ref="D5:H5" si="0">IF(D3="","","N")</f>
+        <f t="shared" ref="D5:H5" si="6">IF(D3="","","N")</f>
         <v>N</v>
       </c>
       <c r="E5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="F5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="G5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="H5" s="15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>N</v>
       </c>
       <c r="I5" s="17" t="str">
-        <f t="shared" ref="I5:L5" si="1">IF(I3="","",
+        <f t="shared" ref="I5:L5" si="7">IF(I3="","",
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
         <v>P</v>
       </c>
       <c r="J5" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>P</v>
       </c>
       <c r="K5" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="L5" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>P</v>
       </c>
       <c r="M5" s="17" t="str">
@@ -5713,242 +5453,242 @@
         <v>B</v>
       </c>
       <c r="N5" s="17" t="str">
-        <f t="shared" ref="N5:BT5" si="2">IF(N3="","",
+        <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
         <v>P</v>
       </c>
       <c r="O5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="P5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="Q5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="R5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="S5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="T5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="U5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="V5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="W5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="X5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="Y5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="Z5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AA5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AB5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AC5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AD5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AE5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AF5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AG5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AH5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AI5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AJ5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AK5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AL5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AM5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AN5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AO5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AP5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AQ5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AR5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AS5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AT5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AU5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>P</v>
       </c>
       <c r="AV5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="AW5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AX5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AY5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AZ5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BA5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BB5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BC5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BD5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BE5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BF5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BG5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BH5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BI5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BJ5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BK5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BL5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BM5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BN5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BO5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BP5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BQ5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BR5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BS5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="BT5" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -5958,423 +5698,289 @@
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="str">
-        <f>IF(C2="","",
+        <f t="shared" ref="C6:AH6" si="9">IF(C2="","",
 IF(C5="N","N",
 IF(C2=C5,"W","L")))</f>
         <v>N</v>
       </c>
       <c r="D6" s="15" t="str">
-        <f>IF(D2="","",
-IF(D5="N","N",
-IF(D2=D5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="E6" s="15" t="str">
-        <f>IF(E2="","",
-IF(E5="N","N",
-IF(E2=E5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="F6" s="15" t="str">
-        <f>IF(F2="","",
-IF(F5="N","N",
-IF(F2=F5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="G6" s="15" t="str">
-        <f>IF(G2="","",
-IF(G5="N","N",
-IF(G2=G5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="H6" s="15" t="str">
-        <f>IF(H2="","",
-IF(H5="N","N",
-IF(H2=H5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="I6" s="15" t="str">
-        <f>IF(I2="","",
-IF(I5="N","N",
-IF(I2=I5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="J6" s="15" t="str">
-        <f>IF(J2="","",
-IF(J5="N","N",
-IF(J2=J5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="K6" s="15" t="str">
-        <f>IF(K2="","",
-IF(K5="N","N",
-IF(K2=K5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="L6" s="15" t="str">
-        <f>IF(L2="","",
-IF(L5="N","N",
-IF(L2=L5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="M6" s="15" t="str">
-        <f>IF(M2="","",
-IF(M5="N","N",
-IF(M2=M5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="N6" s="15" t="str">
-        <f>IF(N2="","",
-IF(N5="N","N",
-IF(N2=N5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="O6" s="15" t="str">
-        <f>IF(O2="","",
-IF(O5="N","N",
-IF(O2=O5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="P6" s="15" t="str">
-        <f>IF(P2="","",
-IF(P5="N","N",
-IF(P2=P5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="Q6" s="15" t="str">
-        <f>IF(Q2="","",
-IF(Q5="N","N",
-IF(Q2=Q5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="R6" s="15" t="str">
-        <f>IF(R2="","",
-IF(R5="N","N",
-IF(R2=R5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="S6" s="15" t="str">
-        <f>IF(S2="","",
-IF(S5="N","N",
-IF(S2=S5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="T6" s="15" t="str">
-        <f>IF(T2="","",
-IF(T5="N","N",
-IF(T2=T5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="U6" s="15" t="str">
-        <f>IF(U2="","",
-IF(U5="N","N",
-IF(U2=U5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="V6" s="15" t="str">
-        <f>IF(V2="","",
-IF(V5="N","N",
-IF(V2=V5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="W6" s="15" t="str">
-        <f>IF(W2="","",
-IF(W5="N","N",
-IF(W2=W5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="X6" s="15" t="str">
-        <f>IF(X2="","",
-IF(X5="N","N",
-IF(X2=X5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="Y6" s="15" t="str">
-        <f>IF(Y2="","",
-IF(Y5="N","N",
-IF(Y2=Y5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="Z6" s="15" t="str">
-        <f>IF(Z2="","",
-IF(Z5="N","N",
-IF(Z2=Z5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="AA6" s="15" t="str">
-        <f>IF(AA2="","",
-IF(AA5="N","N",
-IF(AA2=AA5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="AB6" s="15" t="str">
-        <f>IF(AB2="","",
-IF(AB5="N","N",
-IF(AB2=AB5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="AC6" s="15" t="str">
-        <f>IF(AC2="","",
-IF(AC5="N","N",
-IF(AC2=AC5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="AD6" s="15" t="str">
-        <f>IF(AD2="","",
-IF(AD5="N","N",
-IF(AD2=AD5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="AE6" s="15" t="str">
-        <f>IF(AE2="","",
-IF(AE5="N","N",
-IF(AE2=AE5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="AF6" s="15" t="str">
-        <f>IF(AF2="","",
-IF(AF5="N","N",
-IF(AF2=AF5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
       <c r="AG6" s="15" t="str">
-        <f>IF(AG2="","",
-IF(AG5="N","N",
-IF(AG2=AG5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="AH6" s="15" t="str">
-        <f>IF(AH2="","",
-IF(AH5="N","N",
-IF(AH2=AH5,"W","L")))</f>
+        <f t="shared" si="9"/>
         <v>W</v>
       </c>
       <c r="AI6" s="15" t="str">
-        <f>IF(AI2="","",
+        <f t="shared" ref="AI6:BN6" si="10">IF(AI2="","",
 IF(AI5="N","N",
 IF(AI2=AI5,"W","L")))</f>
         <v>L</v>
       </c>
       <c r="AJ6" s="15" t="str">
-        <f>IF(AJ2="","",
-IF(AJ5="N","N",
-IF(AJ2=AJ5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>W</v>
       </c>
       <c r="AK6" s="15" t="str">
-        <f>IF(AK2="","",
-IF(AK5="N","N",
-IF(AK2=AK5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>W</v>
       </c>
       <c r="AL6" s="15" t="str">
-        <f>IF(AL2="","",
-IF(AL5="N","N",
-IF(AL2=AL5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="AM6" s="15" t="str">
-        <f>IF(AM2="","",
-IF(AM5="N","N",
-IF(AM2=AM5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="AN6" s="15" t="str">
-        <f>IF(AN2="","",
-IF(AN5="N","N",
-IF(AN2=AN5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="AO6" s="15" t="str">
-        <f>IF(AO2="","",
-IF(AO5="N","N",
-IF(AO2=AO5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>W</v>
       </c>
       <c r="AP6" s="15" t="str">
-        <f>IF(AP2="","",
-IF(AP5="N","N",
-IF(AP2=AP5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="AQ6" s="15" t="str">
-        <f>IF(AQ2="","",
-IF(AQ5="N","N",
-IF(AQ2=AQ5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="AR6" s="15" t="str">
-        <f>IF(AR2="","",
-IF(AR5="N","N",
-IF(AR2=AR5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="AS6" s="15" t="str">
-        <f>IF(AS2="","",
-IF(AS5="N","N",
-IF(AS2=AS5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>W</v>
       </c>
       <c r="AT6" s="15" t="str">
-        <f>IF(AT2="","",
-IF(AT5="N","N",
-IF(AT2=AT5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="AU6" s="15" t="str">
-        <f>IF(AU2="","",
-IF(AU5="N","N",
-IF(AU2=AU5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
       <c r="AV6" s="15" t="str">
-        <f>IF(AV2="","",
-IF(AV5="N","N",
-IF(AV2=AV5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AW6" s="15" t="str">
-        <f>IF(AW2="","",
-IF(AW5="N","N",
-IF(AW2=AW5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AX6" s="15" t="str">
-        <f>IF(AX2="","",
-IF(AX5="N","N",
-IF(AX2=AX5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AY6" s="15" t="str">
-        <f>IF(AY2="","",
-IF(AY5="N","N",
-IF(AY2=AY5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AZ6" s="15" t="str">
-        <f>IF(AZ2="","",
-IF(AZ5="N","N",
-IF(AZ2=AZ5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BA6" s="15" t="str">
-        <f>IF(BA2="","",
-IF(BA5="N","N",
-IF(BA2=BA5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BB6" s="15" t="str">
-        <f>IF(BB2="","",
-IF(BB5="N","N",
-IF(BB2=BB5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BC6" s="15" t="str">
-        <f>IF(BC2="","",
-IF(BC5="N","N",
-IF(BC2=BC5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BD6" s="15" t="str">
-        <f>IF(BD2="","",
-IF(BD5="N","N",
-IF(BD2=BD5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BE6" s="15" t="str">
-        <f>IF(BE2="","",
-IF(BE5="N","N",
-IF(BE2=BE5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BF6" s="15" t="str">
-        <f>IF(BF2="","",
-IF(BF5="N","N",
-IF(BF2=BF5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BG6" s="15" t="str">
-        <f>IF(BG2="","",
-IF(BG5="N","N",
-IF(BG2=BG5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BH6" s="15" t="str">
-        <f>IF(BH2="","",
-IF(BH5="N","N",
-IF(BH2=BH5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BI6" s="15" t="str">
-        <f>IF(BI2="","",
-IF(BI5="N","N",
-IF(BI2=BI5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BJ6" s="15" t="str">
-        <f>IF(BJ2="","",
-IF(BJ5="N","N",
-IF(BJ2=BJ5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BK6" s="15" t="str">
-        <f>IF(BK2="","",
-IF(BK5="N","N",
-IF(BK2=BK5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BL6" s="15" t="str">
-        <f>IF(BL2="","",
-IF(BL5="N","N",
-IF(BL2=BL5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BM6" s="15" t="str">
-        <f>IF(BM2="","",
-IF(BM5="N","N",
-IF(BM2=BM5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BN6" s="15" t="str">
-        <f>IF(BN2="","",
-IF(BN5="N","N",
-IF(BN2=BN5,"W","L")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="BO6" s="15" t="str">
-        <f>IF(BO2="","",
+        <f t="shared" ref="BO6:BT6" si="11">IF(BO2="","",
 IF(BO5="N","N",
 IF(BO2=BO5,"W","L")))</f>
         <v/>
       </c>
       <c r="BP6" s="15" t="str">
-        <f>IF(BP2="","",
-IF(BP5="N","N",
-IF(BP2=BP5,"W","L")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BQ6" s="15" t="str">
-        <f>IF(BQ2="","",
-IF(BQ5="N","N",
-IF(BQ2=BQ5,"W","L")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BR6" s="15" t="str">
-        <f>IF(BR2="","",
-IF(BR5="N","N",
-IF(BR2=BR5,"W","L")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BS6" s="15" t="str">
-        <f>IF(BS2="","",
-IF(BS5="N","N",
-IF(BS2=BS5,"W","L")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BT6" s="15" t="str">
-        <f>IF(BT2="","",
-IF(BT5="N","N",
-IF(BT2=BT5,"W","L")))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5511675-54DE-4EFB-BDBB-D64E216F1956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372BB305-E3F1-4ADC-8B75-12CE2484CA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -139,6 +130,12 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -1402,140 +1399,72 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
@@ -1567,16 +1496,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2446,151 +2375,151 @@
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L5="","",AI!L5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M5="","",AI!M5)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P5="","",AI!P5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q5="","",AI!Q5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!R5="","",AI!R5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!S5="","",AI!S5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!T5="","",AI!T5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!U5="","",AI!U5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U12" s="2" t="str">
         <f>IF(AI!V5="","",AI!V5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V12" s="2" t="str">
         <f>IF(AI!W5="","",AI!W5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W12" s="2" t="str">
         <f>IF(AI!X5="","",AI!X5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="X12" s="2" t="str">
         <f>IF(AI!Y5="","",AI!Y5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Y12" s="2" t="str">
         <f>IF(AI!Z5="","",AI!Z5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Z12" s="2" t="str">
         <f>IF(AI!AA5="","",AI!AA5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AA12" s="2" t="str">
         <f>IF(AI!AB5="","",AI!AB5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AB12" s="2" t="str">
         <f>IF(AI!AC5="","",AI!AC5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AC12" s="2" t="str">
         <f>IF(AI!AD5="","",AI!AD5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AD12" s="2" t="str">
         <f>IF(AI!AE5="","",AI!AE5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AE12" s="2" t="str">
         <f>IF(AI!AF5="","",AI!AF5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AF12" s="2" t="str">
         <f>IF(AI!AG5="","",AI!AG5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AG12" s="2" t="str">
         <f>IF(AI!AH5="","",AI!AH5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AH12" s="2" t="str">
         <f>IF(AI!AI5="","",AI!AI5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AI12" s="2" t="str">
         <f>IF(AI!AJ5="","",AI!AJ5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AJ12" s="2" t="str">
         <f>IF(AI!AK5="","",AI!AK5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AK12" s="2" t="str">
         <f>IF(AI!AL5="","",AI!AL5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AL12" s="2" t="str">
         <f>IF(AI!AM5="","",AI!AM5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AM12" s="2" t="str">
         <f>IF(AI!AN5="","",AI!AN5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AN12" s="2" t="str">
         <f>IF(AI!AO5="","",AI!AO5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AO12" s="2" t="str">
         <f>IF(AI!AP5="","",AI!AP5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AP12" s="2" t="str">
         <f>IF(AI!AQ5="","",AI!AQ5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AQ12" s="2" t="str">
         <f>IF(AI!AR5="","",AI!AR5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AR12" s="2" t="str">
         <f>IF(AI!AS5="","",AI!AS5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AS12" s="2" t="str">
         <f>IF(AI!AT5="","",AI!AT5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AT12" s="2" t="str">
         <f>IF(AI!AU5="","",AI!AU5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AU12" s="2" t="str">
         <f>IF(AI!AV5="","",AI!AV5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AV12" s="2" t="str">
         <f>IF(AI!AW5="","",AI!AW5)</f>
@@ -3065,7 +2994,7 @@
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
@@ -3073,143 +3002,143 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O6="","",AI!O6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P6="","",AI!P6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!Q6="","",AI!Q6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!R6="","",AI!R6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!S6="","",AI!S6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!T6="","",AI!T6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T16" s="2" t="str">
         <f>IF(AI!U6="","",AI!U6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U16" s="2" t="str">
         <f>IF(AI!V6="","",AI!V6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V16" s="2" t="str">
         <f>IF(AI!W6="","",AI!W6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W16" s="2" t="str">
         <f>IF(AI!X6="","",AI!X6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="X16" s="2" t="str">
         <f>IF(AI!Y6="","",AI!Y6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Y16" s="2" t="str">
         <f>IF(AI!Z6="","",AI!Z6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Z16" s="2" t="str">
         <f>IF(AI!AA6="","",AI!AA6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AA16" s="2" t="str">
         <f>IF(AI!AB6="","",AI!AB6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AB16" s="2" t="str">
         <f>IF(AI!AC6="","",AI!AC6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AC16" s="2" t="str">
         <f>IF(AI!AD6="","",AI!AD6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AD16" s="2" t="str">
         <f>IF(AI!AE6="","",AI!AE6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AE16" s="2" t="str">
         <f>IF(AI!AF6="","",AI!AF6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AF16" s="2" t="str">
         <f>IF(AI!AG6="","",AI!AG6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AG16" s="2" t="str">
         <f>IF(AI!AH6="","",AI!AH6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AH16" s="2" t="str">
         <f>IF(AI!AI6="","",AI!AI6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AI16" s="2" t="str">
         <f>IF(AI!AJ6="","",AI!AJ6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AJ16" s="2" t="str">
         <f>IF(AI!AK6="","",AI!AK6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AK16" s="2" t="str">
         <f>IF(AI!AL6="","",AI!AL6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AL16" s="2" t="str">
         <f>IF(AI!AM6="","",AI!AM6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AM16" s="2" t="str">
         <f>IF(AI!AN6="","",AI!AN6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AN16" s="2" t="str">
         <f>IF(AI!AO6="","",AI!AO6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AO16" s="2" t="str">
         <f>IF(AI!AP6="","",AI!AP6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AP16" s="2" t="str">
         <f>IF(AI!AQ6="","",AI!AQ6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AQ16" s="2" t="str">
         <f>IF(AI!AR6="","",AI!AR6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AR16" s="2" t="str">
         <f>IF(AI!AS6="","",AI!AS6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AS16" s="2" t="str">
         <f>IF(AI!AT6="","",AI!AT6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AT16" s="2" t="str">
         <f>IF(AI!AU6="","",AI!AU6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AU16" s="2" t="str">
         <f>IF(AI!AV6="","",AI!AV6)</f>
@@ -3329,16 +3258,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4535,7 +4464,7 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
@@ -4543,15 +4472,15 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -4567,11 +4496,11 @@
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4579,139 +4508,139 @@
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R2" s="15" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S2" s="15" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T2" s="15" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U2" s="15" t="str">
         <f>IF(DATA!T3="","",DATA!T3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V2" s="15" t="str">
         <f>IF(DATA!U3="","",DATA!U3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W2" s="15" t="str">
         <f>IF(DATA!V3="","",DATA!V3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="X2" s="15" t="str">
         <f>IF(DATA!W3="","",DATA!W3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Y2" s="15" t="str">
         <f>IF(DATA!X3="","",DATA!X3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Z2" s="15" t="str">
         <f>IF(DATA!Y3="","",DATA!Y3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AA2" s="15" t="str">
         <f>IF(DATA!Z3="","",DATA!Z3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AB2" s="15" t="str">
         <f>IF(DATA!AA3="","",DATA!AA3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AC2" s="15" t="str">
         <f>IF(DATA!AB3="","",DATA!AB3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AD2" s="15" t="str">
         <f>IF(DATA!AC3="","",DATA!AC3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AE2" s="15" t="str">
         <f>IF(DATA!AD3="","",DATA!AD3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AF2" s="15" t="str">
         <f>IF(DATA!AE3="","",DATA!AE3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AG2" s="15" t="str">
         <f>IF(DATA!AF3="","",DATA!AF3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AH2" s="15" t="str">
         <f>IF(DATA!AG3="","",DATA!AG3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AI2" s="15" t="str">
         <f>IF(DATA!AH3="","",DATA!AH3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AJ2" s="15" t="str">
         <f>IF(DATA!AI3="","",DATA!AI3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AK2" s="15" t="str">
         <f>IF(DATA!AJ3="","",DATA!AJ3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AL2" s="15" t="str">
         <f>IF(DATA!AK3="","",DATA!AK3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AM2" s="15" t="str">
         <f>IF(DATA!AL3="","",DATA!AL3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AN2" s="15" t="str">
         <f>IF(DATA!AM3="","",DATA!AM3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AO2" s="15" t="str">
         <f>IF(DATA!AN3="","",DATA!AN3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AP2" s="15" t="str">
         <f>IF(DATA!AO3="","",DATA!AO3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AQ2" s="15" t="str">
         <f>IF(DATA!AP3="","",DATA!AP3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AR2" s="15" t="str">
         <f>IF(DATA!AQ3="","",DATA!AQ3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AS2" s="15" t="str">
         <f>IF(DATA!AR3="","",DATA!AR3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AT2" s="15" t="str">
         <f>IF(DATA!AS3="","",DATA!AS3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AU2" s="15" t="str">
         <f>IF(DATA!AT3="","",DATA!AT3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AV2" s="15" t="str">
         <f>IF(DATA!AU3="","",DATA!AU3)</f>
@@ -4854,157 +4783,157 @@
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="V3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="X3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Y3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Z3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AA3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AB3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AC3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AD3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AE3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AF3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AG3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AH3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AI3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AJ3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AK3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AL3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AM3" s="15" t="str">
         <f t="shared" ref="AM3:BR3" si="1">IF(AL2="","",
 IF(AND(AL3="N",AI2&lt;&gt;AJ2,AJ2=AK2),IF(AI2=AJ2,AL2,IF(AI2&lt;&gt;AJ2,IF(AL2="P","B","P"))),
 IF(AND(AL3="N",AL3=AL2),"N",IF(AI2=AJ2,AL2,IF(AL2="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AN3" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AO3" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AP3" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AQ3" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AR3" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AS3" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AT3" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AU3" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AV3" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AW3" s="15" t="str">
         <f t="shared" si="1"/>
@@ -5130,7 +5059,7 @@
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5154,145 +5083,145 @@
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="V4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="X4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Y4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Z4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AA4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AB4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AC4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AD4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AE4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AF4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AG4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AH4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AI4" s="15" t="str">
         <f t="shared" ref="AI4:BN4" si="4">IF(AI2="","",
 IF(AI3="N","N",
 IF(AI2=AI3,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AJ4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AK4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AL4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AM4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AN4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AO4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AP4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AQ4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AR4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AS4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AT4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AU4" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AV4" s="15" t="str">
         <f t="shared" si="4"/>
@@ -5443,157 +5372,157 @@
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M5" s="17" t="str">
         <f>IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="V5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="X5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Y5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Z5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AA5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AB5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AC5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AD5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AE5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AF5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AG5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AH5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AI5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AJ5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AK5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AL5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AM5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AN5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AO5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AP5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AQ5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AR5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AS5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AT5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AU5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AV5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AW5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5733,7 +5662,7 @@
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
@@ -5741,145 +5670,145 @@
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="V6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="X6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Y6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Z6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AA6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AB6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AC6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AD6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AE6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AF6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AG6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AH6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AI6" s="15" t="str">
         <f t="shared" ref="AI6:BN6" si="10">IF(AI2="","",
 IF(AI5="N","N",
 IF(AI2=AI5,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AJ6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AK6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AL6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AM6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AN6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AO6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AP6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AQ6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AR6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AS6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AT6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AU6" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AV6" s="15" t="str">
         <f t="shared" si="10"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372BB305-E3F1-4ADC-8B75-12CE2484CA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7988D7-94EE-40D7-A1F6-7797F7E422C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1405,7 +1405,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1417,10 +1417,10 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>13</v>
@@ -1428,9 +1428,7 @@
       <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1500,12 +1498,12 @@
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2363,11 +2361,11 @@
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I5="","",AI!I5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
@@ -2375,15 +2373,15 @@
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L5="","",AI!L5)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M5="","",AI!M5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
@@ -2998,11 +2996,11 @@
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
@@ -3258,16 +3256,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4472,7 +4470,7 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
@@ -4488,11 +4486,11 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -4504,7 +4502,7 @@
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4771,23 +4769,23 @@
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4795,7 +4793,7 @@
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5063,7 +5061,7 @@
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5075,15 +5073,15 @@
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5360,11 +5358,11 @@
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
@@ -5372,21 +5370,21 @@
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M5" s="17" t="str">
         <f>IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5666,11 +5664,11 @@
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7988D7-94EE-40D7-A1F6-7797F7E422C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E038E594-4A88-4CC3-8081-DC737329914D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1417,10 +1417,10 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>13</v>
@@ -1428,9 +1428,15 @@
       <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1494,7 +1500,7 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
@@ -1503,7 +1509,7 @@
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2361,7 +2367,7 @@
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I5="","",AI!I5)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
@@ -2369,27 +2375,27 @@
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L5="","",AI!L5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M5="","",AI!M5)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P5="","",AI!P5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q5="","",AI!Q5)</f>
@@ -2988,27 +2994,27 @@
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O6="","",AI!O6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P6="","",AI!P6)</f>
@@ -3256,16 +3262,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4462,7 +4468,7 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
@@ -4486,11 +4492,11 @@
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -4502,15 +4508,15 @@
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
@@ -4765,7 +4771,7 @@
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4777,15 +4783,15 @@
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4793,15 +4799,15 @@
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5057,7 +5063,7 @@
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5065,7 +5071,7 @@
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5073,23 +5079,23 @@
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5358,7 +5364,7 @@
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
@@ -5366,33 +5372,33 @@
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M5" s="17" t="str">
         <f>IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5656,27 +5662,27 @@
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E038E594-4A88-4CC3-8081-DC737329914D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4883E606-F063-418B-B54C-02B8E13A0481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1402,41 +1402,35 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1500,16 +1494,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2375,27 +2369,27 @@
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L5="","",AI!L5)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M5="","",AI!M5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P5="","",AI!P5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!Q5="","",AI!Q5)</f>
@@ -2990,7 +2984,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!I6="","",AI!I6)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
@@ -3002,19 +2996,19 @@
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O6="","",AI!O6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!P6="","",AI!P6)</f>
@@ -3262,16 +3256,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4472,15 +4466,15 @@
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -4488,11 +4482,11 @@
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
@@ -4500,7 +4494,7 @@
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
@@ -4508,15 +4502,15 @@
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
@@ -4779,7 +4773,7 @@
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4787,27 +4781,27 @@
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5067,7 +5061,7 @@
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5083,19 +5077,19 @@
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5372,33 +5366,33 @@
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M5" s="17" t="str">
         <f>IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5658,7 +5652,7 @@
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
@@ -5670,19 +5664,19 @@
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4883E606-F063-418B-B54C-02B8E13A0481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F819225-1578-4FC5-BD98-E0CDE6FFD8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F819225-1578-4FC5-BD98-E0CDE6FFD8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC08AD-C0BD-4467-B40C-5CCE72CFCCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,10 +132,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
+    <t>P</t>
   </si>
   <si>
-    <t>P</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1420,15 +1420,17 @@
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1494,16 +1496,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2361,11 +2363,11 @@
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I5="","",AI!I5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
@@ -2381,7 +2383,7 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
@@ -2988,7 +2990,7 @@
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
@@ -3000,7 +3002,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
@@ -3260,12 +3262,12 @@
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4462,11 +4464,11 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -4474,19 +4476,19 @@
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
@@ -4502,7 +4504,7 @@
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4765,7 +4767,7 @@
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4777,7 +4779,7 @@
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4789,11 +4791,11 @@
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5061,15 +5063,15 @@
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5081,7 +5083,7 @@
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5358,11 +5360,11 @@
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
@@ -5384,7 +5386,7 @@
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5656,7 +5658,7 @@
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
@@ -5668,7 +5670,7 @@
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC08AD-C0BD-4467-B40C-5CCE72CFCCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036EFDC7-138E-40EF-9E31-704928647EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1431,7 +1431,9 @@
       <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1500,12 +1502,12 @@
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2387,7 +2389,7 @@
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P5="","",AI!P5)</f>
@@ -3006,7 +3008,7 @@
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O6="","",AI!O6)</f>
@@ -3262,12 +3264,12 @@
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4508,7 +4510,7 @@
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -4799,7 +4801,7 @@
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5087,7 +5089,7 @@
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5390,7 +5392,7 @@
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5674,7 +5676,7 @@
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036EFDC7-138E-40EF-9E31-704928647EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B349020B-464C-4594-A448-74A2259A3A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,12 +130,6 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1398,42 +1392,18 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1496,18 +1466,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11">
+      <c r="BX3" s="11" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>1</v>
-      </c>
-      <c r="BY3" s="12">
+        <v/>
+      </c>
+      <c r="BY3" s="12" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>11</v>
+        <v/>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13">
+      <c r="CA3" s="13" t="str">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2345,51 +2315,51 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!D5="","",AI!D5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!E5="","",AI!E5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!F5="","",AI!F5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!G5="","",AI!G5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!H5="","",AI!H5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I5="","",AI!I5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L5="","",AI!L5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M5="","",AI!M5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P5="","",AI!P5)</f>
@@ -2964,51 +2934,51 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!C6="","",AI!C6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!D6="","",AI!D6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!E6="","",AI!E6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!F6="","",AI!F6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!G6="","",AI!G6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!H6="","",AI!H6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!I6="","",AI!I6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O6="","",AI!O6)</f>
@@ -3258,18 +3228,18 @@
         <f>IF(AI!BX6="","",AI!BX6)</f>
         <v/>
       </c>
-      <c r="BX16" s="11">
+      <c r="BX16" s="11" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
-      </c>
-      <c r="BY16" s="12">
+        <v/>
+      </c>
+      <c r="BY16" s="12" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13">
+      <c r="CA16" s="13" t="str">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-2</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4466,51 +4436,51 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -4755,53 +4725,53 @@
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F3" s="15" t="str">
         <f>IF(E2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5045,51 +5015,51 @@
         <f t="shared" ref="C4:AH4" si="3">IF(C2="","",
 IF(C3="N","N",
 IF(C2=C3,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5339,60 +5309,60 @@
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" ref="D5:H5" si="6">IF(D3="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" ref="I5:L5" si="7">IF(I3="","",
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M5" s="17" t="str">
         <f>IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5632,51 +5602,51 @@
         <f t="shared" ref="C6:AH6" si="9">IF(C2="","",
 IF(C5="N","N",
 IF(C2=C5,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B349020B-464C-4594-A448-74A2259A3A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17865969-E6F3-4566-98E1-136C86D82F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,6 +130,12 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -1392,16 +1398,36 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1466,18 +1492,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11" t="str">
+      <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v/>
-      </c>
-      <c r="BY3" s="12" t="str">
+        <v>5</v>
+      </c>
+      <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13" t="str">
+      <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2315,43 +2341,43 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!D5="","",AI!D5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!E5="","",AI!E5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!F5="","",AI!F5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!G5="","",AI!G5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!H5="","",AI!H5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I5="","",AI!I5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L5="","",AI!L5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M5="","",AI!M5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
@@ -2934,43 +2960,43 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!C6="","",AI!C6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!D6="","",AI!D6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!E6="","",AI!E6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!F6="","",AI!F6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!G6="","",AI!G6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!H6="","",AI!H6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!I6="","",AI!I6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
@@ -3228,18 +3254,18 @@
         <f>IF(AI!BX6="","",AI!BX6)</f>
         <v/>
       </c>
-      <c r="BX16" s="11" t="str">
+      <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v/>
-      </c>
-      <c r="BY16" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13" t="str">
+      <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4436,43 +4462,43 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4725,45 +4751,45 @@
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F3" s="15" t="str">
         <f>IF(E2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5015,43 +5041,43 @@
         <f t="shared" ref="C4:AH4" si="3">IF(C2="","",
 IF(C3="N","N",
 IF(C2=C3,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5309,49 +5335,49 @@
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" ref="D5:H5" si="6">IF(D3="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" ref="I5:L5" si="7">IF(I3="","",
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M5" s="17" t="str">
         <f>IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
@@ -5602,43 +5628,43 @@
         <f t="shared" ref="C6:AH6" si="9">IF(C2="","",
 IF(C5="N","N",
 IF(C2=C5,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17865969-E6F3-4566-98E1-136C86D82F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B20162F-A02A-41B7-A5EB-37478FF101E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -1402,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1414,19 +1414,19 @@
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1494,11 +1494,11 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
@@ -2992,11 +2992,11 @@
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
@@ -4490,15 +4490,15 @@
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4765,15 +4765,15 @@
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5065,19 +5065,19 @@
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
@@ -5660,11 +5660,11 @@
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B20162F-A02A-41B7-A5EB-37478FF101E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E68DFC-BD00-4BA1-A4BA-AF2B2B49A2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,10 +132,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
+    <t>P</t>
   </si>
   <si>
-    <t>P</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1405,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
@@ -1426,10 +1426,14 @@
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1494,16 +1498,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2361,7 +2365,7 @@
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I5="","",AI!I5)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
@@ -2381,11 +2385,11 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P5="","",AI!P5)</f>
@@ -2988,11 +2992,11 @@
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
@@ -3000,11 +3004,11 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O6="","",AI!O6)</f>
@@ -3260,12 +3264,12 @@
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4462,11 +4466,11 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -4474,27 +4478,27 @@
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
@@ -4502,11 +4506,11 @@
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -4765,7 +4769,7 @@
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4777,15 +4781,15 @@
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4793,11 +4797,11 @@
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5061,11 +5065,11 @@
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5077,15 +5081,15 @@
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5358,7 +5362,7 @@
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
@@ -5384,11 +5388,11 @@
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5656,11 +5660,11 @@
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
@@ -5668,11 +5672,11 @@
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E68DFC-BD00-4BA1-A4BA-AF2B2B49A2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A8CE3-2AF3-4729-A461-070DD6074AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,12 +130,6 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1398,42 +1392,18 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1496,18 +1466,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11">
+      <c r="BX3" s="11" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
-      </c>
-      <c r="BY3" s="12">
+        <v/>
+      </c>
+      <c r="BY3" s="12" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13">
+      <c r="CA3" s="13" t="str">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2345,51 +2315,51 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!D5="","",AI!D5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!E5="","",AI!E5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!F5="","",AI!F5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!G5="","",AI!G5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!H5="","",AI!H5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I5="","",AI!I5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L5="","",AI!L5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M5="","",AI!M5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P5="","",AI!P5)</f>
@@ -2964,51 +2934,51 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!C6="","",AI!C6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!D6="","",AI!D6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!E6="","",AI!E6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!F6="","",AI!F6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!G6="","",AI!G6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!H6="","",AI!H6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!I6="","",AI!I6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O6="","",AI!O6)</f>
@@ -3258,18 +3228,18 @@
         <f>IF(AI!BX6="","",AI!BX6)</f>
         <v/>
       </c>
-      <c r="BX16" s="11">
+      <c r="BX16" s="11" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
-      </c>
-      <c r="BY16" s="12">
+        <v/>
+      </c>
+      <c r="BY16" s="12" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13">
+      <c r="CA16" s="13" t="str">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-2</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4466,51 +4436,51 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -4755,53 +4725,53 @@
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F3" s="15" t="str">
         <f>IF(E2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5045,51 +5015,51 @@
         <f t="shared" ref="C4:AH4" si="3">IF(C2="","",
 IF(C3="N","N",
 IF(C2=C3,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5339,60 +5309,60 @@
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" ref="D5:H5" si="6">IF(D3="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" ref="I5:L5" si="7">IF(I3="","",
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M5" s="17" t="str">
         <f>IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5632,51 +5602,51 @@
         <f t="shared" ref="C6:AH6" si="9">IF(C2="","",
 IF(C5="N","N",
 IF(C2=C5,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A8CE3-2AF3-4729-A461-070DD6074AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EDB58D-C456-41B1-98DC-31322AC29594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
+    <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EDB58D-C456-41B1-98DC-31322AC29594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112BC81D-DF64-4ED3-8DD2-8A48357F7A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,6 +130,12 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1392,18 +1398,42 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1466,18 +1496,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11" t="str">
+      <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v/>
-      </c>
-      <c r="BY3" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13" t="str">
+      <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2315,51 +2345,51 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!D5="","",AI!D5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!E5="","",AI!E5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!F5="","",AI!F5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!G5="","",AI!G5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!H5="","",AI!H5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I5="","",AI!I5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L5="","",AI!L5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M5="","",AI!M5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P5="","",AI!P5)</f>
@@ -2934,51 +2964,51 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!C6="","",AI!C6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!D6="","",AI!D6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!E6="","",AI!E6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!F6="","",AI!F6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!G6="","",AI!G6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!H6="","",AI!H6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!I6="","",AI!I6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O6="","",AI!O6)</f>
@@ -3228,18 +3258,18 @@
         <f>IF(AI!BX6="","",AI!BX6)</f>
         <v/>
       </c>
-      <c r="BX16" s="11" t="str">
+      <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v/>
-      </c>
-      <c r="BY16" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13" t="str">
+      <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v/>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4436,51 +4466,51 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -4725,53 +4755,53 @@
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F3" s="15" t="str">
         <f>IF(E2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5015,51 +5045,51 @@
         <f t="shared" ref="C4:AH4" si="3">IF(C2="","",
 IF(C3="N","N",
 IF(C2=C3,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5309,60 +5339,60 @@
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" ref="D5:H5" si="6">IF(D3="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" ref="I5:L5" si="7">IF(I3="","",
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M5" s="17" t="str">
         <f>IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5602,51 +5632,51 @@
         <f t="shared" ref="C6:AH6" si="9">IF(C2="","",
 IF(C5="N","N",
 IF(C2=C5,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112BC81D-DF64-4ED3-8DD2-8A48357F7A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FE212-01B2-42E6-B996-F98B8F112D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
+    <workbookView xWindow="31800" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,12 +130,6 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1398,42 +1392,18 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1496,18 +1466,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11">
+      <c r="BX3" s="11" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>2</v>
-      </c>
-      <c r="BY3" s="12">
+        <v/>
+      </c>
+      <c r="BY3" s="12" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13">
+      <c r="CA3" s="13" t="str">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2345,51 +2315,51 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!D5="","",AI!D5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!E5="","",AI!E5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!F5="","",AI!F5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!G5="","",AI!G5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!H5="","",AI!H5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I5="","",AI!I5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L5="","",AI!L5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M5="","",AI!M5)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!P5="","",AI!P5)</f>
@@ -2964,51 +2934,51 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!C6="","",AI!C6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!D6="","",AI!D6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!E6="","",AI!E6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!F6="","",AI!F6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!G6="","",AI!G6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!H6="","",AI!H6)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!I6="","",AI!I6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!O6="","",AI!O6)</f>
@@ -3258,18 +3228,18 @@
         <f>IF(AI!BX6="","",AI!BX6)</f>
         <v/>
       </c>
-      <c r="BX16" s="11">
+      <c r="BX16" s="11" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
-      </c>
-      <c r="BY16" s="12">
+        <v/>
+      </c>
+      <c r="BY16" s="12" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13">
+      <c r="CA16" s="13" t="str">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-2</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4466,51 +4436,51 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -4755,53 +4725,53 @@
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F3" s="15" t="str">
         <f>IF(E2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5045,51 +5015,51 @@
         <f t="shared" ref="C4:AH4" si="3">IF(C2="","",
 IF(C3="N","N",
 IF(C2=C3,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5339,60 +5309,60 @@
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" ref="D5:H5" si="6">IF(D3="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" ref="I5:L5" si="7">IF(I3="","",
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M5" s="17" t="str">
         <f>IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5632,51 +5602,51 @@
         <f t="shared" ref="C6:AH6" si="9">IF(C2="","",
 IF(C5="N","N",
 IF(C2=C5,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FE212-01B2-42E6-B996-F98B8F112D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FBD6DB-6A04-4E3F-83E5-196F80DD9AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31800" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FBD6DB-6A04-4E3F-83E5-196F80DD9AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8266C74-5C78-437B-B79B-BF7B37201FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31800" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8266C74-5C78-437B-B79B-BF7B37201FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB26B796-AE6F-4524-A9A2-D118E1857B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31800" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,6 +130,12 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1392,17 +1398,39 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1466,18 +1494,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11" t="str">
+      <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v/>
-      </c>
-      <c r="BY3" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13" t="str">
+      <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2315,47 +2343,47 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!D5="","",AI!D5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!E5="","",AI!E5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!F5="","",AI!F5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!G5="","",AI!G5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!H5="","",AI!H5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!I5="","",AI!I5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!J5="","",AI!J5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!K5="","",AI!K5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!L5="","",AI!L5)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!M5="","",AI!M5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!N5="","",AI!N5)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!O5="","",AI!O5)</f>
@@ -2934,47 +2962,47 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!C6="","",AI!C6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!D6="","",AI!D6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!E6="","",AI!E6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!F6="","",AI!F6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!G6="","",AI!G6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!H6="","",AI!H6)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!I6="","",AI!I6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!N6="","",AI!N6)</f>
@@ -3228,18 +3256,18 @@
         <f>IF(AI!BX6="","",AI!BX6)</f>
         <v/>
       </c>
-      <c r="BX16" s="11" t="str">
+      <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v/>
-      </c>
-      <c r="BY16" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13" t="str">
+      <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4436,47 +4464,47 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4725,49 +4753,49 @@
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F3" s="15" t="str">
         <f>IF(E2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5015,47 +5043,47 @@
         <f t="shared" ref="C4:AH4" si="3">IF(C2="","",
 IF(C3="N","N",
 IF(C2=C3,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5309,56 +5337,56 @@
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" ref="D5:H5" si="6">IF(D3="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H5" s="15" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" ref="I5:L5" si="7">IF(I3="","",
 IF(I3="N","N",
 IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
 IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L5" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M5" s="17" t="str">
         <f>IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
 IF(N3="N","N",
 IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
 IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5602,47 +5630,47 @@
         <f t="shared" ref="C6:AH6" si="9">IF(C2="","",
 IF(C5="N","N",
 IF(C2=C5,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB26B796-AE6F-4524-A9A2-D118E1857B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB396A5D-D880-4D78-B150-854967963687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31800" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1420,13 +1420,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>13</v>
@@ -1496,11 +1496,11 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
@@ -2990,15 +2990,15 @@
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!J6="","",AI!J6)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!K6="","",AI!K6)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!L6="","",AI!L6)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!M6="","",AI!M6)</f>
@@ -3258,16 +3258,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4464,7 +4464,7 @@
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
@@ -4492,15 +4492,15 @@
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4767,7 +4767,7 @@
         <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
 IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4783,11 +4783,11 @@
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5658,15 +5658,15 @@
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="9"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="9"/>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,28 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB396A5D-D880-4D78-B150-854967963687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68CE6D-6B2F-448E-8464-AFA1D29F6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="AI" sheetId="4" r:id="rId2"/>
+    <sheet name="AI" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="12">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,12 +139,6 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -407,86 +410,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -496,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,33 +483,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -598,6 +494,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1067,7 +969,7 @@
   <dimension ref="A1:CA41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW28" sqref="AW28"/>
+      <selection activeCell="AL31" sqref="AL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="16.5"/>
@@ -1078,21 +980,21 @@
   <sheetData>
     <row r="1" spans="1:79" ht="17.25" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1399,72 +1301,140 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
@@ -1496,35 +1466,35 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -2338,299 +2308,299 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>IF(AI!C5="","",AI!C5)</f>
+        <f>IF(AI!B11="","",AI!B11)</f>
         <v>N</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>IF(AI!D5="","",AI!D5)</f>
+        <f>IF(AI!C11="","",AI!C11)</f>
         <v>N</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>IF(AI!E5="","",AI!E5)</f>
+        <f>IF(AI!D11="","",AI!D11)</f>
         <v>N</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f>IF(AI!F5="","",AI!F5)</f>
+        <f>IF(AI!E11="","",AI!E11)</f>
         <v>N</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f>IF(AI!G5="","",AI!G5)</f>
+        <f>IF(AI!F11="","",AI!F11)</f>
         <v>N</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>IF(AI!H5="","",AI!H5)</f>
+        <f>IF(AI!G11="","",AI!G11)</f>
         <v>N</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f>IF(AI!I5="","",AI!I5)</f>
-        <v>B</v>
+        <f>IF(AI!H11="","",AI!H11)</f>
+        <v>P</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f>IF(AI!J5="","",AI!J5)</f>
-        <v>B</v>
+        <f>IF(AI!I11="","",AI!I11)</f>
+        <v>P</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f>IF(AI!K5="","",AI!K5)</f>
-        <v>P</v>
+        <f>IF(AI!J11="","",AI!J11)</f>
+        <v>B</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>IF(AI!L5="","",AI!L5)</f>
-        <v>P</v>
+        <f>IF(AI!K11="","",AI!K11)</f>
+        <v>B</v>
       </c>
       <c r="L12" s="2" t="str">
-        <f>IF(AI!M5="","",AI!M5)</f>
+        <f>IF(AI!L11="","",AI!L11)</f>
         <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f>IF(AI!N5="","",AI!N5)</f>
+        <f>IF(AI!M11="","",AI!M11)</f>
         <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f>IF(AI!O5="","",AI!O5)</f>
-        <v/>
+        <f>IF(AI!N11="","",AI!N11)</f>
+        <v>P</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f>IF(AI!P5="","",AI!P5)</f>
-        <v/>
+        <f>IF(AI!O11="","",AI!O11)</f>
+        <v>P</v>
       </c>
       <c r="P12" s="2" t="str">
-        <f>IF(AI!Q5="","",AI!Q5)</f>
-        <v/>
+        <f>IF(AI!P11="","",AI!P11)</f>
+        <v>B</v>
       </c>
       <c r="Q12" s="2" t="str">
-        <f>IF(AI!R5="","",AI!R5)</f>
-        <v/>
+        <f>IF(AI!Q11="","",AI!Q11)</f>
+        <v>P</v>
       </c>
       <c r="R12" s="2" t="str">
-        <f>IF(AI!S5="","",AI!S5)</f>
-        <v/>
+        <f>IF(AI!R11="","",AI!R11)</f>
+        <v>B</v>
       </c>
       <c r="S12" s="2" t="str">
-        <f>IF(AI!T5="","",AI!T5)</f>
-        <v/>
+        <f>IF(AI!S11="","",AI!S11)</f>
+        <v>B</v>
       </c>
       <c r="T12" s="2" t="str">
-        <f>IF(AI!U5="","",AI!U5)</f>
-        <v/>
+        <f>IF(AI!T11="","",AI!T11)</f>
+        <v>P</v>
       </c>
       <c r="U12" s="2" t="str">
-        <f>IF(AI!V5="","",AI!V5)</f>
-        <v/>
+        <f>IF(AI!U11="","",AI!U11)</f>
+        <v>P</v>
       </c>
       <c r="V12" s="2" t="str">
-        <f>IF(AI!W5="","",AI!W5)</f>
-        <v/>
+        <f>IF(AI!V11="","",AI!V11)</f>
+        <v>B</v>
       </c>
       <c r="W12" s="2" t="str">
-        <f>IF(AI!X5="","",AI!X5)</f>
-        <v/>
+        <f>IF(AI!W11="","",AI!W11)</f>
+        <v>B</v>
       </c>
       <c r="X12" s="2" t="str">
-        <f>IF(AI!Y5="","",AI!Y5)</f>
-        <v/>
+        <f>IF(AI!X11="","",AI!X11)</f>
+        <v>P</v>
       </c>
       <c r="Y12" s="2" t="str">
-        <f>IF(AI!Z5="","",AI!Z5)</f>
-        <v/>
+        <f>IF(AI!Y11="","",AI!Y11)</f>
+        <v>B</v>
       </c>
       <c r="Z12" s="2" t="str">
-        <f>IF(AI!AA5="","",AI!AA5)</f>
-        <v/>
+        <f>IF(AI!Z11="","",AI!Z11)</f>
+        <v>B</v>
       </c>
       <c r="AA12" s="2" t="str">
-        <f>IF(AI!AB5="","",AI!AB5)</f>
-        <v/>
+        <f>IF(AI!AA11="","",AI!AA11)</f>
+        <v>B</v>
       </c>
       <c r="AB12" s="2" t="str">
-        <f>IF(AI!AC5="","",AI!AC5)</f>
-        <v/>
+        <f>IF(AI!AB11="","",AI!AB11)</f>
+        <v>P</v>
       </c>
       <c r="AC12" s="2" t="str">
-        <f>IF(AI!AD5="","",AI!AD5)</f>
-        <v/>
+        <f>IF(AI!AC11="","",AI!AC11)</f>
+        <v>P</v>
       </c>
       <c r="AD12" s="2" t="str">
-        <f>IF(AI!AE5="","",AI!AE5)</f>
-        <v/>
+        <f>IF(AI!AD11="","",AI!AD11)</f>
+        <v>P</v>
       </c>
       <c r="AE12" s="2" t="str">
-        <f>IF(AI!AF5="","",AI!AF5)</f>
-        <v/>
+        <f>IF(AI!AE11="","",AI!AE11)</f>
+        <v>P</v>
       </c>
       <c r="AF12" s="2" t="str">
-        <f>IF(AI!AG5="","",AI!AG5)</f>
-        <v/>
+        <f>IF(AI!AF11="","",AI!AF11)</f>
+        <v>B</v>
       </c>
       <c r="AG12" s="2" t="str">
-        <f>IF(AI!AH5="","",AI!AH5)</f>
-        <v/>
+        <f>IF(AI!AG11="","",AI!AG11)</f>
+        <v>P</v>
       </c>
       <c r="AH12" s="2" t="str">
-        <f>IF(AI!AI5="","",AI!AI5)</f>
-        <v/>
+        <f>IF(AI!AH11="","",AI!AH11)</f>
+        <v>B</v>
       </c>
       <c r="AI12" s="2" t="str">
-        <f>IF(AI!AJ5="","",AI!AJ5)</f>
-        <v/>
+        <f>IF(AI!AI11="","",AI!AI11)</f>
+        <v>P</v>
       </c>
       <c r="AJ12" s="2" t="str">
-        <f>IF(AI!AK5="","",AI!AK5)</f>
-        <v/>
+        <f>IF(AI!AJ11="","",AI!AJ11)</f>
+        <v>B</v>
       </c>
       <c r="AK12" s="2" t="str">
-        <f>IF(AI!AL5="","",AI!AL5)</f>
-        <v/>
+        <f>IF(AI!AK11="","",AI!AK11)</f>
+        <v>P</v>
       </c>
       <c r="AL12" s="2" t="str">
-        <f>IF(AI!AM5="","",AI!AM5)</f>
-        <v/>
+        <f>IF(AI!AL11="","",AI!AL11)</f>
+        <v>B</v>
       </c>
       <c r="AM12" s="2" t="str">
-        <f>IF(AI!AN5="","",AI!AN5)</f>
-        <v/>
+        <f>IF(AI!AM11="","",AI!AM11)</f>
+        <v>B</v>
       </c>
       <c r="AN12" s="2" t="str">
-        <f>IF(AI!AO5="","",AI!AO5)</f>
-        <v/>
+        <f>IF(AI!AN11="","",AI!AN11)</f>
+        <v>B</v>
       </c>
       <c r="AO12" s="2" t="str">
-        <f>IF(AI!AP5="","",AI!AP5)</f>
-        <v/>
+        <f>IF(AI!AO11="","",AI!AO11)</f>
+        <v>B</v>
       </c>
       <c r="AP12" s="2" t="str">
-        <f>IF(AI!AQ5="","",AI!AQ5)</f>
-        <v/>
+        <f>IF(AI!AP11="","",AI!AP11)</f>
+        <v>P</v>
       </c>
       <c r="AQ12" s="2" t="str">
-        <f>IF(AI!AR5="","",AI!AR5)</f>
-        <v/>
+        <f>IF(AI!AQ11="","",AI!AQ11)</f>
+        <v>B</v>
       </c>
       <c r="AR12" s="2" t="str">
-        <f>IF(AI!AS5="","",AI!AS5)</f>
-        <v/>
+        <f>IF(AI!AR11="","",AI!AR11)</f>
+        <v>B</v>
       </c>
       <c r="AS12" s="2" t="str">
-        <f>IF(AI!AT5="","",AI!AT5)</f>
-        <v/>
+        <f>IF(AI!AS11="","",AI!AS11)</f>
+        <v>P</v>
       </c>
       <c r="AT12" s="2" t="str">
-        <f>IF(AI!AU5="","",AI!AU5)</f>
-        <v/>
+        <f>IF(AI!AT11="","",AI!AT11)</f>
+        <v>P</v>
       </c>
       <c r="AU12" s="2" t="str">
-        <f>IF(AI!AV5="","",AI!AV5)</f>
-        <v/>
+        <f>IF(AI!AU11="","",AI!AU11)</f>
+        <v>P</v>
       </c>
       <c r="AV12" s="2" t="str">
-        <f>IF(AI!AW5="","",AI!AW5)</f>
+        <f>IF(AI!AV11="","",AI!AV11)</f>
         <v/>
       </c>
       <c r="AW12" s="2" t="str">
-        <f>IF(AI!AX5="","",AI!AX5)</f>
+        <f>IF(AI!AW11="","",AI!AW11)</f>
         <v/>
       </c>
       <c r="AX12" s="2" t="str">
-        <f>IF(AI!AY5="","",AI!AY5)</f>
+        <f>IF(AI!AX11="","",AI!AX11)</f>
         <v/>
       </c>
       <c r="AY12" s="2" t="str">
-        <f>IF(AI!AZ5="","",AI!AZ5)</f>
+        <f>IF(AI!AY11="","",AI!AY11)</f>
         <v/>
       </c>
       <c r="AZ12" s="2" t="str">
-        <f>IF(AI!BA5="","",AI!BA5)</f>
+        <f>IF(AI!AZ11="","",AI!AZ11)</f>
         <v/>
       </c>
       <c r="BA12" s="2" t="str">
-        <f>IF(AI!BB5="","",AI!BB5)</f>
+        <f>IF(AI!BA11="","",AI!BA11)</f>
         <v/>
       </c>
       <c r="BB12" s="2" t="str">
-        <f>IF(AI!BC5="","",AI!BC5)</f>
+        <f>IF(AI!BB11="","",AI!BB11)</f>
         <v/>
       </c>
       <c r="BC12" s="2" t="str">
-        <f>IF(AI!BD5="","",AI!BD5)</f>
+        <f>IF(AI!BC11="","",AI!BC11)</f>
         <v/>
       </c>
       <c r="BD12" s="2" t="str">
-        <f>IF(AI!BE5="","",AI!BE5)</f>
+        <f>IF(AI!BD11="","",AI!BD11)</f>
         <v/>
       </c>
       <c r="BE12" s="2" t="str">
-        <f>IF(AI!BF5="","",AI!BF5)</f>
+        <f>IF(AI!BE11="","",AI!BE11)</f>
         <v/>
       </c>
       <c r="BF12" s="2" t="str">
-        <f>IF(AI!BG5="","",AI!BG5)</f>
+        <f>IF(AI!BF11="","",AI!BF11)</f>
         <v/>
       </c>
       <c r="BG12" s="2" t="str">
-        <f>IF(AI!BH5="","",AI!BH5)</f>
+        <f>IF(AI!BG11="","",AI!BG11)</f>
         <v/>
       </c>
       <c r="BH12" s="2" t="str">
-        <f>IF(AI!BI5="","",AI!BI5)</f>
+        <f>IF(AI!BH11="","",AI!BH11)</f>
         <v/>
       </c>
       <c r="BI12" s="2" t="str">
-        <f>IF(AI!BJ5="","",AI!BJ5)</f>
+        <f>IF(AI!BI11="","",AI!BI11)</f>
         <v/>
       </c>
       <c r="BJ12" s="2" t="str">
-        <f>IF(AI!BK5="","",AI!BK5)</f>
+        <f>IF(AI!BJ11="","",AI!BJ11)</f>
         <v/>
       </c>
       <c r="BK12" s="2" t="str">
-        <f>IF(AI!BL5="","",AI!BL5)</f>
+        <f>IF(AI!BK11="","",AI!BK11)</f>
         <v/>
       </c>
       <c r="BL12" s="2" t="str">
-        <f>IF(AI!BM5="","",AI!BM5)</f>
+        <f>IF(AI!BL11="","",AI!BL11)</f>
         <v/>
       </c>
       <c r="BM12" s="2" t="str">
-        <f>IF(AI!BN5="","",AI!BN5)</f>
+        <f>IF(AI!BM11="","",AI!BM11)</f>
         <v/>
       </c>
       <c r="BN12" s="2" t="str">
-        <f>IF(AI!BO5="","",AI!BO5)</f>
+        <f>IF(AI!BN11="","",AI!BN11)</f>
         <v/>
       </c>
       <c r="BO12" s="2" t="str">
-        <f>IF(AI!BP5="","",AI!BP5)</f>
+        <f>IF(AI!BO11="","",AI!BO11)</f>
         <v/>
       </c>
       <c r="BP12" s="2" t="str">
-        <f>IF(AI!BQ5="","",AI!BQ5)</f>
+        <f>IF(AI!BP11="","",AI!BP11)</f>
         <v/>
       </c>
       <c r="BQ12" s="2" t="str">
-        <f>IF(AI!BR5="","",AI!BR5)</f>
+        <f>IF(AI!BQ11="","",AI!BQ11)</f>
         <v/>
       </c>
       <c r="BR12" s="2" t="str">
-        <f>IF(AI!BS5="","",AI!BS5)</f>
+        <f>IF(AI!BR11="","",AI!BR11)</f>
         <v/>
       </c>
       <c r="BS12" s="2" t="str">
-        <f>IF(AI!BT5="","",AI!BT5)</f>
+        <f>IF(AI!BS11="","",AI!BS11)</f>
         <v/>
       </c>
       <c r="BT12" s="2" t="str">
-        <f>IF(AI!BU5="","",AI!BU5)</f>
+        <f>IF(AI!BT11="","",AI!BT11)</f>
         <v/>
       </c>
       <c r="BU12" s="2" t="str">
-        <f>IF(AI!BV5="","",AI!BV5)</f>
+        <f>IF(AI!BU11="","",AI!BU11)</f>
         <v/>
       </c>
       <c r="BV12" s="2" t="str">
-        <f>IF(AI!BW5="","",AI!BW5)</f>
+        <f>IF(AI!BV11="","",AI!BV11)</f>
         <v/>
       </c>
       <c r="BW12" s="2" t="str">
-        <f>IF(AI!BX5="","",AI!BX5)</f>
+        <f>IF(AI!BW11="","",AI!BW11)</f>
         <v/>
       </c>
       <c r="BX12" s="11"/>
@@ -2961,332 +2931,332 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>IF(AI!C6="","",AI!C6)</f>
+        <f>IF(AI!B12="","",AI!B12)</f>
         <v>N</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>IF(AI!D6="","",AI!D6)</f>
+        <f>IF(AI!C12="","",AI!C12)</f>
         <v>N</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>IF(AI!E6="","",AI!E6)</f>
+        <f>IF(AI!D12="","",AI!D12)</f>
         <v>N</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f>IF(AI!F6="","",AI!F6)</f>
+        <f>IF(AI!E12="","",AI!E12)</f>
         <v>N</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f>IF(AI!G6="","",AI!G6)</f>
+        <f>IF(AI!F12="","",AI!F12)</f>
         <v>N</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>IF(AI!H6="","",AI!H6)</f>
+        <f>IF(AI!G12="","",AI!G12)</f>
         <v>N</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f>IF(AI!I6="","",AI!I6)</f>
+        <f>IF(AI!H12="","",AI!H12)</f>
         <v>W</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f>IF(AI!J6="","",AI!J6)</f>
+        <f>IF(AI!I12="","",AI!I12)</f>
         <v>L</v>
       </c>
       <c r="J16" s="2" t="str">
-        <f>IF(AI!K6="","",AI!K6)</f>
+        <f>IF(AI!J12="","",AI!J12)</f>
         <v>W</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f>IF(AI!L6="","",AI!L6)</f>
-        <v>W</v>
+        <f>IF(AI!K12="","",AI!K12)</f>
+        <v>L</v>
       </c>
       <c r="L16" s="2" t="str">
-        <f>IF(AI!M6="","",AI!M6)</f>
-        <v>W</v>
+        <f>IF(AI!L12="","",AI!L12)</f>
+        <v>L</v>
       </c>
       <c r="M16" s="2" t="str">
-        <f>IF(AI!N6="","",AI!N6)</f>
-        <v/>
+        <f>IF(AI!M12="","",AI!M12)</f>
+        <v>L</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f>IF(AI!O6="","",AI!O6)</f>
-        <v/>
+        <f>IF(AI!N12="","",AI!N12)</f>
+        <v>W</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f>IF(AI!P6="","",AI!P6)</f>
-        <v/>
+        <f>IF(AI!O12="","",AI!O12)</f>
+        <v>L</v>
       </c>
       <c r="P16" s="2" t="str">
-        <f>IF(AI!Q6="","",AI!Q6)</f>
-        <v/>
+        <f>IF(AI!P12="","",AI!P12)</f>
+        <v>W</v>
       </c>
       <c r="Q16" s="2" t="str">
-        <f>IF(AI!R6="","",AI!R6)</f>
-        <v/>
+        <f>IF(AI!Q12="","",AI!Q12)</f>
+        <v>L</v>
       </c>
       <c r="R16" s="2" t="str">
-        <f>IF(AI!S6="","",AI!S6)</f>
-        <v/>
+        <f>IF(AI!R12="","",AI!R12)</f>
+        <v>W</v>
       </c>
       <c r="S16" s="2" t="str">
-        <f>IF(AI!T6="","",AI!T6)</f>
-        <v/>
+        <f>IF(AI!S12="","",AI!S12)</f>
+        <v>W</v>
       </c>
       <c r="T16" s="2" t="str">
-        <f>IF(AI!U6="","",AI!U6)</f>
-        <v/>
+        <f>IF(AI!T12="","",AI!T12)</f>
+        <v>W</v>
       </c>
       <c r="U16" s="2" t="str">
-        <f>IF(AI!V6="","",AI!V6)</f>
-        <v/>
+        <f>IF(AI!U12="","",AI!U12)</f>
+        <v>W</v>
       </c>
       <c r="V16" s="2" t="str">
-        <f>IF(AI!W6="","",AI!W6)</f>
-        <v/>
+        <f>IF(AI!V12="","",AI!V12)</f>
+        <v>L</v>
       </c>
       <c r="W16" s="2" t="str">
-        <f>IF(AI!X6="","",AI!X6)</f>
-        <v/>
+        <f>IF(AI!W12="","",AI!W12)</f>
+        <v>L</v>
       </c>
       <c r="X16" s="2" t="str">
-        <f>IF(AI!Y6="","",AI!Y6)</f>
-        <v/>
+        <f>IF(AI!X12="","",AI!X12)</f>
+        <v>L</v>
       </c>
       <c r="Y16" s="2" t="str">
-        <f>IF(AI!Z6="","",AI!Z6)</f>
-        <v/>
+        <f>IF(AI!Y12="","",AI!Y12)</f>
+        <v>W</v>
       </c>
       <c r="Z16" s="2" t="str">
-        <f>IF(AI!AA6="","",AI!AA6)</f>
-        <v/>
+        <f>IF(AI!Z12="","",AI!Z12)</f>
+        <v>W</v>
       </c>
       <c r="AA16" s="2" t="str">
-        <f>IF(AI!AB6="","",AI!AB6)</f>
-        <v/>
+        <f>IF(AI!AA12="","",AI!AA12)</f>
+        <v>W</v>
       </c>
       <c r="AB16" s="2" t="str">
-        <f>IF(AI!AC6="","",AI!AC6)</f>
-        <v/>
+        <f>IF(AI!AB12="","",AI!AB12)</f>
+        <v>W</v>
       </c>
       <c r="AC16" s="2" t="str">
-        <f>IF(AI!AD6="","",AI!AD6)</f>
-        <v/>
+        <f>IF(AI!AC12="","",AI!AC12)</f>
+        <v>L</v>
       </c>
       <c r="AD16" s="2" t="str">
-        <f>IF(AI!AE6="","",AI!AE6)</f>
-        <v/>
+        <f>IF(AI!AD12="","",AI!AD12)</f>
+        <v>W</v>
       </c>
       <c r="AE16" s="2" t="str">
-        <f>IF(AI!AF6="","",AI!AF6)</f>
-        <v/>
+        <f>IF(AI!AE12="","",AI!AE12)</f>
+        <v>L</v>
       </c>
       <c r="AF16" s="2" t="str">
-        <f>IF(AI!AG6="","",AI!AG6)</f>
-        <v/>
+        <f>IF(AI!AF12="","",AI!AF12)</f>
+        <v>W</v>
       </c>
       <c r="AG16" s="2" t="str">
-        <f>IF(AI!AH6="","",AI!AH6)</f>
-        <v/>
+        <f>IF(AI!AG12="","",AI!AG12)</f>
+        <v>L</v>
       </c>
       <c r="AH16" s="2" t="str">
-        <f>IF(AI!AI6="","",AI!AI6)</f>
-        <v/>
+        <f>IF(AI!AH12="","",AI!AH12)</f>
+        <v>L</v>
       </c>
       <c r="AI16" s="2" t="str">
-        <f>IF(AI!AJ6="","",AI!AJ6)</f>
-        <v/>
+        <f>IF(AI!AI12="","",AI!AI12)</f>
+        <v>W</v>
       </c>
       <c r="AJ16" s="2" t="str">
-        <f>IF(AI!AK6="","",AI!AK6)</f>
-        <v/>
+        <f>IF(AI!AJ12="","",AI!AJ12)</f>
+        <v>L</v>
       </c>
       <c r="AK16" s="2" t="str">
-        <f>IF(AI!AL6="","",AI!AL6)</f>
-        <v/>
+        <f>IF(AI!AK12="","",AI!AK12)</f>
+        <v>W</v>
       </c>
       <c r="AL16" s="2" t="str">
-        <f>IF(AI!AM6="","",AI!AM6)</f>
-        <v/>
+        <f>IF(AI!AL12="","",AI!AL12)</f>
+        <v>W</v>
       </c>
       <c r="AM16" s="2" t="str">
-        <f>IF(AI!AN6="","",AI!AN6)</f>
-        <v/>
+        <f>IF(AI!AM12="","",AI!AM12)</f>
+        <v>L</v>
       </c>
       <c r="AN16" s="2" t="str">
-        <f>IF(AI!AO6="","",AI!AO6)</f>
-        <v/>
+        <f>IF(AI!AN12="","",AI!AN12)</f>
+        <v>W</v>
       </c>
       <c r="AO16" s="2" t="str">
-        <f>IF(AI!AP6="","",AI!AP6)</f>
-        <v/>
+        <f>IF(AI!AO12="","",AI!AO12)</f>
+        <v>L</v>
       </c>
       <c r="AP16" s="2" t="str">
-        <f>IF(AI!AQ6="","",AI!AQ6)</f>
-        <v/>
+        <f>IF(AI!AP12="","",AI!AP12)</f>
+        <v>L</v>
       </c>
       <c r="AQ16" s="2" t="str">
-        <f>IF(AI!AR6="","",AI!AR6)</f>
-        <v/>
+        <f>IF(AI!AQ12="","",AI!AQ12)</f>
+        <v>W</v>
       </c>
       <c r="AR16" s="2" t="str">
-        <f>IF(AI!AS6="","",AI!AS6)</f>
-        <v/>
+        <f>IF(AI!AR12="","",AI!AR12)</f>
+        <v>L</v>
       </c>
       <c r="AS16" s="2" t="str">
-        <f>IF(AI!AT6="","",AI!AT6)</f>
-        <v/>
+        <f>IF(AI!AS12="","",AI!AS12)</f>
+        <v>W</v>
       </c>
       <c r="AT16" s="2" t="str">
-        <f>IF(AI!AU6="","",AI!AU6)</f>
-        <v/>
+        <f>IF(AI!AT12="","",AI!AT12)</f>
+        <v>L</v>
       </c>
       <c r="AU16" s="2" t="str">
-        <f>IF(AI!AV6="","",AI!AV6)</f>
+        <f>IF(AI!AU12="","",AI!AU12)</f>
         <v/>
       </c>
       <c r="AV16" s="2" t="str">
-        <f>IF(AI!AW6="","",AI!AW6)</f>
+        <f>IF(AI!AV12="","",AI!AV12)</f>
         <v/>
       </c>
       <c r="AW16" s="2" t="str">
-        <f>IF(AI!AX6="","",AI!AX6)</f>
+        <f>IF(AI!AW12="","",AI!AW12)</f>
         <v/>
       </c>
       <c r="AX16" s="2" t="str">
-        <f>IF(AI!AY6="","",AI!AY6)</f>
+        <f>IF(AI!AX12="","",AI!AX12)</f>
         <v/>
       </c>
       <c r="AY16" s="2" t="str">
-        <f>IF(AI!AZ6="","",AI!AZ6)</f>
+        <f>IF(AI!AY12="","",AI!AY12)</f>
         <v/>
       </c>
       <c r="AZ16" s="2" t="str">
-        <f>IF(AI!BA6="","",AI!BA6)</f>
+        <f>IF(AI!AZ12="","",AI!AZ12)</f>
         <v/>
       </c>
       <c r="BA16" s="2" t="str">
-        <f>IF(AI!BB6="","",AI!BB6)</f>
+        <f>IF(AI!BA12="","",AI!BA12)</f>
         <v/>
       </c>
       <c r="BB16" s="2" t="str">
-        <f>IF(AI!BC6="","",AI!BC6)</f>
+        <f>IF(AI!BB12="","",AI!BB12)</f>
         <v/>
       </c>
       <c r="BC16" s="2" t="str">
-        <f>IF(AI!BD6="","",AI!BD6)</f>
+        <f>IF(AI!BC12="","",AI!BC12)</f>
         <v/>
       </c>
       <c r="BD16" s="2" t="str">
-        <f>IF(AI!BE6="","",AI!BE6)</f>
+        <f>IF(AI!BD12="","",AI!BD12)</f>
         <v/>
       </c>
       <c r="BE16" s="2" t="str">
-        <f>IF(AI!BF6="","",AI!BF6)</f>
+        <f>IF(AI!BE12="","",AI!BE12)</f>
         <v/>
       </c>
       <c r="BF16" s="2" t="str">
-        <f>IF(AI!BG6="","",AI!BG6)</f>
+        <f>IF(AI!BF12="","",AI!BF12)</f>
         <v/>
       </c>
       <c r="BG16" s="2" t="str">
-        <f>IF(AI!BH6="","",AI!BH6)</f>
+        <f>IF(AI!BG12="","",AI!BG12)</f>
         <v/>
       </c>
       <c r="BH16" s="2" t="str">
-        <f>IF(AI!BI6="","",AI!BI6)</f>
+        <f>IF(AI!BH12="","",AI!BH12)</f>
         <v/>
       </c>
       <c r="BI16" s="2" t="str">
-        <f>IF(AI!BJ6="","",AI!BJ6)</f>
+        <f>IF(AI!BI12="","",AI!BI12)</f>
         <v/>
       </c>
       <c r="BJ16" s="2" t="str">
-        <f>IF(AI!BK6="","",AI!BK6)</f>
+        <f>IF(AI!BJ12="","",AI!BJ12)</f>
         <v/>
       </c>
       <c r="BK16" s="2" t="str">
-        <f>IF(AI!BL6="","",AI!BL6)</f>
+        <f>IF(AI!BK12="","",AI!BK12)</f>
         <v/>
       </c>
       <c r="BL16" s="2" t="str">
-        <f>IF(AI!BM6="","",AI!BM6)</f>
+        <f>IF(AI!BL12="","",AI!BL12)</f>
         <v/>
       </c>
       <c r="BM16" s="2" t="str">
-        <f>IF(AI!BN6="","",AI!BN6)</f>
+        <f>IF(AI!BM12="","",AI!BM12)</f>
         <v/>
       </c>
       <c r="BN16" s="2" t="str">
-        <f>IF(AI!BO6="","",AI!BO6)</f>
+        <f>IF(AI!BN12="","",AI!BN12)</f>
         <v/>
       </c>
       <c r="BO16" s="2" t="str">
-        <f>IF(AI!BP6="","",AI!BP6)</f>
+        <f>IF(AI!BO12="","",AI!BO12)</f>
         <v/>
       </c>
       <c r="BP16" s="2" t="str">
-        <f>IF(AI!BQ6="","",AI!BQ6)</f>
+        <f>IF(AI!BP12="","",AI!BP12)</f>
         <v/>
       </c>
       <c r="BQ16" s="2" t="str">
-        <f>IF(AI!BR6="","",AI!BR6)</f>
+        <f>IF(AI!BQ12="","",AI!BQ12)</f>
         <v/>
       </c>
       <c r="BR16" s="2" t="str">
-        <f>IF(AI!BS6="","",AI!BS6)</f>
+        <f>IF(AI!BR12="","",AI!BR12)</f>
         <v/>
       </c>
       <c r="BS16" s="2" t="str">
-        <f>IF(AI!BT6="","",AI!BT6)</f>
+        <f>IF(AI!BS12="","",AI!BS12)</f>
         <v/>
       </c>
       <c r="BT16" s="2" t="str">
-        <f>IF(AI!BU6="","",AI!BU6)</f>
+        <f>IF(AI!BT12="","",AI!BT12)</f>
         <v/>
       </c>
       <c r="BU16" s="2" t="str">
-        <f>IF(AI!BV6="","",AI!BV6)</f>
+        <f>IF(AI!BU12="","",AI!BU12)</f>
         <v/>
       </c>
       <c r="BV16" s="2" t="str">
-        <f>IF(AI!BW6="","",AI!BW6)</f>
+        <f>IF(AI!BV12="","",AI!BV12)</f>
         <v/>
       </c>
       <c r="BW16" s="2" t="str">
-        <f>IF(AI!BX6="","",AI!BX6)</f>
+        <f>IF(AI!BW12="","",AI!BW12)</f>
         <v/>
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -3665,522 +3635,520 @@
       <c r="BZ21" s="12"/>
       <c r="CA21" s="13"/>
     </row>
-    <row r="24" spans="1:79" ht="17.25" thickBot="1"/>
-    <row r="25" spans="1:79">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="23"/>
+    <row r="25" spans="1:79" ht="16.5" customHeight="1">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
     </row>
-    <row r="26" spans="1:79">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
+    <row r="26" spans="1:79" ht="16.5" customHeight="1">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
       <c r="AC26" s="26"/>
     </row>
-    <row r="27" spans="1:79">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
+    <row r="27" spans="1:79" ht="16.5" customHeight="1">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
       <c r="AC27" s="26"/>
     </row>
-    <row r="28" spans="1:79">
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
+    <row r="28" spans="1:79" ht="16.5" customHeight="1">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
     </row>
-    <row r="29" spans="1:79">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
+    <row r="29" spans="1:79" ht="16.5" customHeight="1">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
     </row>
-    <row r="30" spans="1:79">
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
+    <row r="30" spans="1:79" ht="16.5" customHeight="1">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
     </row>
-    <row r="31" spans="1:79">
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
+    <row r="31" spans="1:79" ht="16.5" customHeight="1">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
       <c r="AC31" s="26"/>
     </row>
-    <row r="32" spans="1:79">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
+    <row r="32" spans="1:79" ht="16.5" customHeight="1">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
       <c r="AC32" s="26"/>
     </row>
-    <row r="33" spans="2:29">
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
+    <row r="33" spans="2:29" ht="16.5" customHeight="1">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
       <c r="AC33" s="26"/>
     </row>
-    <row r="34" spans="2:29">
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
+    <row r="34" spans="2:29" ht="16.5" customHeight="1">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
       <c r="AC34" s="26"/>
     </row>
-    <row r="35" spans="2:29">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
+    <row r="35" spans="2:29" ht="16.5" customHeight="1">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
       <c r="AC35" s="26"/>
     </row>
-    <row r="36" spans="2:29">
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
+    <row r="36" spans="2:29" ht="16.5" customHeight="1">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
       <c r="AC36" s="26"/>
     </row>
-    <row r="37" spans="2:29">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
+    <row r="37" spans="2:29" ht="16.5" customHeight="1">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
       <c r="AC37" s="26"/>
     </row>
-    <row r="38" spans="2:29">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
+    <row r="38" spans="2:29" ht="16.5" customHeight="1">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
       <c r="AC38" s="26"/>
     </row>
-    <row r="39" spans="2:29">
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
+    <row r="39" spans="2:29" ht="16.5" customHeight="1">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
       <c r="AC39" s="26"/>
     </row>
-    <row r="40" spans="2:29">
-      <c r="B40" s="24"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
+    <row r="40" spans="2:29" ht="16.5" customHeight="1">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
       <c r="AC40" s="26"/>
     </row>
-    <row r="41" spans="2:29" ht="17.25" thickBot="1">
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="29"/>
+    <row r="41" spans="2:29" ht="17.25" customHeight="1">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="B14:N14"/>
-    <mergeCell ref="B25:AC41"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="B19:N19"/>
@@ -4232,10 +4200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A94236-B517-46C9-BD8E-5FE88CB87927}">
-  <dimension ref="A1:BT6"/>
+  <dimension ref="A1:BS12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
@@ -4243,513 +4211,514 @@
     <col min="1" max="16384" width="3.125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72">
+    <row r="1" spans="1:71">
       <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
+      <c r="B1" s="15">
+        <v>1</v>
+      </c>
       <c r="C1" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="15">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="15">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="15">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="15">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="15">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="15">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="15">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="15">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="15">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="15">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="15">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="15">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="15">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="15">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="15">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="15">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="15">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="15">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="15">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="15">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="15">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="15">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="15">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="15">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="15">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="15">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:71">
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="15" t="str">
+        <f>IF(DATA!B3="","",DATA!B3)</f>
+        <v>P</v>
+      </c>
       <c r="C2" s="15" t="str">
-        <f>IF(DATA!B3="","",DATA!B3)</f>
+        <f>IF(DATA!C3="","",DATA!C3)</f>
         <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
-        <f>IF(DATA!C3="","",DATA!C3)</f>
+        <f>IF(DATA!D3="","",DATA!D3)</f>
         <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
-        <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <f>IF(DATA!E3="","",DATA!E3)</f>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
-        <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <f>IF(DATA!F3="","",DATA!F3)</f>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
-        <f>IF(DATA!F3="","",DATA!F3)</f>
+        <f>IF(DATA!G3="","",DATA!G3)</f>
         <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
-        <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <f>IF(DATA!H3="","",DATA!H3)</f>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
-        <f>IF(DATA!H3="","",DATA!H3)</f>
+        <f>IF(DATA!I3="","",DATA!I3)</f>
         <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
-        <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <f>IF(DATA!J3="","",DATA!J3)</f>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
-        <f>IF(DATA!J3="","",DATA!J3)</f>
+        <f>IF(DATA!K3="","",DATA!K3)</f>
         <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
-        <f>IF(DATA!K3="","",DATA!K3)</f>
+        <f>IF(DATA!L3="","",DATA!L3)</f>
         <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
-        <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <f>IF(DATA!M3="","",DATA!M3)</f>
+        <v>P</v>
       </c>
       <c r="N2" s="15" t="str">
-        <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v/>
+        <f>IF(DATA!N3="","",DATA!N3)</f>
+        <v>P</v>
       </c>
       <c r="O2" s="15" t="str">
-        <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v/>
+        <f>IF(DATA!O3="","",DATA!O3)</f>
+        <v>B</v>
       </c>
       <c r="P2" s="15" t="str">
-        <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v/>
+        <f>IF(DATA!P3="","",DATA!P3)</f>
+        <v>B</v>
       </c>
       <c r="Q2" s="15" t="str">
-        <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v/>
+        <f>IF(DATA!Q3="","",DATA!Q3)</f>
+        <v>B</v>
       </c>
       <c r="R2" s="15" t="str">
-        <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v/>
+        <f>IF(DATA!R3="","",DATA!R3)</f>
+        <v>B</v>
       </c>
       <c r="S2" s="15" t="str">
-        <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v/>
+        <f>IF(DATA!S3="","",DATA!S3)</f>
+        <v>B</v>
       </c>
       <c r="T2" s="15" t="str">
-        <f>IF(DATA!S3="","",DATA!S3)</f>
-        <v/>
+        <f>IF(DATA!T3="","",DATA!T3)</f>
+        <v>P</v>
       </c>
       <c r="U2" s="15" t="str">
-        <f>IF(DATA!T3="","",DATA!T3)</f>
-        <v/>
+        <f>IF(DATA!U3="","",DATA!U3)</f>
+        <v>P</v>
       </c>
       <c r="V2" s="15" t="str">
-        <f>IF(DATA!U3="","",DATA!U3)</f>
-        <v/>
+        <f>IF(DATA!V3="","",DATA!V3)</f>
+        <v>P</v>
       </c>
       <c r="W2" s="15" t="str">
-        <f>IF(DATA!V3="","",DATA!V3)</f>
-        <v/>
+        <f>IF(DATA!W3="","",DATA!W3)</f>
+        <v>P</v>
       </c>
       <c r="X2" s="15" t="str">
-        <f>IF(DATA!W3="","",DATA!W3)</f>
-        <v/>
+        <f>IF(DATA!X3="","",DATA!X3)</f>
+        <v>B</v>
       </c>
       <c r="Y2" s="15" t="str">
-        <f>IF(DATA!X3="","",DATA!X3)</f>
-        <v/>
+        <f>IF(DATA!Y3="","",DATA!Y3)</f>
+        <v>B</v>
       </c>
       <c r="Z2" s="15" t="str">
-        <f>IF(DATA!Y3="","",DATA!Y3)</f>
-        <v/>
+        <f>IF(DATA!Z3="","",DATA!Z3)</f>
+        <v>B</v>
       </c>
       <c r="AA2" s="15" t="str">
-        <f>IF(DATA!Z3="","",DATA!Z3)</f>
-        <v/>
+        <f>IF(DATA!AA3="","",DATA!AA3)</f>
+        <v>B</v>
       </c>
       <c r="AB2" s="15" t="str">
-        <f>IF(DATA!AA3="","",DATA!AA3)</f>
-        <v/>
+        <f>IF(DATA!AB3="","",DATA!AB3)</f>
+        <v>P</v>
       </c>
       <c r="AC2" s="15" t="str">
-        <f>IF(DATA!AB3="","",DATA!AB3)</f>
-        <v/>
+        <f>IF(DATA!AC3="","",DATA!AC3)</f>
+        <v>B</v>
       </c>
       <c r="AD2" s="15" t="str">
-        <f>IF(DATA!AC3="","",DATA!AC3)</f>
-        <v/>
+        <f>IF(DATA!AD3="","",DATA!AD3)</f>
+        <v>P</v>
       </c>
       <c r="AE2" s="15" t="str">
-        <f>IF(DATA!AD3="","",DATA!AD3)</f>
-        <v/>
+        <f>IF(DATA!AE3="","",DATA!AE3)</f>
+        <v>B</v>
       </c>
       <c r="AF2" s="15" t="str">
-        <f>IF(DATA!AE3="","",DATA!AE3)</f>
-        <v/>
+        <f>IF(DATA!AF3="","",DATA!AF3)</f>
+        <v>B</v>
       </c>
       <c r="AG2" s="15" t="str">
-        <f>IF(DATA!AF3="","",DATA!AF3)</f>
-        <v/>
+        <f>IF(DATA!AG3="","",DATA!AG3)</f>
+        <v>B</v>
       </c>
       <c r="AH2" s="15" t="str">
-        <f>IF(DATA!AG3="","",DATA!AG3)</f>
-        <v/>
+        <f>IF(DATA!AH3="","",DATA!AH3)</f>
+        <v>P</v>
       </c>
       <c r="AI2" s="15" t="str">
-        <f>IF(DATA!AH3="","",DATA!AH3)</f>
-        <v/>
+        <f>IF(DATA!AI3="","",DATA!AI3)</f>
+        <v>P</v>
       </c>
       <c r="AJ2" s="15" t="str">
-        <f>IF(DATA!AI3="","",DATA!AI3)</f>
-        <v/>
+        <f>IF(DATA!AJ3="","",DATA!AJ3)</f>
+        <v>P</v>
       </c>
       <c r="AK2" s="15" t="str">
-        <f>IF(DATA!AJ3="","",DATA!AJ3)</f>
-        <v/>
+        <f>IF(DATA!AK3="","",DATA!AK3)</f>
+        <v>P</v>
       </c>
       <c r="AL2" s="15" t="str">
-        <f>IF(DATA!AK3="","",DATA!AK3)</f>
-        <v/>
+        <f>IF(DATA!AL3="","",DATA!AL3)</f>
+        <v>B</v>
       </c>
       <c r="AM2" s="15" t="str">
-        <f>IF(DATA!AL3="","",DATA!AL3)</f>
-        <v/>
+        <f>IF(DATA!AM3="","",DATA!AM3)</f>
+        <v>P</v>
       </c>
       <c r="AN2" s="15" t="str">
-        <f>IF(DATA!AM3="","",DATA!AM3)</f>
-        <v/>
+        <f>IF(DATA!AN3="","",DATA!AN3)</f>
+        <v>B</v>
       </c>
       <c r="AO2" s="15" t="str">
-        <f>IF(DATA!AN3="","",DATA!AN3)</f>
-        <v/>
+        <f>IF(DATA!AO3="","",DATA!AO3)</f>
+        <v>P</v>
       </c>
       <c r="AP2" s="15" t="str">
-        <f>IF(DATA!AO3="","",DATA!AO3)</f>
-        <v/>
+        <f>IF(DATA!AP3="","",DATA!AP3)</f>
+        <v>B</v>
       </c>
       <c r="AQ2" s="15" t="str">
-        <f>IF(DATA!AP3="","",DATA!AP3)</f>
-        <v/>
+        <f>IF(DATA!AQ3="","",DATA!AQ3)</f>
+        <v>B</v>
       </c>
       <c r="AR2" s="15" t="str">
-        <f>IF(DATA!AQ3="","",DATA!AQ3)</f>
-        <v/>
+        <f>IF(DATA!AR3="","",DATA!AR3)</f>
+        <v>P</v>
       </c>
       <c r="AS2" s="15" t="str">
-        <f>IF(DATA!AR3="","",DATA!AR3)</f>
-        <v/>
+        <f>IF(DATA!AS3="","",DATA!AS3)</f>
+        <v>P</v>
       </c>
       <c r="AT2" s="15" t="str">
-        <f>IF(DATA!AS3="","",DATA!AS3)</f>
-        <v/>
+        <f>IF(DATA!AT3="","",DATA!AT3)</f>
+        <v>B</v>
       </c>
       <c r="AU2" s="15" t="str">
-        <f>IF(DATA!AT3="","",DATA!AT3)</f>
+        <f>IF(DATA!AU3="","",DATA!AU3)</f>
         <v/>
       </c>
       <c r="AV2" s="15" t="str">
-        <f>IF(DATA!AU3="","",DATA!AU3)</f>
+        <f>IF(DATA!AV3="","",DATA!AV3)</f>
         <v/>
       </c>
       <c r="AW2" s="15" t="str">
-        <f>IF(DATA!AV3="","",DATA!AV3)</f>
+        <f>IF(DATA!AW3="","",DATA!AW3)</f>
         <v/>
       </c>
       <c r="AX2" s="15" t="str">
-        <f>IF(DATA!AW3="","",DATA!AW3)</f>
+        <f>IF(DATA!AX3="","",DATA!AX3)</f>
         <v/>
       </c>
       <c r="AY2" s="15" t="str">
-        <f>IF(DATA!AX3="","",DATA!AX3)</f>
+        <f>IF(DATA!AY3="","",DATA!AY3)</f>
         <v/>
       </c>
       <c r="AZ2" s="15" t="str">
-        <f>IF(DATA!AY3="","",DATA!AY3)</f>
+        <f>IF(DATA!AZ3="","",DATA!AZ3)</f>
         <v/>
       </c>
       <c r="BA2" s="15" t="str">
-        <f>IF(DATA!AZ3="","",DATA!AZ3)</f>
+        <f>IF(DATA!BA3="","",DATA!BA3)</f>
         <v/>
       </c>
       <c r="BB2" s="15" t="str">
-        <f>IF(DATA!BA3="","",DATA!BA3)</f>
+        <f>IF(DATA!BB3="","",DATA!BB3)</f>
         <v/>
       </c>
       <c r="BC2" s="15" t="str">
-        <f>IF(DATA!BB3="","",DATA!BB3)</f>
+        <f>IF(DATA!BC3="","",DATA!BC3)</f>
         <v/>
       </c>
       <c r="BD2" s="15" t="str">
-        <f>IF(DATA!BC3="","",DATA!BC3)</f>
+        <f>IF(DATA!BD3="","",DATA!BD3)</f>
         <v/>
       </c>
       <c r="BE2" s="15" t="str">
-        <f>IF(DATA!BD3="","",DATA!BD3)</f>
+        <f>IF(DATA!BE3="","",DATA!BE3)</f>
         <v/>
       </c>
       <c r="BF2" s="15" t="str">
-        <f>IF(DATA!BE3="","",DATA!BE3)</f>
+        <f>IF(DATA!BF3="","",DATA!BF3)</f>
         <v/>
       </c>
       <c r="BG2" s="15" t="str">
-        <f>IF(DATA!BF3="","",DATA!BF3)</f>
+        <f>IF(DATA!BG3="","",DATA!BG3)</f>
         <v/>
       </c>
       <c r="BH2" s="15" t="str">
-        <f>IF(DATA!BG3="","",DATA!BG3)</f>
+        <f>IF(DATA!BH3="","",DATA!BH3)</f>
         <v/>
       </c>
       <c r="BI2" s="15" t="str">
-        <f>IF(DATA!BH3="","",DATA!BH3)</f>
+        <f>IF(DATA!BI3="","",DATA!BI3)</f>
         <v/>
       </c>
       <c r="BJ2" s="15" t="str">
-        <f>IF(DATA!BI3="","",DATA!BI3)</f>
+        <f>IF(DATA!BJ3="","",DATA!BJ3)</f>
         <v/>
       </c>
       <c r="BK2" s="15" t="str">
-        <f>IF(DATA!BJ3="","",DATA!BJ3)</f>
+        <f>IF(DATA!BK3="","",DATA!BK3)</f>
         <v/>
       </c>
       <c r="BL2" s="15" t="str">
-        <f>IF(DATA!BK3="","",DATA!BK3)</f>
+        <f>IF(DATA!BL3="","",DATA!BL3)</f>
         <v/>
       </c>
       <c r="BM2" s="15" t="str">
-        <f>IF(DATA!BL3="","",DATA!BL3)</f>
+        <f>IF(DATA!BM3="","",DATA!BM3)</f>
         <v/>
       </c>
       <c r="BN2" s="15" t="str">
-        <f>IF(DATA!BM3="","",DATA!BM3)</f>
+        <f>IF(DATA!BN3="","",DATA!BN3)</f>
         <v/>
       </c>
       <c r="BO2" s="15" t="str">
-        <f>IF(DATA!BN3="","",DATA!BN3)</f>
+        <f>IF(DATA!BO3="","",DATA!BO3)</f>
         <v/>
       </c>
       <c r="BP2" s="15" t="str">
-        <f>IF(DATA!BO3="","",DATA!BO3)</f>
+        <f>IF(DATA!BP3="","",DATA!BP3)</f>
         <v/>
       </c>
       <c r="BQ2" s="15" t="str">
-        <f>IF(DATA!BP3="","",DATA!BP3)</f>
+        <f>IF(DATA!BQ3="","",DATA!BQ3)</f>
         <v/>
       </c>
       <c r="BR2" s="15" t="str">
-        <f>IF(DATA!BQ3="","",DATA!BQ3)</f>
+        <f>IF(DATA!BR3="","",DATA!BR3)</f>
         <v/>
       </c>
       <c r="BS2" s="15" t="str">
-        <f>IF(DATA!BR3="","",DATA!BR3)</f>
-        <v/>
-      </c>
-      <c r="BT2" s="15" t="str">
         <f>IF(DATA!BS3="","",DATA!BS3)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:71">
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="C3" s="15" t="str">
+        <f>IF(B2="","","N")</f>
+        <v>N</v>
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
@@ -4760,26 +4729,28 @@
         <v>N</v>
       </c>
       <c r="F3" s="15" t="str">
-        <f>IF(E2="","","N")</f>
-        <v>N</v>
+        <f>IF(E2="","",
+IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
+IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
+        <v>B</v>
       </c>
       <c r="G3" s="15" t="str">
-        <f t="shared" ref="G3:AL3" si="0">IF(F2="","",
-IF(AND(F3="N",C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
-IF(AND(F3="N",F3=F2),"N",IF(C2=D2,F2,IF(F2="P","B","P")))))</f>
-        <v>B</v>
+        <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
+IF(AND(C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
+IF(C2=D2,F2,IF(F2="P","B","P"))))</f>
+        <v>P</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4787,11 +4758,11 @@
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4799,1122 +4770,3440 @@
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="V3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="W3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="X3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Y3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Z3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="AA3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="AB3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="AC3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="AD3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="AE3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="AF3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="AG3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="AH3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="AI3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="AJ3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="AK3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="AL3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="AM3" s="15" t="str">
-        <f t="shared" ref="AM3:BR3" si="1">IF(AL2="","",
-IF(AND(AL3="N",AI2&lt;&gt;AJ2,AJ2=AK2),IF(AI2=AJ2,AL2,IF(AI2&lt;&gt;AJ2,IF(AL2="P","B","P"))),
-IF(AND(AL3="N",AL3=AL2),"N",IF(AI2=AJ2,AL2,IF(AL2="P","B","P")))))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>B</v>
       </c>
       <c r="AN3" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>P</v>
       </c>
       <c r="AO3" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>P</v>
       </c>
       <c r="AP3" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>B</v>
       </c>
       <c r="AQ3" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>P</v>
       </c>
       <c r="AR3" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>P</v>
       </c>
       <c r="AS3" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>B</v>
       </c>
       <c r="AT3" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>P</v>
       </c>
       <c r="AU3" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>P</v>
       </c>
       <c r="AV3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AW3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AX3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AY3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AZ3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BA3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BB3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BC3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BD3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BE3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BF3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BG3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BH3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BI3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BJ3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BK3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BL3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BM3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BN3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BO3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BP3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BQ3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BR3" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="BS3" s="15" t="str">
-        <f t="shared" ref="BS3:BT3" si="2">IF(BR2="","",
-IF(AND(BR3="N",BO2&lt;&gt;BP2,BP2=BQ2),IF(BO2=BP2,BR2,IF(BO2&lt;&gt;BP2,IF(BR2="P","B","P"))),
-IF(AND(BR3="N",BR3=BR2),"N",IF(BO2=BP2,BR2,IF(BR2="P","B","P")))))</f>
-        <v/>
-      </c>
-      <c r="BT3" s="15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="BS3" si="1">IF(BR2="","",
+IF(AND(BO2&lt;&gt;BP2,BP2=BQ2),IF(BO2=BP2,BR2,IF(BO2&lt;&gt;BP2,IF(BR2="P","B","P"))),
+IF(BO2=BP2,BR2,IF(BR2="P","B","P"))))</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:71">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="15" t="str">
+        <f>IF(B$2="","",
+IF(B3="N","N",
+IF(B$2=B3,"W","L")))</f>
+        <v>N</v>
+      </c>
       <c r="C4" s="15" t="str">
-        <f t="shared" ref="C4:AH4" si="3">IF(C2="","",
+        <f t="shared" ref="C4:BN4" si="2">IF(C$2="","",
 IF(C3="N","N",
-IF(C2=C3,"W","L")))</f>
+IF(C$2=C3,"W","L")))</f>
         <v>N</v>
       </c>
       <c r="D4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>N</v>
+      </c>
+      <c r="E4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>N</v>
+      </c>
+      <c r="F4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="G4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="H4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="I4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="J4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="K4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="L4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="M4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="N4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="O4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="P4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="Q4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="R4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="S4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="T4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="U4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="V4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="W4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="X4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="Y4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="Z4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AA4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AB4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AC4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AD4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AE4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AF4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AG4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AH4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AI4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AJ4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AK4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AL4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AM4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AN4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AO4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AP4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AQ4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AR4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="AS4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AT4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>L</v>
+      </c>
+      <c r="AU4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AV4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AW4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AX4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AY4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AZ4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BA4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BB4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BC4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BD4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BE4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BF4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BG4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BH4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BI4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BJ4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BK4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BL4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BM4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BN4" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="BO4" s="15" t="str">
+        <f t="shared" ref="BO4:BS4" si="3">IF(BO$2="","",
+IF(BO3="N","N",
+IF(BO$2=BO3,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BP4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
-      </c>
-      <c r="E4" s="15" t="str">
+        <v/>
+      </c>
+      <c r="BQ4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
-      </c>
-      <c r="F4" s="15" t="str">
+        <v/>
+      </c>
+      <c r="BR4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>N</v>
-      </c>
-      <c r="G4" s="15" t="str">
+        <v/>
+      </c>
+      <c r="BS4" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="H4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>L</v>
-      </c>
-      <c r="I4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>L</v>
-      </c>
-      <c r="J4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="K4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="L4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="M4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>W</v>
-      </c>
-      <c r="N4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="T4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="U4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="V4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="W4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="X4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Y4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Z4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AA4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AB4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AD4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AE4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AF4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AG4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AH4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AI4" s="15" t="str">
-        <f t="shared" ref="AI4:BN4" si="4">IF(AI2="","",
-IF(AI3="N","N",
-IF(AI2=AI3,"W","L")))</f>
-        <v/>
-      </c>
-      <c r="AJ4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AK4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AL4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AM4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AN4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AO4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AP4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AQ4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AR4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AS4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AT4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AU4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AV4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AW4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AX4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AY4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AZ4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BA4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BB4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BC4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BD4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BE4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BF4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BG4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BH4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BI4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BJ4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BK4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BL4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BM4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BN4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="BO4" s="15" t="str">
-        <f t="shared" ref="BO4:BT4" si="5">IF(BO2="","",
-IF(BO3="N","N",
-IF(BO2=BO3,"W","L")))</f>
-        <v/>
-      </c>
-      <c r="BP4" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BQ4" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BR4" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BS4" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BT4" s="15" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:71">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="15" t="str">
+        <f>IF(B3="","","N")</f>
+        <v>N</v>
+      </c>
       <c r="C5" s="15" t="str">
-        <f>IF(C3="","","N")</f>
+        <f t="shared" ref="C5:G5" si="4">IF(C3="","","N")</f>
         <v>N</v>
       </c>
       <c r="D5" s="15" t="str">
-        <f t="shared" ref="D5:H5" si="6">IF(D3="","","N")</f>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="E5" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="F5" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
       <c r="G5" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>N</v>
       </c>
-      <c r="H5" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>N</v>
+      <c r="H5" s="17" t="str">
+        <f t="shared" ref="H5:K5" si="5">IF(H3="","",
+IF(H3="N","N",
+IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
+IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
+        <v>P</v>
       </c>
       <c r="I5" s="17" t="str">
-        <f t="shared" ref="I5:L5" si="7">IF(I3="","",
-IF(I3="N","N",
-IF(COUNTIF(E4:H4,"W")&gt;=2,I3,
-IF(COUNTIF(E4:H4,"W")&lt;2,IF(I3="P","B","P")))))</f>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>P</v>
       </c>
       <c r="J5" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>B</v>
       </c>
       <c r="K5" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>P</v>
       </c>
       <c r="L5" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>P</v>
+        <f>IF(L3="","",
+IF(L3="N","N",
+IF(COUNTIF(H4:K4,"W")&gt;=2,L3,
+IF(COUNTIF(H4:K4,"W")&lt;2,IF(L3="P","B","P")))))</f>
+        <v>B</v>
       </c>
       <c r="M5" s="17" t="str">
-        <f>IF(M3="","",
+        <f t="shared" ref="M5:BS5" si="6">IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N5" s="17" t="str">
-        <f t="shared" ref="N5:BT5" si="8">IF(N3="","",
-IF(N3="N","N",
-IF(COUNTIF(J4:M4,"W")&gt;=2,N3,
-IF(COUNTIF(J4:M4,"W")&lt;2,IF(N3="P","B","P")))))</f>
+        <f t="shared" si="6"/>
         <v>B</v>
       </c>
       <c r="O5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="P5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="Q5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="R5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="S5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="T5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="U5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="V5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="W5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="X5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="Y5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="Z5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AA5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AB5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AC5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AD5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AE5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AF5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AG5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AH5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AI5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AJ5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AK5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AL5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AM5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AN5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AO5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AP5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AQ5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AR5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AS5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AT5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>P</v>
       </c>
       <c r="AU5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="AV5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BD5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BE5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BG5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BH5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BI5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BJ5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BK5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BL5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BM5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BN5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BO5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BP5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BQ5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BR5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BS5" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="BT5" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:71">
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="15" t="str">
+        <f>IF(B$2="","",
+IF(B5="N","N",
+IF(B$2=B5,"W","L")))</f>
+        <v>N</v>
+      </c>
       <c r="C6" s="15" t="str">
-        <f t="shared" ref="C6:AH6" si="9">IF(C2="","",
+        <f t="shared" ref="C6:BN6" si="7">IF(C$2="","",
 IF(C5="N","N",
-IF(C2=C5,"W","L")))</f>
+IF(C$2=C5,"W","L")))</f>
         <v>N</v>
       </c>
       <c r="D6" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="E6" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="F6" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="G6" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="H6" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="I6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="J6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="K6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="L6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="M6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="N6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="O6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="P6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="Q6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="R6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="S6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="T6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="U6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="V6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="W6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="X6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="Y6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="Z6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="AA6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AB6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AC6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AD6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="AE6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AF6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="AG6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="AH6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AI6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="AJ6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="AK6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AL6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AM6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AN6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="AO6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AP6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AQ6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AR6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>W</v>
+      </c>
+      <c r="AS6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AT6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v>L</v>
+      </c>
+      <c r="AU6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AV6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AW6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AY6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AZ6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BA6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BB6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BC6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BD6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BE6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BF6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BG6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BH6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BI6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BJ6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BK6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BL6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BM6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BN6" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BO6" s="15" t="str">
+        <f t="shared" ref="BO6:BR6" si="8">IF(BO$2="","",
+IF(BO5="N","N",
+IF(BO$2=BO5,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BP6" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BQ6" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BR6" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BS6" s="15" t="str">
+        <f t="shared" ref="BS6" si="9">IF(BS2="","",
+IF(BS5="N","N",
+IF(BS2=BS5,"W","L")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:71">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="str">
+        <f>IF(B5="","",B5)</f>
         <v>N</v>
       </c>
-      <c r="I6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>W</v>
-      </c>
-      <c r="J6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>L</v>
-      </c>
-      <c r="K6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>W</v>
-      </c>
-      <c r="L6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>W</v>
-      </c>
-      <c r="M6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>W</v>
-      </c>
-      <c r="N6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="S6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="U6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="V6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="W6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="X6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Y6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Z6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AA6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AB6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AC6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AD6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AE6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AF6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AG6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AH6" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AI6" s="15" t="str">
-        <f t="shared" ref="AI6:BN6" si="10">IF(AI2="","",
-IF(AI5="N","N",
-IF(AI2=AI5,"W","L")))</f>
-        <v/>
-      </c>
-      <c r="AJ6" s="15" t="str">
+      <c r="C7" s="15" t="str">
+        <f t="shared" ref="C7:H7" si="10">IF(C5="","",C5)</f>
+        <v>N</v>
+      </c>
+      <c r="D7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AK6" s="15" t="str">
+        <v>N</v>
+      </c>
+      <c r="E7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AL6" s="15" t="str">
+        <v>N</v>
+      </c>
+      <c r="F7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AM6" s="15" t="str">
+        <v>N</v>
+      </c>
+      <c r="G7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AN6" s="15" t="str">
+        <v>N</v>
+      </c>
+      <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AO6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AQ6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AR6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AS6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AT6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AU6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AV6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AW6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AX6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AY6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AZ6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BA6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BB6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BC6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BD6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BE6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BF6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BG6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BH6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BI6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BJ6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BK6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BL6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BM6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BN6" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BO6" s="15" t="str">
-        <f t="shared" ref="BO6:BT6" si="11">IF(BO2="","",
-IF(BO5="N","N",
-IF(BO2=BO5,"W","L")))</f>
-        <v/>
-      </c>
-      <c r="BP6" s="15" t="str">
+        <v>P</v>
+      </c>
+      <c r="I7" s="17" t="str">
+        <f>IF(I5="","",
+IF(I5="N","N",
+IF(H6="W",I5,
+IF(H6="L",IF(I5="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="J7" s="17" t="str">
+        <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
+IF(J5="N","N",
+IF(I6="W",J5,
+IF(I6="L",IF(J5="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BQ6" s="15" t="str">
+        <v>P</v>
+      </c>
+      <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BR6" s="15" t="str">
+        <v>B</v>
+      </c>
+      <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BS6" s="15" t="str">
+        <v>B</v>
+      </c>
+      <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BT6" s="15" t="str">
+        <v>B</v>
+      </c>
+      <c r="O7" s="17" t="str">
         <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="P7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="Q7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="R7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="S7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="T7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="U7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="V7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="W7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="X7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="Y7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="Z7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AA7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="AB7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="AC7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AD7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AE7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="AF7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="AG7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AH7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AI7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AJ7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="AK7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AL7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AM7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="AN7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="AO7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AP7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AQ7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AR7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AS7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AT7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AU7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="AV7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AW7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AX7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AY7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BA7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BB7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BC7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BD7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BF7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BG7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BH7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BI7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BJ7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BK7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BL7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BM7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BN7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BO7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BP7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BQ7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BR7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BS7" s="17" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:71">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="str">
+        <f>IF(B$2="","",
+IF(B7="N","N",
+IF(B$2=B7,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="C8" s="15" t="str">
+        <f t="shared" ref="C8" si="12">IF(C$2="","",
+IF(C7="N","N",
+IF(C$2=C7,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f t="shared" ref="D8" si="13">IF(D$2="","",
+IF(D7="N","N",
+IF(D$2=D7,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="E8" s="15" t="str">
+        <f t="shared" ref="E8" si="14">IF(E$2="","",
+IF(E7="N","N",
+IF(E$2=E7,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="F8" s="15" t="str">
+        <f t="shared" ref="F8" si="15">IF(F$2="","",
+IF(F7="N","N",
+IF(F$2=F7,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="G8" s="15" t="str">
+        <f t="shared" ref="G8" si="16">IF(G$2="","",
+IF(G7="N","N",
+IF(G$2=G7,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="H8" s="15" t="str">
+        <f t="shared" ref="H8" si="17">IF(H$2="","",
+IF(H7="N","N",
+IF(H$2=H7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="I8" s="15" t="str">
+        <f t="shared" ref="I8" si="18">IF(I$2="","",
+IF(I7="N","N",
+IF(I$2=I7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="J8" s="15" t="str">
+        <f t="shared" ref="J8" si="19">IF(J$2="","",
+IF(J7="N","N",
+IF(J$2=J7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="K8" s="15" t="str">
+        <f t="shared" ref="K8" si="20">IF(K$2="","",
+IF(K7="N","N",
+IF(K$2=K7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="L8" s="15" t="str">
+        <f t="shared" ref="L8" si="21">IF(L$2="","",
+IF(L7="N","N",
+IF(L$2=L7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="M8" s="15" t="str">
+        <f t="shared" ref="M8" si="22">IF(M$2="","",
+IF(M7="N","N",
+IF(M$2=M7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="N8" s="15" t="str">
+        <f t="shared" ref="N8" si="23">IF(N$2="","",
+IF(N7="N","N",
+IF(N$2=N7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="O8" s="15" t="str">
+        <f t="shared" ref="O8" si="24">IF(O$2="","",
+IF(O7="N","N",
+IF(O$2=O7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="P8" s="15" t="str">
+        <f t="shared" ref="P8" si="25">IF(P$2="","",
+IF(P7="N","N",
+IF(P$2=P7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="Q8" s="15" t="str">
+        <f t="shared" ref="Q8" si="26">IF(Q$2="","",
+IF(Q7="N","N",
+IF(Q$2=Q7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="R8" s="15" t="str">
+        <f t="shared" ref="R8" si="27">IF(R$2="","",
+IF(R7="N","N",
+IF(R$2=R7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="S8" s="15" t="str">
+        <f t="shared" ref="S8" si="28">IF(S$2="","",
+IF(S7="N","N",
+IF(S$2=S7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="T8" s="15" t="str">
+        <f t="shared" ref="T8" si="29">IF(T$2="","",
+IF(T7="N","N",
+IF(T$2=T7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="U8" s="15" t="str">
+        <f t="shared" ref="U8" si="30">IF(U$2="","",
+IF(U7="N","N",
+IF(U$2=U7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="V8" s="15" t="str">
+        <f t="shared" ref="V8" si="31">IF(V$2="","",
+IF(V7="N","N",
+IF(V$2=V7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="W8" s="15" t="str">
+        <f t="shared" ref="W8" si="32">IF(W$2="","",
+IF(W7="N","N",
+IF(W$2=W7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="X8" s="15" t="str">
+        <f t="shared" ref="X8" si="33">IF(X$2="","",
+IF(X7="N","N",
+IF(X$2=X7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="Y8" s="15" t="str">
+        <f t="shared" ref="Y8" si="34">IF(Y$2="","",
+IF(Y7="N","N",
+IF(Y$2=Y7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="Z8" s="15" t="str">
+        <f t="shared" ref="Z8" si="35">IF(Z$2="","",
+IF(Z7="N","N",
+IF(Z$2=Z7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AA8" s="15" t="str">
+        <f t="shared" ref="AA8" si="36">IF(AA$2="","",
+IF(AA7="N","N",
+IF(AA$2=AA7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AB8" s="15" t="str">
+        <f t="shared" ref="AB8" si="37">IF(AB$2="","",
+IF(AB7="N","N",
+IF(AB$2=AB7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AC8" s="15" t="str">
+        <f t="shared" ref="AC8" si="38">IF(AC$2="","",
+IF(AC7="N","N",
+IF(AC$2=AC7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AD8" s="15" t="str">
+        <f t="shared" ref="AD8" si="39">IF(AD$2="","",
+IF(AD7="N","N",
+IF(AD$2=AD7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AE8" s="15" t="str">
+        <f t="shared" ref="AE8" si="40">IF(AE$2="","",
+IF(AE7="N","N",
+IF(AE$2=AE7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AF8" s="15" t="str">
+        <f t="shared" ref="AF8" si="41">IF(AF$2="","",
+IF(AF7="N","N",
+IF(AF$2=AF7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AG8" s="15" t="str">
+        <f t="shared" ref="AG8" si="42">IF(AG$2="","",
+IF(AG7="N","N",
+IF(AG$2=AG7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AH8" s="15" t="str">
+        <f t="shared" ref="AH8" si="43">IF(AH$2="","",
+IF(AH7="N","N",
+IF(AH$2=AH7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AI8" s="15" t="str">
+        <f t="shared" ref="AI8" si="44">IF(AI$2="","",
+IF(AI7="N","N",
+IF(AI$2=AI7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AJ8" s="15" t="str">
+        <f t="shared" ref="AJ8" si="45">IF(AJ$2="","",
+IF(AJ7="N","N",
+IF(AJ$2=AJ7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AK8" s="15" t="str">
+        <f t="shared" ref="AK8" si="46">IF(AK$2="","",
+IF(AK7="N","N",
+IF(AK$2=AK7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AL8" s="15" t="str">
+        <f t="shared" ref="AL8" si="47">IF(AL$2="","",
+IF(AL7="N","N",
+IF(AL$2=AL7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AM8" s="15" t="str">
+        <f t="shared" ref="AM8" si="48">IF(AM$2="","",
+IF(AM7="N","N",
+IF(AM$2=AM7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AN8" s="15" t="str">
+        <f t="shared" ref="AN8" si="49">IF(AN$2="","",
+IF(AN7="N","N",
+IF(AN$2=AN7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AO8" s="15" t="str">
+        <f t="shared" ref="AO8" si="50">IF(AO$2="","",
+IF(AO7="N","N",
+IF(AO$2=AO7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AP8" s="15" t="str">
+        <f t="shared" ref="AP8" si="51">IF(AP$2="","",
+IF(AP7="N","N",
+IF(AP$2=AP7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AQ8" s="15" t="str">
+        <f t="shared" ref="AQ8" si="52">IF(AQ$2="","",
+IF(AQ7="N","N",
+IF(AQ$2=AQ7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AR8" s="15" t="str">
+        <f t="shared" ref="AR8" si="53">IF(AR$2="","",
+IF(AR7="N","N",
+IF(AR$2=AR7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AS8" s="15" t="str">
+        <f t="shared" ref="AS8" si="54">IF(AS$2="","",
+IF(AS7="N","N",
+IF(AS$2=AS7,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AT8" s="15" t="str">
+        <f t="shared" ref="AT8" si="55">IF(AT$2="","",
+IF(AT7="N","N",
+IF(AT$2=AT7,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AU8" s="15" t="str">
+        <f t="shared" ref="AU8" si="56">IF(AU$2="","",
+IF(AU7="N","N",
+IF(AU$2=AU7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AV8" s="15" t="str">
+        <f t="shared" ref="AV8" si="57">IF(AV$2="","",
+IF(AV7="N","N",
+IF(AV$2=AV7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AW8" s="15" t="str">
+        <f t="shared" ref="AW8" si="58">IF(AW$2="","",
+IF(AW7="N","N",
+IF(AW$2=AW7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AX8" s="15" t="str">
+        <f t="shared" ref="AX8" si="59">IF(AX$2="","",
+IF(AX7="N","N",
+IF(AX$2=AX7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AY8" s="15" t="str">
+        <f t="shared" ref="AY8" si="60">IF(AY$2="","",
+IF(AY7="N","N",
+IF(AY$2=AY7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AZ8" s="15" t="str">
+        <f t="shared" ref="AZ8" si="61">IF(AZ$2="","",
+IF(AZ7="N","N",
+IF(AZ$2=AZ7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BA8" s="15" t="str">
+        <f t="shared" ref="BA8" si="62">IF(BA$2="","",
+IF(BA7="N","N",
+IF(BA$2=BA7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BB8" s="15" t="str">
+        <f t="shared" ref="BB8" si="63">IF(BB$2="","",
+IF(BB7="N","N",
+IF(BB$2=BB7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BC8" s="15" t="str">
+        <f t="shared" ref="BC8" si="64">IF(BC$2="","",
+IF(BC7="N","N",
+IF(BC$2=BC7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BD8" s="15" t="str">
+        <f t="shared" ref="BD8" si="65">IF(BD$2="","",
+IF(BD7="N","N",
+IF(BD$2=BD7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BE8" s="15" t="str">
+        <f t="shared" ref="BE8" si="66">IF(BE$2="","",
+IF(BE7="N","N",
+IF(BE$2=BE7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BF8" s="15" t="str">
+        <f t="shared" ref="BF8" si="67">IF(BF$2="","",
+IF(BF7="N","N",
+IF(BF$2=BF7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BG8" s="15" t="str">
+        <f t="shared" ref="BG8" si="68">IF(BG$2="","",
+IF(BG7="N","N",
+IF(BG$2=BG7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BH8" s="15" t="str">
+        <f t="shared" ref="BH8" si="69">IF(BH$2="","",
+IF(BH7="N","N",
+IF(BH$2=BH7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BI8" s="15" t="str">
+        <f t="shared" ref="BI8" si="70">IF(BI$2="","",
+IF(BI7="N","N",
+IF(BI$2=BI7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BJ8" s="15" t="str">
+        <f t="shared" ref="BJ8" si="71">IF(BJ$2="","",
+IF(BJ7="N","N",
+IF(BJ$2=BJ7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BK8" s="15" t="str">
+        <f t="shared" ref="BK8" si="72">IF(BK$2="","",
+IF(BK7="N","N",
+IF(BK$2=BK7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BL8" s="15" t="str">
+        <f t="shared" ref="BL8" si="73">IF(BL$2="","",
+IF(BL7="N","N",
+IF(BL$2=BL7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BM8" s="15" t="str">
+        <f t="shared" ref="BM8" si="74">IF(BM$2="","",
+IF(BM7="N","N",
+IF(BM$2=BM7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BN8" s="15" t="str">
+        <f t="shared" ref="BN8" si="75">IF(BN$2="","",
+IF(BN7="N","N",
+IF(BN$2=BN7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BO8" s="15" t="str">
+        <f t="shared" ref="BO8" si="76">IF(BO$2="","",
+IF(BO7="N","N",
+IF(BO$2=BO7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BP8" s="15" t="str">
+        <f t="shared" ref="BP8" si="77">IF(BP$2="","",
+IF(BP7="N","N",
+IF(BP$2=BP7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BQ8" s="15" t="str">
+        <f t="shared" ref="BQ8" si="78">IF(BQ$2="","",
+IF(BQ7="N","N",
+IF(BQ$2=BQ7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BR8" s="15" t="str">
+        <f t="shared" ref="BR8" si="79">IF(BR$2="","",
+IF(BR7="N","N",
+IF(BR$2=BR7,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BS8" s="15" t="str">
+        <f t="shared" ref="BS8" si="80">IF(BS4="","",
+IF(BS7="N","N",
+IF(BS4=BS7,"W","L")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:71">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="str">
+        <f>IF(B7="","",B7)</f>
+        <v>N</v>
+      </c>
+      <c r="C9" s="15" t="str">
+        <f t="shared" ref="C9:I9" si="81">IF(C7="","",C7)</f>
+        <v>N</v>
+      </c>
+      <c r="D9" s="15" t="str">
+        <f t="shared" si="81"/>
+        <v>N</v>
+      </c>
+      <c r="E9" s="15" t="str">
+        <f t="shared" si="81"/>
+        <v>N</v>
+      </c>
+      <c r="F9" s="15" t="str">
+        <f t="shared" si="81"/>
+        <v>N</v>
+      </c>
+      <c r="G9" s="15" t="str">
+        <f t="shared" si="81"/>
+        <v>N</v>
+      </c>
+      <c r="H9" s="15" t="str">
+        <f t="shared" si="81"/>
+        <v>P</v>
+      </c>
+      <c r="I9" s="15" t="str">
+        <f t="shared" si="81"/>
+        <v>P</v>
+      </c>
+      <c r="J9" s="17" t="str">
+        <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
+IF(J7="N","N",
+IF(I8="W",J7,
+IF(I8="L",IF(J7="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="K9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="L9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="M9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="N9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="O9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="P9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="Q9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="R9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="S9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="T9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="U9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="V9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="W9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="X9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="Y9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="Z9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AA9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AB9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="AC9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="AD9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="AE9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="AF9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="AG9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AH9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="AI9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AJ9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="AK9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="AL9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AM9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AN9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AO9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AP9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AQ9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="AR9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>B</v>
+      </c>
+      <c r="AS9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AT9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AU9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v>P</v>
+      </c>
+      <c r="AV9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AW9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AX9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AY9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AZ9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BA9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BB9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BC9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BD9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BE9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BF9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BG9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BH9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BI9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BJ9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BK9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BL9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BM9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BN9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BO9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BP9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BQ9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BR9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="BS9" s="17" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:71">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="str">
+        <f>IF(B$2="","",
+IF(B9="N","N",
+IF(B$2=B9,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="C10" s="15" t="str">
+        <f t="shared" ref="C10" si="83">IF(C$2="","",
+IF(C9="N","N",
+IF(C$2=C9,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <f t="shared" ref="D10" si="84">IF(D$2="","",
+IF(D9="N","N",
+IF(D$2=D9,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="E10" s="15" t="str">
+        <f t="shared" ref="E10" si="85">IF(E$2="","",
+IF(E9="N","N",
+IF(E$2=E9,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="F10" s="15" t="str">
+        <f t="shared" ref="F10" si="86">IF(F$2="","",
+IF(F9="N","N",
+IF(F$2=F9,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="G10" s="15" t="str">
+        <f t="shared" ref="G10" si="87">IF(G$2="","",
+IF(G9="N","N",
+IF(G$2=G9,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="H10" s="15" t="str">
+        <f t="shared" ref="H10" si="88">IF(H$2="","",
+IF(H9="N","N",
+IF(H$2=H9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="I10" s="15" t="str">
+        <f t="shared" ref="I10" si="89">IF(I$2="","",
+IF(I9="N","N",
+IF(I$2=I9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="J10" s="15" t="str">
+        <f t="shared" ref="J10" si="90">IF(J$2="","",
+IF(J9="N","N",
+IF(J$2=J9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="K10" s="15" t="str">
+        <f t="shared" ref="K10" si="91">IF(K$2="","",
+IF(K9="N","N",
+IF(K$2=K9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="L10" s="15" t="str">
+        <f t="shared" ref="L10" si="92">IF(L$2="","",
+IF(L9="N","N",
+IF(L$2=L9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="M10" s="15" t="str">
+        <f t="shared" ref="M10" si="93">IF(M$2="","",
+IF(M9="N","N",
+IF(M$2=M9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="N10" s="15" t="str">
+        <f t="shared" ref="N10" si="94">IF(N$2="","",
+IF(N9="N","N",
+IF(N$2=N9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="O10" s="15" t="str">
+        <f t="shared" ref="O10" si="95">IF(O$2="","",
+IF(O9="N","N",
+IF(O$2=O9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="P10" s="15" t="str">
+        <f t="shared" ref="P10" si="96">IF(P$2="","",
+IF(P9="N","N",
+IF(P$2=P9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="Q10" s="15" t="str">
+        <f t="shared" ref="Q10" si="97">IF(Q$2="","",
+IF(Q9="N","N",
+IF(Q$2=Q9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="R10" s="15" t="str">
+        <f t="shared" ref="R10" si="98">IF(R$2="","",
+IF(R9="N","N",
+IF(R$2=R9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="S10" s="15" t="str">
+        <f t="shared" ref="S10" si="99">IF(S$2="","",
+IF(S9="N","N",
+IF(S$2=S9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="T10" s="15" t="str">
+        <f t="shared" ref="T10" si="100">IF(T$2="","",
+IF(T9="N","N",
+IF(T$2=T9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="U10" s="15" t="str">
+        <f t="shared" ref="U10" si="101">IF(U$2="","",
+IF(U9="N","N",
+IF(U$2=U9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="V10" s="15" t="str">
+        <f t="shared" ref="V10" si="102">IF(V$2="","",
+IF(V9="N","N",
+IF(V$2=V9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="W10" s="15" t="str">
+        <f t="shared" ref="W10" si="103">IF(W$2="","",
+IF(W9="N","N",
+IF(W$2=W9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="X10" s="15" t="str">
+        <f t="shared" ref="X10" si="104">IF(X$2="","",
+IF(X9="N","N",
+IF(X$2=X9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="Y10" s="15" t="str">
+        <f t="shared" ref="Y10" si="105">IF(Y$2="","",
+IF(Y9="N","N",
+IF(Y$2=Y9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="Z10" s="15" t="str">
+        <f t="shared" ref="Z10" si="106">IF(Z$2="","",
+IF(Z9="N","N",
+IF(Z$2=Z9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AA10" s="15" t="str">
+        <f t="shared" ref="AA10" si="107">IF(AA$2="","",
+IF(AA9="N","N",
+IF(AA$2=AA9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AB10" s="15" t="str">
+        <f t="shared" ref="AB10" si="108">IF(AB$2="","",
+IF(AB9="N","N",
+IF(AB$2=AB9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AC10" s="15" t="str">
+        <f t="shared" ref="AC10" si="109">IF(AC$2="","",
+IF(AC9="N","N",
+IF(AC$2=AC9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AD10" s="15" t="str">
+        <f t="shared" ref="AD10" si="110">IF(AD$2="","",
+IF(AD9="N","N",
+IF(AD$2=AD9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AE10" s="15" t="str">
+        <f t="shared" ref="AE10" si="111">IF(AE$2="","",
+IF(AE9="N","N",
+IF(AE$2=AE9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AF10" s="15" t="str">
+        <f t="shared" ref="AF10" si="112">IF(AF$2="","",
+IF(AF9="N","N",
+IF(AF$2=AF9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AG10" s="15" t="str">
+        <f t="shared" ref="AG10" si="113">IF(AG$2="","",
+IF(AG9="N","N",
+IF(AG$2=AG9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AH10" s="15" t="str">
+        <f t="shared" ref="AH10" si="114">IF(AH$2="","",
+IF(AH9="N","N",
+IF(AH$2=AH9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AI10" s="15" t="str">
+        <f t="shared" ref="AI10" si="115">IF(AI$2="","",
+IF(AI9="N","N",
+IF(AI$2=AI9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AJ10" s="15" t="str">
+        <f t="shared" ref="AJ10" si="116">IF(AJ$2="","",
+IF(AJ9="N","N",
+IF(AJ$2=AJ9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AK10" s="15" t="str">
+        <f t="shared" ref="AK10" si="117">IF(AK$2="","",
+IF(AK9="N","N",
+IF(AK$2=AK9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AL10" s="15" t="str">
+        <f t="shared" ref="AL10" si="118">IF(AL$2="","",
+IF(AL9="N","N",
+IF(AL$2=AL9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AM10" s="15" t="str">
+        <f t="shared" ref="AM10" si="119">IF(AM$2="","",
+IF(AM9="N","N",
+IF(AM$2=AM9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AN10" s="15" t="str">
+        <f t="shared" ref="AN10" si="120">IF(AN$2="","",
+IF(AN9="N","N",
+IF(AN$2=AN9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AO10" s="15" t="str">
+        <f t="shared" ref="AO10" si="121">IF(AO$2="","",
+IF(AO9="N","N",
+IF(AO$2=AO9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AP10" s="15" t="str">
+        <f t="shared" ref="AP10" si="122">IF(AP$2="","",
+IF(AP9="N","N",
+IF(AP$2=AP9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AQ10" s="15" t="str">
+        <f t="shared" ref="AQ10" si="123">IF(AQ$2="","",
+IF(AQ9="N","N",
+IF(AQ$2=AQ9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AR10" s="15" t="str">
+        <f t="shared" ref="AR10" si="124">IF(AR$2="","",
+IF(AR9="N","N",
+IF(AR$2=AR9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AS10" s="15" t="str">
+        <f t="shared" ref="AS10" si="125">IF(AS$2="","",
+IF(AS9="N","N",
+IF(AS$2=AS9,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AT10" s="15" t="str">
+        <f t="shared" ref="AT10" si="126">IF(AT$2="","",
+IF(AT9="N","N",
+IF(AT$2=AT9,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AU10" s="15" t="str">
+        <f t="shared" ref="AU10" si="127">IF(AU$2="","",
+IF(AU9="N","N",
+IF(AU$2=AU9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AV10" s="15" t="str">
+        <f t="shared" ref="AV10" si="128">IF(AV$2="","",
+IF(AV9="N","N",
+IF(AV$2=AV9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AW10" s="15" t="str">
+        <f t="shared" ref="AW10" si="129">IF(AW$2="","",
+IF(AW9="N","N",
+IF(AW$2=AW9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AX10" s="15" t="str">
+        <f t="shared" ref="AX10" si="130">IF(AX$2="","",
+IF(AX9="N","N",
+IF(AX$2=AX9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AY10" s="15" t="str">
+        <f t="shared" ref="AY10" si="131">IF(AY$2="","",
+IF(AY9="N","N",
+IF(AY$2=AY9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AZ10" s="15" t="str">
+        <f t="shared" ref="AZ10" si="132">IF(AZ$2="","",
+IF(AZ9="N","N",
+IF(AZ$2=AZ9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BA10" s="15" t="str">
+        <f t="shared" ref="BA10" si="133">IF(BA$2="","",
+IF(BA9="N","N",
+IF(BA$2=BA9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BB10" s="15" t="str">
+        <f t="shared" ref="BB10" si="134">IF(BB$2="","",
+IF(BB9="N","N",
+IF(BB$2=BB9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BC10" s="15" t="str">
+        <f t="shared" ref="BC10" si="135">IF(BC$2="","",
+IF(BC9="N","N",
+IF(BC$2=BC9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BD10" s="15" t="str">
+        <f t="shared" ref="BD10" si="136">IF(BD$2="","",
+IF(BD9="N","N",
+IF(BD$2=BD9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BE10" s="15" t="str">
+        <f t="shared" ref="BE10" si="137">IF(BE$2="","",
+IF(BE9="N","N",
+IF(BE$2=BE9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BF10" s="15" t="str">
+        <f t="shared" ref="BF10" si="138">IF(BF$2="","",
+IF(BF9="N","N",
+IF(BF$2=BF9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BG10" s="15" t="str">
+        <f t="shared" ref="BG10" si="139">IF(BG$2="","",
+IF(BG9="N","N",
+IF(BG$2=BG9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BH10" s="15" t="str">
+        <f t="shared" ref="BH10" si="140">IF(BH$2="","",
+IF(BH9="N","N",
+IF(BH$2=BH9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BI10" s="15" t="str">
+        <f t="shared" ref="BI10" si="141">IF(BI$2="","",
+IF(BI9="N","N",
+IF(BI$2=BI9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BJ10" s="15" t="str">
+        <f t="shared" ref="BJ10" si="142">IF(BJ$2="","",
+IF(BJ9="N","N",
+IF(BJ$2=BJ9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BK10" s="15" t="str">
+        <f t="shared" ref="BK10" si="143">IF(BK$2="","",
+IF(BK9="N","N",
+IF(BK$2=BK9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BL10" s="15" t="str">
+        <f t="shared" ref="BL10" si="144">IF(BL$2="","",
+IF(BL9="N","N",
+IF(BL$2=BL9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BM10" s="15" t="str">
+        <f t="shared" ref="BM10" si="145">IF(BM$2="","",
+IF(BM9="N","N",
+IF(BM$2=BM9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BN10" s="15" t="str">
+        <f t="shared" ref="BN10" si="146">IF(BN$2="","",
+IF(BN9="N","N",
+IF(BN$2=BN9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BO10" s="15" t="str">
+        <f t="shared" ref="BO10" si="147">IF(BO$2="","",
+IF(BO9="N","N",
+IF(BO$2=BO9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BP10" s="15" t="str">
+        <f t="shared" ref="BP10" si="148">IF(BP$2="","",
+IF(BP9="N","N",
+IF(BP$2=BP9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BQ10" s="15" t="str">
+        <f t="shared" ref="BQ10" si="149">IF(BQ$2="","",
+IF(BQ9="N","N",
+IF(BQ$2=BQ9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BR10" s="15" t="str">
+        <f t="shared" ref="BR10" si="150">IF(BR$2="","",
+IF(BR9="N","N",
+IF(BR$2=BR9,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BS10" s="15" t="str">
+        <f t="shared" ref="BS10" si="151">IF(BS6="","",
+IF(BS9="N","N",
+IF(BS6=BS9,"W","L")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:71">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15" t="str">
+        <f>IF(B9="","",B9)</f>
+        <v>N</v>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f t="shared" ref="C11:J11" si="152">IF(C9="","",C9)</f>
+        <v>N</v>
+      </c>
+      <c r="D11" s="15" t="str">
+        <f t="shared" si="152"/>
+        <v>N</v>
+      </c>
+      <c r="E11" s="15" t="str">
+        <f t="shared" si="152"/>
+        <v>N</v>
+      </c>
+      <c r="F11" s="15" t="str">
+        <f t="shared" si="152"/>
+        <v>N</v>
+      </c>
+      <c r="G11" s="15" t="str">
+        <f t="shared" si="152"/>
+        <v>N</v>
+      </c>
+      <c r="H11" s="15" t="str">
+        <f t="shared" si="152"/>
+        <v>P</v>
+      </c>
+      <c r="I11" s="15" t="str">
+        <f t="shared" si="152"/>
+        <v>P</v>
+      </c>
+      <c r="J11" s="15" t="str">
+        <f t="shared" si="152"/>
+        <v>B</v>
+      </c>
+      <c r="K11" s="17" t="str">
+        <f t="shared" ref="K11" si="153">IF(K9="","",
+IF(K9="N","N",
+IF(COUNTIF(G10:J10,"W")&gt;=2,K9,
+IF(COUNTIF(G10:J10,"W")&lt;2,IF(K9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="L11" s="17" t="str">
+        <f t="shared" ref="L11" si="154">IF(L9="","",
+IF(L9="N","N",
+IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
+IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="M11" s="17" t="str">
+        <f t="shared" ref="M11" si="155">IF(M9="","",
+IF(M9="N","N",
+IF(COUNTIF(I10:L10,"W")&gt;=2,M9,
+IF(COUNTIF(I10:L10,"W")&lt;2,IF(M9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="N11" s="17" t="str">
+        <f t="shared" ref="N11" si="156">IF(N9="","",
+IF(N9="N","N",
+IF(COUNTIF(J10:M10,"W")&gt;=2,N9,
+IF(COUNTIF(J10:M10,"W")&lt;2,IF(N9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="O11" s="17" t="str">
+        <f t="shared" ref="O11" si="157">IF(O9="","",
+IF(O9="N","N",
+IF(COUNTIF(K10:N10,"W")&gt;=2,O9,
+IF(COUNTIF(K10:N10,"W")&lt;2,IF(O9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="P11" s="17" t="str">
+        <f t="shared" ref="P11" si="158">IF(P9="","",
+IF(P9="N","N",
+IF(COUNTIF(L10:O10,"W")&gt;=2,P9,
+IF(COUNTIF(L10:O10,"W")&lt;2,IF(P9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="Q11" s="17" t="str">
+        <f t="shared" ref="Q11" si="159">IF(Q9="","",
+IF(Q9="N","N",
+IF(COUNTIF(M10:P10,"W")&gt;=2,Q9,
+IF(COUNTIF(M10:P10,"W")&lt;2,IF(Q9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="R11" s="17" t="str">
+        <f t="shared" ref="R11" si="160">IF(R9="","",
+IF(R9="N","N",
+IF(COUNTIF(N10:Q10,"W")&gt;=2,R9,
+IF(COUNTIF(N10:Q10,"W")&lt;2,IF(R9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="S11" s="17" t="str">
+        <f t="shared" ref="S11" si="161">IF(S9="","",
+IF(S9="N","N",
+IF(COUNTIF(O10:R10,"W")&gt;=2,S9,
+IF(COUNTIF(O10:R10,"W")&lt;2,IF(S9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="T11" s="17" t="str">
+        <f t="shared" ref="T11" si="162">IF(T9="","",
+IF(T9="N","N",
+IF(COUNTIF(P10:S10,"W")&gt;=2,T9,
+IF(COUNTIF(P10:S10,"W")&lt;2,IF(T9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="U11" s="17" t="str">
+        <f t="shared" ref="U11" si="163">IF(U9="","",
+IF(U9="N","N",
+IF(COUNTIF(Q10:T10,"W")&gt;=2,U9,
+IF(COUNTIF(Q10:T10,"W")&lt;2,IF(U9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="V11" s="17" t="str">
+        <f t="shared" ref="V11" si="164">IF(V9="","",
+IF(V9="N","N",
+IF(COUNTIF(R10:U10,"W")&gt;=2,V9,
+IF(COUNTIF(R10:U10,"W")&lt;2,IF(V9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="W11" s="17" t="str">
+        <f t="shared" ref="W11" si="165">IF(W9="","",
+IF(W9="N","N",
+IF(COUNTIF(S10:V10,"W")&gt;=2,W9,
+IF(COUNTIF(S10:V10,"W")&lt;2,IF(W9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="X11" s="17" t="str">
+        <f t="shared" ref="X11" si="166">IF(X9="","",
+IF(X9="N","N",
+IF(COUNTIF(T10:W10,"W")&gt;=2,X9,
+IF(COUNTIF(T10:W10,"W")&lt;2,IF(X9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="Y11" s="17" t="str">
+        <f t="shared" ref="Y11" si="167">IF(Y9="","",
+IF(Y9="N","N",
+IF(COUNTIF(U10:X10,"W")&gt;=2,Y9,
+IF(COUNTIF(U10:X10,"W")&lt;2,IF(Y9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="Z11" s="17" t="str">
+        <f t="shared" ref="Z11" si="168">IF(Z9="","",
+IF(Z9="N","N",
+IF(COUNTIF(V10:Y10,"W")&gt;=2,Z9,
+IF(COUNTIF(V10:Y10,"W")&lt;2,IF(Z9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AA11" s="17" t="str">
+        <f t="shared" ref="AA11" si="169">IF(AA9="","",
+IF(AA9="N","N",
+IF(COUNTIF(W10:Z10,"W")&gt;=2,AA9,
+IF(COUNTIF(W10:Z10,"W")&lt;2,IF(AA9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AB11" s="17" t="str">
+        <f t="shared" ref="AB11" si="170">IF(AB9="","",
+IF(AB9="N","N",
+IF(COUNTIF(X10:AA10,"W")&gt;=2,AB9,
+IF(COUNTIF(X10:AA10,"W")&lt;2,IF(AB9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AC11" s="17" t="str">
+        <f t="shared" ref="AC11" si="171">IF(AC9="","",
+IF(AC9="N","N",
+IF(COUNTIF(Y10:AB10,"W")&gt;=2,AC9,
+IF(COUNTIF(Y10:AB10,"W")&lt;2,IF(AC9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AD11" s="17" t="str">
+        <f t="shared" ref="AD11" si="172">IF(AD9="","",
+IF(AD9="N","N",
+IF(COUNTIF(Z10:AC10,"W")&gt;=2,AD9,
+IF(COUNTIF(Z10:AC10,"W")&lt;2,IF(AD9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AE11" s="17" t="str">
+        <f t="shared" ref="AE11" si="173">IF(AE9="","",
+IF(AE9="N","N",
+IF(COUNTIF(AA10:AD10,"W")&gt;=2,AE9,
+IF(COUNTIF(AA10:AD10,"W")&lt;2,IF(AE9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AF11" s="17" t="str">
+        <f t="shared" ref="AF11" si="174">IF(AF9="","",
+IF(AF9="N","N",
+IF(COUNTIF(AB10:AE10,"W")&gt;=2,AF9,
+IF(COUNTIF(AB10:AE10,"W")&lt;2,IF(AF9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AG11" s="17" t="str">
+        <f t="shared" ref="AG11" si="175">IF(AG9="","",
+IF(AG9="N","N",
+IF(COUNTIF(AC10:AF10,"W")&gt;=2,AG9,
+IF(COUNTIF(AC10:AF10,"W")&lt;2,IF(AG9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AH11" s="17" t="str">
+        <f t="shared" ref="AH11" si="176">IF(AH9="","",
+IF(AH9="N","N",
+IF(COUNTIF(AD10:AG10,"W")&gt;=2,AH9,
+IF(COUNTIF(AD10:AG10,"W")&lt;2,IF(AH9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AI11" s="17" t="str">
+        <f t="shared" ref="AI11" si="177">IF(AI9="","",
+IF(AI9="N","N",
+IF(COUNTIF(AE10:AH10,"W")&gt;=2,AI9,
+IF(COUNTIF(AE10:AH10,"W")&lt;2,IF(AI9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AJ11" s="17" t="str">
+        <f t="shared" ref="AJ11" si="178">IF(AJ9="","",
+IF(AJ9="N","N",
+IF(COUNTIF(AF10:AI10,"W")&gt;=2,AJ9,
+IF(COUNTIF(AF10:AI10,"W")&lt;2,IF(AJ9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AK11" s="17" t="str">
+        <f t="shared" ref="AK11" si="179">IF(AK9="","",
+IF(AK9="N","N",
+IF(COUNTIF(AG10:AJ10,"W")&gt;=2,AK9,
+IF(COUNTIF(AG10:AJ10,"W")&lt;2,IF(AK9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AL11" s="17" t="str">
+        <f t="shared" ref="AL11" si="180">IF(AL9="","",
+IF(AL9="N","N",
+IF(COUNTIF(AH10:AK10,"W")&gt;=2,AL9,
+IF(COUNTIF(AH10:AK10,"W")&lt;2,IF(AL9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AM11" s="17" t="str">
+        <f t="shared" ref="AM11" si="181">IF(AM9="","",
+IF(AM9="N","N",
+IF(COUNTIF(AI10:AL10,"W")&gt;=2,AM9,
+IF(COUNTIF(AI10:AL10,"W")&lt;2,IF(AM9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AN11" s="17" t="str">
+        <f t="shared" ref="AN11" si="182">IF(AN9="","",
+IF(AN9="N","N",
+IF(COUNTIF(AJ10:AM10,"W")&gt;=2,AN9,
+IF(COUNTIF(AJ10:AM10,"W")&lt;2,IF(AN9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AO11" s="17" t="str">
+        <f t="shared" ref="AO11" si="183">IF(AO9="","",
+IF(AO9="N","N",
+IF(COUNTIF(AK10:AN10,"W")&gt;=2,AO9,
+IF(COUNTIF(AK10:AN10,"W")&lt;2,IF(AO9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AP11" s="17" t="str">
+        <f t="shared" ref="AP11" si="184">IF(AP9="","",
+IF(AP9="N","N",
+IF(COUNTIF(AL10:AO10,"W")&gt;=2,AP9,
+IF(COUNTIF(AL10:AO10,"W")&lt;2,IF(AP9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AQ11" s="17" t="str">
+        <f t="shared" ref="AQ11" si="185">IF(AQ9="","",
+IF(AQ9="N","N",
+IF(COUNTIF(AM10:AP10,"W")&gt;=2,AQ9,
+IF(COUNTIF(AM10:AP10,"W")&lt;2,IF(AQ9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AR11" s="17" t="str">
+        <f t="shared" ref="AR11" si="186">IF(AR9="","",
+IF(AR9="N","N",
+IF(COUNTIF(AN10:AQ10,"W")&gt;=2,AR9,
+IF(COUNTIF(AN10:AQ10,"W")&lt;2,IF(AR9="P","B","P")))))</f>
+        <v>B</v>
+      </c>
+      <c r="AS11" s="17" t="str">
+        <f t="shared" ref="AS11" si="187">IF(AS9="","",
+IF(AS9="N","N",
+IF(COUNTIF(AO10:AR10,"W")&gt;=2,AS9,
+IF(COUNTIF(AO10:AR10,"W")&lt;2,IF(AS9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AT11" s="17" t="str">
+        <f t="shared" ref="AT11" si="188">IF(AT9="","",
+IF(AT9="N","N",
+IF(COUNTIF(AP10:AS10,"W")&gt;=2,AT9,
+IF(COUNTIF(AP10:AS10,"W")&lt;2,IF(AT9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AU11" s="17" t="str">
+        <f t="shared" ref="AU11" si="189">IF(AU9="","",
+IF(AU9="N","N",
+IF(COUNTIF(AQ10:AT10,"W")&gt;=2,AU9,
+IF(COUNTIF(AQ10:AT10,"W")&lt;2,IF(AU9="P","B","P")))))</f>
+        <v>P</v>
+      </c>
+      <c r="AV11" s="17" t="str">
+        <f t="shared" ref="AV11" si="190">IF(AV9="","",
+IF(AV9="N","N",
+IF(COUNTIF(AR10:AU10,"W")&gt;=2,AV9,
+IF(COUNTIF(AR10:AU10,"W")&lt;2,IF(AV9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="AW11" s="17" t="str">
+        <f t="shared" ref="AW11" si="191">IF(AW9="","",
+IF(AW9="N","N",
+IF(COUNTIF(AS10:AV10,"W")&gt;=2,AW9,
+IF(COUNTIF(AS10:AV10,"W")&lt;2,IF(AW9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="AX11" s="17" t="str">
+        <f t="shared" ref="AX11" si="192">IF(AX9="","",
+IF(AX9="N","N",
+IF(COUNTIF(AT10:AW10,"W")&gt;=2,AX9,
+IF(COUNTIF(AT10:AW10,"W")&lt;2,IF(AX9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="AY11" s="17" t="str">
+        <f t="shared" ref="AY11" si="193">IF(AY9="","",
+IF(AY9="N","N",
+IF(COUNTIF(AU10:AX10,"W")&gt;=2,AY9,
+IF(COUNTIF(AU10:AX10,"W")&lt;2,IF(AY9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="AZ11" s="17" t="str">
+        <f t="shared" ref="AZ11" si="194">IF(AZ9="","",
+IF(AZ9="N","N",
+IF(COUNTIF(AV10:AY10,"W")&gt;=2,AZ9,
+IF(COUNTIF(AV10:AY10,"W")&lt;2,IF(AZ9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BA11" s="17" t="str">
+        <f t="shared" ref="BA11" si="195">IF(BA9="","",
+IF(BA9="N","N",
+IF(COUNTIF(AW10:AZ10,"W")&gt;=2,BA9,
+IF(COUNTIF(AW10:AZ10,"W")&lt;2,IF(BA9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BB11" s="17" t="str">
+        <f t="shared" ref="BB11" si="196">IF(BB9="","",
+IF(BB9="N","N",
+IF(COUNTIF(AX10:BA10,"W")&gt;=2,BB9,
+IF(COUNTIF(AX10:BA10,"W")&lt;2,IF(BB9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BC11" s="17" t="str">
+        <f t="shared" ref="BC11" si="197">IF(BC9="","",
+IF(BC9="N","N",
+IF(COUNTIF(AY10:BB10,"W")&gt;=2,BC9,
+IF(COUNTIF(AY10:BB10,"W")&lt;2,IF(BC9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BD11" s="17" t="str">
+        <f t="shared" ref="BD11" si="198">IF(BD9="","",
+IF(BD9="N","N",
+IF(COUNTIF(AZ10:BC10,"W")&gt;=2,BD9,
+IF(COUNTIF(AZ10:BC10,"W")&lt;2,IF(BD9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BE11" s="17" t="str">
+        <f t="shared" ref="BE11" si="199">IF(BE9="","",
+IF(BE9="N","N",
+IF(COUNTIF(BA10:BD10,"W")&gt;=2,BE9,
+IF(COUNTIF(BA10:BD10,"W")&lt;2,IF(BE9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BF11" s="17" t="str">
+        <f t="shared" ref="BF11" si="200">IF(BF9="","",
+IF(BF9="N","N",
+IF(COUNTIF(BB10:BE10,"W")&gt;=2,BF9,
+IF(COUNTIF(BB10:BE10,"W")&lt;2,IF(BF9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BG11" s="17" t="str">
+        <f t="shared" ref="BG11" si="201">IF(BG9="","",
+IF(BG9="N","N",
+IF(COUNTIF(BC10:BF10,"W")&gt;=2,BG9,
+IF(COUNTIF(BC10:BF10,"W")&lt;2,IF(BG9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BH11" s="17" t="str">
+        <f t="shared" ref="BH11" si="202">IF(BH9="","",
+IF(BH9="N","N",
+IF(COUNTIF(BD10:BG10,"W")&gt;=2,BH9,
+IF(COUNTIF(BD10:BG10,"W")&lt;2,IF(BH9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BI11" s="17" t="str">
+        <f t="shared" ref="BI11" si="203">IF(BI9="","",
+IF(BI9="N","N",
+IF(COUNTIF(BE10:BH10,"W")&gt;=2,BI9,
+IF(COUNTIF(BE10:BH10,"W")&lt;2,IF(BI9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BJ11" s="17" t="str">
+        <f t="shared" ref="BJ11" si="204">IF(BJ9="","",
+IF(BJ9="N","N",
+IF(COUNTIF(BF10:BI10,"W")&gt;=2,BJ9,
+IF(COUNTIF(BF10:BI10,"W")&lt;2,IF(BJ9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BK11" s="17" t="str">
+        <f t="shared" ref="BK11" si="205">IF(BK9="","",
+IF(BK9="N","N",
+IF(COUNTIF(BG10:BJ10,"W")&gt;=2,BK9,
+IF(COUNTIF(BG10:BJ10,"W")&lt;2,IF(BK9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BL11" s="17" t="str">
+        <f t="shared" ref="BL11" si="206">IF(BL9="","",
+IF(BL9="N","N",
+IF(COUNTIF(BH10:BK10,"W")&gt;=2,BL9,
+IF(COUNTIF(BH10:BK10,"W")&lt;2,IF(BL9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BM11" s="17" t="str">
+        <f t="shared" ref="BM11" si="207">IF(BM9="","",
+IF(BM9="N","N",
+IF(COUNTIF(BI10:BL10,"W")&gt;=2,BM9,
+IF(COUNTIF(BI10:BL10,"W")&lt;2,IF(BM9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BN11" s="17" t="str">
+        <f t="shared" ref="BN11" si="208">IF(BN9="","",
+IF(BN9="N","N",
+IF(COUNTIF(BJ10:BM10,"W")&gt;=2,BN9,
+IF(COUNTIF(BJ10:BM10,"W")&lt;2,IF(BN9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BO11" s="17" t="str">
+        <f t="shared" ref="BO11" si="209">IF(BO9="","",
+IF(BO9="N","N",
+IF(COUNTIF(BK10:BN10,"W")&gt;=2,BO9,
+IF(COUNTIF(BK10:BN10,"W")&lt;2,IF(BO9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BP11" s="17" t="str">
+        <f t="shared" ref="BP11" si="210">IF(BP9="","",
+IF(BP9="N","N",
+IF(COUNTIF(BL10:BO10,"W")&gt;=2,BP9,
+IF(COUNTIF(BL10:BO10,"W")&lt;2,IF(BP9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BQ11" s="17" t="str">
+        <f t="shared" ref="BQ11" si="211">IF(BQ9="","",
+IF(BQ9="N","N",
+IF(COUNTIF(BM10:BP10,"W")&gt;=2,BQ9,
+IF(COUNTIF(BM10:BP10,"W")&lt;2,IF(BQ9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BR11" s="17" t="str">
+        <f t="shared" ref="BR11" si="212">IF(BR9="","",
+IF(BR9="N","N",
+IF(COUNTIF(BN10:BQ10,"W")&gt;=2,BR9,
+IF(COUNTIF(BN10:BQ10,"W")&lt;2,IF(BR9="P","B","P")))))</f>
+        <v/>
+      </c>
+      <c r="BS11" s="17" t="str">
+        <f t="shared" ref="BS11" si="213">IF(BS9="","",
+IF(BS9="N","N",
+IF(COUNTIF(BO10:BR10,"W")&gt;=2,BS9,
+IF(COUNTIF(BO10:BR10,"W")&lt;2,IF(BS9="P","B","P")))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:71">
+      <c r="A12" s="15">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15" t="str">
+        <f>IF(B$2="","",
+IF(B11="N","N",
+IF(B$2=B11,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f t="shared" ref="C12" si="214">IF(C$2="","",
+IF(C11="N","N",
+IF(C$2=C11,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="D12" s="15" t="str">
+        <f t="shared" ref="D12" si="215">IF(D$2="","",
+IF(D11="N","N",
+IF(D$2=D11,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="E12" s="15" t="str">
+        <f t="shared" ref="E12" si="216">IF(E$2="","",
+IF(E11="N","N",
+IF(E$2=E11,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="F12" s="15" t="str">
+        <f t="shared" ref="F12" si="217">IF(F$2="","",
+IF(F11="N","N",
+IF(F$2=F11,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="G12" s="15" t="str">
+        <f t="shared" ref="G12" si="218">IF(G$2="","",
+IF(G11="N","N",
+IF(G$2=G11,"W","L")))</f>
+        <v>N</v>
+      </c>
+      <c r="H12" s="15" t="str">
+        <f t="shared" ref="H12" si="219">IF(H$2="","",
+IF(H11="N","N",
+IF(H$2=H11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="I12" s="15" t="str">
+        <f t="shared" ref="I12" si="220">IF(I$2="","",
+IF(I11="N","N",
+IF(I$2=I11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="J12" s="15" t="str">
+        <f t="shared" ref="J12" si="221">IF(J$2="","",
+IF(J11="N","N",
+IF(J$2=J11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="K12" s="15" t="str">
+        <f t="shared" ref="K12" si="222">IF(K$2="","",
+IF(K11="N","N",
+IF(K$2=K11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="L12" s="15" t="str">
+        <f t="shared" ref="L12" si="223">IF(L$2="","",
+IF(L11="N","N",
+IF(L$2=L11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="M12" s="15" t="str">
+        <f t="shared" ref="M12" si="224">IF(M$2="","",
+IF(M11="N","N",
+IF(M$2=M11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="N12" s="15" t="str">
+        <f t="shared" ref="N12" si="225">IF(N$2="","",
+IF(N11="N","N",
+IF(N$2=N11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="O12" s="15" t="str">
+        <f t="shared" ref="O12" si="226">IF(O$2="","",
+IF(O11="N","N",
+IF(O$2=O11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="P12" s="15" t="str">
+        <f t="shared" ref="P12" si="227">IF(P$2="","",
+IF(P11="N","N",
+IF(P$2=P11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="Q12" s="15" t="str">
+        <f t="shared" ref="Q12" si="228">IF(Q$2="","",
+IF(Q11="N","N",
+IF(Q$2=Q11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="R12" s="15" t="str">
+        <f t="shared" ref="R12" si="229">IF(R$2="","",
+IF(R11="N","N",
+IF(R$2=R11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="S12" s="15" t="str">
+        <f t="shared" ref="S12" si="230">IF(S$2="","",
+IF(S11="N","N",
+IF(S$2=S11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="T12" s="15" t="str">
+        <f t="shared" ref="T12" si="231">IF(T$2="","",
+IF(T11="N","N",
+IF(T$2=T11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="U12" s="15" t="str">
+        <f t="shared" ref="U12" si="232">IF(U$2="","",
+IF(U11="N","N",
+IF(U$2=U11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="V12" s="15" t="str">
+        <f t="shared" ref="V12" si="233">IF(V$2="","",
+IF(V11="N","N",
+IF(V$2=V11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="W12" s="15" t="str">
+        <f t="shared" ref="W12" si="234">IF(W$2="","",
+IF(W11="N","N",
+IF(W$2=W11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="X12" s="15" t="str">
+        <f t="shared" ref="X12" si="235">IF(X$2="","",
+IF(X11="N","N",
+IF(X$2=X11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="Y12" s="15" t="str">
+        <f t="shared" ref="Y12" si="236">IF(Y$2="","",
+IF(Y11="N","N",
+IF(Y$2=Y11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="Z12" s="15" t="str">
+        <f t="shared" ref="Z12" si="237">IF(Z$2="","",
+IF(Z11="N","N",
+IF(Z$2=Z11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AA12" s="15" t="str">
+        <f t="shared" ref="AA12" si="238">IF(AA$2="","",
+IF(AA11="N","N",
+IF(AA$2=AA11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AB12" s="15" t="str">
+        <f t="shared" ref="AB12" si="239">IF(AB$2="","",
+IF(AB11="N","N",
+IF(AB$2=AB11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AC12" s="15" t="str">
+        <f t="shared" ref="AC12" si="240">IF(AC$2="","",
+IF(AC11="N","N",
+IF(AC$2=AC11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AD12" s="15" t="str">
+        <f t="shared" ref="AD12" si="241">IF(AD$2="","",
+IF(AD11="N","N",
+IF(AD$2=AD11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AE12" s="15" t="str">
+        <f t="shared" ref="AE12" si="242">IF(AE$2="","",
+IF(AE11="N","N",
+IF(AE$2=AE11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AF12" s="15" t="str">
+        <f t="shared" ref="AF12" si="243">IF(AF$2="","",
+IF(AF11="N","N",
+IF(AF$2=AF11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AG12" s="15" t="str">
+        <f t="shared" ref="AG12" si="244">IF(AG$2="","",
+IF(AG11="N","N",
+IF(AG$2=AG11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AH12" s="15" t="str">
+        <f t="shared" ref="AH12" si="245">IF(AH$2="","",
+IF(AH11="N","N",
+IF(AH$2=AH11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AI12" s="15" t="str">
+        <f t="shared" ref="AI12" si="246">IF(AI$2="","",
+IF(AI11="N","N",
+IF(AI$2=AI11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AJ12" s="15" t="str">
+        <f t="shared" ref="AJ12" si="247">IF(AJ$2="","",
+IF(AJ11="N","N",
+IF(AJ$2=AJ11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AK12" s="15" t="str">
+        <f t="shared" ref="AK12" si="248">IF(AK$2="","",
+IF(AK11="N","N",
+IF(AK$2=AK11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AL12" s="15" t="str">
+        <f t="shared" ref="AL12" si="249">IF(AL$2="","",
+IF(AL11="N","N",
+IF(AL$2=AL11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AM12" s="15" t="str">
+        <f t="shared" ref="AM12" si="250">IF(AM$2="","",
+IF(AM11="N","N",
+IF(AM$2=AM11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AN12" s="15" t="str">
+        <f t="shared" ref="AN12" si="251">IF(AN$2="","",
+IF(AN11="N","N",
+IF(AN$2=AN11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AO12" s="15" t="str">
+        <f t="shared" ref="AO12" si="252">IF(AO$2="","",
+IF(AO11="N","N",
+IF(AO$2=AO11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AP12" s="15" t="str">
+        <f t="shared" ref="AP12" si="253">IF(AP$2="","",
+IF(AP11="N","N",
+IF(AP$2=AP11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AQ12" s="15" t="str">
+        <f t="shared" ref="AQ12" si="254">IF(AQ$2="","",
+IF(AQ11="N","N",
+IF(AQ$2=AQ11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AR12" s="15" t="str">
+        <f t="shared" ref="AR12" si="255">IF(AR$2="","",
+IF(AR11="N","N",
+IF(AR$2=AR11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AS12" s="15" t="str">
+        <f t="shared" ref="AS12" si="256">IF(AS$2="","",
+IF(AS11="N","N",
+IF(AS$2=AS11,"W","L")))</f>
+        <v>W</v>
+      </c>
+      <c r="AT12" s="15" t="str">
+        <f t="shared" ref="AT12" si="257">IF(AT$2="","",
+IF(AT11="N","N",
+IF(AT$2=AT11,"W","L")))</f>
+        <v>L</v>
+      </c>
+      <c r="AU12" s="15" t="str">
+        <f t="shared" ref="AU12" si="258">IF(AU$2="","",
+IF(AU11="N","N",
+IF(AU$2=AU11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AV12" s="15" t="str">
+        <f t="shared" ref="AV12" si="259">IF(AV$2="","",
+IF(AV11="N","N",
+IF(AV$2=AV11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AW12" s="15" t="str">
+        <f t="shared" ref="AW12" si="260">IF(AW$2="","",
+IF(AW11="N","N",
+IF(AW$2=AW11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AX12" s="15" t="str">
+        <f t="shared" ref="AX12" si="261">IF(AX$2="","",
+IF(AX11="N","N",
+IF(AX$2=AX11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AY12" s="15" t="str">
+        <f t="shared" ref="AY12" si="262">IF(AY$2="","",
+IF(AY11="N","N",
+IF(AY$2=AY11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="AZ12" s="15" t="str">
+        <f t="shared" ref="AZ12" si="263">IF(AZ$2="","",
+IF(AZ11="N","N",
+IF(AZ$2=AZ11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BA12" s="15" t="str">
+        <f t="shared" ref="BA12" si="264">IF(BA$2="","",
+IF(BA11="N","N",
+IF(BA$2=BA11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BB12" s="15" t="str">
+        <f t="shared" ref="BB12" si="265">IF(BB$2="","",
+IF(BB11="N","N",
+IF(BB$2=BB11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BC12" s="15" t="str">
+        <f t="shared" ref="BC12" si="266">IF(BC$2="","",
+IF(BC11="N","N",
+IF(BC$2=BC11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BD12" s="15" t="str">
+        <f t="shared" ref="BD12" si="267">IF(BD$2="","",
+IF(BD11="N","N",
+IF(BD$2=BD11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BE12" s="15" t="str">
+        <f t="shared" ref="BE12" si="268">IF(BE$2="","",
+IF(BE11="N","N",
+IF(BE$2=BE11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BF12" s="15" t="str">
+        <f t="shared" ref="BF12" si="269">IF(BF$2="","",
+IF(BF11="N","N",
+IF(BF$2=BF11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BG12" s="15" t="str">
+        <f t="shared" ref="BG12" si="270">IF(BG$2="","",
+IF(BG11="N","N",
+IF(BG$2=BG11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BH12" s="15" t="str">
+        <f t="shared" ref="BH12" si="271">IF(BH$2="","",
+IF(BH11="N","N",
+IF(BH$2=BH11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BI12" s="15" t="str">
+        <f t="shared" ref="BI12" si="272">IF(BI$2="","",
+IF(BI11="N","N",
+IF(BI$2=BI11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BJ12" s="15" t="str">
+        <f t="shared" ref="BJ12" si="273">IF(BJ$2="","",
+IF(BJ11="N","N",
+IF(BJ$2=BJ11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BK12" s="15" t="str">
+        <f t="shared" ref="BK12" si="274">IF(BK$2="","",
+IF(BK11="N","N",
+IF(BK$2=BK11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BL12" s="15" t="str">
+        <f t="shared" ref="BL12" si="275">IF(BL$2="","",
+IF(BL11="N","N",
+IF(BL$2=BL11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BM12" s="15" t="str">
+        <f t="shared" ref="BM12" si="276">IF(BM$2="","",
+IF(BM11="N","N",
+IF(BM$2=BM11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BN12" s="15" t="str">
+        <f t="shared" ref="BN12" si="277">IF(BN$2="","",
+IF(BN11="N","N",
+IF(BN$2=BN11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BO12" s="15" t="str">
+        <f t="shared" ref="BO12" si="278">IF(BO$2="","",
+IF(BO11="N","N",
+IF(BO$2=BO11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BP12" s="15" t="str">
+        <f t="shared" ref="BP12" si="279">IF(BP$2="","",
+IF(BP11="N","N",
+IF(BP$2=BP11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BQ12" s="15" t="str">
+        <f t="shared" ref="BQ12" si="280">IF(BQ$2="","",
+IF(BQ11="N","N",
+IF(BQ$2=BQ11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BR12" s="15" t="str">
+        <f t="shared" ref="BR12" si="281">IF(BR$2="","",
+IF(BR11="N","N",
+IF(BR$2=BR11,"W","L")))</f>
+        <v/>
+      </c>
+      <c r="BS12" s="15" t="str">
+        <f t="shared" ref="BS12" si="282">IF(BS8="","",
+IF(BS11="N","N",
+IF(BS8=BS11,"W","L")))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5:BS12" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jd\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F68CE6D-6B2F-448E-8464-AFA1D29F6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB427154-2127-4B27-A049-2E6F3767BA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
+    <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -139,6 +130,12 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -474,6 +471,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -494,12 +497,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -980,21 +977,21 @@
   <sheetData>
     <row r="1" spans="1:79" ht="17.25" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1301,140 +1298,76 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
@@ -1466,35 +1399,35 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1993,21 +1926,21 @@
     </row>
     <row r="10" spans="1:79" ht="17.25" thickBot="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -2357,139 +2290,139 @@
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!O11="","",AI!O11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!P11="","",AI!P11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!Q11="","",AI!Q11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!R11="","",AI!R11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!S11="","",AI!S11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!T11="","",AI!T11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U12" s="2" t="str">
         <f>IF(AI!U11="","",AI!U11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V12" s="2" t="str">
         <f>IF(AI!V11="","",AI!V11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="W12" s="2" t="str">
         <f>IF(AI!W11="","",AI!W11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="X12" s="2" t="str">
         <f>IF(AI!X11="","",AI!X11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Y12" s="2" t="str">
         <f>IF(AI!Y11="","",AI!Y11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Z12" s="2" t="str">
         <f>IF(AI!Z11="","",AI!Z11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AA12" s="2" t="str">
         <f>IF(AI!AA11="","",AI!AA11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AB12" s="2" t="str">
         <f>IF(AI!AB11="","",AI!AB11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AC12" s="2" t="str">
         <f>IF(AI!AC11="","",AI!AC11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AD12" s="2" t="str">
         <f>IF(AI!AD11="","",AI!AD11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AE12" s="2" t="str">
         <f>IF(AI!AE11="","",AI!AE11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AF12" s="2" t="str">
         <f>IF(AI!AF11="","",AI!AF11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AG12" s="2" t="str">
         <f>IF(AI!AG11="","",AI!AG11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AH12" s="2" t="str">
         <f>IF(AI!AH11="","",AI!AH11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AI12" s="2" t="str">
         <f>IF(AI!AI11="","",AI!AI11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AJ12" s="2" t="str">
         <f>IF(AI!AJ11="","",AI!AJ11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AK12" s="2" t="str">
         <f>IF(AI!AK11="","",AI!AK11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AL12" s="2" t="str">
         <f>IF(AI!AL11="","",AI!AL11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AM12" s="2" t="str">
         <f>IF(AI!AM11="","",AI!AM11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AN12" s="2" t="str">
         <f>IF(AI!AN11="","",AI!AN11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AO12" s="2" t="str">
         <f>IF(AI!AO11="","",AI!AO11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AP12" s="2" t="str">
         <f>IF(AI!AP11="","",AI!AP11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AQ12" s="2" t="str">
         <f>IF(AI!AQ11="","",AI!AQ11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AR12" s="2" t="str">
         <f>IF(AI!AR11="","",AI!AR11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AS12" s="2" t="str">
         <f>IF(AI!AS11="","",AI!AS11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AT12" s="2" t="str">
         <f>IF(AI!AT11="","",AI!AT11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AU12" s="2" t="str">
         <f>IF(AI!AU11="","",AI!AU11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AV12" s="2" t="str">
         <f>IF(AI!AV11="","",AI!AV11)</f>
@@ -2610,21 +2543,21 @@
     </row>
     <row r="14" spans="1:79" ht="17.25" thickBot="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -2956,7 +2889,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
@@ -2968,11 +2901,11 @@
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
@@ -2984,131 +2917,131 @@
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!O12="","",AI!O12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!P12="","",AI!P12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!Q12="","",AI!Q12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!R12="","",AI!R12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!S12="","",AI!S12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T16" s="2" t="str">
         <f>IF(AI!T12="","",AI!T12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U16" s="2" t="str">
         <f>IF(AI!U12="","",AI!U12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V16" s="2" t="str">
         <f>IF(AI!V12="","",AI!V12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="W16" s="2" t="str">
         <f>IF(AI!W12="","",AI!W12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="X16" s="2" t="str">
         <f>IF(AI!X12="","",AI!X12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Y16" s="2" t="str">
         <f>IF(AI!Y12="","",AI!Y12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Z16" s="2" t="str">
         <f>IF(AI!Z12="","",AI!Z12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AA16" s="2" t="str">
         <f>IF(AI!AA12="","",AI!AA12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AB16" s="2" t="str">
         <f>IF(AI!AB12="","",AI!AB12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AC16" s="2" t="str">
         <f>IF(AI!AC12="","",AI!AC12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AD16" s="2" t="str">
         <f>IF(AI!AD12="","",AI!AD12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AE16" s="2" t="str">
         <f>IF(AI!AE12="","",AI!AE12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AF16" s="2" t="str">
         <f>IF(AI!AF12="","",AI!AF12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AG16" s="2" t="str">
         <f>IF(AI!AG12="","",AI!AG12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AH16" s="2" t="str">
         <f>IF(AI!AH12="","",AI!AH12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AI16" s="2" t="str">
         <f>IF(AI!AI12="","",AI!AI12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AJ16" s="2" t="str">
         <f>IF(AI!AJ12="","",AI!AJ12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AK16" s="2" t="str">
         <f>IF(AI!AK12="","",AI!AK12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AL16" s="2" t="str">
         <f>IF(AI!AL12="","",AI!AL12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AM16" s="2" t="str">
         <f>IF(AI!AM12="","",AI!AM12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AN16" s="2" t="str">
         <f>IF(AI!AN12="","",AI!AN12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AO16" s="2" t="str">
         <f>IF(AI!AO12="","",AI!AO12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AP16" s="2" t="str">
         <f>IF(AI!AP12="","",AI!AP12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AQ16" s="2" t="str">
         <f>IF(AI!AQ12="","",AI!AQ12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AR16" s="2" t="str">
         <f>IF(AI!AR12="","",AI!AR12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AS16" s="2" t="str">
         <f>IF(AI!AS12="","",AI!AS12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AT16" s="2" t="str">
         <f>IF(AI!AT12="","",AI!AT12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AU16" s="2" t="str">
         <f>IF(AI!AU12="","",AI!AU12)</f>
@@ -3228,11 +3161,11 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
@@ -3242,21 +3175,21 @@
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -3636,514 +3569,514 @@
       <c r="CA21" s="13"/>
     </row>
     <row r="25" spans="1:79" ht="16.5" customHeight="1">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
     </row>
     <row r="26" spans="1:79" ht="16.5" customHeight="1">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
     </row>
     <row r="27" spans="1:79" ht="16.5" customHeight="1">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
     </row>
     <row r="28" spans="1:79" ht="16.5" customHeight="1">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
     </row>
     <row r="29" spans="1:79" ht="16.5" customHeight="1">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
     </row>
     <row r="30" spans="1:79" ht="16.5" customHeight="1">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
     </row>
     <row r="31" spans="1:79" ht="16.5" customHeight="1">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
     </row>
     <row r="32" spans="1:79" ht="16.5" customHeight="1">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
     </row>
     <row r="33" spans="2:29" ht="16.5" customHeight="1">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
     </row>
     <row r="34" spans="2:29" ht="16.5" customHeight="1">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
     </row>
     <row r="35" spans="2:29" ht="16.5" customHeight="1">
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
     </row>
     <row r="36" spans="2:29" ht="16.5" customHeight="1">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
     </row>
     <row r="37" spans="2:29" ht="16.5" customHeight="1">
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
     </row>
     <row r="38" spans="2:29" ht="16.5" customHeight="1">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
     </row>
     <row r="39" spans="2:29" ht="16.5" customHeight="1">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
     </row>
     <row r="40" spans="2:29" ht="16.5" customHeight="1">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
     </row>
     <row r="41" spans="2:29" ht="17.25" customHeight="1">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4442,7 +4375,7 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -4450,11 +4383,11 @@
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
@@ -4466,11 +4399,11 @@
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4478,135 +4411,135 @@
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R2" s="15" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S2" s="15" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T2" s="15" t="str">
         <f>IF(DATA!T3="","",DATA!T3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U2" s="15" t="str">
         <f>IF(DATA!U3="","",DATA!U3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V2" s="15" t="str">
         <f>IF(DATA!V3="","",DATA!V3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W2" s="15" t="str">
         <f>IF(DATA!W3="","",DATA!W3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="X2" s="15" t="str">
         <f>IF(DATA!X3="","",DATA!X3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Y2" s="15" t="str">
         <f>IF(DATA!Y3="","",DATA!Y3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Z2" s="15" t="str">
         <f>IF(DATA!Z3="","",DATA!Z3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AA2" s="15" t="str">
         <f>IF(DATA!AA3="","",DATA!AA3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AB2" s="15" t="str">
         <f>IF(DATA!AB3="","",DATA!AB3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AC2" s="15" t="str">
         <f>IF(DATA!AC3="","",DATA!AC3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AD2" s="15" t="str">
         <f>IF(DATA!AD3="","",DATA!AD3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AE2" s="15" t="str">
         <f>IF(DATA!AE3="","",DATA!AE3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AF2" s="15" t="str">
         <f>IF(DATA!AF3="","",DATA!AF3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AG2" s="15" t="str">
         <f>IF(DATA!AG3="","",DATA!AG3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AH2" s="15" t="str">
         <f>IF(DATA!AH3="","",DATA!AH3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AI2" s="15" t="str">
         <f>IF(DATA!AI3="","",DATA!AI3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AJ2" s="15" t="str">
         <f>IF(DATA!AJ3="","",DATA!AJ3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AK2" s="15" t="str">
         <f>IF(DATA!AK3="","",DATA!AK3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AL2" s="15" t="str">
         <f>IF(DATA!AL3="","",DATA!AL3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AM2" s="15" t="str">
         <f>IF(DATA!AM3="","",DATA!AM3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AN2" s="15" t="str">
         <f>IF(DATA!AN3="","",DATA!AN3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AO2" s="15" t="str">
         <f>IF(DATA!AO3="","",DATA!AO3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AP2" s="15" t="str">
         <f>IF(DATA!AP3="","",DATA!AP3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AQ2" s="15" t="str">
         <f>IF(DATA!AQ3="","",DATA!AQ3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AR2" s="15" t="str">
         <f>IF(DATA!AR3="","",DATA!AR3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AS2" s="15" t="str">
         <f>IF(DATA!AS3="","",DATA!AS3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AT2" s="15" t="str">
         <f>IF(DATA!AT3="","",DATA!AT3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AU2" s="15" t="str">
         <f>IF(DATA!AU3="","",DATA!AU3)</f>
@@ -4732,7 +4665,7 @@
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
@@ -4750,7 +4683,7 @@
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4762,143 +4695,143 @@
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="X3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Y3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Z3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AA3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AB3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AC3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AD3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AE3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AF3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AG3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AH3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AI3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AJ3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AK3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AL3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AM3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AN3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AO3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AP3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AQ3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AR3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AS3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AT3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AU3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AV3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5025,15 +4958,15 @@
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5041,19 +4974,19 @@
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5061,131 +4994,131 @@
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="X4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Y4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Z4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AA4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AB4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AC4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AD4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AE4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AF4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AG4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AH4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AI4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AJ4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AK4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AL4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AM4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AN4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AO4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AP4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AQ4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AR4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AS4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AT4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AU4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5327,11 +5260,11 @@
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
@@ -5349,7 +5282,7 @@
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5361,131 +5294,131 @@
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="X5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Y5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Z5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AA5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AB5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AC5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AD5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AE5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AF5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AG5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AH5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AI5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AJ5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AK5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AL5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AM5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AN5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AO5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AP5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AQ5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AR5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AS5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AT5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AU5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AV5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5618,159 +5551,159 @@
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="X6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Y6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Z6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AA6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AB6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AC6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AD6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AE6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AF6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AG6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AH6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AI6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AJ6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AK6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AL6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AM6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AN6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AO6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AP6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AQ6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AR6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AS6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AT6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AU6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5925,11 +5858,11 @@
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -5937,139 +5870,139 @@
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="O7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="P7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="V7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="W7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="X7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Y7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Z7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AA7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AB7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AC7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AD7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AE7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AF7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AG7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AH7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AI7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AJ7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AK7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AL7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AM7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AN7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AO7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AP7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AQ7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AR7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AS7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AT7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AU7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AV7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6212,7 +6145,7 @@
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
@@ -6254,193 +6187,193 @@
         <f t="shared" ref="O8" si="24">IF(O$2="","",
 IF(O7="N","N",
 IF(O$2=O7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" ref="P8" si="25">IF(P$2="","",
 IF(P7="N","N",
 IF(P$2=P7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" ref="Q8" si="26">IF(Q$2="","",
 IF(Q7="N","N",
 IF(Q$2=Q7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" ref="R8" si="27">IF(R$2="","",
 IF(R7="N","N",
 IF(R$2=R7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" ref="S8" si="28">IF(S$2="","",
 IF(S7="N","N",
 IF(S$2=S7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T8" s="15" t="str">
         <f t="shared" ref="T8" si="29">IF(T$2="","",
 IF(T7="N","N",
 IF(T$2=T7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="U8" s="15" t="str">
         <f t="shared" ref="U8" si="30">IF(U$2="","",
 IF(U7="N","N",
 IF(U$2=U7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="V8" s="15" t="str">
         <f t="shared" ref="V8" si="31">IF(V$2="","",
 IF(V7="N","N",
 IF(V$2=V7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W8" s="15" t="str">
         <f t="shared" ref="W8" si="32">IF(W$2="","",
 IF(W7="N","N",
 IF(W$2=W7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="X8" s="15" t="str">
         <f t="shared" ref="X8" si="33">IF(X$2="","",
 IF(X7="N","N",
 IF(X$2=X7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Y8" s="15" t="str">
         <f t="shared" ref="Y8" si="34">IF(Y$2="","",
 IF(Y7="N","N",
 IF(Y$2=Y7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Z8" s="15" t="str">
         <f t="shared" ref="Z8" si="35">IF(Z$2="","",
 IF(Z7="N","N",
 IF(Z$2=Z7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AA8" s="15" t="str">
         <f t="shared" ref="AA8" si="36">IF(AA$2="","",
 IF(AA7="N","N",
 IF(AA$2=AA7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AB8" s="15" t="str">
         <f t="shared" ref="AB8" si="37">IF(AB$2="","",
 IF(AB7="N","N",
 IF(AB$2=AB7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AC8" s="15" t="str">
         <f t="shared" ref="AC8" si="38">IF(AC$2="","",
 IF(AC7="N","N",
 IF(AC$2=AC7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AD8" s="15" t="str">
         <f t="shared" ref="AD8" si="39">IF(AD$2="","",
 IF(AD7="N","N",
 IF(AD$2=AD7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AE8" s="15" t="str">
         <f t="shared" ref="AE8" si="40">IF(AE$2="","",
 IF(AE7="N","N",
 IF(AE$2=AE7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AF8" s="15" t="str">
         <f t="shared" ref="AF8" si="41">IF(AF$2="","",
 IF(AF7="N","N",
 IF(AF$2=AF7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AG8" s="15" t="str">
         <f t="shared" ref="AG8" si="42">IF(AG$2="","",
 IF(AG7="N","N",
 IF(AG$2=AG7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AH8" s="15" t="str">
         <f t="shared" ref="AH8" si="43">IF(AH$2="","",
 IF(AH7="N","N",
 IF(AH$2=AH7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AI8" s="15" t="str">
         <f t="shared" ref="AI8" si="44">IF(AI$2="","",
 IF(AI7="N","N",
 IF(AI$2=AI7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AJ8" s="15" t="str">
         <f t="shared" ref="AJ8" si="45">IF(AJ$2="","",
 IF(AJ7="N","N",
 IF(AJ$2=AJ7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AK8" s="15" t="str">
         <f t="shared" ref="AK8" si="46">IF(AK$2="","",
 IF(AK7="N","N",
 IF(AK$2=AK7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AL8" s="15" t="str">
         <f t="shared" ref="AL8" si="47">IF(AL$2="","",
 IF(AL7="N","N",
 IF(AL$2=AL7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AM8" s="15" t="str">
         <f t="shared" ref="AM8" si="48">IF(AM$2="","",
 IF(AM7="N","N",
 IF(AM$2=AM7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AN8" s="15" t="str">
         <f t="shared" ref="AN8" si="49">IF(AN$2="","",
 IF(AN7="N","N",
 IF(AN$2=AN7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AO8" s="15" t="str">
         <f t="shared" ref="AO8" si="50">IF(AO$2="","",
 IF(AO7="N","N",
 IF(AO$2=AO7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AP8" s="15" t="str">
         <f t="shared" ref="AP8" si="51">IF(AP$2="","",
 IF(AP7="N","N",
 IF(AP$2=AP7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AQ8" s="15" t="str">
         <f t="shared" ref="AQ8" si="52">IF(AQ$2="","",
 IF(AQ7="N","N",
 IF(AQ$2=AQ7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AR8" s="15" t="str">
         <f t="shared" ref="AR8" si="53">IF(AR$2="","",
 IF(AR7="N","N",
 IF(AR$2=AR7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AS8" s="15" t="str">
         <f t="shared" ref="AS8" si="54">IF(AS$2="","",
 IF(AS7="N","N",
 IF(AS$2=AS7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AT8" s="15" t="str">
         <f t="shared" ref="AT8" si="55">IF(AT$2="","",
 IF(AT7="N","N",
 IF(AT$2=AT7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AU8" s="15" t="str">
         <f t="shared" ref="AU8" si="56">IF(AU$2="","",
@@ -6638,11 +6571,11 @@
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6650,139 +6583,139 @@
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="W9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="X9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Y9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Z9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AA9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AB9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AC9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AD9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AE9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AF9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AG9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AH9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AI9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AJ9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AK9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AL9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AM9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AN9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AO9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AP9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AQ9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AR9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AS9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AT9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AU9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AV9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6925,7 +6858,7 @@
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
@@ -6967,193 +6900,193 @@
         <f t="shared" ref="O10" si="95">IF(O$2="","",
 IF(O9="N","N",
 IF(O$2=O9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P10" s="15" t="str">
         <f t="shared" ref="P10" si="96">IF(P$2="","",
 IF(P9="N","N",
 IF(P$2=P9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q10" s="15" t="str">
         <f t="shared" ref="Q10" si="97">IF(Q$2="","",
 IF(Q9="N","N",
 IF(Q$2=Q9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" ref="R10" si="98">IF(R$2="","",
 IF(R9="N","N",
 IF(R$2=R9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S10" s="15" t="str">
         <f t="shared" ref="S10" si="99">IF(S$2="","",
 IF(S9="N","N",
 IF(S$2=S9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T10" s="15" t="str">
         <f t="shared" ref="T10" si="100">IF(T$2="","",
 IF(T9="N","N",
 IF(T$2=T9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U10" s="15" t="str">
         <f t="shared" ref="U10" si="101">IF(U$2="","",
 IF(U9="N","N",
 IF(U$2=U9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V10" s="15" t="str">
         <f t="shared" ref="V10" si="102">IF(V$2="","",
 IF(V9="N","N",
 IF(V$2=V9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="W10" s="15" t="str">
         <f t="shared" ref="W10" si="103">IF(W$2="","",
 IF(W9="N","N",
 IF(W$2=W9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="X10" s="15" t="str">
         <f t="shared" ref="X10" si="104">IF(X$2="","",
 IF(X9="N","N",
 IF(X$2=X9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Y10" s="15" t="str">
         <f t="shared" ref="Y10" si="105">IF(Y$2="","",
 IF(Y9="N","N",
 IF(Y$2=Y9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Z10" s="15" t="str">
         <f t="shared" ref="Z10" si="106">IF(Z$2="","",
 IF(Z9="N","N",
 IF(Z$2=Z9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AA10" s="15" t="str">
         <f t="shared" ref="AA10" si="107">IF(AA$2="","",
 IF(AA9="N","N",
 IF(AA$2=AA9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AB10" s="15" t="str">
         <f t="shared" ref="AB10" si="108">IF(AB$2="","",
 IF(AB9="N","N",
 IF(AB$2=AB9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AC10" s="15" t="str">
         <f t="shared" ref="AC10" si="109">IF(AC$2="","",
 IF(AC9="N","N",
 IF(AC$2=AC9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AD10" s="15" t="str">
         <f t="shared" ref="AD10" si="110">IF(AD$2="","",
 IF(AD9="N","N",
 IF(AD$2=AD9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AE10" s="15" t="str">
         <f t="shared" ref="AE10" si="111">IF(AE$2="","",
 IF(AE9="N","N",
 IF(AE$2=AE9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AF10" s="15" t="str">
         <f t="shared" ref="AF10" si="112">IF(AF$2="","",
 IF(AF9="N","N",
 IF(AF$2=AF9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AG10" s="15" t="str">
         <f t="shared" ref="AG10" si="113">IF(AG$2="","",
 IF(AG9="N","N",
 IF(AG$2=AG9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AH10" s="15" t="str">
         <f t="shared" ref="AH10" si="114">IF(AH$2="","",
 IF(AH9="N","N",
 IF(AH$2=AH9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AI10" s="15" t="str">
         <f t="shared" ref="AI10" si="115">IF(AI$2="","",
 IF(AI9="N","N",
 IF(AI$2=AI9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AJ10" s="15" t="str">
         <f t="shared" ref="AJ10" si="116">IF(AJ$2="","",
 IF(AJ9="N","N",
 IF(AJ$2=AJ9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AK10" s="15" t="str">
         <f t="shared" ref="AK10" si="117">IF(AK$2="","",
 IF(AK9="N","N",
 IF(AK$2=AK9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AL10" s="15" t="str">
         <f t="shared" ref="AL10" si="118">IF(AL$2="","",
 IF(AL9="N","N",
 IF(AL$2=AL9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AM10" s="15" t="str">
         <f t="shared" ref="AM10" si="119">IF(AM$2="","",
 IF(AM9="N","N",
 IF(AM$2=AM9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AN10" s="15" t="str">
         <f t="shared" ref="AN10" si="120">IF(AN$2="","",
 IF(AN9="N","N",
 IF(AN$2=AN9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AO10" s="15" t="str">
         <f t="shared" ref="AO10" si="121">IF(AO$2="","",
 IF(AO9="N","N",
 IF(AO$2=AO9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AP10" s="15" t="str">
         <f t="shared" ref="AP10" si="122">IF(AP$2="","",
 IF(AP9="N","N",
 IF(AP$2=AP9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AQ10" s="15" t="str">
         <f t="shared" ref="AQ10" si="123">IF(AQ$2="","",
 IF(AQ9="N","N",
 IF(AQ$2=AQ9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AR10" s="15" t="str">
         <f t="shared" ref="AR10" si="124">IF(AR$2="","",
 IF(AR9="N","N",
 IF(AR$2=AR9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AS10" s="15" t="str">
         <f t="shared" ref="AS10" si="125">IF(AS$2="","",
 IF(AS9="N","N",
 IF(AS$2=AS9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AT10" s="15" t="str">
         <f t="shared" ref="AT10" si="126">IF(AT$2="","",
 IF(AT9="N","N",
 IF(AT$2=AT9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AU10" s="15" t="str">
         <f t="shared" ref="AU10" si="127">IF(AU$2="","",
@@ -7372,238 +7305,238 @@
 IF(N9="N","N",
 IF(COUNTIF(J10:M10,"W")&gt;=2,N9,
 IF(COUNTIF(J10:M10,"W")&lt;2,IF(N9="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="O11" s="17" t="str">
         <f t="shared" ref="O11" si="157">IF(O9="","",
 IF(O9="N","N",
 IF(COUNTIF(K10:N10,"W")&gt;=2,O9,
 IF(COUNTIF(K10:N10,"W")&lt;2,IF(O9="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="P11" s="17" t="str">
         <f t="shared" ref="P11" si="158">IF(P9="","",
 IF(P9="N","N",
 IF(COUNTIF(L10:O10,"W")&gt;=2,P9,
 IF(COUNTIF(L10:O10,"W")&lt;2,IF(P9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q11" s="17" t="str">
         <f t="shared" ref="Q11" si="159">IF(Q9="","",
 IF(Q9="N","N",
 IF(COUNTIF(M10:P10,"W")&gt;=2,Q9,
 IF(COUNTIF(M10:P10,"W")&lt;2,IF(Q9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R11" s="17" t="str">
         <f t="shared" ref="R11" si="160">IF(R9="","",
 IF(R9="N","N",
 IF(COUNTIF(N10:Q10,"W")&gt;=2,R9,
 IF(COUNTIF(N10:Q10,"W")&lt;2,IF(R9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S11" s="17" t="str">
         <f t="shared" ref="S11" si="161">IF(S9="","",
 IF(S9="N","N",
 IF(COUNTIF(O10:R10,"W")&gt;=2,S9,
 IF(COUNTIF(O10:R10,"W")&lt;2,IF(S9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T11" s="17" t="str">
         <f t="shared" ref="T11" si="162">IF(T9="","",
 IF(T9="N","N",
 IF(COUNTIF(P10:S10,"W")&gt;=2,T9,
 IF(COUNTIF(P10:S10,"W")&lt;2,IF(T9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U11" s="17" t="str">
         <f t="shared" ref="U11" si="163">IF(U9="","",
 IF(U9="N","N",
 IF(COUNTIF(Q10:T10,"W")&gt;=2,U9,
 IF(COUNTIF(Q10:T10,"W")&lt;2,IF(U9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="V11" s="17" t="str">
         <f t="shared" ref="V11" si="164">IF(V9="","",
 IF(V9="N","N",
 IF(COUNTIF(R10:U10,"W")&gt;=2,V9,
 IF(COUNTIF(R10:U10,"W")&lt;2,IF(V9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="W11" s="17" t="str">
         <f t="shared" ref="W11" si="165">IF(W9="","",
 IF(W9="N","N",
 IF(COUNTIF(S10:V10,"W")&gt;=2,W9,
 IF(COUNTIF(S10:V10,"W")&lt;2,IF(W9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="X11" s="17" t="str">
         <f t="shared" ref="X11" si="166">IF(X9="","",
 IF(X9="N","N",
 IF(COUNTIF(T10:W10,"W")&gt;=2,X9,
 IF(COUNTIF(T10:W10,"W")&lt;2,IF(X9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Y11" s="17" t="str">
         <f t="shared" ref="Y11" si="167">IF(Y9="","",
 IF(Y9="N","N",
 IF(COUNTIF(U10:X10,"W")&gt;=2,Y9,
 IF(COUNTIF(U10:X10,"W")&lt;2,IF(Y9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Z11" s="17" t="str">
         <f t="shared" ref="Z11" si="168">IF(Z9="","",
 IF(Z9="N","N",
 IF(COUNTIF(V10:Y10,"W")&gt;=2,Z9,
 IF(COUNTIF(V10:Y10,"W")&lt;2,IF(Z9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AA11" s="17" t="str">
         <f t="shared" ref="AA11" si="169">IF(AA9="","",
 IF(AA9="N","N",
 IF(COUNTIF(W10:Z10,"W")&gt;=2,AA9,
 IF(COUNTIF(W10:Z10,"W")&lt;2,IF(AA9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AB11" s="17" t="str">
         <f t="shared" ref="AB11" si="170">IF(AB9="","",
 IF(AB9="N","N",
 IF(COUNTIF(X10:AA10,"W")&gt;=2,AB9,
 IF(COUNTIF(X10:AA10,"W")&lt;2,IF(AB9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AC11" s="17" t="str">
         <f t="shared" ref="AC11" si="171">IF(AC9="","",
 IF(AC9="N","N",
 IF(COUNTIF(Y10:AB10,"W")&gt;=2,AC9,
 IF(COUNTIF(Y10:AB10,"W")&lt;2,IF(AC9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AD11" s="17" t="str">
         <f t="shared" ref="AD11" si="172">IF(AD9="","",
 IF(AD9="N","N",
 IF(COUNTIF(Z10:AC10,"W")&gt;=2,AD9,
 IF(COUNTIF(Z10:AC10,"W")&lt;2,IF(AD9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AE11" s="17" t="str">
         <f t="shared" ref="AE11" si="173">IF(AE9="","",
 IF(AE9="N","N",
 IF(COUNTIF(AA10:AD10,"W")&gt;=2,AE9,
 IF(COUNTIF(AA10:AD10,"W")&lt;2,IF(AE9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AF11" s="17" t="str">
         <f t="shared" ref="AF11" si="174">IF(AF9="","",
 IF(AF9="N","N",
 IF(COUNTIF(AB10:AE10,"W")&gt;=2,AF9,
 IF(COUNTIF(AB10:AE10,"W")&lt;2,IF(AF9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AG11" s="17" t="str">
         <f t="shared" ref="AG11" si="175">IF(AG9="","",
 IF(AG9="N","N",
 IF(COUNTIF(AC10:AF10,"W")&gt;=2,AG9,
 IF(COUNTIF(AC10:AF10,"W")&lt;2,IF(AG9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AH11" s="17" t="str">
         <f t="shared" ref="AH11" si="176">IF(AH9="","",
 IF(AH9="N","N",
 IF(COUNTIF(AD10:AG10,"W")&gt;=2,AH9,
 IF(COUNTIF(AD10:AG10,"W")&lt;2,IF(AH9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AI11" s="17" t="str">
         <f t="shared" ref="AI11" si="177">IF(AI9="","",
 IF(AI9="N","N",
 IF(COUNTIF(AE10:AH10,"W")&gt;=2,AI9,
 IF(COUNTIF(AE10:AH10,"W")&lt;2,IF(AI9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AJ11" s="17" t="str">
         <f t="shared" ref="AJ11" si="178">IF(AJ9="","",
 IF(AJ9="N","N",
 IF(COUNTIF(AF10:AI10,"W")&gt;=2,AJ9,
 IF(COUNTIF(AF10:AI10,"W")&lt;2,IF(AJ9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AK11" s="17" t="str">
         <f t="shared" ref="AK11" si="179">IF(AK9="","",
 IF(AK9="N","N",
 IF(COUNTIF(AG10:AJ10,"W")&gt;=2,AK9,
 IF(COUNTIF(AG10:AJ10,"W")&lt;2,IF(AK9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AL11" s="17" t="str">
         <f t="shared" ref="AL11" si="180">IF(AL9="","",
 IF(AL9="N","N",
 IF(COUNTIF(AH10:AK10,"W")&gt;=2,AL9,
 IF(COUNTIF(AH10:AK10,"W")&lt;2,IF(AL9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AM11" s="17" t="str">
         <f t="shared" ref="AM11" si="181">IF(AM9="","",
 IF(AM9="N","N",
 IF(COUNTIF(AI10:AL10,"W")&gt;=2,AM9,
 IF(COUNTIF(AI10:AL10,"W")&lt;2,IF(AM9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AN11" s="17" t="str">
         <f t="shared" ref="AN11" si="182">IF(AN9="","",
 IF(AN9="N","N",
 IF(COUNTIF(AJ10:AM10,"W")&gt;=2,AN9,
 IF(COUNTIF(AJ10:AM10,"W")&lt;2,IF(AN9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AO11" s="17" t="str">
         <f t="shared" ref="AO11" si="183">IF(AO9="","",
 IF(AO9="N","N",
 IF(COUNTIF(AK10:AN10,"W")&gt;=2,AO9,
 IF(COUNTIF(AK10:AN10,"W")&lt;2,IF(AO9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AP11" s="17" t="str">
         <f t="shared" ref="AP11" si="184">IF(AP9="","",
 IF(AP9="N","N",
 IF(COUNTIF(AL10:AO10,"W")&gt;=2,AP9,
 IF(COUNTIF(AL10:AO10,"W")&lt;2,IF(AP9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AQ11" s="17" t="str">
         <f t="shared" ref="AQ11" si="185">IF(AQ9="","",
 IF(AQ9="N","N",
 IF(COUNTIF(AM10:AP10,"W")&gt;=2,AQ9,
 IF(COUNTIF(AM10:AP10,"W")&lt;2,IF(AQ9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AR11" s="17" t="str">
         <f t="shared" ref="AR11" si="186">IF(AR9="","",
 IF(AR9="N","N",
 IF(COUNTIF(AN10:AQ10,"W")&gt;=2,AR9,
 IF(COUNTIF(AN10:AQ10,"W")&lt;2,IF(AR9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="AS11" s="17" t="str">
         <f t="shared" ref="AS11" si="187">IF(AS9="","",
 IF(AS9="N","N",
 IF(COUNTIF(AO10:AR10,"W")&gt;=2,AS9,
 IF(COUNTIF(AO10:AR10,"W")&lt;2,IF(AS9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AT11" s="17" t="str">
         <f t="shared" ref="AT11" si="188">IF(AT9="","",
 IF(AT9="N","N",
 IF(COUNTIF(AP10:AS10,"W")&gt;=2,AT9,
 IF(COUNTIF(AP10:AS10,"W")&lt;2,IF(AT9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AU11" s="17" t="str">
         <f t="shared" ref="AU11" si="189">IF(AU9="","",
 IF(AU9="N","N",
 IF(COUNTIF(AQ10:AT10,"W")&gt;=2,AU9,
 IF(COUNTIF(AQ10:AT10,"W")&lt;2,IF(AU9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="AV11" s="17" t="str">
         <f t="shared" ref="AV11" si="190">IF(AV9="","",
@@ -7818,7 +7751,7 @@
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
@@ -7836,13 +7769,13 @@
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",
 IF(L11="N","N",
 IF(L$2=L11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" ref="M12" si="224">IF(M$2="","",
@@ -7860,193 +7793,193 @@
         <f t="shared" ref="O12" si="226">IF(O$2="","",
 IF(O11="N","N",
 IF(O$2=O11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" ref="P12" si="227">IF(P$2="","",
 IF(P11="N","N",
 IF(P$2=P11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" ref="Q12" si="228">IF(Q$2="","",
 IF(Q11="N","N",
 IF(Q$2=Q11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" ref="R12" si="229">IF(R$2="","",
 IF(R11="N","N",
 IF(R$2=R11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" ref="S12" si="230">IF(S$2="","",
 IF(S11="N","N",
 IF(S$2=S11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T12" s="15" t="str">
         <f t="shared" ref="T12" si="231">IF(T$2="","",
 IF(T11="N","N",
 IF(T$2=T11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="U12" s="15" t="str">
         <f t="shared" ref="U12" si="232">IF(U$2="","",
 IF(U11="N","N",
 IF(U$2=U11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="V12" s="15" t="str">
         <f t="shared" ref="V12" si="233">IF(V$2="","",
 IF(V11="N","N",
 IF(V$2=V11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="W12" s="15" t="str">
         <f t="shared" ref="W12" si="234">IF(W$2="","",
 IF(W11="N","N",
 IF(W$2=W11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="X12" s="15" t="str">
         <f t="shared" ref="X12" si="235">IF(X$2="","",
 IF(X11="N","N",
 IF(X$2=X11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Y12" s="15" t="str">
         <f t="shared" ref="Y12" si="236">IF(Y$2="","",
 IF(Y11="N","N",
 IF(Y$2=Y11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Z12" s="15" t="str">
         <f t="shared" ref="Z12" si="237">IF(Z$2="","",
 IF(Z11="N","N",
 IF(Z$2=Z11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AA12" s="15" t="str">
         <f t="shared" ref="AA12" si="238">IF(AA$2="","",
 IF(AA11="N","N",
 IF(AA$2=AA11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AB12" s="15" t="str">
         <f t="shared" ref="AB12" si="239">IF(AB$2="","",
 IF(AB11="N","N",
 IF(AB$2=AB11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AC12" s="15" t="str">
         <f t="shared" ref="AC12" si="240">IF(AC$2="","",
 IF(AC11="N","N",
 IF(AC$2=AC11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AD12" s="15" t="str">
         <f t="shared" ref="AD12" si="241">IF(AD$2="","",
 IF(AD11="N","N",
 IF(AD$2=AD11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AE12" s="15" t="str">
         <f t="shared" ref="AE12" si="242">IF(AE$2="","",
 IF(AE11="N","N",
 IF(AE$2=AE11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AF12" s="15" t="str">
         <f t="shared" ref="AF12" si="243">IF(AF$2="","",
 IF(AF11="N","N",
 IF(AF$2=AF11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AG12" s="15" t="str">
         <f t="shared" ref="AG12" si="244">IF(AG$2="","",
 IF(AG11="N","N",
 IF(AG$2=AG11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AH12" s="15" t="str">
         <f t="shared" ref="AH12" si="245">IF(AH$2="","",
 IF(AH11="N","N",
 IF(AH$2=AH11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AI12" s="15" t="str">
         <f t="shared" ref="AI12" si="246">IF(AI$2="","",
 IF(AI11="N","N",
 IF(AI$2=AI11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AJ12" s="15" t="str">
         <f t="shared" ref="AJ12" si="247">IF(AJ$2="","",
 IF(AJ11="N","N",
 IF(AJ$2=AJ11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AK12" s="15" t="str">
         <f t="shared" ref="AK12" si="248">IF(AK$2="","",
 IF(AK11="N","N",
 IF(AK$2=AK11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AL12" s="15" t="str">
         <f t="shared" ref="AL12" si="249">IF(AL$2="","",
 IF(AL11="N","N",
 IF(AL$2=AL11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AM12" s="15" t="str">
         <f t="shared" ref="AM12" si="250">IF(AM$2="","",
 IF(AM11="N","N",
 IF(AM$2=AM11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AN12" s="15" t="str">
         <f t="shared" ref="AN12" si="251">IF(AN$2="","",
 IF(AN11="N","N",
 IF(AN$2=AN11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AO12" s="15" t="str">
         <f t="shared" ref="AO12" si="252">IF(AO$2="","",
 IF(AO11="N","N",
 IF(AO$2=AO11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AP12" s="15" t="str">
         <f t="shared" ref="AP12" si="253">IF(AP$2="","",
 IF(AP11="N","N",
 IF(AP$2=AP11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AQ12" s="15" t="str">
         <f t="shared" ref="AQ12" si="254">IF(AQ$2="","",
 IF(AQ11="N","N",
 IF(AQ$2=AQ11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AR12" s="15" t="str">
         <f t="shared" ref="AR12" si="255">IF(AR$2="","",
 IF(AR11="N","N",
 IF(AR$2=AR11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AS12" s="15" t="str">
         <f t="shared" ref="AS12" si="256">IF(AS$2="","",
 IF(AS11="N","N",
 IF(AS$2=AS11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AT12" s="15" t="str">
         <f t="shared" ref="AT12" si="257">IF(AT$2="","",
 IF(AT11="N","N",
 IF(AT$2=AT11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="AU12" s="15" t="str">
         <f t="shared" ref="AU12" si="258">IF(AU$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB427154-2127-4B27-A049-2E6F3767BA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A30B2B-3C0B-4F15-9D94-676183F9A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1327,15 +1327,9 @@
       <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1399,16 +1393,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2266,35 +2260,35 @@
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!H11="","",AI!H11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!O11="","",AI!O11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!P11="","",AI!P11)</f>
@@ -2889,31 +2883,31 @@
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!J12="","",AI!J12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!N12="","",AI!N12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!O12="","",AI!O12)</f>
@@ -3161,16 +3155,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4363,7 +4357,7 @@
       </c>
       <c r="B2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
@@ -4403,15 +4397,15 @@
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
@@ -4665,7 +4659,7 @@
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
@@ -4695,15 +4689,15 @@
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4958,7 +4952,7 @@
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4982,15 +4976,15 @@
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5256,7 +5250,7 @@
 IF(H3="N","N",
 IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
 IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
@@ -5282,15 +5276,15 @@
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5551,7 +5545,7 @@
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5567,15 +5561,15 @@
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5840,14 +5834,14 @@
       </c>
       <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I7" s="17" t="str">
         <f>IF(I5="","",
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
@@ -5866,15 +5860,15 @@
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6145,13 +6139,13 @@
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
 IF(I7="N","N",
 IF(I$2=I7,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" ref="J8" si="19">IF(J$2="","",
@@ -6169,19 +6163,19 @@
         <f t="shared" ref="L8" si="21">IF(L$2="","",
 IF(L7="N","N",
 IF(L$2=L7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" ref="M8" si="22">IF(M$2="","",
 IF(M7="N","N",
 IF(M$2=M7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" ref="N8" si="23">IF(N$2="","",
 IF(N7="N","N",
 IF(N$2=N7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" ref="O8" si="24">IF(O$2="","",
@@ -6556,18 +6550,18 @@
       </c>
       <c r="H9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J9" s="17" t="str">
         <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
 IF(J7="N","N",
 IF(I8="W",J7,
 IF(I8="L",IF(J7="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6579,15 +6573,15 @@
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6858,19 +6852,19 @@
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
 IF(I9="N","N",
 IF(I$2=I9,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J10" s="15" t="str">
         <f t="shared" ref="J10" si="90">IF(J$2="","",
 IF(J9="N","N",
 IF(J$2=J9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" ref="K10" si="91">IF(K$2="","",
@@ -6882,19 +6876,19 @@
         <f t="shared" ref="L10" si="92">IF(L$2="","",
 IF(L9="N","N",
 IF(L$2=L9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M10" s="15" t="str">
         <f t="shared" ref="M10" si="93">IF(M$2="","",
 IF(M9="N","N",
 IF(M$2=M9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N10" s="15" t="str">
         <f t="shared" ref="N10" si="94">IF(N$2="","",
 IF(N9="N","N",
 IF(N$2=N9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O10" s="15" t="str">
         <f t="shared" ref="O10" si="95">IF(O$2="","",
@@ -7269,50 +7263,50 @@
       </c>
       <c r="H11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" ref="K11" si="153">IF(K9="","",
 IF(K9="N","N",
 IF(COUNTIF(G10:J10,"W")&gt;=2,K9,
 IF(COUNTIF(G10:J10,"W")&lt;2,IF(K9="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L11" s="17" t="str">
         <f t="shared" ref="L11" si="154">IF(L9="","",
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
 IF(M9="N","N",
 IF(COUNTIF(I10:L10,"W")&gt;=2,M9,
 IF(COUNTIF(I10:L10,"W")&lt;2,IF(M9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N11" s="17" t="str">
         <f t="shared" ref="N11" si="156">IF(N9="","",
 IF(N9="N","N",
 IF(COUNTIF(J10:M10,"W")&gt;=2,N9,
 IF(COUNTIF(J10:M10,"W")&lt;2,IF(N9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O11" s="17" t="str">
         <f t="shared" ref="O11" si="157">IF(O9="","",
 IF(O9="N","N",
 IF(COUNTIF(K10:N10,"W")&gt;=2,O9,
 IF(COUNTIF(K10:N10,"W")&lt;2,IF(O9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P11" s="17" t="str">
         <f t="shared" ref="P11" si="158">IF(P9="","",
@@ -7751,43 +7745,43 @@
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
 IF(I11="N","N",
 IF(I$2=I11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" ref="J12" si="221">IF(J$2="","",
 IF(J11="N","N",
 IF(J$2=J11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",
 IF(L11="N","N",
 IF(L$2=L11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" ref="M12" si="224">IF(M$2="","",
 IF(M11="N","N",
 IF(M$2=M11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" ref="N12" si="225">IF(N$2="","",
 IF(N11="N","N",
 IF(N$2=N11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" ref="O12" si="226">IF(O$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A30B2B-3C0B-4F15-9D94-676183F9A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB15814-B7B0-4A11-8A1C-B08DB0B836B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -1307,25 +1307,25 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1393,11 +1393,11 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
@@ -2891,11 +2891,11 @@
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!J12="","",AI!J12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
@@ -3155,16 +3155,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4369,11 +4369,11 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
@@ -4389,11 +4389,11 @@
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4659,25 +4659,25 @@
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
 IF(AND(C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(C2=D2,F2,IF(F2="P","B","P"))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5254,15 +5254,15 @@
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L5" s="17" t="str">
         <f>IF(L3="","",
@@ -5545,11 +5545,11 @@
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6139,7 +6139,7 @@
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
@@ -6151,7 +6151,7 @@
         <f t="shared" ref="J8" si="19">IF(J$2="","",
 IF(J7="N","N",
 IF(J$2=J7,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" ref="K8" si="20">IF(K$2="","",
@@ -6852,7 +6852,7 @@
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
@@ -6864,13 +6864,13 @@
         <f t="shared" ref="J10" si="90">IF(J$2="","",
 IF(J9="N","N",
 IF(J$2=J9,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" ref="K10" si="91">IF(K$2="","",
 IF(K9="N","N",
 IF(K$2=K9,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L10" s="15" t="str">
         <f t="shared" ref="L10" si="92">IF(L$2="","",
@@ -7745,7 +7745,7 @@
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
@@ -7757,13 +7757,13 @@
         <f t="shared" ref="J12" si="221">IF(J$2="","",
 IF(J11="N","N",
 IF(J$2=J11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB15814-B7B0-4A11-8A1C-B08DB0B836B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E9E6C-D6CB-436D-AF47-2FFAB915BABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,10 +132,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P</t>
+    <t>B</t>
   </si>
   <si>
-    <t>B</t>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -1298,37 +1298,41 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1393,7 +1397,7 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
@@ -1402,7 +1406,7 @@
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2260,7 +2264,7 @@
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!H11="","",AI!H11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
@@ -2268,7 +2272,7 @@
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
@@ -2276,15 +2280,15 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!O11="","",AI!O11)</f>
@@ -2883,7 +2887,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
@@ -2891,7 +2895,7 @@
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!J12="","",AI!J12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
@@ -2899,11 +2903,11 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!N12="","",AI!N12)</f>
@@ -3155,11 +3159,11 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
@@ -4361,7 +4365,7 @@
       </c>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -4377,7 +4381,7 @@
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
@@ -4397,11 +4401,11 @@
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -4659,17 +4663,17 @@
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
 IF(AND(C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(C2=D2,F2,IF(F2="P","B","P"))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4677,11 +4681,11 @@
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4689,11 +4693,11 @@
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4952,7 +4956,7 @@
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4960,7 +4964,7 @@
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4968,19 +4972,19 @@
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5250,11 +5254,11 @@
 IF(H3="N","N",
 IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
 IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
@@ -5262,25 +5266,25 @@
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L5" s="17" t="str">
         <f>IF(L3="","",
 IF(L3="N","N",
 IF(COUNTIF(H4:K4,"W")&gt;=2,L3,
 IF(COUNTIF(H4:K4,"W")&lt;2,IF(L3="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M5" s="17" t="str">
         <f t="shared" ref="M5:BS5" si="6">IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5545,11 +5549,11 @@
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5557,15 +5561,15 @@
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5834,7 +5838,7 @@
       </c>
       <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I7" s="17" t="str">
         <f>IF(I5="","",
@@ -5848,11 +5852,11 @@
 IF(J5="N","N",
 IF(I6="W",J5,
 IF(I6="L",IF(J5="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -5860,11 +5864,11 @@
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6139,7 +6143,7 @@
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
@@ -6151,25 +6155,25 @@
         <f t="shared" ref="J8" si="19">IF(J$2="","",
 IF(J7="N","N",
 IF(J$2=J7,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" ref="K8" si="20">IF(K$2="","",
 IF(K7="N","N",
 IF(K$2=K7,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" ref="L8" si="21">IF(L$2="","",
 IF(L7="N","N",
 IF(L$2=L7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" ref="M8" si="22">IF(M$2="","",
 IF(M7="N","N",
 IF(M$2=M7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" ref="N8" si="23">IF(N$2="","",
@@ -6550,7 +6554,7 @@
       </c>
       <c r="H9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
@@ -6561,7 +6565,7 @@
 IF(J7="N","N",
 IF(I8="W",J7,
 IF(I8="L",IF(J7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6569,15 +6573,15 @@
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6852,7 +6856,7 @@
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
@@ -6864,7 +6868,7 @@
         <f t="shared" ref="J10" si="90">IF(J$2="","",
 IF(J9="N","N",
 IF(J$2=J9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" ref="K10" si="91">IF(K$2="","",
@@ -6876,13 +6880,13 @@
         <f t="shared" ref="L10" si="92">IF(L$2="","",
 IF(L9="N","N",
 IF(L$2=L9,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M10" s="15" t="str">
         <f t="shared" ref="M10" si="93">IF(M$2="","",
 IF(M9="N","N",
 IF(M$2=M9,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N10" s="15" t="str">
         <f t="shared" ref="N10" si="94">IF(N$2="","",
@@ -7263,7 +7267,7 @@
       </c>
       <c r="H11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
@@ -7271,7 +7275,7 @@
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" ref="K11" si="153">IF(K9="","",
@@ -7285,21 +7289,21 @@
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
 IF(M9="N","N",
 IF(COUNTIF(I10:L10,"W")&gt;=2,M9,
 IF(COUNTIF(I10:L10,"W")&lt;2,IF(M9="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N11" s="17" t="str">
         <f t="shared" ref="N11" si="156">IF(N9="","",
 IF(N9="N","N",
 IF(COUNTIF(J10:M10,"W")&gt;=2,N9,
 IF(COUNTIF(J10:M10,"W")&lt;2,IF(N9="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O11" s="17" t="str">
         <f t="shared" ref="O11" si="157">IF(O9="","",
@@ -7745,7 +7749,7 @@
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
@@ -7757,7 +7761,7 @@
         <f t="shared" ref="J12" si="221">IF(J$2="","",
 IF(J11="N","N",
 IF(J$2=J11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" ref="K12" si="222">IF(K$2="","",
@@ -7769,13 +7773,13 @@
         <f t="shared" ref="L12" si="223">IF(L$2="","",
 IF(L11="N","N",
 IF(L$2=L11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" ref="M12" si="224">IF(M$2="","",
 IF(M11="N","N",
 IF(M$2=M11,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" ref="N12" si="225">IF(N$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E9E6C-D6CB-436D-AF47-2FFAB915BABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC54FDC-21F5-4E00-9D1F-892ACCD2577E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1307,10 +1307,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -1325,14 +1325,12 @@
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -1397,16 +1395,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2264,7 +2262,7 @@
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!H11="","",AI!H11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
@@ -2272,7 +2270,7 @@
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
@@ -2284,11 +2282,11 @@
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!O11="","",AI!O11)</f>
@@ -2887,7 +2885,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
@@ -2895,11 +2893,11 @@
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!J12="","",AI!J12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
@@ -2907,7 +2905,7 @@
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!N12="","",AI!N12)</f>
@@ -3159,16 +3157,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4373,11 +4371,11 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
@@ -4397,7 +4395,7 @@
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4405,7 +4403,7 @@
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
@@ -4663,17 +4661,17 @@
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
 IF(AND(C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(C2=D2,F2,IF(F2="P","B","P"))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4681,7 +4679,7 @@
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4689,7 +4687,7 @@
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4697,7 +4695,7 @@
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4960,11 +4958,11 @@
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4972,19 +4970,19 @@
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5254,11 +5252,11 @@
 IF(H3="N","N",
 IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
 IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
@@ -5266,7 +5264,7 @@
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L5" s="17" t="str">
         <f>IF(L3="","",
@@ -5280,11 +5278,11 @@
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5549,11 +5547,11 @@
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5569,7 +5567,7 @@
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5838,7 +5836,7 @@
       </c>
       <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I7" s="17" t="str">
         <f>IF(I5="","",
@@ -5852,11 +5850,11 @@
 IF(J5="N","N",
 IF(I6="W",J5,
 IF(I6="L",IF(J5="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -5864,11 +5862,11 @@
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6143,7 +6141,7 @@
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
@@ -6155,7 +6153,7 @@
         <f t="shared" ref="J8" si="19">IF(J$2="","",
 IF(J7="N","N",
 IF(J$2=J7,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" ref="K8" si="20">IF(K$2="","",
@@ -6173,7 +6171,7 @@
         <f t="shared" ref="M8" si="22">IF(M$2="","",
 IF(M7="N","N",
 IF(M$2=M7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" ref="N8" si="23">IF(N$2="","",
@@ -6554,7 +6552,7 @@
       </c>
       <c r="H9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
@@ -6565,7 +6563,7 @@
 IF(J7="N","N",
 IF(I8="W",J7,
 IF(I8="L",IF(J7="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6577,11 +6575,11 @@
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6856,7 +6854,7 @@
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
@@ -6868,13 +6866,13 @@
         <f t="shared" ref="J10" si="90">IF(J$2="","",
 IF(J9="N","N",
 IF(J$2=J9,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" ref="K10" si="91">IF(K$2="","",
 IF(K9="N","N",
 IF(K$2=K9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L10" s="15" t="str">
         <f t="shared" ref="L10" si="92">IF(L$2="","",
@@ -6886,7 +6884,7 @@
         <f t="shared" ref="M10" si="93">IF(M$2="","",
 IF(M9="N","N",
 IF(M$2=M9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N10" s="15" t="str">
         <f t="shared" ref="N10" si="94">IF(N$2="","",
@@ -7267,7 +7265,7 @@
       </c>
       <c r="H11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
@@ -7275,7 +7273,7 @@
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" ref="K11" si="153">IF(K9="","",
@@ -7296,14 +7294,14 @@
 IF(M9="N","N",
 IF(COUNTIF(I10:L10,"W")&gt;=2,M9,
 IF(COUNTIF(I10:L10,"W")&lt;2,IF(M9="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N11" s="17" t="str">
         <f t="shared" ref="N11" si="156">IF(N9="","",
 IF(N9="N","N",
 IF(COUNTIF(J10:M10,"W")&gt;=2,N9,
 IF(COUNTIF(J10:M10,"W")&lt;2,IF(N9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O11" s="17" t="str">
         <f t="shared" ref="O11" si="157">IF(O9="","",
@@ -7749,7 +7747,7 @@
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
@@ -7761,13 +7759,13 @@
         <f t="shared" ref="J12" si="221">IF(J$2="","",
 IF(J11="N","N",
 IF(J$2=J11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",
@@ -7779,7 +7777,7 @@
         <f t="shared" ref="M12" si="224">IF(M$2="","",
 IF(M11="N","N",
 IF(M$2=M11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" ref="N12" si="225">IF(N$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC54FDC-21F5-4E00-9D1F-892ACCD2577E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF5B0CB-5B22-4B95-A15A-7123293EC425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,10 +132,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
+    <t>P</t>
   </si>
   <si>
-    <t>P</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1325,11 +1325,9 @@
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1395,16 +1393,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2262,15 +2260,15 @@
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!H11="","",AI!H11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
@@ -2278,11 +2276,11 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
@@ -2901,7 +2899,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
@@ -3161,12 +3159,12 @@
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4359,7 +4357,7 @@
       </c>
       <c r="B2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
@@ -4367,31 +4365,31 @@
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
@@ -4399,7 +4397,7 @@
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4671,19 +4669,19 @@
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4691,7 +4689,7 @@
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4954,11 +4952,11 @@
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4974,11 +4972,11 @@
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5252,15 +5250,15 @@
 IF(H3="N","N",
 IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
 IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
@@ -5271,14 +5269,14 @@
 IF(L3="N","N",
 IF(COUNTIF(H4:K4,"W")&gt;=2,L3,
 IF(COUNTIF(H4:K4,"W")&lt;2,IF(L3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M5" s="17" t="str">
         <f t="shared" ref="M5:BS5" si="6">IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5563,7 +5561,7 @@
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5836,21 +5834,21 @@
       </c>
       <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I7" s="17" t="str">
         <f>IF(I5="","",
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
 IF(J5="N","N",
 IF(I6="W",J5,
 IF(I6="L",IF(J5="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -5858,11 +5856,11 @@
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6165,7 +6163,7 @@
         <f t="shared" ref="L8" si="21">IF(L$2="","",
 IF(L7="N","N",
 IF(L$2=L7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" ref="M8" si="22">IF(M$2="","",
@@ -6552,18 +6550,18 @@
       </c>
       <c r="H9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="17" t="str">
         <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
 IF(J7="N","N",
 IF(I8="W",J7,
 IF(I8="L",IF(J7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6571,11 +6569,11 @@
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6878,7 +6876,7 @@
         <f t="shared" ref="L10" si="92">IF(L$2="","",
 IF(L9="N","N",
 IF(L$2=L9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M10" s="15" t="str">
         <f t="shared" ref="M10" si="93">IF(M$2="","",
@@ -7265,15 +7263,15 @@
       </c>
       <c r="H11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" ref="K11" si="153">IF(K9="","",
@@ -7287,14 +7285,14 @@
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
 IF(M9="N","N",
 IF(COUNTIF(I10:L10,"W")&gt;=2,M9,
 IF(COUNTIF(I10:L10,"W")&lt;2,IF(M9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N11" s="17" t="str">
         <f t="shared" ref="N11" si="156">IF(N9="","",
@@ -7771,7 +7769,7 @@
         <f t="shared" ref="L12" si="223">IF(L$2="","",
 IF(L11="N","N",
 IF(L$2=L11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" ref="M12" si="224">IF(M$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF5B0CB-5B22-4B95-A15A-7123293EC425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A204891C-4B1F-4BD5-89E5-ED16D8658E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A204891C-4B1F-4BD5-89E5-ED16D8658E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F40B1-2205-4746-815B-68FF4DF3646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,10 +132,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>P</t>
+    <t>B</t>
   </si>
   <si>
-    <t>B</t>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -1301,40 +1301,56 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1393,16 +1409,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2260,55 +2276,55 @@
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!H11="","",AI!H11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!O11="","",AI!O11)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!P11="","",AI!P11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!Q11="","",AI!Q11)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!R11="","",AI!R11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!S11="","",AI!S11)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!T11="","",AI!T11)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U12" s="2" t="str">
         <f>IF(AI!U11="","",AI!U11)</f>
@@ -2883,51 +2899,51 @@
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!J12="","",AI!J12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!N12="","",AI!N12)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!O12="","",AI!O12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!P12="","",AI!P12)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!Q12="","",AI!Q12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!R12="","",AI!R12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!S12="","",AI!S12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T16" s="2" t="str">
         <f>IF(AI!T12="","",AI!T12)</f>
@@ -3155,16 +3171,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4357,7 +4373,7 @@
       </c>
       <c r="B2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
@@ -4369,7 +4385,7 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -4397,35 +4413,35 @@
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R2" s="15" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S2" s="15" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T2" s="15" t="str">
         <f>IF(DATA!T3="","",DATA!T3)</f>
@@ -4669,11 +4685,11 @@
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4689,35 +4705,35 @@
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="U3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4960,11 +4976,11 @@
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4976,35 +4992,35 @@
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5250,7 +5266,7 @@
 IF(H3="N","N",
 IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
 IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
@@ -5276,35 +5292,35 @@
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="Q5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="R5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5545,7 +5561,7 @@
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5561,35 +5577,35 @@
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="Q6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5834,14 +5850,14 @@
       </c>
       <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I7" s="17" t="str">
         <f>IF(I5="","",
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
@@ -5860,35 +5876,35 @@
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="O7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="P7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="S7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6139,13 +6155,13 @@
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
 IF(I7="N","N",
 IF(I$2=I7,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" ref="J8" si="19">IF(J$2="","",
@@ -6163,49 +6179,49 @@
         <f t="shared" ref="L8" si="21">IF(L$2="","",
 IF(L7="N","N",
 IF(L$2=L7,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" ref="M8" si="22">IF(M$2="","",
 IF(M7="N","N",
 IF(M$2=M7,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" ref="N8" si="23">IF(N$2="","",
 IF(N7="N","N",
 IF(N$2=N7,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" ref="O8" si="24">IF(O$2="","",
 IF(O7="N","N",
 IF(O$2=O7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" ref="P8" si="25">IF(P$2="","",
 IF(P7="N","N",
 IF(P$2=P7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" ref="Q8" si="26">IF(Q$2="","",
 IF(Q7="N","N",
 IF(Q$2=Q7,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" ref="R8" si="27">IF(R$2="","",
 IF(R7="N","N",
 IF(R$2=R7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" ref="S8" si="28">IF(S$2="","",
 IF(S7="N","N",
 IF(S$2=S7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T8" s="15" t="str">
         <f t="shared" ref="T8" si="29">IF(T$2="","",
@@ -6550,18 +6566,18 @@
       </c>
       <c r="H9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J9" s="17" t="str">
         <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
 IF(J7="N","N",
 IF(I8="W",J7,
 IF(I8="L",IF(J7="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6573,35 +6589,35 @@
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="T9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6852,19 +6868,19 @@
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
 IF(I9="N","N",
 IF(I$2=I9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J10" s="15" t="str">
         <f t="shared" ref="J10" si="90">IF(J$2="","",
 IF(J9="N","N",
 IF(J$2=J9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" ref="K10" si="91">IF(K$2="","",
@@ -6876,49 +6892,49 @@
         <f t="shared" ref="L10" si="92">IF(L$2="","",
 IF(L9="N","N",
 IF(L$2=L9,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M10" s="15" t="str">
         <f t="shared" ref="M10" si="93">IF(M$2="","",
 IF(M9="N","N",
 IF(M$2=M9,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="N10" s="15" t="str">
         <f t="shared" ref="N10" si="94">IF(N$2="","",
 IF(N9="N","N",
 IF(N$2=N9,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O10" s="15" t="str">
         <f t="shared" ref="O10" si="95">IF(O$2="","",
 IF(O9="N","N",
 IF(O$2=O9,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P10" s="15" t="str">
         <f t="shared" ref="P10" si="96">IF(P$2="","",
 IF(P9="N","N",
 IF(P$2=P9,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q10" s="15" t="str">
         <f t="shared" ref="Q10" si="97">IF(Q$2="","",
 IF(Q9="N","N",
 IF(Q$2=Q9,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" ref="R10" si="98">IF(R$2="","",
 IF(R9="N","N",
 IF(R$2=R9,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S10" s="15" t="str">
         <f t="shared" ref="S10" si="99">IF(S$2="","",
 IF(S9="N","N",
 IF(S$2=S9,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="T10" s="15" t="str">
         <f t="shared" ref="T10" si="100">IF(T$2="","",
@@ -7263,85 +7279,85 @@
       </c>
       <c r="H11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" ref="K11" si="153">IF(K9="","",
 IF(K9="N","N",
 IF(COUNTIF(G10:J10,"W")&gt;=2,K9,
 IF(COUNTIF(G10:J10,"W")&lt;2,IF(K9="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L11" s="17" t="str">
         <f t="shared" ref="L11" si="154">IF(L9="","",
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
 IF(M9="N","N",
 IF(COUNTIF(I10:L10,"W")&gt;=2,M9,
 IF(COUNTIF(I10:L10,"W")&lt;2,IF(M9="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N11" s="17" t="str">
         <f t="shared" ref="N11" si="156">IF(N9="","",
 IF(N9="N","N",
 IF(COUNTIF(J10:M10,"W")&gt;=2,N9,
 IF(COUNTIF(J10:M10,"W")&lt;2,IF(N9="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="O11" s="17" t="str">
         <f t="shared" ref="O11" si="157">IF(O9="","",
 IF(O9="N","N",
 IF(COUNTIF(K10:N10,"W")&gt;=2,O9,
 IF(COUNTIF(K10:N10,"W")&lt;2,IF(O9="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="P11" s="17" t="str">
         <f t="shared" ref="P11" si="158">IF(P9="","",
 IF(P9="N","N",
 IF(COUNTIF(L10:O10,"W")&gt;=2,P9,
 IF(COUNTIF(L10:O10,"W")&lt;2,IF(P9="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="Q11" s="17" t="str">
         <f t="shared" ref="Q11" si="159">IF(Q9="","",
 IF(Q9="N","N",
 IF(COUNTIF(M10:P10,"W")&gt;=2,Q9,
 IF(COUNTIF(M10:P10,"W")&lt;2,IF(Q9="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="R11" s="17" t="str">
         <f t="shared" ref="R11" si="160">IF(R9="","",
 IF(R9="N","N",
 IF(COUNTIF(N10:Q10,"W")&gt;=2,R9,
 IF(COUNTIF(N10:Q10,"W")&lt;2,IF(R9="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="S11" s="17" t="str">
         <f t="shared" ref="S11" si="161">IF(S9="","",
 IF(S9="N","N",
 IF(COUNTIF(O10:R10,"W")&gt;=2,S9,
 IF(COUNTIF(O10:R10,"W")&lt;2,IF(S9="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="T11" s="17" t="str">
         <f t="shared" ref="T11" si="162">IF(T9="","",
 IF(T9="N","N",
 IF(COUNTIF(P10:S10,"W")&gt;=2,T9,
 IF(COUNTIF(P10:S10,"W")&lt;2,IF(T9="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="U11" s="17" t="str">
         <f t="shared" ref="U11" si="163">IF(U9="","",
@@ -7745,73 +7761,73 @@
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
 IF(I11="N","N",
 IF(I$2=I11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" ref="J12" si="221">IF(J$2="","",
 IF(J11="N","N",
 IF(J$2=J11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",
 IF(L11="N","N",
 IF(L$2=L11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" ref="M12" si="224">IF(M$2="","",
 IF(M11="N","N",
 IF(M$2=M11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" ref="N12" si="225">IF(N$2="","",
 IF(N11="N","N",
 IF(N$2=N11,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" ref="O12" si="226">IF(O$2="","",
 IF(O11="N","N",
 IF(O$2=O11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" ref="P12" si="227">IF(P$2="","",
 IF(P11="N","N",
 IF(P$2=P11,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" ref="Q12" si="228">IF(Q$2="","",
 IF(Q11="N","N",
 IF(Q$2=Q11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" ref="R12" si="229">IF(R$2="","",
 IF(R11="N","N",
 IF(R$2=R11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" ref="S12" si="230">IF(S$2="","",
 IF(S11="N","N",
 IF(S$2=S11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="T12" s="15" t="str">
         <f t="shared" ref="T12" si="231">IF(T$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F40B1-2205-4746-815B-68FF4DF3646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D047F19D-65F8-44EA-B4B3-9691CF706DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="2790" windowWidth="15660" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,10 +132,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
+    <t>P</t>
   </si>
   <si>
-    <t>P</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1304,13 +1304,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -1322,35 +1322,19 @@
         <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -1409,16 +1393,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2280,7 +2264,7 @@
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
@@ -2288,43 +2272,43 @@
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(AI!O11="","",AI!O11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P12" s="2" t="str">
         <f>IF(AI!P11="","",AI!P11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q12" s="2" t="str">
         <f>IF(AI!Q11="","",AI!Q11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R12" s="2" t="str">
         <f>IF(AI!R11="","",AI!R11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S12" s="2" t="str">
         <f>IF(AI!S11="","",AI!S11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(AI!T11="","",AI!T11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U12" s="2" t="str">
         <f>IF(AI!U11="","",AI!U11)</f>
@@ -2899,7 +2883,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
@@ -2911,39 +2895,39 @@
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N16" s="2" t="str">
         <f>IF(AI!N12="","",AI!N12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(AI!O12="","",AI!O12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P16" s="2" t="str">
         <f>IF(AI!P12="","",AI!P12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q16" s="2" t="str">
         <f>IF(AI!Q12="","",AI!Q12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R16" s="2" t="str">
         <f>IF(AI!R12="","",AI!R12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S16" s="2" t="str">
         <f>IF(AI!S12="","",AI!S12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T16" s="2" t="str">
         <f>IF(AI!T12="","",AI!T12)</f>
@@ -3171,11 +3155,11 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
@@ -4373,11 +4357,11 @@
       </c>
       <c r="B2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
@@ -4385,7 +4369,7 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -4393,15 +4377,15 @@
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -4413,35 +4397,35 @@
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N2" s="15" t="str">
         <f>IF(DATA!N3="","",DATA!N3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O2" s="15" t="str">
         <f>IF(DATA!O3="","",DATA!O3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P2" s="15" t="str">
         <f>IF(DATA!P3="","",DATA!P3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q2" s="15" t="str">
         <f>IF(DATA!Q3="","",DATA!Q3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R2" s="15" t="str">
         <f>IF(DATA!R3="","",DATA!R3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S2" s="15" t="str">
         <f>IF(DATA!S3="","",DATA!S3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T2" s="15" t="str">
         <f>IF(DATA!T3="","",DATA!T3)</f>
@@ -4675,13 +4659,13 @@
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
 IF(AND(C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(C2=D2,F2,IF(F2="P","B","P"))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4705,35 +4689,35 @@
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="U3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4968,7 +4952,7 @@
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4976,11 +4960,11 @@
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4992,35 +4976,35 @@
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5274,7 +5258,7 @@
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
@@ -5292,35 +5276,35 @@
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="Q5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="R5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T5" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5561,15 +5545,15 @@
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5577,35 +5561,35 @@
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="Q6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="R6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5857,7 +5841,7 @@
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
@@ -5868,7 +5852,7 @@
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -5876,35 +5860,35 @@
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="O7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="P7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="S7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6155,7 +6139,7 @@
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
@@ -6173,55 +6157,55 @@
         <f t="shared" ref="K8" si="20">IF(K$2="","",
 IF(K7="N","N",
 IF(K$2=K7,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" ref="L8" si="21">IF(L$2="","",
 IF(L7="N","N",
 IF(L$2=L7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" ref="M8" si="22">IF(M$2="","",
 IF(M7="N","N",
 IF(M$2=M7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N8" s="15" t="str">
         <f t="shared" ref="N8" si="23">IF(N$2="","",
 IF(N7="N","N",
 IF(N$2=N7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="O8" s="15" t="str">
         <f t="shared" ref="O8" si="24">IF(O$2="","",
 IF(O7="N","N",
 IF(O$2=O7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="P8" s="15" t="str">
         <f t="shared" ref="P8" si="25">IF(P$2="","",
 IF(P7="N","N",
 IF(P$2=P7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q8" s="15" t="str">
         <f t="shared" ref="Q8" si="26">IF(Q$2="","",
 IF(Q7="N","N",
 IF(Q$2=Q7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R8" s="15" t="str">
         <f t="shared" ref="R8" si="27">IF(R$2="","",
 IF(R7="N","N",
 IF(R$2=R7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="S8" s="15" t="str">
         <f t="shared" ref="S8" si="28">IF(S$2="","",
 IF(S7="N","N",
 IF(S$2=S7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T8" s="15" t="str">
         <f t="shared" ref="T8" si="29">IF(T$2="","",
@@ -6570,7 +6554,7 @@
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="17" t="str">
         <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
@@ -6581,43 +6565,43 @@
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="T9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6868,7 +6852,7 @@
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
@@ -6886,55 +6870,55 @@
         <f t="shared" ref="K10" si="91">IF(K$2="","",
 IF(K9="N","N",
 IF(K$2=K9,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L10" s="15" t="str">
         <f t="shared" ref="L10" si="92">IF(L$2="","",
 IF(L9="N","N",
 IF(L$2=L9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M10" s="15" t="str">
         <f t="shared" ref="M10" si="93">IF(M$2="","",
 IF(M9="N","N",
 IF(M$2=M9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="N10" s="15" t="str">
         <f t="shared" ref="N10" si="94">IF(N$2="","",
 IF(N9="N","N",
 IF(N$2=N9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O10" s="15" t="str">
         <f t="shared" ref="O10" si="95">IF(O$2="","",
 IF(O9="N","N",
 IF(O$2=O9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P10" s="15" t="str">
         <f t="shared" ref="P10" si="96">IF(P$2="","",
 IF(P9="N","N",
 IF(P$2=P9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q10" s="15" t="str">
         <f t="shared" ref="Q10" si="97">IF(Q$2="","",
 IF(Q9="N","N",
 IF(Q$2=Q9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R10" s="15" t="str">
         <f t="shared" ref="R10" si="98">IF(R$2="","",
 IF(R9="N","N",
 IF(R$2=R9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S10" s="15" t="str">
         <f t="shared" ref="S10" si="99">IF(S$2="","",
 IF(S9="N","N",
 IF(S$2=S9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="T10" s="15" t="str">
         <f t="shared" ref="T10" si="100">IF(T$2="","",
@@ -7283,7 +7267,7 @@
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
@@ -7294,70 +7278,70 @@
 IF(K9="N","N",
 IF(COUNTIF(G10:J10,"W")&gt;=2,K9,
 IF(COUNTIF(G10:J10,"W")&lt;2,IF(K9="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L11" s="17" t="str">
         <f t="shared" ref="L11" si="154">IF(L9="","",
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
 IF(M9="N","N",
 IF(COUNTIF(I10:L10,"W")&gt;=2,M9,
 IF(COUNTIF(I10:L10,"W")&lt;2,IF(M9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N11" s="17" t="str">
         <f t="shared" ref="N11" si="156">IF(N9="","",
 IF(N9="N","N",
 IF(COUNTIF(J10:M10,"W")&gt;=2,N9,
 IF(COUNTIF(J10:M10,"W")&lt;2,IF(N9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="O11" s="17" t="str">
         <f t="shared" ref="O11" si="157">IF(O9="","",
 IF(O9="N","N",
 IF(COUNTIF(K10:N10,"W")&gt;=2,O9,
 IF(COUNTIF(K10:N10,"W")&lt;2,IF(O9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="P11" s="17" t="str">
         <f t="shared" ref="P11" si="158">IF(P9="","",
 IF(P9="N","N",
 IF(COUNTIF(L10:O10,"W")&gt;=2,P9,
 IF(COUNTIF(L10:O10,"W")&lt;2,IF(P9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="Q11" s="17" t="str">
         <f t="shared" ref="Q11" si="159">IF(Q9="","",
 IF(Q9="N","N",
 IF(COUNTIF(M10:P10,"W")&gt;=2,Q9,
 IF(COUNTIF(M10:P10,"W")&lt;2,IF(Q9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="R11" s="17" t="str">
         <f t="shared" ref="R11" si="160">IF(R9="","",
 IF(R9="N","N",
 IF(COUNTIF(N10:Q10,"W")&gt;=2,R9,
 IF(COUNTIF(N10:Q10,"W")&lt;2,IF(R9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="S11" s="17" t="str">
         <f t="shared" ref="S11" si="161">IF(S9="","",
 IF(S9="N","N",
 IF(COUNTIF(O10:R10,"W")&gt;=2,S9,
 IF(COUNTIF(O10:R10,"W")&lt;2,IF(S9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T11" s="17" t="str">
         <f t="shared" ref="T11" si="162">IF(T9="","",
 IF(T9="N","N",
 IF(COUNTIF(P10:S10,"W")&gt;=2,T9,
 IF(COUNTIF(P10:S10,"W")&lt;2,IF(T9="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="U11" s="17" t="str">
         <f t="shared" ref="U11" si="163">IF(U9="","",
@@ -7761,7 +7745,7 @@
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
@@ -7779,55 +7763,55 @@
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",
 IF(L11="N","N",
 IF(L$2=L11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" ref="M12" si="224">IF(M$2="","",
 IF(M11="N","N",
 IF(M$2=M11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="N12" s="15" t="str">
         <f t="shared" ref="N12" si="225">IF(N$2="","",
 IF(N11="N","N",
 IF(N$2=N11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="O12" s="15" t="str">
         <f t="shared" ref="O12" si="226">IF(O$2="","",
 IF(O11="N","N",
 IF(O$2=O11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="P12" s="15" t="str">
         <f t="shared" ref="P12" si="227">IF(P$2="","",
 IF(P11="N","N",
 IF(P$2=P11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="Q12" s="15" t="str">
         <f t="shared" ref="Q12" si="228">IF(Q$2="","",
 IF(Q11="N","N",
 IF(Q$2=Q11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="R12" s="15" t="str">
         <f t="shared" ref="R12" si="229">IF(R$2="","",
 IF(R11="N","N",
 IF(R$2=R11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="S12" s="15" t="str">
         <f t="shared" ref="S12" si="230">IF(S$2="","",
 IF(S11="N","N",
 IF(S$2=S11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="T12" s="15" t="str">
         <f t="shared" ref="T12" si="231">IF(T$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D047F19D-65F8-44EA-B4B3-9691CF706DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD60DA-988F-422B-870A-EB6B8343C755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
+    <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,12 +130,6 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1297,36 +1291,16 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1391,18 +1365,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11">
+      <c r="BX3" s="11" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>4</v>
-      </c>
-      <c r="BY3" s="12">
+        <v/>
+      </c>
+      <c r="BY3" s="12" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13">
+      <c r="CA3" s="13" t="str">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2240,43 +2214,43 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!C11="","",AI!C11)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!D11="","",AI!D11)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!E11="","",AI!E11)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!F11="","",AI!F11)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!G11="","",AI!G11)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!H11="","",AI!H11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
@@ -2859,43 +2833,43 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!B12="","",AI!B12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!C12="","",AI!C12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!D12="","",AI!D12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!E12="","",AI!E12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!F12="","",AI!F12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!G12="","",AI!G12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!J12="","",AI!J12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
@@ -3153,18 +3127,18 @@
         <f>IF(AI!BW12="","",AI!BW12)</f>
         <v/>
       </c>
-      <c r="BX16" s="11">
+      <c r="BX16" s="11" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>0</v>
-      </c>
-      <c r="BY16" s="12">
+        <v/>
+      </c>
+      <c r="BY16" s="12" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13">
+      <c r="CA16" s="13" t="str">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-4</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4357,43 +4331,43 @@
       </c>
       <c r="B2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4645,47 +4619,47 @@
       </c>
       <c r="C3" s="15" t="str">
         <f>IF(B2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F3" s="15" t="str">
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
 IF(AND(C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(C2=D2,F2,IF(F2="P","B","P"))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4934,45 +4908,45 @@
         <f>IF(B$2="","",
 IF(B3="N","N",
 IF(B$2=B3,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C4" s="15" t="str">
         <f t="shared" ref="C4:BN4" si="2">IF(C$2="","",
 IF(C3="N","N",
 IF(C$2=C3,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5227,49 +5201,49 @@
       </c>
       <c r="C5" s="15" t="str">
         <f t="shared" ref="C5:G5" si="4">IF(C3="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H5" s="17" t="str">
         <f t="shared" ref="H5:K5" si="5">IF(H3="","",
 IF(H3="N","N",
 IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
 IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L5" s="17" t="str">
         <f>IF(L3="","",
 IF(L3="N","N",
 IF(COUNTIF(H4:K4,"W")&gt;=2,L3,
 IF(COUNTIF(H4:K4,"W")&lt;2,IF(L3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M5" s="17" t="str">
         <f t="shared" ref="M5:BS5" si="6">IF(M3="","",
@@ -5519,45 +5493,45 @@
         <f>IF(B$2="","",
 IF(B5="N","N",
 IF(B$2=B5,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C6" s="15" t="str">
         <f t="shared" ref="C6:BN6" si="7">IF(C$2="","",
 IF(C5="N","N",
 IF(C$2=C5,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5814,49 +5788,49 @@
       </c>
       <c r="C7" s="15" t="str">
         <f t="shared" ref="C7:H7" si="10">IF(C5="","",C5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I7" s="17" t="str">
         <f>IF(I5="","",
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
 IF(J5="N","N",
 IF(I6="W",J5,
 IF(I6="L",IF(J5="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6103,61 +6077,61 @@
         <f>IF(B$2="","",
 IF(B7="N","N",
 IF(B$2=B7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C8" s="15" t="str">
         <f t="shared" ref="C8" si="12">IF(C$2="","",
 IF(C7="N","N",
 IF(C$2=C7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D8" s="15" t="str">
         <f t="shared" ref="D8" si="13">IF(D$2="","",
 IF(D7="N","N",
 IF(D$2=D7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E8" s="15" t="str">
         <f t="shared" ref="E8" si="14">IF(E$2="","",
 IF(E7="N","N",
 IF(E$2=E7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F8" s="15" t="str">
         <f t="shared" ref="F8" si="15">IF(F$2="","",
 IF(F7="N","N",
 IF(F$2=F7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G8" s="15" t="str">
         <f t="shared" ref="G8" si="16">IF(G$2="","",
 IF(G7="N","N",
 IF(G$2=G7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H8" s="15" t="str">
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
 IF(I7="N","N",
 IF(I$2=I7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" ref="J8" si="19">IF(J$2="","",
 IF(J7="N","N",
 IF(J$2=J7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" ref="K8" si="20">IF(K$2="","",
 IF(K7="N","N",
 IF(K$2=K7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" ref="L8" si="21">IF(L$2="","",
@@ -6530,46 +6504,46 @@
       </c>
       <c r="C9" s="15" t="str">
         <f t="shared" ref="C9:I9" si="81">IF(C7="","",C7)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J9" s="17" t="str">
         <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
 IF(J7="N","N",
 IF(I8="W",J7,
 IF(I8="L",IF(J7="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6816,61 +6790,61 @@
         <f>IF(B$2="","",
 IF(B9="N","N",
 IF(B$2=B9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C10" s="15" t="str">
         <f t="shared" ref="C10" si="83">IF(C$2="","",
 IF(C9="N","N",
 IF(C$2=C9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" ref="D10" si="84">IF(D$2="","",
 IF(D9="N","N",
 IF(D$2=D9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E10" s="15" t="str">
         <f t="shared" ref="E10" si="85">IF(E$2="","",
 IF(E9="N","N",
 IF(E$2=E9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F10" s="15" t="str">
         <f t="shared" ref="F10" si="86">IF(F$2="","",
 IF(F9="N","N",
 IF(F$2=F9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G10" s="15" t="str">
         <f t="shared" ref="G10" si="87">IF(G$2="","",
 IF(G9="N","N",
 IF(G$2=G9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H10" s="15" t="str">
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
 IF(I9="N","N",
 IF(I$2=I9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J10" s="15" t="str">
         <f t="shared" ref="J10" si="90">IF(J$2="","",
 IF(J9="N","N",
 IF(J$2=J9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" ref="K10" si="91">IF(K$2="","",
 IF(K9="N","N",
 IF(K$2=K9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="L10" s="15" t="str">
         <f t="shared" ref="L10" si="92">IF(L$2="","",
@@ -7243,49 +7217,49 @@
       </c>
       <c r="C11" s="15" t="str">
         <f t="shared" ref="C11:J11" si="152">IF(C9="","",C9)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" ref="K11" si="153">IF(K9="","",
 IF(K9="N","N",
 IF(COUNTIF(G10:J10,"W")&gt;=2,K9,
 IF(COUNTIF(G10:J10,"W")&lt;2,IF(K9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L11" s="17" t="str">
         <f t="shared" ref="L11" si="154">IF(L9="","",
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
@@ -7709,61 +7683,61 @@
         <f>IF(B$2="","",
 IF(B11="N","N",
 IF(B$2=B11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C12" s="15" t="str">
         <f t="shared" ref="C12" si="214">IF(C$2="","",
 IF(C11="N","N",
 IF(C$2=C11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" ref="D12" si="215">IF(D$2="","",
 IF(D11="N","N",
 IF(D$2=D11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E12" s="15" t="str">
         <f t="shared" ref="E12" si="216">IF(E$2="","",
 IF(E11="N","N",
 IF(E$2=E11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F12" s="15" t="str">
         <f t="shared" ref="F12" si="217">IF(F$2="","",
 IF(F11="N","N",
 IF(F$2=F11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G12" s="15" t="str">
         <f t="shared" ref="G12" si="218">IF(G$2="","",
 IF(G11="N","N",
 IF(G$2=G11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H12" s="15" t="str">
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
 IF(I11="N","N",
 IF(I$2=I11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" ref="J12" si="221">IF(J$2="","",
 IF(J11="N","N",
 IF(J$2=J11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",
@@ -8129,6 +8103,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B5:BS12" formula="1"/>
   </ignoredErrors>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD60DA-988F-422B-870A-EB6B8343C755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96243B8B-534A-4F9B-8116-8918A4DD5C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96243B8B-534A-4F9B-8116-8918A4DD5C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCE23AB-E82F-4F6B-8DA1-25E10B934F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,6 +130,12 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1291,16 +1297,36 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1365,18 +1391,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11" t="str">
+      <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v/>
-      </c>
-      <c r="BY3" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13" t="str">
+      <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2214,43 +2240,43 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!C11="","",AI!C11)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!D11="","",AI!D11)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!E11="","",AI!E11)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!F11="","",AI!F11)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!G11="","",AI!G11)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!H11="","",AI!H11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
@@ -2833,43 +2859,43 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!B12="","",AI!B12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!C12="","",AI!C12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!D12="","",AI!D12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!E12="","",AI!E12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!F12="","",AI!F12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!G12="","",AI!G12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!J12="","",AI!J12)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
@@ -3127,18 +3153,18 @@
         <f>IF(AI!BW12="","",AI!BW12)</f>
         <v/>
       </c>
-      <c r="BX16" s="11" t="str">
+      <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v/>
-      </c>
-      <c r="BY16" s="12" t="str">
+        <v>3</v>
+      </c>
+      <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13" t="str">
+      <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4331,43 +4357,43 @@
       </c>
       <c r="B2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
@@ -4619,47 +4645,47 @@
       </c>
       <c r="C3" s="15" t="str">
         <f>IF(B2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F3" s="15" t="str">
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
 IF(AND(C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(C2=D2,F2,IF(F2="P","B","P"))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4908,45 +4934,45 @@
         <f>IF(B$2="","",
 IF(B3="N","N",
 IF(B$2=B3,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C4" s="15" t="str">
         <f t="shared" ref="C4:BN4" si="2">IF(C$2="","",
 IF(C3="N","N",
 IF(C$2=C3,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5201,49 +5227,49 @@
       </c>
       <c r="C5" s="15" t="str">
         <f t="shared" ref="C5:G5" si="4">IF(C3="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H5" s="17" t="str">
         <f t="shared" ref="H5:K5" si="5">IF(H3="","",
 IF(H3="N","N",
 IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
 IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L5" s="17" t="str">
         <f>IF(L3="","",
 IF(L3="N","N",
 IF(COUNTIF(H4:K4,"W")&gt;=2,L3,
 IF(COUNTIF(H4:K4,"W")&lt;2,IF(L3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M5" s="17" t="str">
         <f t="shared" ref="M5:BS5" si="6">IF(M3="","",
@@ -5493,45 +5519,45 @@
         <f>IF(B$2="","",
 IF(B5="N","N",
 IF(B$2=B5,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C6" s="15" t="str">
         <f t="shared" ref="C6:BN6" si="7">IF(C$2="","",
 IF(C5="N","N",
 IF(C$2=C5,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5788,49 +5814,49 @@
       </c>
       <c r="C7" s="15" t="str">
         <f t="shared" ref="C7:H7" si="10">IF(C5="","",C5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I7" s="17" t="str">
         <f>IF(I5="","",
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
 IF(J5="N","N",
 IF(I6="W",J5,
 IF(I6="L",IF(J5="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6077,61 +6103,61 @@
         <f>IF(B$2="","",
 IF(B7="N","N",
 IF(B$2=B7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C8" s="15" t="str">
         <f t="shared" ref="C8" si="12">IF(C$2="","",
 IF(C7="N","N",
 IF(C$2=C7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D8" s="15" t="str">
         <f t="shared" ref="D8" si="13">IF(D$2="","",
 IF(D7="N","N",
 IF(D$2=D7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E8" s="15" t="str">
         <f t="shared" ref="E8" si="14">IF(E$2="","",
 IF(E7="N","N",
 IF(E$2=E7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F8" s="15" t="str">
         <f t="shared" ref="F8" si="15">IF(F$2="","",
 IF(F7="N","N",
 IF(F$2=F7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G8" s="15" t="str">
         <f t="shared" ref="G8" si="16">IF(G$2="","",
 IF(G7="N","N",
 IF(G$2=G7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H8" s="15" t="str">
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
 IF(I7="N","N",
 IF(I$2=I7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" ref="J8" si="19">IF(J$2="","",
 IF(J7="N","N",
 IF(J$2=J7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" ref="K8" si="20">IF(K$2="","",
 IF(K7="N","N",
 IF(K$2=K7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" ref="L8" si="21">IF(L$2="","",
@@ -6504,46 +6530,46 @@
       </c>
       <c r="C9" s="15" t="str">
         <f t="shared" ref="C9:I9" si="81">IF(C7="","",C7)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J9" s="17" t="str">
         <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
 IF(J7="N","N",
 IF(I8="W",J7,
 IF(I8="L",IF(J7="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6790,61 +6816,61 @@
         <f>IF(B$2="","",
 IF(B9="N","N",
 IF(B$2=B9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C10" s="15" t="str">
         <f t="shared" ref="C10" si="83">IF(C$2="","",
 IF(C9="N","N",
 IF(C$2=C9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" ref="D10" si="84">IF(D$2="","",
 IF(D9="N","N",
 IF(D$2=D9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E10" s="15" t="str">
         <f t="shared" ref="E10" si="85">IF(E$2="","",
 IF(E9="N","N",
 IF(E$2=E9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F10" s="15" t="str">
         <f t="shared" ref="F10" si="86">IF(F$2="","",
 IF(F9="N","N",
 IF(F$2=F9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G10" s="15" t="str">
         <f t="shared" ref="G10" si="87">IF(G$2="","",
 IF(G9="N","N",
 IF(G$2=G9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H10" s="15" t="str">
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
 IF(I9="N","N",
 IF(I$2=I9,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J10" s="15" t="str">
         <f t="shared" ref="J10" si="90">IF(J$2="","",
 IF(J9="N","N",
 IF(J$2=J9,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" ref="K10" si="91">IF(K$2="","",
 IF(K9="N","N",
 IF(K$2=K9,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L10" s="15" t="str">
         <f t="shared" ref="L10" si="92">IF(L$2="","",
@@ -7217,49 +7243,49 @@
       </c>
       <c r="C11" s="15" t="str">
         <f t="shared" ref="C11:J11" si="152">IF(C9="","",C9)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" ref="K11" si="153">IF(K9="","",
 IF(K9="N","N",
 IF(COUNTIF(G10:J10,"W")&gt;=2,K9,
 IF(COUNTIF(G10:J10,"W")&lt;2,IF(K9="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L11" s="17" t="str">
         <f t="shared" ref="L11" si="154">IF(L9="","",
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
@@ -7683,61 +7709,61 @@
         <f>IF(B$2="","",
 IF(B11="N","N",
 IF(B$2=B11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C12" s="15" t="str">
         <f t="shared" ref="C12" si="214">IF(C$2="","",
 IF(C11="N","N",
 IF(C$2=C11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" ref="D12" si="215">IF(D$2="","",
 IF(D11="N","N",
 IF(D$2=D11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E12" s="15" t="str">
         <f t="shared" ref="E12" si="216">IF(E$2="","",
 IF(E11="N","N",
 IF(E$2=E11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F12" s="15" t="str">
         <f t="shared" ref="F12" si="217">IF(F$2="","",
 IF(F11="N","N",
 IF(F$2=F11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G12" s="15" t="str">
         <f t="shared" ref="G12" si="218">IF(G$2="","",
 IF(G11="N","N",
 IF(G$2=G11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H12" s="15" t="str">
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
 IF(I11="N","N",
 IF(I$2=I11,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" ref="J12" si="221">IF(J$2="","",
 IF(J11="N","N",
 IF(J$2=J11,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCE23AB-E82F-4F6B-8DA1-25E10B934F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527021D-DA8C-4263-B1DE-16CBB90A279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1307,19 +1307,19 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>12</v>
@@ -1327,7 +1327,9 @@
       <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1393,16 +1395,16 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2260,11 +2262,11 @@
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!H11="","",AI!H11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
@@ -2272,15 +2274,15 @@
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
@@ -2895,11 +2897,11 @@
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
@@ -3155,16 +3157,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4369,7 +4371,7 @@
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -4377,15 +4379,15 @@
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -4397,7 +4399,7 @@
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4659,7 +4661,7 @@
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
@@ -4689,7 +4691,7 @@
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4952,19 +4954,19 @@
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4976,7 +4978,7 @@
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5250,11 +5252,11 @@
 IF(H3="N","N",
 IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
 IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
@@ -5262,21 +5264,21 @@
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L5" s="17" t="str">
         <f>IF(L3="","",
 IF(L3="N","N",
 IF(COUNTIF(H4:K4,"W")&gt;=2,L3,
 IF(COUNTIF(H4:K4,"W")&lt;2,IF(L3="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M5" s="17" t="str">
         <f t="shared" ref="M5:BS5" si="6">IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5557,11 +5559,11 @@
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5834,14 +5836,14 @@
       </c>
       <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I7" s="17" t="str">
         <f>IF(I5="","",
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
@@ -5852,7 +5854,7 @@
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -5860,7 +5862,7 @@
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6157,13 +6159,13 @@
         <f t="shared" ref="K8" si="20">IF(K$2="","",
 IF(K7="N","N",
 IF(K$2=K7,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" ref="L8" si="21">IF(L$2="","",
 IF(L7="N","N",
 IF(L$2=L7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" ref="M8" si="22">IF(M$2="","",
@@ -6550,11 +6552,11 @@
       </c>
       <c r="H9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J9" s="17" t="str">
         <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
@@ -6565,15 +6567,15 @@
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6870,13 +6872,13 @@
         <f t="shared" ref="K10" si="91">IF(K$2="","",
 IF(K9="N","N",
 IF(K$2=K9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L10" s="15" t="str">
         <f t="shared" ref="L10" si="92">IF(L$2="","",
 IF(L9="N","N",
 IF(L$2=L9,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M10" s="15" t="str">
         <f t="shared" ref="M10" si="93">IF(M$2="","",
@@ -7263,11 +7265,11 @@
       </c>
       <c r="H11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
@@ -7278,21 +7280,21 @@
 IF(K9="N","N",
 IF(COUNTIF(G10:J10,"W")&gt;=2,K9,
 IF(COUNTIF(G10:J10,"W")&lt;2,IF(K9="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L11" s="17" t="str">
         <f t="shared" ref="L11" si="154">IF(L9="","",
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
 IF(M9="N","N",
 IF(COUNTIF(I10:L10,"W")&gt;=2,M9,
 IF(COUNTIF(I10:L10,"W")&lt;2,IF(M9="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N11" s="17" t="str">
         <f t="shared" ref="N11" si="156">IF(N9="","",
@@ -7763,13 +7765,13 @@
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",
 IF(L11="N","N",
 IF(L$2=L11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" ref="M12" si="224">IF(M$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527021D-DA8C-4263-B1DE-16CBB90A279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9384270E-7D80-4756-9167-37386744F240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
+    <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1298,16 +1298,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
@@ -1316,19 +1316,19 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1395,11 +1395,11 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
@@ -2266,19 +2266,19 @@
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!J12="","",AI!J12)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
@@ -4359,19 +4359,19 @@
       </c>
       <c r="B2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -4383,11 +4383,11 @@
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
@@ -4395,11 +4395,11 @@
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4661,7 +4661,7 @@
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
@@ -4679,15 +4679,15 @@
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4962,15 +4962,15 @@
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5271,7 +5271,7 @@
 IF(L3="N","N",
 IF(COUNTIF(H4:K4,"W")&gt;=2,L3,
 IF(COUNTIF(H4:K4,"W")&lt;2,IF(L3="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M5" s="17" t="str">
         <f t="shared" ref="M5:BS5" si="6">IF(M3="","",
@@ -5547,11 +5547,11 @@
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5843,14 +5843,14 @@
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
 IF(J5="N","N",
 IF(I6="W",J5,
 IF(I6="L",IF(J5="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6141,7 +6141,7 @@
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
@@ -6153,19 +6153,19 @@
         <f t="shared" ref="J8" si="19">IF(J$2="","",
 IF(J7="N","N",
 IF(J$2=J7,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" ref="K8" si="20">IF(K$2="","",
 IF(K7="N","N",
 IF(K$2=K7,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" ref="L8" si="21">IF(L$2="","",
 IF(L7="N","N",
 IF(L$2=L7,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" ref="M8" si="22">IF(M$2="","",
@@ -6556,26 +6556,26 @@
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J9" s="17" t="str">
         <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
 IF(J7="N","N",
 IF(I8="W",J7,
 IF(I8="L",IF(J7="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6854,7 +6854,7 @@
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
@@ -6866,7 +6866,7 @@
         <f t="shared" ref="J10" si="90">IF(J$2="","",
 IF(J9="N","N",
 IF(J$2=J9,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" ref="K10" si="91">IF(K$2="","",
@@ -7269,25 +7269,25 @@
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" ref="K11" si="153">IF(K9="","",
 IF(K9="N","N",
 IF(COUNTIF(G10:J10,"W")&gt;=2,K9,
 IF(COUNTIF(G10:J10,"W")&lt;2,IF(K9="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L11" s="17" t="str">
         <f t="shared" ref="L11" si="154">IF(L9="","",
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
@@ -7747,7 +7747,7 @@
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
@@ -7759,7 +7759,7 @@
         <f t="shared" ref="J12" si="221">IF(J$2="","",
 IF(J11="N","N",
 IF(J$2=J11,"W","L")))</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" ref="K12" si="222">IF(K$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9384270E-7D80-4756-9167-37386744F240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76C6F8-E877-4538-ABA8-5C7003AA24E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,12 +130,6 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1297,39 +1291,17 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1393,18 +1365,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11">
+      <c r="BX3" s="11" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>5</v>
-      </c>
-      <c r="BY3" s="12">
+        <v/>
+      </c>
+      <c r="BY3" s="12" t="str">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13">
+      <c r="CA3" s="13" t="str">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v>11</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2242,47 +2214,47 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!C11="","",AI!C11)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!D11="","",AI!D11)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!E11="","",AI!E11)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!F11="","",AI!F11)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!G11="","",AI!G11)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!H11="","",AI!H11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
@@ -2861,47 +2833,47 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!B12="","",AI!B12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!C12="","",AI!C12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!D12="","",AI!D12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!E12="","",AI!E12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!F12="","",AI!F12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!G12="","",AI!G12)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!J12="","",AI!J12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
@@ -3155,18 +3127,18 @@
         <f>IF(AI!BW12="","",AI!BW12)</f>
         <v/>
       </c>
-      <c r="BX16" s="11">
+      <c r="BX16" s="11" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>2</v>
-      </c>
-      <c r="BY16" s="12">
+        <v/>
+      </c>
+      <c r="BY16" s="12" t="str">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13">
+      <c r="CA16" s="13" t="str">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-1</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4359,47 +4331,47 @@
       </c>
       <c r="B2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4647,51 +4619,51 @@
       </c>
       <c r="C3" s="15" t="str">
         <f>IF(B2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F3" s="15" t="str">
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
 IF(AND(C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(C2=D2,F2,IF(F2="P","B","P"))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4936,49 +4908,49 @@
         <f>IF(B$2="","",
 IF(B3="N","N",
 IF(B$2=B3,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C4" s="15" t="str">
         <f t="shared" ref="C4:BN4" si="2">IF(C$2="","",
 IF(C3="N","N",
 IF(C$2=C3,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5229,56 +5201,56 @@
       </c>
       <c r="C5" s="15" t="str">
         <f t="shared" ref="C5:G5" si="4">IF(C3="","","N")</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H5" s="17" t="str">
         <f t="shared" ref="H5:K5" si="5">IF(H3="","",
 IF(H3="N","N",
 IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
 IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L5" s="17" t="str">
         <f>IF(L3="","",
 IF(L3="N","N",
 IF(COUNTIF(H4:K4,"W")&gt;=2,L3,
 IF(COUNTIF(H4:K4,"W")&lt;2,IF(L3="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="M5" s="17" t="str">
         <f t="shared" ref="M5:BS5" si="6">IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5521,49 +5493,49 @@
         <f>IF(B$2="","",
 IF(B5="N","N",
 IF(B$2=B5,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C6" s="15" t="str">
         <f t="shared" ref="C6:BN6" si="7">IF(C$2="","",
 IF(C5="N","N",
 IF(C$2=C5,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v/>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5816,53 +5788,53 @@
       </c>
       <c r="C7" s="15" t="str">
         <f t="shared" ref="C7:H7" si="10">IF(C5="","",C5)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I7" s="17" t="str">
         <f>IF(I5="","",
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
 IF(J5="N","N",
 IF(I6="W",J5,
 IF(I6="L",IF(J5="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6105,67 +6077,67 @@
         <f>IF(B$2="","",
 IF(B7="N","N",
 IF(B$2=B7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C8" s="15" t="str">
         <f t="shared" ref="C8" si="12">IF(C$2="","",
 IF(C7="N","N",
 IF(C$2=C7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D8" s="15" t="str">
         <f t="shared" ref="D8" si="13">IF(D$2="","",
 IF(D7="N","N",
 IF(D$2=D7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E8" s="15" t="str">
         <f t="shared" ref="E8" si="14">IF(E$2="","",
 IF(E7="N","N",
 IF(E$2=E7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F8" s="15" t="str">
         <f t="shared" ref="F8" si="15">IF(F$2="","",
 IF(F7="N","N",
 IF(F$2=F7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G8" s="15" t="str">
         <f t="shared" ref="G8" si="16">IF(G$2="","",
 IF(G7="N","N",
 IF(G$2=G7,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H8" s="15" t="str">
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
 IF(I7="N","N",
 IF(I$2=I7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" ref="J8" si="19">IF(J$2="","",
 IF(J7="N","N",
 IF(J$2=J7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" ref="K8" si="20">IF(K$2="","",
 IF(K7="N","N",
 IF(K$2=K7,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" ref="L8" si="21">IF(L$2="","",
 IF(L7="N","N",
 IF(L$2=L7,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" ref="M8" si="22">IF(M$2="","",
@@ -6532,50 +6504,50 @@
       </c>
       <c r="C9" s="15" t="str">
         <f t="shared" ref="C9:I9" si="81">IF(C7="","",C7)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J9" s="17" t="str">
         <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
 IF(J7="N","N",
 IF(I8="W",J7,
 IF(I8="L",IF(J7="P","B","P")))))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6818,67 +6790,67 @@
         <f>IF(B$2="","",
 IF(B9="N","N",
 IF(B$2=B9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C10" s="15" t="str">
         <f t="shared" ref="C10" si="83">IF(C$2="","",
 IF(C9="N","N",
 IF(C$2=C9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" ref="D10" si="84">IF(D$2="","",
 IF(D9="N","N",
 IF(D$2=D9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E10" s="15" t="str">
         <f t="shared" ref="E10" si="85">IF(E$2="","",
 IF(E9="N","N",
 IF(E$2=E9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F10" s="15" t="str">
         <f t="shared" ref="F10" si="86">IF(F$2="","",
 IF(F9="N","N",
 IF(F$2=F9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G10" s="15" t="str">
         <f t="shared" ref="G10" si="87">IF(G$2="","",
 IF(G9="N","N",
 IF(G$2=G9,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H10" s="15" t="str">
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
 IF(I9="N","N",
 IF(I$2=I9,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="J10" s="15" t="str">
         <f t="shared" ref="J10" si="90">IF(J$2="","",
 IF(J9="N","N",
 IF(J$2=J9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" ref="K10" si="91">IF(K$2="","",
 IF(K9="N","N",
 IF(K$2=K9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L10" s="15" t="str">
         <f t="shared" ref="L10" si="92">IF(L$2="","",
 IF(L9="N","N",
 IF(L$2=L9,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M10" s="15" t="str">
         <f t="shared" ref="M10" si="93">IF(M$2="","",
@@ -7245,56 +7217,56 @@
       </c>
       <c r="C11" s="15" t="str">
         <f t="shared" ref="C11:J11" si="152">IF(C9="","",C9)</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" ref="K11" si="153">IF(K9="","",
 IF(K9="N","N",
 IF(COUNTIF(G10:J10,"W")&gt;=2,K9,
 IF(COUNTIF(G10:J10,"W")&lt;2,IF(K9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="L11" s="17" t="str">
         <f t="shared" ref="L11" si="154">IF(L9="","",
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
 IF(M9="N","N",
 IF(COUNTIF(I10:L10,"W")&gt;=2,M9,
 IF(COUNTIF(I10:L10,"W")&lt;2,IF(M9="P","B","P")))))</f>
-        <v>P</v>
+        <v/>
       </c>
       <c r="N11" s="17" t="str">
         <f t="shared" ref="N11" si="156">IF(N9="","",
@@ -7711,67 +7683,67 @@
         <f>IF(B$2="","",
 IF(B11="N","N",
 IF(B$2=B11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="C12" s="15" t="str">
         <f t="shared" ref="C12" si="214">IF(C$2="","",
 IF(C11="N","N",
 IF(C$2=C11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" ref="D12" si="215">IF(D$2="","",
 IF(D11="N","N",
 IF(D$2=D11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="E12" s="15" t="str">
         <f t="shared" ref="E12" si="216">IF(E$2="","",
 IF(E11="N","N",
 IF(E$2=E11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="F12" s="15" t="str">
         <f t="shared" ref="F12" si="217">IF(F$2="","",
 IF(F11="N","N",
 IF(F$2=F11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="G12" s="15" t="str">
         <f t="shared" ref="G12" si="218">IF(G$2="","",
 IF(G11="N","N",
 IF(G$2=G11,"W","L")))</f>
-        <v>N</v>
+        <v/>
       </c>
       <c r="H12" s="15" t="str">
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
 IF(I11="N","N",
 IF(I$2=I11,"W","L")))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" ref="J12" si="221">IF(J$2="","",
 IF(J11="N","N",
 IF(J$2=J11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",
 IF(L11="N","N",
 IF(L$2=L11,"W","L")))</f>
-        <v>L</v>
+        <v/>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" ref="M12" si="224">IF(M$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76C6F8-E877-4538-ABA8-5C7003AA24E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28CE351-A5D3-4812-B3F0-12E914DB9267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28CE351-A5D3-4812-B3F0-12E914DB9267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6129193-1E78-4A9E-A7A7-9804328AEE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6129193-1E78-4A9E-A7A7-9804328AEE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862EE90-BD33-4C94-B649-688460F81DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862EE90-BD33-4C94-B649-688460F81DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5076F2-D9E8-42A6-AFAE-7824C68D0538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5076F2-D9E8-42A6-AFAE-7824C68D0538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9C86FA-D332-43DA-A23D-4D0289B64134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9C86FA-D332-43DA-A23D-4D0289B64134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0CC885-1B7D-46BA-B8B2-51A863AC4AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0CC885-1B7D-46BA-B8B2-51A863AC4AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7371D-5B4D-4057-8865-3AF1B7100DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="14">
   <si>
     <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,6 +130,12 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1291,17 +1297,39 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1365,18 +1393,18 @@
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
       <c r="BW3" s="7"/>
-      <c r="BX3" s="11" t="str">
+      <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v/>
-      </c>
-      <c r="BY3" s="12" t="str">
+        <v>4</v>
+      </c>
+      <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="BZ3" s="12"/>
-      <c r="CA3" s="13" t="str">
+      <c r="CA3" s="13">
         <f>IF(B3="","",BX3+BY3)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="17.25" thickBot="1">
@@ -2214,47 +2242,47 @@
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(AI!C11="","",AI!C11)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IF(AI!D11="","",AI!D11)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>IF(AI!E11="","",AI!E11)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(AI!F11="","",AI!F11)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G12" s="2" t="str">
         <f>IF(AI!G11="","",AI!G11)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H12" s="2" t="str">
         <f>IF(AI!H11="","",AI!H11)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
@@ -2833,47 +2861,47 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(AI!B12="","",AI!B12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(AI!C12="","",AI!C12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(AI!D12="","",AI!D12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>IF(AI!E12="","",AI!E12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(AI!F12="","",AI!F12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G16" s="2" t="str">
         <f>IF(AI!G12="","",AI!G12)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>IF(AI!J12="","",AI!J12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K16" s="2" t="str">
         <f>IF(AI!K12="","",AI!K12)</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
@@ -3127,18 +3155,18 @@
         <f>IF(AI!BW12="","",AI!BW12)</f>
         <v/>
       </c>
-      <c r="BX16" s="11" t="str">
+      <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v/>
-      </c>
-      <c r="BY16" s="12" t="str">
+        <v>1</v>
+      </c>
+      <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="BZ16" s="12"/>
-      <c r="CA16" s="13" t="str">
+      <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v/>
+        <v>-3</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4331,47 +4359,47 @@
       </c>
       <c r="B2" s="15" t="str">
         <f>IF(DATA!B3="","",DATA!B3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="C2" s="15" t="str">
         <f>IF(DATA!C3="","",DATA!C3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L2" s="15" t="str">
         <f>IF(DATA!L3="","",DATA!L3)</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M2" s="15" t="str">
         <f>IF(DATA!M3="","",DATA!M3)</f>
@@ -4619,51 +4647,51 @@
       </c>
       <c r="C3" s="15" t="str">
         <f>IF(B2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D3" s="15" t="str">
         <f>IF(C2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E3" s="15" t="str">
         <f>IF(D2="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F3" s="15" t="str">
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
 IF(AND(C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(C2=D2,F2,IF(F2="P","B","P"))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4908,49 +4936,49 @@
         <f>IF(B$2="","",
 IF(B3="N","N",
 IF(B$2=B3,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C4" s="15" t="str">
         <f t="shared" ref="C4:BN4" si="2">IF(C$2="","",
 IF(C3="N","N",
 IF(C$2=C3,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="H4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5201,56 +5229,56 @@
       </c>
       <c r="C5" s="15" t="str">
         <f t="shared" ref="C5:G5" si="4">IF(C3="","","N")</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G5" s="15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H5" s="17" t="str">
         <f t="shared" ref="H5:K5" si="5">IF(H3="","",
 IF(H3="N","N",
 IF(COUNTIF(D4:G4,"W")&gt;=2,H3,
 IF(COUNTIF(D4:G4,"W")&lt;2,IF(H3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="I5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="J5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L5" s="17" t="str">
         <f>IF(L3="","",
 IF(L3="N","N",
 IF(COUNTIF(H4:K4,"W")&gt;=2,L3,
 IF(COUNTIF(H4:K4,"W")&lt;2,IF(L3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M5" s="17" t="str">
         <f t="shared" ref="M5:BS5" si="6">IF(M3="","",
 IF(M3="N","N",
 IF(COUNTIF(I4:L4,"W")&gt;=2,M3,
 IF(COUNTIF(I4:L4,"W")&lt;2,IF(M3="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" si="6"/>
@@ -5493,49 +5521,49 @@
         <f>IF(B$2="","",
 IF(B5="N","N",
 IF(B$2=B5,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C6" s="15" t="str">
         <f t="shared" ref="C6:BN6" si="7">IF(C$2="","",
 IF(C5="N","N",
 IF(C$2=C5,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5788,53 +5816,53 @@
       </c>
       <c r="C7" s="15" t="str">
         <f t="shared" ref="C7:H7" si="10">IF(C5="","",C5)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H7" s="15" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="I7" s="17" t="str">
         <f>IF(I5="","",
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
 IF(J5="N","N",
 IF(I6="W",J5,
 IF(I6="L",IF(J5="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6077,67 +6105,67 @@
         <f>IF(B$2="","",
 IF(B7="N","N",
 IF(B$2=B7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C8" s="15" t="str">
         <f t="shared" ref="C8" si="12">IF(C$2="","",
 IF(C7="N","N",
 IF(C$2=C7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D8" s="15" t="str">
         <f t="shared" ref="D8" si="13">IF(D$2="","",
 IF(D7="N","N",
 IF(D$2=D7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E8" s="15" t="str">
         <f t="shared" ref="E8" si="14">IF(E$2="","",
 IF(E7="N","N",
 IF(E$2=E7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F8" s="15" t="str">
         <f t="shared" ref="F8" si="15">IF(F$2="","",
 IF(F7="N","N",
 IF(F$2=F7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G8" s="15" t="str">
         <f t="shared" ref="G8" si="16">IF(G$2="","",
 IF(G7="N","N",
 IF(G$2=G7,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H8" s="15" t="str">
         <f t="shared" ref="H8" si="17">IF(H$2="","",
 IF(H7="N","N",
 IF(H$2=H7,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ref="I8" si="18">IF(I$2="","",
 IF(I7="N","N",
 IF(I$2=I7,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J8" s="15" t="str">
         <f t="shared" ref="J8" si="19">IF(J$2="","",
 IF(J7="N","N",
 IF(J$2=J7,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="K8" s="15" t="str">
         <f t="shared" ref="K8" si="20">IF(K$2="","",
 IF(K7="N","N",
 IF(K$2=K7,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L8" s="15" t="str">
         <f t="shared" ref="L8" si="21">IF(L$2="","",
 IF(L7="N","N",
 IF(L$2=L7,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M8" s="15" t="str">
         <f t="shared" ref="M8" si="22">IF(M$2="","",
@@ -6504,50 +6532,50 @@
       </c>
       <c r="C9" s="15" t="str">
         <f t="shared" ref="C9:I9" si="81">IF(C7="","",C7)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="81"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J9" s="17" t="str">
         <f t="shared" ref="J9:BS9" si="82">IF(J7="","",
 IF(J7="N","N",
 IF(I8="W",J7,
 IF(I8="L",IF(J7="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="L9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="M9" s="17" t="str">
         <f t="shared" si="82"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="N9" s="17" t="str">
         <f t="shared" si="82"/>
@@ -6790,67 +6818,67 @@
         <f>IF(B$2="","",
 IF(B9="N","N",
 IF(B$2=B9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C10" s="15" t="str">
         <f t="shared" ref="C10" si="83">IF(C$2="","",
 IF(C9="N","N",
 IF(C$2=C9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D10" s="15" t="str">
         <f t="shared" ref="D10" si="84">IF(D$2="","",
 IF(D9="N","N",
 IF(D$2=D9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E10" s="15" t="str">
         <f t="shared" ref="E10" si="85">IF(E$2="","",
 IF(E9="N","N",
 IF(E$2=E9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F10" s="15" t="str">
         <f t="shared" ref="F10" si="86">IF(F$2="","",
 IF(F9="N","N",
 IF(F$2=F9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G10" s="15" t="str">
         <f t="shared" ref="G10" si="87">IF(G$2="","",
 IF(G9="N","N",
 IF(G$2=G9,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H10" s="15" t="str">
         <f t="shared" ref="H10" si="88">IF(H$2="","",
 IF(H9="N","N",
 IF(H$2=H9,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I10" s="15" t="str">
         <f t="shared" ref="I10" si="89">IF(I$2="","",
 IF(I9="N","N",
 IF(I$2=I9,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J10" s="15" t="str">
         <f t="shared" ref="J10" si="90">IF(J$2="","",
 IF(J9="N","N",
 IF(J$2=J9,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K10" s="15" t="str">
         <f t="shared" ref="K10" si="91">IF(K$2="","",
 IF(K9="N","N",
 IF(K$2=K9,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="L10" s="15" t="str">
         <f t="shared" ref="L10" si="92">IF(L$2="","",
 IF(L9="N","N",
 IF(L$2=L9,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="M10" s="15" t="str">
         <f t="shared" ref="M10" si="93">IF(M$2="","",
@@ -7217,56 +7245,56 @@
       </c>
       <c r="C11" s="15" t="str">
         <f t="shared" ref="C11:J11" si="152">IF(C9="","",C9)</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>B</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="J11" s="15" t="str">
         <f t="shared" si="152"/>
-        <v/>
+        <v>P</v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" ref="K11" si="153">IF(K9="","",
 IF(K9="N","N",
 IF(COUNTIF(G10:J10,"W")&gt;=2,K9,
 IF(COUNTIF(G10:J10,"W")&lt;2,IF(K9="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="L11" s="17" t="str">
         <f t="shared" ref="L11" si="154">IF(L9="","",
 IF(L9="N","N",
 IF(COUNTIF(H10:K10,"W")&gt;=2,L9,
 IF(COUNTIF(H10:K10,"W")&lt;2,IF(L9="P","B","P")))))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="M11" s="17" t="str">
         <f t="shared" ref="M11" si="155">IF(M9="","",
 IF(M9="N","N",
 IF(COUNTIF(I10:L10,"W")&gt;=2,M9,
 IF(COUNTIF(I10:L10,"W")&lt;2,IF(M9="P","B","P")))))</f>
-        <v/>
+        <v>B</v>
       </c>
       <c r="N11" s="17" t="str">
         <f t="shared" ref="N11" si="156">IF(N9="","",
@@ -7683,67 +7711,67 @@
         <f>IF(B$2="","",
 IF(B11="N","N",
 IF(B$2=B11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="C12" s="15" t="str">
         <f t="shared" ref="C12" si="214">IF(C$2="","",
 IF(C11="N","N",
 IF(C$2=C11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="D12" s="15" t="str">
         <f t="shared" ref="D12" si="215">IF(D$2="","",
 IF(D11="N","N",
 IF(D$2=D11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="E12" s="15" t="str">
         <f t="shared" ref="E12" si="216">IF(E$2="","",
 IF(E11="N","N",
 IF(E$2=E11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="F12" s="15" t="str">
         <f t="shared" ref="F12" si="217">IF(F$2="","",
 IF(F11="N","N",
 IF(F$2=F11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="G12" s="15" t="str">
         <f t="shared" ref="G12" si="218">IF(G$2="","",
 IF(G11="N","N",
 IF(G$2=G11,"W","L")))</f>
-        <v/>
+        <v>N</v>
       </c>
       <c r="H12" s="15" t="str">
         <f t="shared" ref="H12" si="219">IF(H$2="","",
 IF(H11="N","N",
 IF(H$2=H11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ref="I12" si="220">IF(I$2="","",
 IF(I11="N","N",
 IF(I$2=I11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="J12" s="15" t="str">
         <f t="shared" ref="J12" si="221">IF(J$2="","",
 IF(J11="N","N",
 IF(J$2=J11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="K12" s="15" t="str">
         <f t="shared" ref="K12" si="222">IF(K$2="","",
 IF(K11="N","N",
 IF(K$2=K11,"W","L")))</f>
-        <v/>
+        <v>W</v>
       </c>
       <c r="L12" s="15" t="str">
         <f t="shared" ref="L12" si="223">IF(L$2="","",
 IF(L11="N","N",
 IF(L$2=L11,"W","L")))</f>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M12" s="15" t="str">
         <f t="shared" ref="M12" si="224">IF(M$2="","",

--- a/AUTO.xlsx
+++ b/AUTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\holdem-auto-trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corea\Desktop\holdem-auto-trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7371D-5B4D-4057-8865-3AF1B7100DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4D88EA-D764-485B-A837-9113219E77DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{AB34D403-B5C5-434B-8E46-EDEFA1840EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1304,25 +1304,25 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>12</v>
@@ -1395,11 +1395,11 @@
       <c r="BW3" s="7"/>
       <c r="BX3" s="11">
         <f>IF(B3="","",COUNTIF(B3:BW3,"P"))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BY3" s="12">
         <f>IF(B3="","",COUNTIF(B3:BW3,"B"))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BZ3" s="12"/>
       <c r="CA3" s="13">
@@ -2266,11 +2266,11 @@
       </c>
       <c r="I12" s="2" t="str">
         <f>IF(AI!I11="","",AI!I11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J12" s="2" t="str">
         <f>IF(AI!J11="","",AI!J11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(AI!K11="","",AI!K11)</f>
@@ -2278,11 +2278,11 @@
       </c>
       <c r="L12" s="2" t="str">
         <f>IF(AI!L11="","",AI!L11)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>IF(AI!M11="","",AI!M11)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>IF(AI!N11="","",AI!N11)</f>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f>IF(AI!H12="","",AI!H12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>IF(AI!I12="","",AI!I12)</f>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f>IF(AI!L12="","",AI!L12)</f>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>IF(AI!M12="","",AI!M12)</f>
@@ -3157,16 +3157,16 @@
       </c>
       <c r="BX16" s="11">
         <f>IF(B16="","",COUNTIF(B16:BW16,"W"))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY16" s="12">
         <f>IF(B16="","",COUNTIF(B16:BW16,"L"))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="12"/>
       <c r="CA16" s="13">
         <f>IF(B16="","",BX16-BY16)</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="17.25" thickBot="1">
@@ -4367,11 +4367,11 @@
       </c>
       <c r="D2" s="15" t="str">
         <f>IF(DATA!D3="","",DATA!D3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="E2" s="15" t="str">
         <f>IF(DATA!E3="","",DATA!E3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>IF(DATA!F3="","",DATA!F3)</f>
@@ -4379,19 +4379,19 @@
       </c>
       <c r="G2" s="15" t="str">
         <f>IF(DATA!G3="","",DATA!G3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H2" s="15" t="str">
         <f>IF(DATA!H3="","",DATA!H3)</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>IF(DATA!I3="","",DATA!I3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>IF(DATA!J3="","",DATA!J3)</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K2" s="15" t="str">
         <f>IF(DATA!K3="","",DATA!K3)</f>
@@ -4661,17 +4661,17 @@
         <f>IF(E2="","",
 IF(AND(B2&lt;&gt;C2,C2=D2),IF(B2=C2,E2,IF(B2&lt;&gt;C2,IF(E2="P","B","P"))),
 IF(B2=C2,E2,IF(E2="P","B","P"))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="G3" s="15" t="str">
         <f t="shared" ref="G3:BR3" si="0">IF(F2="","",
 IF(AND(C2&lt;&gt;D2,D2=E2),IF(C2=D2,F2,IF(C2&lt;&gt;D2,IF(F2="P","B","P"))),
 IF(C2=D2,F2,IF(F2="P","B","P"))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="H3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="K3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L3" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="F4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="G4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4966,15 +4966,15 @@
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K4" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L4" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="L5" s="17" t="str">
         <f>IF(L3="","",
@@ -5547,19 +5547,19 @@
       </c>
       <c r="H6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="I6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="J6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="K6" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>L</v>
+        <v>W</v>
       </c>
       <c r="L6" s="15" t="str">
         <f t="shared" si="7"/>
@@ -5843,14 +5843,14 @@
 IF(I5="N","N",
 IF(H6="W",I5,
 IF(H6="L",IF(I5="P","B","P")))))</f>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="J7" s="17" t="str">
         <f t="shared" ref="J7:BS7" si="11">IF(J5="","",
 IF(J5="N","N",
 IF(I6="W",J5,
 IF(I6="L",IF(J5="P","B","P")))))</f>
-        <v>B</v>
+        <v>P</v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="L7" s="17" t="str">
         <f t="shared" si="11"/>
-        <v>P</v>
+        <v>B</v>
       </c>
       <c r="M7" s="17" t="str">
         <f t="shared" si="11"/>
@@ -6141,7 +6141,7 @@
         <f t="shared" ref